--- a/dynamic_datasets/articles_excel.xlsx
+++ b/dynamic_datasets/articles_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,17 +588,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kilpakumppani vertaa Iivo Niskasen toimintaa Aleksandr Bolshunovin törkytemppuun  – Suomen ykköstähti kiistää</t>
+          <t>Kaupat rakentavat myymälöistään labyrintteja – tutkija: ”Tyhjin käsin lähteminen on tällaiselle kaupalle iso epäon­nis­tu­minen”</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20076345</t>
+          <t>https://yle.fi/a/74-20073935</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25.02.2024</t>
+          <t>28.02.2024</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -608,12 +608,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kalle Parantaisen ja Iivo Niskanen yhteenotto Puijon Suomen Cupissa puhuttaa.</t>
+          <t>Sokkeloiset kaupat ovat vastaus asiakkaan vaatimuksiin elämyksellisemmästä shoppailusta. Sokkelo lisää heräteostoksia, millä vastataan verkkokaupan ja ylläpitokustannusten kasvuun.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hiihdon Suomen cupissa Kuopiossa kuohahti sunnuntain viestissä. Taustalla olivat viimeisen nousun tapahtumat.Puijon Hiihtoseuraa edustavaa Iivo Niskanen kertoi tuoreeltaan Ylen tv-haastattelussa, että Kuusamon Erä-Veikkojen Kalle Parantainen oli kiilannut hänen eteensä viimeisen kierroksen nousussa.– Kuusamon mies hyppäsi eteen ja alkoi kiilata minua vasemmalle. Tiesin, että siinä oli pehmeää ja siihen meni sauva ja jäin jonon perälle, Niskanen avasi.Niskasen kävi kisan jälkeen antamassa kipakkaa palautetta Kalle Parantaiselle.– Ei siinä mitään. Paikkaa pitää puolustaa, mutta ei tarvitse suksille hypätä, Niskanen kuvaili.Kalle Parantainen selvitti tilannetta Yle Urheilulle puhelimitse sunnuntai-iltana.– Iivolla meni tunteisiin, kun en antanut latua. Ei viestihiihdossa minun kuulukaan antaa. Mäen päällä Iivo potkaisi minua suksella. Iivolla meni kuppi nurin. Hän alkoi haukkua minua ja alkoi huudella sitä sun tätä, Parantainen kertoi tapahtumista ladulla.Tässä kohuttu tilanne Ylen tv-kuvista. Niskanen ja Parantainen vasemmalla alhaalla kuvissa.Parantainen toi Kuusamon Erä-Veikot maaliin kuudentena 14,4 sekuntia voittajaa Jämin Jännettä perässä. Niskanen oli mukana loppukiritaistossa ja toi Puijon Hiihtoseuran maaliin kolmantena. Jämin Jänteen ja Puijon Hiihtoseuran väliin ehti Imatran Urheilijat.– Tulen maaliin, Iivo on maassa. Otan sukset pois. Iivo lähtee kävelemään todella aggressiivisesti minua kohti. Hän tulee ihan iholle. Työnnän hänet pois siitä. Sama käytös jatkuu Iivolla loppuverryttelyn aikana. Iivo tuli haukkumaan, mitä v***** hypin suksien päälle. Totesin vain, että viestihiihto on viestihiihtoa. Siinä ei tarvitse latua antaa, Parantainen kuvaili.Iltalehden haastatttelussa Parantainen kertoi, että hänellä on verinen jälki oikeassa sääressä. Hän uskoi, että jalkaan tulee mustelma.Iivo Niskanen ja Kalle Parantainen kävivät jälkipyykkiä viestin jälkeen maalialueella Parantainen vertasi Ylelle Iivo Niskasen toimintaa siihen, kuinka Aleksandr Bolshunov taklasi Salpausselän vuoden 2021 maailmancup-viestin jälkeen Joni Mäkeä selästä päin. Bolshunov oli sitä ennen yrittänyt sohia Mäkeä sauvalla.– Kun Bolshunov huitoi Joni Mäkeä sauvalla, siitä tuli hirveä paskamyrsky. En tiedä, miksi hiihtokansa oikeuttaa Iivolle samanlaisen käytöksen, Parantainen sanoi.24-vuotiaan Parantaisen mukaan Puijon Hiihtoseura pitäisi hylätä Venäjän tapaan.– Jos ollaan tasa-arvoisia, on ihan sama huitooko sauvalla vai suksella. Mielestäni pitäisi olla sama linja, on kuka tahansa urheilija siinä, Parantainen sanoi.Parantaisen mukaan hänellä ei toiminut suksi kilpailussa ja siksi hänen piti mennä nousu ladun vierestä.Niskanen kiisti Ilta-Sanomille, että olisi tahallisesti potkaissut Parantaista.– Olemme molemmat kiivaita kilpailijoita, ja maalialueella kerroin kyllä mielipiteeni kisatilanteesta Kallelle. Olen yrittänyt tavoitella häntä ja käydä koko tilanteen läpi sekä pahoitella omasta puolestani kiivastumista, mutta hän ei ole vastannut yhteydenottoihin, Niskanen kertoi henkilökohtaisen Instagram-tilinsä tarinaosiossa.TD: Niskaselle ja Parantaiselle suullinen huomatusPuijon Suomen Cupin td:n, teknisen asiantuntijan, Arto Tillin mukaan hänellä käytössä olevista tv-kuvista ja videomaterialista ei käy tarkasti ilmi, mitä on käynyt. TD on eräänlainen hiihdon tuomarin ja konsultin risteytys, kisojen ulkopuolinen tarkkailija.– Dronekuvattu video on sen verran kaukaa, että sen perusteella ei voi antaa lausuntoja, jossa joku olisi tehnyt sitä tai tätä, Tilli kuvaili.Tillin mukaan hän on antanut Niskaselle sekä Parantaiselle suullisen huomautuksen epäurheiljiamaisesta käytöksestä.– Maaliintulossa varmaan hermot ovat olleet vähän tiukalla ja siinä on vähän nokiteltu,Tilli sanoo.Hän ei ollut vielä jutellut Parantaisen kanssa ennen Ylen puhelinsoittoa.– Toivon, että asia etenee niin, että herrat soittavat toisilleen ja sopivat asian. Jos ei uutta paljastu, tässä ei ole isoja draamaan aineksia tulossa enää, Tilli sanoi.Myöhemmin Tilli kertoi olleensa yhteyksissä Parantaiseen. Parantainen oli laittanut kuvan säärestä, missä on vähän verta ja naarmu.– Iivo on takana, kun tekee potkuliikettä. En ymmärrä, miten silloin pystyisi tekemään mitään etupuolelle sääreen. Tarvitaan kiistaton näyttö. Kalle sanoi, että Iivo potkaisi. Iivo sanoi, että hän kolautti suksille, Tilli sanoi ja näki edelleen lopullisena sanktiona suullisen huomautuksen.</t>
+          <t>”Tuote löytyy helposti, kun on käveltävä koko kaupan läpi.””Onhan siinä se idea, että mahdollisimman paljon rohmuaisi mukaan.””Se on hyvä konsepti kaupalle, varmaan profittia tulee.”Näin ajattelevat sokkeloisen kaupan asiakkaat.Sokkeloiset kauppaketjut ovat rantautuneet Suomeen erityisesti muista pohjoismaista. Ketjut hyödyntävät myymäläasettelua, jossa asiakas kävelee ennalta määrätyn polun läpi aina ovelta kassalle saakka.Sokkelot ovat tarkkaan harkittua myymäläsuunnittelua. Selvitimme, miksi niitä käytetään yhä useammin.Voit katsoa jutun pääpointit myös toimittaja Antti Kurran videolta.Sokkelokauppoja on kahta koulukuntaa.Ensimmäisessä ennalta määritelty asiakaspolku on tarkka ja siitä poikkeaminen voi olla hankalaa. Sellaisia ovat esimerkiksi Normal, Ikea ja Flying Tiger.Toisen koulukunnan sokkelo on avoimempi. Polku on vähemmän johdatteleva ja poistumisreittejä on useampi. Tällaisia ovat esimerkiksi XXL ja Clas Ohlson.1. Shoppailijat vaativat elämyksellisyyttäSokkeloisia kauppoja nähdään, koska kuluttajat yksinkertaisesti haluavat käydä niissä. Näin sanoo Tampereen yliopiston markkinoinnin yliopistonlehtori Mika Yrjölä.Nettishoppailu on vähentänyt tarvetta käydä kaupoissa. Silloin, kun myymälöissä käydään, niiden pitää Yrjölän mukaan tuoda arvoa asiakkaalle.– Löytöjen tekeminen ja jakaminen korostuvat eli mukaan tulee sosiaalinen puoli.Kaupoilta odotetaan entistä enemmän elämyksellisyyttä, vahvistaa tutkija Essi Pöyry Helsingin yliopiston Kuluttajatutkimuskeskuksesta. Asiakaspolkua ohjaava konsepti on auttanut pohjoismaisia liikkeitä menestymään myös Suomessa.– Kaupoille meno on ajanvietettä ja hauskaa. Sokkelomaisuus ja löytämisen riemu tekevät kivijalasta kiinnostavan.Videolla Flying Tigerin asiakkaat kertovat, mitä ajattelevat sokkeloisista kaupoista.Löytämisen ilolla on myös kauppoja hyödyttävä etu: heräteostokset. Erityisesti ensimmäisen koulukunnan sokkelokaupoissa ideana on saada mahdollisimman monta tuotetta asiakaspolulle.Sokkelossa ajan ja paikan taju unohtuvat helposti.– Kun on mahdollista nähdä kaupan jokainen tuote, ostoimpulsseja tulee paljon. Väkisinkin kertaostosten määrä nousee, Mika Yrjölä sanoo.Ikeassa labyrinttikäytäntö vakiintui tavarataloihin jo 60-luvulla.Ikea Suomen myymäläsuunnittelusta vastaava Marjut Nyberg sanoo, että idean taustalla oli varmistaa, asiakas kohtaa koko malliston kulkiessaan tavaratalon läpi.Avaa kuvien katseluNormalissa ja Flying Tigerissa asiakas kohtaa kaupan kaikki tuotteet. Kuva: Matias Väänänen / YleToisen koulukunnan kaupoissa halutaan puolestaan helpottaa niiden asiakkaiden asiointia, joilla on mielessään jokin tietty tuote. Polulta poikkeaminen on helpompaa.Sokkelon avulla asiakkaan on helpompi tutustua kaupan valikoimaan, mutta samalla avoimuus mahdollistaa nopean asioinnin, sanoo Clas Ohlsonin ruotsalainen myymäläkonseptisuunnittelija Lina Broman.Tarkka asiakaspolun suunnittelu näkyy myös perinteisessä ruokakaupassa. Maitohylly sijoitetaan usein perimmäiseksi siksi, että siellä asiakas todennäköisesti vierailee. Matka maitohyllylle sisältää paljon tuotteita, jotka saattavat tarttua asiakkaan matkaan heräteostoksena.2. Kiireen tunne johtaa ostopäätökseenOsa sokkelokaupoista satsaa nopeasti vaihtuvaan valikoimaan. Kiireen tuntu voi saada asiakkaan toimimaan nopeammin.– Asiakkaalle tulee tunne, että jos en nyt osta, ensi kerralla tuotetta ei ehkä enää ole. Se, että valikoima vaihtuu usein, saa asiakkaan käymään kaupassa uudestaan, markkinoinnin yliopistonlehtori Mika Yrjölä sanoo.Kiireelliseen ostopäätökseen voi johtaa ahtaammissa sokkeloissa sekin, jos polulle hypisteltävän tuotteen taakse alkaa kertyä jonoa.Siinä korostuu Yrjölän mukaan ajatus, että ostopäätös on tehtävä nopeasti, koska peruuttaminen takaisin on vaivalloista.Avaa kuvien katseluTampereen yliopiston markkinoinnin yliopistonlehtorin Mika Yrjölän mukaan pohjoismaiset kuluttajat haluavat käydä sokkeloisissa kaupoissa. Sen sijaan esimerkiksi Pohjois-Amerikassa asiakkaat kaipaavat leveitä käytäviä, nopeutta ja tehokkuutta kauppareissullaan. Kuva: Matias Väänänen / Yle3. Verkkokaupan kasvu vaatii kaupalta enemmänSokkeloisella myymäläkonseptilla vastataan osittain verkkokaupan sekä kauppojen ylläpidon kustannusten kasvuun, sanoo Tampereen yliopiston markkinoinnin professori Hannu Saarijärvi.Kun ihmiset siirtyvät verkkokauppoihin, kaupan ylläpitäminen vaatii keskimääräisten ostosmäärien kasvua, jotta toiminta on kannattavaa.– Kaupasta tyhjin käsin lähteminen on tällaiselle kaupalle iso epäonnistuminen, Saarijärvi sanoo.Kivijalkakaupan kallistuvat vuokraneliöt on saatava tuottamaan mahdollisimman tehokkaasti, sanoo Flying Tigerin Suomen maajohtaja Vadims Toropcins.Hän lisää, että sokkelon avulla on helpompi tunnistaa kaupan parhaiten tuottavat neliöt. Myös parhaiten myyvälle valikoimalle on helppoa varata lisää tilaa sellaisille alueille.Avaa kuvien katseluVaihtuvat valikoimat ja tarjoukset Flying Tigerissa luovat asiakkaalle tarpeen toimimiseen, jotta tuote ei jää ostamatta. Kuva: Matias Väänänen / YleMarjut Nyberg sanoo, että Ikean etu sokkelon hyödyntämisessä on ollut se, että tavaratalot ovat olleet aina suuria. Nyt konseptia näkee myös myymäläkooltaan pienemmissä kauppaketjuissa, kuten Normaleissa tai Flying Tigereissa.Konseptin hyödyntäminen pienessä myymälässä on mahdollistunut erityisesti sen vuoksi, että kauppojen asiakasmäärät ovat pienentyneet verkkokauppoihin siirtymisen vuoksi.</t>
         </is>
       </c>
     </row>
@@ -689,34 +689,104 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Kilpakumppani vertaa Iivo Niskasen toimintaa Aleksandr Bolshunovin törkytemppuun  – Suomen ykköstähti kiistää</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076345</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.02.2024</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kalle Parantaisen ja Iivo Niskanen yhteenotto Puijon Suomen Cupissa puhuttaa.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Hiihdon Suomen cupissa Kuopiossa kuohahti sunnuntain viestissä. Taustalla olivat viimeisen nousun tapahtumat.Puijon Hiihtoseuraa edustavaa Iivo Niskanen kertoi tuoreeltaan Ylen tv-haastattelussa, että Kuusamon Erä-Veikkojen Kalle Parantainen oli kiilannut hänen eteensä viimeisen kierroksen nousussa.– Kuusamon mies hyppäsi eteen ja alkoi kiilata minua vasemmalle. Tiesin, että siinä oli pehmeää ja siihen meni sauva ja jäin jonon perälle, Niskanen avasi.Niskasen kävi kisan jälkeen antamassa kipakkaa palautetta Kalle Parantaiselle.– Ei siinä mitään. Paikkaa pitää puolustaa, mutta ei tarvitse suksille hypätä, Niskanen kuvaili.Kalle Parantainen selvitti tilannetta Yle Urheilulle puhelimitse sunnuntai-iltana.– Iivolla meni tunteisiin, kun en antanut latua. Ei viestihiihdossa minun kuulukaan antaa. Mäen päällä Iivo potkaisi minua suksella. Iivolla meni kuppi nurin. Hän alkoi haukkua minua ja alkoi huudella sitä sun tätä, Parantainen kertoi tapahtumista ladulla.Tässä kohuttu tilanne Ylen tv-kuvista. Niskanen ja Parantainen vasemmalla alhaalla kuvissa.Parantainen toi Kuusamon Erä-Veikot maaliin kuudentena 14,4 sekuntia voittajaa Jämin Jännettä perässä. Niskanen oli mukana loppukiritaistossa ja toi Puijon Hiihtoseuran maaliin kolmantena. Jämin Jänteen ja Puijon Hiihtoseuran väliin ehti Imatran Urheilijat.– Tulen maaliin, Iivo on maassa. Otan sukset pois. Iivo lähtee kävelemään todella aggressiivisesti minua kohti. Hän tulee ihan iholle. Työnnän hänet pois siitä. Sama käytös jatkuu Iivolla loppuverryttelyn aikana. Iivo tuli haukkumaan, mitä v***** hypin suksien päälle. Totesin vain, että viestihiihto on viestihiihtoa. Siinä ei tarvitse latua antaa, Parantainen kuvaili.Iltalehden haastatttelussa Parantainen kertoi, että hänellä on verinen jälki oikeassa sääressä. Hän uskoi, että jalkaan tulee mustelma.Iivo Niskanen ja Kalle Parantainen kävivät jälkipyykkiä viestin jälkeen maalialueella Parantainen vertasi Ylelle Iivo Niskasen toimintaa siihen, kuinka Aleksandr Bolshunov taklasi Salpausselän vuoden 2021 maailmancup-viestin jälkeen Joni Mäkeä selästä päin. Bolshunov oli sitä ennen yrittänyt sohia Mäkeä sauvalla.– Kun Bolshunov huitoi Joni Mäkeä sauvalla, siitä tuli hirveä paskamyrsky. En tiedä, miksi hiihtokansa oikeuttaa Iivolle samanlaisen käytöksen, Parantainen sanoi.24-vuotiaan Parantaisen mukaan Puijon Hiihtoseura pitäisi hylätä Venäjän tapaan.– Jos ollaan tasa-arvoisia, on ihan sama huitooko sauvalla vai suksella. Mielestäni pitäisi olla sama linja, on kuka tahansa urheilija siinä, Parantainen sanoi.Parantaisen mukaan hänellä ei toiminut suksi kilpailussa ja siksi hänen piti mennä nousu ladun vierestä.Niskanen kiisti Ilta-Sanomille, että olisi tahallisesti potkaissut Parantaista.– Olemme molemmat kiivaita kilpailijoita, ja maalialueella kerroin kyllä mielipiteeni kisatilanteesta Kallelle. Olen yrittänyt tavoitella häntä ja käydä koko tilanteen läpi sekä pahoitella omasta puolestani kiivastumista, mutta hän ei ole vastannut yhteydenottoihin, Niskanen kertoi henkilökohtaisen Instagram-tilinsä tarinaosiossa.TD: Niskaselle ja Parantaiselle suullinen huomatusPuijon Suomen Cupin td:n, teknisen asiantuntijan, Arto Tillin mukaan hänellä käytössä olevista tv-kuvista ja videomaterialista ei käy tarkasti ilmi, mitä on käynyt. TD on eräänlainen hiihdon tuomarin ja konsultin risteytys, kisojen ulkopuolinen tarkkailija.– Dronekuvattu video on sen verran kaukaa, että sen perusteella ei voi antaa lausuntoja, jossa joku olisi tehnyt sitä tai tätä, Tilli kuvaili.Tillin mukaan hän on antanut Niskaselle sekä Parantaiselle suullisen huomautuksen epäurheiljiamaisesta käytöksestä.– Maaliintulossa varmaan hermot ovat olleet vähän tiukalla ja siinä on vähän nokiteltu,Tilli sanoo.Hän ei ollut vielä jutellut Parantaisen kanssa ennen Ylen puhelinsoittoa.– Toivon, että asia etenee niin, että herrat soittavat toisilleen ja sopivat asian. Jos ei uutta paljastu, tässä ei ole isoja draamaan aineksia tulossa enää, Tilli sanoi.Myöhemmin Tilli kertoi olleensa yhteyksissä Parantaiseen. Parantainen oli laittanut kuvan säärestä, missä on vähän verta ja naarmu.– Iivo on takana, kun tekee potkuliikettä. En ymmärrä, miten silloin pystyisi tekemään mitään etupuolelle sääreen. Tarvitaan kiistaton näyttö. Kalle sanoi, että Iivo potkaisi. Iivo sanoi, että hän kolautti suksille, Tilli sanoi ja näki edelleen lopullisena sanktiona suullisen huomautuksen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>3</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mika Lintilän puhelimesta lähetettiin meemikuva Marinista – näin viestittely eteni</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076685</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yle kävi läpi raportin keskusrikospoliisin teknisestä tutkimuksesta. Sen mukaan Lintilän puhelimeen ei ollut tunkeutunut kukaan ulkopuolinen eikä Lintilän Whatsapp-tiliä ollut myöskään rinnakkaiskäytetty. </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Keskusrikospoliisi on lopettanut entisen elinkeinoministerin, keskustan kansanedustaja Mika Lintilän puhelimeen kohdistuneen epäillyn tietomurron tutkinnan.Esitutkinnassa ei voitu osoittaa, että kukaan ulkopuolinen olisi tunkeutunut laitteeseen tai käyttänyt laitetta murtautumalla, kerrotaan Syyttäjälaitoksen tiedotteessa.Asiaa alettiin tutkia sen jälkeen, kun 9. helmikuuta 2023 Lintilän Whatsapp-viestisovelluksen tililtä oli lähetetty keskustalaisten Whatsapp-ryhmään silloiselle pääministeri Sanna Marinille (sd.) ja SDP:n kansanedustaja Matias Mäkyselle irvaileva meemikuva.Keskustan kansanedustaja Mikko Kärnä teki 10. helmikuuta 2023 sähköpostitse ilmoituksen Helsingin poliisilaitokselle mahdollisesta tietoturvaloukkauksesta. Kärnä ilmaisi huolensa eduskunnan laitteiden hakkeroinnista ja omasta tietoturvastaan.Lintilä sanoi itse tänään tiistaina Helsingin Sanomille, että ”tietoisesti en tiedosta, että olisin itse viestiä lähettänyt”. Hän ei halunnut arvioida sitä, olisiko hän voinut lähettää viestin vahingossa.Avaa kuvien katseluTälläinen kuvaviesti lähti ministeri Mika Lintilän Whatsapp-tililtä 9. helmikuuta 2023.Näin viestittely eteniLintilän puhelimeen tullut meemikuva lähetettiin 9. helmikuuta 2023 Lintilän Whatsapp-tililtä kolmelle vastaanottajalle, joista yksi oli keskustalaisten Whatsapp-ryhmä.19:20:55 Lintilän Whatsapp-tilille tulee yksityisviesti, jossa meemikuva Marinista ja Mäkysestä on.19:29:31 Lintilän Whatsapp-tililtä lähtee yksityiskontaktille ilman tekstiä viesti, jossa meemikuva on.19:32:27 Lintilän Whatsapp-tililtä lähtee sama meemikuvaviesti keskustalaisten Whatsapp-ryhmään ja toiselle yksityiskontaktille.19:36:34 Keskustalaisten Whatsapp-ryhmään tulee viesti: ”Tämä on kyllä hirveän hauska kuva, näin sen toissapäivänä ja nauratti, mutta mielestäni se ei ehkä kuulu tähän somekanavaan etenkään ministeriryhmämme jäsenen jakamana.”19:42:40: Lintilän Whatsapp-tilille tulee yksityisviesti: ”Ihan hauska kuva, mutta laitoitko vahingossa sen tuonne sali-ryhmään?”20:17:51 Lintilän Whatsapp-tililtä vastataan tälle viestittäjälle yksityisviestillä: ”Vittu”20:18:10 Lintilän Whatsapp-tililtä poistetaan keskustalaisten ryhmään lähetetty meemikuvaviesti.20:24:32 Lintilän Whatsapp-tilille tulee yksityisviesti: ”No worries. Ehdit poistaa sen tunnin sisään. Sen jälkeen olis jäänyt sinne.”21:29:04: Lintilän Whatsapp-tililtä tulee keskustalaisten Whatsapp-ryhmään viesti: ”Tiedoksi, että mun whatsapp-tili on kaapattu ilmeisesti ja kehotan kaikkia tarkkailemaan tähän ryhmään kuuluvia omia tilejään. Asiaa selvitetään.”Muutama päivä myöhemmin Lintilä kuitenkin sanoi, ettei tiliä ollut kaapattu eduskunnan tietoturvaselvityksen mukaan. Sen sijaan hän uskoi, että viesti oli lähetetty rinnakkaiskäyttämällä hänen Whatsapp-tiliään.KRP:n teknisen tutkinnan mukaan Lintilän puhelimessa ei ollut kuitenkaan jälkiä, että Whatsapp-tiliä olisi rinnakkaiskäytetty. Puhelimen lokit osoittavat, että Whatsappia on käytetty juuri tällä puhelimella.Puhelimesta ei löytynyt jälkiä, että sen järjestelmää tai sen osia olisi päästy muokkaamaan ulkopuolisen toimesta. Puhelimesta ei löytynyt jälkiä myöskään haittaohjelman toiminnasta.Mika Lintilän alkoholin käytöstä on kulisseissa puhuttu pitkään – miksi meemikohu laukaisi uutisoinnin?</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Erkka Mikkosen analyysi: Yli kymmenen vuotta Venäjällä opetti minulle tämän venäläisistä</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20074095</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>25.02.2024</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Ylen entinen Moskovan-kirjeenvaihtaja Erkka Mikkonen tarkastelee venäläisille ominaisia arvoja ja asenteita. Ne selittävät, miten Venäjää voi ymmärtää järjellä.</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Muutaman viikon päästä Venäjällä pidetään taas näytösvaalit, joilla sinetöidään Vladimir Putinin jatko presidenttinä.Kun Putin oli vasta noussut maansa johtoon 2000-luvun alussa, muistan kuinka matkamuistomyymälän hyllyillä oli presidenttiä kuvaavia koriste-esineitä. Olin käymässä ensimmäisiä kertoja Venäjällä, ja maassa oltiin innoissaan nuorekkaasta johtajasta, joka puhui myös vuolaasti demokratian ja sananvapauden tärkeydestä.Todellisuudessa turvallisuuspalvelutaustainen Putin nousi valtaan jo ensimmäiselle kaudelleen vaaleilla, jotka eivät olleet vapaat tai rehelliset. Presidenttinä hän alkoi heti kurittaa Kremlistä riippumatonta mediaa ja keskittää valtaa lähipiirilleen.Minut, venäjää opiskelevan lukiolaisen, matkamuistomyymälä havahdutti Putin-kulttiin. Myöhemmin olen tajunnut, että Venäjällä on luonnollista ajatella hallitsijan toimivan lakien yläpuolella.Venäjää voi ymmärtää järjellä. Venäläisten arvoja ja tapaa hahmottaa maailmaa on kuitenkin vaikea mitata länsimaisesta kulttuurista käsin. Kun yritämme ymmärtää Venäjää omiin lähtökohtiin viitaten, astumme harhaan.Lukioiän jälkeen olen palannut usein itänaapuriin, ja asunut maassa yhteensä pitkälti yli vuosikymmenen ajan. Venäjällä vietetyt vuodet opettivat minulle sen asukkaista nämä kolme asiaa.1. Kohtalo ohjaa elämääSuomalaiset hellivät ajatusta sisusta kansallisen identiteettimme pohjana. Sisu viestittää uskosta omiin vaikutusmahdollisuuksiin: Mikä tahansa voi olla mahdollista, jos vain yrittää lannistumatta.Venäläiset taas ovat tunnettuja uskostaan kohtaloon kuten venäläisestä ruletista.Itänaapurin fatalismi kiteytyy venäjänkieliseen sanaan avos. Sillä viitataan toiveeseen mahdottoman tilanteen kääntymiseksi suotuisaksi jonkin yli-inhimillisen voiman ansiosta.Itse havahduin itänaapurin kohtalonuskoon, kun huomasin venäläisten välinpitämättömyyden koronavirusta kohtaan.Yleisemmin kyse on siitä, että venäläiset uskovat heikosti mahdollisuuksiinsa muuttaa elämäänsä paremmaksi. Päinvastoin kansa uskoo selvinneensä vuosisadasta toiseen maata riepotelleista myllerryksistä vain sattumankaupalla.Uskonpuute omiin vaikutusmahdollisuuksiin voi vähentää venäläisten tahtoa vastustaa hallintoaan ja sen kaksi vuotta käymää hyökkäyssotaa Ukrainassa. Vieläkin enemmän sitä murentavat kriitikoille annetut mielivaltaiset tuomiot.Avaa kuvien katselu Kuva: Stina Tuominen / YleVenäjä muuttuu yhä itsevaltaisemmaksi2000 Vladimir Putin nousee presidentiksi.
 2011 Opposition suurmielenosoitukset alkavat.
@@ -733,71 +803,36 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="11">
+      <c r="A11" t="n">
         <v>3</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Venäjän hyökkäyssota varjostaa Viron itse­näi­syys­päivää – ”Pelon ei saa antaa halvaannuttaa”, sanoo nuori histo­rioitsija</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20076017</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>23.02.2024</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Venäjä hyökkäsi Ukrainaan Viron itsenäisyyspäivän aamuna 24. helmikuuta kaksi vuotta sitten.</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>TALLINNA Tallinnan suomalaisessa koulussa otettiin tällä viikolla varaslähtö Viron itsenäisyyspäivään. Varsinainen juhlapäivä kun on lauantaina.Keskiviikkopäivä alkoi lipunnostolla, ja Viron kansallislaulu kaikui kahteen kertaan, pihalla ja myöhemmin juhlasalissa. Oppilaat esittivät virolaisia runoja, arvoituksia ja esitelmöivät Viroon liittyvistä aiheista.Avaa kuvien katseluViron itsenäisyyspäivä on minulle yhtä tärkeä kuin Suomen itsenäisyyspäivä, neljäsluokkalainen Vilja Niemelä (oik.) kertoi. Vasemmalla Emilia Juvonen. Kuva: Rain Kooli / YleViro julistautui itsenäiseksi 24. helmikuuta vuonna 1918. Tasan 104 vuotta myöhemmin Euroopassa herättiin siihen, että Venäjä on hyökännyt Ukrainaan.– Meillä piti koulussa alkaa itsenäisyyspäivän juhla. Se sai todella erilaisen sävyn sinä aamuna, muistelee Tallinnan suomalaisen koulun rehtori Riitta Kemppainen kahden vuoden takaisia hetkiä.Vuoden 2022 itsenäisyyspäivästä lähtien Virossa on pidetty paljon puheita, joissa epämiellyttävä lähihistoria on vahvasti läsnä. Viro miehitettiin ja pakkoliitettiin Neuvostoliittoon vuonna 1940. Itsenäisyytensä se onnistui palauttamaan vasta vuonna 1991.Venäjän hyökkäyssota on tuonut Viron neuvostohistorian lähemmäksi myös suomalaisia, Kemppainen arvelee.– Se on sellainen osa historiaa, mitä Suomessa ei ole onneksi koettu ihan samalla tavalla, mutta jonka ymmärrys on nyt Suomessakin pikkuhiljaa noussut.Tallinnan suomalaisessa koulussa juhlittiin Viron itsenäisyyspäivää etuajassa keskiviikkona. Venäjä hyökkäsi Ukrainaan Viron itsenäisyyspäivänä 24. helmikuuta 2022. Rehtori Riitta Kemppainen muistelee kahden vuoden takaisia tunnelmia.Ristiriitaisen presidentin perintöVirossa itsenäisyyden menettäminen henkilöityy vahvasti yhteen mieheen: maan ensimmäiseen presidenttiin Konstantin Pätsiin.Päts on kiistelty hahmo. Hänen ansionsa maan itsenäistymisessä ovat kiistattomia, mutta toisaalta hänen johtamansa Viro suostui vuonna 1939 Neuvostoliiton vaatimuksiin. Neuvostoliitto vaati tukikohtia Viron maaperälle. Vuotta myöhemmin Viro miehitettiin.Suomi ei itänaapurin vaatimuksiin suostunut ja joutui käymään sekä talvi- että jatkosodan Neuvostoliittoa vastaan.– Hän oli epäilemättä ristiriitainen hahmo, myöntää Pätsin jälkeläinen, 27-vuotias historioitsija Katariina Sofia Päts.– Itsenäisyyspäivänä on mielestäni kuitenkin tärkeä muistaa, että kiitos hänen ja hänen aikalaistensa virolaisilla on oma valtio.Ajatus omasta valtiosta ei kadonnut edes neuvostomiehityksen aikana, Päts korostaa.Paraati ja lipunnosto kuuluvat perinteisiinVenäjän hyökkäyssodan alkaminen juuri Viron itsenäisyyspäivänä oli Katariina Sofia Pätsin mukaan valtava järkytys.– 24. helmikuuta ei tunnu enää koskaan pelkästään onnelliselta ja iloiselta. Viron historian tuntevat ovat luonnollisesti huolissaan.Moni länsimaalainen tuttu on Pätsin mukaan sanonut suoraan, että Baltian maat ovat puskuri heidän ja Venäjän välillä.– Sen roolin tiedostaminen raivostuttaa ja pelottaa. Mutta pelon ei saa antaa halvaannuttaa itseään. Päinvastoin, pitää ponnistella kaksin verroin, Päts toteaa.Avaa kuvien katseluKatariina Sofia Päts kuvattuna Konstantin Pätsin muistomerkin avajaisissa lokakuussa 2022. Kuva: Ken Mürk / ERRHenkilökohtaisena panoksenaan maansa tulevaisuuteen Päts pitää sitä, että vaikka nuorelle tutkijalle olisi koko maailma auki, hän ei aio lähteä Virosta.– Olen myös pyrkinyt valitsemaan kaikki työni ja toimeni niin, että niillä olisi laajempaa yhteiskunnallista merkitystä. Vaikuttaakseen ei tarvitse olla poliitikko.Viron itsenäisyyttä juhlitaan kahtena päivänäVirossa alettiin juhlia itsenäisyyttä alkuperäisen itsenäisyysjulistuksen päivänä jo vuonna 1989, kaksi vuotta ennen itsenäisyyden palauttamista.Neuvostoliiton ote oli silloin löystynyt ja virolaiset vaihtoivat Pitkän Hermannin torniin sinimustavalkoisen lipun 24.2.1989.Aiemmin neuvostokaudella itsenäisyyden mainitseminenkin oli rikoslain mukaan rangaistavaa.Viro palautti itsenäisyyden lopulta 20. elokuuta 1991 Neuvostoliiton hajotessa liitoksistaan. Itsenäisyyden palauttamisen vuosipäivää juhlitaan myös ja se on vapaapäivä.Katariina Sofia Pätsin ja hänen vanhempiensa vakiintunut itsenäisyyspäiväperinne on valtakunnallisen paraatin seuraaminen paikan päällä. Lisäksi perhe yrittää osallistua juhlalliseen lipunnostoseremoniaan Pitkän Hermannin tornin juurella Tallinnan Toompealla. Lippu nostetaan auringon noustessa.– Se on kyllä työn ja tuskan takana, koska pitää herätä niin aikaisin, Päts naurahtaa.Juhlapöytään perhe ei kuitenkaan kata kilohailileipää tai muita perinteisiä virolaisia juhlaruokia.– Olemme usein syöneet itsenäisyyspäivänä jotakin ulkomaisia ruokia. Vähän sillä ajatuksella, että vapaus tarkoittaa myös, että voimme syödä mitä huvittaa, Päts sanoo.Avaa kuvien katseluAsianmukaisesti koristeltu täytekakku on Riitta Kemppaisen mukaan tärkeä osa virolaista juhlaperinnettä. Kuva: Rain Kooli / YleSeitsemän vuotta Virossa asunut Riitta Kemppainen kertoo, että hänen perheensä juhlii Suomen itsenäisyyspäivää vähän Viron itsenäisyyspäivää vahvemmin. Silti heille on jo syntynyt perinteitä Viron itsenäisyyspäiväksi.– Aamulenkki Pitkän Hermannin tornin lipunnostoon kuuluu asiaan. Sitten tutkimme mielenkiinnolla, minkälaisia sinimustavalkoisia herkkuja olisi kaupassa – jäätelöstä lähtien, Kemppainen hymyilee.Myös Viron presidentti pitää itsenäisyyspäivän vastaanoton, ja ihmiset seuraavat juhlia televisiosta.– Pieniä pätkiä sieltä täältä, mutta en ole seurannut sitä niin tiiviisti kuin Suomen presidentin vastaanottoa, Kemppainen sanoo.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Iivo Niskanen kävi läksyttämässä kilpa­to­ve­riaan: ”Ei tarvitse suksille hypätä”</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076333</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>25.02.2024</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Iivo Niskanen esitti kovaa menoa Kuopion viestissä. Tähtihiihtäjää jäi harmittamaan loppuvaiheen kahina.</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Jos Iivo Niskasen meno oli vielä lauantaina hieman tahmeaa, hän näytti sunnuntaina Suomen cupissa perinteisen viestissä jo selvästi parempaa iskukykyä. Niskanen nosti Puijon Hiihtoseuran ankkurisosuudella 43 sekunnin takamatkalta kärkijoukkoon lopulta kisan kolmanneksi.Pohti Ski Teamin Niilo Moilasen nostettua vauhtia, Niskanen jäi hieman, mutta otti kärkiporukan uudelleen kiinni. Suomalaistähti syötti loppusuoralla kovaa kiriä ja löi sprintterinä paremmin tunnetun Moilasen.– Alku oli ylikovaa. Hapolla sai kiriä. Napsun loppui matka kesken, Niskanen totesi maalissa.Niskanen antoi Parantaiselle palautetta kilpailun aikana tapahtuneesta.Kun Niskanen sai porukan kiinni, hänen oli vaikea löytää sopivaa paikkaa. Niskasen mukaan Kuusamon Erä-Veikkojen Kalle Parantainen kiilasi hänen eteensä.– Kuusamon mies hyppäsi eteen ja alkoi kiilata minua vasemmalle. Tiesin, että siinä oli pehmeää ja siihen meni sauva ja jäin jonon perälle.– Pari kolme metriä oli liikaa mäen päällä eroa, ettei päässyt peesistä iskemään loppuun.Tämä tilanne kuumensi Iivo NiskasenNiskasen kävi kisan jälkeen antamassa kipakkaa palautetta Kalle Parantaiselle.– Ei siinä mitään. Paikkaa pitää puolustaa, mutta ei tarvitse suksille hypätä.Iivo Niskanen kertoi välikohtauksesta Kalle Parantaisen kanssa.Ei pelkkää Iivoa vastaanVoittoon hiihti Jämin Jänne ennen Vuokatti Ski Teamia.Jänteen ankkurina hiihti Lauri Lepistö. Launtaina Iivo Niskasen 12 kilometrin vapaan väliaikalähtökisassa lyönyt hiihtäjä uskoi, että 30 sekunnin etumatka riittää Niskaseen.– En hiihtänyt pelkkää Iivoa vastaan. Meillä on tosi monia kavereita 7,5 kilometrin lenkille, tähän maastoon ja tuohon loppukiriin. Piti siksi tehdä itse töitä. Toista kertaa tällä kaudella pystyi voittamaan kirikamppailun, Lepistö totesi.Lepistön lisäksi joukkueessa hiihtivät Ristomatti Hakola ja Markus Vuorela. Naisten kisan voiton vei vähemmän yllättäen Vuokatti Ski Team ennen Ikaalisten Urheilijoita.Suomen cupin viestit, KuopioMiesten viesti 3x7,5 km (p)
 1. Jämin Jänne1 52.47,1 (Vuorela,Hakola,Lepistö)
@@ -815,58 +850,23 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Hallitus valmistelee valtavia säästöjä, jotka voivat tuntua lähes kaikkien suomalaisten arjessa – näin työ etenee</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20076308</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>25.02.2024</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Säästöjä etsivä työryhmä ei sulje mitään keinoja pois. Päätöksiä tehdään pian. Talousasiantuntijan mukaan keskusteluun tulisi nostaa eläkkeet ja arvonlisäverojen korotukset. </t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Hallituksen kesällä sopiman kuuden miljardin euron säästöpaketin ensimmäiset toimet ovat vasta alkaneet tuntua kansalaisten lompakoissa, kun työn alla ovat jo uudet miljardiluokkaan kohoavat leikkaukset ja veronkorotukset.Säästöjä etsitään kokoomuksen eduskuntaryhmän puheenjohtajan Matias Marttisen vetämässä työryhmässä, jossa edustettuna ovat kaikki hallituspuolueet.Helmikuun alussa ensimmäistä kertaa kokoontuneessa ryhmässä on Marttisen mukaan löydetty yksimielisyys vaadittavan sopeutuksen suuruusluokasta. Keinoja on tarkoitus käydä läpi tulevien viikkojen aikana.– En mene tässä kohtaa yksittäisiin lukuihin, mutta hallituksen johto on valmistelumme pohjalta löytänyt yhteisymmärryksen sopeutuksen suuruusluokasta ja tarkemmista reunaehdoista, jotka raamittavat työryhmän työtä. Seuraavaksi etenemme tarkempiin päätöksiin ja käymme läpi hyvin tarkalla kammalla koko julkisen talouden kaikki menot sekä tulopuolen. Sen lisäksi tarkastelemme toimenpiteitä, joilla voidaan vauhdittaa tulevaisuuden talouskasvua, Marttinen sanoo.Vaadittavan sopeutuksen kokonaismäärä tarkentuu valtiovarainministeriön ennusteiden myötä, mutta valtiovarainministeri Riikka Purran (ps.) aiemmin esittämän arvion mukaan puhutaan noin kolmesta miljardista eurosta.Säästöt on määrä lyödä lukkoon huhtikuun kehysriihessä. Marttisen mukaan voi sanoa, että kehysriihineuvottelut ovat jo käytännössä alkaneet.– Usein riihen alla on puhuttu paljon pienemmistä kokonaisuuksista. Nyt tämä mittaluokka on hyvin suuri ja poikkeuksellinen. Tilanne on hyvin vakava.Avaa kuvien katseluMatias Marttinen (kok.) kuvaa vaadittavien säästöjen mittaluokkaa poikkeukselliseksi.  Kuva: Silja Viitala / YleMitään säästökeinoja ei ole suljettu poisIlman uusia päätöksiä hallitus Suomi olisi ajautumassa ensi vuonna EU:n liiallisen alijäämän menettelyyn. Lisäksi hallituksen omat tavoitteet julkisen talouden vahvistamisesta uhkaavat romuttua jo kättelyssä.Taustalla on muun muassa hyvinvointialueiden kustannusten odottamattoman suuri kasvu sekä talouden näkymien synkkeneminen.Tavallisesti riihiin valmistaudutaan erityisavustajatasolla, mutta Marttisen johtamassa työryhmässä istuvat hallituspuolueiden eduskuntaryhmien puheenjohtajat RKP:n Otto Andersson ja kristillisdemokraattien Peter Östman. Perussuomalaisten ryhmänjohtajan Jani Mäkelän sijaan valtiovarainministeripuoluetta ryhmässä edustaa kansanedustaja Ville Vähämäki. Lisäksi työryhmän kokouksiin osallistuu valtiovarainministeriön ylintä virkajohtoa.Uusien säästöpäätösten tekeminen tulee olemaan poliittisesti vaikeaa. Marttisen mukaan mitään säästökohteita ei ole tässä vaiheessa suljettu pois. Tarkemmin hän ei ota tässä vaiheessa kantaa yksittäisiin säästökohteisiin.– Kaikilta puolueilta vaaditaan kompromissihalua, mutta olen vakuuttunut siitä, että kaikilta sitä löytyy.Paineita myös eläkeläisiin kohdistuviin säästöihinSuomen Pankin kotimaiseen talouspolitiikkaan liittyvää valmistelutyötä tekevä päällikkö Essi Eerola pitää hyvänä lähtökohtana sitä, että mitään toimenpiteitä ei rajata pois.– Nyt tilanne on muuttunut merkittävällä tavalla siitä, mikä se oli, kun hallitusohjelmasta neuvoteltiin, Eerola sanoo.Hallituksen säästötoimet ovat tähän mennessä kohdistuneet voimakkaasti työikäisiin, sillä tavoitteena on ollut työllisyyden parantaminen. Sen sijaan eläkeläiset on jätetty pitkälti säästöjen ulkopuolelle.Eerola korostaa, että säästöjen tekemiseen liittyy aina poliitikoille kuuluvaa harkintaa erilaisten tavoitteiden välillä, mutta hän antaa esimerkkejä mahdollisista kohteista, joilla julkista taloutta voitaisiin tasapainottaa.– Eläkkeet ovat yksi iso osa sosiaaliturvaa, joka mahdollisesti tulee tässä keskustelussa kysymykseen. Lisäksi elinkeinotuet eivät ole vielä olleet kovin paljon tapetilla. Kolmas tekijä on se, että verotulot ovat laskeneet merkittävästi. Sen takia on tarpeen miettiä myös veroinstrumentteja, Eerola sanoo.Samankaltaiset keinot nousevat esiin myös esimerkiksi valtiovarainministeriön viime vuonna tekemissä meno- ja verokartoituksissa tai Talouspolitiikan arviointineuvoston raportissa.Hallitus on jäädyttänyt monia indeksisidonnaisia menoja, mutta eläkkeet on toistaiseksi jätetty niiden ulkopuolelle.Valtiovarainministeriön arvion mukaan esimerkiksi pienentämällä työeläkeindeksiä yhdellä prosenttiyksiköllä vuodessa neljän vuoden ajaksi valtio säästäisi yhteensä 800 miljoonaa euroa.Avaa kuvien katseluSuomen Pankin prosessipäällikkö Essi Eerola peräänkuuluttaa myös laajempaa keskustelua siitä, mikä kaikki kuuluu julkisen sektorin hoidettavaksi.  Kuva: Grigory Vorobyev / YleArvonlisäverotuksen kiristäminen pöydälläHallitus on ilmoittanut ottavansa myös tähän mennessä välttelemänsä veronkorotukset työkalupakkiin.Pelivaraa antaa se, että ilman uusia veronkorotuksia kokonaisveroaste on laskemassa muun muassa sähköautoilun lisääntyessä ja fossiilisiin polttoaineisiin liittyvän verokertymän vähentyessä. Myös työttömyysvakuutusmaksun alennus vähensi julkisia tuloja lähes miljardin verran.Suomen Pankin Eerolan mukaan verotuksessa katseet kannattaa kohdistaa erityisesti arvonlisäveroon.– Yleisesti sellaisia veroja pidetään hyvinä, jotka ovat laajapohjaisia ja vääristävät mahdollisimman vähän käyttäytymistä. Arvonlisävero on sellainen. Suomessa arvonlisäverotuksen perusvero on kohtuullisen korkea ja sen lisäksi meillä on useita alennettuja arvonlisäkantoja. Molempia kannattaa miettiä, Eerola sanoo.Valtiovarainministeri Purra on ehtinyt jo viime vuoden puolella Talouselämän haastattelussa väläyttää ruoan arvonlisäverokannan korottamista.Valtiovarainministeriön mukaan neljäntoista prosentin verokannan korottaminen prosenttiyksiköllä toisi valtion kassaan vuodessa noin 200 miljoonaa euroa.Lisäksi ministeriö nosti verokartoituksessaan esiin listaamattomien yhtiöiden osinkoverotuksen kiristämisen. Sen verotuottovaikutusten arvioidaan olevan 430 miljoonaa euroa.Eerolan mukaan säästöjä pohdittaessa olisi hyvä käydä myös laajemmin läpi julkisen sektorin roolia.– Keskustelussa olisi hyvä jossain vaiheessa päästä miettimään huolellisesti sitä, missä julkisen sektorin tehtävien rajat kulkevat. Nyt ongelmana tietysti on se, että näitä päätöksiä joudutaan tekemään aika nopeasti ja tällaiseen laajamittaiseen keskusteluun ei ole tässä tilanteessa mahdollisuuksia, Eerola sanoo.</t>
-        </is>
-      </c>
-    </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Yhdysvallat ja Britannia iskivät jälleen huthi­ka­pi­nal­listen kohteisiin Jemenissä</t>
+          <t>Venäjän hyökkäyssota varjostaa Viron itse­näi­syys­päivää – ”Pelon ei saa antaa halvaannuttaa”, sanoo nuori histo­rioitsija</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20076311</t>
+          <t>https://yle.fi/a/74-20076017</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>25.02.2024</t>
+          <t>23.02.2024</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -876,32 +876,32 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Iskuja tehtiin lähes 20:een kohteeseen eri puolilla Jemeniä, kertovat Yhdysvaltain ja Britannian puolustusministeriöt yhteisessä lausunnossaan.</t>
+          <t>Venäjä hyökkäsi Ukrainaan Viron itsenäisyyspäivän aamuna 24. helmikuuta kaksi vuotta sitten.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Yhdysvaltain ja Britannian asevoimat kertovat tehneensä uusia iskuja Iranin tukemien huthikapinallisten kohteisiin Jemenissä.Iskuja on tehty lauantaina kaikkiaan 18 kohteeseen eri puolilla Jemeniä, kerrotaan Yhdysvaltain ja Britannian puolustusministeriöiden yhteisessä lausunnossa.Lausunnon mukaan iskuja tehtiin muun muassa ilmapuolustus- ja tutkajärjestelmiin sekä maanalaisiin ase- ja ohjusvarastoihin.Huthikapinallisten uutiskanava Al Masirah TV kertoo, että Yhdysvallat ja Britannia tekivät lauantaina yhdeksän ilmaiskua yksistään Jemenin pääkaupunkiin Sanaan.Yhdysvallat ja Britannia ovat tehneet iskuja huthikapinallisten kohteisiin vastauksena huthien toistuviin hyökkäyksiin laivaliikennettä vastaan Punaisellamerellä ja Adeninlahdella.Huthikapinalliset aloittivat iskunsa rahtilaivoja vastaan marraskuussa, väittäen iskujen olevan vastaus Israelin toimiin Gazan kaistalla.Austin: Huthit saavat kärsiä seuraamuksista, jos iskuja ei lopetetaYhdysvaltain puolustusministeri Lloyd Austin sanoo, että lauantain iskujen tavoite oli ”entisestään häiritä ja heikentää Iranin tukemien huthijoukkojen iskukykyä”.– Teemme edelleen hutheille selväksi, että he saavat kärsiä seuraamuksista, jos he eivät lopeta laittomia iskujaan, jotka vahingoittavat Lähi-idän kansantalouksia, aiheuttavat ympäristövahinkoja sekä häiritsevät humanitaarisen avun toimituksia Jemeniin ja muihin maihin, Austin sanoi.– Tarpeen tullen Yhdysvallat ei epäröi toimia turvatakseen ihmishenkiä ja tavaran vapaata liikkumista yhdellä maailman tärkeimmistä vesiväylistä, Austin lisäsi.Lauantain iskussa Yhdysvaltain ja Britannian asevoimien tukena olivat myös Australia, Bahrain, Tanska, Kanada, Alankomaat sekä Uusi-Seelanti.Kyseessä oli liittouman toinen isku huthikapinallisten kohteisiin tässä kuussa ja kaikkiaan neljäs isku sen jälkeen, kun Yhdysvaltojen ja Britannian johtama liittouma aloitti sotilasoperaation alueella.Liittouman iskujen lisäksi Yhdysvallat on tehnyt itsenäisesti iskuja huthikapinallisia vastaan.Lähteet: Reuters, AFP, STT</t>
+          <t>TALLINNA Tallinnan suomalaisessa koulussa otettiin tällä viikolla varaslähtö Viron itsenäisyyspäivään. Varsinainen juhlapäivä kun on lauantaina.Keskiviikkopäivä alkoi lipunnostolla, ja Viron kansallislaulu kaikui kahteen kertaan, pihalla ja myöhemmin juhlasalissa. Oppilaat esittivät virolaisia runoja, arvoituksia ja esitelmöivät Viroon liittyvistä aiheista.Avaa kuvien katseluViron itsenäisyyspäivä on minulle yhtä tärkeä kuin Suomen itsenäisyyspäivä, neljäsluokkalainen Vilja Niemelä (oik.) kertoi. Vasemmalla Emilia Juvonen. Kuva: Rain Kooli / YleViro julistautui itsenäiseksi 24. helmikuuta vuonna 1918. Tasan 104 vuotta myöhemmin Euroopassa herättiin siihen, että Venäjä on hyökännyt Ukrainaan.– Meillä piti koulussa alkaa itsenäisyyspäivän juhla. Se sai todella erilaisen sävyn sinä aamuna, muistelee Tallinnan suomalaisen koulun rehtori Riitta Kemppainen kahden vuoden takaisia hetkiä.Vuoden 2022 itsenäisyyspäivästä lähtien Virossa on pidetty paljon puheita, joissa epämiellyttävä lähihistoria on vahvasti läsnä. Viro miehitettiin ja pakkoliitettiin Neuvostoliittoon vuonna 1940. Itsenäisyytensä se onnistui palauttamaan vasta vuonna 1991.Venäjän hyökkäyssota on tuonut Viron neuvostohistorian lähemmäksi myös suomalaisia, Kemppainen arvelee.– Se on sellainen osa historiaa, mitä Suomessa ei ole onneksi koettu ihan samalla tavalla, mutta jonka ymmärrys on nyt Suomessakin pikkuhiljaa noussut.Tallinnan suomalaisessa koulussa juhlittiin Viron itsenäisyyspäivää etuajassa keskiviikkona. Venäjä hyökkäsi Ukrainaan Viron itsenäisyyspäivänä 24. helmikuuta 2022. Rehtori Riitta Kemppainen muistelee kahden vuoden takaisia tunnelmia.Ristiriitaisen presidentin perintöVirossa itsenäisyyden menettäminen henkilöityy vahvasti yhteen mieheen: maan ensimmäiseen presidenttiin Konstantin Pätsiin.Päts on kiistelty hahmo. Hänen ansionsa maan itsenäistymisessä ovat kiistattomia, mutta toisaalta hänen johtamansa Viro suostui vuonna 1939 Neuvostoliiton vaatimuksiin. Neuvostoliitto vaati tukikohtia Viron maaperälle. Vuotta myöhemmin Viro miehitettiin.Suomi ei itänaapurin vaatimuksiin suostunut ja joutui käymään sekä talvi- että jatkosodan Neuvostoliittoa vastaan.– Hän oli epäilemättä ristiriitainen hahmo, myöntää Pätsin jälkeläinen, 27-vuotias historioitsija Katariina Sofia Päts.– Itsenäisyyspäivänä on mielestäni kuitenkin tärkeä muistaa, että kiitos hänen ja hänen aikalaistensa virolaisilla on oma valtio.Ajatus omasta valtiosta ei kadonnut edes neuvostomiehityksen aikana, Päts korostaa.Paraati ja lipunnosto kuuluvat perinteisiinVenäjän hyökkäyssodan alkaminen juuri Viron itsenäisyyspäivänä oli Katariina Sofia Pätsin mukaan valtava järkytys.– 24. helmikuuta ei tunnu enää koskaan pelkästään onnelliselta ja iloiselta. Viron historian tuntevat ovat luonnollisesti huolissaan.Moni länsimaalainen tuttu on Pätsin mukaan sanonut suoraan, että Baltian maat ovat puskuri heidän ja Venäjän välillä.– Sen roolin tiedostaminen raivostuttaa ja pelottaa. Mutta pelon ei saa antaa halvaannuttaa itseään. Päinvastoin, pitää ponnistella kaksin verroin, Päts toteaa.Avaa kuvien katseluKatariina Sofia Päts kuvattuna Konstantin Pätsin muistomerkin avajaisissa lokakuussa 2022. Kuva: Ken Mürk / ERRHenkilökohtaisena panoksenaan maansa tulevaisuuteen Päts pitää sitä, että vaikka nuorelle tutkijalle olisi koko maailma auki, hän ei aio lähteä Virosta.– Olen myös pyrkinyt valitsemaan kaikki työni ja toimeni niin, että niillä olisi laajempaa yhteiskunnallista merkitystä. Vaikuttaakseen ei tarvitse olla poliitikko.Viron itsenäisyyttä juhlitaan kahtena päivänäVirossa alettiin juhlia itsenäisyyttä alkuperäisen itsenäisyysjulistuksen päivänä jo vuonna 1989, kaksi vuotta ennen itsenäisyyden palauttamista.Neuvostoliiton ote oli silloin löystynyt ja virolaiset vaihtoivat Pitkän Hermannin torniin sinimustavalkoisen lipun 24.2.1989.Aiemmin neuvostokaudella itsenäisyyden mainitseminenkin oli rikoslain mukaan rangaistavaa.Viro palautti itsenäisyyden lopulta 20. elokuuta 1991 Neuvostoliiton hajotessa liitoksistaan. Itsenäisyyden palauttamisen vuosipäivää juhlitaan myös ja se on vapaapäivä.Katariina Sofia Pätsin ja hänen vanhempiensa vakiintunut itsenäisyyspäiväperinne on valtakunnallisen paraatin seuraaminen paikan päällä. Lisäksi perhe yrittää osallistua juhlalliseen lipunnostoseremoniaan Pitkän Hermannin tornin juurella Tallinnan Toompealla. Lippu nostetaan auringon noustessa.– Se on kyllä työn ja tuskan takana, koska pitää herätä niin aikaisin, Päts naurahtaa.Juhlapöytään perhe ei kuitenkaan kata kilohailileipää tai muita perinteisiä virolaisia juhlaruokia.– Olemme usein syöneet itsenäisyyspäivänä jotakin ulkomaisia ruokia. Vähän sillä ajatuksella, että vapaus tarkoittaa myös, että voimme syödä mitä huvittaa, Päts sanoo.Avaa kuvien katseluAsianmukaisesti koristeltu täytekakku on Riitta Kemppaisen mukaan tärkeä osa virolaista juhlaperinnettä. Kuva: Rain Kooli / YleSeitsemän vuotta Virossa asunut Riitta Kemppainen kertoo, että hänen perheensä juhlii Suomen itsenäisyyspäivää vähän Viron itsenäisyyspäivää vahvemmin. Silti heille on jo syntynyt perinteitä Viron itsenäisyyspäiväksi.– Aamulenkki Pitkän Hermannin tornin lipunnostoon kuuluu asiaan. Sitten tutkimme mielenkiinnolla, minkälaisia sinimustavalkoisia herkkuja olisi kaupassa – jäätelöstä lähtien, Kemppainen hymyilee.Myös Viron presidentti pitää itsenäisyyspäivän vastaanoton, ja ihmiset seuraavat juhlia televisiosta.– Pieniä pätkiä sieltä täältä, mutta en ole seurannut sitä niin tiiviisti kuin Suomen presidentin vastaanottoa, Kemppainen sanoo.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Johanna Ruohoniemi oppi kantapään kautta, mitä ei kannata tehdä, kun muuttaa Suomesta ulkomaille</t>
+          <t>Yhä useampi työskentelee sairaana ja suunnittelee työpaikan vaihtamista</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20074414</t>
+          <t>https://yle.fi/a/74-20076706</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>25.02.2024</t>
+          <t>28.02.2024</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -911,419 +911,419 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vuosien asuminen ulkomailla aiheuttaa aukon luottotietoihin. Suomeen palatessa esimerkiksi puhelinliittymän saaminen voi olla vaikeaa. </t>
+          <t xml:space="preserve">Irtisanoutumisaikeet ovat lisääntyneet erityisesti johtajilla ja nuorilla aikuisilla.  </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Johanna Ruohoniemi palasi kaksi vuotta sitten Suomeen kymmenen Ruotsissa vietetyn vuoden jälkeen.Ruohoniemi yritti heti alkuun hankkia uuden nettiliittymän. Se osoittautui kuitenkin haastavaksi.– Soittelin operaattoreita läpi ja koitin netissäkin hankkia liittymää, mutta ei onnistunut. Sieltä sanottiin, että sinulla ei ole luottohistoriaa näkyvillä niin sinulle ei voida antaa tällaista liittymää, että jälkikäteen maksaisit.Hän päätyi avaamaan liittymän äitinsä nimissä.– Äitini otti nettiliittymän meidän osoitteeseen, mutta heti kun piti jotain asioita hoitaa liittymän osalta, ainoastaan äitini pystyi niitä hoitamaan. Tarvittiin valtakirja, että sain hoitaa itsekin liittmän asioita.Takuusäätiön mukaan ulkomailta palaavien kohdalla velkojan on vaikea saada tietoa siitä, onko henkilöllä velkoja tai maksuhäiriöitä.Moni paluumuuttaja kohtaa haasteita myös esimerkiksi osamaksusopimusten ja asunnon vuokraamisen yhteydessä. Myös niissä luottohistorian puuttuminen voi olla ongelma.Ongelmana aukot luottohistoriassaSuomeen muutto oli kinkkinen myös Kööpenhaminasta viime kesänä Suomeen palanneelle Maija Casciolle.Kymmenen ulkomaanvuoden aikana Cascio oli ehtinyt sulkea suomalaisen puhelinliittymän ja tarvitsi nyt uuden.– Puhelinliittymän saaminen oli todella haastavaa. Operaattorilta pyydettiin maksamaan etukäteen monen sadan euron vakuusmaksu, koska he eivät luottaneet siihen, että maksan laskuni, Cascio sanoo.Myös Johanna Ruohoniemi koki puhelinliittymän avaamisen vaikeaksi. Hän päätyi ottamaan prepaid-liittymän ennen kuin sai uuden työnsä kautta suomalaisen puhelinnumeron. Predaid-liittymässä tilille maksetaan saldoa etukäteen.– Ruotsalainen puhelinnumeroni ei toiminut monissa palveluissa, joten suomalainen numero oli aivan välttämätön hankkia, vaikka sitten prepaidina.Elisan henkilöasiakkaiden liittymistä vastaavan liiketoimintajohtajan Ilkka Pohtolan mukaan paluumuuttaja tulee Suomeen ikään kuin uutena henkilönä, vaikka olisi Suomen kansalainen ja asunut Suomessa aiemmin.– Liittymän avaaminen vaatii tuoreen luottohistorian, jota Suomeen palaavalla ei usein ole.Avaa kuvien katseluIlkka Pohtola Elisalta muistuttaa, että  liittymän avaaminen on helpompaa, jos henkilöllä on ollut vakituinen osoite Suomessa ulkomailla oleskelun ajan.  Kuva: Elisa OyjMyös DNA:lla Suomeen palaaville vaihtoehdot liittymän kohdalla ovat rajalliset.– Kun asiakas ottaa meiltä liittymän, kyse on luottosuhteesta, jolloin joudumme tarkistamaan tiedot luottorekisteristä. Asiakkaan tulee asua Suomessa riittävä aika, jotta tiedot näkyvät luottorekisterissä, sanoo DNA:n mobiililiiketoiminnan johtaja Cedric Kamtsan.Suomessa pitää asua vähintään vuosi, jotta luottohistoriaa ehtii kertyäKamtsanin mukaan DNA:lla käytäntönä on, että Suomessa pitää asua ainakin vuoden verran, jotta liittymän avaaminen on mahdollista.Jos luottohistoriassa on aukkoja, vaihtoehtoja sekä Elisalla että DNA:lla ovat joko vakuusmaksun maksaminen etukäteen tai rajatumpi liittymä, josta ei voi soittaa ulkomaille eikä maksullisiin palvelunumeroihin.Ilkka Pohtolan mukaan sadan euron vakuusmaksulla liittymän saa Elisalla käyttöön täydellä toiminnalla.– Vakuusmaksu hyvitetään asiakkaalle tulevissa puhelumaksuissa, kun luottohistoriaa on taas kertynyt takaisin täällä Suomessa.Avaa kuvien katseluCedric Kamtsan DNA:lta muistuttaa, että prepaid-liittymä on yksi harkinnan arvoinen vaihtoehto paluumuuttajille.  Kuva: Tapio Rissanen / YleVakuusmaksu on käytössä myös DNA:lla.– Asiakas maksaa tietyn summan vakuutena meille, jolloin pienennämme luottotappioriskiä.Kilpailu- ja kuluttajaviraston erityisasiantuntija Joonas Norr selittää ilmiön taustoja.– Lain mukaan teleyritys saa vaatia kuluttajalta liittymäsopimuksesta vakuuden, jos jonkin syy epäillä asiakkaan maksukykyä.Norrin mukaan ulkomailla asuminen on yksi tällainen syy, sillä luottohistoria ei ole tarpeeksi kattava. Luotonantaja ei myöskään pysty varmistamaan, onko Suomeen palaavalla maksuhäiriöitä muissa maissa.Sen sijaan asuntolainan saamiselle puutteellinen luottohistoria ei ole ongelma.OP:n asumisesta vastaavan johtajan Satu Nurmen mukaan asuntolainan kohdalla painavat muut asiat.– Meille oleellista on se, että henkilöllä on vakituinen osoite Suomessa ja tarpeeksi maksukykyä.”Älä sulje suomalaista pankkitiliä ja puhelinliittymää”Johanna Ruohoniemi harkitsisi nyt jälkiviisaana tarkkaan puhelinliittymän sulkemista ulkomaille muuton yhteydessä.– Säilytä suomalainen pankkitili ja puhelinnumero. Niiden kautta myös myöd verkkopankkitunnukset säilyvät. Se tekee kaikesta helpompaa, kun asioiminen ja tunnistautuminen onnistuu sähköisesti.Maija Cascio kannustaa samaan.– Pankkitili kannattaa ehdottomasti säilyttää ja jos saa Suomesta kohtuuhintaisen liittymän, niin sekin kannattaa pitää. Monissa suomalaisissa viranomaispalveluissa prepaid-liittymät ja ulkomaalaiset numerot eivät toimi.Ulkomailta takaisin Suomeen muuttavilla on usein aukkoja luottorekisterissä. Alla olevalla videolla Danske Bankin johtajan Sari Takala kertoo positiivisesta luottorekisteristä, joka otetaan käyttöön huhtikuussa.</t>
+          <t>Suomalaisten työhyvinvointi on edelleen heikentynyt, kertoo Työterveyslaitoksen Miten Suomi voi? -seurantatutkimus. Muutos näkyy erityisesti työn imun vähentymisenä ja työssä tylsistymisen lisääntymisenä. Nuorten aikuisten työhyvinvointi on edelleen muita huonompaa.Työuupumuksen yleisyydessä ei ole tapahtunut muutoksia kesän ja loppuvuoden 2023 välillä. Edelleen noin joka neljäs suomalainen on työuupumuksen riskiryhmässä.– On tärkeää, että työuupumuksen yleistyminen on nyt pysähtynyt. Koska kuitenkin tiedämme työn imun ja työssä tylsistymisen vaikutukset terveyteen ja tuottavuuteen, ovat niissä tapahtuneet kielteiset muutokset huolestuttavia, sanoo tutkimusprofessori Jari Hakanen Työterveyslaitoksesta.Irtisanoutumisaikeet ovat kasvaneet erityisesti johtajilla ja nuorilla aikuisilla. Alle 36-vuotiaista noin joka kolmas on harkinnut työpaikan vaihtoa usein, sitä vanhemmista noin joka neljäs.Yhä useampi suomalainen kertoo työskennelleensä silloinkin, kun ei ole kokenut olevansa työkunnossa. Jopa 41 prosenttia on tehnyt vähintään kahdesti töitä sairaana edellisen puolen vuoden aikana. Johtajista ja esihenkilöistä sairaana oli työskennellyt 45 prosenttia.Sairaana työskentelyn yleistymisen taustalla on erityisesti työhyvinvoinnin heikentyminen.– Sairaana työskentely on usein noidankehä. Kun ihminen on kuormittunut, hän työskentelee sairaana, jotta selviäisi tehtävistään. Sairaana työskentely kuitenkin kuormittaa entisestään ja näkyy myöhemmin työkyvyn huonontumisena ja sairauspoissaoloina, sanoo Jari Hakanen tiedotteessa.Johtajien työhyvinvointi on laskenutEsihenkilö- ja johtotehtävissä työskentelevien työhyvinvointi on heikentynyt. He kokevat työssään aiempaa vähemmän pätevyyttä, menestymistä, oppimisen mahdollisuuksia ja yhteisöllisyyttä.Työntekijöihin verrattuna johtajien kuormitustekijöissä korostuu liiallinen työmäärä. Työntekijöistä joka neljäs koki työmääränsä liialliseksi, johtajista joka toinen (46 %).– Tyypillisesti esihenkilöt ja johtajat kokevat työssään työntekijöitä enemmän esimerkiksi työn imua, mutta nyt tämä ero on kuroutumassa umpeen. Se, että meillä on työpaikoilla inhimillistä ja hyvää johtamista, edellyttää, että johtajat voivat työssään hyvin, sanoo erikoistutkija Janne Kaltiainen.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Yhdysvallat ja Britannia iskivät jälleen huthi­ka­pi­nal­listen kohteisiin Jemenissä</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076311</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.02.2024</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Iskuja tehtiin lähes 20:een kohteeseen eri puolilla Jemeniä, kertovat Yhdysvaltain ja Britannian puolustusministeriöt yhteisessä lausunnossaan.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yhdysvaltain ja Britannian asevoimat kertovat tehneensä uusia iskuja Iranin tukemien huthikapinallisten kohteisiin Jemenissä.Iskuja on tehty lauantaina kaikkiaan 18 kohteeseen eri puolilla Jemeniä, kerrotaan Yhdysvaltain ja Britannian puolustusministeriöiden yhteisessä lausunnossa.Lausunnon mukaan iskuja tehtiin muun muassa ilmapuolustus- ja tutkajärjestelmiin sekä maanalaisiin ase- ja ohjusvarastoihin.Huthikapinallisten uutiskanava Al Masirah TV kertoo, että Yhdysvallat ja Britannia tekivät lauantaina yhdeksän ilmaiskua yksistään Jemenin pääkaupunkiin Sanaan.Yhdysvallat ja Britannia ovat tehneet iskuja huthikapinallisten kohteisiin vastauksena huthien toistuviin hyökkäyksiin laivaliikennettä vastaan Punaisellamerellä ja Adeninlahdella.Huthikapinalliset aloittivat iskunsa rahtilaivoja vastaan marraskuussa, väittäen iskujen olevan vastaus Israelin toimiin Gazan kaistalla.Austin: Huthit saavat kärsiä seuraamuksista, jos iskuja ei lopetetaYhdysvaltain puolustusministeri Lloyd Austin sanoo, että lauantain iskujen tavoite oli ”entisestään häiritä ja heikentää Iranin tukemien huthijoukkojen iskukykyä”.– Teemme edelleen hutheille selväksi, että he saavat kärsiä seuraamuksista, jos he eivät lopeta laittomia iskujaan, jotka vahingoittavat Lähi-idän kansantalouksia, aiheuttavat ympäristövahinkoja sekä häiritsevät humanitaarisen avun toimituksia Jemeniin ja muihin maihin, Austin sanoi.– Tarpeen tullen Yhdysvallat ei epäröi toimia turvatakseen ihmishenkiä ja tavaran vapaata liikkumista yhdellä maailman tärkeimmistä vesiväylistä, Austin lisäsi.Lauantain iskussa Yhdysvaltain ja Britannian asevoimien tukena olivat myös Australia, Bahrain, Tanska, Kanada, Alankomaat sekä Uusi-Seelanti.Kyseessä oli liittouman toinen isku huthikapinallisten kohteisiin tässä kuussa ja kaikkiaan neljäs isku sen jälkeen, kun Yhdysvaltojen ja Britannian johtama liittouma aloitti sotilasoperaation alueella.Liittouman iskujen lisäksi Yhdysvallat on tehnyt itsenäisesti iskuja huthikapinallisia vastaan.Lähteet: Reuters, AFP, STT</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hallitus valmistelee valtavia säästöjä, jotka voivat tuntua lähes kaikkien suomalaisten arjessa – näin työ etenee</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076308</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.02.2024</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Säästöjä etsivä työryhmä ei sulje mitään keinoja pois. Päätöksiä tehdään pian. Talousasiantuntijan mukaan keskusteluun tulisi nostaa eläkkeet ja arvonlisäverojen korotukset. </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Hallituksen kesällä sopiman kuuden miljardin euron säästöpaketin ensimmäiset toimet ovat vasta alkaneet tuntua kansalaisten lompakoissa, kun työn alla ovat jo uudet miljardiluokkaan kohoavat leikkaukset ja veronkorotukset.Säästöjä etsitään kokoomuksen eduskuntaryhmän puheenjohtajan Matias Marttisen vetämässä työryhmässä, jossa edustettuna ovat kaikki hallituspuolueet.Helmikuun alussa ensimmäistä kertaa kokoontuneessa ryhmässä on Marttisen mukaan löydetty yksimielisyys vaadittavan sopeutuksen suuruusluokasta. Keinoja on tarkoitus käydä läpi tulevien viikkojen aikana.– En mene tässä kohtaa yksittäisiin lukuihin, mutta hallituksen johto on valmistelumme pohjalta löytänyt yhteisymmärryksen sopeutuksen suuruusluokasta ja tarkemmista reunaehdoista, jotka raamittavat työryhmän työtä. Seuraavaksi etenemme tarkempiin päätöksiin ja käymme läpi hyvin tarkalla kammalla koko julkisen talouden kaikki menot sekä tulopuolen. Sen lisäksi tarkastelemme toimenpiteitä, joilla voidaan vauhdittaa tulevaisuuden talouskasvua, Marttinen sanoo.Vaadittavan sopeutuksen kokonaismäärä tarkentuu valtiovarainministeriön ennusteiden myötä, mutta valtiovarainministeri Riikka Purran (ps.) aiemmin esittämän arvion mukaan puhutaan noin kolmesta miljardista eurosta.Säästöt on määrä lyödä lukkoon huhtikuun kehysriihessä. Marttisen mukaan voi sanoa, että kehysriihineuvottelut ovat jo käytännössä alkaneet.– Usein riihen alla on puhuttu paljon pienemmistä kokonaisuuksista. Nyt tämä mittaluokka on hyvin suuri ja poikkeuksellinen. Tilanne on hyvin vakava.Avaa kuvien katseluMatias Marttinen (kok.) kuvaa vaadittavien säästöjen mittaluokkaa poikkeukselliseksi.  Kuva: Silja Viitala / YleMitään säästökeinoja ei ole suljettu poisIlman uusia päätöksiä hallitus Suomi olisi ajautumassa ensi vuonna EU:n liiallisen alijäämän menettelyyn. Lisäksi hallituksen omat tavoitteet julkisen talouden vahvistamisesta uhkaavat romuttua jo kättelyssä.Taustalla on muun muassa hyvinvointialueiden kustannusten odottamattoman suuri kasvu sekä talouden näkymien synkkeneminen.Tavallisesti riihiin valmistaudutaan erityisavustajatasolla, mutta Marttisen johtamassa työryhmässä istuvat hallituspuolueiden eduskuntaryhmien puheenjohtajat RKP:n Otto Andersson ja kristillisdemokraattien Peter Östman. Perussuomalaisten ryhmänjohtajan Jani Mäkelän sijaan valtiovarainministeripuoluetta ryhmässä edustaa kansanedustaja Ville Vähämäki. Lisäksi työryhmän kokouksiin osallistuu valtiovarainministeriön ylintä virkajohtoa.Uusien säästöpäätösten tekeminen tulee olemaan poliittisesti vaikeaa. Marttisen mukaan mitään säästökohteita ei ole tässä vaiheessa suljettu pois. Tarkemmin hän ei ota tässä vaiheessa kantaa yksittäisiin säästökohteisiin.– Kaikilta puolueilta vaaditaan kompromissihalua, mutta olen vakuuttunut siitä, että kaikilta sitä löytyy.Paineita myös eläkeläisiin kohdistuviin säästöihinSuomen Pankin kotimaiseen talouspolitiikkaan liittyvää valmistelutyötä tekevä päällikkö Essi Eerola pitää hyvänä lähtökohtana sitä, että mitään toimenpiteitä ei rajata pois.– Nyt tilanne on muuttunut merkittävällä tavalla siitä, mikä se oli, kun hallitusohjelmasta neuvoteltiin, Eerola sanoo.Hallituksen säästötoimet ovat tähän mennessä kohdistuneet voimakkaasti työikäisiin, sillä tavoitteena on ollut työllisyyden parantaminen. Sen sijaan eläkeläiset on jätetty pitkälti säästöjen ulkopuolelle.Eerola korostaa, että säästöjen tekemiseen liittyy aina poliitikoille kuuluvaa harkintaa erilaisten tavoitteiden välillä, mutta hän antaa esimerkkejä mahdollisista kohteista, joilla julkista taloutta voitaisiin tasapainottaa.– Eläkkeet ovat yksi iso osa sosiaaliturvaa, joka mahdollisesti tulee tässä keskustelussa kysymykseen. Lisäksi elinkeinotuet eivät ole vielä olleet kovin paljon tapetilla. Kolmas tekijä on se, että verotulot ovat laskeneet merkittävästi. Sen takia on tarpeen miettiä myös veroinstrumentteja, Eerola sanoo.Samankaltaiset keinot nousevat esiin myös esimerkiksi valtiovarainministeriön viime vuonna tekemissä meno- ja verokartoituksissa tai Talouspolitiikan arviointineuvoston raportissa.Hallitus on jäädyttänyt monia indeksisidonnaisia menoja, mutta eläkkeet on toistaiseksi jätetty niiden ulkopuolelle.Valtiovarainministeriön arvion mukaan esimerkiksi pienentämällä työeläkeindeksiä yhdellä prosenttiyksiköllä vuodessa neljän vuoden ajaksi valtio säästäisi yhteensä 800 miljoonaa euroa.Avaa kuvien katseluSuomen Pankin prosessipäällikkö Essi Eerola peräänkuuluttaa myös laajempaa keskustelua siitä, mikä kaikki kuuluu julkisen sektorin hoidettavaksi.  Kuva: Grigory Vorobyev / YleArvonlisäverotuksen kiristäminen pöydälläHallitus on ilmoittanut ottavansa myös tähän mennessä välttelemänsä veronkorotukset työkalupakkiin.Pelivaraa antaa se, että ilman uusia veronkorotuksia kokonaisveroaste on laskemassa muun muassa sähköautoilun lisääntyessä ja fossiilisiin polttoaineisiin liittyvän verokertymän vähentyessä. Myös työttömyysvakuutusmaksun alennus vähensi julkisia tuloja lähes miljardin verran.Suomen Pankin Eerolan mukaan verotuksessa katseet kannattaa kohdistaa erityisesti arvonlisäveroon.– Yleisesti sellaisia veroja pidetään hyvinä, jotka ovat laajapohjaisia ja vääristävät mahdollisimman vähän käyttäytymistä. Arvonlisävero on sellainen. Suomessa arvonlisäverotuksen perusvero on kohtuullisen korkea ja sen lisäksi meillä on useita alennettuja arvonlisäkantoja. Molempia kannattaa miettiä, Eerola sanoo.Valtiovarainministeri Purra on ehtinyt jo viime vuoden puolella Talouselämän haastattelussa väläyttää ruoan arvonlisäverokannan korottamista.Valtiovarainministeriön mukaan neljäntoista prosentin verokannan korottaminen prosenttiyksiköllä toisi valtion kassaan vuodessa noin 200 miljoonaa euroa.Lisäksi ministeriö nosti verokartoituksessaan esiin listaamattomien yhtiöiden osinkoverotuksen kiristämisen. Sen verotuottovaikutusten arvioidaan olevan 430 miljoonaa euroa.Eerolan mukaan säästöjä pohdittaessa olisi hyvä käydä myös laajemmin läpi julkisen sektorin roolia.– Keskustelussa olisi hyvä jossain vaiheessa päästä miettimään huolellisesti sitä, missä julkisen sektorin tehtävien rajat kulkevat. Nyt ongelmana tietysti on se, että näitä päätöksiä joudutaan tekemään aika nopeasti ja tällaiseen laajamittaiseen keskusteluun ei ole tässä tilanteessa mahdollisuuksia, Eerola sanoo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>5</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Viron puolus­tus­voimien tuleva komentaja: Sota pitää voida viedä Venäjän alueelle</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076631</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.02.2024</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ukrainalle on annettava valtuudet iskeä länsiasein myös Venäjän maaperälle, sanoo prikaatikenraali Andrus Merilo Ylen haastattelussa. </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>TALLINNA – On todennäköistä, että se tapahtuu pikemminkin ennemmin kuin myöhemmin.Näin Viron puolustusvoimien tuleva komentaja, äsken prikaatikenraaliksi ylennetty Andrus Merilo arvioi Venäjän mahdollista sotilaallista yhteenottoa lännen kanssa.Venäjän hyökkäyksestä muuallekin kuin Ukrainaan on alkuvuoden aikana varoiteltu ympäri Eurooppaa. Arviot siitä, kuinka kauan lännellä on aikaa varautua, ovat vaihdelleet muutamasta vuodesta vuosikymmeneen.Merilon mukaan aika-arviot ovat turhia.– Venäjä ei anna meille takuulla mitään valmisteluaikaa. Meidän pitää kyetä torjumaan hyökkäys heti kun se tapahtuu, hän sanoo.Länsimaiden asettama rajoitus oli virheMerilo painottaa ensimmäisen taistelun ratkaisevaa tärkeyttä. Yksi Ukrainan sodan opetuksista on, että Venäjän hyökkäyksen ensimmäinen aalto pitää pysäyttää.– Pitää tehdä vastarintaa, vaikka hyökkääjä olisi vahvempi ja mahtavampi.Toinen Venäjän sotaisuuteen liittyvä viisaus on peräisin Viron tasavallan alkuajoilta.– Jo silloin oppimme oli, että heti Venäjän hyökätessä sota pitää viedä sen alueelle. Muuten häviämme sen. Tämä sääntö pätee edelleen, toteaa Merilo.Niinpä länsimaat ovat tehneet hänen mukaansa virheen rajoittamalla lahjoittamiensa aseiden käytön vain Ukrainan maaperälle.– Ukrainalaisille on annettava aseiden lisäksi myös valtuudet käyttää niitä aseita Venäjän nujertamiseen tarvittavalla tavalla, prikaatikenraali korostaa.Avaa kuvien katseluViron presidentti Alar Karis ylensi Andrus Merilon prikaatikenraaliksi maan itsenäisyyspäivän alla 23. helmikuuta 2024. Kuva: Priit Mürk / ERRAndrus MeriloPrikaatikenraali Andrus Merilo aloittaa Viron puolustusvoimien komentajana heinäkuun alussa. Tällä hetkellä hän komentaa 1. jalkaväkiprikaatia.50-vuotias Merilo on kouluttautunut upseeriksi Suomessa. Hän kävi reserviupseerikurssin sissilinjalla vuonna 1998 ja opiskeli vuosina 1998–2002 Kadettikoulussa 85. kadettikurssilla.Ollut Viron puolustusvoimien palveluksessa vuodesta 1995 lähtien. Andrus Merilolla on taistelukokemusta sekä Afganistanin että Irakin sodasta.Palvellut rauhanturvatehtävissä Etelä-Libanonissa ja Kosovossa.Prikaatikenraali Merilo hämmästelee muutenkin monien länsimaiden passiivisuutta Ukrainan auttamisessa.– Tuen Ukrainalle pitäisi palata viime vuoden tasolle. Se palauttaisi ukrainalaisten puolustuskyvyn ja loisi edellytykset uudelle vastahyökkäykselle.– Tämänhetkinen passiivisuus on ongelma ja tuntuu hieman käsittämättömältä. Mielestäni kyse on kuitenkin tahdon puutteesta, ei aseiden tai kaluston puutteesta, Merilo lataa.Droonitaistelu osa varusmieskoulutustaViron puolustusvoimat kehittää toimintaansa jatkuvasti Ukrainan sodan kokemusten perusteella. Käänteentekevintä sodassa on ollut droonien käyttö. Virossa siitä on tullut olennainen osa varusmiespalvelusta, Merilo sanoo.– Droonien torjumista olemme opettaneet jo ennen Ukrainan sotaa, nyt teemme sitä tehostetusti. Koulutukseen kuuluu myös droonien käyttö vihollisen tuhoamiseksi.Jotkin Virossa pitkään vireillä olleista hankkeista ovat saaneet vauhtia Venäjän hyökkäyssodan takia. Hankittavista uusista asejärjestelmistä Merilo mainitsee keskipitkän kantaman ilmatorjunnan.– Se hankitaan ja integroidaan Naton ilmatorjuntaan lähiaikoina.Suomessa upseeriksi kouluttautunut prikaatikenraali muistelee reserviupseerikurssin ja kadettikurssin aikoja lämmöllä.– Tärkeimpänä opetuksena otin Suomesta mukaan sen, että vaikka olisi valtava ja raaka naapuri, pitää aina olla valmis puolustautumaan. Jos olet, niin vihollinen ei hyökkää, koska tietää häviävänsä, Merilo sanoo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Johanna Ruohoniemi oppi kantapään kautta, mitä ei kannata tehdä, kun muuttaa Suomesta ulkomaille</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20074414</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25.02.2024</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vuosien asuminen ulkomailla aiheuttaa aukon luottotietoihin. Suomeen palatessa esimerkiksi puhelinliittymän saaminen voi olla vaikeaa. </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Johanna Ruohoniemi palasi kaksi vuotta sitten Suomeen kymmenen Ruotsissa vietetyn vuoden jälkeen.Ruohoniemi yritti heti alkuun hankkia uuden nettiliittymän. Se osoittautui kuitenkin haastavaksi.– Soittelin operaattoreita läpi ja koitin netissäkin hankkia liittymää, mutta ei onnistunut. Sieltä sanottiin, että sinulla ei ole luottohistoriaa näkyvillä niin sinulle ei voida antaa tällaista liittymää, että jälkikäteen maksaisit.Hän päätyi avaamaan liittymän äitinsä nimissä.– Äitini otti nettiliittymän meidän osoitteeseen, mutta heti kun piti jotain asioita hoitaa liittymän osalta, ainoastaan äitini pystyi niitä hoitamaan. Tarvittiin valtakirja, että sain hoitaa itsekin liittmän asioita.Takuusäätiön mukaan ulkomailta palaavien kohdalla velkojan on vaikea saada tietoa siitä, onko henkilöllä velkoja tai maksuhäiriöitä.Moni paluumuuttaja kohtaa haasteita myös esimerkiksi osamaksusopimusten ja asunnon vuokraamisen yhteydessä. Myös niissä luottohistorian puuttuminen voi olla ongelma.Ongelmana aukot luottohistoriassaSuomeen muutto oli kinkkinen myös Kööpenhaminasta viime kesänä Suomeen palanneelle Maija Casciolle.Kymmenen ulkomaanvuoden aikana Cascio oli ehtinyt sulkea suomalaisen puhelinliittymän ja tarvitsi nyt uuden.– Puhelinliittymän saaminen oli todella haastavaa. Operaattorilta pyydettiin maksamaan etukäteen monen sadan euron vakuusmaksu, koska he eivät luottaneet siihen, että maksan laskuni, Cascio sanoo.Myös Johanna Ruohoniemi koki puhelinliittymän avaamisen vaikeaksi. Hän päätyi ottamaan prepaid-liittymän ennen kuin sai uuden työnsä kautta suomalaisen puhelinnumeron. Predaid-liittymässä tilille maksetaan saldoa etukäteen.– Ruotsalainen puhelinnumeroni ei toiminut monissa palveluissa, joten suomalainen numero oli aivan välttämätön hankkia, vaikka sitten prepaidina.Elisan henkilöasiakkaiden liittymistä vastaavan liiketoimintajohtajan Ilkka Pohtolan mukaan paluumuuttaja tulee Suomeen ikään kuin uutena henkilönä, vaikka olisi Suomen kansalainen ja asunut Suomessa aiemmin.– Liittymän avaaminen vaatii tuoreen luottohistorian, jota Suomeen palaavalla ei usein ole.Avaa kuvien katseluIlkka Pohtola Elisalta muistuttaa, että  liittymän avaaminen on helpompaa, jos henkilöllä on ollut vakituinen osoite Suomessa ulkomailla oleskelun ajan.  Kuva: Elisa OyjMyös DNA:lla Suomeen palaaville vaihtoehdot liittymän kohdalla ovat rajalliset.– Kun asiakas ottaa meiltä liittymän, kyse on luottosuhteesta, jolloin joudumme tarkistamaan tiedot luottorekisteristä. Asiakkaan tulee asua Suomessa riittävä aika, jotta tiedot näkyvät luottorekisterissä, sanoo DNA:n mobiililiiketoiminnan johtaja Cedric Kamtsan.Suomessa pitää asua vähintään vuosi, jotta luottohistoriaa ehtii kertyäKamtsanin mukaan DNA:lla käytäntönä on, että Suomessa pitää asua ainakin vuoden verran, jotta liittymän avaaminen on mahdollista.Jos luottohistoriassa on aukkoja, vaihtoehtoja sekä Elisalla että DNA:lla ovat joko vakuusmaksun maksaminen etukäteen tai rajatumpi liittymä, josta ei voi soittaa ulkomaille eikä maksullisiin palvelunumeroihin.Ilkka Pohtolan mukaan sadan euron vakuusmaksulla liittymän saa Elisalla käyttöön täydellä toiminnalla.– Vakuusmaksu hyvitetään asiakkaalle tulevissa puhelumaksuissa, kun luottohistoriaa on taas kertynyt takaisin täällä Suomessa.Avaa kuvien katseluCedric Kamtsan DNA:lta muistuttaa, että prepaid-liittymä on yksi harkinnan arvoinen vaihtoehto paluumuuttajille.  Kuva: Tapio Rissanen / YleVakuusmaksu on käytössä myös DNA:lla.– Asiakas maksaa tietyn summan vakuutena meille, jolloin pienennämme luottotappioriskiä.Kilpailu- ja kuluttajaviraston erityisasiantuntija Joonas Norr selittää ilmiön taustoja.– Lain mukaan teleyritys saa vaatia kuluttajalta liittymäsopimuksesta vakuuden, jos jonkin syy epäillä asiakkaan maksukykyä.Norrin mukaan ulkomailla asuminen on yksi tällainen syy, sillä luottohistoria ei ole tarpeeksi kattava. Luotonantaja ei myöskään pysty varmistamaan, onko Suomeen palaavalla maksuhäiriöitä muissa maissa.Sen sijaan asuntolainan saamiselle puutteellinen luottohistoria ei ole ongelma.OP:n asumisesta vastaavan johtajan Satu Nurmen mukaan asuntolainan kohdalla painavat muut asiat.– Meille oleellista on se, että henkilöllä on vakituinen osoite Suomessa ja tarpeeksi maksukykyä.”Älä sulje suomalaista pankkitiliä ja puhelinliittymää”Johanna Ruohoniemi harkitsisi nyt jälkiviisaana tarkkaan puhelinliittymän sulkemista ulkomaille muuton yhteydessä.– Säilytä suomalainen pankkitili ja puhelinnumero. Niiden kautta myös myöd verkkopankkitunnukset säilyvät. Se tekee kaikesta helpompaa, kun asioiminen ja tunnistautuminen onnistuu sähköisesti.Maija Cascio kannustaa samaan.– Pankkitili kannattaa ehdottomasti säilyttää ja jos saa Suomesta kohtuuhintaisen liittymän, niin sekin kannattaa pitää. Monissa suomalaisissa viranomaispalveluissa prepaid-liittymät ja ulkomaalaiset numerot eivät toimi.Ulkomailta takaisin Suomeen muuttavilla on usein aukkoja luottorekisterissä. Alla olevalla videolla Danske Bankin johtajan Sari Takala kertoo positiivisesta luottorekisteristä, joka otetaan käyttöön huhtikuussa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Miten Mäntyniemen remontti voi maksaa 55 miljoonaa euroa, ihmettelee somekansa – asiantun­ti­jakin hämmästyi</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076335</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>25.02.2024</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>Mäntyniemen remontti maksaa suunnilleen saman verran kuin sen rakentaminen aikoinaan.</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Tasavallan presidentin vuonna 1991 valmistunut virka-asunto peruskorjataan. Mäntyniemen maaliskuussa alkava remontti kestää kaksi vuotta ja se maksaa yhteensä arviolta 55 miljoonaa euroa.Hintalappua ovat hämmästelleet tavan kansalaiset muun muassa sosiaalisessa mediassa. Hintaa hämmästelee myös Suomen Arkkitehtiliitto SAFAn puheenjohtaja Asko Takala.– Kyllä itsekin sitä ihmettelin, melkeinpä kauhistelin, kohotin kulmakarvoja. Hintaa tulee 24 000–25 000 euroa huoneistoneliömetrille, joka on aika kova hinta. Totta kai sitä miettii, mistä tämä mahtaa koostua.Avaa kuvien katseluSuomen Arkkitehtiliitto SAFAn puheenjohtaja Asko Takala kertoo, että arkkitehdit ovat vaihtaneet Mäntyniemestä mielipiteitä alusta saakka. Kuva: Grigory Vorobyev / YleTasavallan presidentin kanslia ei antanut Ylelle haastattelua mutta toimitti eriteltyjä tietoja hankkeen kuluista sähköpostitse.
 Presidentin kanslian mukaan puolet rahasta kuluu rakentamiskustannuksiin, kuten hissien rakentamiseen ja uusintaan, porttivalvomorakennuksen laajennukseen, erilaisiin muutostöihin, liikenneinfran parannukseen sekä kaluste- ja valaisinkunnostuksiin.Miljoonia euroja kuluu myös muun muassa suunnitteluun, rakennuttamiseen ja valvontaan sekä väistötilan vuokraan ja tilapäisjärjestelyihin. Alexander Stubb aloittaa presidenttikautensa väistötiloissa, hiljattain remontoidussa valtion vierastalossa Helsingin Munkkiniemessä.Osaksi rakentamiskustannuksia on listattu myös turvatekniikan nykyaikaistaminen ja uudisrakentaminen. Takala uskoo, että turvallisuuteen liittyvät parannukset haukkaavat ison osan kustannuksista, vaikka niitä ei sen kummemmin eritellä.– Niitä emme tunne, ja siksi on vaikea sanoa, mitä siellä todellisuudessa tapahtuu. Turvallisuuteen liittyvät asiat ovat usein sellaisia, että niissä ei kysellä hintaa, hän toteaa.Asko Takala kertoo videolla, millaista keskustelua Mäntyniemestä on vuosien varrella käyty.Mäntyniemi erottuu edukseenTalvella matalalta tuleva valkoinen valo saa uusia suuntia ja synnyttää uusia muotoja. Ympäröivä luonto näkyy sisätiloissa seinillä liikkuvina oksien varjoina ja metsäheijastuksina.Näin kuvailee Mäntyniemeä arkkitehti Raili Pietilä kirjassa Tango Mäntyniemi (1994, Painatuskeskus).Avaa kuvien katseluValo on Mäntyniemen keskeisiä elementtejä. Kuva: Silja Viitala / YleRaili ja Reima Pietilän suunnitteleman Mäntyniemen persoonallisen lumon ovat kokeneet vallanpitäjät Trumpista Putiniin. Takala pitää Mäntyniemeä näyttävänä edustusrakennuksena, joka palvelee tarkoitustaan. Se on luontoa syleilevä kokonaistaideteos.– Eurooppalaisittain rakennus on moderneimpia valtionpäämiehen virka-asuntoja, ja se erottuu joukosta edukseen, Asko Takala sanoo.Arkkitehdit ovat alusta saakka vaihtaneet mielipiteitä Mäntyniemestä, sen arkkitehtuurista ja tietenkin rahasta.– Kyllä arkkitehditkin ovat kiinnostuneita kustannuksista, Takala naurahtaa.Mäntyniemen piti aikoinaan valmistua omakotitalon neliöhinnalla, mutta kokonaishinta moninkertaistui 210 miljoonaan markkaan eli reiluun 60 miljoonaan euroon. Asiasta syntyi silloin valtava haloo.Remontti siis maksaa suunnilleen saman verran kuin sen rakentaminen aikoinaan. Haloo se on nytkin päällä.– Jos verrataan normaaliin laadukkaampaan rakentamiseen, tämä on hinnaltaan omassa luokassaan, Asko Takala toteaa.– On Tasavallan presidentin kanslian vastuulla, että sen hinnan voi ymmärtää. Että kuinka paljon tätä kokonaisuutta halutaan avata? hän kysyy.X:ssä eli entisessä Twitterissä remontin hintaa on hämmästelty.Yhtä kaikki, nyt on Takalan mukaan viimeinen hetki remontille. Alkuperäisten suunnitelmien mukaan rakennuksen pitäisi olla pystyssä vielä tämän vuosisadan lopulla.</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Kymmenellä sentillä voi pelastaa ihmishengen – puhdas neula suojaa huumei­den­käyt­täjää vakavilta tartunnoilta</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20071130</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>23.02.2024</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Huumeidenkäyttäjät vaihtavat puhtaita neuloja pelkästään Jyväskylässä kymmeniä tuhansia kuukaudessa.</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Sairaanhoitaja Eeva Hoivassilta avaa keltaisen muoviastian, joka on puolillaan likaisia ruiskuja. Suonensisäisten huumeiden käyttäjät voivat tuoda sinne käytetyt pistovälineensä ja saada tilalle puhtaita. Hän työskentelee Jyväskylässä terveysneuvonta-auto Visiitissä, joka kiertää kahdesti viikossa eri kaupunginosissa.– Säiliön tilavuus on 50 litraa. Yhdellä kierroksella käyttövälineitä kertyy 2–3 astiallista, Hoivassilta kertoo.Likaisten ruiskujen palautusmahdollisuus auttaa tavoittamaan huumeiden käyttäjiä. Samalla se ehkäisee, ettei niitä jäisi lojumaan luontoon tai esimerkiksi lasten leikkipaikoille. Kuukaudessa terveysneuvontaan kertyy jopa 600 litraa eli 12 säiliöllistä likaisia ruiskuja.Jyväskylässä kiertävä terveysneuvonta-auto on ollut käytössä pitkään. Vastaava toimii myös esimerkiksi Helsingissä. Viime vuoden syksyllä myös Etelä-Pohjanmaalla aloitti terveysneuvonta-auto.Luottamuksen saaminen vie aikaaPäihdelääketieteen poliklinikan palveluvastaava Jaana Santala Keski-Suomen hyvinvointialueelta sanoo, että huumeita käyttävien ihmisten luottamuksen saavuttaminen vaatii pitkäjänteistä työskentelyä. Terveysneuvonta-auton asiakkailla on usein huumeriippuvuuden lisäksi muita vaikeuksia elämässä, esimerkiksi mielenterveysongelmia.– Pistovälineitä jakamalla ei kenenkään huumeiden käytön jatkamista tueta, vaan sitä, että ihminen voimaantuu huolehtimaan omasta terveydestään, hän sanoo.Terveysneuvonta-autossa päihteiden käyttäjät voivat esimerkiksi testauttaa itsensä hepatiittitartuntojen varalta, saada rokotuksia tai lähetteen seksitautitesteihin. Autossa voi asioida nimettömänä.Lähes 400 000 puhdasta pistosettiä vuodessaPistovälineiden vaihtaminen perustuu tartuntatautilakiin, ja sitä tarkentavaan asetukseen. Käytännössä tavoitteena on ehkäistä etenkin hepatiittitartuntoja ja Hi-viruksen leviämistä.– Kun käytettyjä pistovälineitä vaihdetaan puhtaisiin, voidaan estää veriteitse tarttuvien sairauksien leviämistä sekä hillitä tulehduksia, joita suonensisäisiä huumeita käyttävät voivat saada, Eeva Hoivassilta sanoo.Tartuntojen ja tulehdusten ehkäiseminen säästää myös julkisen terveydenhuollon rahoja. Esimerkiksi varsinkin C-hepatiittivirus leviää tehokkaasti suonensisäisesti huumeita käyttävien keskuudessa.– Yhden puhtaan pistosetin hinta on noin 7,5-9 senttiä, kun taas esimerkiksi C- hepatiittitartunnan hoito voi maksaa tuhansia euroja, Hoivassilta kertoo.Puhdas pistosetti sisältää neulan, ruiskun, alkoholidesinfiointi- ja kuivalapun, lääkemitan huumausaineiden sekoittamista varten sekä pumpulifilttereitä. Ne estävät, ettei huumeliuoksesta pääse kiinteitä aineksia suoneen. Puhtaita pistosettejä jaettiin terveysneuvontapalveluista viime vuonna yli 387 000.Huumeiden käyttö yleistyyJyväskylässä kiertävän terveysneuvonta-auto Visiitin käyntimäärät ovat kasvaneet selvästi viiden vuoden aikana.Esimerkiksi viime vuonna käyntimäärät kasvoivat 26 prosenttia edellisvuoteen verrattuna. Vuoteen 2019 verrattuna kasvua on vielä enemmän, noin 37 prosenttia.Terveyden ja hyvinvoinnin laitoksen mukaan suomalaisten huumekokeilut ja huumeiden käyttö ovat yleistyneet vuosina 2018–2022.– Huumeiden käytön yleistymisen näkyy kaikissa tilastoissa, mutta sen lisäksi käyntimäärien kasvua selittää, että tieto terveysneuvonnan palveluista on lisääntynyt ja huumeongelmasta kärsivät osaavat hakeutua sen piiriin, sanoo Jaana Santala.Perjantai-dokkari käsittelee Kööpenhaminan käyttöhuoneita.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>6</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Lapset päätyvät vääriin laitoksiin, koska mielen­ter­vey­son­gelmia ei ehditä hoitaa</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20075553</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>25.02.2024</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suurella osalla sijaishuollossa olevista lapsista on jonkinlainen mielenterveyden häiriö. Erikoissairaanhoidosta kieltäydytään auttamasta psyykkisesti oireilevia lapsia ilman huostaanottoa. </t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Kalle on oireillut väkivaltaisesti liki koko elämänsä ajan. Nyt 10-vuotias poika on viettänyt viimeiset kaksi vuotta erityislapsiin perehtyneessä lastensuojelulaitoksessa.Huostaanoton aikana Kallesta on tehty lastensuojelu- ja rikosilmoituksia ja hänet on viety kaksi kertaa pakkohoitoon psykiatriselle osastolle aggressiivisen kohtauksen vuoksi.Kiinnipitotilanteita on jopa useita kertoja viikossa. Kalle on myös erotettu koulusta muutamaksi viikoksi.– Näin isoja ongelmia meillä ei ollut silloin, kun Kalle oli kotona.Näin kertoo Kallen äiti Mirja. Molempien nimet on muutettu, sillä juttu käsittelee Kallen terveystietoja.Kallella on vuosia aiemmin diagnosoitu uhmakkuushäiriö. Käytöksessä on ollut Mirjan mukaan viitteitä myös esimerkiksi autismiin tai ADHD:hen eli aktiivisuuden ja tarkkaavuuden häiriöön, mutta tarkempia tutkimuksia niiden suhteen ei ole tehty.– Syyksi ilmoitettiin, että lapsi ei ole tutkittavassa kunnossa, koska oireilu on niin vahvaa. Kallen omaehtoisuus ja aggressiivisuus teki yhteistyöstä hoitavan tahon kanssa vaikeaa.Kallen väkivaltainen käytös alkoi jo alle kaksivuotiaana, ja nelivuotiaana hän pääsi vuoden kestäneeseen Theraplay-terapiaan. Kouluun mennessä ongelmat lisääntyivät: opettajat eivät saaneet lasta tekemään tehtäviä tai toimimaan koulun sääntöjen mukaan.Seurasi koulun tekemiä lastensuojeluilmoituksia ja niiden seurauksena lastensuojelu aloitti perheessä tukitoimena perhetyön.Avaa kuvien katseluKallella oli hetken aikaa koulussa lastensuojelun koulunkäynnin tuki, joka helpotti koulunkäyntiä. Sen sai kuitenkin vain yhdeksi kevääksi. Toisella luokalla Kalle oli vaativan erityisen tuen luokalla, mutta edes siellä häntä ei Mirjan mukaan osattu tukea. Kuva: Antti Eintola / YleLopulta 8-vuotias Kalle sijoitettiin kiireellisesti: ratkaisu, joka tuli Mirjalle täytenä yllätyksenä.Sijoituksen syyt olivat lapsen psyykkinen terveydentila ja väkivaltaisuus.Kallen oireilu on vain pahentunut laitosaikana, Mirja sanoo.Näin on, vaikka Kallella on lääkitys ja häntä hoitavat ympäri vuorokauden nepsy-lapsiin perehtyneet ammattilaiset.– Hänet on huostaanotettu hallinto-oikeuden päätöksellä, jossa lukee perusteena, että lapsen pitäisi kuntoutua laitoksessa. Kun sitä ei ole tapahtunut, huostaanotolla ei kaiken järjen mukaan ole enää perusteita.Ongelmat koulunkäynnissä tai psyykkinen oireilu eivät voi olla ainoita syitä huostaanotolle.Silti erikoissairaanhoito ja koulut tekevät sijoitustilauksia. Ne siis vaativat, että oireileva lapsi on otettava huostaan, ennen kuin tälle tarjotaan esimerkiksi psykiatrista apua.Näin kertoo hyvinvointialueyhtiö Hyvilin erikoisasiantuntija Aila Puustinen-Korhonen.Erikoissairaanhoidon tekemät sijoitustilaukset tulivat ilmi jo vuonna 2018 Kuntaliiton kyselyssä sosiaalityöntekijöille.Huostaanottovaatimuksen perusteena on yleensä lapsen olosuhteiden vakiinnuttaminen, jota ilman terapeuttiseen työskentelyyn ei voida lähteä.– Huostaanottoja ei tehdä koskaan minkään tahon pyynnöstä. Terveydenhuollossa annettava hoito lapselle ja vanhemmalle on aina ensisijaista sijaishuoltoon verrattuna. Se on määritelty myös laissa.Lastensuojelu hoitaa nyt terveyspalveluiden tehtäviäTHL:n kehittämispäällikkö Laura Ylirukan mukaan jopa 70 prosenttia sijoitetuista lapsista saa mielenterveyshäiriödiagnoosin lapsuusaikana, kun vertailuryhmässä luku on 18 prosenttia. Lukuun sisältyvät myös neuropsykiatrisen (nepsy) diagnoosin, kuten ADHD:n, saaneet lapset.Puustinen-Korhosen mukaan tämä näkyy käytännössä lastensuojelussa niin, että sijaishuolto sijaistaa nyt puuttuvia terveyspalveluja, erityisesti mielenterveys- ja päihdepalveluja sekä neuropsykiatrista kuntoutusta.Nepsy-lapsia ja mielenterveydellisistä ongelmista kärsiviä lapsia siis huostaanotetaan, koska se nähdään ainoana keinona auttaa näitä lapsia.Eemil on kertonut pelkäävänsä laitoksen isompia lapsia.ElinaOsalla lapsista psyykkiset ongelmat ja siihen liittyvä oireilu johtuvat kodin huonoista olosuhteista.Sosiaalityöntekijät ovat kuitenkin kertoneet, että on entistä enemmän perheitä, joista ei löydy mitään vikaa, mutta silti lapsi huostaanotetaan, Puustinen-Korhonen sanoo.– Se on väärin. Näin toimitaan siksi, että koulun tuki ja erikoissairaanhoidon ovet ovat sulkeutuneet lapselta, jolloin viimeiseksi keinoksi jää huostaanotto.Myös THL:n Yliruka tunnistaa ongelman, että psyykkisesti oireilevia lapsia huostaanotetaan, kun muualta ei saa tarvittavaa apua.THL:llä ei ole tutkimustietoa siitä, miten paljon tällaista tapahtuu. Tilanne on kuitenkin heikentynyt sen jälkeen, kun osastohoitoa vähennettiin lasten psykiatrisella puolella.– Nykyään vaikeastikin psyykkisesti oireilevat lapset päätyvät lastensuojelun asiakkaaksi ja sijoitettavaksi kodin ulkopuolelle useammin kuin aiemmin.Eemilin oireilu on vain pahentunutEemil, 12, sijoitettiin kiireellisesti kaksi vuotta sitten samankaltaisten ongelmien vuoksi kuin Kalle.Koulunkäynti ei sujunut ja poika oli väkivaltainen opettajia ja koulukavereita kohtaan, äiti Elina kertoo. Molempien nimet on muutettu, koska juttu käsittelee Eemilin terveystietoja.Eemilille on diagnosoitu ADHD, Touretten oireyhtymä sekä sosiaalisen vuorovaikutuksen vaikeudet. Hän ajautuu helposti riitoihin muiden lasten kanssa ja on joutunut kiusatuksi koulussa.Elokuussa 2021 Eemilille tuli jälleen uusi opettaja, jonka kanssa poika ei tullut lainkaan toimeen. Kun vaikeudet koulussa lisääntyivät, opettaja teki Eemilistä useita lastensuojeluilmoituksia.Avaa kuvien katseluVuosien varrella Elinan ja Eemilin perhe sai erinäisiä tukipalveluita, mutta kestot olivat lyhyitä ja henkilökunnan vaihtuvuus suurta. Pysyvämpi tukimuoto oli tukiperhe, jossa Eemil kävi noin kerran kuussa. Tuohon aikaan Elina oli yksinhuoltaja, eikä hänellä ollut lainkaan tukiverkkoja. Kuva: Antti Eintola / YleSaman vuoden lokakuussa perheelle aloitettiin intensiivinen perhetyö, jonka aikana sosiaalityöntekijät kävivät perheen luona kahdeksana päivänä kahden viikon ajan.Kokemus tuntui äärettömän stressaavalta, Elina kertoo.– Minusta tuntui, että sosiaalityöntekijät etsimällä etsivät huonoja puolia minusta ja tavastani toimia vanhempana, jotta saisivat Eemilin huostaanotettua.Myöhemmin samassa kuussa Elina oli odottamassa sosiaalityöntekijöitä saapuvaksi kotikäynnille, kun hänen puhelimensa soi. Sosiaalityöntekijä soitti ja kertoi, että Eemil on sijoitettu kiireellisesti ja hänet viedään lastensuojelulaitokseen.Myös Eemilin oireilu on pahentunut sijoituksen myötä.– Eemil on kertonut pelkäävänsä laitoksen isompia lapsia. Väkivaltaisuus koulussa on lisääntynyt ja kiinnipitoja joudutaan tekemään enemmän kuin aiemmin. Kouluun on jouduttu kutsumaan jopa poliisit rauhoittamaan Eemil, Elina kertoo.Lapsia huostaanotetaan, koska palveluita ei oleIso osa huostaanotoista voitaisiin Aila Puustinen-Korhosen mukaan välttää sillä, että lasten ja perheiden ongelmiin tartuttaisiin varhaisessa vaiheessa ja heille tarjottaisiin apua terveydenhuollosta sekä tukea koulunkäyntiin.– On väärin, että lapsia huostaanotetaan jonkun muun palvelun puuttumisen vuoksi.Myös Mirja ja Elina ajattelevat, että huostaanotolta olisi vältytty, jos heidän lapsensa olisivat saaneet alusta saakka riittävän tuen kouluun sekä kunnollista apua terveydenhuollosta.He kokevat, että huostaanottoihin päädyttiin, koska poikien oireilun katsottiin olevan kotiolojen syytä.– Sosiaalityöntekijät eivät usko, kun kerron, että meillä ei ole Kallen kanssa ongelmia, kun hän on kotilomilla. Ei ollut silloinkaan, kun hän asui kotona, vaan ongelmat olivat koulumaailmassa, Mirja sanoo.Mietin, miksi hyvistä perheistä huostaanotetaan lapsia, kun samaan aikaan lapsia palautetaan perheisiin, joissa heidät tapetaan.MirjaTällä hetkellä sijaishuollon kustannukset hyvinvointialueille ovat vuosittain yli miljardi euroa.Erityisen kallista on Kallen ja Eemilin kaltaisten lasten hoito, joilla on paljon erityisen tuen tarpeita. Yhden tällaisen lapsen hoito maksaa jopa satoja euroja vuorokaudessa.Yksi iso ongelma erityistarpeisten lasten sijoituksissa laitoksiin on Puustinen-Korhosen mukaan se, että laitoshoidon vaikuttavuudesta ei ole tutkimustietoa.– Emme tiedä, mitä näiden lasten ongelmille käy sijaishuollossa, mutta on viitteitä siitä, että ne voivat pahentua.Tuhottu lapsuusMirja kokee, että yhteiskunta on pettänyt heidät. Että Kallen lapsuus on tuhottu.– Mietin, miksi hyvistä perheistä huostaanotetaan lapsia, kun samaan aikaan lapsia palautetaan perheisiin, joissa heidät tapetaan.Huostaanoton pitäisi aina olla väliaikainen ratkaisu ja lapsen palautuminen kotiin päämäärä, jota kohti perhe työskentelee yhdessä sosiaalityöntekijöiden kanssa.Näin ei ole tapahtunut Mirjan ja Kallen tapauksessa. Mirja on hakenut huostaanoton purkua joulukuussa. Vastausta lastensuojelusta ei ole vielä kuulunut.– Kun Kalle siirrettiin toiselle paikkakunnalle, sosiaalityöntekijät eivät enää olleet kiinnostuneet perheemme tilanteen selvittämisestä.Avaa kuvien katseluKallen äiti Mirja kokee, että vanhemman, jonka lapsi on lastensuojelun asiakkaana, täytyy olla täydellinen. ”Vaikka lapsen kanssa olisi raskasta, ei saa olla kuormittunut tai valittaa väsymystä, koska se tarkoittaa sitä, että en pysty olemaan tarpeeksi hyvä vanhempi.” Kuva: Antti-Petteri Karhunen / YleEemilin äiti Elina myöntää, että arki vaikeasti oireilevan lapsen kanssa oli ajoittain hyvin raskasta ja omat voimavarat olivat koetuksella.Eemilin väkivaltainen käytös ja aggressiivisuus vähenivät viime kesänä. Silloin hän ei käynyt koulua ja vietti joka toisen viikon kotona.– En väitä olevani täydellinen. Mutta tiedän, että lapsellani olisi paljon parempi olla kotona kuin laitoksessa.Yle on tutustunut Kallen ja Eemilin terveystietoihin sekä lukuisiin heitä koskeviin lastensuojelun ja muiden viranomaisten dokumentteihin.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>6</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Närpiön ihmis­kaup­pavyyhti käräjille ehkä syksyllä – ilmiön laajuus yllätti kokeneen tutkijankin</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20075934</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>23.02.2024</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Jutut ovat saaneet syyttäjän käsittelyssä rikosnimikkeeksi törkeä kiskonta ja terveysrikos. Syyteharkinnassa on vielä ainakin kolme tapausta.</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Syyttäjä on päättänyt viedä käräjäoikeuteen kaksi niin sanottuun Närpiön ihmiskauppatapaukseen liittyvää juttua.Aluesyyttäjä Marina Ek-Beckin mukaan käräjäoikeudessa jo vireillä oleville jutuille ei ole määrätty vielä käsittelypäivää, koska syyteharkinnassa on lisää samaan vyyhtiin liittyviä tutkintoja.Käräjäoikeudessa nyt vireillä olevien ja käsittelypäivää odottavien juttujen rikosnimikkeet ovat törkeä kiskonta ja terveysrikos.Närpiöläisen kasvihuoneen ulkomaisiin työntekijöihin liittyvän jutun tutkinta on kestänyt pari vuotta. Jutussa on tutkittu muun muassa kynnysrahakäytäntöä. Suomessa jo asuvien vietnamilaisten on epäilty pyytäneen ja saaneen rahaa Suomeen töihin haluavilta maanmiehiltään.Asian etenemistä on saattanut hidastaa se, että alkuperäinen syyttäjä eläköityi kesken prosessin, ja uusi syyttäjä joutui aloittamaan tapauksen selvittelyn alusta.Kahden tapauksen syyteharkinta valmistuiAluesyyttäjä Marina Ek-Beckin mukaan käräjäoikeudessa on vireillä kaksi asiaa, jotka liittyvät tapaukseen; toinen jutuista koskee törkeää kiskontaa ja siinä on useita tapauksia, toinen ei liity suoranaisesti ihmiskauppaan.– Sitä käsitellään kuitenkin samassa yhteydessä, koska siinä on osin samoja ihmisiä mukana. Rikosnimike on tässä toisessa tapauksessa terveysrikos, kertoo syyttäjä Ek-Beck.Kummallekaan tapaukselle ei ole vielä määrätty käsittelypäivää Pohjanmaan käräjäoikeuteen, koska muut asiaan liittyvät jutut ovat edelleen syyteharkinnassa. Kaksi syyteharkinnan läpäissyttä juttua odottaa muiden syyteharkinnan valmistumista.Syyttäjän päätöstä on Ek-Beckin mukaan odottamassa vielä ainakin kolme juttua lisää. Rikosnimikkeenä on muun muassa törkeä kiskonta.Aluesyyttäjä Marina Ek-Beckin erittäin optimistinen arvio on, että jutut voisivat tulla käsittelyyn jo tänä keväänä. Todennäköisempi ajankohta on hänen mukaansa kuitenkin syksy.Kokenut tutkija yllättyiIhmiskauppajutun tutkinta jaettiin aikoinaan Pohjanmaan poliisin, Helsingin poliisin ja KRP:n kesken.Rikosylikomisario Hannu Kortelainen Helsingin poliisin ihmiskaupparikoksia tutkivasta yksiköstä on ollut mukana tutkinnassa pitkään.Rikosvyyhdin pääjuonena on hänen mukaansa ollut kynnysrahailmiö.Osaa kasvihuonetyöntekijöistä epäillään siitä, että he ovat pyytäneet työsopimuksista tuhansia euroja Suomeen haluavilta työntekijöiltä. Uudet tulijat ovat maksaneet näitä niin sanottuja kynnysrahoja. Osaa näistä tapauksista poliisi tutki alun perin ihmiskauppa-nimikkeellä.Kokenut rikostutkija Hannu Kortelainen on yllättynyt siitä, miten pitkään kynnysrahailmiö sai jatkua.– Tutkinnassa yllätti se, että ilmiö on jatkunut tässä muodossa kymmeniä vuosia. Viranomaiset eivät ole tiedostaneet, mitä kaikkea siihen liittyy.Kortelaisen mukaan kyse ei ole pelkästään Närpiön tapauksesta, vaan ylipäätään siitä, että suomalaisessa yhteiskunnassa ei ole asiaa tunnistettu.– Ulkomaista työvoimaa tarvitsevat yrittäjät eivät joko ole tienneet tai välittäneet siitä, että värvääjä perii kynnysrahaa, ihmettelee Hannu Kortelainen.Ulkomaista työvoimaa tarvitaan, mutta Kortelaisen mukaan rekrytointi pitäisi saada reilummaksi, jotta tällaiset lieveilmiöt saadaan kitkettyä.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>6</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Putin teki virhearvion, sanoo Suomessa vieraillut Hodorkovski: ”Hän luotti siihen, että säikäh­täisimme Navalnyin kuolemaa”</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20076325</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>25.02.2024</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maanpaossa elävä entinen venäläisoligarkki Mihail Hodorkovski on tunnetuimpia presidentti Vladimir Putinin vastustajia. </t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>– Putin luotti siihen, että säikähtäisimme Navalnyin kuolemaa ja hajoaisimme, sanoo entinen venäläisoligarkki Mihail Hodorkovski.Näin ei käynyt, Hodorkovski sanoo ja lisää, että Navalnyin tukijat ovat löytäneet hänen leskestään Julija Navalnajasta oman poliittisen edustajansa. Omat kannattajansa on esimerkiksi Garri Gasparovilla, Maksim Katzilla, Anastasia Ševtšenkolla ja Dmitri Gudkovilla.Hodorkovski uskoo, että Venäjän demokraattinen oppositio pystyy yhdistämään voimansa. Hän ei vastannut Ylen toimittajan kysymykseen siitä, miten paljon vaikutusvaltaa oppositiolla on Venäjän ulkopuolella.Hodorkovskin mukaan opposition yhteistyö ulkomailla on venäläisten hyväksi myös maan sisäpuolella.Vieraili Suomessa vastustamassa Venäjän hyökkäyssotaaHodorkovski vieraili sunnuntaina puhumassa Helsingin Kansalaistorilla järjestetyssä Venäjän hyökkäyssodan vastaisessa mielenosoituksessa.– Venäjän presidentti Vladimir Putin ei ole sama asia kuin Venäjä ja Venäjän kansa, sanoo Hodorkovski.Hän kehotti venäläisiä vastustamaan Putinia maaliskuun vaaleissa äänestämällä. Hodorkovskin mukaan yli puolet venäläisistä ei kannata sotaa Ukrainassa.Hodorkovski on yksi tunnetuimmista maanpaossa elävistä Venäjän presidentin Vladimir Putinin vastustajista.Hodorkovski sanoo, että Venäjän autoritaarinen systeemi ei mahdollista sellaisten vaalien toteuttamista, joka osoittaisi maassa toimivien poliitikkojen todellisen suosion.– Gallupit ja kyselytutkimukset eivät anna todenmukaista kuvaa, koska ihmiset pelkäävät ilmaista mielipidettään. Jos olisi mahdollista toteuttaa oikeat vaalit, silloin pystyisimme sanomaan, että tuo sai viisi ääntä, tuo sai kaksi ääntä, ja tuo sai kolmetoista. Mutta tämä ei ole mahdollista.Hodorkovski kertoo myös, että Euroopan neuvoston puitteissa ollaan järjestämässä venäläisen opposition yhteistyötä, johon myös hän on osallistumassa.”Navalnyin kaltaisia Venäjän historiassa vain harvoja”Hodorkovskilta kysyttiin myös kuolleesta oppositiojohtajasta Aleksei Navalnyista.Hän sanoo pitävänsä Navalnyita ”tehokkaana poliitikkona”, jonka kaltaisia ei ole Venäjän historiassa ollut montaa.– Ymmärsimme, että kun maassamme tapahtuu muutoksia, hänen henkeään tulee uhkaamaan suuri vaara. Ensimmäinen reaktiomme hänen kuolemaansa oli, ettei niin voi tapahtua. Valitettavasti niin tapahtui.Ylen haastatelussa Hodorkovskin kuvailee ensimmäisiä tuntemuksia kuultuaan Navalnyin kuolemasta.– Järki sanoo, että niin voi käydä, mutta tunteet sanovat, ettei se ole mahdollista.Hän kertoo olleensa yhtä epäuskoinen kuin kuultuaan Venäjän hyökänneen Ukrainaan toissa vuonna.Mielenosoitukseen osallistunut venäläinen aktivisti Irina Medvedeva kertoo saapuneensa mielenosoitukseen ilmaistakseen mielipiteensä Venäjän aloittamasta hyökkäyssodasta Ukrainassa. Hän on saanut poliittisen turvapaikan Suomesta.– Vastustan sotaa ja haluan ilmaista mielipiteeni näiden kaikkien ihmisten kanssa, Medvedeva sanoo.Myös paikalla ollut Jaakko Kauranen sanoo kokevansa, että jokaisen eurooppalaisen tulee muistaa Ukrainan sotaa joka päivä.– Sitä ei saa unohtaa, mitä Ukrainassa tapahtuu. Hyvä että saadaan Hodorkovskin kaltaisia nimiä puhumaan Suomeen, Kauranen sanoo.Ylen tietojen mukaan Hodorkovski tapaa muun muassa eduskunnan puhemiehen Jussi Halla-ahon (ps.), europarlamentaarikko Heidi Hautalan (vihr.) ja kansanedustaja Kimmo Kiljusen (sd.). Mielenosoituksen järjestää Suomen venäjänkielisten perustama Venäjän demokratian puolesta -liike.Helsingin poliisi arvioi, että paikalla oli noin 200 ihmistä.Avaa kuvien katseluMielenosoittajat kokoontuivat vastustamaan Venäjän sotaa Ukrainassa. Kuva: Grigory Vorobyev / YleAvaa kuvien katseluKaksi vuotta täysimittaista terroria -mielenosoitus Helsingin Kansalaistorilla sunnuntaina. Kuva: Grigory Vorobyev / YleEntisestä oligarkista tuli maanpakoon joutunut Putinin vastustajaVuonna 1963 Moskovassa syntynyt Hodorkovski kiinnostui politiikasta ja liike-elämästä jo nuorena. 80-luvulla hän toimi kommunistisessa nuorisojärjestössä, mitä kautta hän eteni liike-elämään. Vuonna 1989 Hodorkovski perusti liikekumppaniensa kanssa Menatep-pankin.Pankki käytti hyödykseen Neuvostoliiton romahdusta ja siitä seurannutta valtionyritysten yksityistämistä. Kun Menatep-pankki kykeni ostamaan yksityistettyjen yritysten osakkeita edulliseen hintaan, tuli Hodorkovskista kauppojen myötä miljonääri.1990-luvulla Hodorkovski osti öljy-yhtiö Jukosin, joka kasvoi yhdeksi maan suurimmista öljy-yhtiöistä. Venäjän presidentin Boris Jeltsinin valtakaudella Hodorkovski eteni myös maan varaenergiaministeriksi.Vuosituhannen alkuun mennessä Hodorkovskista oli tullut Venäjän rikkain mies. Hodorkovskin ja Putinin välit viilenivät pian sen jälkeen, kun Hodorkovski vaati televisioidussa väittelyssä puuttumaan viranomaisten korruptioon. Tämän vuoksi suuttunut Putin määräsi rikostutkinnan koskien Hodorkovskin liiketoimia.Avaa kuvien katseluMihail Hodorkovski osallistui Venäjän hyökkäyssodan vastaiseen mielenosoitukseen Helsingissä. Kuva: Grigory Vorobyev / YleHodorkovski pidätettiin vuonna 2003 talousrikoksista epäiltynä, kun hän oli rahoittanut maan oppositioliikettä. Syyttäjänviranomaisen mukaan Hodorkovski syyllistyi laajamittaisiin petoksiin ja veronkiertoon, ja hänet tuomittiin neljän vuoden vankeusrangaistukseen. Hodorkovski luonnehti viranomaistutkintaa poliittiseksi ajojahdiksi. Ihmisoikeusjärjestö Amnesty International julisti hänet poliittiseksi vangiksi vuonna 2013.Kaksi vuotta myöhemmin Hodorkovski vangittiin kahdeksaksi vuodeksi. Rangaistusta jatkettiin vuonna 2010, jolloin Hodorkovskille annettiin tuomio yhtiönsä öljyn varastamisesta. Hodorkovskin miljardööriksi nostanut Jukos ajautui vankeuden aikana konkurssiin, ja yrityksen osat myytiin valtio-omisteisille yhtiöille.Putin armahti Hodorkovskin vuonna 2013, minkä jälkeen hän on asunut maanpaossa muun muassa Saksassa ja Britanniassa.Vuonna 2001 hän perusti Avoin Venäjä -säätiön, jonka tarkoituksena oli tukea Venäjän demokratisoitumista. Lopulta Avoimen Venäjän toiminta kiellettiin lailla ja se julistettiin vuonna 2017 ”ei-toivotuksi järjestöksi”.Vuonna 2022 Venäjä julisti Hodorkovskin ”vieraan vallan agentiksi” väittäen hänen saaneen rahoitusta Ukrainalta. Venäjä on käyttänyt vieraan vallan agentiksi julistamista yhtenä tukahduttamistoimena Putinin vastustajia, toimittajia ja ihmisoikeusaktivisteja vastaan.Lähde: Reuters</t>
-        </is>
-      </c>
-    </row>
     <row r="19">
       <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Kymmenellä sentillä voi pelastaa ihmishengen – puhdas neula suojaa huumei­den­käyt­täjää vakavilta tartunnoilta</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20071130</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.02.2024</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Huumeidenkäyttäjät vaihtavat puhtaita neuloja pelkästään Jyväskylässä kymmeniä tuhansia kuukaudessa.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Sairaanhoitaja Eeva Hoivassilta avaa keltaisen muoviastian, joka on puolillaan likaisia ruiskuja. Suonensisäisten huumeiden käyttäjät voivat tuoda sinne käytetyt pistovälineensä ja saada tilalle puhtaita. Hän työskentelee Jyväskylässä terveysneuvonta-auto Visiitissä, joka kiertää kahdesti viikossa eri kaupunginosissa.– Säiliön tilavuus on 50 litraa. Yhdellä kierroksella käyttövälineitä kertyy 2–3 astiallista, Hoivassilta kertoo.Likaisten ruiskujen palautusmahdollisuus auttaa tavoittamaan huumeiden käyttäjiä. Samalla se ehkäisee, ettei niitä jäisi lojumaan luontoon tai esimerkiksi lasten leikkipaikoille. Kuukaudessa terveysneuvontaan kertyy jopa 600 litraa eli 12 säiliöllistä likaisia ruiskuja.Jyväskylässä kiertävä terveysneuvonta-auto on ollut käytössä pitkään. Vastaava toimii myös esimerkiksi Helsingissä. Viime vuoden syksyllä myös Etelä-Pohjanmaalla aloitti terveysneuvonta-auto.Luottamuksen saaminen vie aikaaPäihdelääketieteen poliklinikan palveluvastaava Jaana Santala Keski-Suomen hyvinvointialueelta sanoo, että huumeita käyttävien ihmisten luottamuksen saavuttaminen vaatii pitkäjänteistä työskentelyä. Terveysneuvonta-auton asiakkailla on usein huumeriippuvuuden lisäksi muita vaikeuksia elämässä, esimerkiksi mielenterveysongelmia.– Pistovälineitä jakamalla ei kenenkään huumeiden käytön jatkamista tueta, vaan sitä, että ihminen voimaantuu huolehtimaan omasta terveydestään, hän sanoo.Terveysneuvonta-autossa päihteiden käyttäjät voivat esimerkiksi testauttaa itsensä hepatiittitartuntojen varalta, saada rokotuksia tai lähetteen seksitautitesteihin. Autossa voi asioida nimettömänä.Lähes 400 000 puhdasta pistosettiä vuodessaPistovälineiden vaihtaminen perustuu tartuntatautilakiin, ja sitä tarkentavaan asetukseen. Käytännössä tavoitteena on ehkäistä etenkin hepatiittitartuntoja ja Hi-viruksen leviämistä.– Kun käytettyjä pistovälineitä vaihdetaan puhtaisiin, voidaan estää veriteitse tarttuvien sairauksien leviämistä sekä hillitä tulehduksia, joita suonensisäisiä huumeita käyttävät voivat saada, Eeva Hoivassilta sanoo.Tartuntojen ja tulehdusten ehkäiseminen säästää myös julkisen terveydenhuollon rahoja. Esimerkiksi varsinkin C-hepatiittivirus leviää tehokkaasti suonensisäisesti huumeita käyttävien keskuudessa.– Yhden puhtaan pistosetin hinta on noin 7,5-9 senttiä, kun taas esimerkiksi C- hepatiittitartunnan hoito voi maksaa tuhansia euroja, Hoivassilta kertoo.Puhdas pistosetti sisältää neulan, ruiskun, alkoholidesinfiointi- ja kuivalapun, lääkemitan huumausaineiden sekoittamista varten sekä pumpulifilttereitä. Ne estävät, ettei huumeliuoksesta pääse kiinteitä aineksia suoneen. Puhtaita pistosettejä jaettiin terveysneuvontapalveluista viime vuonna yli 387 000.Huumeiden käyttö yleistyyJyväskylässä kiertävän terveysneuvonta-auto Visiitin käyntimäärät ovat kasvaneet selvästi viiden vuoden aikana.Esimerkiksi viime vuonna käyntimäärät kasvoivat 26 prosenttia edellisvuoteen verrattuna. Vuoteen 2019 verrattuna kasvua on vielä enemmän, noin 37 prosenttia.Terveyden ja hyvinvoinnin laitoksen mukaan suomalaisten huumekokeilut ja huumeiden käyttö ovat yleistyneet vuosina 2018–2022.– Huumeiden käytön yleistymisen näkyy kaikissa tilastoissa, mutta sen lisäksi käyntimäärien kasvua selittää, että tieto terveysneuvonnan palveluista on lisääntynyt ja huumeongelmasta kärsivät osaavat hakeutua sen piiriin, sanoo Jaana Santala.Perjantai-dokkari käsittelee Kööpenhaminan käyttöhuoneita.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Lapset päätyvät vääriin laitoksiin, koska mielen­ter­vey­son­gelmia ei ehditä hoitaa</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20075553</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25.02.2024</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suurella osalla sijaishuollossa olevista lapsista on jonkinlainen mielenterveyden häiriö. Erikoissairaanhoidosta kieltäydytään auttamasta psyykkisesti oireilevia lapsia ilman huostaanottoa. </t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Kalle on oireillut väkivaltaisesti liki koko elämänsä ajan. Nyt 10-vuotias poika on viettänyt viimeiset kaksi vuotta erityislapsiin perehtyneessä lastensuojelulaitoksessa.Huostaanoton aikana Kallesta on tehty lastensuojelu- ja rikosilmoituksia ja hänet on viety kaksi kertaa pakkohoitoon psykiatriselle osastolle aggressiivisen kohtauksen vuoksi.Kiinnipitotilanteita on jopa useita kertoja viikossa. Kalle on myös erotettu koulusta muutamaksi viikoksi.– Näin isoja ongelmia meillä ei ollut silloin, kun Kalle oli kotona.Näin kertoo Kallen äiti Mirja. Molempien nimet on muutettu, sillä juttu käsittelee Kallen terveystietoja.Kallella on vuosia aiemmin diagnosoitu uhmakkuushäiriö. Käytöksessä on ollut Mirjan mukaan viitteitä myös esimerkiksi autismiin tai ADHD:hen eli aktiivisuuden ja tarkkaavuuden häiriöön, mutta tarkempia tutkimuksia niiden suhteen ei ole tehty.– Syyksi ilmoitettiin, että lapsi ei ole tutkittavassa kunnossa, koska oireilu on niin vahvaa. Kallen omaehtoisuus ja aggressiivisuus teki yhteistyöstä hoitavan tahon kanssa vaikeaa.Kallen väkivaltainen käytös alkoi jo alle kaksivuotiaana, ja nelivuotiaana hän pääsi vuoden kestäneeseen Theraplay-terapiaan. Kouluun mennessä ongelmat lisääntyivät: opettajat eivät saaneet lasta tekemään tehtäviä tai toimimaan koulun sääntöjen mukaan.Seurasi koulun tekemiä lastensuojeluilmoituksia ja niiden seurauksena lastensuojelu aloitti perheessä tukitoimena perhetyön.Avaa kuvien katseluKallella oli hetken aikaa koulussa lastensuojelun koulunkäynnin tuki, joka helpotti koulunkäyntiä. Sen sai kuitenkin vain yhdeksi kevääksi. Toisella luokalla Kalle oli vaativan erityisen tuen luokalla, mutta edes siellä häntä ei Mirjan mukaan osattu tukea. Kuva: Antti Eintola / YleLopulta 8-vuotias Kalle sijoitettiin kiireellisesti: ratkaisu, joka tuli Mirjalle täytenä yllätyksenä.Sijoituksen syyt olivat lapsen psyykkinen terveydentila ja väkivaltaisuus.Kallen oireilu on vain pahentunut laitosaikana, Mirja sanoo.Näin on, vaikka Kallella on lääkitys ja häntä hoitavat ympäri vuorokauden nepsy-lapsiin perehtyneet ammattilaiset.– Hänet on huostaanotettu hallinto-oikeuden päätöksellä, jossa lukee perusteena, että lapsen pitäisi kuntoutua laitoksessa. Kun sitä ei ole tapahtunut, huostaanotolla ei kaiken järjen mukaan ole enää perusteita.Ongelmat koulunkäynnissä tai psyykkinen oireilu eivät voi olla ainoita syitä huostaanotolle.Silti erikoissairaanhoito ja koulut tekevät sijoitustilauksia. Ne siis vaativat, että oireileva lapsi on otettava huostaan, ennen kuin tälle tarjotaan esimerkiksi psykiatrista apua.Näin kertoo hyvinvointialueyhtiö Hyvilin erikoisasiantuntija Aila Puustinen-Korhonen.Erikoissairaanhoidon tekemät sijoitustilaukset tulivat ilmi jo vuonna 2018 Kuntaliiton kyselyssä sosiaalityöntekijöille.Huostaanottovaatimuksen perusteena on yleensä lapsen olosuhteiden vakiinnuttaminen, jota ilman terapeuttiseen työskentelyyn ei voida lähteä.– Huostaanottoja ei tehdä koskaan minkään tahon pyynnöstä. Terveydenhuollossa annettava hoito lapselle ja vanhemmalle on aina ensisijaista sijaishuoltoon verrattuna. Se on määritelty myös laissa.Lastensuojelu hoitaa nyt terveyspalveluiden tehtäviäTHL:n kehittämispäällikkö Laura Ylirukan mukaan jopa 70 prosenttia sijoitetuista lapsista saa mielenterveyshäiriödiagnoosin lapsuusaikana, kun vertailuryhmässä luku on 18 prosenttia. Lukuun sisältyvät myös neuropsykiatrisen (nepsy) diagnoosin, kuten ADHD:n, saaneet lapset.Puustinen-Korhosen mukaan tämä näkyy käytännössä lastensuojelussa niin, että sijaishuolto sijaistaa nyt puuttuvia terveyspalveluja, erityisesti mielenterveys- ja päihdepalveluja sekä neuropsykiatrista kuntoutusta.Nepsy-lapsia ja mielenterveydellisistä ongelmista kärsiviä lapsia siis huostaanotetaan, koska se nähdään ainoana keinona auttaa näitä lapsia.Eemil on kertonut pelkäävänsä laitoksen isompia lapsia.ElinaOsalla lapsista psyykkiset ongelmat ja siihen liittyvä oireilu johtuvat kodin huonoista olosuhteista.Sosiaalityöntekijät ovat kuitenkin kertoneet, että on entistä enemmän perheitä, joista ei löydy mitään vikaa, mutta silti lapsi huostaanotetaan, Puustinen-Korhonen sanoo.– Se on väärin. Näin toimitaan siksi, että koulun tuki ja erikoissairaanhoidon ovet ovat sulkeutuneet lapselta, jolloin viimeiseksi keinoksi jää huostaanotto.Myös THL:n Yliruka tunnistaa ongelman, että psyykkisesti oireilevia lapsia huostaanotetaan, kun muualta ei saa tarvittavaa apua.THL:llä ei ole tutkimustietoa siitä, miten paljon tällaista tapahtuu. Tilanne on kuitenkin heikentynyt sen jälkeen, kun osastohoitoa vähennettiin lasten psykiatrisella puolella.– Nykyään vaikeastikin psyykkisesti oireilevat lapset päätyvät lastensuojelun asiakkaaksi ja sijoitettavaksi kodin ulkopuolelle useammin kuin aiemmin.Eemilin oireilu on vain pahentunutEemil, 12, sijoitettiin kiireellisesti kaksi vuotta sitten samankaltaisten ongelmien vuoksi kuin Kalle.Koulunkäynti ei sujunut ja poika oli väkivaltainen opettajia ja koulukavereita kohtaan, äiti Elina kertoo. Molempien nimet on muutettu, koska juttu käsittelee Eemilin terveystietoja.Eemilille on diagnosoitu ADHD, Touretten oireyhtymä sekä sosiaalisen vuorovaikutuksen vaikeudet. Hän ajautuu helposti riitoihin muiden lasten kanssa ja on joutunut kiusatuksi koulussa.Elokuussa 2021 Eemilille tuli jälleen uusi opettaja, jonka kanssa poika ei tullut lainkaan toimeen. Kun vaikeudet koulussa lisääntyivät, opettaja teki Eemilistä useita lastensuojeluilmoituksia.Avaa kuvien katseluVuosien varrella Elinan ja Eemilin perhe sai erinäisiä tukipalveluita, mutta kestot olivat lyhyitä ja henkilökunnan vaihtuvuus suurta. Pysyvämpi tukimuoto oli tukiperhe, jossa Eemil kävi noin kerran kuussa. Tuohon aikaan Elina oli yksinhuoltaja, eikä hänellä ollut lainkaan tukiverkkoja. Kuva: Antti Eintola / YleSaman vuoden lokakuussa perheelle aloitettiin intensiivinen perhetyö, jonka aikana sosiaalityöntekijät kävivät perheen luona kahdeksana päivänä kahden viikon ajan.Kokemus tuntui äärettömän stressaavalta, Elina kertoo.– Minusta tuntui, että sosiaalityöntekijät etsimällä etsivät huonoja puolia minusta ja tavastani toimia vanhempana, jotta saisivat Eemilin huostaanotettua.Myöhemmin samassa kuussa Elina oli odottamassa sosiaalityöntekijöitä saapuvaksi kotikäynnille, kun hänen puhelimensa soi. Sosiaalityöntekijä soitti ja kertoi, että Eemil on sijoitettu kiireellisesti ja hänet viedään lastensuojelulaitokseen.Myös Eemilin oireilu on pahentunut sijoituksen myötä.– Eemil on kertonut pelkäävänsä laitoksen isompia lapsia. Väkivaltaisuus koulussa on lisääntynyt ja kiinnipitoja joudutaan tekemään enemmän kuin aiemmin. Kouluun on jouduttu kutsumaan jopa poliisit rauhoittamaan Eemil, Elina kertoo.Lapsia huostaanotetaan, koska palveluita ei oleIso osa huostaanotoista voitaisiin Aila Puustinen-Korhosen mukaan välttää sillä, että lasten ja perheiden ongelmiin tartuttaisiin varhaisessa vaiheessa ja heille tarjottaisiin apua terveydenhuollosta sekä tukea koulunkäyntiin.– On väärin, että lapsia huostaanotetaan jonkun muun palvelun puuttumisen vuoksi.Myös Mirja ja Elina ajattelevat, että huostaanotolta olisi vältytty, jos heidän lapsensa olisivat saaneet alusta saakka riittävän tuen kouluun sekä kunnollista apua terveydenhuollosta.He kokevat, että huostaanottoihin päädyttiin, koska poikien oireilun katsottiin olevan kotiolojen syytä.– Sosiaalityöntekijät eivät usko, kun kerron, että meillä ei ole Kallen kanssa ongelmia, kun hän on kotilomilla. Ei ollut silloinkaan, kun hän asui kotona, vaan ongelmat olivat koulumaailmassa, Mirja sanoo.Mietin, miksi hyvistä perheistä huostaanotetaan lapsia, kun samaan aikaan lapsia palautetaan perheisiin, joissa heidät tapetaan.MirjaTällä hetkellä sijaishuollon kustannukset hyvinvointialueille ovat vuosittain yli miljardi euroa.Erityisen kallista on Kallen ja Eemilin kaltaisten lasten hoito, joilla on paljon erityisen tuen tarpeita. Yhden tällaisen lapsen hoito maksaa jopa satoja euroja vuorokaudessa.Yksi iso ongelma erityistarpeisten lasten sijoituksissa laitoksiin on Puustinen-Korhosen mukaan se, että laitoshoidon vaikuttavuudesta ei ole tutkimustietoa.– Emme tiedä, mitä näiden lasten ongelmille käy sijaishuollossa, mutta on viitteitä siitä, että ne voivat pahentua.Tuhottu lapsuusMirja kokee, että yhteiskunta on pettänyt heidät. Että Kallen lapsuus on tuhottu.– Mietin, miksi hyvistä perheistä huostaanotetaan lapsia, kun samaan aikaan lapsia palautetaan perheisiin, joissa heidät tapetaan.Huostaanoton pitäisi aina olla väliaikainen ratkaisu ja lapsen palautuminen kotiin päämäärä, jota kohti perhe työskentelee yhdessä sosiaalityöntekijöiden kanssa.Näin ei ole tapahtunut Mirjan ja Kallen tapauksessa. Mirja on hakenut huostaanoton purkua joulukuussa. Vastausta lastensuojelusta ei ole vielä kuulunut.– Kun Kalle siirrettiin toiselle paikkakunnalle, sosiaalityöntekijät eivät enää olleet kiinnostuneet perheemme tilanteen selvittämisestä.Avaa kuvien katseluKallen äiti Mirja kokee, että vanhemman, jonka lapsi on lastensuojelun asiakkaana, täytyy olla täydellinen. ”Vaikka lapsen kanssa olisi raskasta, ei saa olla kuormittunut tai valittaa väsymystä, koska se tarkoittaa sitä, että en pysty olemaan tarpeeksi hyvä vanhempi.” Kuva: Antti-Petteri Karhunen / YleEemilin äiti Elina myöntää, että arki vaikeasti oireilevan lapsen kanssa oli ajoittain hyvin raskasta ja omat voimavarat olivat koetuksella.Eemilin väkivaltainen käytös ja aggressiivisuus vähenivät viime kesänä. Silloin hän ei käynyt koulua ja vietti joka toisen viikon kotona.– En väitä olevani täydellinen. Mutta tiedän, että lapsellani olisi paljon parempi olla kotona kuin laitoksessa.Yle on tutustunut Kallen ja Eemilin terveystietoihin sekä lukuisiin heitä koskeviin lastensuojelun ja muiden viranomaisten dokumentteihin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lönnrot ja muut kielinerot tehtailivat sanoja: ”tiede” ja ”taide” jäivät käyttöön, ”pölkäre” ei kelvannut kuutioksi</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20067087</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>28.02.2024</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1840-luvulla luotiin pohja suomelle sivistyskielenä. Osa uudissanoista jäi elämään ja osa ei. Tämän jutun lopussa voit testata, onko sinulla sanat hallussa.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Kalevalan päivän sankari Elias Lönnrot oli aikansa sanaseppo vailla vertaa.– Hän oli ylivoimainen nero suomen kielen alalla, sen paras asiantuntija, luonnehtii suomen kielen emeritaprofessori ja tieteen akateemikko Kaisa Häkkinen.Lönnrotin kynästä syntyi satamäärin uusia sanoja kuten kirjallisuus, kuume, laskimo, muste, monikko, yksikkö ja tasavalta. Erityisen paljon Lönnrot kehitti lääketieteen, oikeustieteen ja kasvitieteen sanastoa. Kalevalasta itsestään kieleen jäivät muiden muassa nuoriso ja ongelma.Avaa kuvien katseluElias Lönnrot oli suomen kielen kehittäjistä tärkein. Kuva: Suomalaisen kirjallisuuden seura /Creative commons /Public domainRuotsin vallan aikana ruotsi oli itsestään selvä sivistyskieli, joten Venäjän alaiseen autonomiaan siirryttäessä 1809 suomi ei ollut häävissä kunnossa. Uskonnollisena kirjakielenä suomi oli ollut olemassa pitkään, mutta monilta elämänaloilta sanasto oli niukkaa tai puuttui tyystin.Syntyi ajatus, että suomeksi pitää voida ilmaista asioita, jotka kuuluvat nykyaikaiseen yhteiskuntaan. Kielen kehittämiselle oli toinenkin merkittävä motiivi: tiede otti 1800-luvulla valtavia harppauksia, ja sille tarvittiin sanoja omalla kielellä.Venäjän tsaarit Aleksanteri I ja Nikolai I suhtautuivat suopeasti suomalaisten kielipyrkimyksiin, tulihan samalla pesäeroa Ruotsiin ja ruotsiin.– Suomalaista kulttuuria suomen kielellä, vaan kunhan ei politiikkaa ja muita vaarallisia asioita liikaa käsitellä, niin se sopi oikein hyvin, Häkkinen kertoo.Lehdissä keksittiin paljon uusia sanojaSuomen onneksi 1800-luvun alkupuolella maassa oli joukko miehiä – tässä vaiheessa todellakin vain miehiä – jotka ottivat kielen kehittämisen sydämenasiakseen. He perustivat Suomalaisen Kirjallisuuden Seuran (SKS) vuonna 1831. SKS julkaisi suomenkielistä kirjallisuutta ja sanakirjoja sekä toimi jonkinlaisena kielilautakuntana.Uusia sanoja kehitettiin runsaasti myös lehdissä. Maailman tapahtumista kertoessaan kirjoittajat joutuivat keksimään uusia termejä ja laittoivat joskus perään sulkeisiin ruotsinkielisen sanan, josta se oli käännetty.Avaa kuvien katseluSuometar-lehden etusivulla 19.1.1847 oli useita sanoja, joiden perässä oli suluissa ruotsin vastaava sana. Kuva: KansalliskirjastoPäänavaaja oli Reinhold von Beckerin vuonna 1820 perustama Turun Wiikko-Sanomat, joskin suomen asiaa oli ajettu jo aiemmin ruotsinkielisessä Mnemosyne-lehdessä. Myöhemmin ilmestyneitä lehtiä olivat Oulun Wiikko-Sanomia ja Sanan Saattaja Wiipurista.Merkittävimpään rooliin nousi kuitenkin Suometar-lehti. Se alkoi ilmestyä vuonna 1847 umpiruotsinkielisessä Helsingissä. Tuohon aikaan suomi oli pääkaupungissa palvelusväen ja työläisten kieli.Murteiden taistelu päättyi kompromissiin1800-luvun alkupuolella Suomessa käytiin murteiden taistelua. Kieltä oli kehitetty lounais- ja hämäläismurteiden pohjalta, mutta moni ei tyytynyt siihen.– Ajateltiin, että Itä-Suomesta löytyy puhtaampi kieli, koska Länsi-Suomi on ihan ruotsin turmelemaa, Häkkinen kertoo.Kirjasuomen yhtenä kiistakapulana oli itämurteille vieras D-kirjain. Von Becker taisteli lehdessään aikansa D:tä vastaan, mutta jäi tappiolle. Murretaistelu päättyi kompromissiin, eli mikään murre ei päässyt valta-asemaan ja eri murteiden pohjalta alkoi syntyä uusia sanoja.Etelä-Savon Kangasniemeltä kotoisin ollut von Becker keksi muiden muassa sanat sivistää ja sivistys. Se liittyi alun perin pellavan puhdistamiseen, mutta sai von Beckerin kynästä nykyisen merkityksensä.– Usein pyrittiin siihen, että runko tai idea löytyy kansankielestä. Periaatteessa haluttiin vastustaa kaikkia lainattua, Häkkinen kertoo.Lönnrot muotoili sen näin: omallansa mies elääpi, konna toisen kohtalolla.1840-luku oli suomen kehittämisen eli kulta-aikaa. Sanatalkoissa mukana olleista Häkkisen mukaan Lönnrotin lisäksi kärkiviisikkoon kuuluvat Wolmari Kilpinen (oik. Wolmar Schildt), D. E. D. Europaeus, Paavo Tikkanen ja Antero Warelius. Heistä kolme viimeksi mainittua työskenteli Suomettaressa.– Oli välttämätöntä, että oli tällainen toisistaan tietoinen ja yhteistyötä tekevä porukka, joka yhdessä kehitti kieltä. Kun yksi keksi jotakin, toiset ottivat sen käyttöön ja siten syntyi nykyaikaisen yleiskielen ydin, Häkkinen sanoo.Kilpisen venykekirjoitus ei jäänyt eloonLaukaassa syntynyt Wolmari Kilpinen oli lääkäri ja fennomaani. Pitkälti hänen ansiostaan Jyväskylään perustettiin vuonna 1858 ensimmäinen suomenkielinen oppikoulu.Kilpinen keksi satoja sanoja, jotka hän muista poiketen julkaisi listoina ja lähetti niitä Lönnrotille. Monet Kilpisen sanoista olivat E-päätteisiä, kuten tiede, taide, jauhe ja kirje.Kilpisen päähänpinttymänä oli hänen kehittelemänsä venykekirjoitus. Siinä pitkät vokaalit kirjoitettiin yhdessä kirjaimella, jonka päällä oli niin kutsuttu venyke. Samoin diftongit eli kahden eri vokaalin yhdistelmät korvattiin yhdellä kirjaimella. Suomen onneksi venykekirjoitus ei lyönyt läpi.Avaa kuvien katseluWolmari Kilpisen keksimiä sanoja ovat mm. epäsuora, kokelas, myymälä, selviö, toteuttaa ja uudissana. Kuva: Daniel Nyblin / MuseovirastoEuropaeus kehitti geometrian sanojaDavid Emanuel Daniel Europaeus oli sanaseppojen outolintu. Hänen isänsä oli Savitaipaleen kirkkoherra mutta äiti karjapiika, mikä osittain sulki hänet sivistyneistöstä. Europaeuksen luonteenkin sanotaan olleen hankala.Suomen kieleen hän suhtautui intohimoisesti ja loi useita sanoja esimerkiksi geometrian alalla. Monet termit kuten suunnikas ja tilavuus ovat käytössä edelleen, sen sijaan pölkäre on nykyisin kuutio.Europaeus teki myös suomenkielisen äännekuvaston kuuroja varten. Siinä kuvatiin äänteiden tuottamista anatomisten piirrosten avulla.Avaa kuvien katseluD. E. D. Europaeuksen keksimiä sanoja ovat mm. eduskunta, enemmistö, huvila, toimeentulo ja vety. Kuva: MuseovirastoTikkanen teki suomenkielisen kartanPaavo Tikkanen oli ensimmäisiä Helsingin yliopiston nimeltään suomenkielisiä opiskelijoita. Hän väitteli tohtoriksi 1859.Tikkanen oli Suomettaren päätoimittaja ja kehitti nimenomaan yhteiskuntaan liittyviä sanoja kuten sanomalehdistö, teollisuus ja valtio.Tikkasen kirjoittamassa maantieteen oppikirjassa Johdatus Yleiseen Maa-tietoon oli ensimmäinen suomenkielisillä nimillä ja selityksillä varustettu Suomen kartta.Avaa kuvien katseluPaavo Tikkasen keksimiä sanoja ovat mm. asiantuntija, edustaa, mielipide, uskonto ja valtiopäivät. Kuva: MuseovirastoWarelius avusti LönnrotiaTyrväällä syntynyt pappismies Antero (Anders) Warelius muistetaan erityisesti suomenkielisen tietokirjallisuuden uranuurtajana. Hän avusti Lönnrotia sanakirjan laatimisessa ja keksi itsekin lukuisia käyttöön jääneitä sanoja.Warelius kirjoitti kaksiosaisen kirjan Enon opetuksia. Siinä eno kertoo Jusu-pojalle asioita luonnontieteistä suomenkielellä. Wareliusta saammekin kiittää muiden muassa sanoista tähdistö ja ilmakehä.Kirjoista tuli hyvin suosittuja nimenomaan itseopiskelijoiden parissa.Avaa kuvien katseluAntero Wareliuksen keksimiä sanoja ovat mm. hajamielinen, kokoelma, ravintola, taistelu ja ylänkö. Kuva: Daniel Nyblin / MuseovirastoEnemmistö keksityistä sanoista katosiSanantekijöiden tuotokset eivät suinkaan kaikki jääneet eloon. Häkkinen arvelee, että itse asiassa enemmistö keksityistä sanoista häipyi historiaan.Monille sanoille tarjottiin vaihtoehtoja. Esimerkiksi fantasia-sanalle tarjolla olivat suomalaisemmat vastineet mielijuohto, mielen-kuvittelus, mielen-kuvittelema, mielitys ja mielijuoksu.Wolmari Kilpinen kehitti sanan henkilö, mutta tuli myöhemmin katumapäälle, koska sanan loppu ”pudota löpsähti ö:ksi”. Tänä päivänä hissin kyltissä ei kuitenkaan lue, että hissiin saa ottaa kerralla enintään 4 henkilettä.Kädenvääntöäkin oli. Lönnrot ja Europaeus keksivät uudelle, maailmaa muuttaneelle keksinnölle sanan lieke. Sen löi kuitenkin Samuel Roosin kehittämä omaperäinen ja onomatopoeettinen sähkö.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Putin teki virhearvion, sanoo Suomessa vieraillut Hodorkovski: ”Hän luotti siihen, että säikäh­täisimme Navalnyin kuolemaa”</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076325</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>25.02.2024</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maanpaossa elävä entinen venäläisoligarkki Mihail Hodorkovski on tunnetuimpia presidentti Vladimir Putinin vastustajia. </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>– Putin luotti siihen, että säikähtäisimme Navalnyin kuolemaa ja hajoaisimme, sanoo entinen venäläisoligarkki Mihail Hodorkovski.Näin ei käynyt, Hodorkovski sanoo ja lisää, että Navalnyin tukijat ovat löytäneet hänen leskestään Julija Navalnajasta oman poliittisen edustajansa. Omat kannattajansa on esimerkiksi Garri Gasparovilla, Maksim Katzilla, Anastasia Ševtšenkolla ja Dmitri Gudkovilla.Hodorkovski uskoo, että Venäjän demokraattinen oppositio pystyy yhdistämään voimansa. Hän ei vastannut Ylen toimittajan kysymykseen siitä, miten paljon vaikutusvaltaa oppositiolla on Venäjän ulkopuolella.Hodorkovskin mukaan opposition yhteistyö ulkomailla on venäläisten hyväksi myös maan sisäpuolella.Vieraili Suomessa vastustamassa Venäjän hyökkäyssotaaHodorkovski vieraili sunnuntaina puhumassa Helsingin Kansalaistorilla järjestetyssä Venäjän hyökkäyssodan vastaisessa mielenosoituksessa.– Venäjän presidentti Vladimir Putin ei ole sama asia kuin Venäjä ja Venäjän kansa, sanoo Hodorkovski.Hän kehotti venäläisiä vastustamaan Putinia maaliskuun vaaleissa äänestämällä. Hodorkovskin mukaan yli puolet venäläisistä ei kannata sotaa Ukrainassa.Hodorkovski on yksi tunnetuimmista maanpaossa elävistä Venäjän presidentin Vladimir Putinin vastustajista.Hodorkovski sanoo, että Venäjän autoritaarinen systeemi ei mahdollista sellaisten vaalien toteuttamista, joka osoittaisi maassa toimivien poliitikkojen todellisen suosion.– Gallupit ja kyselytutkimukset eivät anna todenmukaista kuvaa, koska ihmiset pelkäävät ilmaista mielipidettään. Jos olisi mahdollista toteuttaa oikeat vaalit, silloin pystyisimme sanomaan, että tuo sai viisi ääntä, tuo sai kaksi ääntä, ja tuo sai kolmetoista. Mutta tämä ei ole mahdollista.Hodorkovski kertoo myös, että Euroopan neuvoston puitteissa ollaan järjestämässä venäläisen opposition yhteistyötä, johon myös hän on osallistumassa.”Navalnyin kaltaisia Venäjän historiassa vain harvoja”Hodorkovskilta kysyttiin myös kuolleesta oppositiojohtajasta Aleksei Navalnyista.Hän sanoo pitävänsä Navalnyita ”tehokkaana poliitikkona”, jonka kaltaisia ei ole Venäjän historiassa ollut montaa.– Ymmärsimme, että kun maassamme tapahtuu muutoksia, hänen henkeään tulee uhkaamaan suuri vaara. Ensimmäinen reaktiomme hänen kuolemaansa oli, ettei niin voi tapahtua. Valitettavasti niin tapahtui.Ylen haastatelussa Hodorkovskin kuvailee ensimmäisiä tuntemuksia kuultuaan Navalnyin kuolemasta.– Järki sanoo, että niin voi käydä, mutta tunteet sanovat, ettei se ole mahdollista.Hän kertoo olleensa yhtä epäuskoinen kuin kuultuaan Venäjän hyökänneen Ukrainaan toissa vuonna.Mielenosoitukseen osallistunut venäläinen aktivisti Irina Medvedeva kertoo saapuneensa mielenosoitukseen ilmaistakseen mielipiteensä Venäjän aloittamasta hyökkäyssodasta Ukrainassa. Hän on saanut poliittisen turvapaikan Suomesta.– Vastustan sotaa ja haluan ilmaista mielipiteeni näiden kaikkien ihmisten kanssa, Medvedeva sanoo.Myös paikalla ollut Jaakko Kauranen sanoo kokevansa, että jokaisen eurooppalaisen tulee muistaa Ukrainan sotaa joka päivä.– Sitä ei saa unohtaa, mitä Ukrainassa tapahtuu. Hyvä että saadaan Hodorkovskin kaltaisia nimiä puhumaan Suomeen, Kauranen sanoo.Ylen tietojen mukaan Hodorkovski tapaa muun muassa eduskunnan puhemiehen Jussi Halla-ahon (ps.), europarlamentaarikko Heidi Hautalan (vihr.) ja kansanedustaja Kimmo Kiljusen (sd.). Mielenosoituksen järjestää Suomen venäjänkielisten perustama Venäjän demokratian puolesta -liike.Helsingin poliisi arvioi, että paikalla oli noin 200 ihmistä.Avaa kuvien katseluMielenosoittajat kokoontuivat vastustamaan Venäjän sotaa Ukrainassa. Kuva: Grigory Vorobyev / YleAvaa kuvien katseluKaksi vuotta täysimittaista terroria -mielenosoitus Helsingin Kansalaistorilla sunnuntaina. Kuva: Grigory Vorobyev / YleEntisestä oligarkista tuli maanpakoon joutunut Putinin vastustajaVuonna 1963 Moskovassa syntynyt Hodorkovski kiinnostui politiikasta ja liike-elämästä jo nuorena. 80-luvulla hän toimi kommunistisessa nuorisojärjestössä, mitä kautta hän eteni liike-elämään. Vuonna 1989 Hodorkovski perusti liikekumppaniensa kanssa Menatep-pankin.Pankki käytti hyödykseen Neuvostoliiton romahdusta ja siitä seurannutta valtionyritysten yksityistämistä. Kun Menatep-pankki kykeni ostamaan yksityistettyjen yritysten osakkeita edulliseen hintaan, tuli Hodorkovskista kauppojen myötä miljonääri.1990-luvulla Hodorkovski osti öljy-yhtiö Jukosin, joka kasvoi yhdeksi maan suurimmista öljy-yhtiöistä. Venäjän presidentin Boris Jeltsinin valtakaudella Hodorkovski eteni myös maan varaenergiaministeriksi.Vuosituhannen alkuun mennessä Hodorkovskista oli tullut Venäjän rikkain mies. Hodorkovskin ja Putinin välit viilenivät pian sen jälkeen, kun Hodorkovski vaati televisioidussa väittelyssä puuttumaan viranomaisten korruptioon. Tämän vuoksi suuttunut Putin määräsi rikostutkinnan koskien Hodorkovskin liiketoimia.Avaa kuvien katseluMihail Hodorkovski osallistui Venäjän hyökkäyssodan vastaiseen mielenosoitukseen Helsingissä. Kuva: Grigory Vorobyev / YleHodorkovski pidätettiin vuonna 2003 talousrikoksista epäiltynä, kun hän oli rahoittanut maan oppositioliikettä. Syyttäjänviranomaisen mukaan Hodorkovski syyllistyi laajamittaisiin petoksiin ja veronkiertoon, ja hänet tuomittiin neljän vuoden vankeusrangaistukseen. Hodorkovski luonnehti viranomaistutkintaa poliittiseksi ajojahdiksi. Ihmisoikeusjärjestö Amnesty International julisti hänet poliittiseksi vangiksi vuonna 2013.Kaksi vuotta myöhemmin Hodorkovski vangittiin kahdeksaksi vuodeksi. Rangaistusta jatkettiin vuonna 2010, jolloin Hodorkovskille annettiin tuomio yhtiönsä öljyn varastamisesta. Hodorkovskin miljardööriksi nostanut Jukos ajautui vankeuden aikana konkurssiin, ja yrityksen osat myytiin valtio-omisteisille yhtiöille.Putin armahti Hodorkovskin vuonna 2013, minkä jälkeen hän on asunut maanpaossa muun muassa Saksassa ja Britanniassa.Vuonna 2001 hän perusti Avoin Venäjä -säätiön, jonka tarkoituksena oli tukea Venäjän demokratisoitumista. Lopulta Avoimen Venäjän toiminta kiellettiin lailla ja se julistettiin vuonna 2017 ”ei-toivotuksi järjestöksi”.Vuonna 2022 Venäjä julisti Hodorkovskin ”vieraan vallan agentiksi” väittäen hänen saaneen rahoitusta Ukrainalta. Venäjä on käyttänyt vieraan vallan agentiksi julistamista yhtenä tukahduttamistoimena Putinin vastustajia, toimittajia ja ihmisoikeusaktivisteja vastaan.Lähde: Reuters</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Närpiön ihmis­kaup­pavyyhti käräjille ehkä syksyllä – ilmiön laajuus yllätti kokeneen tutkijankin</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20075934</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>23.02.2024</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Jutut ovat saaneet syyttäjän käsittelyssä rikosnimikkeeksi törkeä kiskonta ja terveysrikos. Syyteharkinnassa on vielä ainakin kolme tapausta.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Syyttäjä on päättänyt viedä käräjäoikeuteen kaksi niin sanottuun Närpiön ihmiskauppatapaukseen liittyvää juttua.Aluesyyttäjä Marina Ek-Beckin mukaan käräjäoikeudessa jo vireillä oleville jutuille ei ole määrätty vielä käsittelypäivää, koska syyteharkinnassa on lisää samaan vyyhtiin liittyviä tutkintoja.Käräjäoikeudessa nyt vireillä olevien ja käsittelypäivää odottavien juttujen rikosnimikkeet ovat törkeä kiskonta ja terveysrikos.Närpiöläisen kasvihuoneen ulkomaisiin työntekijöihin liittyvän jutun tutkinta on kestänyt pari vuotta. Jutussa on tutkittu muun muassa kynnysrahakäytäntöä. Suomessa jo asuvien vietnamilaisten on epäilty pyytäneen ja saaneen rahaa Suomeen töihin haluavilta maanmiehiltään.Asian etenemistä on saattanut hidastaa se, että alkuperäinen syyttäjä eläköityi kesken prosessin, ja uusi syyttäjä joutui aloittamaan tapauksen selvittelyn alusta.Kahden tapauksen syyteharkinta valmistuiAluesyyttäjä Marina Ek-Beckin mukaan käräjäoikeudessa on vireillä kaksi asiaa, jotka liittyvät tapaukseen; toinen jutuista koskee törkeää kiskontaa ja siinä on useita tapauksia, toinen ei liity suoranaisesti ihmiskauppaan.– Sitä käsitellään kuitenkin samassa yhteydessä, koska siinä on osin samoja ihmisiä mukana. Rikosnimike on tässä toisessa tapauksessa terveysrikos, kertoo syyttäjä Ek-Beck.Kummallekaan tapaukselle ei ole vielä määrätty käsittelypäivää Pohjanmaan käräjäoikeuteen, koska muut asiaan liittyvät jutut ovat edelleen syyteharkinnassa. Kaksi syyteharkinnan läpäissyttä juttua odottaa muiden syyteharkinnan valmistumista.Syyttäjän päätöstä on Ek-Beckin mukaan odottamassa vielä ainakin kolme juttua lisää. Rikosnimikkeenä on muun muassa törkeä kiskonta.Aluesyyttäjä Marina Ek-Beckin erittäin optimistinen arvio on, että jutut voisivat tulla käsittelyyn jo tänä keväänä. Todennäköisempi ajankohta on hänen mukaansa kuitenkin syksy.Kokenut tutkija yllättyiIhmiskauppajutun tutkinta jaettiin aikoinaan Pohjanmaan poliisin, Helsingin poliisin ja KRP:n kesken.Rikosylikomisario Hannu Kortelainen Helsingin poliisin ihmiskaupparikoksia tutkivasta yksiköstä on ollut mukana tutkinnassa pitkään.Rikosvyyhdin pääjuonena on hänen mukaansa ollut kynnysrahailmiö.Osaa kasvihuonetyöntekijöistä epäillään siitä, että he ovat pyytäneet työsopimuksista tuhansia euroja Suomeen haluavilta työntekijöiltä. Uudet tulijat ovat maksaneet näitä niin sanottuja kynnysrahoja. Osaa näistä tapauksista poliisi tutki alun perin ihmiskauppa-nimikkeellä.Kokenut rikostutkija Hannu Kortelainen on yllättynyt siitä, miten pitkään kynnysrahailmiö sai jatkua.– Tutkinnassa yllätti se, että ilmiö on jatkunut tässä muodossa kymmeniä vuosia. Viranomaiset eivät ole tiedostaneet, mitä kaikkea siihen liittyy.Kortelaisen mukaan kyse ei ole pelkästään Närpiön tapauksesta, vaan ylipäätään siitä, että suomalaisessa yhteiskunnassa ei ole asiaa tunnistettu.– Ulkomaista työvoimaa tarvitsevat yrittäjät eivät joko ole tienneet tai välittäneet siitä, että värvääjä perii kynnysrahaa, ihmettelee Hannu Kortelainen.Ulkomaista työvoimaa tarvitaan, mutta Kortelaisen mukaan rekrytointi pitäisi saada reilummaksi, jotta tällaiset lieveilmiöt saadaan kitkettyä.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>7</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Ilmari Käihkön kolumni: Ukrainassa toivotaan, että sota voitetaan teknologialla – se turha toive</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20075387</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>23.02.2024</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Teknologia on sodankäynnissä tärkeää, mutta ei siitä kaikkeen ole. Toiveista huolimatta teknologia ei tarjoa nopeaa tietä ulos Ukrainan sodan kauhuista.</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>KolumniKolumneja kirjoittaa laaja joukko Ylen ulkopuolisia tekijöitä.Lue kolumneja
 Kuuntele kolumneja Yle AreenassaHuomenna on kulunut kaksi vuotta siitä, kun Venäjä aloitti laajamittaisen hyökkäyksen Ukrainaan. Kolmas sotavuosi alkaa synkissä tunnelmissa.Ukrainan on arvioitu olevan heikoimmillaan suhteessa Venäjään sitten kesän 2022. Rintamat eivät ole juuri liikkuneet saman vuoden marraskuun jälkeen.Meneillään on asemasota, joka on Ukrainan juuri korvatun asevoimien komentajan Valery Zaluzhnyn mukaan eduksi väkiluvultaan ja taloudeltaan suuremmalle Venäjälle.Ukrainan tilannetta heikentävät kansainvälisen tuen romahtaminen, sekä Venäjän voimakkaat panostukset sotateollisuuteen. Ammus- ja miehistöpula on pakottanut Ukrainan puolustuskannalle.Ukrainan on arvioitu olevan heikoimmillaan suhteessa Venäjään sitten kesän 2022.Tavoite venäläisten miehittäjien karkottamisesta tuskin toteutuu ilman laajamittaisia hyökkäyksiä, joihin Ukrainalla ei lähitulevaisuudessa ole varaa.Niin Zaluzhny kuin Ukrainan presidentti Volodymyr Zelenskykin ovat kuvanneet sodan olevan pattitilanteessa, ja tarjonneet ratkaisuksi teknologiaa.Historiallisesti teknologia on muuttanut sodankäyntiä enemmän kuin mikään muu yksittäinen tekijä. Jatkuvasti kehittyvää teknologiaa voidaan siksi pitää sodankäynnin muutoksen tärkeimpänä airuena.On silti neljä syytä, miksi on syytä suhtautua varauksella Ukrainan sodanjohdon teknologiaoptimistisiin visioihin.Ensimmäinen syy liittyy odotuksiin teknologian merkityksestä sodassa. Vaikka kehittyneempi teknologia on historiallisesti auttanut sodassa, se ei takaa voittoa. Jo 1800-luvun lopulla puolalainen liikemies Jan Gotlib Bloch kyseenalaisti teknologiaoptimistiset näkemykset, joiden mukaan uusi teknologia merkitsisi nopeaa voittoa.Uskoa teknologiaan ruokkivat toiveet nopeasta voitosta vähäisellä kärsimyksellä ja sotateollisuuden ilmeisen tehokas markkinointi.Blochin mukaan teollistuneiden maiden välisestä sodasta oli tullut, ellei mahdotonta, niin suoraan itsemurhaan verrattavaa. Uuden teknologian myötä sodankäynti olisi laajamittaista asemasotaa ja teurastusta. Se ei päätyisi voittoon vaan molemminpuoliseen uupumukseen ja lopulta romahdukseen.Silti teknologiaan uskotaan yhä. Uskoa ruokkivat toiveet nopeasta voitosta vähäisellä inhimillisellä kärsimyksellä ja sotateollisuuden ilmeisen tehokas markkinointikin. Ukrainassa länsimaisen teknologian ylivertaisuuteen on liittynyt niin vahva hybris, että sen takaa löytyy hieman kansalliskiihkoakin.Harvempi mutta kehittyneempi länsimainen kalusto on antanut Ukrainalle etua, muttei ratkaisevaa sellaista. Länsimaisista asejärjestelmistä ei ole tullut sodan ratkaisevaa ihmeasetta. Vaikka Venäjän teknologia on huonompaa, sen määrä on toistaiseksi korvannut laatua.Toiseksi teknologiasta on suurta hyötyä silloin, jos se luo merkittävää epäsymmetriaa sotivien osapuolten välille. Teollistuneet valtiot – esimerkiksi Ukrainaa tukevat länsimaat ja Venäjä – ovat kuitenkin melko samankaltaisesti aseistautuneita. Teknologiasta saatu hyöty on tällöin asteittaista, ei vallankumouksellista.Kolmanneksi teknologiasta saatu etu on usein myös vain väliaikaista. Uusi teknologia pakottaa vastustajan muuttamaan toimintatapaansa ja kehittämään vastatoimenpiteitä. Sodankäynti on kissa-hiiri -leikkiä, sen keskiössä on vastustajan toiminnasta oppiminen. Alkushokin jälkeen uuden teknologian vaikutus tapaakin heiketä.Teknologiasta saatu etu on usein vain väliaikaista.Neljänneksi uusi teknologia ja etenkin eri teknologioiden yhteiskäyttö vaatii koulutusta ja osaamista. Teknologiaa ei voikaan erottaa ihmisistä, jotka sitä käyttävät. Teknologia pitää myös integroida muihin järjestelmiin – joita nykysodissa on lukuisia. Esimerkiksi Ukrainan viime kesän vastahyökkäyksessä länsimaisella kalustolla varustetut yksiköt pärjäsivät heikommin kuin kokeneemmat, huonommin aseistetut yksiköt.Kuluneet kaksi vuotta osoittavat konkreettisesti, että vaikka teknologian keskeinen vaikutus sodankäyntiin jatkuu, ei sen merkitystä sodalle pidä yliarvioida.Uusista asejärjestelmistä on tullut eräänlainen toivon talismaani.Nyt Ukrainan johdolta edellytetään vaikeassa tilanteessa uutta näkemystä ja strategiaa, mutta samalla uusista asejärjestelmistä on tullut eräänlainen toivon talismaani. Yksittäiset asejärjestelmät, kuten jo vanhentuneet F-16-koneet, eivät tule kääntämään sodan suuntaa.Olisi viisasta hyväksyä se tosiasia, että Ukraina tarvitsee paljon nykyistäkin enemmän tukea, jotta se kykenee pitämään edes rintamat paikallaan – sodassa, joka kestää mahdollisesti vielä vuosia.Ilmari KäihköKirjoittaja on sotatieteilijä, joka kannustaa jokaista sodasta kiinnostunutta lukemaan sekä historiaa että scifiä.</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>8</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Naistenkli­nikan nurkasta tuli hitti – mallia otetaan muista synny­tys­sai­raaloista</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20076091</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>25.02.2024</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Valokuvanurkkauksen ansiosta vastasyntyneestä vauvasta voi ottaa kuvan muuallakin kuin sairaalahuoneessa.</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Helsingin Naistenklinikalle on tehty valokuvanurkkaus, jossa vanhemmat voivat ottaa valokuvan vastasyntyneestä vauvastaan. Se sijaitsee ruokailu- ja oleskelutilan nurkkauksessa.Valokuvanurkkaus sisältää perinteisen valkoisen sairaalasängyn, kausittain vaihtuvaa kuvausrekvisiittaa ja mustavalkoisen kirjaintaulun. Tauluun voi merkitä vauvan strategiset mitat, syntymäajan tai vaikkapa terveiset läheisille.Naistenklinikan kätilö Bea Pajulehto kertoo, että idea kuvausnurkkaukseen syntyi Lohjan synnytyssairaalasta.– Ajattelin, että olisi kiva, jos meilläkin olisi tällainen. Vastasyntyneiden vanhemmat voivat myös jutella toistensa kanssa valokuvanurkkauksen ympärillä, nurkkausta suunnittelemassa ollut Pajulehto kertoo.Kuvan voi jakaa somessa tai tallentaa vaikkapa omaan valokuva-albumiin. Pajulehdon mukaan noin kolme viikkoa käytössä olleessa valokuvanurkkauksessa on riittänyt kävijöitä. Samansuuntaista viestiä hän on kuullut myös laitoshuoltajilta.Pajulehto korostaa, että kuvaa omasta lapsesta ei ole mikään pakko jakaa sosiaaliseen mediaan.– Idea on, että vastasyntyneestä vauvasta ei olisi kuvaa vain sairaalahuoneesta. Enemmän kuvia otetaan omaan käyttöön eikä niitä jaeta mihinkään.Avaa kuvien katseluKätilö Bea Pajulehto kertoo kuulleensa, että valokuvanurkkauksia olisi jo Lohjan lisäksi muissakin Uudenmaan sairaaloissa.  Kuva: Saara Hirvonen / YleSynnyttäjät ovat hyvin valmistautuneitaKevät on ollut Naistenklinikalla tyypillisesti vilkasta aikaa. Pajulehdon mukaan alkuvuosi on myös ollut kätilöille kiireistä.– Nykysynnyttäjät ovat hyvin valmistautuneita. He hakevat etukäteen tietoa esimerkiksi kivunlievityksestä. Synnyttäjien toiveiden avulla voimme auttaa synnytyksessä ja sen jälkeisessä hoidossa.Pajulehdon mukaan synnyttäneet pysyvät Naistenklinikalla keskimäärin muutaman vuorokauden synnytyksen jälkeen.Pajulehto ei työskentele kätilönä synnytyssalissa, vaan tekee työtä raskaana olevien ja synnyttäneiden kanssa. Hän opastaa muun muassa vauvan hoidossa ja imetyksessä sekä seuraa äidin vointia.– Työni on antoisaa ja moninaista. On ainutlaatuista päästä näkemään perheen ilo lapsen syntymän jälkeen. Jos synnytys ei pääty hyvin, olemme läsnä silloinkin.Avaa kuvien katseluValokuvanurkkauksen vieressä on tarjolla käsidesiä ja ohjeistus kirjasintaulun täyttämiseen. Ohjeessa ei kehoteta laittamaan vauvan nimeä tauluun. Kuva: Saara Hirvonen / YleViime vuonna synnytysten määrä laski HUSin alueella yksi ja puoli prosenttia verrattuna sitä edeltävään vuoteen. Viime vuonna Naistenklinikalla syntyi hieman vajaa kahdeksan tuhatta vauvaa.Tammikuussa uutisoitiin, että sosiaali- ja terveysministeriön työryhmä haluaisi karsia synnytyssairaaloita.Tällä hetkellä Uudeltamaalta löytyy neljä synnytyssairaalaa. Pajulehdon mukaan Naistenklinikalle mahtuu aina synnyttämään, vaikka muissa synnytyssairaaloissa olisi ruuhkaa.Pajulehdosta ei olisi pahitteeksi, jos sairaaloita olisi alueella yksi enemmän.– Yhtäkään ei pitäisi ainakaan sulkea, Pajulehto sanoo.Kätilö iloitsee vauvoista perheiden kanssaKätilö Bea Pajulehto kertoo työstään toimittaja Saara Hirvosen haastattelussa.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>8</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Reijo Mannela katkaisi talonsa lämmityksen 46 asteen pakkasissa – nyt tuli sähkölasku</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20075287</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>22.02.2024</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enontekiöläinen Reijo Mannela on joutunut tinkimään asumismukavuudesta ennätyspakkasten aikana. Vähän yli kymmenen astetta oli sisällä, suven puolella kuitenkin, toteaa Mannela. </t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Tammikuussa Enontekiöllä kärvisteltiin yli 40 asteen ennätyspakkasissa. Sähkön hintakin käväisi samoihin aikoihin ennätyslukemissa. Siitä huolimatta enontekiöläinen Reijo Mannela onnistui säästämään sähkölaskussaan.Sähköä hänen taloudessaan kului tammikuussa vain 274 kilowattituntia. Lukua voi helposti verrata lämpimien kesäkuukausien kulutukseen.– Kyllä laskun avaaminen vähän pelotti. Yllätys oli, että pystyin niin paljon säästämään, iloitsee Mannela.Tammikuun kylmimpinä hetkinä Mannelan lämpömittari laski Karesuvannon Maunussa 46 pakkasasteeseen. Kylmyydestä huolimatta Mannelalle pukkasi hikeä ennätyskalliin pörssisähkön vuoksi.Oli keksittävä nopeasti tapoja säästää sähköä, etteivät kaikki rahat kuluisi sähkölaskuihin.Pörssisähkön huidellessa ennätyslukemissa teki Mannela poikkeuksellisen ratkaisun: hän väänsi talonsa lämmityksen pois päältä ja poltti takassa tulta yötä päivää.Sähköä hän käytti vain veden lämmitykseen, jotta talon putket eivät jäätyisi.– Ei pirtissä kauhean lämmin ollut, vaikka kamiinassa polttikin koko ajan valkeata. Vähän yli kymmenen astetta oli sisällä, suven puolella kuitenkin. Tarkeni kun laittoi vaatetta päälle, kertoo Mannela.Lisää: Reijo Mannelan kotia on piinannut 46 pakkasastetta, ja nyt kallis sähkö pakotti vääntämään lämmityksen poisAvaa kuvien katseluReijo Mannelan pakkasmittarin lukema tammikuun kylmimpinä hetkinä. Kuva: Reijo MannelaSäästökuuri kannatti, sillä sähkölasku oli paljon pienempi kuin hän osasi uneksiakaan. Tammikuun lasku yhdessä sähkönsiirron kanssa oli 286 euroa.Jos Mannela olisi lämmittänyt taloaan kovilla pakkasilla sähköllä ja kuluttanut tavalliseen tapaan, olisi sähköön kulunut rahaa Mannelan mukaan ennätyskalliin pörssisähkön ajalta jopa 300 euroa päivässä.– Kyllä tässä on ihan työkseen säästänyt.Säästäminen voi olla myös väsyttävää hommaaReijo Mannelalla on ollut pörssisähkösopimus muutaman vuoden, eikä ole nykyisillä sähkön hinnoilla harkinnutkaan siirtyvänsä sopimussähköön.Kuluneen talven aikana hän on opetellut nipistämään kaikenlaisesta sähkönkulutuksesta. Villapaita ja villasukat ovat tulleet jäädäkseen.– Olemme pysyvästi pudottaneet huonelämpötilaa. Kaikessa säästetään. Täytyy tarkasti miettiä, koska saunotaan, pyykätään, tiskataan ja laitetaan auto roikkaan.Vaikka pieni sähkölasku motivoikin jatkamaan säästämistä, voi pörssisähkön seuraaminen olla välillä uuvuttavaa.Sähkö on yleensä halvempaa yöaikaan, ja siksi Mannela onkin usein nukkumisen sijaan laulattanut pyykki- ja tiskikonetta.– Säästäminen on ollut armotonta. Ei ole enää niin mukavaa, että joutuu noin pelaamaan. Mutta hyvän tuntihinnan siitä yökuppaamisesta saa, naurahtaa Mannela.Kovimpien pakkasten aikana Mannelan polttopuukasasta hävisi puita pari kuutiota. Ensi talvi siintääkin jo hänen ajatuksissaan. Suunnitelmissa olisi ostaa uusi varaava takka.– Sillä säästää puuta valtavasti. Jos ei olisi puulämmitystä, niin olisi tullut ikävä lasku. Suorastaan katastrofi.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>9</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Artis­ti­tu­lokas Mirella ei halua olla Tiktok-tähti, sillä somealusta sekoitti hänen päänsä</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20075720</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>25.02.2024</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>18-vuotias laulaja Mirella on Suomen kuunnelluimpia artisteja. Kulttuurivieraan mukaan somealustat voivat olla toksisia etenkin nuorille naisille.</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Loppiaisaamuna Mirella heräsi kun kuuli äitinsä huudon keittiöstä.– Mene äkkiä katsomaan Spotifyta!Unenpöpperöinen Mirella avasi Suomen kuunnelluimpien kappaleiden listan. Sen kärjessä komeili hänen toinen julkaistu biisinsä Timanttei.Taakse olivat jääneet monen suosikkiartistin kuten Gettomasan samaan aikaan julkaistut uutuudet.Mirellasta tuli poptähti yhdessä yössä.Mirella Roininen on vasta 18-vuotias vantaalainen lukiolainen. Suurelle yleisölle tuntematon laulaja hakee haastattelussa sanoja, sillä hän ei pysty juuri kuvailemaan tuntojaan.– Mitä täällä tapahtuu?, epäuskoinen Mirella huudahtaa.Avaa kuvien katselu– Musiikki on varmaan aina virrannut mun dna:ssa, sanoo artistitulokas Mirella. Kuva: Katriina Laine / YleToksinen TiktokMirellalla on ristiriitainen suhde somealustoihin. Ne ovat auttaneet hänen urallaan, mutta aiheuttaneet myös ahdistusta.Hän oli vuosi sitten syksyllä koukussa Tiktokiin ja Instagramiin. Mirella katsoi kuvia ja videoita ja vertasi itseään näkemäänsä.Hänen mielensä synkkeni.Päässä pyörivät kysymykset: Miksi en voi näyttää tuolta? Miksi minulla ei voi olla tuollaista kroppaa?Kun somealustojen algoritmit puskivat lisää samanlaista sisältöä, tilanne paheni.– Se tavallaan sekoitti mun pään. Olin tosi itkuisa koko ajan, Mirella kertoo.Vanhemmat huomasivat tyttären muuttuneen käytöksen. Oli vakavan keskustelun paikka. He sanoivat, että somen käytön pitää muuttua tai he passittavat Mirellan terapiaan.Mirella tajusi, ettei siinä ole järkeä, jos jostain sovelluksesta tulee niin paha olo.– Se sekoittaa nuoren tytön pään ihan tosi pahasti. Siitä tulee tosi epävarmaksi.Avaa kuvien katseluMirella käyttää Tiktokia, vaikka ei haluaisi. – Se on niin koukuttava ja samaan aikaan raaka. Kuva: Katriina Laine / YleTiktok ei jäänyt täysin pois Mirellan elämästä, sillä se on tärkeä musiikin markkinointikanava etenkin aloittelevalle artistille.Alkuun hän tosin epäröi laittaa sinne musiikkiaan.– Mulla oli pelko, että musta tulee pelkkä Tiktok-artisti.Mirellan Tiktok-tilillä on tällä hetkellä yli 35 000 seuraajaa. Videoilla artisti muun muassa tanssii omien kappaleidensa tahtiin.Tosin nyt moni videoista on mykistetty, sillä Mirella on Universal Musicin artisti.Levy-yhtiö veti helmikuun alussa musiikkinsa pois palvelusta, sillä sen mielestä Tiktok maksaa musiikin käytöstä liian vähän.Nyt siellä eivät soi siis myöskään Mirellan kappaleiden levytetyt versiot.– Totta kai se harmittaa ja vähän ärsyttää. Mutta ei se haittaa, sillä keksin muita keinoja.Mirella on esimerkiksi tehnyt Timanttei-hitistään akustisen version, jossa isä soittaa kitaraa.Laulamista luonnostaan– Minulle on aina ollut selkeää, että minusta tulee artisti, Mirella sanoo itsevarmasti.Musiikki on kuulunut Roinisen elämään lapsesta lähtien. Hänen isänsä Tero Roininen on muusikko, joten kotona on kuunneltu musiikkia laidasta laitaan Dream Theaterista Whitney Houstoniin.Mirellaa kiinnosti lapsena myös tanssi. Hän harjoitteli koreografioita tv:n musiikkikanavilta nähtyjen musiikkivideoiden tahdissa. Muistissa ovat edelleen Lady Gagan Bad Romance -kappaleen tanssiliikkeet.Vanhemmat laittoivat aktiivisen tytön aluksi prinsessafutikseen, mutta siitä ei tullut mitään. Hän vain tanssi ja lauloi kentällä.Mirella siirtyi musiikkiopistoon pianotunneille ja lauloi kuorossa. Hän alkoi käydä laulutunneilla 13-vuotiaana.Mirella päätyi taustatanssijaksi Ylen ruotsinkieliseen lasten ja nuorten laulukilpailuluun Melodi Grand Prix’hin. Kun siellä kuultiin, että hän osaa myös laulaa, hän osallistui lopulta kisaan myös laulajana.15-vuotias Mirella voitti kilpailun vuonna 2020 kappaleella Landet ingenstans. Hän kirjoitti sen itse musiikkituottajan avustuksella.Mirella esitti kappaleensa Landet ingenstans Ylen Melodi Grand Prix -kilpailussa.Meni kuitenkin vielä hetki ennen kuin Mirellan ura nytkähti liikkeelle. Hän oli tehnyt videoita Tiktokiin, joissa hän esitti cover-kappaleita.Lopulta videot nähnyt Sara Siipola vinkkasi nuoresta kyvystä Kristiina Wheelerille, joka etsii uusia artisteja Universal Musicille.Kun ruotsinkielinen Mirella vielä opetteli laulamaan suomeksi, hän sai levytyssopimuksen.Vahvat arvot”Ei ystävät tee niinEt salaa deittaillaan exiiJa sit kun toi loppuuToivon, et sua sattuu”(Mirella: Sua sattuu)Mirella sai idean Sua sattuu -kappaleeseen Tiktokista. Hän oli nähnyt siellä videoita, missä ihmiset kertoivat, kuinka paras kaveri oli ollut exän kanssa.Laulaja tekee musiikkia kokeneiden biisinkirjoittajien kanssa. Joukkoon kuuluvat esimerkiksi juuri Emma-palkinnon musiikintekijänä saanut Vilma Alina sekä Euroviisuissa Suomea edustava Henri Piispanen.Mirellan kappaleet syntyvät siten, että hän tuo pöytään omia ideoitaan. Hän esimerkiksi kertoo asioita, jotka ovat olleet sydämen päällä.Laulajalle on tärkeää, että kappaleet ovat mahdollisimman lähellä omaa elämää, että hän voi samaistua tekstiin. Kaiken pitää olla myös rehellistä.– Minulla on vahvat arvot. Tiedän, mistä asioista haluan laulaa ja mistä en.Mirella listaa, mitä hänen kappaleissaan ei tulla kuulemaan. Seksi ja kirosanat eivät sovi hänen suuhunsa. Myöskään huumeet eivät kuulu hänen musiikkiinsa, koska niitä hän ei käytä.Mirella ei juurikaan juo ja vaikka hän täytti 18 vuotta jo toukokuussa, hän ei ole käynyt kunnolla baarissa koskaan.– Se ei ole mun juttu. Tykkään tanssia, mutta ehkä se juhliminen on erilaista kuin baarissa käyminen.Avaa kuvien katselu– Olen aina rakastanut laulamista. Kuuntelijat herkistyvät mun laululle ja voin tuoda tunnetta ulos. Se on kiehtovaa ja ihanaa, sanoo Mirella. Kuva: Katriina Laine / YleYlpeä romanitaustastaanMirella istuu usein isänsä kanssa sohvalla ja he katselevat videoilta ulkomaisten romaniartistien esityksiä.Romanimusiikki on soinut romanitaustaisessa perheessä aina. Isä Tero Roininen on myös perustanut GG Caravan -yhtyeen, joka yhdistelee räppiä romanimusiikkiin.Mirella sanoo, että romanitausta kuuluu myös hänen musiikissaan ja etenkin laulussa. Romanilaulajat ovat tunnettuja tunteikkaasta esiintymisestään.– Mua on pienestä pitäen kehuttu, että musta tulee paljon tunnetta ulos, kun mä laulan.Listojen kärjessä pyörii tällä hetkellä myös muut romanitaustaiset artistit artistit kuten Jami Faltin. Hänen musiikissaan räp yhdistyy iskelmään. Nosteessa on myös artisti Ani.Mirella on iloinen, että myös muut romanit menestyvät samaan aikaan. Se on tosin hänen mukaansa vain sattumaa.Laulaja on pohtinut romanitaustan hyödyntämistä enemmänkin musiikissaan. Hän uskoo vielä ammentavansa inspiraatiota ulkomaisilta romaniartisteilta, ja tuovansa jotain uutta suomalaiseen popmusiikkiin.Avaa kuvien katselu– Olen perfektionisti ja välillä raaka ja jopa ilkeä itselleni. Toivottavasti pystyn antamaan itselleni armoa, sanoo laulaja Mirella. Kuva: Katriina Laine / YleKalenteri täynnäMirella sanoo, että hänen aivonsa käyvät nyt ylikierroksilla. Koko ajan tapahtuu jotain uutta ja muistettavaa on paljon. Siksi hän opettelee käyttämään kalenteria.Artistikiireiden ohella Mirella käy edelleen lukiota. Häntä ei ole tosin paljoa koulussa viime aikoina nähty.Helsinkiläislukiossa on suhtauduttu ymmärtäväisesti poplaulajan kiireisiin. Rehtori oli sanonut Mirellalle, ettei koulu halua olla uran tiellä.Koulunkäynti on hidastunut sen verran, että Mirella siirtyi aikuislinjalle ja lukio venyy neljään vuoteen. Tähtäimessä on, että hän kirjoittaa ylioppilaaksi ensi vuoden keväällä.– Koulua pitää priorisoida, että saa paperit ulos, laulaja sanoo päättäväisesti.Mirellan ura on vasta alussa ja takana on vasta muutama pieni keikka. Mutta hype artistin ympärillä on kova ja suunnitelmat ovat sen mukaiset. Kesällä Mirella esiintyy jo festareilla ja syksyllä on luvassa kiertue.Mirella kertoo jännittävänsä esiintymistä niin paljon, että oksettaa. Lavalla jännitys kuitenkin häviää.– Kun laulan biisiä ja olen sen sisällä, mä katoan.Lue edellinen Kulttuurivieras tästä:Lapsena Miia Tervo kuuli olevansa ”arvoton paska”, ja nyt hän kehuu itseään, ettei häpeä ottaisi valtaa</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>10</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Sukista sakot?  ”Voi kuulostaa älyttömälle, mutta se on laitonta”, sanoo poliisi</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20075920</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>25.02.2024</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sosiaalisen median neuleryhmissä on viime päivinä kiistelty poliisin tunnuskuvan käytöstä käsitöissä. Poliisilla on siihen yksioikoinen vastaus.</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Viime päivinä somen neuleryhmissä on käyty vilkasta keskustelua poliisin tunnuskuvan eli miekkaleijonan käytöstä. Tunnusta on nyt neulottu runsaasti esimerkiksi villasukkiin koristeeksi.Miekkaleijonan kuvaa ei kuitenkaan saa neuloa sukkiin eikä villapaitoihin ilman lupaa.– Voi kuulostaa älyttömälle, mutta se on laitonta. Ja jos lupaa yrittää kysyä, se on tehty niin tiukaksi, ettei sitä käytännössä saa, sanoo poliisitarkastaja Konsta Arvelin Poliisihallituksesta.Poliisin tunnuskuvan laittomasta käytöstä voi rapsahtaa sakot.Neulesomessa kummastellaanFacebookin yli 100 000 henkisen ”Voihan villasukka” -ryhmän jäsenistä osa on sitä mieltä, että omiin sukkiinsa saa neuloa minkä kuvan haluaa. Osa taas on sisäistänyt poliisin tunnuskuvaan liittyvät tiukat säännökset.Keskustelu on saanut koomisia piirteitä, kun osallistujat ovat alkaneet mielikuvitella sukkien omistajien esiintyvän poliisina näyttäen sukkaansa ja lahjetta nostaen huutavan: ”Seis! Olen poliisi!”Arvelin kertoo ymmärtävänsä kommentit, joissa pohditaan kuinka villasukkaan neulottu merkki voisi heikentää luottamusta poliisia kohtaan.– Tuskin mitenkään, mutta ei lakeja kirjoiteta sillä tarkkuudella, mitä saa villasukkiin neuloa ja mitä ei. Tässä on kyse muun muassa valepoliisi-ilmiön kitkemisestä.Miekkaleijonaa suojaa myös tavaramerkkiPoliisihallitus voi myöntää luvan tunnuskuvan yksityiseen käyttöön poliisin henkilöstöön kuuluville sekä esimerkiksi poliisiyhdistyksille.Lupa voidaan myöntää vain, jos edellytykset tunnuskuvan yksityistä käyttöä varten ovat olemassa.– Yksi esimerkki on kuolleen poliisin hautakiveen kaiverrettava miekkaleijona. Yleensä omaiset saavat luvan tunnuksen käyttöön tällaisessa tapauksessa, Arvelin kertoo.Myös Punaisen ristin, Rajavartiolaitoksen ja Puolustusvoimien tunnukset ovat saman tiukan säännöksen alaisuudessa. Kaikkiin näihin liittyy luottamuksellista toimintaa, joka pitää pystyä suojaamaan.Arvelin muistuttaa myös, että poliisin miekkaleijona-tunnuskuva nauttii tavaramerkkilain suojaa. Tunnuskuvan käytöstä esimerkiksi teatteriesityksissä ja muissa vastaavissa tilaisuuksissa päättää Poliisihallitus tapauskohtaisesti.Tekijänoikeudet ja tavaramerkkilaki puhuttavat aika ajoin käsityöpiireissä. Viime vuosina esimerkiksi makeisyhtiö Fazer on alkanut myymään makeisten logoista tehtyjä neuleohjeita- ja paketteja.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>10</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Sebastian Aho ratkaisi NHL:n tulikuuman suoma­lais­koh­taa­misen viime sekunneilla – tunteet kuohahtivat summerin soidessa</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20076066</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>23.02.2024</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Carolina Hurricanes kukisti Florida Panthersin 1–0 itäisen konferenssin huippuottelussa.</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>”Jos et tee, kaveri tekee.”Vanha joukkuepelien viisaus piti paikkansa jääkiekon NHL:ssä, kun Carolina Hurricanes kukisti Florida Panthersin 1–0 itäisen konfrerenssin suomalaiskohtaamisessa.Kun maalittomana edennyttä ottelua oli jäljellä kolmisen minuuttia, Floridan Niko Mikkola nousi vasenta laitaa ja toimitti kiekon Eetu Luostariselle, joka ohjasi pelivälineen tolpan kautta maaliin. Osuma kuitenkin hylättiin paitsiona.Hetkeä aiemmin Carolinan Sebastian Aho oli epäonnistunut avopaikasta.Viimeisen minuutin käynnistyessä Floridan Aaron Ekblad laukoi tolppaan.Carolina kiitti ja hyödynsi oman tilaisuudensa aivan ennen ottelun loppua. Carolinan Andrei Svetšnikovin laukaus kimposi Mikkolan kautta Aholle, joka pyörähti ja iski kiekon rannelaukauksella reppuun, kun pelikellossa oli jäljellä 19 sekuntia.– Painajaisesta unelmaan!, selostajat hehkuttivat ja viittasivat Ahon aiempaan, epäonnistuneeseen maalintekotilanteeseen sekä Floridan hukkaamiin mahdollisuuksiin.– Tuntui todella hyvältä. Kun tekee maalin noin tärkeällä hetkellä, voittaa pelin melkein takuuvarmasti, Aho tunnelmoi ottelun jälkeen NHL:n sivuilla.Katso ottelun lopun huippuhetket tästä.Carolinan maalilla Pyotr Kotshetkov torjui peräti 44 laukausta. Ottelun ykköstähti Kotshetkov rikkoi samalla seuraennätyksen 44 torjunnallaan nollapelissä tulokaspelaajana. Ahon maali oli Hurricanes/Whalers-historian viidenneksi myöhäisin johtomaali.– Epätodellista. Mitä muuta voi maalivahdilta pyytää? Hän antoi meille kaikki mahdollisuudet voittaa tämä ottelu, Aho hehkutti maalivahtiaan.Voitto oli Carolinalle tärkeä, sillä joukkue kamppailee Floridan tavoin itäisen konferenssin kärkisijoista. Neljän ottelun voittoputkessa kiitävä Carolina on nyt neljäntenä Floridan takana.Floridan putki katkesiTappio katkaisi Floridan 11 ottelun mittaiseksi jääneen vierasvoittoputken. NHL-ennätystä pitävät hallussaan Detroit Red Wings, joka voitti 12 perättäistä vierasottelua kaudella 2005–2006 sekä Minnesota Wild, joka ylsi samaan kaudella 2014–2015.Panthers pääsi pelaamaan kolmennessa erässä neljä minuuttia ylivoimaa putkeen, muttei onnistunut maalinteossa.– Neljän minuutin ylivoimasta pitäisi saada jotain aikaiseksi, joukkueen kapteeni Aleksander Barkov harmitteli.– Tuo oli ihan pudotuspelikiekkoa. Kaksi lähes samalla tavalla pelaavaa joukkuetta törmäsivät. Todella kova ottelu, Barkovin joukkuekaveri Aaron Ekblad sanoi.Ottelun lopussa tunteet kuumenivat ja pelaajat ottivat yhteen. Floridan Brandon Montour sai tilanteesta jäähyn väkivaltaisuudesta.Floridan Matthew Tkachuck loukkaantui ensimmäisessä erässä jouduttuaan Svetšnikovin taklaamaksi. Myös Florida-pakki Gustav Forsling loukkaantui ensimmäisessä erässä.Kahinaan otti osaa myös maalivahti Kotshetkov.St. Louis tykitti pikamaalejaDetroit Red Wings puolestaan otti täpärän jatkoaikavoiton Colorado Avalanchesista maalein 2–1. Mikko Rantanen antoi maaliin johtaneen syötön Coloradon ainokaisessa, jonka viimeisteli Nathan MacKinnon.Detroitin maaleista puolestaan vastasivat Dylan Larkin ja Patrick Kane. Avalanchesin maalia vartioineelle Justus Annuselle kertyi 28 torjuntaa.St. Louis Blues teki seurahistoriaa 4–0-voitossa New York Islandersista, kun se takoi kolme maalia 32 sekunnissa, mikä on seuran kaikkien aikojen nopein kolmen maalin sarja.Uutinen päivittyy...</t>
-        </is>
-      </c>
-    </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Miksi Suomen EM-kulta­mi­talisti ei pääse purjehtimaan olympia­laisiin? Näin Olympia­ko­mitean pomo vastaa</t>
+          <t>Analyysi: ”Mitään ei tule sulkea pois” – nämä riskit Macron otti puhuessaan maajoukkojen lähet­tä­misestä Ukrainaan</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20076295</t>
+          <t>https://yle.fi/a/74-20076699</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>25.02.2024</t>
+          <t>27.02.2024</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1333,32 +1333,32 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Valtteri Uusitalo voitti ILCA 7 -luokassa purjehduksen Euroopan mestaruuden, mutta ei pääse Pariisin olympialaisiin. Toni Roposen mukaan Olympiakomiteassa ei voida olla ennustajia.</t>
+          <t>Lännen ja Venäjän joukkojen joutuminen vastakkain on sota, jota Nato on halunnut välttää loppuun asti, kirjoittaa Ylen Nato-erikoistoimittaja Maria Stenroos.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Valtteri Uusitalo voitti perjantaina purjehduksessa Euroopan mestaruuden ILCA 7 -luokassa Ateenassa.Uusitalo ei silti pääse kesällä Parisiin olympialaisiin, sillä ILCA 7 -luokassa Suomen olympiaedustajaksi on jo valittu Kaarle Tapper.Suomen edellinen purjehduksen olympialuokkien EM-kulta oli Sari Multalan voitto vuonna 2008.Tapper valittiin joulukuussa Suomen edustajaksi ILCA 7 -luokkaan. Hän purjehti Suomelle maapaikan elokuussa Haagin MM-kisoissa ollen 18:s. Tammikuussa Uusitalo kuitenkin voitti Tapperin Adelaiden MM-kisoissa. Uusitalo oli parhaana suomalaisena 19:s, Tapper 32:s.Tapper ei osallistunut Ateenan EM-regattaan, vaan keskittyy jo valmistautumiseen kohti vuoden päätapahtumaa.Uusitaloa mietitytti olympiapaikan kohtalo perjantain Euroopan mestaruuden jälkeen Ylen haastattelussa.– Totta kai se pistää miettimään ja olisihan sitä toivonut, että olisi itse olympialaisissa ollut. Mutta Olympiakomitea katsoi parhaaksi tehdä suhteellisen varhaisen päätöksen, kuka olympialaisiin lähetetään. Se oli heidän mukaansa paras tapa tehdä päätös, kunnioitetaan sitä. Se on päätös, minkä mukaan eletään, Uusitalo sanoi.Olympiakomitean huippu-urheiluvastaava Toni Roponen selvittää, että Tapperille haluttiin antaa keskittymis- ja harjoitteluaika Marseillessa kisattavaan olympiapurjehdukseen.– Ennen tätä päätöstä Valtteri ei ollut koskaan aiemmin voittanut Kaarlea. Ne aikaisemmat meriitit vaikuttivat siihen, että Kaarle Tapper valittiin aikaisella valinnalla, Roponen kuvaili.Roposen mukaan purjehduksessa tilanne on haastava, koska luokkaa kohden voidaan valita olympialaisiin vain yksi venekunta. Hän muistutti, että Tapperin lisäksi Ateenan EM-kisoista saattoi puuttua muitakin olympialaisiin keskittyviä venekuntia.– Purjehdus on laji, missä aikainen valinta mahdollistaa harjoitteluun ja tiettyihin olosuhteisiin keskittymisen, Roponen totesi.Avaa kuvien katseluValtteri Uusitalo on vuonna 2000 syntynyt purjehduslupaus. Kuva: Jussi Koivunoro / YleNäetkö tässä tilanteessa jotain ikävää puolta?– Media voi haluta miettiä sitä (ikävää puolta). Emmehän me voi ajatella tämän hetken parasta, vaan ajattelemme kuka on paras elokuussa. Tähtäys on olympialaisiin niihin olosuhteisiin. Ihan turha on spekulatiivisesti lähteä miettimään näitä asioita, Roponen vastaa.– Me luotamme niihin valintaprosesseihin, mitkä meillä on ja kaikki, 100-prosenttinen, tuki Kaarle Tapperille valmistautua olympialaisiin ja toisaalta myös 100-prosenttinen tuki on myös Valtteri Uusitalolle kehittyä koko ajan urheilijana. Hänellä on varmasti erinomaisen hyvä tulevaisuus.Näin Toni Roponen perustelee Kaarle Tapperin aikaista valintaaNäin Toni Roponen perustelee Kaarle Tapperin aikaista valintaa Roponen: Emme voi olla ennustajiaOlympiakomitean huippu-urheiluyksikkö ja hallitus tekivät Roposen mukaan Tapperin valinnan Purjehdusliiton esityksen pohjalta.– Mikäli emme olisi tukeneet valintaa tai esitystä, kysymyksiä olisi esitetty, mutta kyllä me sitä tuimme, Roponen kuvailee.Roposen mukaan Olympiakomiteassa on tiedostettu, että ILCA 77 -luokassa on kaksi lahjakasta suomalaisnuorta, Noah Laukkanen ja Valtteri Uusitalo.– Tänä vuonna Valtteri on nostanut tasoaan selkeästi ja tullut todella hyväksi jo nyt. Vastaavasti Noah Laukkanen ei ole tullut. Ennustajiahan me emme voi olla, vaan päätökset tehdään senhetkisen tiedon varassa ja niihin tukeutuen. Emme voi ajatella niin, että olisiko meidän pitänyt ennakoida jotain joulukuun päätöksessä, Roponen sanoo.– Päätös tehtiin mahdollisimman hyvin tiedon varassa ja tuemme sitä 100-prosenttisesti. Usko siihen, että Kaarle Tapper on erinomaisessa kunnossa Marseillessa, on erittäin kova.</t>
+          <t>Ranskan presidentti Emmanuel Macron räjäytti tiistaina Pariisissa ilmoille odottamattoman poliittisen uutisen. Macron sanoi, että Ukrainan tukemisessa mitään ei tule sulkea pois, ei myöskään maajoukkojen lähettämistä Ukrainaan.Ajatukselle voi löytää perusteluita.Macronin ja Nato-maiden mielestä lännen on tuettava Ukrainaa, jotta Venäjä ei voita sotaa.Macronin toinenkin perustelu on hyvä: Tähänkin asti on ollut monta asiaa, joita ei monien mielestä koskaan olisi pitänyt tehdä, ja niin kuitenkin tehtiin. Joidenkin mielestä hävittäjiä ei pitänyt luovuttaa, eikä myöskään panssarivaunuja. Nyt monista poissuljettua on joukkojen lähettäminen.Mutta ajatus sisältää myös valtavia riskejä.1. Sotiminen Ukrainassa olisi hengenvaarallista ja kallistaMaajoukkojen lähettämisessä olisi kyse eri luokan kustannuksista kuin lännen tuessa Ukrainalle tähän asti.Ukrainan presidentin mukaan 31 000 ukrainalaissotilasta on kaatunut. Tappioita ja vahinkoja olisi tiedossa myös mahdollisille länsijoukoille.Kansainvälisen joukon lähettäminen ja suojaaminen nostaisi myös rahallisia kustannuksia valtavasti, sillä joukko tarvitsisi huollon ja tukitoimet.Voisi olla vaikea löytää laajaa länsimaiden liittoumaa, joka lähettäisi joukkoja, sillä aseapukin on takerrellut. Aseiden luovuttamista on jarruteltu osin siksi, että korvaava materiaali on kallista tai sitä ei ole saatavilla. Etulinjan maat taas eivät luovuta aseita, joita ne saattavat tarvita itse. Liian tehokkaiden aseiden luovuttamista on viivytelty, koska se saattaisi ärsyttää Venäjää.Kaiken kaikkiaan länsi on luovuttanut aseita vähemmän ja hitaammin kuin Ukraina toivoo, eikä Ukraina ei ole saanut valloitettua menettämiään alueita takaisin.Ranska ei ole aseiden luovuttamisessa lännen kärkeä. Se on kaukana Saksan, Baltian ja Pohjoismaiden takana. Nyt Macron näytti kuitenkin nostavan esiin ajatuksen, että aseiden lisäksi voisi olla tarve lähettää ihmisiäkin. Tiedossa ei ole, millaisia joukkoja Macron tarkoittaa.Ranskan presidentti Emmanuel Macron sanoi ettei sulje pois maajoukkojen lähettämistä Ukrainaan. 2. Macron panee peliin myös oman asemansaKokouksen jälkeen Macron sanoi, että joukkojen lähettämisestä ei ole yksimielisyyttä.On epäselvää, tukiko kokouksessa joku tai kukaan Macronin ajatusta.Macronin Pariisiin kutsumaan kokoukseen osallistui noin 25 maan johtajat. He kuvasivat keskustelua avoimeksi sotilaallisten ja ei-sotilaallisten vaihtoehtojen pohdinnaksi.Presidentti Sauli Niinistö sanoi sähköpostilausunnossaan Ylelle, että ”vallitsi laajasti jaettu käsitys, ettei sotilaalliseen läsnäoloon ryhdytä”. Tämä oli Niinistön mukaan myös Suomen kanta.Saman sanoi Saksan liittokansleri Olaf Scholz: ”Alusta asti on sovittu ja se pätee edelleen, että EU- tai Nato-maat eivät lähetä maajoukkoja tai sotilaita Ukrainan maaperälle.”Ranskan oppositio on Le Monde -lehden mukaan arvostellut Macronin ajatusta rajusti ja syyttänyt tätä muun muassa Ranskan johtamisesta sotaan Venäjän kanssa ja ranskalaisten olemassaolon vaarantamisesta. Macronin puolueesta taas syytettiin pääoppositiopuoluetta veljeilystä venäläisten kanssa.3. Naton ja Venäjän välinen sota on tabuNaton ja Venäjän välinen sota on asia, josta ei juuri puhuta.Länsi haluaa välttää Venäjän ja Nato-maiden joukkojen joutumista vastakkain. Jos sota vahingossa tai tarkoituksella laajenee, eskalaatiota voi olla mahdoton pysäyttää.Venäjän hyökkäyssodan aikana käsitys siitä, mikä johtaa eskalaatioon, on kuitenkin vaihdellut. Länsi pelkäsi hävittäjien, taistelupanssarivaunujen ja pitkän kantaman aseiden luovuttamisen mahdollisesti johtavan siihen, että Venäjä tulkitsee sen lännen liialliseksi sekaantumiseksi sotaan ja laajentaa sotaa muualle.Hävittäjien luovuttamisesta Ukrainalle on kuitenkin tehty päätöksiä esimerkiksi Puolassa ja Tanskassa, ja länsi on yhdessä antanut vaunuja. Pitkän kantaman ohjuksiakin on annettu.On suhteellista, mitä maajoukkojen vieminen Ukrainaan tarkoittaa. Britannialla on maassa esimerkiksi lääkintähenkilöstön kouluttajia, mutta se ei suunnittele ”laajamittaisempaa” joukkojen viemistä Ukrainaan.Naton entinen pääsihteeri Anders Rasmussen nosti kesällä 2023 esiin, että jotkut maat, kuten Puola, saattaisivat tukea Ukrainaa joukoilla, jos maalle ei luvata reittiä Natoon. Tänään Puolan pääministeri Donald Tusk sanoi, ettei Puola suunnittele joukkojen lähettämistä Ukrainaan.Suomessa vuonna 2022 silloinen eduskunnan ulkoasianvaliokunnan puheenjohtaja Jussi Halla-aho sanoi Helsingin Sanomille uskovansa, että lännen sotilaallinen väliintulo on ennen pitkää vääjäämätön, joten se olisi parempi tehdä ennemmin kuin myöhemmin. Hän pahoitteli myöhemmin lausuntoaan.Presidentti Sauli Niinistö puolestaan puhui syksyllä ylipäätään eskalaation riskistä, esimerkiksi sodassa tapahtuvien vahinkojen takia. Hän muistutti, että se voisi pahimmillaan johtaa maailmansotaan.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Odysseus laskeutui onnistuneesti – ”Tervetuloa Kuuhun”</t>
+          <t>Naistenkli­nikan nurkasta tuli hitti – mallia otetaan muista synny­tys­sai­raaloista</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20075742</t>
+          <t>https://yle.fi/a/74-20076091</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>22.02.2024</t>
+          <t>25.02.2024</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1368,32 +1368,32 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Odysseus-laskeutuja saavutti Kuun pinnan perjantaina noin puoli kahdelta yöllä Suomen aikaa.</t>
+          <t>Valokuvanurkkauksen ansiosta vastasyntyneestä vauvasta voi ottaa kuvan muuallakin kuin sairaalahuoneessa.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Miehittämätön Odysseus-laskeutuja on laskeutunut Kuun kamaralle, kertovat avaruusyhtiö Intuitive Machines sekä Yhdysvaltain avaruushallinto Nasa.Odysseus kosketti Kuun pintaa hieman ennen kello puoli kahta yöllä Suomen aikaa.Jännitystä laskeutumisen onnistumisesta lisäsivät vaikeudet saada yhteyttä laskeutujan järjestelmiin sen jälkeen, kun arvioitu laskeutumisajankohta oli ohitettu. Noin viidentoista minuutin odottelun jälkeen Intuitive Machines -yhtiön toimitusjohtaja Steve Altemus kertoi yhteyden palautumisesta Odysseukseen.– Tiedän että tämä oli hermoja raastavaa, mutta olemme pinnalla ja lähetämme signaalia, Altemus sanoi suorassa lähetyksessä.– Tervetuloa Kuuhun, hän totesi.Parin tuntia laskeutumisesta Intuitive Machines vahvisti X:ssä, että yhteysongelmat on korjattu ja pystyasentoon laskeutunut alus on alkanut lähettämään dataa.Aluksen odotetaan lähettävän pian ensimmäiset kuvansa Kuun pinnalta.– Mikä saavutus. Odysseus on saavuttanut Kuun. Tämä taidonnäyte on valtava loikka eteenpäin koko ihmiskunnalle, kommentoi Nasan pääjohtaja Bill Nelson suorassa lähetyksessä.Jo Odysseuksen laskeutumisen käynnistyttyä ilmeni haasteita. Lennonjohdossa havaittiin, etteivät laskeutujan omat sensorit toimineet toivotulla tavalla. Ongelma kuitenkin ratkaistiin käynnistämällä laskeutujan kuormassa olleen Nasan laitteiston lidar eli valotutka, jolloin laskeutujan etäisyydestä saatiin tietoa.Laskeutuja on tehnyt historiaa kahdella tavalla. Se on ensimmäinen kaupallisen yrityksen laskeutuminen Kuuhun ja yhdysvaltalaisten ensimmäinen kosketus Maan kiertolaisen pintaan sitten Apollo 17:n – ja siitä on jo yli 51 vuotta. Joulukuussa 1972 astronautit Gene Cernan ja Harrison Schmitt kävelivät Kuun pinnalla, toistaiseksi viimeisinä ihmisinä.Teksasilaisen Intuitive Machines -yrityksen laskeutuja lähti matkaan Floridasta viikko sitten. Alkuvauhdit antoi Elon Muskin omistaman Space X -yhtiön Falcon-raketti.Avaa kuvien katseluOdysseus otti matkalla kuvan Maasta. Kuva: Intuitive Machines / AFPPuhelinkopin kokoisen, 675-kiloisen Odysseuksen määränpäänä on Malapert A -niminen kraatteri 300 kilometrin päästä Kuun etelänavasta.Laskeutumisesta lähetetään live-kuvaa ja radiosignaalien viipeen vuoksi lennon valvojat pystyvät vahvistamaan laskeutumisen 15 sekunnissa – jos se onnistuu.Nasan laitteita mukanaEdellinen amerikkalaisyrityksen kuulaskeutuminen meni pieleen vuoden alussa. Astrobotic Technology lähetti matkaan Peregrine-luotaimen, mutta polttoainevuoto keskeytti sen tehtävän.Kuun pinta on karu ja sinne laskeutuminen on rakettitiedettä jos mikä. Historian aikana noin 50 yrityksestä noin puolet on mennyt pieleen. Viimeksi laskeutumisessa ovat onnistuneet Intia ja Japani.Moni kuitenkin yrittää. Liikennettä Kuuhun on ennätyksellisen paljon, sillä Odysseuksen jälkeen Kuuhun tehdään tämän vuoden aikana neljä kaupallista laskeutumisyritystä.Yhdysvaltain avaruushallinto Nasa on niissä kaikissa asiakkaana.Odysseuksen laskeutumispaikan lähellä on runsaasti jäätä ja se kiinnostaa Nasaa, sillä jäästä saa juomavettä ja siitä voi tehdä polttoainetta tulevaisuuden avaruuslennoille. Nasan Artemis-ohjelman tavoitteena on tukikohdan rakentaminen Kuuhun. Ensimmäinen miehitetty lento toteutuu näillä näkymin 2026.Odysseuksen mukana matkaavilla laitteilla pohjustetaan Artemis-projektia eli tutkitaan muun muassa sitä, miten Kuun pinnalta nouseva hiekkapöly vaikuttaa laskeutumiseen.Kuuhun matkaa myös taidetta. Kuvataiteilija Jeff Koonsin 125 pienikokoista kuuta on valmistettu ruostumattomasta teräksestä.– Vartuin kuunnellen presidentti John Kennedyn puheita Kuuhun menemisestä. Se auttoi tätä maata uskomaan itseensä ja saamaan asioita aikaiseksi, Koons sanoi ennen Falcon-raketin laukaisua.Juttua muokattu 22.2.2024 klo 21.57: Suora lähetys alkaa kello 23.55 eikä kello 23.10 kuten aiemmin kerroimme. Myös laskeutuminen viivästyy ja on suunniteltu tapahtuvaksi kello 1.24.Juttua muokattu 23.2.2024 klo 1.57: Juttuun päivitetty tieto laskeutumisen onnistumisesta.Juttua muokattu 23.2.2024 klo 3.58: Odysseuksen yhteysongelmien korjaantuminen vahvistettu.Lähteet: AFP, STT</t>
+          <t>Helsingin Naistenklinikalle on tehty valokuvanurkkaus, jossa vanhemmat voivat ottaa valokuvan vastasyntyneestä vauvastaan. Se sijaitsee ruokailu- ja oleskelutilan nurkkauksessa.Valokuvanurkkaus sisältää perinteisen valkoisen sairaalasängyn, kausittain vaihtuvaa kuvausrekvisiittaa ja mustavalkoisen kirjaintaulun. Tauluun voi merkitä vauvan strategiset mitat, syntymäajan tai vaikkapa terveiset läheisille.Naistenklinikan kätilö Bea Pajulehto kertoo, että idea kuvausnurkkaukseen syntyi Lohjan synnytyssairaalasta.– Ajattelin, että olisi kiva, jos meilläkin olisi tällainen. Vastasyntyneiden vanhemmat voivat myös jutella toistensa kanssa valokuvanurkkauksen ympärillä, nurkkausta suunnittelemassa ollut Pajulehto kertoo.Kuvan voi jakaa somessa tai tallentaa vaikkapa omaan valokuva-albumiin. Pajulehdon mukaan noin kolme viikkoa käytössä olleessa valokuvanurkkauksessa on riittänyt kävijöitä. Samansuuntaista viestiä hän on kuullut myös laitoshuoltajilta.Pajulehto korostaa, että kuvaa omasta lapsesta ei ole mikään pakko jakaa sosiaaliseen mediaan.– Idea on, että vastasyntyneestä vauvasta ei olisi kuvaa vain sairaalahuoneesta. Enemmän kuvia otetaan omaan käyttöön eikä niitä jaeta mihinkään.Avaa kuvien katseluKätilö Bea Pajulehto kertoo kuulleensa, että valokuvanurkkauksia olisi jo Lohjan lisäksi muissakin Uudenmaan sairaaloissa.  Kuva: Saara Hirvonen / YleSynnyttäjät ovat hyvin valmistautuneitaKevät on ollut Naistenklinikalla tyypillisesti vilkasta aikaa. Pajulehdon mukaan alkuvuosi on myös ollut kätilöille kiireistä.– Nykysynnyttäjät ovat hyvin valmistautuneita. He hakevat etukäteen tietoa esimerkiksi kivunlievityksestä. Synnyttäjien toiveiden avulla voimme auttaa synnytyksessä ja sen jälkeisessä hoidossa.Pajulehdon mukaan synnyttäneet pysyvät Naistenklinikalla keskimäärin muutaman vuorokauden synnytyksen jälkeen.Pajulehto ei työskentele kätilönä synnytyssalissa, vaan tekee työtä raskaana olevien ja synnyttäneiden kanssa. Hän opastaa muun muassa vauvan hoidossa ja imetyksessä sekä seuraa äidin vointia.– Työni on antoisaa ja moninaista. On ainutlaatuista päästä näkemään perheen ilo lapsen syntymän jälkeen. Jos synnytys ei pääty hyvin, olemme läsnä silloinkin.Avaa kuvien katseluValokuvanurkkauksen vieressä on tarjolla käsidesiä ja ohjeistus kirjasintaulun täyttämiseen. Ohjeessa ei kehoteta laittamaan vauvan nimeä tauluun. Kuva: Saara Hirvonen / YleViime vuonna synnytysten määrä laski HUSin alueella yksi ja puoli prosenttia verrattuna sitä edeltävään vuoteen. Viime vuonna Naistenklinikalla syntyi hieman vajaa kahdeksan tuhatta vauvaa.Tammikuussa uutisoitiin, että sosiaali- ja terveysministeriön työryhmä haluaisi karsia synnytyssairaaloita.Tällä hetkellä Uudeltamaalta löytyy neljä synnytyssairaalaa. Pajulehdon mukaan Naistenklinikalle mahtuu aina synnyttämään, vaikka muissa synnytyssairaaloissa olisi ruuhkaa.Pajulehdosta ei olisi pahitteeksi, jos sairaaloita olisi alueella yksi enemmän.– Yhtäkään ei pitäisi ainakaan sulkea, Pajulehto sanoo.Kätilö iloitsee vauvoista perheiden kanssaKätilö Bea Pajulehto kertoo työstään toimittaja Saara Hirvosen haastattelussa.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Työnhakijoita on kohdeltu pöyris­tyt­tävästi työhaas­tat­teluissa – tutustu kymmeniin kokemuksiin tässä jutussa</t>
+          <t>Avaus länsi­joukoista Ukrainassa saamassa täystyr­mäyksen</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20073663</t>
+          <t>https://yle.fi/a/74-20076589</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>24.02.2024</t>
+          <t>27.02.2024</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1403,32 +1403,32 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pyysimme kokemuksia tilanteista, joihin työhaastatteluihin kutsutut ovat joutuneet. Asiantuntijan mukaan ikävät kokemukset eivät ole harvinaisia. </t>
+          <t xml:space="preserve">Kysyimme turvallisuuspolitiikan asiantuntijoiden arviota Ranskan presidentin lausunnosta, jonka mukaan länsimaisten joukkojen lähettämistä Ukrainaan ei pidä sulkea pois tulevaisuudessa. </t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Moni työnantaja on pilannut mainettaan työhönottajan tökeröllä käytöksellä jo työhaastattelussa. Usea työnhakija on ollut jopa helpottunut, jos ei saanutkaan hakemaansa työpaikkaa.Tämä selvisi työhaastatteluihin kutsuttujen kommenteista, joita Yle pyysi ja sai noin 60 kappaletta helmikuun alkupuolella. Verkkojoukkoistukseen vastanneet olivat kaikenikäisiä miehiä ja naisia pääkaupunkiseudulta, Turusta, Tampereelta ja muualtakin ympäri Suomea. Vastaajien nimet ja yhteystiedot ovat toimituksen tiedossa, ja Yle on ollut yhteydessä kaikkiin, joiden kokemuksia jutussa kerrotaan. Osa halusi kertoa kokemastaan vain nimettömästi tai pelkästään etunimellä.Työelämätutkija Tuija Koivunen Itä-Suomen yliopistosta sanoo, että ikävät työhaastattelukokemukset eivät ole erityisen harvinaisia. Koivunen kehottaakin hakijaa miettimään, haluaako työpaikkaan, jossa rekrytointi hoidetaan hakijan kannalta tökerösti.– Jos tulee tulokseen, että ei halua, sitten olisi hyvä antaa palautetta rekrytoinnista tai tehdä siitä isompi asia. Mutta mitä tapahtuu työhaastattelussa, jää sinne.Koivusen mielestä työhaastatteluiden epäkohtia pitäisi tuoda rohkeammin julki.– Työnantaja tai rekrytoija kun ei joudu siitä minkäänlaiseen vastuuseen tai saa mitään palautetta, miksi se muuttaisi käytäntöänsä.Tuija Koivunen kertoo tökeröistä työhaastatteluistaLisää: Vaikka talous takkuaa, kesätöitä saa edelleen – haku kannattaa aloittaa heti, lannistua ei pidäOudot kommentitVastaajilla oli huimasti kokemuksia omituisista tilanteista. Työhaastattelijoiden erikoiset kysymykset tai kommentit saavat monet edelleenkin pudistelemaan päätään. Eräs muistelee, kuinka ”kaksi isäntää” haasteli ensin normaalin tuntuisesti, näytti koneita ja kertoi mitä työ sisältää.– Mutta vaistosin jotain siinä... Kysyin, että miten on? Nauroivat räkäiset naurut päin naamaa. Haluttiin vaan nähdä minkälainen ukko, kun on ollut työttömänä pari vuotta! Ulkona oli talon työntekijöitä kessulla. Sanoivat, etten ollut ainoa.Hän arvosteli CV:n kasvokuvaani, joka oli haastattelijan mielestä tökerön oloinen ja "vain sätkä puuttuu huulesta". Hämmentävää kyllä, sain paikan. Onneksi varsinaisessa asiakasorganisaatiossa meno oli ystävällisempää.Jaana LehtonenToinen vastaaja taas muisteli, kuinka työhaastattelija, pikkukaupungin poliitikko, uteli hänen poliittista kantaa ja sotilasarvoaan, vaikka tiesi hakijan siviilipalvelusta entuudestaan.Varastotyöhön hakeneelta Pirita Kylmältä taas perättiin puuttuuko häneltä kunnianhimoa, kun sinne haki.– En päässyt sinne. Päättelin, että ylikoulutettuja ei oteta, koska heidän arvellaan pian lähtevän muualle. Ei siis aina ole kyse siitä, etteikö mikä vain työ kelpaisi – niihin ei vaan pääse, hän huomauttaa.Laura Leinonen taas hämmästelee, kuinka haastattelija töksäytti hänelle, että "et varmaan tiedä hakemastasi työstä mitään".Osa-aikamyyjän paikkaa hakeneelle kuopiolaiselle Villelle korostettiin, että motivaatio on ratkaisevaa. Hänen omasta motivaatiostaan tehtävään ei kuitenkaan kyselty mitään.– Valintapäätöksessä kehuttiin valitun markkinointi- ja talousosaamista. Niistä ei puhuttu haastattelussa eikä työpaikkailmoituksessa, Ville vertaa.Helsinkiläinen Kaisa teki omat johtopäätöksensä heti haastattelun jälkeen:– Ilmoitin, että en voi kuvitella meneväni töihin paikkaan, jossa haastattelussakaan ei onnistuta käyttäytymään neutraalisti.Olen tavannut heitä, jotka ovat suoraan pilkanneet minua työttömänä ja jotka palkkaavat täysin ulkonäköperusteisesti.OmarAvaa kuvien katseluTyöhaastatteluun kutsutulta on voitu udella yksityisistä perheasioista.   Kuva: Matej Kastelic / AOP, Erkki Makkonen / AOP, Timo Metsäjoki / Yle, kuvitus: Samuli Huttunen / Yle–Haastattelijat pysyivät kivikasvoisina ja katsoivat välillä toisiaan ilman mitään eleitä. Tätä toistui piinaavan monta kertaa. En saanut aikaan mitään reaktioita, enkä missään vaiheessa päässyt olemaan oma rento itseni.RoopeTekoäly töihinTyöhaastatteluihin kutsutut ovat yleensä lähettäneet työnantajalle perusteellisen työhakemuksen ansioluetteloineen. Ilona kertoo ennakoineensa haastattelua jopa tekoälyä hyödyntäen. Ennen haastattelua hän syötti Chat GPT:lle työpaikkailmoituksen, ja pyysi sitä listaamaan mahdollisia työhaastattelukysymyksiä.–Se osasi ennustaa niitä melko hyvin, ja sen takia muistiinpanoni osuivat hyvin yhteen haastattelijan kysymysten kanssa. Hyödynsin tekoälyä myös, kun muotoilin vastauksia hankaliin kysymyksiin ammattimaiseksi, Ilona paljastaa.Työhaastattelija taas on monesti perehtynyt hakemuksiin vain pintapuolisesti:– Valitettavan usein törmään tilanteeseen, jossa luen oman ansioluetteloni ääneen eli haastattelija ei ole edes lukenut hakemustani tai cv:täni, Anu avautuu.Olisi voinut edes pyytää anteeksi, ettei ollut ehtinyt lukea tietojani. Jäi todella huono maku haastattelusta, enkä olisi sen takia ottanut työtä vastaan.SatuSuomeen palannut kertoo, kuinka varsinkin avomiehen rekryprosessi oli todella kotikutoista verrattuna Keski-Eurooppaan. Hänen mukaansa siellä käytetään huomattavasti enemmän headhuntingia ainakin it-puolella.– Se tekee rekrytoinnista ammattimaisempaa. Tässä suomalaisilla on todella paljon skarpattavaa.Ylipätevä ja liian vanhaRitva haki asiantuntijan työhön puhelinneuvontaan, mutta ei tullut valituksi.– Vaivaantunut soittaja perusteli päätöstä: olet ylikoulutettu ja et ilmeisesti tiedä minkälaiseen työhön olet hakenut. Minuun kohdistettiin ikärasismia, Ritva arvioi.Etsittiin varastonhoitajaa/sekatyöhenkilöä. Haastattelu sujui hienosti, kunnes toimitusjohtaja kysyi ikääni. Siihen loppui hänen kiinnostuksensa, enkä saanut töitä. Olin silloin 52-vuotias.MarjutEi kerrota tulostaTyöhaastatellulle luvataan yleensä kertoa rekrytoinnin lopputuloksesta "pikapuoliin". Heli Suomi tietää muuta.– Mitä pitempi rekrytointiaika, sitä todennäköisemmin kukaan ei ilmoita tuloksista mitään.Haastatteluprosessi oli todella pitkä, melkein vuosi. Laskin noin kymmenen erilaista haastattelua tai keskustelua. Yritykset ovat tehneet ihmisten palkkaamisesta liian monimutkaista.TatuOudoin ja hauskinHyviäkin kokemuksia oli. Anne kertoo elämänsä hauskimmasta työhaastattelusta.– Koko haastattelu oli yhtä naurua. Ajattelin jälkikäteen, että eivät ne minua palkkaa, kun koko haastattelu oli kaikin puolin kreisi, mutta kyllä he olisivat halunneet palkata.</t>
+          <t>Viron kansainvälisen puolustustutkimuskeskuksen ICDS:n varajohtaja, turvallisuuspolitiikan asiantuntija Kristi Raik pitää Ranskan presidentti Emmanuel Macronin kommenttia länsijoukkojen mahdollisesta lähettämisestä Ukrainaan ennen kaikkea viestinä Ukrainalle.– Luulen, että se oli tarkoitettu vahvaksi viestiksi, että Eurooppa tekee kaiken tarvittavan, jotta Venäjä häviää sodan.Macron sanoi eilen, ettei länsimaiden joukkojen lähettämistä Ukrainaan voida sulkea pois tulevaisuudessa. Hän kommentoi asiaa isännöityään Pariisissa tapaamista, jossa 20 Euroopan maata, Yhdysvallat ja Kanada päättivät vahvistaa tukeaan Ukrainalle.Myös ulko- ja turvallisuuspolitiikan asiantuntija Hanna Smith sanoo Macronin lausunnon osoittavan, että Eurooppa haluaa tukea Ukrainaa enemmän.– Tämä on pitkittyvä sota ja Ukrainan resurssit ovat tällä hetkellä jopa aika pienet. Ukraina tarvitsee tukea.Smith arvioi, ettei mitään konkreettisia suunnitelmia joukkojen lähettämisestä ole tehty.– Tämä pitää ottaa vahvasti avauksena, josta keskustelu alkaa. Avaus voi saada täystyrmäyksen, mutta ainakin se on tehty ja siitä päästään keskustelemaan.Avaa kuvien katseluKristi Raik (vasemmalla) huomauttaa, ettei Ukraina ole pyytänyt Euroopalta joukkoja, vaan aseita. Hanna Smith (oikealla) arvioi, ettei mitään konkreettisia suunnitelmia joukkojen lähettämisestä ole tehty. Kuva: Petri Vironen / Yle, Henrietta Hassinen / Yle Raikin mukaan Macronin ja eurooppalaisten johtajien tavoitteena on osoittaa, ettei mitään vaihtoehtoa suljeta pois. Tavoitteena on myös luoda Venäjässä epävarmuutta.Raik pitää mahdollisena, että länsimaat voisivat lähettää joukkoja Ukrainan tueksi.– Kyllä, jos se katsotaan tarpeelliseksi, mutta en usko, että joukkojen lähettämistä suunniteltaisiin tässä vaiheessa. Nyt annettiin viesti, että kaikki mahdolliset keinot ovat harkinnassa ja tarvittaessa käytettävissä.Raik ei lähde spekuloimaan, millaisesta sotilaallisesta läsnäolosta voisi olla kysymys. Hän huomauttaa, ettei Ukraina ole pyytänyt Euroopalta joukkoja, vaan aseita.Smith ei usko, että länsimaat lähettäisivät Ukrainaan taistelujoukkoja. Sen sijaan länsimaiden sotilaat voisivat mahdollisesti osallistua Ukrainan joukkojen kouluttamiseen.– Suurin osa valtioista tulee sanomaan, että tähän asti on pidetty hyvin tiukkaa linjaa siitä, että ei voida lisätä Naton vastakkainasettelua Venäjän kanssa. Sama koskee EU:ta.”Teemme kaikkemme, jotta Venäjä ei voita tätä sotaa”, Emmanuel Macron sanoi.Suomi tyrmää, samoin moni muu maaSuomen presidentti Sauli Niinistön mukaan Ukrainaan ei tule lännen sotilaallista läsnäoloa.Niinistön mukaan Pariisissa keskusteltiin Macronin johdolla mahdollisista sotilaallisista ja ei-sotilaallisista keinoista.– Vallitsi laajasti jaettu käsitys siitä, ettei sotilaalliseen läsnäoloon ryhdytä. Tämä oli myös Suomen kanta, Niinistö sanoo sähköpostivastauksessaan Ylelle.Saksan liittokanslerin Olaf Scholzin mukaan Pariisissa oltiin yhtä mieltä siitä, että Ukrainaan ei tule eurooppalaisten maiden tai Nato-maiden lähettämiä maajoukkoja tai sotilaita.Myös Puolan ja Tšekin johtajat sanoivat yhteisessä tiedotustilaisuudessaan, etteivät ne kannata ajatusta. Espanja kommentoi samoin.Britannian hallituksen tiedottaja viestitti, ettei Britannialla ole suunnitelmia lähettää sotilasjoukkoja Ukrainaan. Tiedottajan mukaan Britannialla on jo Ukrainassa pieni määrä henkilöstöä tukemassa Ukrainan armeijaa antamalla esimerkiksi lääketieteellistä koulutusta.Ammuskysymys keskeisempiMacron sanoi eilen, että Ukrainalle ollaan lähettämässä pitkän- ja keskimatkan ohjuksia sekä muita ammustarvikkeita. Tämän takana on Macronin mukaan useiden valtioiden muodostama koalitio.Joukkojen lähettämisellä spekulointia tärkeämpänä askeleena Raik pitää sitä, että Ranska myöntyi ammusten mahdolliseen ostamiseen Ukrainaan EU:n ulkopuolelta.– Sillä on valtavan iso merkitys. Viime aikoina viesti Ukrainasta on ollut se, että ammuksista on kaikkein huutavin pula.Euroopan ulkopuolisina maina, joista ammuksia voidaan mahdollisesti hankkia, Raik mainitsee Etelä-Korean ja Pakistanin.– Voi olla myös maita, joista ei ole julkisesti keskusteltu.Myös Smith pitää ammuskysymystä keskeisenä.– Kysymys on iso. Se olisi ehkä pitänyt ratkaista jo aikoja sitten eikä vasta nyt alkaa keskustella erilaisista vaihtoehdoista.Ratkaisu on Smithin mukaan vielä kaukana ja kysymysmerkkejä on paljon. Ammuksia voitaisiin ensisijaisesti ostaa EU:n ulkopuolisista Nato-maista, hän arvioi.– Ensisijaisesti voisi ajatella, että kysymykseen tulevat Yhdysvallat, Kanada ja Turkki. Sen jälkeen mahdollisesti muut demokratiat maailmassa. Mutta tämä on vielä hyvin teoreettista keskustelua.Näin ulko- ja turvallisuuspolitiikan asiantuntija Hanna Smith arvioi Macronin avausta:Löyhä lausuntoSmith arvioi, että Ranska pyrkii ottamaan vahvemman roolin Ukrainan tukemisessa. Macronin lausunto joukkojen mahdollisesta lähettämisestä oli kuitenkin löyhä.– Macron on tunnettu siitä, että häneltä tulee vahvoja avauksia, joissa ei ole aina mietitty asioita loppuun asti. Eli miten tämä tapahtuisi ja millainen kokonaisuus olisi, eli kenen sotilaita ja minkä lipun alla. Nämä kaikki ovat avoimia kysymyksiä.– Kysymys joukkojen lähettämisestä voi viedä vuosia, ellei kysymys olisi Ukrainan ja esimerkiksi Ranskan kahdenvälisestä sopimuksesta. Silloin asiahan voi edetä huomattavasti nopeamminkin.Ulkopoliittisen instituutin vanhempi tutkija Iro Särkkä ja entinen puolustusvoimain komentaja, kenraali evp. ja kansanedustaja (kok.) Jarmo Lindberg kommentoivat Macronin lausuntoa Ylen aamussa.Lähteet: AP, AFP</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>”Oli kova paikka sanoa Wilmalle, etten valmenna häntä enää” – kuusi vuotta sitten Jarno Koivusen oli tehtävä kipeä päätös</t>
+          <t>Reijo Mannela katkaisi talonsa lämmityksen 46 asteen pakkasissa – nyt tuli sähkölasku</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20075746</t>
+          <t>https://yle.fi/a/74-20075287</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>25.02.2024</t>
+          <t>22.02.2024</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1438,32 +1438,32 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Jarno Koivunen on Wilma Murron pitkäaikainen valmentaja, joka viihtyy paremmin taustalla kuin julkisuudessa. Valmentajaguru on joutunut tekemään kiperiäkin päätöksiä seivästähden uran eteen.</t>
+          <t xml:space="preserve">Enontekiöläinen Reijo Mannela on joutunut tinkimään asumismukavuudesta ennätyspakkasten aikana. Vähän yli kymmenen astetta oli sisällä, suven puolella kuitenkin, toteaa Mannela. </t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Viisi nuorta naista voimistelee permannolla tavallisena arkiaamuna. He eivät ole voimistelijoita, vaan seiväshyppääjiä. Viikoittainen kahden ja puolen tunnin telinevoimistelu on tärkeä harjoitus, kun urheilijoiden tavoitteena on sinkauttaa itsensä seipäällä yli neljän metrin, yksi naisista lähemmäs viiden metrin haamurajaa.Valmentaja sukkuloi pisteeltä toiselle, huikkaa ohjeita yhdelle samalla kun auttaa toista löytämään oikean liikeradan.Jos ei tietäisi, kuka heistä on seiväshypyn Euroopan mestari ja MM-pronssimitalisti, ei sitä voisi valmentajan käytöksestä päätellä. Wilma Murto, 25, ei saa erityistä huomiota ikkunattomassa voimisteluluolassa.He siirtyvät rekille. Siitä lähtee kirskuva ääni, johon valmentaja Jarno Koivunen, 49, ja hänen valmennettavansa eivät kiinnitä mitään huomiota.Avaa kuvien katseluWilma Murto on käynyt Jarno Koivusen telinevoimisteluharjoituksissa noin 12 vuoden ajan. Kuva: Kimmo Hiltunen / YleWilma Murto nojaa voimistelutelineeseen, ja näppäilee puhelintaan. Hän on selvästikin ryhmän musiikkivastaava, sillä kaiuttimissa soinut iskelmä vaihtuu räppiin. Jos joku kuvailee musiikkimakunsa olevan ”laidasta laitaan”, tätä se varmaankin tarkoittaa.– Työpaikkakiusaamista, Koivunen kommentoi valmennettaviensa musiikkivalintoja ja saa Murron purskahtamaan nauruun.Harjoitusten myönteinen ilmapiiri näkyy ja kuuluu.Aina kaksikolla ei ole ollut näin mukavaa tehdä töitä yhdessä.Kuusi vuotta sitten Jarno Koivusen oli pakko tehdä kipeä päätös, jolla on ollut kauaskantoiset seuraukset.Muistiinpanoja tekevä äitiYksi lasten seiväskoulua seuraavista vanhemmista kiinnittää Jarno Koivusen huomion. Äiti on tuonut 9-vuotiaan tyttärensä Kupittaan yleisurheiluhallille vajaan tunnin ajomatkan päästä Salon Kuusjoelta. On vuosi 2007.Jarno Koivunen on opettanut seiväshyppyä sadoille lapsille ja nuorille. Ensimmäisistä kerroista ei vielä tiedä, kenestä seiväskoululaisesta tulee huippu-urheilija. Edes Wilma Murto ei kummemmin erottunut, mutta hänen äitinsä Sari Murto erottui. Hän kyseli Koivuselta seiväshypystä ja kirjoitti innostuneena ohjeita ylös.Myöhemmin Koivunen huomasi, että pitkänhuiskea tyttö oli paitsi lahjakas myös poikkeuksellisen hyvä keskittymään. Koordinaatio oli hieman hukassa, mutta sitä kyllä saataisiin paremmaksi. Vuonna 2014, Murron ollessa lukioikäinen, Koivusesta tuli hänen henkilökohtainen valmentajansa.Avaa kuvien katseluKoivunen on itsekin entinen seiväshyppääjä. Vuonna 2001 hän hyppäsi hallissa Suomen mestariksi tuloksella 535.  Kuva: Kimmo Hiltunen / YleKun 17-vuotias Murto taivutti vuonna 2016 nuorten maailmanennätyksen 471, Koivunen oli tiennyt jo useamman vuoden, että hänellä oli käsissään ainutlaatuinen lahjakkuus. Nyt sen tiesivät muutkin.Valmentaja oli osannut varautua kaikkeen, myös edessä odottavaan julkisuuden valokeilaan. Hänelle oli tärkeää, että Murto voisi keskittyä urheiluun.– Noin vuosi ennen sitä maailmanennätystä alkoi näyttää, että Wilma saattaa mennä aika korkealle. Luojan kiitos sanoin Wilman vanhemmille, että olisi hyvä hommata manageri. Heiskan Teron liittyminen Wilman taustajoukkoihin oli hänen uransa pelastus.Avaa kuvien katseluMurto kehittyi Koivusen valmennuksessa nopeasti. Vuonna 2016 hän hyppäsi nuorten maailmanennätyksen ja kilpaili ensimmäisissä olympiakisoissaan.  Kuva: Yle/Janne IsakssonHuippu-urheilu näytti Murrolle varjoisaa puoltaan maailmanennätysvuoden jälkeen: seurasi loukkaantumisia ja kehityskäyrä kääntyi laskuun. Samaan aikaan Murto siirtyi lukiolaisesta ammattiurheilijaksi.Vaikea päätösKaikki näyttää Paavo Nurmen stadionilla aivan tavanomaiselta heinäkuisena kesäpäivänä. 20-vuotias Wilma Murto ja Jarno Koivunen juttelevat auringonpaisteessa. Yleensä paikalla on muitakin Koivusen valmennettavia, mutta nyt valmentaja haluaa olla kahdestaan Murron kanssa.Koivunen on päättänyt katkaista valmennussuhteen Murron kanssa. Hän on miettinyt asiaa pitkään ja tullut tulokseen, että se olisi Murron urheilu-uran kannalta paras ratkaisu.– Oli kova paikka sanoa Wilmalle, etten valmenna häntä enää. Tavoitteet ja toiminta eivät siinä kohtaa kohdanneet, enkä löytänyt keinoja muuttaa asiaa, Koivunen muistelee.Avaa kuvien katseluJarno Koivunen on pitänyt lahjakkaan Wilma Murron valmentamista hyvin vastuullisena tehtävänä, jossa hän yrittää toimia ennen kaikkea urheilijan edun mukaisesti. Kuva: Kimmo Hiltunen / YleMurto taustoitti vuonna 2020 Iltalehdelle syitä, miksi yhteistyö päättyi kesällä 2018.– Minulla alkoi olla omia mielipiteitä, joita en ehkä osannut esittää ihan oikein, eikä valmentaja osannut ottaa niitä vastaan, Murto kertoi tuolloin.Keskustelu aurinkoisella stadionilla oli lyhyt, mutta myöhemmin Murto ja Koivunen kävivät asiaa läpi pidemmin. Kilpailukauden päätteeksi kaksikon tiet erosivat. Välirikosta ei kuitenkaan ollut kysymys.– Meillä oli koko ajan ihan hyvät välit. Olin jopa valmis auttamaan Wilmaa löytämään uuden valmentajan. Valmennusvastuuseen kuuluu, ettei urheilijaa voi jättää tyhjän päälle. Asiat täytyy hoitaa fiksusti, Koivunen kertoo.Syksyllä 2018 Murto löysi uuden kodin Lahdesta, jossa häntä valmensi Steve Rippon. Yhteistyö kaatui näkemyseroihin, ja maaliskuussa 2019 Murto muutti Kuortaneelle Mikko Latvalan valmennukseen. Syksyllä 2019 Murto selviytyi Dohan MM-kisoihin, mutta jäi karsintaan tuloksella 435.Samaan aikaan Jarno Koivunen jatkoi arkista puurtamista Turun urheiluakatemiassa. Hänen pitkäaikainen valmennettavansa, entinen SE-nainen Minna Nikkanen lopetteli uraansa.Pitkästä aikaa Jarno Koivusella ei ollut vastuullaan kansainvälisen tason seiväshyppääjää.Matkustusta tuli vähemmän, itsensä kehittämistä enemmän.”Ulospuhallus tuli itsellenikin tarpeeseen. Olin kiertänyt Minnan ja Wilman kanssa ulkomaan kisoja yli kymmenen vuotta. Se ei ole aina ihan helppoa”Yllättävä soittoSyksyllä 2019 Koivunen havahtui kotisohvallaan puhelimen pirinään. Soittaja oli Wilma Murto, joka oli reilua vuotta aikaisemmin lähtenyt kokeilemaan siipiään muiden valmentajien opissa.Koivunen ajatteli ensin, että Murto tarvitsi apua seipäisiin tai niiden kuljetukseen liittyen. Murto halusikin aloittaa valmennussuhteen puhtaalta pöydältä.Yhteistyö Mikko Latvalan kanssa oli kestänyt tässä vaiheessa puoli vuotta, mutta Murto ei ollut kotiutunut Kuortaneelle eivätkä näkemykset valmentajan kanssa kohdanneet tarpeeksi hyvin.– Tietenkin olin yllättynyt, kun hän soitti. Ensin jarruttelin, että mieti nyt tarkkaan. En heti luvannut, mutta olin halukas kuuntelemaan lisää, Koivunen kertaa puhelun kulkua.Seuraavana päivänä Koivunen ja Murto tapasivat Kupittaan keilahallilla ja päättivät yksissä tuumin, että urheilija palaisi Koivusen valmennukseen.– Hyvä tyyppi hän oli lähtiessä ja hyvä tyyppi takaisin tullessa. Se ei ollut muuttunut, Koivunen sanoo.Avaa kuvien katseluWilma Murto on kuvaillut vuotta Lahdessa ja Kuortaneella raskaaksi mutta opettavaiseksi.  Kuva: Kimmo Hiltunen / YleValmennussuhteen jatkuminen Koivusen kanssa tarkoitti tietynlaista ohjelmistopäivitystä yhteistyöhön.– Päivitimme dynamiikkaamme niin, että se tuntuu tasa-arvoiselta. Jarno on ollut juniorivaiheen valmentajani, mikä on tosi erilaista kuin huippuaikuisurheilijan valmentaminen, Murto kertoo ja jatkaa:– Eniten siinä on muuttunut se, miten minä osaan kommunikoida niin, että valmennussuhde toimii paremmin.Kun Murron valmentajakaruselli pysähtyi loppuvuodesta 2019, arki solahti uusvanhoille raiteilleen. Kesällä 2021 hän rikkoi vihdoin viisi ja puoli vuotta vanhan Suomen ennätyksensä. Taakka putosi Koivusen ja Murron hartioilta.Pari vuotta aiemmin Murron tiuhaa tahtia vaihtaa valmentajaa oli ihmetelty. Osa kritisoijista piti häntä menetettynä teinitähtenä. Ei enää. Murto oli matkalla seiväshypyn terävimmälle huipulle.Nyt Murto on hallitseva Euroopan mestari sekä sisä- että ulkoradoilta. Viime kesänä hän saavutti pronssia MM-kilpailuissa Budapestissä.Vaatimustaso korkeallaKun Koivunen ja Murto nyt muistelevat vuosia 2018 ja 2019, ovat he tyytyväisiä siihen, mitä vaikeasta ratkaisusta on seurannut.Koivunen on samalla vaativa ja vaatimaton. Vaativa itseään ja urheilijoitaan kohtaan, mutta vaatimaton, kun häntä pyytää kehumaan itseään.– Mikä tekee minusta hyvän, on se, kun otan vastuun jonkun valmennuksesta, otan sen sataprosenttisesti. En anna itselleni siimaa päästä helpolla. Mutta en tiedä, olenko sen parempi valmentaja kuin kolme vuottakaan sitten. Se aina tulee menestyksen mukana, että on mukamas parempi valmentaja.Avaa kuvien katselu– Voin luottaa, että Jarno tekee parhaansa ja antaa kaikkensa. Jos urheilija antaa itsestään, valmentaja antaa vähintään saman verran takaisin, Murto sanoo.  Kuva: Kimmo Hiltunen / YleMurron menestyksen myötä kiinnostus myös Koivusta kohtaan on kasvanut.– Nyt kun on mennyt hyvin, kaikki haluaisivat jostain syystä kuunnella, mitä haluan sanoa. Ensimmäinen asia, jonka olen itselleni luvannut, etten lähde yhteenkään luentoon tai puhumaan yrityksille. Se veisi aikaa päätehtävältäni, Koivunen sanoo.Valmentaja kiittää myös suojattiaan, että tämä on pitänyt keskittymisen olennaisessa.– Wilma on ollut siinä hyvä nyt, että se tulee häneltä hyvin vahvasti, että yhtäkään treeniä ei saa jäädä väliin näiden sponsorijuttujen takia, eikä ole oikeastaan jäänytkään. Se on mennyt hyvin.Yksilöurheilussa tulonmuodostus on usein monimutkaisempaa kuin esimerkiksi palkkaa saavana jalkapalloilijana. Tiimi Murto, Koivunen ja Heiska on miettinyt tiukat rajat yhteistyökuvioille.– Täytyy tietysti olla tuloja ja sponsoreita, mutta täytyy olla tarkat rajat, jotta mahdollisuudet urheiluun eivät mene huonommaksi. Lopulta urheilu tuo leivän pöytään. Ei saa hyviä yhteistyökumppaneita, jos hyppää 420. Jos hyppää 490, on varaa valita. Saa tehtyä sponsorisopimukset niin kuin haluaa. Se antaa tavallaan työrauhaa, Koivunen sanoo.Avaa kuvien katseluWilma Murto kuvailee Jarno Koivusta analyyttiseksi huumoriveikoksi. Koivuselle on tärkeää tuntea urheilijansa mahdollisimman hyvin.  Kuva: Kimmo Hiltunen / YleKoivusen ura olisi voinut lähteä aivan toiseen suuntaan, jos hänen päätöksentekoaan ohjaisi raha. Seitsemisen vuotta sitten Koivusta houkuteltiin valmentamaan Qatariin kovalla kuukausipalkalla ja työsuhde-eduilla. Hän ei edes harkinnut tarjoukseen tarttumista.– Se on ehkä näitä elämänarvoja. En valmentaisi ollenkaan, jos raha olisi ensimmäinen mittari, jonka mukaan teen päätöksiä. Raha ei ole minulle niin tärkeää. Kunhan normaalin elämisen pystyy klaaraamaan, se riittää. Olen sanonut, että jos olisi enemmän rahaa, sitä enemmän tuhlaa. Ei siitä olisi mitään hyötyä.– Elämä on sitä parempaa, mitä normaalimpaa se on.Paineet kasvavatViime vuonna Olympiakomitean huippu-urheiluvastaava Tommi Pärmäkoski huomasi, että Koivusen työtunnit paukkuivat viikosta ja kuukaudesta toiseen. Nyt Koivunen on pystynyt Olympiakomitean tuen ansiosta vähentämään muita töitään ja keskittymään pelkästään Murron valmentamiseen kohti Pariisin olympialaisia.Vuosi 2024 tarjoaa Murrolle tilaisuuden jopa kolmeen arvokisamitaliin, kun kalenterissa ovat MM-hallit Glasgow’ssa, EM-kilpailut Roomassa sekä olympialaiset Pariisissa.– Joskus minulla oli unelma saada urheilija olympialaisiin. Kun se tapahtui, ajattelin, että olisihan se hienoa saada urheilija olympiafinaaliin. Kun sekin tapahtui, niin olisi hienoa saada urheilija olympialaisissa palkintopallille. Se on seuraava, Koivunen miettii.Avaa kuvien katseluJarno Koivunen on tuttu näky Kupittaan yleisurheiluhallilla. Työtunteja hänellä ei ole ollut tapana laskea. Kuva: Kimmo Hiltunen / YleKun rima lähenee viittä metriä, paineet myös Koivusen valmennusosaamista kohtaan nousevat.– En luota semmoiseen musta tuntuu -menetelmään. Raaka data on raakaa dataa muutaman vuoden päästäkin. Siihen on helpompi nojata. Minulla on dataa varmaan 40 vuoden pankki, joka on ollut oman oppimisen väline. Niitä exceleitä kun vääntää, erottuu asioita, mitkä toimivat ja mitkä eivät toimi.Koivunen viettää Murron kanssa parikymmentä tuntia viikossa ja pyrkii olemaan paikalla jokaisessa harjoituksessa.Seiväshyppyä ja sen oheisharjoittelua Koivunen miettii suuren osan hereilläoloajastaan. Harjoitusten lisäksi aikaa kuluu niiden suunnitteluun ja analysointiin.”On laadun kannalta tärkeää, että ei vain voi mennä treeneihin väsyneenä tai tehdä suunnitelmaa väsyneenä. Vaan valmentajalla täytyy olla paras hetki.”Laatu on muutenkin tärkeä teema Koivusen valmennusfilosofiassa. Seiväshyppy on Koivusen mukaan melko toistettava laji, eikä siinä usein tapahdu mitään yllättävää. Keskustelut muiden huippuvalmentajien kanssa ovat osoittaneet, että valmennusmetodit ovat maailmalla varsin yhteneväisiä.– Ratkaisevaksi tekijäksi tulee se, kuka tekee ne yksinkertaiset hyvät harjoitukset vähän laadukkaammin kuin se toinen kaveri. Koko valmennuksen täytyy perustua siihen, että laadusta ei saa tinkiä, ei itse harjoitteissa, ei harjoittelussa, eikä myöskään palautumisen eteen tehtävässä työssä.– Meillä on sellainen sanonta, että joku perhana tekee sen kuitenkin. Jos itse ei tee sitä niin laadukkaasti kuin osaa, joku tekee. Silloin on hävinnyt pelin.</t>
+          <t>Tammikuussa Enontekiöllä kärvisteltiin yli 40 asteen ennätyspakkasissa. Sähkön hintakin käväisi samoihin aikoihin ennätyslukemissa. Siitä huolimatta enontekiöläinen Reijo Mannela onnistui säästämään sähkölaskussaan.Sähköä hänen taloudessaan kului tammikuussa vain 274 kilowattituntia. Lukua voi helposti verrata lämpimien kesäkuukausien kulutukseen.– Kyllä laskun avaaminen vähän pelotti. Yllätys oli, että pystyin niin paljon säästämään, iloitsee Mannela.Tammikuun kylmimpinä hetkinä Mannelan lämpömittari laski Karesuvannon Maunussa 46 pakkasasteeseen. Kylmyydestä huolimatta Mannelalle pukkasi hikeä ennätyskalliin pörssisähkön vuoksi.Oli keksittävä nopeasti tapoja säästää sähköä, etteivät kaikki rahat kuluisi sähkölaskuihin.Pörssisähkön huidellessa ennätyslukemissa teki Mannela poikkeuksellisen ratkaisun: hän väänsi talonsa lämmityksen pois päältä ja poltti takassa tulta yötä päivää.Sähköä hän käytti vain veden lämmitykseen, jotta talon putket eivät jäätyisi.– Ei pirtissä kauhean lämmin ollut, vaikka kamiinassa polttikin koko ajan valkeata. Vähän yli kymmenen astetta oli sisällä, suven puolella kuitenkin. Tarkeni kun laittoi vaatetta päälle, kertoo Mannela.Lisää: Reijo Mannelan kotia on piinannut 46 pakkasastetta, ja nyt kallis sähkö pakotti vääntämään lämmityksen poisAvaa kuvien katseluReijo Mannelan pakkasmittarin lukema tammikuun kylmimpinä hetkinä. Kuva: Reijo MannelaSäästökuuri kannatti, sillä sähkölasku oli paljon pienempi kuin hän osasi uneksiakaan. Tammikuun lasku yhdessä sähkönsiirron kanssa oli 286 euroa.Jos Mannela olisi lämmittänyt taloaan kovilla pakkasilla sähköllä ja kuluttanut tavalliseen tapaan, olisi sähköön kulunut rahaa Mannelan mukaan ennätyskalliin pörssisähkön ajalta jopa 300 euroa päivässä.– Kyllä tässä on ihan työkseen säästänyt.Säästäminen voi olla myös väsyttävää hommaaReijo Mannelalla on ollut pörssisähkösopimus muutaman vuoden, eikä ole nykyisillä sähkön hinnoilla harkinnutkaan siirtyvänsä sopimussähköön.Kuluneen talven aikana hän on opetellut nipistämään kaikenlaisesta sähkönkulutuksesta. Villapaita ja villasukat ovat tulleet jäädäkseen.– Olemme pysyvästi pudottaneet huonelämpötilaa. Kaikessa säästetään. Täytyy tarkasti miettiä, koska saunotaan, pyykätään, tiskataan ja laitetaan auto roikkaan.Vaikka pieni sähkölasku motivoikin jatkamaan säästämistä, voi pörssisähkön seuraaminen olla välillä uuvuttavaa.Sähkö on yleensä halvempaa yöaikaan, ja siksi Mannela onkin usein nukkumisen sijaan laulattanut pyykki- ja tiskikonetta.– Säästäminen on ollut armotonta. Ei ole enää niin mukavaa, että joutuu noin pelaamaan. Mutta hyvän tuntihinnan siitä yökuppaamisesta saa, naurahtaa Mannela.Kovimpien pakkasten aikana Mannelan polttopuukasasta hävisi puita pari kuutiota. Ensi talvi siintääkin jo hänen ajatuksissaan. Suunnitelmissa olisi ostaa uusi varaava takka.– Sillä säästää puuta valtavasti. Jos ei olisi puulämmitystä, niin olisi tullut ikävä lasku. Suorastaan katastrofi.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Autoilija voi lähivuosina saada viestin liiken­ne­valoilta – näin älyvalot toimivat</t>
+          <t>KRP on ottanut näytteitä kuolleiden sisäelimistä – erikoisella DNA-tutkimuksella halutaan ratkaisu vanhaan murhaan</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20074767</t>
+          <t>https://yle.fi/a/74-20076455</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>23.02.2024</t>
+          <t>28.02.2024</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1473,27 +1473,27 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Älykkäät liikennevalot mahdollistavat sujuvamman liikenteen. Niiden avulla autoilija voi välttää turhia pysähdyksiä. </t>
+          <t>Ylen rikospodcast paljastaa, että talossa, jossa Liisa Mäkikangas surmattiin, asui mies, jonka DNA vastasi lähes täysin murhaajan DNA:ta.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Tulevaisuudessa älykkäät liikennevalot voivat auttaa autoilijaa ennakoimaan omaa matkantekoa. Valot voivat viestiä yhteyden avulla ohjaamoon tietoja siitä, mitä on edessä ja mitä kuljettajan kannattaisi tehdä.Tätä on nyt onnistuneesti testattu Fintrafficin ja Tampereen kaupungin yhteisessä kehityspilotissa.Noin vuoden kestäneessä kokeilussa selvitettiin, miten liikennevalolaitteista voi saada vertailukelpoista dataa yhteiseen tiedonvaihtoalustaan ja sitä, miten älyliikennejärjestelmää tulisi hallinnoida.Tavoitteena on, että tulevaisuudessa liikennevaloista tieto siirtyisi suoraan ajoneuvoon, auton navigaattoriin tai älypuhelimen sovellukseen, jolloin autoilija saa etukäteistietoa lähestyvien liikennevalojen tilanteesta.Auton merkillä, mallilla tai iällä ei ole väliä, kunhan vastaanottajalla on joku laite, mihin tieto välittyy.Avaa kuvien katseluLiikennevalot voivat tulevaisuudessa lähettää tietoa autoilijoille. Kehityksestä hyötyisi myös julkinen liikenne. Kuva Tampereelta. Kuva: Jani Aarnio / YleTampereen kaupungin projektipäällikkö Mika Kulmalan mukaan tällaisesta palvelusta hyötyy suuresti myös joukkoliikenne.– Voi olla järkevämpää odottaa pysäkillä 15 sekuntia pidempään, jos se tarkoittaa sitä, että pääsee seuraavista valoista pysähtymättä eteenpäin.Autot keskustelevatKyse on siis lyhyen kantaman tiedosiirrosta (C-ITS), jota tapahtuu joko kahden ajoneuvon tai kaupunki-infran ja ajoneuvon välillä.Liikennevalot ja niistä jaettava tieto on vain yksi osa tiedonvälitystä. Tietoa voi jakaa myös vaikkapa keliolosuhteista, tietyömaista ja liikenteen vaaratekijöistä.– Jos esimerkiksi vastaantuleva auto on havainnut liukkaan tienpinnan, oma autosi nappaa tämän tiedon itselleen, Kulmala sanoo.Vastaavanlaisia tiedonjakokokeiluja on Tampereella tehty ennenkin, muttei yhtä kattavasti. Kymmenen vuotta sitten laitevalmistajia oli mukana vain yksi, joten kokeilusta saatu tieto jäi suppeaksi.Tähän pilottiin valittiin mukaan 12 risteystä. Valintaperusteena olivat tekniset syyt.– Lähtökohtana oli, että mukaan saadaan monta eri laitevalmistajaa ja laitemallia. Risteyksen vilkkaudella tai sijainnilla ei siis ollut merkitystä.Avaa kuvien katseluTiedonsiirtoa on pilotoitu onnistuneesti ensimmäistä kertaa Suomessa liikennevalojen ja ajoneuvojen välillä nyt myös Euroopan laajuisilla standardeilla. Arkistokuvassa näkyy Itsenäisyydenkadun ja Yliopistonkadun risteys Tampereella. Kuva: Sanni Isomäki / YleTavoitteena vuosi 2027Pilotin aikana liikennevalokoneista kerättiin reaaliaikaista dataa digitaaliselle alustalle, joka lähetti viestejä eteenpäin eri sovelluksiin.Fyysisesti tämä tiedonkeräysalusta sijaitsee Jyväskylässä.Testauksen aikana selvisi se, etteivät kaikki laitteet toimineet niin tehokkaasti kuin oletettiin.– Kaikissa ei vain suorituskyky riittänyt jatkuvaan tiedon tuottamiseen eli jonkin verran jouduttiin tekemään päivityksiä, Kulmala kertoo.Olli Rossi Fintrafficin tieliikenteenohjauksesta kertoo tiedotteessa, että Suomessa voidaan hyödyntää pitkälti jo olemassa olevaa laitekantaa.– Meillä on hyvä pohja älyliikennejärjestelmien jatkokehittämiseksi, jotta liikennevalot tuottaisivat jatkossa autoilijoille syötettä esimerkiksi siitä, miten liikennevaloja kannattaa lähestyä, jotta ajotapa olisi mahdollisimman taloudellinen ja vähäpäästöinen, Rossi sanoo.Tavoitteena on, että vuonna 2027 liikennevalot jakaisivat dataa autoilijoiden käyttöön.Mika Kulmala toivoo, että jotakin olisi tarjolla jo ennen tätä.– Tämä liukuma tuohon siirtymään on juuri siksi, että saadaan laitekanta vastaamaan vaatimuksia.</t>
+          <t>Keskusrikospoliisi on etsinyt ratkaisua Lahden seudun vanhaan henkirikokseen poikkeuksellisella DNA-menetelmällä.Tämä selviää Viimeinen johtolanka -podcastin uusista jaksoista, jotka ovat nyt kuunneltavissa Yle Areenassa.39-vuotias Liisa Mäkikangas löydettiin surmattuna kotoaan Vääksyssä, Päijät-Hämeessä, 5. lokakuuta 1995.Poliisin mukaan tekijä jätti rikospaikalle DNA:ta, jolle on myöhemmin etsitty jättäjää niin elävistä kuin kuolleista.Edellinen tutkinnanjohtaja Paavo Tuominen kertoo rikostoimittaja Marko Niemelle podcastissa, että esimerkiksi onnettomuuden tai henkirikoksen uhrina kuolleille tehdään oikeuslääketieteellinen ruumiinavaus, jonka yhteydessä oikeuslääkäri ottaa näytepaloja vainajan sisäelimistä, kuten maksasta, keuhkoista ja sydämestä.Nykyisin eläkkeellä olevan rikoskomisario Tuomisen mukaan oikeuslääketieteellisissä ruumiinavauksissa otettuja näytepaloja säilytetään Terveyden ja hyvinvoinnin laitoksen (THL) tiloissa.– Siellä kaikista avatuista henkilöistä tämmöinen palanen löytyy. Ne ovat tietääkseni syväjäässä, että säilyvät ikuisesti.Avaa kuvien katseluPoliisi epäilee, että Liisa Mäkikankaan surmaaja löytyy hänen asiakkaidensa joukosta. Kuva: Poliisi-tvTuominen sanoo, että poliisi voi pyytää THL:ää tai aluehallintovirastoa toimittamaan vertailukelpoisen näytteen DNA-tutkimusta varten.KRP on tehnyt DNA-vertailua paitsi syyllisen löytämiseksi myös poissulkeakseen henkilöitä mahdollisten epäiltyjen joukosta.– Olemme käsitelleet ja vertailleet noin 20–25 leikettä. Nämähän hävitetään sen jälkeen, kun on saatu vertailutulos. Lain pykälä on sellainen, että testejä ei säilytetä DNA-rekisterissä.Satoja näytteitäKRP tutkii Liisa Mäkikankaan henkirikosta murhana.Mäkikangas työskenteli tarjoilijana, mutta teki myös seksityötä. Hän toimi niin sanottuna puhelintyttönä seksilinjalla, mutta tapasi miehiä myös kotonaan Vääksyssä sekä toisessa asunnossa Lahdessa.Poliisi on kerännyt DNA-näytteitä noin 350 mieheltä vajaan 30 vuoden aikana.DNA:ta on taltioitu niin Mäkikankaan asiakkailta, entisiltä miesystäviltä kuin muutoin hänen kanssaan tekemisissä olleilta. Näytteitä on haettu Espanjasta asti.Edellinen tutkinnanjohtaja Paavo Tuominen epäilee, että syyllinen löytyy Mäkikankaan asiakkaiden joukosta.Lähes täydellinen DNA-osumaPodcastissa paljastuu, että samassa Vääksyn Aniantiellä sijaitsevassa talossa, jossa Mäkikangas surmattiin, otettiin myöhemmin kiinni toisesta henkirikoksesta mies, jonka DNA-tunniste oli hyvin lähellä Mäkikankaan murhaajan DNA-tunnistetta, mutta ei täysin vastannut sitä.Miehen osuutta Mäkikankaan murhaan tutkitaan yhä.– Selvittelemme rikosteknisen laboratorion kanssa, onko tähän vielä tehtävissä jotain, kertoo nykyinen tutkinnanjohtaja Jussi Luoto podcastissa.KRP:n arvion mukaan on myös mahdollista, että DNA-tutkimuksessa on tapahtunut erehdys tai kyseinen mies on sukua Mäkikankaan surmaajalle.Aamuinen miesvieras murhasi Liisa MäkikankaanViimeinen johtolanka, jakso 1. Elämä ei kohdellut Liisa Mäkikangasta silkkihansikkain. Hän jäi orvoksi jo kymmenvuotiaana ja kaikesta oli puutetta. Tienatakseen rahaa Liisa siirtyikin työelämään heti, kun se oli mahdollista.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Taajamatulvat ovat mahdollisia alkuviikosta</t>
+          <t>Artis­ti­tu­lokas Mirella ei halua olla Tiktok-tähti, sillä somealusta sekoitti hänen päänsä</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20076315</t>
+          <t>https://yle.fi/a/74-20075720</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1508,32 +1508,32 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tulvavaroitus on annettu tälle päivälle Uudellemaalle, Kymenlaaksoon sekä Etelä-Karjalaan sateen ja lumien sulamisen vuoksi. Lähetä meille oman ajoreittisi tulvakuva.</t>
+          <t>18-vuotias laulaja Mirella on Suomen kuunnelluimpia artisteja. Kulttuurivieraan mukaan somealustat voivat olla toksisia etenkin nuorille naisille.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Uudellamaalla sulamis- ja sadevesiä on noussut teille pääkaupunkia myöten.Viikonlopun voimakkaimmat sateet ajoittuivat lauantaille. Eniten vettä on tullut Uudeltamaalta Etelä-Karjalaan ulottuvalla alueella. Uudellamaalla ja Kymenlaaksossa vettä on satanut jopa yli 15 millimetriä.Suomen ympäristökeskuksen (Syke) mukaan sateet ja lumen sulaminen voivat aiheuttaa hulevesitulvia lumen ja jään tukkiessa viemäreitä Etelä-Karjalassa, Uudellamaalla ja Kymenlaaksossa.Avaa kuvien katseluVesi roiskuu ajoteillä eri puolilla Etelä-Suomea. Kuva: Mikko Koski / YleVesi voi lentää hiihtolomalaisten reiteilläEteläisen Suomen hiihtoloman paluuliikenne ajoittuu pääosin sunnuntaille.Ylen meteorologi Elias Paakkasen mukaan sää ei paluuliikenteen kannalta ole kovin huono. Sateita tulee vain harvakseltaan, ja sademäärät ovat melko vähäisiä. Tienpinnatkin ovat pääosin plusasteiden puolella päiväsaikaan, joten kovin liukasta ei pitäisi olla.– Suurimmat sateet tulivat jo lauantaina. Lounaasta kulkee rintama kohti koillista, joten hajanaisia sateita voi tulla eri puolilla maata, kommentoi Paakkanen.Vaikka ajokelivaroituksia ei olekaan voimassa, tarkkana saa liikenteessä silti olla. Etenkin Etelä-Suomessa voi olla paikoin syviäkin lätäköitä tiellä, joten sopivan hiljainen tilannenopeus on liikenteessä paikallaan.Avaa kuvien katseluSulamisvedet tulvivat kadulle Mikkelissä kuluneella viikolla. Mikkelin keskustassa lainehti kaduilla myös viikonloppuna. Kuva: Maria Bonnor / YleTulvakausi alkamassa etelässä ja kaakossaSuomen ympäristökeskuksen mukaan tulvakausi on alkamassa Etelä- ja Lounais-Suomessa.Tulvavaroitus on annettu tälle päivälle Uudellemaalle, Kymenlaaksoon sekä Etelä-Karjalaan. Tulvatilanne helpottaa alkuviikosta sään viilenemisen vuoksi.Tuoreen ennusteen mukaan kevättulvat tulevat tänä vuonna useissa vaiheissa, ja virtaamat kasvavat uudelleen myöhemmin keväällä.Syken tutkija Harri Myllyniemi arvioi, että lähipäivinä kaduille noussut tai valunut vesi haittaa erityisesti taajamissa.Kevään tulvasesonki käynnistyy Etelä- ja Lounais-SuomessaKuuntele Suomen ympäristökeskuksen tutkija Harri Myllyniemien haastattelu. Haastattelijana on Clarissa Jäärni.Avaa kuvien katseluVesilammikoita kauppakeskus Triplan edustalla Pasilassa Helsingissä. Kuva: Otso Karhu / YleLähetä oman ajoreittisi tulvakuva toimitukseemme sähköpostitse helsinki@yle.fi.</t>
+          <t>Loppiaisaamuna Mirella heräsi kun kuuli äitinsä huudon keittiöstä.– Mene äkkiä katsomaan Spotifyta!Unenpöpperöinen Mirella avasi Suomen kuunnelluimpien kappaleiden listan. Sen kärjessä komeili hänen toinen julkaistu biisinsä Timanttei.Taakse olivat jääneet monen suosikkiartistin kuten Gettomasan samaan aikaan julkaistut uutuudet.Mirellasta tuli poptähti yhdessä yössä.Mirella Roininen on vasta 18-vuotias vantaalainen lukiolainen. Suurelle yleisölle tuntematon laulaja hakee haastattelussa sanoja, sillä hän ei pysty juuri kuvailemaan tuntojaan.– Mitä täällä tapahtuu?, epäuskoinen Mirella huudahtaa.Avaa kuvien katselu– Musiikki on varmaan aina virrannut mun dna:ssa, sanoo artistitulokas Mirella. Kuva: Katriina Laine / YleToksinen TiktokMirellalla on ristiriitainen suhde somealustoihin. Ne ovat auttaneet hänen urallaan, mutta aiheuttaneet myös ahdistusta.Hän oli vuosi sitten syksyllä koukussa Tiktokiin ja Instagramiin. Mirella katsoi kuvia ja videoita ja vertasi itseään näkemäänsä.Hänen mielensä synkkeni.Päässä pyörivät kysymykset: Miksi en voi näyttää tuolta? Miksi minulla ei voi olla tuollaista kroppaa?Kun somealustojen algoritmit puskivat lisää samanlaista sisältöä, tilanne paheni.– Se tavallaan sekoitti mun pään. Olin tosi itkuisa koko ajan, Mirella kertoo.Vanhemmat huomasivat tyttären muuttuneen käytöksen. Oli vakavan keskustelun paikka. He sanoivat, että somen käytön pitää muuttua tai he passittavat Mirellan terapiaan.Mirella tajusi, ettei siinä ole järkeä, jos jostain sovelluksesta tulee niin paha olo.– Se sekoittaa nuoren tytön pään ihan tosi pahasti. Siitä tulee tosi epävarmaksi.Avaa kuvien katseluMirella käyttää Tiktokia, vaikka ei haluaisi. – Se on niin koukuttava ja samaan aikaan raaka. Kuva: Katriina Laine / YleTiktok ei jäänyt täysin pois Mirellan elämästä, sillä se on tärkeä musiikin markkinointikanava etenkin aloittelevalle artistille.Alkuun hän tosin epäröi laittaa sinne musiikkiaan.– Mulla oli pelko, että musta tulee pelkkä Tiktok-artisti.Mirellan Tiktok-tilillä on tällä hetkellä yli 35 000 seuraajaa. Videoilla artisti muun muassa tanssii omien kappaleidensa tahtiin.Tosin nyt moni videoista on mykistetty, sillä Mirella on Universal Musicin artisti.Levy-yhtiö veti helmikuun alussa musiikkinsa pois palvelusta, sillä sen mielestä Tiktok maksaa musiikin käytöstä liian vähän.Nyt siellä eivät soi siis myöskään Mirellan kappaleiden levytetyt versiot.– Totta kai se harmittaa ja vähän ärsyttää. Mutta ei se haittaa, sillä keksin muita keinoja.Mirella on esimerkiksi tehnyt Timanttei-hitistään akustisen version, jossa isä soittaa kitaraa.Laulamista luonnostaan– Minulle on aina ollut selkeää, että minusta tulee artisti, Mirella sanoo itsevarmasti.Musiikki on kuulunut Roinisen elämään lapsesta lähtien. Hänen isänsä Tero Roininen on muusikko, joten kotona on kuunneltu musiikkia laidasta laitaan Dream Theaterista Whitney Houstoniin.Mirellaa kiinnosti lapsena myös tanssi. Hän harjoitteli koreografioita tv:n musiikkikanavilta nähtyjen musiikkivideoiden tahdissa. Muistissa ovat edelleen Lady Gagan Bad Romance -kappaleen tanssiliikkeet.Vanhemmat laittoivat aktiivisen tytön aluksi prinsessafutikseen, mutta siitä ei tullut mitään. Hän vain tanssi ja lauloi kentällä.Mirella siirtyi musiikkiopistoon pianotunneille ja lauloi kuorossa. Hän alkoi käydä laulutunneilla 13-vuotiaana.Mirella päätyi taustatanssijaksi Ylen ruotsinkieliseen lasten ja nuorten laulukilpailuluun Melodi Grand Prix’hin. Kun siellä kuultiin, että hän osaa myös laulaa, hän osallistui lopulta kisaan myös laulajana.15-vuotias Mirella voitti kilpailun vuonna 2020 kappaleella Landet ingenstans. Hän kirjoitti sen itse musiikkituottajan avustuksella.Mirella esitti kappaleensa Landet ingenstans Ylen Melodi Grand Prix -kilpailussa.Meni kuitenkin vielä hetki ennen kuin Mirellan ura nytkähti liikkeelle. Hän oli tehnyt videoita Tiktokiin, joissa hän esitti cover-kappaleita.Lopulta videot nähnyt Sara Siipola vinkkasi nuoresta kyvystä Kristiina Wheelerille, joka etsii uusia artisteja Universal Musicille.Kun ruotsinkielinen Mirella vielä opetteli laulamaan suomeksi, hän sai levytyssopimuksen.Vahvat arvot”Ei ystävät tee niinEt salaa deittaillaan exiiJa sit kun toi loppuuToivon, et sua sattuu”(Mirella: Sua sattuu)Mirella sai idean Sua sattuu -kappaleeseen Tiktokista. Hän oli nähnyt siellä videoita, missä ihmiset kertoivat, kuinka paras kaveri oli ollut exän kanssa.Laulaja tekee musiikkia kokeneiden biisinkirjoittajien kanssa. Joukkoon kuuluvat esimerkiksi juuri Emma-palkinnon musiikintekijänä saanut Vilma Alina sekä Euroviisuissa Suomea edustava Henri Piispanen.Mirellan kappaleet syntyvät siten, että hän tuo pöytään omia ideoitaan. Hän esimerkiksi kertoo asioita, jotka ovat olleet sydämen päällä.Laulajalle on tärkeää, että kappaleet ovat mahdollisimman lähellä omaa elämää, että hän voi samaistua tekstiin. Kaiken pitää olla myös rehellistä.– Minulla on vahvat arvot. Tiedän, mistä asioista haluan laulaa ja mistä en.Mirella listaa, mitä hänen kappaleissaan ei tulla kuulemaan. Seksi ja kirosanat eivät sovi hänen suuhunsa. Myöskään huumeet eivät kuulu hänen musiikkiinsa, koska niitä hän ei käytä.Mirella ei juurikaan juo ja vaikka hän täytti 18 vuotta jo toukokuussa, hän ei ole käynyt kunnolla baarissa koskaan.– Se ei ole mun juttu. Tykkään tanssia, mutta ehkä se juhliminen on erilaista kuin baarissa käyminen.Avaa kuvien katselu– Olen aina rakastanut laulamista. Kuuntelijat herkistyvät mun laululle ja voin tuoda tunnetta ulos. Se on kiehtovaa ja ihanaa, sanoo Mirella. Kuva: Katriina Laine / YleYlpeä romanitaustastaanMirella istuu usein isänsä kanssa sohvalla ja he katselevat videoilta ulkomaisten romaniartistien esityksiä.Romanimusiikki on soinut romanitaustaisessa perheessä aina. Isä Tero Roininen on myös perustanut GG Caravan -yhtyeen, joka yhdistelee räppiä romanimusiikkiin.Mirella sanoo, että romanitausta kuuluu myös hänen musiikissaan ja etenkin laulussa. Romanilaulajat ovat tunnettuja tunteikkaasta esiintymisestään.– Mua on pienestä pitäen kehuttu, että musta tulee paljon tunnetta ulos, kun mä laulan.Listojen kärjessä pyörii tällä hetkellä myös muut romanitaustaiset artistit artistit kuten Jami Faltin. Hänen musiikissaan räp yhdistyy iskelmään. Nosteessa on myös artisti Ani.Mirella on iloinen, että myös muut romanit menestyvät samaan aikaan. Se on tosin hänen mukaansa vain sattumaa.Laulaja on pohtinut romanitaustan hyödyntämistä enemmänkin musiikissaan. Hän uskoo vielä ammentavansa inspiraatiota ulkomaisilta romaniartisteilta, ja tuovansa jotain uutta suomalaiseen popmusiikkiin.Avaa kuvien katselu– Olen perfektionisti ja välillä raaka ja jopa ilkeä itselleni. Toivottavasti pystyn antamaan itselleni armoa, sanoo laulaja Mirella. Kuva: Katriina Laine / YleKalenteri täynnäMirella sanoo, että hänen aivonsa käyvät nyt ylikierroksilla. Koko ajan tapahtuu jotain uutta ja muistettavaa on paljon. Siksi hän opettelee käyttämään kalenteria.Artistikiireiden ohella Mirella käy edelleen lukiota. Häntä ei ole tosin paljoa koulussa viime aikoina nähty.Helsinkiläislukiossa on suhtauduttu ymmärtäväisesti poplaulajan kiireisiin. Rehtori oli sanonut Mirellalle, ettei koulu halua olla uran tiellä.Koulunkäynti on hidastunut sen verran, että Mirella siirtyi aikuislinjalle ja lukio venyy neljään vuoteen. Tähtäimessä on, että hän kirjoittaa ylioppilaaksi ensi vuoden keväällä.– Koulua pitää priorisoida, että saa paperit ulos, laulaja sanoo päättäväisesti.Mirellan ura on vasta alussa ja takana on vasta muutama pieni keikka. Mutta hype artistin ympärillä on kova ja suunnitelmat ovat sen mukaiset. Kesällä Mirella esiintyy jo festareilla ja syksyllä on luvassa kiertue.Mirella kertoo jännittävänsä esiintymistä niin paljon, että oksettaa. Lavalla jännitys kuitenkin häviää.– Kun laulan biisiä ja olen sen sisällä, mä katoan.Lue edellinen Kulttuurivieras tästä:Lapsena Miia Tervo kuuli olevansa ”arvoton paska”, ja nyt hän kehuu itseään, ettei häpeä ottaisi valtaa</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ukrainalainen lääkäri: Venäjä käyttää myrkkykaasuja, jotka lamaan­nut­tavat sotilaita</t>
+          <t>Sukista sakot?  ”Voi kuulostaa älyttömälle, mutta se on laitonta”, sanoo poliisi</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20076287</t>
+          <t>https://yle.fi/a/74-20075920</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>24.02.2024</t>
+          <t>25.02.2024</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1543,32 +1543,32 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Uutistoimisto Reuters on käynyt kenttäsairaalassa Donetskissa. Haavoittuneiden määrä siellä on kasvussa. </t>
+          <t>Sosiaalisen median neuleryhmissä on viime päivinä kiistelty poliisin tunnuskuvan käytöstä käsitöissä. Poliisilla on siihen yksioikoinen vastaus.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Venäjä on viime aikoina lisännyt hyökkäyksiään Itä-Ukrainaan Donetskin alueelle.Rintaman läheisyydessä toimivassa kenttäsairaalassa potilaiden määrät ovat kasvussa, kertoo sairaalan lääkäri Oleh Tokartšuk. Haavoittuneiden määrät ovat pienempiä kuin vuosi sitten, mutta ovat nousussa.– Tällä hetkellä hoidamme noin 30 haavoittunutta päivässä. Sekään ei ole mikään pieni luku, kirurgina työskentelevä Tokartšuk sanoo uutistoimisto Reutersille.Hän kertoo myös, että on viime aikoina huomannut sotilaiden kertomuksissa uuden ilmiön, mahdollisen myrkytyksen.– Sotilaat valittavat tulleensa myrkytetyksi. On hyvin vaikea sanoa, minkälaisista aineista tässä on kyse. Oireet ovat silmien ärsytystä, hengenahdistusta ja yskää, hän sanoo.Hänen mukaansa oireita tutkitaan lisätietojen saamiseksi.Myös Aftonbladet kertoo myrkkykaasuistaRuotsalaislehti Aftonbladet vieraili hiljattain ukrainalaisessa kenttäsairaalassa Avdijivkan läheisyydessä Donetskin alueella. Venäjän uusi strategia on huomattu myös etelässä.– Viime kuukausina Venäjä on hyökännyt yhä useammin myrkkykaasuilla. Nämä tiputetaan drooneista kranaattien muodossa, kenttälääkärinä toimiva Vladimir kertoo Aftonbladetille.Usein Venäjä käyttää kaasujen aiheuttamaa sekasortoa ja paniikkia hyväkseen, iskemällä välittömästi uudestaan taisteludrooneilla tai keskittämällä alueelle tykistötulta.– Meillä ei ole tähän mitään lääkettä. Kyseessä on kaasu, joka levittäytyy hyvin paksuna juoksuhautojen ylle. Se aiheuttaa hengitysvaikeuksia ja hyökkää henkitorviin, aiheuttaen oksentelua ja huimausta, alueen joukkoja komentava Roman Hasko kertoo Aftonbladetille.Epäilyjä siitä, että Venäjä olisi käyttänyt myrkyllisiä kemikaaleja sodassa Ukrainassa, on esitetty aiemminkin, esimerkiksi Mariupolin alueella vuonna 2022.</t>
+          <t>Viime päivinä somen neuleryhmissä on käyty vilkasta keskustelua poliisin tunnuskuvan eli miekkaleijonan käytöstä. Tunnusta on nyt neulottu runsaasti esimerkiksi villasukkiin koristeeksi.Miekkaleijonan kuvaa ei kuitenkaan saa neuloa sukkiin eikä villapaitoihin ilman lupaa.– Voi kuulostaa älyttömälle, mutta se on laitonta. Ja jos lupaa yrittää kysyä, se on tehty niin tiukaksi, ettei sitä käytännössä saa, sanoo poliisitarkastaja Konsta Arvelin Poliisihallituksesta.Poliisin tunnuskuvan laittomasta käytöstä voi rapsahtaa sakot.Neulesomessa kummastellaanFacebookin yli 100 000 henkisen ”Voihan villasukka” -ryhmän jäsenistä osa on sitä mieltä, että omiin sukkiinsa saa neuloa minkä kuvan haluaa. Osa taas on sisäistänyt poliisin tunnuskuvaan liittyvät tiukat säännökset.Keskustelu on saanut koomisia piirteitä, kun osallistujat ovat alkaneet mielikuvitella sukkien omistajien esiintyvän poliisina näyttäen sukkaansa ja lahjetta nostaen huutavan: ”Seis! Olen poliisi!”Arvelin kertoo ymmärtävänsä kommentit, joissa pohditaan kuinka villasukkaan neulottu merkki voisi heikentää luottamusta poliisia kohtaan.– Tuskin mitenkään, mutta ei lakeja kirjoiteta sillä tarkkuudella, mitä saa villasukkiin neuloa ja mitä ei. Tässä on kyse muun muassa valepoliisi-ilmiön kitkemisestä.Miekkaleijonaa suojaa myös tavaramerkkiPoliisihallitus voi myöntää luvan tunnuskuvan yksityiseen käyttöön poliisin henkilöstöön kuuluville sekä esimerkiksi poliisiyhdistyksille.Lupa voidaan myöntää vain, jos edellytykset tunnuskuvan yksityistä käyttöä varten ovat olemassa.– Yksi esimerkki on kuolleen poliisin hautakiveen kaiverrettava miekkaleijona. Yleensä omaiset saavat luvan tunnuksen käyttöön tällaisessa tapauksessa, Arvelin kertoo.Myös Punaisen ristin, Rajavartiolaitoksen ja Puolustusvoimien tunnukset ovat saman tiukan säännöksen alaisuudessa. Kaikkiin näihin liittyy luottamuksellista toimintaa, joka pitää pystyä suojaamaan.Arvelin muistuttaa myös, että poliisin miekkaleijona-tunnuskuva nauttii tavaramerkkilain suojaa. Tunnuskuvan käytöstä esimerkiksi teatteriesityksissä ja muissa vastaavissa tilaisuuksissa päättää Poliisihallitus tapauskohtaisesti.Tekijänoikeudet ja tavaramerkkilaki puhuttavat aika ajoin käsityöpiireissä. Viime vuosina esimerkiksi makeisyhtiö Fazer on alkanut myymään makeisten logoista tehtyjä neuleohjeita- ja paketteja.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Varo tätä hymiötä – sitä voidaan käyttää sinua vastaan oikeudessa</t>
+          <t>Sebastian Aho ratkaisi NHL:n tulikuuman suoma­lais­koh­taa­misen viime sekunneilla – tunteet kuohahtivat summerin soidessa</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20075389</t>
+          <t>https://yle.fi/a/74-20076066</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>22.02.2024</t>
+          <t>23.02.2024</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1578,27 +1578,27 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kunnianloukkaus on tyypillinen tapaus, jossa oikeus voisi joutua tulkitsemaan emojin tai hymiön merkitystä.</t>
+          <t>Carolina Hurricanes kukisti Florida Panthersin 1–0 itäisen konferenssin huippuottelussa.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Viime syksynä Etelä-Karjalan käräjäoikeudessa oli käsittelyssä kiivastunnelmainen riita-asia, jossa yhtenä osana oli vedet silmissä naurava hymiö (😂).Riita käsitteli vuokranantajan ja kahden vuokralaisen välistä vuokravakuutta.Vuokranantaja ei halunnut palauttaa vakuutta, koska hänen mielestään vuokralaiset ja heidän koiransa olivat turmelleet asuntoa. Tästä oli aiheutunut hänelle kuluja enemmän kuin vuokravakuuden määrä.Vuokralaiset ja vuokranantaja olivat keskustelleet asunnon kunnosta ja vuokravakuudesta Whatsapp-viesteillä.Kun vuokranantaja oli kysynyt koiran aiheuttamista vaurioista, oli vuokralainen vastannut viestillä, johon oli liittänyt vedet silmissä nauravan nauruhymiön.Käräjäoikeudessa vuokranantaja oli sitä mieltä, että vuokralaiset suhtautuvat vakavaan asiaan vähäpätöisesti, koska olivat käyttäneet nauruhymiötä. Vuokralaisen mielestä nauruhymiön käyttäminen oli vain hänen tapansa kirjoittaa.Kakka-emojiHymiöillä ja emojeilla ei ole selkeää, yleispätevää merkitystä, jonka kaikki tietäisivät.Tiedossa ei ole, että eri oikeusasteissa Suomessa olisi vielä tähän mennessä jouduttu ottamaan kantaa hymiön tai emojin merkitykseen. Itä-Suomen yliopiston oikeustieteiden laitoksen yliopisto-opettaja Jussi Karkkulainen kuitenkin uskoo, että sen aika tulee ehkä hyvinkin pian.– Hymiöitä ja emojeita käytetään todella paljon nykyajan viestinnässä, joka on luonteeltaan pikaista ja hyvin lyhytsanaista. Siksi uskon, että väkisin tällainen viestintä tulee myös tuomioistuimiin todistusaineistoksi ja emojeita tullaan tulkitsemaan myös tuomioistuimissa.Avaa kuvien katseluWhatsapp-viestit voivat täyttyä emojeista ja hymiöistä. Kuvassa esimerkkinä toimittajan keksimä kuvitteellinen keskustelu.  Kuva: Petri Kivimäki / YleTyypillinen tapaus, jossa oikeus voisi joutua tulkitsemaan emojin tai hymiön merkitystä, on kunnianloukkaus.– Henkilölle on lähetetty loukkaava viesti, jossa on haukuttu henkilöä haukkumasanalla ja sen yhteydessä käytetty esimerkiksi kakka-emojia. Tällainen kakka-emoji voi korostaa viestin loukkaamistarkoitusta ja muodostaa viestin sävystä halventavan, kertoo Karkkulainen.Karkkulainen muistuttaa, että kakka-emoji (💩) sellaisenaan ei aina ole halventava, koska sitä voi käyttää myös positiivisessa sävyssä.– Kakka-emojilla ei siis ole sellaista yleistä merkitystä, että viestin vastaanottaja olisi kakka.Kuuntele tästä minuutin haastattelusta tarkemmin, mitä oikeustieteilijä ajattelee kakka-emojista.Miten kakka-emoji vaikuttaa viestin sisältöön?Sanat ja emojit merkitsevätOikeus joutuu esimerkiksi riitatilanteiden ratkaisuissa tulkitsemaan sanojen merkityksiä, jotta kaikilla osapuolilla olisi selvä käsitys siitä, mihin tuomio perustuu.Pikaviestipalvelussa vastaus voi kuitenkin olla pelkkä emoji.– Esimerkiksi vedet silmissä naurava hymiö (😂) antaa tietynlaisen sävyn, mutta se ei yksiselitteisesti kerro mitään hymiön käyttäjän suhtautumisesta asiaan.Avaa kuvien katseluSydänhymiön voi joku kokea rakkauden osoituksena, mutta joku toinen taas ahdistavana tunkeiluna.  Kuva: Marjut Suomi / Yle, grafiikka: Tommi Pylkkö / YleJussi Karkkulaisen mukaan sekä hymiö että emoji ovat molemmat yhtä merkityksellisiä viestin osia. Viesti voi koostua useista osista, esimerkiksi sanoista ja emojeista.– Hymiö tai emoji muodostaa aina yhden osan esimerkiksi pikaviestipalvelussa lähetetystä viestistä. Näin ollen ne tulisi ottaa huomioon samalla tavalla kuin sanat silloin, kun oikeus arvioi jonkin lausuman merkitystä.Jussi Karkkulaisen mielestä pelkästään hymiön käyttö ei voi olla ratkaiseva seikka oikeustapauksessa.– Hymiöt ja emojit ovat tulkinnanvaraisia, eikä niille ole vakiintunutta yleispätevää merkityssisältöä.Oikeus ei Jussi Karkkulaisen mukaan perusta tuomiota sille, miten joku yksittäinen henkilö asiasta ajattelee tai mikä merkitys esimerkiksi jollain emojilla on yksittäisen henkilön mielestä. Sen sijaan oikeudessa tuomioistuin pyrkii objektiivisesti arvioimaan viestin sisältöä ja löytämään sille yleisen merkityksen.Harkintaa hymiöiden kanssaJos ihmisillä on jokin ristiriitatilanne, suosittaa Jussi Karkkulainen olemaan varovainen hymiöiden käytössä. Varsinkin jos tilanne on niin vakava, että osapuolet kenties joskus joutuvat puimaan asiaa oikeudessa.– Hymiöt vaikuttavat vastaanottajalle lähetettävän viestin sisältöön. Suosittelen harkitsemaan, mitä hymiötä siinä käyttää. Hymiöllä voi vaikuttaa joko positiivisesti tai negatiivisesti siihen kuvaan, jonka itsestään ja käsiteltävästä asiasta viestissä antaa.Saako oikeussalissa solvata? Kysymykseen vastaa Itä-Suomen yliopiston oikeustieteen laitoksen yliopisto-opettaja Jussi Karkkulainen.Saako oikeussalissa solvata?Jutun alussa kerrotussa Etelä-Karjalan käräjäoikeuden tapauksessa hymiöt eivät vaikuttaneet asian tuomioon. Käräjäoikeus ei tuomiossaan mainitse niitä lainkaan.Vuokranantaja joutui palauttamaan vuokravakuuden vuokralaisille lähes kokonaan. Oikeus myös hylkäsi muut vuokranantajan vaatimukset.Vuokranantaja valitti tuomiosta Itä-Suomen hovioikeuteen, mutta se ei antanut valituslupaa, joten käräjäoikeuden tuomio jäi voimaan.</t>
+          <t>”Jos et tee, kaveri tekee.”Vanha joukkuepelien viisaus piti paikkansa jääkiekon NHL:ssä, kun Carolina Hurricanes kukisti Florida Panthersin 1–0 itäisen konfrerenssin suomalaiskohtaamisessa.Kun maalittomana edennyttä ottelua oli jäljellä kolmisen minuuttia, Floridan Niko Mikkola nousi vasenta laitaa ja toimitti kiekon Eetu Luostariselle, joka ohjasi pelivälineen tolpan kautta maaliin. Osuma kuitenkin hylättiin paitsiona.Hetkeä aiemmin Carolinan Sebastian Aho oli epäonnistunut avopaikasta.Viimeisen minuutin käynnistyessä Floridan Aaron Ekblad laukoi tolppaan.Carolina kiitti ja hyödynsi oman tilaisuudensa aivan ennen ottelun loppua. Carolinan Andrei Svetšnikovin laukaus kimposi Mikkolan kautta Aholle, joka pyörähti ja iski kiekon rannelaukauksella reppuun, kun pelikellossa oli jäljellä 19 sekuntia.– Painajaisesta unelmaan!, selostajat hehkuttivat ja viittasivat Ahon aiempaan, epäonnistuneeseen maalintekotilanteeseen sekä Floridan hukkaamiin mahdollisuuksiin.– Tuntui todella hyvältä. Kun tekee maalin noin tärkeällä hetkellä, voittaa pelin melkein takuuvarmasti, Aho tunnelmoi ottelun jälkeen NHL:n sivuilla.Katso ottelun lopun huippuhetket tästä.Carolinan maalilla Pyotr Kotshetkov torjui peräti 44 laukausta. Ottelun ykköstähti Kotshetkov rikkoi samalla seuraennätyksen 44 torjunnallaan nollapelissä tulokaspelaajana. Ahon maali oli Hurricanes/Whalers-historian viidenneksi myöhäisin johtomaali.– Epätodellista. Mitä muuta voi maalivahdilta pyytää? Hän antoi meille kaikki mahdollisuudet voittaa tämä ottelu, Aho hehkutti maalivahtiaan.Voitto oli Carolinalle tärkeä, sillä joukkue kamppailee Floridan tavoin itäisen konferenssin kärkisijoista. Neljän ottelun voittoputkessa kiitävä Carolina on nyt neljäntenä Floridan takana.Floridan putki katkesiTappio katkaisi Floridan 11 ottelun mittaiseksi jääneen vierasvoittoputken. NHL-ennätystä pitävät hallussaan Detroit Red Wings, joka voitti 12 perättäistä vierasottelua kaudella 2005–2006 sekä Minnesota Wild, joka ylsi samaan kaudella 2014–2015.Panthers pääsi pelaamaan kolmennessa erässä neljä minuuttia ylivoimaa putkeen, muttei onnistunut maalinteossa.– Neljän minuutin ylivoimasta pitäisi saada jotain aikaiseksi, joukkueen kapteeni Aleksander Barkov harmitteli.– Tuo oli ihan pudotuspelikiekkoa. Kaksi lähes samalla tavalla pelaavaa joukkuetta törmäsivät. Todella kova ottelu, Barkovin joukkuekaveri Aaron Ekblad sanoi.Ottelun lopussa tunteet kuumenivat ja pelaajat ottivat yhteen. Floridan Brandon Montour sai tilanteesta jäähyn väkivaltaisuudesta.Floridan Matthew Tkachuck loukkaantui ensimmäisessä erässä jouduttuaan Svetšnikovin taklaamaksi. Myös Florida-pakki Gustav Forsling loukkaantui ensimmäisessä erässä.Kahinaan otti osaa myös maalivahti Kotshetkov.St. Louis tykitti pikamaalejaDetroit Red Wings puolestaan otti täpärän jatkoaikavoiton Colorado Avalanchesista maalein 2–1. Mikko Rantanen antoi maaliin johtaneen syötön Coloradon ainokaisessa, jonka viimeisteli Nathan MacKinnon.Detroitin maaleista puolestaan vastasivat Dylan Larkin ja Patrick Kane. Avalanchesin maalia vartioineelle Justus Annuselle kertyi 28 torjuntaa.St. Louis Blues teki seurahistoriaa 4–0-voitossa New York Islandersista, kun se takoi kolme maalia 32 sekunnissa, mikä on seuran kaikkien aikojen nopein kolmen maalin sarja.Uutinen päivittyy...</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Veera ja Oona Kauppi rakentamassa hurjaa nousua – Thorengruppen dramaat­tisesti Ruotsin cup-mestariksi</t>
+          <t>Miksi Suomen EM-kulta­mi­talisti ei pääse purjehtimaan olympia­laisiin? Näin Olympia­ko­mitean pomo vastaa</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20076346</t>
+          <t>https://yle.fi/a/74-20076295</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1613,32 +1613,32 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Veera ja Oona Kaupin Thorengruppen nousi kaukaa takaa voittoon Ruotsin cup-finaalissa. Kaupin sisarukset olivat isossa roolissa, kun Thorengruppen pääsi juhlimaan kotikentällään.</t>
+          <t>Valtteri Uusitalo voitti ILCA 7 -luokassa purjehduksen Euroopan mestaruuden, mutta ei pääse Pariisin olympialaisiin. Toni Roposen mukaan Olympiakomiteassa ei voida olla ennustajia.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Veera ja Oona Kauppi pääsivät juhlimaan Ruotsissa salibandyn cup-mestaruutta sunnuntaina. Kaupin sisarusten Thorengruppen nousi 2–6 -tappioasemasta 7–6-voittoon Pixbota vastaan Uumajassa 2000 katsojan edessä.Veera Kauppi iski tehot 1+4 ja oli syöttämässä kolme viimeistä maalia. Oona Kauppi teki Thorengruppenille hattutempun.Ennen finaalia Thorengruppen oli voittanut kaikki 20 otteluaan Ruotsin Superliigassa.– Meillä on uskomattoman suuri voittajamentaliteetti ja todella paljon tahtoa, voittomaalin tehnyt Jonna Stenvall hehkutti SVT:n mukaan.Stenvall iski voittomaalin ajassa 56.46. Hän kiitteli voittomaalista Veera Kauppia.– En ole ollut voittomaalin tekijä, mutta Veera Kauppi laittoi minulle aika hienon syötön, Stenvall sanoi.Oona Kauppi oli myös nousun arkkitehtejä. Hän teki Stenvallia ennen kaksi maalia päätöserässä. Kauppi teki maalit 5–6 ja 6–6 vain 31 sekunnin sisään päätöserän puolivälissä.Loppusummerin jälkeen Thorengruppenin fanit ryntäsivät kentälle juhlimaan cup-mestaruutta. Thorengruppenin valmentaja Daniel Jernberg kertoi, että finaalin pelaaminen kotikentällä oli erityistä.– Uskomattoman hauskaa. Niin harvalla on mahdollisuus siihen, Jernberg kuvaili Ruotsin salibandyliiton sivuilla.– Etenkin nyt (on hauskaa), kun on niin paljon ihmisiä ja tässä tunnelmassa pystyimmme kääntämään peliin. Olisin tuntenut oloni erilaiseksi, jos olisimme hävinneet, mutta siitä huolimatta oli upeaa pelata.</t>
+          <t>Valtteri Uusitalo voitti perjantaina purjehduksessa Euroopan mestaruuden ILCA 7 -luokassa Ateenassa.Uusitalo ei silti pääse kesällä Parisiin olympialaisiin, sillä ILCA 7 -luokassa Suomen olympiaedustajaksi on jo valittu Kaarle Tapper.Suomen edellinen purjehduksen olympialuokkien EM-kulta oli Sari Multalan voitto vuonna 2008.Tapper valittiin joulukuussa Suomen edustajaksi ILCA 7 -luokkaan. Hän purjehti Suomelle maapaikan elokuussa Haagin MM-kisoissa ollen 18:s. Tammikuussa Uusitalo kuitenkin voitti Tapperin Adelaiden MM-kisoissa. Uusitalo oli parhaana suomalaisena 19:s, Tapper 32:s.Tapper ei osallistunut Ateenan EM-regattaan, vaan keskittyy jo valmistautumiseen kohti vuoden päätapahtumaa.Uusitaloa mietitytti olympiapaikan kohtalo perjantain Euroopan mestaruuden jälkeen Ylen haastattelussa.– Totta kai se pistää miettimään ja olisihan sitä toivonut, että olisi itse olympialaisissa ollut. Mutta Olympiakomitea katsoi parhaaksi tehdä suhteellisen varhaisen päätöksen, kuka olympialaisiin lähetetään. Se oli heidän mukaansa paras tapa tehdä päätös, kunnioitetaan sitä. Se on päätös, minkä mukaan eletään, Uusitalo sanoi.Olympiakomitean huippu-urheiluvastaava Toni Roponen selvittää, että Tapperille haluttiin antaa keskittymis- ja harjoitteluaika Marseillessa kisattavaan olympiapurjehdukseen.– Ennen tätä päätöstä Valtteri ei ollut koskaan aiemmin voittanut Kaarlea. Ne aikaisemmat meriitit vaikuttivat siihen, että Kaarle Tapper valittiin aikaisella valinnalla, Roponen kuvaili.Roposen mukaan purjehduksessa tilanne on haastava, koska luokkaa kohden voidaan valita olympialaisiin vain yksi venekunta. Hän muistutti, että Tapperin lisäksi Ateenan EM-kisoista saattoi puuttua muitakin olympialaisiin keskittyviä venekuntia.– Purjehdus on laji, missä aikainen valinta mahdollistaa harjoitteluun ja tiettyihin olosuhteisiin keskittymisen, Roponen totesi.Avaa kuvien katseluValtteri Uusitalo on vuonna 2000 syntynyt purjehduslupaus. Kuva: Jussi Koivunoro / YleNäetkö tässä tilanteessa jotain ikävää puolta?– Media voi haluta miettiä sitä (ikävää puolta). Emmehän me voi ajatella tämän hetken parasta, vaan ajattelemme kuka on paras elokuussa. Tähtäys on olympialaisiin niihin olosuhteisiin. Ihan turha on spekulatiivisesti lähteä miettimään näitä asioita, Roponen vastaa.– Me luotamme niihin valintaprosesseihin, mitkä meillä on ja kaikki, 100-prosenttinen, tuki Kaarle Tapperille valmistautua olympialaisiin ja toisaalta myös 100-prosenttinen tuki on myös Valtteri Uusitalolle kehittyä koko ajan urheilijana. Hänellä on varmasti erinomaisen hyvä tulevaisuus.Näin Toni Roponen perustelee Kaarle Tapperin aikaista valintaaNäin Toni Roponen perustelee Kaarle Tapperin aikaista valintaa Roponen: Emme voi olla ennustajiaOlympiakomitean huippu-urheiluyksikkö ja hallitus tekivät Roposen mukaan Tapperin valinnan Purjehdusliiton esityksen pohjalta.– Mikäli emme olisi tukeneet valintaa tai esitystä, kysymyksiä olisi esitetty, mutta kyllä me sitä tuimme, Roponen kuvailee.Roposen mukaan Olympiakomiteassa on tiedostettu, että ILCA 77 -luokassa on kaksi lahjakasta suomalaisnuorta, Noah Laukkanen ja Valtteri Uusitalo.– Tänä vuonna Valtteri on nostanut tasoaan selkeästi ja tullut todella hyväksi jo nyt. Vastaavasti Noah Laukkanen ei ole tullut. Ennustajiahan me emme voi olla, vaan päätökset tehdään senhetkisen tiedon varassa ja niihin tukeutuen. Emme voi ajatella niin, että olisiko meidän pitänyt ennakoida jotain joulukuun päätöksessä, Roponen sanoo.– Päätös tehtiin mahdollisimman hyvin tiedon varassa ja tuemme sitä 100-prosenttisesti. Usko siihen, että Kaarle Tapper on erinomaisessa kunnossa Marseillessa, on erittäin kova.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tutkijat keksivät, miten nuoret saa kiinnostumaan somen riskeistä – testaa itse, ymmärrätkö somen logiikkaa</t>
+          <t>Työnhakijoita on kohdeltu pöyris­tyt­tävästi työhaas­tat­teluissa – tutustu kymmeniin kokemuksiin tässä jutussa</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20075569</t>
+          <t>https://yle.fi/a/74-20073663</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>23.02.2024</t>
+          <t>24.02.2024</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1648,32 +1648,32 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Uusi sovellus tekee näkyväksi sosiaalisen median toimintaperiaatteita. Niin kutsuttua Somekonetta testataan nyt opetuskäytössä.</t>
+          <t xml:space="preserve">Pyysimme kokemuksia tilanteista, joihin työhaastatteluihin kutsutut ovat joutuneet. Asiantuntijan mukaan ikävät kokemukset eivät ole harvinaisia. </t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Sosiaalisesta mediasta on tullut vahva vaikuttamisen väline, ja siksi jokaisen pitäisi ymmärtää siitä muutakin kuin peruskäyttö.Ymmärryksen lisäämiseksi suomalaistutkijat ovat kehittäneet työkalun, joka tekee näkyväksi somen toimintaperiaatteita. Sovellus kantaa nimeä Somekone.– Kun ymmärtää datan keruun laajuuden ja sen miten palvelut profiloivat käyttäjiä, pystyy ymmärtämään, miten meihin vaikutetaan, Itä-Suomen yliopiston tietojenkäsittelytieteen professori Matti Tedre sanoo.Hän on yksi Somekoneen kehittäjistä. Itä-Suomen yliopiston lisäksi mukana on tutkijoita Helsingin ja Oulun yliopistoista.Somekoneen tarkoitus on paikata someen liittyviä aukkoja ymmärryksessä. Tämän jutun lopussa voit itse testata, kuinka hyvin ymmärrät somen toimintaperiaatteita.Avaa kuvien katseluSomekone seuraa, kuinka monta sekuntia oppilaat katsovat yhtä kuvaa. Myös kaupalliset somealustat tekevät päätelmiä sisällön kiinnostavuudesta silmänliikkeiden perusteella. Kuva: Lucas Holm / YleSomekone muistuttaa InstagramiaSomekonetta testataan parhaillaan kouluissa viides- ja kahdeksasluokkalaisilla.Oppilaat selaavat ensin Somekoneeseen syötettyä kuvavirtaa. He voivat tykätä kuvista, jakaa niitä kavereille ja ryhtyä leikisti seuraamaan kuvan julkaisijaa.Sen jälkeen Somekone näyttää, mitä kaikkea tietoa oppilas on jättänyt jälkeensä, millainen profiili hänestä on luotu ja millaisia suosituksia hän jatkossa saa.Lopuksi Somekone näyttää, millainen sosiaalinen verkosto koululuokasta muodostuu eli millaisiin kupliin oppilaat jakautuvat.– Oppilaat näkevät, miten samankaltaiset profiilit hakeutuvat pikkuhiljaa toistensa seuraan, Tedre kertoo.Avaa kuvien katseluSomekone toimii sekä läppärillä että puhelimella. Tutkijoiden tavoitteena on kehittää sovelluksesta niin helppokäyttöinen, että sitä pystytään hyödyntämään kaikissa kouluissa. Kuva: Lucas Holm / YleKerätyn tiedon määrä yllätti oppilaatJoensuulaisen Uimaharjun koulun kasiluokkalaiset yllättyivät oppitunnilla eniten siitä, miten tarkasti Somekone havaitsee jokaisen pienen liikkeen.– Aika ihmeellistä, että se pystyy keräämään tietoa niin nopeasti. Ja vaikka kuvia oli vähän, niin silti se osasi heti tarjota niitä, joista tykkään, Lassi Räty kertoo.Somekoneen kuvavirta muodostuu lasten ja nuorten kuvapankista valitsemista kuvista.Tiktokiin, Instagramiin ja muihin kaupallisiin somelustoihin verrattuna Somekone on karvalakkimalli.– Nykyaikaiset somealustat keräävät paljon enemmän dataa. Ne myös pystyvät yhdistelmään paljon monipuolisemmin eri lähteistä tulevaa tietoa. Perusperiaatteet ovat kuitenkin samat, Tedre sanoo.Somen kolme toimintamekanismiaDatankeruu: Alustat keräävät käyttäjistään ja heidän toiminnastaan mahdollisimman paljon tietoa.Profilointi: Alustat rakentavat keräämänsä tiedon pohjalta profiilin, joka kertoo, mistä käyttäjä on kiinnostunut.Suosittelu: Profiilin perusteella käyttäjälle tarjotaan häntä kiinnostavaa sisältöä ja kohdennettua mainontaa.AvaaOma versio aikuisilleSomekone on vielä kehitysvaiheessa. Tutkijoiden tavoitteena on, että sovellus voisi olla tulevaisuudessa käytössä kaikissa kouluissa ja mahdollisesti kodeissakin.– Meillä on aikeissa miettiä, miten Somekoneesta saisi version, jota aikuiset voisivat käyttää, Matti Tedre sanoo.Avaa kuvien katseluTutkijatohtori Juho Kahila Itä-Suomen yliopistosta antaa Uimaharjun koulun kasiluokkalaisille tehtäviä, joihin oppilaat vastaavat Somekoneen avulla. Kuva: Lucas Holm / YleTedren mukaan jokaisen, joka käyttää somea, pitäisi ymmärtää ainakin yksi asia.– Somealustojen tarkoitus ei ole tuoda iloa tai näyttää kivaa sisältöä. Niiden tarkoitus on koukuttaa sinut niin, että vietät alustalla mahdollisimman paljon aikaa sen sijaan, että tekisit jotain muuta.</t>
+          <t>Moni työnantaja on pilannut mainettaan työhönottajan tökeröllä käytöksellä jo työhaastattelussa. Usea työnhakija on ollut jopa helpottunut, jos ei saanutkaan hakemaansa työpaikkaa.Tämä selvisi työhaastatteluihin kutsuttujen kommenteista, joita Yle pyysi ja sai noin 60 kappaletta helmikuun alkupuolella. Verkkojoukkoistukseen vastanneet olivat kaikenikäisiä miehiä ja naisia pääkaupunkiseudulta, Turusta, Tampereelta ja muualtakin ympäri Suomea. Vastaajien nimet ja yhteystiedot ovat toimituksen tiedossa, ja Yle on ollut yhteydessä kaikkiin, joiden kokemuksia jutussa kerrotaan. Osa halusi kertoa kokemastaan vain nimettömästi tai pelkästään etunimellä.Työelämätutkija Tuija Koivunen Itä-Suomen yliopistosta sanoo, että ikävät työhaastattelukokemukset eivät ole erityisen harvinaisia. Koivunen kehottaakin hakijaa miettimään, haluaako työpaikkaan, jossa rekrytointi hoidetaan hakijan kannalta tökerösti.– Jos tulee tulokseen, että ei halua, sitten olisi hyvä antaa palautetta rekrytoinnista tai tehdä siitä isompi asia. Mutta mitä tapahtuu työhaastattelussa, jää sinne.Koivusen mielestä työhaastatteluiden epäkohtia pitäisi tuoda rohkeammin julki.– Työnantaja tai rekrytoija kun ei joudu siitä minkäänlaiseen vastuuseen tai saa mitään palautetta, miksi se muuttaisi käytäntöänsä.Tuija Koivunen kertoo tökeröistä työhaastatteluistaLisää: Vaikka talous takkuaa, kesätöitä saa edelleen – haku kannattaa aloittaa heti, lannistua ei pidäOudot kommentitVastaajilla oli huimasti kokemuksia omituisista tilanteista. Työhaastattelijoiden erikoiset kysymykset tai kommentit saavat monet edelleenkin pudistelemaan päätään. Eräs muistelee, kuinka ”kaksi isäntää” haasteli ensin normaalin tuntuisesti, näytti koneita ja kertoi mitä työ sisältää.– Mutta vaistosin jotain siinä... Kysyin, että miten on? Nauroivat räkäiset naurut päin naamaa. Haluttiin vaan nähdä minkälainen ukko, kun on ollut työttömänä pari vuotta! Ulkona oli talon työntekijöitä kessulla. Sanoivat, etten ollut ainoa.Hän arvosteli CV:n kasvokuvaani, joka oli haastattelijan mielestä tökerön oloinen ja "vain sätkä puuttuu huulesta". Hämmentävää kyllä, sain paikan. Onneksi varsinaisessa asiakasorganisaatiossa meno oli ystävällisempää.Jaana LehtonenToinen vastaaja taas muisteli, kuinka työhaastattelija, pikkukaupungin poliitikko, uteli hänen poliittista kantaa ja sotilasarvoaan, vaikka tiesi hakijan siviilipalvelusta entuudestaan.Varastotyöhön hakeneelta Pirita Kylmältä taas perättiin puuttuuko häneltä kunnianhimoa, kun sinne haki.– En päässyt sinne. Päättelin, että ylikoulutettuja ei oteta, koska heidän arvellaan pian lähtevän muualle. Ei siis aina ole kyse siitä, etteikö mikä vain työ kelpaisi – niihin ei vaan pääse, hän huomauttaa.Laura Leinonen taas hämmästelee, kuinka haastattelija töksäytti hänelle, että "et varmaan tiedä hakemastasi työstä mitään".Osa-aikamyyjän paikkaa hakeneelle kuopiolaiselle Villelle korostettiin, että motivaatio on ratkaisevaa. Hänen omasta motivaatiostaan tehtävään ei kuitenkaan kyselty mitään.– Valintapäätöksessä kehuttiin valitun markkinointi- ja talousosaamista. Niistä ei puhuttu haastattelussa eikä työpaikkailmoituksessa, Ville vertaa.Helsinkiläinen Kaisa teki omat johtopäätöksensä heti haastattelun jälkeen:– Ilmoitin, että en voi kuvitella meneväni töihin paikkaan, jossa haastattelussakaan ei onnistuta käyttäytymään neutraalisti.Olen tavannut heitä, jotka ovat suoraan pilkanneet minua työttömänä ja jotka palkkaavat täysin ulkonäköperusteisesti.OmarAvaa kuvien katseluTyöhaastatteluun kutsutulta on voitu udella yksityisistä perheasioista.   Kuva: Matej Kastelic / AOP, Erkki Makkonen / AOP, Timo Metsäjoki / Yle, kuvitus: Samuli Huttunen / Yle–Haastattelijat pysyivät kivikasvoisina ja katsoivat välillä toisiaan ilman mitään eleitä. Tätä toistui piinaavan monta kertaa. En saanut aikaan mitään reaktioita, enkä missään vaiheessa päässyt olemaan oma rento itseni.RoopeTekoäly töihinTyöhaastatteluihin kutsutut ovat yleensä lähettäneet työnantajalle perusteellisen työhakemuksen ansioluetteloineen. Ilona kertoo ennakoineensa haastattelua jopa tekoälyä hyödyntäen. Ennen haastattelua hän syötti Chat GPT:lle työpaikkailmoituksen, ja pyysi sitä listaamaan mahdollisia työhaastattelukysymyksiä.–Se osasi ennustaa niitä melko hyvin, ja sen takia muistiinpanoni osuivat hyvin yhteen haastattelijan kysymysten kanssa. Hyödynsin tekoälyä myös, kun muotoilin vastauksia hankaliin kysymyksiin ammattimaiseksi, Ilona paljastaa.Työhaastattelija taas on monesti perehtynyt hakemuksiin vain pintapuolisesti:– Valitettavan usein törmään tilanteeseen, jossa luen oman ansioluetteloni ääneen eli haastattelija ei ole edes lukenut hakemustani tai cv:täni, Anu avautuu.Olisi voinut edes pyytää anteeksi, ettei ollut ehtinyt lukea tietojani. Jäi todella huono maku haastattelusta, enkä olisi sen takia ottanut työtä vastaan.SatuSuomeen palannut kertoo, kuinka varsinkin avomiehen rekryprosessi oli todella kotikutoista verrattuna Keski-Eurooppaan. Hänen mukaansa siellä käytetään huomattavasti enemmän headhuntingia ainakin it-puolella.– Se tekee rekrytoinnista ammattimaisempaa. Tässä suomalaisilla on todella paljon skarpattavaa.Ylipätevä ja liian vanhaRitva haki asiantuntijan työhön puhelinneuvontaan, mutta ei tullut valituksi.– Vaivaantunut soittaja perusteli päätöstä: olet ylikoulutettu ja et ilmeisesti tiedä minkälaiseen työhön olet hakenut. Minuun kohdistettiin ikärasismia, Ritva arvioi.Etsittiin varastonhoitajaa/sekatyöhenkilöä. Haastattelu sujui hienosti, kunnes toimitusjohtaja kysyi ikääni. Siihen loppui hänen kiinnostuksensa, enkä saanut töitä. Olin silloin 52-vuotias.MarjutEi kerrota tulostaTyöhaastatellulle luvataan yleensä kertoa rekrytoinnin lopputuloksesta "pikapuoliin". Heli Suomi tietää muuta.– Mitä pitempi rekrytointiaika, sitä todennäköisemmin kukaan ei ilmoita tuloksista mitään.Haastatteluprosessi oli todella pitkä, melkein vuosi. Laskin noin kymmenen erilaista haastattelua tai keskustelua. Yritykset ovat tehneet ihmisten palkkaamisesta liian monimutkaista.TatuOudoin ja hauskinHyviäkin kokemuksia oli. Anne kertoo elämänsä hauskimmasta työhaastattelusta.– Koko haastattelu oli yhtä naurua. Ajattelin jälkikäteen, että eivät ne minua palkkaa, kun koko haastattelu oli kaikin puolin kreisi, mutta kyllä he olisivat halunneet palkata.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Uusi sellutehdas toi Kemin ylle valtavan höyrypilven ja peitti auringon – kesän paistetta se ei kuitenkaan pimennä</t>
+          <t>Odysseus laskeutui onnistuneesti – ”Tervetuloa Kuuhun”</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20075774</t>
+          <t>https://yle.fi/a/74-20075742</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>23.02.2024</t>
+          <t>22.02.2024</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1683,32 +1683,32 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Jäähdytystornien höyry on hämmästyttänyt kaupunkilaisia pakkaspäivinä pitkin talvea. Tornit olivat vaihtoehto sille, että tehtaan ylijäämälämpöä olisi johdettu mereen.</t>
+          <t>Odysseus-laskeutuja saavutti Kuun pinnan perjantaina noin puoli kahdelta yöllä Suomen aikaa.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Perämeren pohjukassa, Lapin teollisuuskulmassa on totuttu tehtaiden savuihin ja höyryihin. Uuden Metsä Fibren Kemin sellutehtaan aiheuttama valtava höyrypilvi on kuitenkin saanut talven aikana ihmiset hämmästelemään, mistä oikein on kysymys.Viime syksynä tuotantonsa aloittaneen sellutehtaan ylle on kertynyt kovina pakkaspäivinä uhkaavalta näyttävä ”patja”, joka on myös peittänyt harvakseltaan pilkahtaneen auringon niinkin tehokkaasti, että lenkkeilijät kertovat ikään kuin sukeltaneensa pimeyteen kesken reissun.Some-ryhmissä on käyty aiheesta ajoittain vilkasta keskustelua, ja kuten asiaan usein kuuluu, sitä on ryyditetty monenlaisella asiantuntemuksella.Ajoittain viheliäisenä pidetyn höyrypilven suurin lähde ovat sellutehtaan tontilla Pajusaaressa olevat jäähdytystornit.11 metriä korkeat tornit ovat osa suljettua puhtaan veden jäähdytysvesikiertojärjestelmää. Kymmenen tornin kautta tehtaan prosesseissa tarvittavasta jäähdytysvedestä poistetaan lämpöä ilmaan ja pienennetään mereen päätyvän veden lämpökuormaa.Kysyimme Kemin tehtaan johtaja Pekka Kittilältä muutamia asioita torneihin ja höyrypilveen liittyen.Miten jäähdytysvesitornit toimivat ja mihin niitä tarvitaan?Kemijoesta otettu ja kemiallisesti puhdistettu vesi tulee tehtaan vesilaitokselta suljettuun jäähdytysvesikiertoon. Sieltä sitä johdetaan lämmönvaihtimiin osastoilla, missä puhdasta jäähdytysvettä tarvitaan. Talteen otettu lämpö hyödynnetään prosessissa lämmitykseen, jonka jälkeen jäähtynyt vesi palaa paluukierron kautta jäähdytystorneille.Paluukierrossa vesi tulee torneihin noin 45-50 asteen lämpötilassa ja tornilla vesi jäähdytetään noin 25 asteeseen niin, että vesi voidaan käyttää edelleen uudelleen jäähdytysvetenä prosessissa. Ylijäämälämpö poistuu tornien kautta ilmaan.Mitä ilmaan kertyvä höyry sisältää?Tehdasalueen yläpuolelle tulee tehokkaan puhdistusprosessin kautta savukaasuja kuorikattilan ja soodakattilan piipuista. Ne nousevat ilmaan korkealle. Alempana näkyy vesihöyrypitoisia pilviä, joiden höyry tulee esimerkiksi kuivauskoneelta tai jäähdytysvesitorneilta. Vesi, joka kiertää jäähdytysvesikierrossa on käytännössä talousveden laatuista puhdasta vettä.Mikä olisi ollut vaihtoehto höyryä muodostaville jäähdytystorneille?Ylijäämälämpöä olisi voitu siirtää mereen. Veteen siirtämisessä huolenaiheena oli se, että talvella se vaikuttaa ympäröivän merialueen jäätilanteeseen ja lämpökuorma lisää muutenkin kuormitusta vesistölle.Molemmissa vaihtoehdoissa on hyviä ja huonoja puolia. Jäähdytystornivaihtoehdossa on se huono puoli, että se aiheuttaa hönkää eli höyryä.Höyrypilvi on selkeän pakkassään ilmiöIlmatieteenlaitoksen tutkija Anu-Maija Sundströmin mukaan Meri-Lapissa, kuten muissakaan tehdaskeskittymissä ei tarvitse kantaa huolta siitä, että aurinkoinen kesä peittyisi vesihöyrypilven taakse. Höyrypilvi on pakkaspäivän vitsaus:Anu-Maija Sundström kertoo pakkasen ja kesän vaikutuksesta  vesihöyrypilveen..Esimerkiksi -20 asteen lämpötilassa pystyy olemaan sitoutuneena kuutiota kohden yksi gramma vettä, jonka jälkeen se muuttuu näkyväksi vesihöyryksi. Kun lämpötila nousee +20 asteeseen, ilmassa pystyy olemaan 17 grammaa kosteutta kuutiota kohden ennen kuin se muuttuu näkyväksi höyryksi.Anu-Maija Sundström tähdentää, että sinänsä teollisuushöyryjen muodostama pilvi kuitenkin on auringon näkymisen kannalta ihan samanlainen kuin muutkin taivaalla näkyvät pilvet.– Lisäksi, että se pilvi on suhteellisen matalalla ilmakehässä, tietysti vaikuttaa siihen, että se himmentää auringon valoa.Voiko pilvi jossain olosuhteissa sitten sataa alas?– Periaatteessa on mahdollista, mutta pitäisin kuitenkin todennäköisempänä, että pilvi sekoittuu siihen ympäröivään ilmamassaan niin helposti ja voimakkaasti, että se haihtuu tai katoaa itsestään ennemmin kuin, että se sataisi alas, Sundström sanoo.Tehtaan piippujen tai jäähdytysvesitornien kautta tulevan vesihöyrypilven voi havaita myös hienoresoluutioisissa satelliittikuvissa.Sundströmin mukaan höyrypilven näkyminen vaatii kuitenkin kirkkaan sään, jolloin ilmassa ei ole säähän liittyvää normaalia pilvisyyttä. Tuolloin on mahdotonta erottaa, mikä on tehtaasta tulevaa pilveä ja mikä vallitsevaa säätilaa.Alla olevissa satelliittikuvissa säätilan vaikutus sekä Kemin sellutehtaan että Outokummun Tornion terästehtaan höyryjen muodostamiin pilviin näkyy selvästi.Vasemmanpuoleisessa kuvassa ilman lämpötila on +0,6 astetta ja tuulen voimakkuus 14 metriä sekunnissa. Oikeanpuoleisessa kuvassa pakkasta on 22,2 astetta ja tuulen voimakkuus 4,2 metriä sekunnissa.Tehdas pyrkii tehostamaan lämmön talteenottoaKemin tehtaalla tutkitaan vaihtoehtoja parantaa energiatehokkuutta edelleen esimerkiksi juuri jäähdytysvesikiertoon jäävän matalalämpöisen veden osalta.– Matalalämpöisen veden hyödyntäminen suoraan prosessissa ei ole kovin helppoa, mutta jos meillä on yhteistyökumppaneita, jotka voivat matalalämpöistä lämpöenergiaa hyödyntää, tällaiset vaihtoehdot voivat tulla kysymykseen, sanoo tehtaanjohtaja Pekka Kittilä.Tällä hetkellä hyvin suuri osa sellutehtaan lämpöenergiasta hyödynnetään sähkönä.– Tuotamme tietenkin prosessin tarvitseman lämmön eli höyryä eri kohteisiin, myymme höyryä myös Metsä Boardin kartonkikoneelle ja lämpöä Kemin kaupungin kaukolämpöverkkoon.Kaukolämmön myyntiä on Kittilän mukaan edelleen mahdollisuus myös laajentaa. Keskusteluja uusien asiakkaiden kanssa on meneillään, mutta niitä hän ei tässä vaiheessa halua kommentoida enempää.</t>
+          <t>Miehittämätön Odysseus-laskeutuja on laskeutunut Kuun kamaralle, kertovat avaruusyhtiö Intuitive Machines sekä Yhdysvaltain avaruushallinto Nasa.Odysseus kosketti Kuun pintaa hieman ennen kello puoli kahta yöllä Suomen aikaa.Jännitystä laskeutumisen onnistumisesta lisäsivät vaikeudet saada yhteyttä laskeutujan järjestelmiin sen jälkeen, kun arvioitu laskeutumisajankohta oli ohitettu. Noin viidentoista minuutin odottelun jälkeen Intuitive Machines -yhtiön toimitusjohtaja Steve Altemus kertoi yhteyden palautumisesta Odysseukseen.– Tiedän että tämä oli hermoja raastavaa, mutta olemme pinnalla ja lähetämme signaalia, Altemus sanoi suorassa lähetyksessä.– Tervetuloa Kuuhun, hän totesi.Parin tuntia laskeutumisesta Intuitive Machines vahvisti X:ssä, että yhteysongelmat on korjattu ja pystyasentoon laskeutunut alus on alkanut lähettämään dataa.Aluksen odotetaan lähettävän pian ensimmäiset kuvansa Kuun pinnalta.– Mikä saavutus. Odysseus on saavuttanut Kuun. Tämä taidonnäyte on valtava loikka eteenpäin koko ihmiskunnalle, kommentoi Nasan pääjohtaja Bill Nelson suorassa lähetyksessä.Jo Odysseuksen laskeutumisen käynnistyttyä ilmeni haasteita. Lennonjohdossa havaittiin, etteivät laskeutujan omat sensorit toimineet toivotulla tavalla. Ongelma kuitenkin ratkaistiin käynnistämällä laskeutujan kuormassa olleen Nasan laitteiston lidar eli valotutka, jolloin laskeutujan etäisyydestä saatiin tietoa.Laskeutuja on tehnyt historiaa kahdella tavalla. Se on ensimmäinen kaupallisen yrityksen laskeutuminen Kuuhun ja yhdysvaltalaisten ensimmäinen kosketus Maan kiertolaisen pintaan sitten Apollo 17:n – ja siitä on jo yli 51 vuotta. Joulukuussa 1972 astronautit Gene Cernan ja Harrison Schmitt kävelivät Kuun pinnalla, toistaiseksi viimeisinä ihmisinä.Teksasilaisen Intuitive Machines -yrityksen laskeutuja lähti matkaan Floridasta viikko sitten. Alkuvauhdit antoi Elon Muskin omistaman Space X -yhtiön Falcon-raketti.Avaa kuvien katseluOdysseus otti matkalla kuvan Maasta. Kuva: Intuitive Machines / AFPPuhelinkopin kokoisen, 675-kiloisen Odysseuksen määränpäänä on Malapert A -niminen kraatteri 300 kilometrin päästä Kuun etelänavasta.Laskeutumisesta lähetetään live-kuvaa ja radiosignaalien viipeen vuoksi lennon valvojat pystyvät vahvistamaan laskeutumisen 15 sekunnissa – jos se onnistuu.Nasan laitteita mukanaEdellinen amerikkalaisyrityksen kuulaskeutuminen meni pieleen vuoden alussa. Astrobotic Technology lähetti matkaan Peregrine-luotaimen, mutta polttoainevuoto keskeytti sen tehtävän.Kuun pinta on karu ja sinne laskeutuminen on rakettitiedettä jos mikä. Historian aikana noin 50 yrityksestä noin puolet on mennyt pieleen. Viimeksi laskeutumisessa ovat onnistuneet Intia ja Japani.Moni kuitenkin yrittää. Liikennettä Kuuhun on ennätyksellisen paljon, sillä Odysseuksen jälkeen Kuuhun tehdään tämän vuoden aikana neljä kaupallista laskeutumisyritystä.Yhdysvaltain avaruushallinto Nasa on niissä kaikissa asiakkaana.Odysseuksen laskeutumispaikan lähellä on runsaasti jäätä ja se kiinnostaa Nasaa, sillä jäästä saa juomavettä ja siitä voi tehdä polttoainetta tulevaisuuden avaruuslennoille. Nasan Artemis-ohjelman tavoitteena on tukikohdan rakentaminen Kuuhun. Ensimmäinen miehitetty lento toteutuu näillä näkymin 2026.Odysseuksen mukana matkaavilla laitteilla pohjustetaan Artemis-projektia eli tutkitaan muun muassa sitä, miten Kuun pinnalta nouseva hiekkapöly vaikuttaa laskeutumiseen.Kuuhun matkaa myös taidetta. Kuvataiteilija Jeff Koonsin 125 pienikokoista kuuta on valmistettu ruostumattomasta teräksestä.– Vartuin kuunnellen presidentti John Kennedyn puheita Kuuhun menemisestä. Se auttoi tätä maata uskomaan itseensä ja saamaan asioita aikaiseksi, Koons sanoi ennen Falcon-raketin laukaisua.Juttua muokattu 22.2.2024 klo 21.57: Suora lähetys alkaa kello 23.55 eikä kello 23.10 kuten aiemmin kerroimme. Myös laskeutuminen viivästyy ja on suunniteltu tapahtuvaksi kello 1.24.Juttua muokattu 23.2.2024 klo 1.57: Juttuun päivitetty tieto laskeutumisen onnistumisesta.Juttua muokattu 23.2.2024 klo 3.58: Odysseuksen yhteysongelmien korjaantuminen vahvistettu.Lähteet: AFP, STT</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Suomen ilmas­to­ta­voitteet karkaamassa – eduskunnassa vaaditaan uusia toimia</t>
+          <t>Emma Thompson pelmahti itäsuo­ma­laiseen hotelliin – Suvi Rinne sai yhteiskuvan ja yllättävän kehun</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20076305</t>
+          <t>https://yle.fi/a/74-20076660</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>24.02.2024</t>
+          <t>27.02.2024</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1718,32 +1718,32 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suomen piti olla hiilineutraali vuoteen 2035 mennessä. Nyt tavoite uhkaa karata. Uusia ilmastotoimia esitetään niin metsiin kuin liikenteeseen. </t>
+          <t xml:space="preserve">Kolin kansallispuiston maisemissa on käynnissä kansainvälisen The Fisherwoman -elokuvan kuvaukset. Elokuvaa tähdittää palkittu brittinäyttelijä Emma Thompson. </t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Luonnonvarakeskus latelee uudessa arviossaan madonluvut Suomen ilmastopolitiikalle. Hiilineutraalisuustavoite vuodelle 2035 on karkaamassa käsistä.Tavoitteen saavuttamiseksi tarvitaan Luonnonvarakeskuksen mukaan uusia ilmastotoimia.Samankaltaiseen johtopäätökseen on tullut eduskunnan ympäristövaliokunta yksimielisessä mietinnössään hallituksen ilmastovuosikertomuksesta.– Nykyiset toimet eivät riitä saavuttamaan sitoumuksiamme, ei päästö- eikä hiilinielupuolella, ympäristövaliokunnan puheenjohtaja Jenni Pitko (vihr.) sanoo Ylelle.Kokoomuksen mukaan Suomen ilmastotavoitteiden saavuttaminen on haastavaa.–Jo viime hallituskaudella selvisi, että Suomen ilmastotavoitteet on laskettu sellaiselle hiilinielupohjalle, jota meillä ei olekaan, ympäristövaliokunnan jäsen Saara-Sofia Sirén (kok.) sanoo.Perussuomalaisten Sara Seppänen huomauttaa, että Suomen tavoitteet ovat varsin kireät.– Suomihan on asettanut kireämmät tavoitteet, mitä EU:lla ylipäätään on. Ja voi olla, että niihin ei tällä aikataululla päästä.Vihreät valmis rajoittamaan metsien hakkuita, hallituksesta ei kannatustaLuonnonvarakeskuksen mukaan hiilineutraalisuustavoite karkaa erityisesti, koska Suomen metsiä on hakattu ja hakataan liikaa.Eduskunnan ympäristövaliokunta ei esitä mietinnössään konkreettisia toimia. Oppositiopuolue vihreät olisi valmis rajoittamaan hakkuita.– Kaikista tehokkain ja varmin tapa kasvattaa metsien hiilinieluja olisi rajoittaa hakkuita, vihreiden Jenni Pitko sanoo.Pitko tarjoaa hallitukselle myös muita tehokkaita keinoja, kuten turvepeltojen poistamista viljelystä. Turvemailla on Pitkon mukaan kaikkein edullisimmat keinot kasvattaa maankäytön hiilinielua.Perussuomalaiset ei innostu ainakaan hakkuiden rajoittamisesta.– Meillä hakkuut ovat kestävällä tasolla. Meidän tarvitsee kuitenkin nostaa (puun) jalostusastetta voimakkaasti, perussuomalaisten Sara Seppänen sanoo.– Suomalainen metsäpolitiikka tulee säilyttää kansallisissa käsissä.Avaa kuvien katseluMetsätyökone siirtää puita Kolarin Aalistunturissa sijaitsevalla Metsähallituksen hakkuualueella tammikuussa 2023. Kuva: Pasi Peiponen / YleKokoomus: Tekniset hiilinielut käyttöönKokoomuksen edustaja Saara-Sofia Sirén toteaa, että metsien käyttö tulee olla hallitusohjelman mukaan kestävällä tasolla.Hän kuitenkin huomauttaa, että metsien käytön muutokset eivät riitä ilmastotavoitteeseen pääsemiseksi.– Ei ole mitään yksittäisiä keinoja, jotka ratkaisevat tämän hyvin haastavan tilanteen, vaan tullaan tarvitsemaan monenlaisia ratkaisuja, Sirén sanoo.Kokoomus puhuu sen puolesta, että luontaisten hiilinielujen kasvattamisen lisäksi tulee ottaa käyttöön niin sanotut tekniset hiilinielut. Niillä kerätään esimerkiksi tehtaan piipuista tupruavaa hiilidioksidia talteen.Vihreät: Orpon hallitus vain lisännyt liikenteen päästöjäLiikenteen päästöjä olisi vähennettävä entistä enemmän, jos hiilinielut pettävät Luonnonvarakeskuksen laskemalla tavallaVihreiden mukaan Orpon hallitus on vain lisännyt liikenteen päästöjä päätöksillään alentaa polttoaineverotusta ja biopolttoaineiden jakeluvelvoitetta.– Eduskuntaan ei ole tuotu lainkaan esityksiä, joilla voitaisiin vähentää päästöjä tai vahvistaa hiilinieluja, Jenni Pitko sanoo.Pitkon mukaan esimerkiksi biojakeluvelvoitteen nostaminen olisi valtiontalouden kannalta kustannustehokas ilmastotoimi.Kokoomuksen Sirén sanoo, että autoliikenne sähköistyy kovaa vauhtia, ja se on osa ilmastoratkaisua. Myös biokaasua kannattaa hyödyntää erityisesti raskaassa liikenteessä päästöjen vähentämiseksi, hän sanoo.Perussuomalaiset: Suomalaisille ei saa tulla lisälaskua ilmastotoimistaPäähallituspuolueet kokoomus ja perussuomalaiset sanovat, että uusia ilmastotoimia on luvassa. Ne vakuuttavat olevansa samoilla linjoilla ilmastopolitiikassa.Ainakin puheissa on silti painotuseroja. Perussuomalaiset korostaa ennen muuta sitä, että suomalainen kuluttaja, teollisuus ja maatalous eivät saa kärsiä.– Suomalaisille ei saa tulla ylimääräistä laskua ilmastotoimista. Ruoantuottajan tehtävä on tuottaa ruokaa, ei laskea hiilipäästöjä, ympäristövaliokunnan jäsen Sara Seppänen sanoo.</t>
+          <t>Kun tarjoilija meni vaikeaksi, Suvi Rinne arvasi osuneensa oikeaan.Hän oli pohtinut siskonsa kanssa, voisiko megatähti Emma Thompson olla Kolilla ja yöpyä samassa hotellissa heidän kanssaan.Aiemmin viikolla Thompsonin tytär Gaia Wise oli jakanut sosiaalisessa mediassa kuvia tykkylumen kuorruttamista puista. Lisäksi tiedossa oli, että äiti ja tytär näyttelevät elokuvassa, josta osa on tarkoitus kuvata Kolilla.– Meni ehkä vartti ja Emma Thompson seurueineen saapui ravintolaan, Rinne nauraa.Koli esittää elokuvassa MinnesotaaKaksinkertainen Oscar-voittaja on Kolilla harvinainen vieras. Samoin ovat kansainväliset elokuvatuotannot.The Fisherwoman -elokuvan kustannusarvio on 14,5 miljoonaa euroa. Yhtä isoa elokuvatuotantoja ei Kolilla ole tiettävästi nähty.Elokuvatietokanta Internet Movie Databasen mukaan Emma Thompson esittää toimintatrillerissä leskeksi jäänyttä kalastajaa, joka keskeyttää teinin kidnappauksen.Elokuvan tapahtumat sijoittuvat lumimyrskyn keskelle Minnesotaan.Trillerin ohjaa Brian Kirk. Hän on aiemmin ohjannut Game of Thrones -sarjan jaksoja sekä 21 Bridges -elokuvan.Elina ja Emilia Tamsi viettivät hiihtolomaa Kolilla asuvan Johanna Tamsin luona. Kolmikko aikoi pyytää Emma Thompsonilta yhteiskuvaa, mikäli kohtaavat hänet. Video: Pauliina Tolvanen / YleMatkailuinfossa kuvauksista vaiettiinElokuvan tarkat kuvauspaikat ovat tiukasti varjeltu salaisuus. Esimerkiksi Kolin matkailuinfossa kieltäydyttiin kommentoimasta Ylelle sanallakaan elokuvaa tai mahdollisia kuvauksia.Kolilla asuva Johanna Tamsi kertoo kuulleensa huhupuheita, muttei ole itse onnistunut näkemään kuvausryhmää tai tähtikaartia.– Kiinnostaa ja kovasti. Emma Thompson on niin upea ja lahjakas näyttelijä, Tamsi toteaa.Hänelle Thompson on jäänyt mieleen etenkin elokuvasta Rakkautta vain.Thompsonin läpimurtoelokuva oli Talo jalavan varjossa. Sittemmin hän on näytellyt kymmenissä elokuvissa Jane Austen -filmatisoinneista Harry Potter -elokuviin.Avaa kuvien katseluKoli esittää The Fisherwoman -elokuvassa myrskyisää Minnesotaa. Tänä vuonna Pohjois-Karjalassa kuvataan ainakin viittä tv- ja elokuvatuotantoa. Kuva: Pauliina Tolvanen / YleIkimuistoinen kohtaaminen aamupalallaKolin huipulla toimiva kahvilayrittäjä Matti Pasanen on iloinen näkyvyydestä, jota elokuvatähdet tuovat Kolille. Suuria odotuksia hänellä ei kuitenkaan ole.– Voi olla, että näkyvyys jää lopputeksteihin. Mutta yrittäjän näkökulmasta näkyvyys on hyvä asia olipa se pientä tai suurta.Avaa kuvien katseluMatti Pasanen epäilee, ettei edes tunnistaisi Emma Thompsonia, jos tämä kävelisi vastaan. Kuva: Pauliina Tolvanen / YleHiihtolomalaisille mahdollisuus maailmantähtien kohtaamiseen on isompi juttu. Näin voi päätellä siitä, miten Suvi Rinne kuvailee toista kohtaamistaan Emma Thompsonin kanssa.– Lauantaina jäin aamupalan jälkeen kuvaamaan ikkunan läpi maisemia, kun kuulin selkäni takaa tutun äänen.Rinne kertoo tuijottaneensa Thompsonia ja lopulta rohkaistuneensa kysymään yhteiskuvaa.– Hän sanoi ihanasti ”Of course my dear” ja sitten hän vielä sanoi, että ”You have lovely hair”. Hän siis kehui minun hiuksiani, Rinne huokaa.Avaa kuvien katseluKaikkea hyvää, Leo Grande -elokuvassa Emma Thompson esittää leskinaista, joka tilaa itselleen maksullisen miehen. Vastanäyttelijänä nähdään Daryl McCormack. Kuva: nick wall</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Samuli Tamminen osti rajattoman kuunte­luoi­keuden äänikirjoihin – peruttiin liiallisen kuuntelun vuoksi</t>
+          <t>Autoilija voi lähivuosina saada viestin liiken­ne­valoilta – näin älyvalot toimivat</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20075744</t>
+          <t>https://yle.fi/a/74-20074767</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>25.02.2024</t>
+          <t>23.02.2024</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1753,32 +1753,32 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kuluttajariitalautakunnan mukaan Nextory-tilauksen rajoittamisessa on kyse sopimusrikkomuksesta.</t>
+          <t xml:space="preserve">Älykkäät liikennevalot mahdollistavat sujuvamman liikenteen. Niiden avulla autoilija voi välttää turhia pysähdyksiä. </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Jyväskyläläinen Samuli Tamminen kuuntelee äänikirjoja keskimäärin seitsemänkymmentä tuntia kuukaudessa. Helmikuussa Tammisen Nextory-tilaus jäädytettiin, koska tilillä oli kuunneltu äänikirjoja ”epätavallisen paljon”.Tammisella oli joulukuussa vaihtanut toisesta äänikirjapalvelusta Nextoryn rajattoman kuuntelun tilaukseen, jota yritys mainostaa sloganilla ”Lue ja kuuntele niin paljon kuin haluat”.Tamminen jakaa äänikirjatilauksen perheenjäsentensä kanssa. Yhdelle Nextory-tilille saa liitettyä yhteensä neljä profiilia.Tamminen otti tilinsä rajoittamisesta yhteyttä Nextoryn asiakaspalveluun. Yle on nähnyt Tammisen ja Nextoryn välistä sähköpostikirjeenvaihtoa. Nextoryn asiakaspalvelija kertoi Tammiselle liiallisen kuuntelun voivan vaikuttaa kielteisesti muiden tilaajien käyttökokemukseen.– Välttääksesi tilisi rajoittamisen sinun ei pidä käyttää palvelua yhtä paljon kuin tässä kuussa, asiakaspalvelija Julie ohjeistaa.Asiakaskokemuksia kokoavalla Trustpilot-sivustolla Nextorysta on kirjoitettu useita kielteisiä arvioita, joissa kerrotaan rajoittamattoman kuuntelun tilien rajoituksista.– Jäi huijattu olo, Tamminen sanoo.Avaa kuvien katseluTuntirajoitukset on Samuli Tammisen mielestä ihan ok, mutta niistä pitäisi kertoa etukäteen. Kuva: Niko Mannonen / YleAutomaattisella järjestelmällä vahditaan väärinkäytöksiäNextory viittaa vastauksissaan Tammiselle käyttöehtoihin, joissa kielletään tilien kaupallinen käyttö ja luvaton jakaminen. Lisäksi Nextory kertoo, että kustantamot vaativat heiltä tilien rajoittamista.Nextory ei suostu haastatteluun aiheesta, mutta yrityksen kumppanuuksista vastaava Karolina Bjernefalk kommentoi asiaa sähköpostitse.– Tarjoamme rajattomia tilauksia, mutta palvelua ei saa käyttää väärin tai liiallisesti, Bjernefalk toteaa.Kuluttajariitalautakunnan puheenjohtajan Pauli Ståhlbergin mukaan Nextoryn toiminnassa on kyse sopimusrikkomuksesta.– Hän on tehnyt sopimuksen, että saa kuunnella vaikka 24 tuntia vuorokaudessa, Ståhlberg muistuttaa.Ståhlbergin mukaan yrityksen olisi irtisanottava asiakkaan kanssa tehty sopimus ja laadittava tilalle uusi rajoitetumpi sopimus, mikäli se ei pysty tarjoamaan lupaamaansa rajatonta kuuntelua.Nextory pyrkii estämään väärinkäytöksiäKarolina Bjernefalkin mukaan rajattomiin tilauksiin liittyy Nextorylla vastaavia haasteita kuin videon ja musiikin striimauspalveluilla. Tällaisia haasteita ovat esimerkiksi tilien jakaminen, lukutilastojen manipulointi bottien avulla ja sisältöjen käsittely tekoälytyökaluilla kirjailijoiden tekijänoikeuksia rikkovalla tavalla.Nextory pyrkii estämään tilien väärinkäytöksiä automaattisella järjestelmällä, joka seuraa sovelluksen kulutusta käyttöehtoja rikkovan toiminnan estämiseksi. Bjernefalkin mukaan järjestelmä ei toimi täydellisesti, ja toisinaan asiakkaiden tilejä joudutaan käynnistämään manuaalisesti uudelleen.Tammisen saamassa sähköpostivastauksessa kuitenkin todetaan, ettei tilin rajoitusta voida poistaa ennen seuraavaa maksupäivää.Kuluttaja voi vaatia hyvitystäTamminen ihmettelee viestissään Nextoryn asiakaspalveluun, miten seitsemänkymmenen tunnin keskimääräinen kuuntelu yhtä tilin profiilia kohden vaikuttaa kielteisesti muiden tilaajien kokemukseen. Hän muistuttaa asiakkaana maksaneensa neljän käyttäjän rajattomasta kuuntelusta.Avaa kuvien katseluSamuli Tamminen siirtyi kokemuksen jälkeen toisen äänikirjapalvelun asiakkaaksi. Kuva: Niko Mannonen / YleNextoryn asiakaspalvelija vastaa, että neljän profiilin tunteja seurataan kokonaisuutena. Järjestelmä ei kerro tarkkaa tuntimäärää, joka on ylittänyt kynnyksen tilin rajoittamiselle.Kuluttajariitalautakuntaan ei ole tullut yhteydenottoja Nextoryn asiakkailta. Ståhlbergin mukaan kuluttajan kannattaa vastaavassa tilanteessa olla kuluttajaviranomaisiin yhteydessä ja esittää vaatimus sopimuksessa pysymisestä tai hyvityksestä.Tamminen sai reklamoimalla helmikuun tilausmaksunsa takaisin. Nyt Tamminen käyttää toista äänikirjapalvelua, jossa kuuntelumäärä on rajoitettu, mutta lisätunteja voi tarvittaessa ostaa.– Tuntirajoitukset ovat ihan ok, mutta niistä pitäisi kertoa etukäteen, Tamminen sanoo.Oletko ollut tyytyväinen äänikirjapalveluihin? Voit keskustella aiheesta 26.2.2024 kello 23 saakka.</t>
+          <t>Tulevaisuudessa älykkäät liikennevalot voivat auttaa autoilijaa ennakoimaan omaa matkantekoa. Valot voivat viestiä yhteyden avulla ohjaamoon tietoja siitä, mitä on edessä ja mitä kuljettajan kannattaisi tehdä.Tätä on nyt onnistuneesti testattu Fintrafficin ja Tampereen kaupungin yhteisessä kehityspilotissa.Noin vuoden kestäneessä kokeilussa selvitettiin, miten liikennevalolaitteista voi saada vertailukelpoista dataa yhteiseen tiedonvaihtoalustaan ja sitä, miten älyliikennejärjestelmää tulisi hallinnoida.Tavoitteena on, että tulevaisuudessa liikennevaloista tieto siirtyisi suoraan ajoneuvoon, auton navigaattoriin tai älypuhelimen sovellukseen, jolloin autoilija saa etukäteistietoa lähestyvien liikennevalojen tilanteesta.Auton merkillä, mallilla tai iällä ei ole väliä, kunhan vastaanottajalla on joku laite, mihin tieto välittyy.Avaa kuvien katseluLiikennevalot voivat tulevaisuudessa lähettää tietoa autoilijoille. Kehityksestä hyötyisi myös julkinen liikenne. Kuva Tampereelta. Kuva: Jani Aarnio / YleTampereen kaupungin projektipäällikkö Mika Kulmalan mukaan tällaisesta palvelusta hyötyy suuresti myös joukkoliikenne.– Voi olla järkevämpää odottaa pysäkillä 15 sekuntia pidempään, jos se tarkoittaa sitä, että pääsee seuraavista valoista pysähtymättä eteenpäin.Autot keskustelevatKyse on siis lyhyen kantaman tiedosiirrosta (C-ITS), jota tapahtuu joko kahden ajoneuvon tai kaupunki-infran ja ajoneuvon välillä.Liikennevalot ja niistä jaettava tieto on vain yksi osa tiedonvälitystä. Tietoa voi jakaa myös vaikkapa keliolosuhteista, tietyömaista ja liikenteen vaaratekijöistä.– Jos esimerkiksi vastaantuleva auto on havainnut liukkaan tienpinnan, oma autosi nappaa tämän tiedon itselleen, Kulmala sanoo.Vastaavanlaisia tiedonjakokokeiluja on Tampereella tehty ennenkin, muttei yhtä kattavasti. Kymmenen vuotta sitten laitevalmistajia oli mukana vain yksi, joten kokeilusta saatu tieto jäi suppeaksi.Tähän pilottiin valittiin mukaan 12 risteystä. Valintaperusteena olivat tekniset syyt.– Lähtökohtana oli, että mukaan saadaan monta eri laitevalmistajaa ja laitemallia. Risteyksen vilkkaudella tai sijainnilla ei siis ollut merkitystä.Avaa kuvien katseluTiedonsiirtoa on pilotoitu onnistuneesti ensimmäistä kertaa Suomessa liikennevalojen ja ajoneuvojen välillä nyt myös Euroopan laajuisilla standardeilla. Arkistokuvassa näkyy Itsenäisyydenkadun ja Yliopistonkadun risteys Tampereella. Kuva: Sanni Isomäki / YleTavoitteena vuosi 2027Pilotin aikana liikennevalokoneista kerättiin reaaliaikaista dataa digitaaliselle alustalle, joka lähetti viestejä eteenpäin eri sovelluksiin.Fyysisesti tämä tiedonkeräysalusta sijaitsee Jyväskylässä.Testauksen aikana selvisi se, etteivät kaikki laitteet toimineet niin tehokkaasti kuin oletettiin.– Kaikissa ei vain suorituskyky riittänyt jatkuvaan tiedon tuottamiseen eli jonkin verran jouduttiin tekemään päivityksiä, Kulmala kertoo.Olli Rossi Fintrafficin tieliikenteenohjauksesta kertoo tiedotteessa, että Suomessa voidaan hyödyntää pitkälti jo olemassa olevaa laitekantaa.– Meillä on hyvä pohja älyliikennejärjestelmien jatkokehittämiseksi, jotta liikennevalot tuottaisivat jatkossa autoilijoille syötettä esimerkiksi siitä, miten liikennevaloja kannattaa lähestyä, jotta ajotapa olisi mahdollisimman taloudellinen ja vähäpäästöinen, Rossi sanoo.Tavoitteena on, että vuonna 2027 liikennevalot jakaisivat dataa autoilijoiden käyttöön.Mika Kulmala toivoo, että jotakin olisi tarjolla jo ennen tätä.– Tämä liukuma tuohon siirtymään on juuri siksi, että saadaan laitekanta vastaamaan vaatimuksia.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Senegalissa käynnissä erikoinen tilanne: presidentti panttaa tulevien presi­den­tin­vaalien ajankohtaa</t>
+          <t>Näin RKP:n Henriksson selitti, miksi ei kertonut aiemmin päätöksestään luopua puheen­joh­ta­juudesta</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20076060</t>
+          <t>https://yle.fi/a/74-20076684</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>23.02.2024</t>
+          <t>27.02.2024</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1788,27 +1788,27 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Erikoinen tilanne on aiheuttanut perinteisesti vakaassa maassa laajoja mielenosoituksia, jotka ovat äityneet myös väkivaltaisiksi. Perustuslakineuvosto määräsi vaalit pidettäväksi niin pian kuin mahdollista.</t>
+          <t>RKP:n puheenjohtaja Anna-Maja Henriksson kertoi jo tammikuussa ehdokkuudestaan eurovaaleissa.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Länsiafrikkalaisen Senegalin istuva presidentti Macky Sall sanoi torstaina, että hän jättää tehtävänsä sovitusti 2. huhtikuuta. Hän ei kuitenkaan sanonut, milloin presidentinvaalit järjestetään. Presidentin tiedotteen mukaan vaalipäivä kerrotaan kuitenkin ”hyvin pian”.Vaalit oli määrä pitää helmikuussa, mutta useiden käänteiden jälkeen vaalit siirrettiin joulukuulle. Maan perustuslakineuvosto kuitenkin kumosi tämän päätöksen.Erikoinen tilanne on aiheuttanut perinteisesti vakaassa maassa laajoja mielenosoituksia, jotka ovat äityneet myös väkivaltaisiksi. Perustuslakineuvosto määräsi vaalit pidettäväksi niin pian kuin mahdollista.Sallin mukaan uusi vaalipäivä päätetään sen jälkeen, kun asiasta on määrä käydä keskusteluja ensi viikon maanantaista alkaen muun muassa opposition edustajien kanssa.Oppositio ja Sallin vastustajat ovat todenneet, että Sall yrittäisi pysyä vallassa maan perustuslain vastaisesti.Senegalin opposition johtohahmoista kaksi, Ousmane Sonko ja Bassirou Diomaye Faye, on pidätettyinä. Sallin mukaan heidät voitaisiin vapauttaa pian.Istuvan presidentin päätöstä siirtää vaaleja on kuvailtu johtuvan pelosta, että presidentin puolue häviäisi vaalit.Satoja opposition ja eri kansalaisjärjestöjen jäseniä vapautettiin vankeudesta viime viikolla. Sall valittiin Senegalin presidentiksi ensimmäistä kertaa vuonna 2012.Lähde: AFP</t>
+          <t>RKP:n puheenjohtaja Anna-Maja Henriksson perusteli päätöstään luopua puolueen puheenjohtajuudesta tiistain A-studiossa.Henriksson kertoi jo tammikuussa lähtevänsä RKP:n eurovaaliehdokkaaksi, mutta ei silloin kertonut aikeistaan luopua puolueen puheenjohtajuudesta.Luopumisilmoitus saatiin vasta tänään tiistaina.– Ajattelin näin, että on RKP:n etu, että meillä ei ole samalla hetkellä puheenjohtajavaalikisa käynnissä, koska silloin on riski, että EU-vaalit joutuvat syrjään tai varjoon, Henriksson perustelee.Hän perusteli ajoitusta myös hankalilla kehysriihineuvotteluilla, jotka koittavat myöhemmin keväällä.Henriksson piti tammikuussa luontevana, että hän luopuu paikastaan puolueen johdossa, jos hänet valitaan europarlamentaarikoksi.RKP:n seuraava puoluekokous järjestetään ensi kesänä.– Puheenjohtaja me saadaan aina omin voimin, se on vain meistä itsestämme kiinni. Mutta europarlamenttipaikkaan me tarvitsemme kansalaisten tuen, Henriksson sanoi illan A-studiossa.Kisa puheenjohtajan paikasta on alkanut puolueen sisällä.Eurooppa- ja omistajaohjausministeri Anders Adlercreutz on kertonut olevansa käytettävissä. Myös puolueen varapuheenjohtaja, kansanedustaja Henrik Wickström ja eduskuntaryhmän puheenjohtaja Otto Andersson harkitsevat vakavasti.Katso tiistain A-studio Yle Areenasta.Täydennetty 27.2. kello 21.58 Henrikssonin perusteluihin ensi kevään kehysriihineuvottelut.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>”Vanhus­pal­velut pitää järjestää tarpeen eikä rahan mukaan”, sanoo ikääntymisen tutkija Teppo Kröger</t>
+          <t>”Oli kova paikka sanoa Wilmalle, etten valmenna häntä enää” – kuusi vuotta sitten Jarno Koivusen oli tehtävä kipeä päätös</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20076014</t>
+          <t>https://yle.fi/a/74-20075746</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1823,32 +1823,32 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Huippututkijan huoli ikääntyvien hoidosta ei ole hellittänyt sen jälkeen, kun palvelut siirtyivät hyvinvointialueille.</t>
+          <t>Jarno Koivunen on Wilma Murron pitkäaikainen valmentaja, joka viihtyy paremmin taustalla kuin julkisuudessa. Valmentajaguru on joutunut tekemään kiperiäkin päätöksiä seivästähden uran eteen.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Yhteiskuntapolitiikan professori Teppo Kröger on seurannut huolestuneena suomalaisen vanhustenhoidon kehityssuuntaa jo vuosia. Jyväskyläläinen Kröger johtaa ikääntymisen ja hoivan tutkimuksen huippuyksikköä, johon kuuluu tutkimusryhmiä Jyväskylän, Tampereen ja Helsingin yliopistoista.Hyvinvointialueiden alkutaival vaikuttaa tutkijan silmiin kaikkea muuta kuin hyvältä.– Tilanne ei suinkaan näytä olevan helpottumassa vaan päinvastoin edelleen vaikeutumassa, hän arvioi.Keskustelu vanhusten huonosta hoivasta kävi erityisen kuumana vuonna 2019, kun julkisuuteen tuotiin karuja esimerkkejä hoivakotien epäkohdista. Kröger sanoi tuolloin Ylen haastattelussa, että vanhustenhoitoon tarvittaisiin miljardi euroa lisää, jotta päästäisiin pohjoismaiselle keskitasolle.Edelleenkään palvelua ei ole riittävästi tarjolla, ja myös ongelmien juurisyy eli rahapula on Krögerin mukaan ennallaan.– Suomessa ikääntyneiden palvelujen rahoitus on edelleen selvästi tarpeita jäljessä ja muita Pohjoismaita alempana.Hoivakriisi ei ratkea palveluja keventämälläHyvinvointialueiden ensimmäisen toimintavuoden eli vuoden 2023 tilinpäätökset kertovat karua kieltä rahoituksen riittämättömyydestä. Monilla alueilla etsitäänkin nyt kymmenien miljoonien säästöjä ja leikkauskohteita sen sijaan, että palveluja vahvistettaisiin.Lakkautuslistalla on paikoin myös vanhusten palvelutaloja. Samaan aikaan nykyisetkään palvelutalopaikat eivät riitä.Esimerkiksi Keski-Suomessa ympärivuorokautiseen asumiseen jonotti 22. helmikuuta 112 vanhusta. Lisäksi 130 ikäihmistä oli pitkäaikaisessa laitoshoidossa, joka ollaan valtakunnallisen linjauksen mukaan lopettamassa vuoden 2027 loppuun mennessä.Keski-Suomessa hoivapaikkoja ei olla vähentämässä, mutta viranhaltijatyönä tehty hyvinvointialueen sote-palveluverkkosuunnitelma toteaa, että niitä ei voida myöskään lisätä, koska henkilökuntaa ei ole riittävästi.Ratkaisuksi esitetään nykyistä kevyempien palvelujen, kuten yhteisöllisen asumisen, ennaltaehkäisevän toiminnan ja kotihoidon lisäämistä.Teppo Kröger sanoo, että käsillä oleva vanhusten hoivakriisi ei ratkea palveluja keventämällä. Suuret ikäluokat tulevat vanhuusikään tällä ja seuraavalla vuosikymmenellä, joten hoivan tarvekin lisääntyy merkittävästi.Toimintatapojen muutoksilla voidaan Krögerin mukaan parantaa joitakin asioita vanhuspalveluissa. Myönteistä vaikutusta voi olla esimerkiksi sillä, että johtamista kehitetään ja työntekijöiden sekä vanhusten ja heidän omaistensa mielipiteitä kuullaan palvelujen järjestämisessä.Koko palvelujärjestelmän ongelmia nämä eivät kuitenkaan paranna, ellei palvelun resursseja lisätä sitä mukaa kuin hoidettavien määrä kasvaa.Kolme vaikeaa vaihtoehtoaKröger näkee vanhushoivan tulevaisuudelle yksinkertaistettuna kolme vaihtoehtoa, jos palvelujen määrä ja saatavuus edelleen vähenee.Yksi on se, että omaiset ottavat entistä suuremman roolin hoivassa. Tällöin moni keski-ikäinen, usein nainen, joutuu jäämään pois työelämästä hoitamaan ikääntyneitä vanhempiaan.– Tällä on vaikutusta myös kansantalouteen ja työmarkkinoihin.Toinen vaihtoehto on yksityisten palvelujen käytön lisääntyminen. Tämä on mahdollista vain hyvätuloisille eläkeläisille, ei läheskään kaikille.Kolmas ja karuin vaihtoehto on Krögerin mukaan se, että vanhat ihmiset eivät saa hoitoa ja kuolevat kotiinsa. Hän pitää mahdollisena myös sitä, että tilanne johtaa maailmalla jo nähtyihin traagisiin tilanteisiin, joissa uupunut omainen surmaa hoidettavansa ja mahdollisesti itsensäkin.– Nähdäkseni näitä asioita tulee Suomessakin tapahtumaan entistä enemmän, ellei palvelujärjestelmä pysty vastaamaan kasvavaan tarpeeseen.Mediahuomiota on tullut, vaikutuksia vähemmänKröger on tuonut tällaisen hoivaköyhyyden ongelmaa esiin jo siitä alkaen, kun hänen johtamansa Suomen Akatemian alainen huippuyksikkö aloitti toimintansa.Krögerin mukaan ikääntymisen tutkimus on saanut huomiota osakseen mediassa, ja myös tutkijat itse pyrkivät aktiivisesti kertomaan tutkimustuloksista monia reittejä pitkin. Teppo Krögerkin on kysytty luennoitsija ja haastateltava.Entä onko tutkimustietoa hyödynnetty siellä, missä vanhuspalveluista päätetään?– Kyllä se on varsin rajallista, miten ne tulokset näkyvät varsinaisessa päätöksenteossa, Kröger sanoo.</t>
+          <t>Viisi nuorta naista voimistelee permannolla tavallisena arkiaamuna. He eivät ole voimistelijoita, vaan seiväshyppääjiä. Viikoittainen kahden ja puolen tunnin telinevoimistelu on tärkeä harjoitus, kun urheilijoiden tavoitteena on sinkauttaa itsensä seipäällä yli neljän metrin, yksi naisista lähemmäs viiden metrin haamurajaa.Valmentaja sukkuloi pisteeltä toiselle, huikkaa ohjeita yhdelle samalla kun auttaa toista löytämään oikean liikeradan.Jos ei tietäisi, kuka heistä on seiväshypyn Euroopan mestari ja MM-pronssimitalisti, ei sitä voisi valmentajan käytöksestä päätellä. Wilma Murto, 25, ei saa erityistä huomiota ikkunattomassa voimisteluluolassa.He siirtyvät rekille. Siitä lähtee kirskuva ääni, johon valmentaja Jarno Koivunen, 49, ja hänen valmennettavansa eivät kiinnitä mitään huomiota.Avaa kuvien katseluWilma Murto on käynyt Jarno Koivusen telinevoimisteluharjoituksissa noin 12 vuoden ajan. Kuva: Kimmo Hiltunen / YleWilma Murto nojaa voimistelutelineeseen, ja näppäilee puhelintaan. Hän on selvästikin ryhmän musiikkivastaava, sillä kaiuttimissa soinut iskelmä vaihtuu räppiin. Jos joku kuvailee musiikkimakunsa olevan ”laidasta laitaan”, tätä se varmaankin tarkoittaa.– Työpaikkakiusaamista, Koivunen kommentoi valmennettaviensa musiikkivalintoja ja saa Murron purskahtamaan nauruun.Harjoitusten myönteinen ilmapiiri näkyy ja kuuluu.Aina kaksikolla ei ole ollut näin mukavaa tehdä töitä yhdessä.Kuusi vuotta sitten Jarno Koivusen oli pakko tehdä kipeä päätös, jolla on ollut kauaskantoiset seuraukset.Muistiinpanoja tekevä äitiYksi lasten seiväskoulua seuraavista vanhemmista kiinnittää Jarno Koivusen huomion. Äiti on tuonut 9-vuotiaan tyttärensä Kupittaan yleisurheiluhallille vajaan tunnin ajomatkan päästä Salon Kuusjoelta. On vuosi 2007.Jarno Koivunen on opettanut seiväshyppyä sadoille lapsille ja nuorille. Ensimmäisistä kerroista ei vielä tiedä, kenestä seiväskoululaisesta tulee huippu-urheilija. Edes Wilma Murto ei kummemmin erottunut, mutta hänen äitinsä Sari Murto erottui. Hän kyseli Koivuselta seiväshypystä ja kirjoitti innostuneena ohjeita ylös.Myöhemmin Koivunen huomasi, että pitkänhuiskea tyttö oli paitsi lahjakas myös poikkeuksellisen hyvä keskittymään. Koordinaatio oli hieman hukassa, mutta sitä kyllä saataisiin paremmaksi. Vuonna 2014, Murron ollessa lukioikäinen, Koivusesta tuli hänen henkilökohtainen valmentajansa.Avaa kuvien katseluKoivunen on itsekin entinen seiväshyppääjä. Vuonna 2001 hän hyppäsi hallissa Suomen mestariksi tuloksella 535.  Kuva: Kimmo Hiltunen / YleKun 17-vuotias Murto taivutti vuonna 2016 nuorten maailmanennätyksen 471, Koivunen oli tiennyt jo useamman vuoden, että hänellä oli käsissään ainutlaatuinen lahjakkuus. Nyt sen tiesivät muutkin.Valmentaja oli osannut varautua kaikkeen, myös edessä odottavaan julkisuuden valokeilaan. Hänelle oli tärkeää, että Murto voisi keskittyä urheiluun.– Noin vuosi ennen sitä maailmanennätystä alkoi näyttää, että Wilma saattaa mennä aika korkealle. Luojan kiitos sanoin Wilman vanhemmille, että olisi hyvä hommata manageri. Heiskan Teron liittyminen Wilman taustajoukkoihin oli hänen uransa pelastus.Avaa kuvien katseluMurto kehittyi Koivusen valmennuksessa nopeasti. Vuonna 2016 hän hyppäsi nuorten maailmanennätyksen ja kilpaili ensimmäisissä olympiakisoissaan.  Kuva: Yle/Janne IsakssonHuippu-urheilu näytti Murrolle varjoisaa puoltaan maailmanennätysvuoden jälkeen: seurasi loukkaantumisia ja kehityskäyrä kääntyi laskuun. Samaan aikaan Murto siirtyi lukiolaisesta ammattiurheilijaksi.Vaikea päätösKaikki näyttää Paavo Nurmen stadionilla aivan tavanomaiselta heinäkuisena kesäpäivänä. 20-vuotias Wilma Murto ja Jarno Koivunen juttelevat auringonpaisteessa. Yleensä paikalla on muitakin Koivusen valmennettavia, mutta nyt valmentaja haluaa olla kahdestaan Murron kanssa.Koivunen on päättänyt katkaista valmennussuhteen Murron kanssa. Hän on miettinyt asiaa pitkään ja tullut tulokseen, että se olisi Murron urheilu-uran kannalta paras ratkaisu.– Oli kova paikka sanoa Wilmalle, etten valmenna häntä enää. Tavoitteet ja toiminta eivät siinä kohtaa kohdanneet, enkä löytänyt keinoja muuttaa asiaa, Koivunen muistelee.Avaa kuvien katseluJarno Koivunen on pitänyt lahjakkaan Wilma Murron valmentamista hyvin vastuullisena tehtävänä, jossa hän yrittää toimia ennen kaikkea urheilijan edun mukaisesti. Kuva: Kimmo Hiltunen / YleMurto taustoitti vuonna 2020 Iltalehdelle syitä, miksi yhteistyö päättyi kesällä 2018.– Minulla alkoi olla omia mielipiteitä, joita en ehkä osannut esittää ihan oikein, eikä valmentaja osannut ottaa niitä vastaan, Murto kertoi tuolloin.Keskustelu aurinkoisella stadionilla oli lyhyt, mutta myöhemmin Murto ja Koivunen kävivät asiaa läpi pidemmin. Kilpailukauden päätteeksi kaksikon tiet erosivat. Välirikosta ei kuitenkaan ollut kysymys.– Meillä oli koko ajan ihan hyvät välit. Olin jopa valmis auttamaan Wilmaa löytämään uuden valmentajan. Valmennusvastuuseen kuuluu, ettei urheilijaa voi jättää tyhjän päälle. Asiat täytyy hoitaa fiksusti, Koivunen kertoo.Syksyllä 2018 Murto löysi uuden kodin Lahdesta, jossa häntä valmensi Steve Rippon. Yhteistyö kaatui näkemyseroihin, ja maaliskuussa 2019 Murto muutti Kuortaneelle Mikko Latvalan valmennukseen. Syksyllä 2019 Murto selviytyi Dohan MM-kisoihin, mutta jäi karsintaan tuloksella 435.Samaan aikaan Jarno Koivunen jatkoi arkista puurtamista Turun urheiluakatemiassa. Hänen pitkäaikainen valmennettavansa, entinen SE-nainen Minna Nikkanen lopetteli uraansa.Pitkästä aikaa Jarno Koivusella ei ollut vastuullaan kansainvälisen tason seiväshyppääjää.Matkustusta tuli vähemmän, itsensä kehittämistä enemmän.”Ulospuhallus tuli itsellenikin tarpeeseen. Olin kiertänyt Minnan ja Wilman kanssa ulkomaan kisoja yli kymmenen vuotta. Se ei ole aina ihan helppoa”Yllättävä soittoSyksyllä 2019 Koivunen havahtui kotisohvallaan puhelimen pirinään. Soittaja oli Wilma Murto, joka oli reilua vuotta aikaisemmin lähtenyt kokeilemaan siipiään muiden valmentajien opissa.Koivunen ajatteli ensin, että Murto tarvitsi apua seipäisiin tai niiden kuljetukseen liittyen. Murto halusikin aloittaa valmennussuhteen puhtaalta pöydältä.Yhteistyö Mikko Latvalan kanssa oli kestänyt tässä vaiheessa puoli vuotta, mutta Murto ei ollut kotiutunut Kuortaneelle eivätkä näkemykset valmentajan kanssa kohdanneet tarpeeksi hyvin.– Tietenkin olin yllättynyt, kun hän soitti. Ensin jarruttelin, että mieti nyt tarkkaan. En heti luvannut, mutta olin halukas kuuntelemaan lisää, Koivunen kertaa puhelun kulkua.Seuraavana päivänä Koivunen ja Murto tapasivat Kupittaan keilahallilla ja päättivät yksissä tuumin, että urheilija palaisi Koivusen valmennukseen.– Hyvä tyyppi hän oli lähtiessä ja hyvä tyyppi takaisin tullessa. Se ei ollut muuttunut, Koivunen sanoo.Avaa kuvien katseluWilma Murto on kuvaillut vuotta Lahdessa ja Kuortaneella raskaaksi mutta opettavaiseksi.  Kuva: Kimmo Hiltunen / YleValmennussuhteen jatkuminen Koivusen kanssa tarkoitti tietynlaista ohjelmistopäivitystä yhteistyöhön.– Päivitimme dynamiikkaamme niin, että se tuntuu tasa-arvoiselta. Jarno on ollut juniorivaiheen valmentajani, mikä on tosi erilaista kuin huippuaikuisurheilijan valmentaminen, Murto kertoo ja jatkaa:– Eniten siinä on muuttunut se, miten minä osaan kommunikoida niin, että valmennussuhde toimii paremmin.Kun Murron valmentajakaruselli pysähtyi loppuvuodesta 2019, arki solahti uusvanhoille raiteilleen. Kesällä 2021 hän rikkoi vihdoin viisi ja puoli vuotta vanhan Suomen ennätyksensä. Taakka putosi Koivusen ja Murron hartioilta.Pari vuotta aiemmin Murron tiuhaa tahtia vaihtaa valmentajaa oli ihmetelty. Osa kritisoijista piti häntä menetettynä teinitähtenä. Ei enää. Murto oli matkalla seiväshypyn terävimmälle huipulle.Nyt Murto on hallitseva Euroopan mestari sekä sisä- että ulkoradoilta. Viime kesänä hän saavutti pronssia MM-kilpailuissa Budapestissä.Vaatimustaso korkeallaKun Koivunen ja Murto nyt muistelevat vuosia 2018 ja 2019, ovat he tyytyväisiä siihen, mitä vaikeasta ratkaisusta on seurannut.Koivunen on samalla vaativa ja vaatimaton. Vaativa itseään ja urheilijoitaan kohtaan, mutta vaatimaton, kun häntä pyytää kehumaan itseään.– Mikä tekee minusta hyvän, on se, kun otan vastuun jonkun valmennuksesta, otan sen sataprosenttisesti. En anna itselleni siimaa päästä helpolla. Mutta en tiedä, olenko sen parempi valmentaja kuin kolme vuottakaan sitten. Se aina tulee menestyksen mukana, että on mukamas parempi valmentaja.Avaa kuvien katselu– Voin luottaa, että Jarno tekee parhaansa ja antaa kaikkensa. Jos urheilija antaa itsestään, valmentaja antaa vähintään saman verran takaisin, Murto sanoo.  Kuva: Kimmo Hiltunen / YleMurron menestyksen myötä kiinnostus myös Koivusta kohtaan on kasvanut.– Nyt kun on mennyt hyvin, kaikki haluaisivat jostain syystä kuunnella, mitä haluan sanoa. Ensimmäinen asia, jonka olen itselleni luvannut, etten lähde yhteenkään luentoon tai puhumaan yrityksille. Se veisi aikaa päätehtävältäni, Koivunen sanoo.Valmentaja kiittää myös suojattiaan, että tämä on pitänyt keskittymisen olennaisessa.– Wilma on ollut siinä hyvä nyt, että se tulee häneltä hyvin vahvasti, että yhtäkään treeniä ei saa jäädä väliin näiden sponsorijuttujen takia, eikä ole oikeastaan jäänytkään. Se on mennyt hyvin.Yksilöurheilussa tulonmuodostus on usein monimutkaisempaa kuin esimerkiksi palkkaa saavana jalkapalloilijana. Tiimi Murto, Koivunen ja Heiska on miettinyt tiukat rajat yhteistyökuvioille.– Täytyy tietysti olla tuloja ja sponsoreita, mutta täytyy olla tarkat rajat, jotta mahdollisuudet urheiluun eivät mene huonommaksi. Lopulta urheilu tuo leivän pöytään. Ei saa hyviä yhteistyökumppaneita, jos hyppää 420. Jos hyppää 490, on varaa valita. Saa tehtyä sponsorisopimukset niin kuin haluaa. Se antaa tavallaan työrauhaa, Koivunen sanoo.Avaa kuvien katseluWilma Murto kuvailee Jarno Koivusta analyyttiseksi huumoriveikoksi. Koivuselle on tärkeää tuntea urheilijansa mahdollisimman hyvin.  Kuva: Kimmo Hiltunen / YleKoivusen ura olisi voinut lähteä aivan toiseen suuntaan, jos hänen päätöksentekoaan ohjaisi raha. Seitsemisen vuotta sitten Koivusta houkuteltiin valmentamaan Qatariin kovalla kuukausipalkalla ja työsuhde-eduilla. Hän ei edes harkinnut tarjoukseen tarttumista.– Se on ehkä näitä elämänarvoja. En valmentaisi ollenkaan, jos raha olisi ensimmäinen mittari, jonka mukaan teen päätöksiä. Raha ei ole minulle niin tärkeää. Kunhan normaalin elämisen pystyy klaaraamaan, se riittää. Olen sanonut, että jos olisi enemmän rahaa, sitä enemmän tuhlaa. Ei siitä olisi mitään hyötyä.– Elämä on sitä parempaa, mitä normaalimpaa se on.Paineet kasvavatViime vuonna Olympiakomitean huippu-urheiluvastaava Tommi Pärmäkoski huomasi, että Koivusen työtunnit paukkuivat viikosta ja kuukaudesta toiseen. Nyt Koivunen on pystynyt Olympiakomitean tuen ansiosta vähentämään muita töitään ja keskittymään pelkästään Murron valmentamiseen kohti Pariisin olympialaisia.Vuosi 2024 tarjoaa Murrolle tilaisuuden jopa kolmeen arvokisamitaliin, kun kalenterissa ovat MM-hallit Glasgow’ssa, EM-kilpailut Roomassa sekä olympialaiset Pariisissa.– Joskus minulla oli unelma saada urheilija olympialaisiin. Kun se tapahtui, ajattelin, että olisihan se hienoa saada urheilija olympiafinaaliin. Kun sekin tapahtui, niin olisi hienoa saada urheilija olympialaisissa palkintopallille. Se on seuraava, Koivunen miettii.Avaa kuvien katseluJarno Koivunen on tuttu näky Kupittaan yleisurheiluhallilla. Työtunteja hänellä ei ole ollut tapana laskea. Kuva: Kimmo Hiltunen / YleKun rima lähenee viittä metriä, paineet myös Koivusen valmennusosaamista kohtaan nousevat.– En luota semmoiseen musta tuntuu -menetelmään. Raaka data on raakaa dataa muutaman vuoden päästäkin. Siihen on helpompi nojata. Minulla on dataa varmaan 40 vuoden pankki, joka on ollut oman oppimisen väline. Niitä exceleitä kun vääntää, erottuu asioita, mitkä toimivat ja mitkä eivät toimi.Koivunen viettää Murron kanssa parikymmentä tuntia viikossa ja pyrkii olemaan paikalla jokaisessa harjoituksessa.Seiväshyppyä ja sen oheisharjoittelua Koivunen miettii suuren osan hereilläoloajastaan. Harjoitusten lisäksi aikaa kuluu niiden suunnitteluun ja analysointiin.”On laadun kannalta tärkeää, että ei vain voi mennä treeneihin väsyneenä tai tehdä suunnitelmaa väsyneenä. Vaan valmentajalla täytyy olla paras hetki.”Laatu on muutenkin tärkeä teema Koivusen valmennusfilosofiassa. Seiväshyppy on Koivusen mukaan melko toistettava laji, eikä siinä usein tapahdu mitään yllättävää. Keskustelut muiden huippuvalmentajien kanssa ovat osoittaneet, että valmennusmetodit ovat maailmalla varsin yhteneväisiä.– Ratkaisevaksi tekijäksi tulee se, kuka tekee ne yksinkertaiset hyvät harjoitukset vähän laadukkaammin kuin se toinen kaveri. Koko valmennuksen täytyy perustua siihen, että laadusta ei saa tinkiä, ei itse harjoitteissa, ei harjoittelussa, eikä myöskään palautumisen eteen tehtävässä työssä.– Meillä on sellainen sanonta, että joku perhana tekee sen kuitenkin. Jos itse ei tee sitä niin laadukkaasti kuin osaa, joku tekee. Silloin on hävinnyt pelin.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mikael Jantunen kirjoitti seura­his­toriaa Pariisissa – Susijengin päävalmentaja hehkuttaa liima­pe­laajansa uusia kykyjä</t>
+          <t>Ukrainalainen lääkäri: Venäjä käyttää myrkkykaasuja, jotka lamaan­nut­tavat sotilaita</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20075614</t>
+          <t>https://yle.fi/a/74-20076287</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>23.02.2024</t>
+          <t>24.02.2024</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1858,32 +1858,32 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">23-vuotiaasta Mikael Jantusesta on kasvanut Susijengin toiseksi tärkein pelaaja Lauri Markkasen jälkeen. </t>
+          <t xml:space="preserve">Uutistoimisto Reuters on käynyt kenttäsairaalassa Donetskissa. Haavoittuneiden määrä siellä on kasvussa. </t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Susijengin luottopelaajan Mikael Jantusen ja valmentajana huipputyötä seuratasolla tehneen Tuomas Iisalon Paris Basketball valloitti viime sunnuntaina Ranskan cupin varmistaen seuralle sen ensimmäisen pokaalin.Nuori, vasta viiden vuoden ikäinen Paris Basketball voitti kolmeen päivään kolme tiukkaa cup-ottelua, mikä palkittiin komealla pytyllä. Jantunen teki myös finaalissa tärkeää työtä 12 pisteen ja kahdeksan levypallon tilastoilla. Irtopalloja 204-senttinen suomalainen repi finaalissa eniten molemmista joukkueista.– Seuran ensimmäinen pokaali on aina iso asia, ja näyttää mihin suuntaan seura on menossa. Seuran työntekijöille se saattoi jopa olla isompi asia kuin pelaajille. Pokaali oli kuitenkin vasta välietappi, kun työt jatkuvat ja päätavoitteet tulevat eteen vasta keväällä, Jantunen muistuttaa.– Hallilla oli hauskaa ja vähän ehdittiin juhlia, mutta porukka hajaantui heti voiton jälkeen, kun osa pelaajista lähti bussilla Pariisiin ja osa sitten maajoukkueiden mukaan.Jantunen on kehittynyt pienin askelin pelaajana, varsinkin hyökkäyssuuntaan. Cup-viikonvaihteen kolmessa ottelussa hän upotti esimerkiksi kolmoset huikealla heittoprosentilla 72,7 (8/11).– Olen ollut ihan tyytyväinen omaan esitykseeni, vaikka paljon on ollut oppimista sekä ylös ja alas -liikettä, niin kuin aina tapahtuu pitkän kauden aikana. Joukkueen menestys on tärkeintä. Kun seura menestyy, niin silloin myös oma suorittaminen on varmaan hyvällä tasolla, Jantunen tietää.Jantunen korostaa, että kausi on vasta puolikrouvissa. Kannattaa kysyä uudelleen kesäkuussa, onko hän tyytyväinen kauteen.– Luulen, että olen mennyt pienissä, yksityiskohtaisissa asioissa eteenpäin. Ne eivät ehkä välttämättä näy, mutta ovat seurassa tärkeitä juttuja ja sellaisia, jotka helpottavat yleistä pelaamista sekä ovat korkealla tasolla pelattaessa tekijöitä, jotka tekevät usein sen ratkaisevan eron.– Hyökkäyspelaamista olen painottanut, siinä olen mennyt vähän eteenpäin, myöntää jalkapallosta koripalloon 11-vuotiaana siirtynyt maajoukkuemies.Yksi kahdestatoista pelaajastaHelsinkiläisen Wartti Basketin kasvatti pitää matalaa profiilia omasta roolistaan Pariisissa.– Minä olen yksi kahdestatoista pelaajasta, joka antaa siellä kaikkensa. Meillä on laaja rotaatio sekä tiivis ryhmä ja nautimme toistemme kanssa pelaamisesta. Silloin tekee kaikkensa, että joukkue voittaa. Välillä se on pisteiden tekemistä, välillä irtopallojen hakemista.– Yritän olla mahdollisimman monipuolinen ja täyttää puolustuksessa ruutuni. Tärkeintä on oman roolin täyttäminen, mikä se sitten onkaan, ja se voi vaihdella pelistä toiseen.Ranskan pääsarjaa Jantunen pitää kilpailullisena sarjana, jonka pelit ovat usein haastavia ja hankalia pelaajien pelinopeuden, taidon ja urheilullisuuden takia.– Sarjassa on todella paljon hyviä pelaajia. Myös seurojen omat, nuoret pelaajat ovat kovatasoisia. Jokainen peli kehittää.Saksan koripallon Bundesliigassa viime vuodet menestyksekkäästi valmentanut Tuomas Iisalo siirtyi täksi kaudeksi Paris Basketballin päävalmentajaksi kolmevuotisella sopimuksella. Suomalaisluotsi on tiukan, vaativan valmentajan maineessa.– Koripalloasioissa pidetään tiukkaa linjaa ja sen ympärille on luotu sellainen kulttuuri, mutta sitten koriksen ulkopuolella hän on erittäin hyvä tyyppi ja kentän ulkopuolella ryhmänä on hauskaa. Tuomaksella on erittäin hyvä tasapaino koripallon ja ei-koripallon välillä, kehuu Jantunen ja jatkaa:– Itse tykkään suorasta ja rehellisestä palautteesta, mikä kehittää. Myös pelaajan pitää osata kantaa vastuuta, vaikka se ei aina ole välttämättä helppo paikka. Siitäkin pitää yrittää nauttia ja se, jos jokin kehittää nuoria.Susijengin liimapelaajaMyös Suomen koripallomiesten päävalmentaja Lassi Tuovi iloitsee Mikael Jantusen uran nousujohteisuudesta. Susijengissä Jantunen on toki paljon enemmän kuin ”yksi kahdestatoista pelaajasta”.– Hänellä on ollut Pariisissa erinomainen kausi ja menee urallaan määrätietoisesti, järjestelmällisesti koko ajan eteenpäin sekä entistä kovempiin paikkoihin. Hän on ottanut isompaa roolia ja kehittynyt pelaajana.– ”Micke” on aina ollut kova taistelija ja tunnettu enemmän puolustusspesialistina, mutta koko ajan hänelle tulee peliin lisää vivahteita. Väittäisin jopa, että kaikki me pääsemme nyt nauttimaan vähän uudenlaisista jutuista kentällä. Ennen kaikkea hän on äärimmäisen hyvä joukkuepelaaja, joka on kasvanut vuosien aikana Susijengin liimapelaajaksi molemmissa päissä kenttää, Tuovi alleviivaa.Avaa kuvien katseluAustralian Joe Ingles pujottelee pallon kanssa Lauri Markkasen ja Mikael Jantusen välissä MM-kisoissa 2023. Kuva: Getty ImagesSusijengin vastuuluotsi pitää Jantusta taistelijana, joka juoksee kenttää ja on moderni, iso pelaaja.– Olen iloinen siitä, että hän kehittää koko ajan pallollista pelaamistaan ja on tuonut siihen uusia juttuja Pariisissa. Tämä kuvaa hänen intohimoaan ja myös kurinalaisuutta siihen, että pitää olla entistä parempi ja kehittää samaan aikaan heikkouksia. Mickestä tulee vuosien saatossa monipuolinen pelaaja, kunhan hänelle vain antaa aikaa ja ennen kaikkea malttia sen suhteen.Susijengi on yhtenä syksyn 2025 EM-kisaisännistä paikkansa tulevissa kisoissa jo varmistanut, mutta tulevat kuusi karsintaottelua määrittelevät EM-alkulohkoissa vastaan asettuvat joukkueet.Suomi kohtaa perjantai-iltana 23. helmikuuta kello 21 alkaen Belgradin korissaunassa lajin menestysmaan, Fiba-rankingin Euroopan kakkosen Serbian ja maanantaina 26.2. Espoossa Tanskan.– Harvemmin pääsee pelaamaan vaikkapa vieraspelissä Serbiaa vastaan, jolla on puolet joukkueesta MM-hopeamitalisteja ja loput pelaajista Euroliigan pelaajia. Jokainen pelaaja haluaa menestyä tällaisessa ympäristössä, ja se on hyvä mahdollisuus ottaa taas askeleita eteenpäin, Jantunen innostuu.– Myös Tanskalta löytyy Euroopan huippuyksilöitä. On aina iso asia edustaa maataan ja haastaa huippuyksilöitä. Aina pelataan kunniasta.EM-karsinnan muut ikkunat pelataan marraskuussa 2024 ja helmikuussa 2025.Voit katsoa Mikael Jantusen Juuret-jakson Yle Areenasta. Sarjassa pääset tutustumaan myös Elias Valtosen, Sasu Salinin, Lauri Markkasen ja Lassi Tuovin tarinoihin.</t>
+          <t>Venäjä on viime aikoina lisännyt hyökkäyksiään Itä-Ukrainaan Donetskin alueelle.Rintaman läheisyydessä toimivassa kenttäsairaalassa potilaiden määrät ovat kasvussa, kertoo sairaalan lääkäri Oleh Tokartšuk. Haavoittuneiden määrät ovat pienempiä kuin vuosi sitten, mutta ovat nousussa.– Tällä hetkellä hoidamme noin 30 haavoittunutta päivässä. Sekään ei ole mikään pieni luku, kirurgina työskentelevä Tokartšuk sanoo uutistoimisto Reutersille.Hän kertoo myös, että on viime aikoina huomannut sotilaiden kertomuksissa uuden ilmiön, mahdollisen myrkytyksen.– Sotilaat valittavat tulleensa myrkytetyksi. On hyvin vaikea sanoa, minkälaisista aineista tässä on kyse. Oireet ovat silmien ärsytystä, hengenahdistusta ja yskää, hän sanoo.Hänen mukaansa oireita tutkitaan lisätietojen saamiseksi.Myös Aftonbladet kertoo myrkkykaasuistaRuotsalaislehti Aftonbladet vieraili hiljattain ukrainalaisessa kenttäsairaalassa Avdijivkan läheisyydessä Donetskin alueella. Venäjän uusi strategia on huomattu myös etelässä.– Viime kuukausina Venäjä on hyökännyt yhä useammin myrkkykaasuilla. Nämä tiputetaan drooneista kranaattien muodossa, kenttälääkärinä toimiva Vladimir kertoo Aftonbladetille.Usein Venäjä käyttää kaasujen aiheuttamaa sekasortoa ja paniikkia hyväkseen, iskemällä välittömästi uudestaan taisteludrooneilla tai keskittämällä alueelle tykistötulta.– Meillä ei ole tähän mitään lääkettä. Kyseessä on kaasu, joka levittäytyy hyvin paksuna juoksuhautojen ylle. Se aiheuttaa hengitysvaikeuksia ja hyökkää henkitorviin, aiheuttaen oksentelua ja huimausta, alueen joukkoja komentava Roman Hasko kertoo Aftonbladetille.Epäilyjä siitä, että Venäjä olisi käyttänyt myrkyllisiä kemikaaleja sodassa Ukrainassa, on esitetty aiemminkin, esimerkiksi Mariupolin alueella vuonna 2022.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ruoka­jär­jestelmä ei ole kestävällä pohjalla – ”Jos ratkaisuja ei nyt löydy, niin ei niitä kohta enää tarvitse etsiäkään”</t>
+          <t>Varo tätä hymiötä – sitä voidaan käyttää sinua vastaan oikeudessa</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20074587</t>
+          <t>https://yle.fi/a/74-20075389</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>25.02.2024</t>
+          <t>22.02.2024</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1893,32 +1893,32 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Maataloudelta vaaditaan ilmastotekoja. Samaan aikaan ruokajärjestelmä pakottaa viljelijät toimimaan kestävyysvaatimuksia vastaan.</t>
+          <t>Kunnianloukkaus on tyypillinen tapaus, jossa oikeus voisi joutua tulkitsemaan emojin tai hymiön merkitystä.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Pyyahon tilan navetan reilu 30 lypsävää makoilee parsissaan ja märehtii. Välillä kuuluu tyytyväistä ynähtelyä.Vasikat ovat imeneet mahansa täyteen juottoautomaatista ja heittävät vielä muutaman villin juoksukierroksen ennen päiväunia.Näin valmistuu raaka-ainetta kaupoissa myytäviin maito- ja lihatuotteisiin.Pyyahon tilan lehmiä ei ole viritetty maidon huipputuottajiksi.– Me keskitymme eläimen terveyteen vasikasta saakka, kertoo tilaa pari vuotta pyörittänyt Juha Mäkinen.Eläimet vaativat jatkuvaa huolenpitoa ympäri vuoden, ja työtunteja laskematta.Lisäksi Mäkinen tekee yrittäjänä maansiirtourakointia.Maatilalle on palkattu työvoimaa, että omistajat eivät uupuisi.– Tilan työmäärä on siitä tulevaan rahaan nähden suuri, sanoo Mäkinen.30 lypsävää ei takaa perheelle riittävää toimeentuloa.Pohdinnassa on joko tuotannon laajentaminen tai lehmistä luopuminen ja vaihto muuhun viljelyyn.Ruoan turvaaminen vaatii muutostaMaatalouden kannattavuus on rypenyt pohjamudissa jo pitkään.Samaan aikaan kun viljelijät painivat taloushuolien kanssa, pitäisi vähentää maatalouden haitallisia vaikutuksia luontoon, ilmastoon, vesistöihin ja maaperään.– Se vaatii resursseja, joita viljelijöillä ei ole, sanoo tutkijatohtori Irene Kuhmonen Jyväskylän yliopistosta.Kuhmonen on tutkinut viljelijöiden roolia ruokajärjestelmän kestävyyssiirtymässä.Maatalousyrittäjiltä löytyisi sekä halua että kykyä muutokseen.Ongelma on se, ettei viljelijöillä ole valtaa vyöryttää ilmasto- ja ympäristötoimien kustannuksia tuotteiden hintoihin.Nykyisessä ruokajärjestelmässä ostaja sanelee hinnat ja se johtaa käytännössä monimuotoisuuden heikentymiseen.– Onhan se aika skitsofreenista, että isot firmat julistavat olevansa kiinnostuneita kestävyydestä, mutta samaan aikaan jatkavat hintojen polkemista, sanoo Kuhmonen.Nykyinen suunta ei kestäJos maataloudesta haluaa saada elinkeinon, sitä on tehtävä isosti, tehokkaasti ja erikoistuen.Suuressa mittakaavassa ympäristövaikutukset kasaantuvat tietyille alueille. Lisäksi erikoistuminen yksipuolistaa maatalousympäristöjä.Nykyiset maataloustuet kannustavat viljelijöitä valitsemaan ympäristön ja ilmaston kannalta hyviä toimintatapoja.Se ei kuitenkaan riitä.– Vaikka Suomen kaikki viljelijät tekisivät heiltä odotettuja kestävyystoimia, se ei välttämättä riittäisi negatiivisen kehityssuunnan katkaisemiseen, sanoo Kuhmonen.Koko järjestelmä olisi pantava uusiksi.Se tarkoittaa vakavaa pohdintaa esimerkiksi siitä, mitä ruokajärjestelmässä tarkoittaa fossiilitaloudesta irtaantuminen tai miten typpilannoitteet valmistetaan ilman venäläistä ammoniakkia.Ympäristölle kestävin tapa järjestää ruoantuotanto ei välttämättä ole tehokkain tapa.Kuhmosen mukaan luonnon monimuotoisuuden ylläpito vaatisi monipuolista tuotantorakennetta, ja todennäköisesti nykyistä enemmän pieniä tiloja.Tuotantorakenteen monipuolisuus tarkoittaa sitä, että kaikki alueen maatilat eivät tuottaisi esimerkiksi maitoa, vaan monipuolisesti eri maataloustuotteita.– Nyt mennään kohti vahvaa erikoistumista, vaikka luonnon monimuotoisuuden tukeminen vaatisi päinvastaista suuntaa, hän sanoo.Jos viljelijä saisi päättääJuha Mäkinen pyrkii viljelemään tavoilla, joka vähentävät maatalouden kasvihuonekaasupäästöjä tai varastoivat hiiltä. Sitä sanotaan hiiliviljelyksi.Tilan lehmät laiduntavat keväästä pitkälle syksyyn. Laiduntaminen ylläpitää maatalousympäristön monimuotoisuutta.Videolla kerrotaan miksi pieni maitotila voi olla suurta yksikköä kestävämpi. Video: Isto Janhunen / YleIlmasto- ja ympäristötoimet eivät kuitenkaan näy riittävästi maidosta saatavassa hinnassa.Ruoantuotannon tulevaisuuden kannalta maatalouden kannattavuus on avainasemassa.– Nuoria ei houkutella alalle pitkillä työpäivillä ja huonolla palkalla. Pitää olla myös vapaa-aikaa, sanoo Mäkinen.Jos kannattavuutta ei tarvitsisi miettiä, Pyyahon tila pysyisi pienenä ja sen lehmät laiduntaisivat kuten ennenkin.– Kun jäisi vähän enemmän vapaa-aikaa ja pystyisi työllistämään, niin tämä olisi semmoinen meidän näköinen tila, sanoo Mäkinen.</t>
+          <t>Viime syksynä Etelä-Karjalan käräjäoikeudessa oli käsittelyssä kiivastunnelmainen riita-asia, jossa yhtenä osana oli vedet silmissä naurava hymiö (😂).Riita käsitteli vuokranantajan ja kahden vuokralaisen välistä vuokravakuutta.Vuokranantaja ei halunnut palauttaa vakuutta, koska hänen mielestään vuokralaiset ja heidän koiransa olivat turmelleet asuntoa. Tästä oli aiheutunut hänelle kuluja enemmän kuin vuokravakuuden määrä.Vuokralaiset ja vuokranantaja olivat keskustelleet asunnon kunnosta ja vuokravakuudesta Whatsapp-viesteillä.Kun vuokranantaja oli kysynyt koiran aiheuttamista vaurioista, oli vuokralainen vastannut viestillä, johon oli liittänyt vedet silmissä nauravan nauruhymiön.Käräjäoikeudessa vuokranantaja oli sitä mieltä, että vuokralaiset suhtautuvat vakavaan asiaan vähäpätöisesti, koska olivat käyttäneet nauruhymiötä. Vuokralaisen mielestä nauruhymiön käyttäminen oli vain hänen tapansa kirjoittaa.Kakka-emojiHymiöillä ja emojeilla ei ole selkeää, yleispätevää merkitystä, jonka kaikki tietäisivät.Tiedossa ei ole, että eri oikeusasteissa Suomessa olisi vielä tähän mennessä jouduttu ottamaan kantaa hymiön tai emojin merkitykseen. Itä-Suomen yliopiston oikeustieteiden laitoksen yliopisto-opettaja Jussi Karkkulainen kuitenkin uskoo, että sen aika tulee ehkä hyvinkin pian.– Hymiöitä ja emojeita käytetään todella paljon nykyajan viestinnässä, joka on luonteeltaan pikaista ja hyvin lyhytsanaista. Siksi uskon, että väkisin tällainen viestintä tulee myös tuomioistuimiin todistusaineistoksi ja emojeita tullaan tulkitsemaan myös tuomioistuimissa.Avaa kuvien katseluWhatsapp-viestit voivat täyttyä emojeista ja hymiöistä. Kuvassa esimerkkinä toimittajan keksimä kuvitteellinen keskustelu.  Kuva: Petri Kivimäki / YleTyypillinen tapaus, jossa oikeus voisi joutua tulkitsemaan emojin tai hymiön merkitystä, on kunnianloukkaus.– Henkilölle on lähetetty loukkaava viesti, jossa on haukuttu henkilöä haukkumasanalla ja sen yhteydessä käytetty esimerkiksi kakka-emojia. Tällainen kakka-emoji voi korostaa viestin loukkaamistarkoitusta ja muodostaa viestin sävystä halventavan, kertoo Karkkulainen.Karkkulainen muistuttaa, että kakka-emoji (💩) sellaisenaan ei aina ole halventava, koska sitä voi käyttää myös positiivisessa sävyssä.– Kakka-emojilla ei siis ole sellaista yleistä merkitystä, että viestin vastaanottaja olisi kakka.Kuuntele tästä minuutin haastattelusta tarkemmin, mitä oikeustieteilijä ajattelee kakka-emojista.Miten kakka-emoji vaikuttaa viestin sisältöön?Sanat ja emojit merkitsevätOikeus joutuu esimerkiksi riitatilanteiden ratkaisuissa tulkitsemaan sanojen merkityksiä, jotta kaikilla osapuolilla olisi selvä käsitys siitä, mihin tuomio perustuu.Pikaviestipalvelussa vastaus voi kuitenkin olla pelkkä emoji.– Esimerkiksi vedet silmissä naurava hymiö (😂) antaa tietynlaisen sävyn, mutta se ei yksiselitteisesti kerro mitään hymiön käyttäjän suhtautumisesta asiaan.Avaa kuvien katseluSydänhymiön voi joku kokea rakkauden osoituksena, mutta joku toinen taas ahdistavana tunkeiluna.  Kuva: Marjut Suomi / Yle, grafiikka: Tommi Pylkkö / YleJussi Karkkulaisen mukaan sekä hymiö että emoji ovat molemmat yhtä merkityksellisiä viestin osia. Viesti voi koostua useista osista, esimerkiksi sanoista ja emojeista.– Hymiö tai emoji muodostaa aina yhden osan esimerkiksi pikaviestipalvelussa lähetetystä viestistä. Näin ollen ne tulisi ottaa huomioon samalla tavalla kuin sanat silloin, kun oikeus arvioi jonkin lausuman merkitystä.Jussi Karkkulaisen mielestä pelkästään hymiön käyttö ei voi olla ratkaiseva seikka oikeustapauksessa.– Hymiöt ja emojit ovat tulkinnanvaraisia, eikä niille ole vakiintunutta yleispätevää merkityssisältöä.Oikeus ei Jussi Karkkulaisen mukaan perusta tuomiota sille, miten joku yksittäinen henkilö asiasta ajattelee tai mikä merkitys esimerkiksi jollain emojilla on yksittäisen henkilön mielestä. Sen sijaan oikeudessa tuomioistuin pyrkii objektiivisesti arvioimaan viestin sisältöä ja löytämään sille yleisen merkityksen.Harkintaa hymiöiden kanssaJos ihmisillä on jokin ristiriitatilanne, suosittaa Jussi Karkkulainen olemaan varovainen hymiöiden käytössä. Varsinkin jos tilanne on niin vakava, että osapuolet kenties joskus joutuvat puimaan asiaa oikeudessa.– Hymiöt vaikuttavat vastaanottajalle lähetettävän viestin sisältöön. Suosittelen harkitsemaan, mitä hymiötä siinä käyttää. Hymiöllä voi vaikuttaa joko positiivisesti tai negatiivisesti siihen kuvaan, jonka itsestään ja käsiteltävästä asiasta viestissä antaa.Saako oikeussalissa solvata? Kysymykseen vastaa Itä-Suomen yliopiston oikeustieteen laitoksen yliopisto-opettaja Jussi Karkkulainen.Saako oikeussalissa solvata?Jutun alussa kerrotussa Etelä-Karjalan käräjäoikeuden tapauksessa hymiöt eivät vaikuttaneet asian tuomioon. Käräjäoikeus ei tuomiossaan mainitse niitä lainkaan.Vuokranantaja joutui palauttamaan vuokravakuuden vuokralaisille lähes kokonaan. Oikeus myös hylkäsi muut vuokranantajan vaatimukset.Vuokranantaja valitti tuomiosta Itä-Suomen hovioikeuteen, mutta se ei antanut valituslupaa, joten käräjäoikeuden tuomio jäi voimaan.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ex-suurlä­het­tiläs: Länsimailla muutaman kuukauden aikaikkuna paikata Ukrainan akuutti ammuspula</t>
+          <t>Taajamatulvat ovat mahdollisia alkuviikosta</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20076035</t>
+          <t>https://yle.fi/a/74-20076315</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>22.02.2024</t>
+          <t>25.02.2024</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1928,32 +1928,32 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Venäjän hyökkäyssota Ukrainassa on jatkunut jo pian kaksi vuotta. Asiantuntijat keskustelivat A-Talkissa Ukrainan tukemisesta ennen Venäjän mahdollista suurhyökkäystä koko Itä-Ukrainan valloittamiseksi.</t>
+          <t>Tulvavaroitus on annettu tälle päivälle Uudellemaalle, Kymenlaaksoon sekä Etelä-Karjalaan sateen ja lumien sulamisen vuoksi. Lähetä meille oman ajoreittisi tulvakuva.</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Entisen Moskovan-suurlähettilään Hannu Himasen mukaan länsimailla on vain muutaman kuukauden aikaikkuna paikata Ukrainan akuutti ammuspula ennen Venäjän mahdollista suurhyökkäystä Ukrainaan.Venäjän arvellaan suunnittelevan suurhyökkäystä koko Itä-Ukrainan valloittamiseksi. A-Talkissa asiantuntijat arvioivat hyökkäyksen mahdolliseksi ajankohdaksi loppukevään tai alkukesän.– Tšekki ja Tanska ovat tehneet töitä yhdessä ja ne ovat löytäneet maailmanmarkkinoilta 800 000 tykistöammusta, jotka ovat ostettavissa heti. Suuri osa näistä on muualta kuin Naton jäsenmaista. Tässä olisi keino toimia nopeasti, Himanen sanooHimasen mukaan Tšekin ja Tanskan suunnitelmalla saataisiin ostettua aikaa sille, että Euroopan oma ammustuotanto saataisiin jaloilleen.Euroopan unionin ammustoimitukset Ukrainaan ovat laahanneet jäljessä tavoitteestaan. EU on Viron aloitteesta luvannut toimittaa Ukrainaan miljoona raskasta tykistöammusta ensi kevääseen mennessä.Himasen mukaan Tšekin ja Tanskan suunnitelma jakaa EU-maita.– EU:lla olisi rahaa, mutta joukko tärkeitä EU-maita on sitä mieltä, että pitää tukea omaa puolustusteollisuutta, eikä ostaa EU:n ulkopuolelta mitään.Puolustusministeri Antti Häkkäsen (kok.) mukaan tilanne EU:n puolustusteollisuudella on parempi kuin ennen.– Talven aikana on ollut parempia merkkejä. Olemme viisinkertaistaneet kokonaisuudessaan meidän tuotantomäärät sotaa edeltävään aikaan nähden. Uskon, että tämä on saanut liikkeelle myös monet muut EU-maat.Häkkäsen mukaan EU tulee näin ollen sittenkin saavuttamaan tai jopa ylittämään tavoitteensa toimittaa Ukrainalle miljoona tykinammusta.”Euroopalla peiliin katsomisen paikka”Sekä Himanen että Häkkänen ovat yhtä mieltä siitä, että Euroopalla on peiliin katsomisen paikka.– Poliittinen dynamiikka on ollut sellainen, että on luotettu Yhdysvaltain johtoasemaan Ukrainan tukemisessa. Nyt kun se on hukassa, niin katsotaan olan yli, että mitä tässä voisi tehdä, Himanen arvioi.Yhdysvalloissa asetukipaketti Ukrainalle on jumiutunut maan kongressiin. Keskiviikon A-studiossa arvioitiin, että jumi saattaisi kestää ensi marraskuun presidentinvaaleihin asti.Myös Häkkäsen mukaan Euroopassa on alisuoriuduttu Ukrainan tukemisessa.– On annettu liian vähän ja liian hitaasti. Meidän pitää voida osoittaa kaikille maailman autoritäärisille johtajille, että demokraattiset maat kykenevät mobilisoimaan tällaista hirmuhallintoa vastaan riittävän tuen. Nyt on selvästi alisuoriuduttu.Tästä on kyseVenäjän hyökkäyssodan alkamisesta Ukrainassa tulee lauantaina kuluneeksi kaksi vuotta.Ukraina joutui tällä viikolla vetäytymään Avdijivkan kaupungista ja Venäjän uskotaan suunnittelevan suurhyökkäystä koko Itä-Ukrainan valloittamiseksi.Tuore kysely osoittaa, että enää vain harva eurooppalainen uskoo Ukrainan voittoon.Yhdysvaltain asetukipaketti Ukrainalle on jumiutunut maan kongressiin.EU ja Britannia ovat hiljattain ilmoittaneet uusista Venäjä-pakotteista.AvaaKatso koko A-Talk Yle Areenasta.</t>
+          <t>Uudellamaalla sulamis- ja sadevesiä on noussut teille pääkaupunkia myöten.Viikonlopun voimakkaimmat sateet ajoittuivat lauantaille. Eniten vettä on tullut Uudeltamaalta Etelä-Karjalaan ulottuvalla alueella. Uudellamaalla ja Kymenlaaksossa vettä on satanut jopa yli 15 millimetriä.Suomen ympäristökeskuksen (Syke) mukaan sateet ja lumen sulaminen voivat aiheuttaa hulevesitulvia lumen ja jään tukkiessa viemäreitä Etelä-Karjalassa, Uudellamaalla ja Kymenlaaksossa.Avaa kuvien katseluVesi roiskuu ajoteillä eri puolilla Etelä-Suomea. Kuva: Mikko Koski / YleVesi voi lentää hiihtolomalaisten reiteilläEteläisen Suomen hiihtoloman paluuliikenne ajoittuu pääosin sunnuntaille.Ylen meteorologi Elias Paakkasen mukaan sää ei paluuliikenteen kannalta ole kovin huono. Sateita tulee vain harvakseltaan, ja sademäärät ovat melko vähäisiä. Tienpinnatkin ovat pääosin plusasteiden puolella päiväsaikaan, joten kovin liukasta ei pitäisi olla.– Suurimmat sateet tulivat jo lauantaina. Lounaasta kulkee rintama kohti koillista, joten hajanaisia sateita voi tulla eri puolilla maata, kommentoi Paakkanen.Vaikka ajokelivaroituksia ei olekaan voimassa, tarkkana saa liikenteessä silti olla. Etenkin Etelä-Suomessa voi olla paikoin syviäkin lätäköitä tiellä, joten sopivan hiljainen tilannenopeus on liikenteessä paikallaan.Avaa kuvien katseluSulamisvedet tulvivat kadulle Mikkelissä kuluneella viikolla. Mikkelin keskustassa lainehti kaduilla myös viikonloppuna. Kuva: Maria Bonnor / YleTulvakausi alkamassa etelässä ja kaakossaSuomen ympäristökeskuksen mukaan tulvakausi on alkamassa Etelä- ja Lounais-Suomessa.Tulvavaroitus on annettu tälle päivälle Uudellemaalle, Kymenlaaksoon sekä Etelä-Karjalaan. Tulvatilanne helpottaa alkuviikosta sään viilenemisen vuoksi.Tuoreen ennusteen mukaan kevättulvat tulevat tänä vuonna useissa vaiheissa, ja virtaamat kasvavat uudelleen myöhemmin keväällä.Syken tutkija Harri Myllyniemi arvioi, että lähipäivinä kaduille noussut tai valunut vesi haittaa erityisesti taajamissa.Kevään tulvasesonki käynnistyy Etelä- ja Lounais-SuomessaKuuntele Suomen ympäristökeskuksen tutkija Harri Myllyniemien haastattelu. Haastattelijana on Clarissa Jäärni.Avaa kuvien katseluVesilammikoita kauppakeskus Triplan edustalla Pasilassa Helsingissä. Kuva: Otso Karhu / YleLähetä oman ajoreittisi tulvakuva toimitukseemme sähköpostitse helsinki@yle.fi.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Navalnyin äiti näki viimein poikansa ruumiin – viranomaiset kiristävät salaisiin hautajaisiin</t>
+          <t>Tällainen on Dyynin odotettu jatko-osa</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20076038</t>
+          <t>https://yle.fi/a/74-20076095</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>22.02.2024</t>
+          <t>27.02.2024</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1963,27 +1963,27 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Perjantaina kuolleen Aleksei Navalnyin tiedottaja Kira Jarmyš kertoo, että oppositiojohtajan äidille näytetyn kuolintodistuksen mukaan Navalnyi kuoli ”luonnollisesti”.</t>
+          <t>Vuoden 2021 Dyyni menestyi sen verran hyvin, että studio näytti vihreää valoa eeppisen tarinan toiselle puoliskolle. Jatko-osasta povataan paljon isompaa hittiä.</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Venäjällä viime perjantaina kuolleen oppositiojohtaja Aleksei Navalnyin äiti Ljudmila Navalnaja sanoo nähneensä viimein poikansa ruumiin. Navalnyin tiedottaja Kira Jarmyš on jakanut yhteisöpalvelu X:ssä Youtube-videon, jolla Navalnaja kertoo asiasta.Navalnaja kertoo päässeensä poikansa ruumiin luo Salehardissa Luoteis-Siperiassa sijaitsevalla ruumishuoneella.– Eilen illalla he veivät minut salaisesti ruumishuoneelle, missä he näyttivät Aleksein minulle, Navalnaja kertoo videolla.Navalnajan mukaan Venäjän viranomaiset eivät suostu luovuttamaan Navalnyin ruumista. Viranomaiset vaativat Kremlin käskystä Navalnajan mukaan yksityisiä, salaisia hautajaisia. Navalnaja kertoo myös, että viranomaiset vaativat saavansa päättää missä, milloin ja miten Navalnyi haudataan.– He haluavat, että tämä hoidetaan salaisesti ilman hyvästejä. He haluavat viedä minut hautausmaan laidalle tuoreelle haudalle ja sanoa: tässä makaa poikasi. En suostu tähän, Navalnaja sanoo.Navalnaja sanoo, että kuolemansyytutkijat uhkaavat tekevänsä jotain hänen poikansa ruumiille, mikäli hän ei suostu hautajaisten ehtoihin.Kyseiset viranomaiset eivät vastanneet uutistoimisto Reutersin kommenttipyyntöön.Navalnyi kuoli viime viikolla vankilassa Siperiassa 47-vuotiaana. Jarmyš kertoo erillisessä X-julkaisussa, että Navalnajalle näytetyn kuolintodistuksen mukaan Navalnyi kuoli ”luonnollisesti”.Jarmyš on sanonut uskovansa, että Venäjän hallinto pyrkii ruumista panttaamalla piilottelemaan Navalnyin kuolinsyytä. Esimerkiksi Jarmyš ja Navalnyin vaimo Julija Navalnaja ovat sanoneet, että Navalnyi murhattiin.Navalnyin vankilaolojen on kerrottu olleen erittäin rankat.Lähteet: Reuters, AFP</t>
+          <t>Paul Atreidesin tarina jatkuu keskiviikkona 28. helmikuuta, kun odotettu Dyyni: Osa kaksi saa ensi-iltansa.Elokuvan piti saada ensi-iltansa jo syksyllä 2023, mutta Hollywoodin näyttelijöiden lakko muutti suunnitelmia. Tähdet eivät olisi päässeet lakon vuoksi markkinoimaan elokuvaa.Tähtien rooli on uuden Dyynin kohdalla valtava. Timothée Chalamet'n, Zendayan, Javier Bardemin ja Dave Bautistan rinnalle on tuotu muun muassa Florence Pugh, Christopher Walken ja Léa Seydoux.Yle näki ennakkoon elokuvan, joka maksoi arvioiden mukaan 175 miljoonaa euroa ja josta odotetaan nyt paitsi orastavan elokuvasarjan niin myös Hollywoodin pelastajaa.Avaa kuvien katseluFlorence Pugh näyttelee Galaktisen imperiumin keisarin tytärtä prinsessa Irulania. Kuva: Warner Bros. PicturesMassiivinen möhkäleFrank Herbertin kaukaiseen tulevaisuuteen sijoittuva Dyyni-romaani käsittelee uskontoa, politiikkaa ja valtaa aavikkoplaneetta Arrakisilla.Sykkyräistä ja monimutkaista romaania on pidetty vaikeasti filmattavana. Alejandro Jodorowsky ei saanut omaa massiivista versiotaan valmiiksi, ja David Lynch epäonnistui ahtaessaan koko kirjan kaksituntiseen elokuvaan.Avaa kuvien katseluDavid Lynchin Dyynissä (1984) nähtiin muun muassa Kyle MacLachlan (vas.), Patrick Stewart ja Sting.Ohjaaja Denis Villeneuve (Arrival, Blade Runner 2049) ja käsikirjoittajakumppanit Jon Spaiths sekä Eric Roth ovat tehneet fiksusti jakaessaan tarinan kahteen 2,5-tuntiseen elokuvaan. Möhkäle on valtava, mutta asioita on kiteytetty ja niille on annettu tilaa hengittää, jolloin tarina pysyy seurattavana.Vuoden 2021 Dyyni kertoi ensimmäisen romaanin tarinasta puolet.Elokuvan alussa Galaktisen imperiumin herttua Leto Atreidesin (Oscar Isaac) suku saapuu johtamaan Arrakisia. Planeetalta löytyvä maailman arvokkain mineraali ”rohto” pidentää ikää, laajentaa tajuntaa ja mahdollistaa tähtien välisen navigoinnin.Julma paroni Vladimir Harkonnen (Stellan Skarsgård) hyökkää planeetalle, ja Atreidesin huoneen uskotaan sammuneen. Suvun vesa Paul Atreides (Chalamet) ehtii kuitenkin paeta äitinsä Lady Jessican (Rebecca Ferguson) kanssa ja lyöttäytyä yhteen aavikkokansa fremenien kanssa. Heidän joukossaan on nuori Chani (Zendaya), josta Atreides on nähnyt unia pitkään ennen tämän tapaamista.Avaa kuvien katseluChani (Zendaya, oik.) opettaa Paul Atreidesille (Chalamet) aavikkokansan tapoja. Kuva: © 2023 Warner Bros. Entertainment Inc. All Rights Reserved.Fremenien keskuudessa on kuiskittu vuosisatojen ajan messiaasta, ja tätä viittaa sovitetaan Dyyni: Osa kahdessa Paulin harteille. Helpointa olisi ottaa vastaan pedattu paikka hallitsijasuvun jatkona ja fremenien johtajana, mutta onko polku hänen omansa – tai moraalisesti oikea?Dyyni: Osa kahdessa tuntuu olevan enemmän hahmoja ja juonta. Kestoakin on piirun verran enemmän, kaksi tuntia 46 minuuttia.Silti elokuva rullaa hyvin eteenpäin.Rauhallinen ja komea elokuvaDyyni: Toinen osa tuo näyttämölle galaksia johtavan keisarin (Walken) ja tämän tyttären (Pugh) sekä paroni Harkonnenin veljenpojan, äitinsä surmanneen psykopaattiteinin Feyd-Rauthan (Elvis-elokuvan nimiroolista tuttu Austin Butler, jonka puhetavassa on yhä ripaus rockin kuningasta).Osa uusista hahmoista jää pieneen rooliin. Léa Seydoux'n näyttelemä sisarkuntalainen on valkokankaalla muutaman kohtauksen verran, Anya Taylor-Joy joitain sekunteja.Paul tutustuu fremen-kulttuuriin, rakastuu Chaniin ja punoo kostoa ykkösosan lopun tapahtumista. Lopussa häämöttää kohtaaminen Feyd-Rauthan ja keisarin kanssa.Avaa kuvien katseluAustin Butler ja Léa Seydoux liittyivät Dyyni-elokuvien näyttelijäkatraaseen. Kuva: Warner Bros. PicturesEnsimmäinen Dyyni hyppi jatkuvasti paikasta ja kohtauksesta toiseen, kun taas jatko-osa rytmittyy pitkien jaksojen varaan. Paulin ja Lady Jessican sulautumista osaksi fremenejä kuvataan huolella. Uusia hahmoja säästetään viisaasti toiseen ja kolmanteen näytökseen.Visuaalisesti elokuva on vielä edeltäjäänsäkin komeampi. Selkeästi ohjatut toimintajaksot ovat hyytäviä, painostavia ja viihdyttäviä. Kuvaaja Greig Fraser osaa rakentaa ikonisia kuvia ja Hans Zimmerin rikas, matalilla taajuuksilla pelaava musiikki tuo kohtauksiin painavuutta.Oscar-ehdokkuuksia voi ennustaa ainakin teknisistä osa-alueista. Niiden kannalta on tekijöiden onni, että ensi-ilta lykkääntyi tähän vuoteen. Muuten Dyyni kun olisi kilpaillut kategorioissa Oppenheimeria vastaan.Odotukset ovat korkealla muutenkin, koska kulunut vuosi on ollut Hollywoodille surkea.Hollywoodin pelastajaElokuva-alan maailmanlaajuiset lipputulot laahasivat alkuvuodesta kaukana pandemiaa edeltäneistä vuosista. Argyllen sekä Madame Webin kaltaiset Hollywood-elokuvat ovat flopanneet. Tulossa on viime vuoden lakkojen vuoksi tavallista vähemmän varmoja hittielokuvia.Dyyni: Osa kahden harteilla on paljon. Siitä odotetaan alan pelastajaa melkein samanlaisella hartaudella kuin fremenit toivovat Paul Atreidesista heidän messiastaan.Syitä optimismiin on. Ensimmäinen Dyyni tuotti 150 miljoonan euron budjetillaan yli 370 miljoonaa euroa, vaikka koronapandemia hankaloitti vielä elokuvissa käyntiä. Tulos oli sen verran hyvä, että studio näytti vihreää valoa kakkososalle.Kauas jäätiin toki Spider-Man: No Way Homen 1,7 miljardista eurosta, mutta Dyyni olikin ”aikuisten sci-fiä”. Elokuva myös julkaistiin samanaikaisesti suoratoistopalvelu HBO Maxissa, mikä todennäköisesti söi lipputuloja.Avaa kuvien katseluPaul Atreides (Chalamet) ja Feyd-Rautha Harkonnen (Butler) kohtaavat. Kuva: Warner Bros. PicturesKriitikot ja yleisö pitivät Dyynistä, mikä lisää odotuksia jatko-osan menestyksen suhteen. Ennusteissa Dyynin toiselle osalle povataan yli 60 miljoonan euron avausviikonloppua. Se olisi melkein tuplasti ykkösosan avaustulos.Hollywoodin lisäksi hittiä toivovat myös Herbertin kirjasarjan fanit. Villeneuvella on valmiina suunnitelmat kolmososaan, jota Dyyni: Osa kaksi myös lopussaan petaa.Kolmas osa perustuisi Dyynin messias -romaaniin. Kaikkiaan Herbert ehti kirjoittaa romaanilleen viisi jatko-osaa, minkä jälkeen hänen poikansa Brian jatkoi sarjaa Kevin J. Andersonin kanssa kahden romaanin verran.Mikäli kysyntää riittää, voidaan Dyyni-elokuvia siis nähdä vaikka tusinan verran.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Japanissa tuhannet ottivat osaa ”naku­fes­ti­vaaliin”</t>
+          <t>Veera ja Oona Kauppi rakentamassa hurjaa nousua – Thorengruppen dramaat­tisesti Ruotsin cup-mestariksi</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20076343</t>
+          <t>https://yle.fi/a/74-20076346</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1998,32 +1998,32 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Naisten osallistumista juhlaan ei ole erikseen kielletty, mutta konservatiivisessa Japanissa naisen osallistumista nakufestivaalin ei ole perinteisesti pidetty sopivana.</t>
+          <t>Veera ja Oona Kaupin Thorengruppen nousi kaukaa takaa voittoon Ruotsin cup-finaalissa. Kaupin sisarukset olivat isossa roolissa, kun Thorengruppen pääsi juhlimaan kotikentällään.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hadaka Matsuri -juhlaa on vietetty Japanissa jo ainakin 1 250 vuotta, mutta vasta tänä vuonna tuhannet naiset osallistuivat juhlaan täysvaltaisina jäseninä, uutisoi Britannian yleisradioyhtiö BBC.Hadaka Matsurin perinteeseen kuuluu juhlakulkue ja niin sanottu nakufestivaali, jonka aikana osallistujat liikkuvat katuja pitkin lähes alastomina.Harvemmin japanilaiset kulkevat kaduilla täysin alasti. Useimmilla osallistujilla oli tänäkin vuonna päällään lanneliina, joka peitti sukupuolielimet.Naisten osallistumista juhlaan ei ole erikseen kielletty, mutta konservatiivisessa Japanissa naisen osallistumista nakufestivaaliin ei ole perinteisesti pidetty sopivana.Nyt tilanne on muuttumassa. Tänä vuonna tuhannet naiset marssivat Hadaka Matsuri -juhlan kulkueessa valkoisin shortseihin ja liiloihin kaapuihin pukeutuneena.Lähde: Reuters</t>
+          <t>Veera ja Oona Kauppi pääsivät juhlimaan Ruotsissa salibandyn cup-mestaruutta sunnuntaina. Kaupin sisarusten Thorengruppen nousi 2–6 -tappioasemasta 7–6-voittoon Pixbota vastaan Uumajassa 2000 katsojan edessä.Veera Kauppi iski tehot 1+4 ja oli syöttämässä kolme viimeistä maalia. Oona Kauppi teki Thorengruppenille hattutempun.Ennen finaalia Thorengruppen oli voittanut kaikki 20 otteluaan Ruotsin Superliigassa.– Meillä on uskomattoman suuri voittajamentaliteetti ja todella paljon tahtoa, voittomaalin tehnyt Jonna Stenvall hehkutti SVT:n mukaan.Stenvall iski voittomaalin ajassa 56.46. Hän kiitteli voittomaalista Veera Kauppia.– En ole ollut voittomaalin tekijä, mutta Veera Kauppi laittoi minulle aika hienon syötön, Stenvall sanoi.Oona Kauppi oli myös nousun arkkitehtejä. Hän teki Stenvallia ennen kaksi maalia päätöserässä. Kauppi teki maalit 5–6 ja 6–6 vain 31 sekunnin sisään päätöserän puolivälissä.Loppusummerin jälkeen Thorengruppenin fanit ryntäsivät kentälle juhlimaan cup-mestaruutta. Thorengruppenin valmentaja Daniel Jernberg kertoi, että finaalin pelaaminen kotikentällä oli erityistä.– Uskomattoman hauskaa. Niin harvalla on mahdollisuus siihen, Jernberg kuvaili Ruotsin salibandyliiton sivuilla.– Etenkin nyt (on hauskaa), kun on niin paljon ihmisiä ja tässä tunnelmassa pystyimmme kääntämään peliin. Olisin tuntenut oloni erilaiseksi, jos olisimme hävinneet, mutta siitä huolimatta oli upeaa pelata.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Yhdysvaltain ja Venäjän presidentit sanasodassa – Putin vinoili Bidenin huoranpenikka-lausunnolle</t>
+          <t>Tutkijat keksivät, miten nuoret saa kiinnostumaan somen riskeistä – testaa itse, ymmärrätkö somen logiikkaa</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20076050</t>
+          <t>https://yle.fi/a/74-20075569</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>22.02.2024</t>
+          <t>23.02.2024</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2033,32 +2033,32 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Putin sanoi, ettei Biden sisäpoliittisista syistä voi kutsua häntä hyväksi mieheksi.</t>
+          <t>Uusi sovellus tekee näkyväksi sosiaalisen median toimintaperiaatteita. Niin kutsuttua Somekonetta testataan nyt opetuskäytössä.</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Yhdysvaltain presidentti Joe Biden kutsui eilen keskiviikkona presidentinvaalien varainkeruutilaisuudessa San Franciscossa Venäjän presidentti Vladimir Putinia hulluksi huoranpenikaksi. Biden käytti luonnehdintaa puhuessaan ilmastokriisistä.– Meillä on hullu huoranpenikka, kuten Putin sekä muita, ja meidän on aina oltava huolissamme ydinasekonfliktista, mutta ihmiskunnan eksistentiaalinen uhka on ilmasto, Biden sanoi.Kremlin tiedottaja Dmitri Peskov kommentoi torstaina lausuntoa häpeälliseksi Yhdysvalloille ja Bidenille itselleen. Hän arveli Bidenin tavoitelleen puheellaan hollywoodilaista cowboy-käytöstyyliä kotimaisten poliittisten etujensa takia.Putin ei kuitenkaan lähtenyt samoille linjoille, kun venäläinen toimittaja Pavel Zarubin kysyi häneltä reaktiota Bidenin lausuntoon.– Yhdysvaltain presidentti Biden on jälleen puhunut teistä karkeasti, Zarubin sanoi uutistoimisto Reutersin välittämässä haastattelussa.– Karkeasti?– Niin, karkeasti. En haluaisi lainata häntä, mutta hän on Yhdysvaltain presidentti. Hän kutsui teitä hulluksi huoranpenikaksi. Te ette ole koskaan sanoneet mitään lähellekään samanlaista kenestäkään tai sanoneet mitään epäsopivaa kenestäkään. Tuleeko vastauksenne olemaan samanlainen?– Kuule, mehän juttelimme vähän aikaa sitten. Sinä kysyit, kenet mieluiten näkisin Yhdysvaltain tulevana presidenttinä. Minä sanoin, että voisimme työskennellä kenen presidentin kanssa tahansa. Mutta luulen, että meille, Venäjälle, Biden on parempi. Päätellen tuosta, mitä juuri sanoit, olin aivan oikeassa. Koska se oli aivan sopiva reaktio siihen, mitä olin sanonut. Miksi? Siksi, että ei hän voi sanoa: ”Volodja, olet hyvä mies. Olet auttanut minua paljon.”, Putin vastasi.– Me ymmärrämme, mitä Yhdysvaltain politiikassa tapahtuu. Ja tuo reaktio oli täysin sopiva. Se tarkoittaa, että olin oikeassa. Se mitä sanoin, oli tarkoitettu ennen kaikkea meidän yleisöllemme, eikä amerikkalaisille. Sinähän olet kuitenkin venäläinen toimittaja. Ja sinä kysyit, kumpi olisi parempi meille. Joten kerroin sen sinulle ja toistan sen nyt: Biden on parempi.Putin kommentoi viikko sitten ensimmäisen kerran, että Biden olisi parempi vaihtoehto Yhdysvaltojen tulevaksi presidentiksi kuin republikaanien presidenttiehdokkuutta tavoitteleva Donald Trump.– Biden on kokeneempi. Hän on ennustettava, vanhan koulukunnan poliitikko, Putin sanoi Zarubinille, kun tämä kysyi asiasta.Lähteet Reuters, STT</t>
+          <t>Sosiaalisesta mediasta on tullut vahva vaikuttamisen väline, ja siksi jokaisen pitäisi ymmärtää siitä muutakin kuin peruskäyttö.Ymmärryksen lisäämiseksi suomalaistutkijat ovat kehittäneet työkalun, joka tekee näkyväksi somen toimintaperiaatteita. Sovellus kantaa nimeä Somekone.– Kun ymmärtää datan keruun laajuuden ja sen miten palvelut profiloivat käyttäjiä, pystyy ymmärtämään, miten meihin vaikutetaan, Itä-Suomen yliopiston tietojenkäsittelytieteen professori Matti Tedre sanoo.Hän on yksi Somekoneen kehittäjistä. Itä-Suomen yliopiston lisäksi mukana on tutkijoita Helsingin ja Oulun yliopistoista.Somekoneen tarkoitus on paikata someen liittyviä aukkoja ymmärryksessä. Tämän jutun lopussa voit itse testata, kuinka hyvin ymmärrät somen toimintaperiaatteita.Avaa kuvien katseluSomekone seuraa, kuinka monta sekuntia oppilaat katsovat yhtä kuvaa. Myös kaupalliset somealustat tekevät päätelmiä sisällön kiinnostavuudesta silmänliikkeiden perusteella. Kuva: Lucas Holm / YleSomekone muistuttaa InstagramiaSomekonetta testataan parhaillaan kouluissa viides- ja kahdeksasluokkalaisilla.Oppilaat selaavat ensin Somekoneeseen syötettyä kuvavirtaa. He voivat tykätä kuvista, jakaa niitä kavereille ja ryhtyä leikisti seuraamaan kuvan julkaisijaa.Sen jälkeen Somekone näyttää, mitä kaikkea tietoa oppilas on jättänyt jälkeensä, millainen profiili hänestä on luotu ja millaisia suosituksia hän jatkossa saa.Lopuksi Somekone näyttää, millainen sosiaalinen verkosto koululuokasta muodostuu eli millaisiin kupliin oppilaat jakautuvat.– Oppilaat näkevät, miten samankaltaiset profiilit hakeutuvat pikkuhiljaa toistensa seuraan, Tedre kertoo.Avaa kuvien katseluSomekone toimii sekä läppärillä että puhelimella. Tutkijoiden tavoitteena on kehittää sovelluksesta niin helppokäyttöinen, että sitä pystytään hyödyntämään kaikissa kouluissa. Kuva: Lucas Holm / YleKerätyn tiedon määrä yllätti oppilaatJoensuulaisen Uimaharjun koulun kasiluokkalaiset yllättyivät oppitunnilla eniten siitä, miten tarkasti Somekone havaitsee jokaisen pienen liikkeen.– Aika ihmeellistä, että se pystyy keräämään tietoa niin nopeasti. Ja vaikka kuvia oli vähän, niin silti se osasi heti tarjota niitä, joista tykkään, Lassi Räty kertoo.Somekoneen kuvavirta muodostuu lasten ja nuorten kuvapankista valitsemista kuvista.Tiktokiin, Instagramiin ja muihin kaupallisiin somelustoihin verrattuna Somekone on karvalakkimalli.– Nykyaikaiset somealustat keräävät paljon enemmän dataa. Ne myös pystyvät yhdistelmään paljon monipuolisemmin eri lähteistä tulevaa tietoa. Perusperiaatteet ovat kuitenkin samat, Tedre sanoo.Somen kolme toimintamekanismiaDatankeruu: Alustat keräävät käyttäjistään ja heidän toiminnastaan mahdollisimman paljon tietoa.Profilointi: Alustat rakentavat keräämänsä tiedon pohjalta profiilin, joka kertoo, mistä käyttäjä on kiinnostunut.Suosittelu: Profiilin perusteella käyttäjälle tarjotaan häntä kiinnostavaa sisältöä ja kohdennettua mainontaa.AvaaOma versio aikuisilleSomekone on vielä kehitysvaiheessa. Tutkijoiden tavoitteena on, että sovellus voisi olla tulevaisuudessa käytössä kaikissa kouluissa ja mahdollisesti kodeissakin.– Meillä on aikeissa miettiä, miten Somekoneesta saisi version, jota aikuiset voisivat käyttää, Matti Tedre sanoo.Avaa kuvien katseluTutkijatohtori Juho Kahila Itä-Suomen yliopistosta antaa Uimaharjun koulun kasiluokkalaisille tehtäviä, joihin oppilaat vastaavat Somekoneen avulla. Kuva: Lucas Holm / YleTedren mukaan jokaisen, joka käyttää somea, pitäisi ymmärtää ainakin yksi asia.– Somealustojen tarkoitus ei ole tuoda iloa tai näyttää kivaa sisältöä. Niiden tarkoitus on koukuttaa sinut niin, että vietät alustalla mahdollisimman paljon aikaa sen sijaan, että tekisit jotain muuta.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Valko-Venäjän valtiojohto väittää Naton ja Euroopan valmistelevan sotatoimia maataan vastaan</t>
+          <t>Samuli Tamminen osti rajattoman kuunte­luoi­keuden äänikirjoihin – peruttiin liiallisen kuuntelun vuoksi</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20076039</t>
+          <t>https://yle.fi/a/74-20075744</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>22.02.2024</t>
+          <t>25.02.2024</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2068,32 +2068,32 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Valko-Venäjän valtiojohdon lausuntojen tarkoituksena on luoda Lukašenkasta mielikuva, jonka mukaan hän on maalleen rauhan edellytys, sanoo Ulkopoliittisen instituutin ohjelmajohtaja Arkady Moshes.</t>
+          <t>Kuluttajariitalautakunnan mukaan Nextory-tilauksen rajoittamisessa on kyse sopimusrikkomuksesta.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Valko-Venäjän valtiojohto väittää, että länsimaat suunnittelevat sotilaallisia toimia Valko-Venäjää vastaan. Asiasta kertoo maan puolustusministeri Viktor Hrenin Valko-Venäjän valtiollisen uutistoimisto Beltan mukaan.– Näemme, että Länsi-Eurooppa on Yhdysvaltojen johdolla ryhtynyt toimenpiteisiin valmistautuakseen sotilaalliseen toimintaan. Ymmärrämme, keitä vastaan nämä toimet tullaan kohdistamaan, Hrenin sanoo.Hrenin väittää lisäksi, että sotilasliitto Nato aikoo ”sotaharjoituksen varjolla” perustaa nopean toiminnan joukkoja ja sijoittaa ne lähelle Valko-Venäjän rajaa.Natolla on tällä hetkellä käynnissä Steadfast Defender 2024 -harjoitus, joka on Naton ylimmän sotilaskomentajan Chris Cavolin mukaan liittouman suurin harjoitus vuosikymmeniin. Harjoituksessa Nato-maat testaavat sotilasliiton valmiutta torjua Nato-maahan hyökänneitä Venäjän joukkoja, Financial Times kirjoittaa.Myös Valko-Venäjän itsevaltainen johtaja Aljaksandr Lukašenka kertoo olevansa huolissaan Naton toimista Valko-Venäjän ja Venäjän rajoilla.Avaa kuvien katseluVenäjän puolustusministeri Sergei Šoigu (vasemmalla), Valko-Venäjän puolustusministeri Viktor Hrenin ja Lukašenka tapasivat Minskissä 3. helmikuuta 2022. Kuva: Maxim Guchek / BelTA / TASS / AOPLukašenka väittää, että maiden rajojen välittömässä läheisyydessä on tällä hetkellä noin 32 000 Naton ja Yhdysvaltain sotilasta. Lukašenkan lausunnoista kertoo hänen hallintonsa alaisuudessa ja viestipalvelu Telegramissa toimiva Pul Pervogo -propagandakanava.– Kollektiivisen lännen nälkä kasvaa ja sen aktiivisuus lisääntyy. USA ja sen liittolaiset laajentavat Natoa edelleen. Tilanne on heille enemmän kuin suotuisa. Sanon sen suoraan ilman turhaa diplomatiaa: lähes kaikki Euroopan johtajat ovat muuttuneet USA:n alamaisiksi, Lukašenka väittää.Tutkija: Lukašenkasta halutaan luoda mielikuva rauhan takaavana johtajanaUlkopoliittisen instituutin ohjelmajohtaja Arkady Moshes näkee, että Valko-Venäjän valtiojohdon lausuntojen tarkoituksena on luoda Lukašenkasta mielikuva, jonka mukaan vain hän voi taata rauhan maassaan.– Lausunnot eivät ole millään tavalla vakavasti otettavia. Ne ovat rutiininomaisia ja osa normaalia propagandaa. Niiden viesti on, että Lukašenka on ainoa johtaja, joka voi säilyttää rauhan Valko-Venäjällä, Moshes sanoo.Lukašenka sanoi 29. syyskuuta 2023 pitämässään puheessaan, että maan tärkein tehtävä on estää uusi maailmansota.Moshes arvioi, että lausuntojen taustalla on lisäksi Lukašenkan henkilökohtaiset pyrkimykset näyttäytyä merkittävänä johtajana länsimaille. Moshes sanoo, että Lukašenka on pyrkinyt tähän muun muassa luomalla lännelle turvallisuusuhkia.– Sitä hän yritti puhuessaan venäläisten ydinaseiden sijoittamisesta Valko-Venäjälle. Hän yritti tätä myös silloin, kun hän toivotti Wagner-palkkasotilasryhmän tervetulleeksi maahansa ja puhui Wagnerin lähettämisestä Puolaan.Lukašenka uskoo, että tällaisilla keinoilla länsimaat olisivat halukkaita neuvottelemaan hänen kanssaan, Moshes sanoo.– Tämä on yksi hänen keinoistaan. Hän sanoo, että on kriisi ja jotain voi tapahtua ja länsimaiden pitäisi jotenkin reagoida siihen.Myös Venäjän Ukrainassa aloittamalla hyökkäyssodalla on rooli Valko-Venäjän valtiojohdon lausunnoissa. Moshes uskoo, että lausuntojen tarkoituksena on myös siirtää huomio pois siitä, että maa mahdollisti Venäjän toimet Ukrainassa noin kaksi vuotta sitten.– Valko-Venäjä on kansainvälisen oikeuden näkökulmasta hyökkääjävaltio, joka oli mukana Venäjän hyökkäyksessä. Huomio halutaan kiinnittää muualle, jotta ihmiset eivät puhuisi tästä.</t>
+          <t>Jyväskyläläinen Samuli Tamminen kuuntelee äänikirjoja keskimäärin seitsemänkymmentä tuntia kuukaudessa. Helmikuussa Tammisen Nextory-tilaus jäädytettiin, koska tilillä oli kuunneltu äänikirjoja ”epätavallisen paljon”.Tammisella oli joulukuussa vaihtanut toisesta äänikirjapalvelusta Nextoryn rajattoman kuuntelun tilaukseen, jota yritys mainostaa sloganilla ”Lue ja kuuntele niin paljon kuin haluat”.Tamminen jakaa äänikirjatilauksen perheenjäsentensä kanssa. Yhdelle Nextory-tilille saa liitettyä yhteensä neljä profiilia.Tamminen otti tilinsä rajoittamisesta yhteyttä Nextoryn asiakaspalveluun. Yle on nähnyt Tammisen ja Nextoryn välistä sähköpostikirjeenvaihtoa. Nextoryn asiakaspalvelija kertoi Tammiselle liiallisen kuuntelun voivan vaikuttaa kielteisesti muiden tilaajien käyttökokemukseen.– Välttääksesi tilisi rajoittamisen sinun ei pidä käyttää palvelua yhtä paljon kuin tässä kuussa, asiakaspalvelija Julie ohjeistaa.Asiakaskokemuksia kokoavalla Trustpilot-sivustolla Nextorysta on kirjoitettu useita kielteisiä arvioita, joissa kerrotaan rajoittamattoman kuuntelun tilien rajoituksista.– Jäi huijattu olo, Tamminen sanoo.Avaa kuvien katseluTuntirajoitukset on Samuli Tammisen mielestä ihan ok, mutta niistä pitäisi kertoa etukäteen. Kuva: Niko Mannonen / YleAutomaattisella järjestelmällä vahditaan väärinkäytöksiäNextory viittaa vastauksissaan Tammiselle käyttöehtoihin, joissa kielletään tilien kaupallinen käyttö ja luvaton jakaminen. Lisäksi Nextory kertoo, että kustantamot vaativat heiltä tilien rajoittamista.Nextory ei suostu haastatteluun aiheesta, mutta yrityksen kumppanuuksista vastaava Karolina Bjernefalk kommentoi asiaa sähköpostitse.– Tarjoamme rajattomia tilauksia, mutta palvelua ei saa käyttää väärin tai liiallisesti, Bjernefalk toteaa.Kuluttajariitalautakunnan puheenjohtajan Pauli Ståhlbergin mukaan Nextoryn toiminnassa on kyse sopimusrikkomuksesta.– Hän on tehnyt sopimuksen, että saa kuunnella vaikka 24 tuntia vuorokaudessa, Ståhlberg muistuttaa.Ståhlbergin mukaan yrityksen olisi irtisanottava asiakkaan kanssa tehty sopimus ja laadittava tilalle uusi rajoitetumpi sopimus, mikäli se ei pysty tarjoamaan lupaamaansa rajatonta kuuntelua.Nextory pyrkii estämään väärinkäytöksiäKarolina Bjernefalkin mukaan rajattomiin tilauksiin liittyy Nextorylla vastaavia haasteita kuin videon ja musiikin striimauspalveluilla. Tällaisia haasteita ovat esimerkiksi tilien jakaminen, lukutilastojen manipulointi bottien avulla ja sisältöjen käsittely tekoälytyökaluilla kirjailijoiden tekijänoikeuksia rikkovalla tavalla.Nextory pyrkii estämään tilien väärinkäytöksiä automaattisella järjestelmällä, joka seuraa sovelluksen kulutusta käyttöehtoja rikkovan toiminnan estämiseksi. Bjernefalkin mukaan järjestelmä ei toimi täydellisesti, ja toisinaan asiakkaiden tilejä joudutaan käynnistämään manuaalisesti uudelleen.Tammisen saamassa sähköpostivastauksessa kuitenkin todetaan, ettei tilin rajoitusta voida poistaa ennen seuraavaa maksupäivää.Kuluttaja voi vaatia hyvitystäTamminen ihmettelee viestissään Nextoryn asiakaspalveluun, miten seitsemänkymmenen tunnin keskimääräinen kuuntelu yhtä tilin profiilia kohden vaikuttaa kielteisesti muiden tilaajien kokemukseen. Hän muistuttaa asiakkaana maksaneensa neljän käyttäjän rajattomasta kuuntelusta.Avaa kuvien katseluSamuli Tamminen siirtyi kokemuksen jälkeen toisen äänikirjapalvelun asiakkaaksi. Kuva: Niko Mannonen / YleNextoryn asiakaspalvelija vastaa, että neljän profiilin tunteja seurataan kokonaisuutena. Järjestelmä ei kerro tarkkaa tuntimäärää, joka on ylittänyt kynnyksen tilin rajoittamiselle.Kuluttajariitalautakuntaan ei ole tullut yhteydenottoja Nextoryn asiakkailta. Ståhlbergin mukaan kuluttajan kannattaa vastaavassa tilanteessa olla kuluttajaviranomaisiin yhteydessä ja esittää vaatimus sopimuksessa pysymisestä tai hyvityksestä.Tamminen sai reklamoimalla helmikuun tilausmaksunsa takaisin. Nyt Tamminen käyttää toista äänikirjapalvelua, jossa kuuntelumäärä on rajoitettu, mutta lisätunteja voi tarvittaessa ostaa.– Tuntirajoitukset ovat ihan ok, mutta niistä pitäisi kertoa etukäteen, Tamminen sanoo.Oletko ollut tyytyväinen äänikirjapalveluihin? Voit keskustella aiheesta 26.2.2024 kello 23 saakka.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Vilaut­te­lu­teh­tävät jäivät pois Lapin legen­daa­risista opiske­li­ja­bileistä – Poronkusema muuttui pandemian jälkeen</t>
+          <t>Syyhy riivaa nyt niin monia, että Helsinki lähetti siitä Wilma-viestin – kysyimme viisi kysymystä taudista</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://yle.fi/a/74-20076186</t>
+          <t>https://yle.fi/a/74-20076657</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>24.02.2024</t>
+          <t>27.02.2024</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2103,1135 +2103,2188 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rovaniemen Poronkusema-rasteille on saapunut viikonloppuna lähes 2000 opiskelijaa. Järjestäjien mukaan opiskelijakulttuuri oli rajumpaa ennen koronakriisiä. </t>
+          <t>Syyhy ei ole vaarallinen tauti, mutta hoitamattomana se jatkaa leviämistään. Helsingin kaupunki jakoi tänään tiistaina päiväkoteihin ja kouluihin tiedotteen syyhyn oireista ja hoidosta.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Rovaniemellä parhaillaan käynnissä oleva Poronkusema -opiskelijatapahtuma on saavuttamassa uuden kävijäennätyksen.Liput on loppuunmyyty, ja tapahtumaa järjestävän oikeustieteen opiskelijoiden ainejärjestö Artiklan puheenjohtaja Nuutti Saramo arvioi, että tapahtumaan osallistuu 1 800–2 000 opiskelijaa.Poronkusema on useille opiskelijoille edelleen alkoholipitoinen tapahtuma, mutta yli 30-vuotiaan tapahtuman kulttuuri on muuttunut vuosien varrella. Ryyppäämiseen ei enää kannusteta, eikä tapahtuman rastikilpailujen tehtävänä ole alkoholin juomista.– Olemme linjanneet, että emme halua sellaisia rasteja, joissa kannustetaan juomaan, Saramo kertoo.Lisää: Alkoholin käytössä historiallinen muutos: nuoret miehet ovat nyt raittiimpia kuin koskaan”Mauton alastomuus” ei enää siivitä voittoonEnnen riisuutumalla saattoi jopa voittaa kilpailun. Erään opiskelijablogin mukaan Poronkuseman rastikilpailussa sai vuonna 2014 pisteitä alastomuudesta.Vuonna 2016 eräällä rastilla punnittiin osallistujia. ”Puntari” oli tosin rikki siten, että se näytti liikaa painoa ja vaatteiden riisumisesta lähti kymmeniä kiloja.Oikeustieteen opiskelijoiden 40-vuotisjuhlakirjassa kerrotaan vuodelta 2011, että voittajajoukkueen saattoi voittoon muun muassa ”mauton alastomuus” ja ”upeat lahjukset”.Tapahtumaa järjestävät oikeustieteen opiskelijat kertovat, miten lauantaihin painottuvassa rastikilpailussa annetaan pisteitä, ja mikä opiskelijoiden bilekulttuurissa on muuttunut. Oikeustieteen opiskelijoiden puheenjohtajan mukaan enää riisuutumiseen ei kannusteta.– Meidän tapahtumissa ei sellaista ole enää muutamia vuosiin hyväksytty, on ollut ihan nollatoleranssi sille, Saramo sanoo.Saramon mukaan opiskelijakulttuuri siistiytyi koronakriisin jälkeen.– Tietysti silloin koronaa edeltävinä aikoina opiskelijakulttuuri on ollut rajumpaa, Saramo arvioi.Tapahtumassa on mukana myös sinisiä liivejä kantavia henkilökunnan jäseniä, joille voi ilmoittaa häirinnästä.Avaa kuvien katseluPoronkusema-tapahtuman nimi tulee matkasta, jonka poro voi kulkea virtsaamatta. Tämä vanha mittayksikkö on tarkemmin määrittelemätön, mutta se on enimmillään noin 7,5 kilometriä.  Kuva: Juuso Stoor / YlePääporoa lahjotaanSiistiytymisestä huolimatta Poronkusema-tapahtumassa on yhä mukana leikillisyyttä.Tapahtuman rastikilpailussa pisteitä saa suorituksen lisäksi asustuksesta, jonka teemana on tänä vuonna ”sankarit ja lapsuuden suosikit”. Pisteitä voi myös halutessaan hankkia lahjuksilla, joita ovat usein alkoholijuomat ja ruoka.Pohjois-Suomen suurimmaksi julistautuneessa opiskelijatapahtumassa on mukana myös pääporo. Poroasuun pukeutunut pääporo johtaa tapahtumaa järjestävää toimikuntaa, mutta toimii myös maskottina ja tuomarina.– Tiesittekö, että Pääporolla on rajaton pisteidenantovalta?! Kannattaa siis etsiä Pääporo käsiinsä ja lahjoa hänet taivaisiin, tapahtuman verkkosivulla kerrotaan.Avaa kuvien katseluPääporolla on rajaton valta antaa pisteitä Poronkuseman rastikilpailussa. Tämän vuoden pääporo Mariel Tähtivaara toivoo luovia lahjuksia.  Kuva: Juuso Stoor / YleArktiset rastit houkuttelevat väkeä kauempaakinOikeustieteen opiskelijoita edustava Saramo kertoo, että järjestäjiä jännitti etukäteen, sillä kilpailevia tapahtumia riittää.Ensi viikolla Turussa järjestetään suurtapahtuma Pikkulaskiainen, johon osallistui viime vuonna 13 000 opiskelijaa. Poronkusemalla riittää silti vetovoimaa, ja yhtenä ässänä hihassa on monille eksoottinen ympäristö.– Tuntuu, että pohjoinen sijainti ja tietynlainen arktisuus houkuttaa, Saramo sanoo.Pohjoisen sääolot myös yllättävät monet osallistujat, sillä suuri osa osallistujista tulee Etelä-Suomesta.Avaa kuvien katseluRovaniemeläinen Aapo Kaattari houkutteli oululaisen Joonas Jalon (vas.) bilettämään Poronkusemaan. Kuva: Juuso Stoor / Yle– Moni ei välttämättä tule ajatelleeksi, että tulee oikeasti Lappiin ja että tapahtuma on pitkälti ulkotiloissa. Usein porukalla saattaa olla heikompaa varustusta, Saramo.Siksi tapahtuman järjestäjät ovat verkkosivulla ja sosiaalisessa mediassa muistuttaneet lämpimästi pukeutumisesta.Tänä viikonloppuna sää tosin kohtelee osallistujia lempeästi, sillä lämpötila pyörii nollan tuntumassa.</t>
+          <t>Syyhytartunnat ovat kasvaneet viime vuosina reilusti.Esimerkiksi Uudenmaan erikoissairaanhoidosta vastaavan HUS-yhtymän alueella syyhypotilaita on niin paljon, että HUS kutsuu vallitsevaa tilannetta pienimuotoiseksi syyhyepidemiaksi.Helsingin kaupunki jakoi tänään tiistaina Wilman kautta vanhemmille yleisen tiedotteen syyhyn oireista ja hoidosta. Tiedote jaettiin sekä koululaisten että päiväkoti-ikäisten lasten vanhemmille.Tiedotteessa todetaan, että syyhyn leviäminen kouluolosuhteissa epidemiaksi on harvinaista. Kaupunki kuitenkin pyytää pienten lasten vanhempia ilmoittamaan päiväkotiin, jos lapsella on todettu syyhy.Kysyimme Terveyden ja hyvinvoinnin laitos THL:n ylilääkäri Leif Lakomalta viisi kysymystä syyhystä.Lisää: Sietämätön kutina ajaa ihmisiä jopa laittomiin tekoihin – nyt Tulli ärähtää ulkomailta tilatuista syyhylääkkeistä1. Mikä syyhy on?”Syyhy on ihottuma, joka kutiaa voimakkaasti. Sen aiheuttaa pieni, noin 0,5 millimetrin pituinen syyhypunkki, joka kaivaa käytäviä ihoon. Syyhypunkki voi elää ihossa useita kuukausia. Yleensä syyhypunkki myös lisääntyy kehossa.Syyhypunkki tarttuu henkilön ikään, kokoon tai muihin tekijöihin katsomatta. Joskus ihmiset eivät uskalla hakea apua oireisiinsa, koska häpeävät syyhyä. Se on turhaa. Syyhyn voi saada kuka tahansa, eikä se ole vaarallinen vaan ikävä tauti.”Avaa kuvien katseluSyyhypunkki on kooltaan noin 0,2–0,4 millimetrin kokoinen. Kuva: Yle2. Miksi syyhyä esiintyy juuri nyt?”Syyhydiagnoosien määrät ovat lisääntyneet viime vuosina sekä Suomessa että muualla Euroopassa. Syytä ei tiedetä.Se voi johtua siitä, että aiheesta puhutaan enemmän ja ihmiset hakeutuvat aktiivisemmin lääkärin vastaanotolle epäillessään syyhyä. Myös terveydenhuollossa aiheesta on enemmän tietoa.Syyhyä on kuitenkin esiintynyt aina. Tarkkoja lukumääriä syyhydiagnooseista ei ole, koska syyhy ei ole valvottava tai ilmoitettava tartuntatauti.On mahdollista, että syyhyä esiintyy hieman enemmän talvella, sillä ihmiset viettävät silloin enemmän aikaa sisällä lähekkäin.”3. Miten syyhy tarttuu?”Syyhy tarttuu henkilöstä toiseen. Syyhy ei kuitenkaan tartu kätellessä tai halaillessa, vaan pidemmässä kontaktissa.Syyhy voi tarttua, vaikka oireita ei vielä olisi. Siksi syyhyä esiintyy yleensä samassa taloudessa asuvien kesken tai seksikumppanien kesken.Lapsi voi saada syyhytartunnan esimerkiksi päiväkodista, jossa pienillä lapsilla voi herkemmin olla pidempiä ihokontakteja muiden kanssa.Syyhypunkki pystyy elämään muutaman päivän ihmiskehon ulkopuolella, mutta mahdollisuus syyhypunkin saamiseen esimerkiksi tekstiilien pinnoilta tai vaikkapa kuntosalilta on käytännössä hyvin harvinaista.”Avaa kuvien katseluSyyhyn hoitoon tarkoitettavia lääkkeitä apteekissa. Apteekin syyhylääkkeistä ei makseta Kela-korvausta. Kuva: Matias Väänänen / Yle4. Voiko syyhyn diagnosoida itse kotona?”Syyhyä ei voi koskaan diagnosoida itse, vaan sen diagnosoiminen vaatii käynnin lääkärin vastaanotolla. Lääkäri tarvitsee syyhyn diagnosointiin omat välineensä. Jos niitä ei ole käytössä, syyhypunkki ja sen kaivamat käytävät voivat jäädä huomaamatta.Syyhytartunnan saamisesta voi kulua jopa kuukausi siihen, että ihmisellä ilmenee oireita. Syyhy aiheuttaa ihon kutinaa, joka taas voi johtaa ihon rikkoutumiseen. Koska syyhy muistuttaa muita ihosairauksia, kuten atooppista ihottumaa, voi sen diagnosointi olla vaikeaa.Aikuisilla syyhy aiheuttaa kutinaa yleensä ranteisiin ja sormiin. Lapsilla syyhy voi aiheuttaa kutinaa myös muualle kehoon.”5. Voiko tautia hoitaa hevosten syyhylääkkeellä?”Syyhyä tulee hoitaa vain lääkärin suosittelemilla valmisteilla. Esimerkiksi hevosille suunniteltu syyhylääke ei ole tarkoitettu ihmisille.Ihotautilääkäri suosittelee syyhyn hoitoon permetriinivoidetta ja ivermektiini-nimistä reseptilääkettä. Kumpikin toimivat.Lääkehoito hävittää syyhypunkit heti, mutta ihon kutina saattaa kestää vielä useita viikkoja. Jos oireet eivät katoa ollenkaan, kannattaa tarkistuttaa, onko tartunnan saanut uudelleen.Jos lääkäri on diagnosoinut syyhyn, on hoidettava myös muut altistuneet eli samassa taloudessa asuvat ja seksikumppanit. Lisäksi lakanat, vaatteet ja pyyhkeet on pestävä kuudessakymmenessä asteessa. Asunto on myös imuroitava.”Turkulainen Aada Ramstedt on kokenut, kuinka hankalaa ja kallista syyhyn hoito on. Jyväskyläläinen Hans-Peter Schütt ja hänen puolisonsa puolestaan elivät syyhykurimuksessa kymmenen kuukautta. Video: Jussi Lindroos / Yle</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
+        <v>15</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Uusi sellutehdas toi Kemin ylle valtavan höyrypilven ja peitti auringon – kesän paistetta se ei kuitenkaan pimennä</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20075774</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>23.02.2024</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Jäähdytystornien höyry on hämmästyttänyt kaupunkilaisia pakkaspäivinä pitkin talvea. Tornit olivat vaihtoehto sille, että tehtaan ylijäämälämpöä olisi johdettu mereen.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Perämeren pohjukassa, Lapin teollisuuskulmassa on totuttu tehtaiden savuihin ja höyryihin. Uuden Metsä Fibren Kemin sellutehtaan aiheuttama valtava höyrypilvi on kuitenkin saanut talven aikana ihmiset hämmästelemään, mistä oikein on kysymys.Viime syksynä tuotantonsa aloittaneen sellutehtaan ylle on kertynyt kovina pakkaspäivinä uhkaavalta näyttävä ”patja”, joka on myös peittänyt harvakseltaan pilkahtaneen auringon niinkin tehokkaasti, että lenkkeilijät kertovat ikään kuin sukeltaneensa pimeyteen kesken reissun.Some-ryhmissä on käyty aiheesta ajoittain vilkasta keskustelua, ja kuten asiaan usein kuuluu, sitä on ryyditetty monenlaisella asiantuntemuksella.Ajoittain viheliäisenä pidetyn höyrypilven suurin lähde ovat sellutehtaan tontilla Pajusaaressa olevat jäähdytystornit.11 metriä korkeat tornit ovat osa suljettua puhtaan veden jäähdytysvesikiertojärjestelmää. Kymmenen tornin kautta tehtaan prosesseissa tarvittavasta jäähdytysvedestä poistetaan lämpöä ilmaan ja pienennetään mereen päätyvän veden lämpökuormaa.Kysyimme Kemin tehtaan johtaja Pekka Kittilältä muutamia asioita torneihin ja höyrypilveen liittyen.Miten jäähdytysvesitornit toimivat ja mihin niitä tarvitaan?Kemijoesta otettu ja kemiallisesti puhdistettu vesi tulee tehtaan vesilaitokselta suljettuun jäähdytysvesikiertoon. Sieltä sitä johdetaan lämmönvaihtimiin osastoilla, missä puhdasta jäähdytysvettä tarvitaan. Talteen otettu lämpö hyödynnetään prosessissa lämmitykseen, jonka jälkeen jäähtynyt vesi palaa paluukierron kautta jäähdytystorneille.Paluukierrossa vesi tulee torneihin noin 45-50 asteen lämpötilassa ja tornilla vesi jäähdytetään noin 25 asteeseen niin, että vesi voidaan käyttää edelleen uudelleen jäähdytysvetenä prosessissa. Ylijäämälämpö poistuu tornien kautta ilmaan.Mitä ilmaan kertyvä höyry sisältää?Tehdasalueen yläpuolelle tulee tehokkaan puhdistusprosessin kautta savukaasuja kuorikattilan ja soodakattilan piipuista. Ne nousevat ilmaan korkealle. Alempana näkyy vesihöyrypitoisia pilviä, joiden höyry tulee esimerkiksi kuivauskoneelta tai jäähdytysvesitorneilta. Vesi, joka kiertää jäähdytysvesikierrossa on käytännössä talousveden laatuista puhdasta vettä.Mikä olisi ollut vaihtoehto höyryä muodostaville jäähdytystorneille?Ylijäämälämpöä olisi voitu siirtää mereen. Veteen siirtämisessä huolenaiheena oli se, että talvella se vaikuttaa ympäröivän merialueen jäätilanteeseen ja lämpökuorma lisää muutenkin kuormitusta vesistölle.Molemmissa vaihtoehdoissa on hyviä ja huonoja puolia. Jäähdytystornivaihtoehdossa on se huono puoli, että se aiheuttaa hönkää eli höyryä.Höyrypilvi on selkeän pakkassään ilmiöIlmatieteenlaitoksen tutkija Anu-Maija Sundströmin mukaan Meri-Lapissa, kuten muissakaan tehdaskeskittymissä ei tarvitse kantaa huolta siitä, että aurinkoinen kesä peittyisi vesihöyrypilven taakse. Höyrypilvi on pakkaspäivän vitsaus:Anu-Maija Sundström kertoo pakkasen ja kesän vaikutuksesta  vesihöyrypilveen..Esimerkiksi -20 asteen lämpötilassa pystyy olemaan sitoutuneena kuutiota kohden yksi gramma vettä, jonka jälkeen se muuttuu näkyväksi vesihöyryksi. Kun lämpötila nousee +20 asteeseen, ilmassa pystyy olemaan 17 grammaa kosteutta kuutiota kohden ennen kuin se muuttuu näkyväksi höyryksi.Anu-Maija Sundström tähdentää, että sinänsä teollisuushöyryjen muodostama pilvi kuitenkin on auringon näkymisen kannalta ihan samanlainen kuin muutkin taivaalla näkyvät pilvet.– Lisäksi, että se pilvi on suhteellisen matalalla ilmakehässä, tietysti vaikuttaa siihen, että se himmentää auringon valoa.Voiko pilvi jossain olosuhteissa sitten sataa alas?– Periaatteessa on mahdollista, mutta pitäisin kuitenkin todennäköisempänä, että pilvi sekoittuu siihen ympäröivään ilmamassaan niin helposti ja voimakkaasti, että se haihtuu tai katoaa itsestään ennemmin kuin, että se sataisi alas, Sundström sanoo.Tehtaan piippujen tai jäähdytysvesitornien kautta tulevan vesihöyrypilven voi havaita myös hienoresoluutioisissa satelliittikuvissa.Sundströmin mukaan höyrypilven näkyminen vaatii kuitenkin kirkkaan sään, jolloin ilmassa ei ole säähän liittyvää normaalia pilvisyyttä. Tuolloin on mahdotonta erottaa, mikä on tehtaasta tulevaa pilveä ja mikä vallitsevaa säätilaa.Alla olevissa satelliittikuvissa säätilan vaikutus sekä Kemin sellutehtaan että Outokummun Tornion terästehtaan höyryjen muodostamiin pilviin näkyy selvästi.Vasemmanpuoleisessa kuvassa ilman lämpötila on +0,6 astetta ja tuulen voimakkuus 14 metriä sekunnissa. Oikeanpuoleisessa kuvassa pakkasta on 22,2 astetta ja tuulen voimakkuus 4,2 metriä sekunnissa.Tehdas pyrkii tehostamaan lämmön talteenottoaKemin tehtaalla tutkitaan vaihtoehtoja parantaa energiatehokkuutta edelleen esimerkiksi juuri jäähdytysvesikiertoon jäävän matalalämpöisen veden osalta.– Matalalämpöisen veden hyödyntäminen suoraan prosessissa ei ole kovin helppoa, mutta jos meillä on yhteistyökumppaneita, jotka voivat matalalämpöistä lämpöenergiaa hyödyntää, tällaiset vaihtoehdot voivat tulla kysymykseen, sanoo tehtaanjohtaja Pekka Kittilä.Tällä hetkellä hyvin suuri osa sellutehtaan lämpöenergiasta hyödynnetään sähkönä.– Tuotamme tietenkin prosessin tarvitseman lämmön eli höyryä eri kohteisiin, myymme höyryä myös Metsä Boardin kartonkikoneelle ja lämpöä Kemin kaupungin kaukolämpöverkkoon.Kaukolämmön myyntiä on Kittilän mukaan edelleen mahdollisuus myös laajentaa. Keskusteluja uusien asiakkaiden kanssa on meneillään, mutta niitä hän ei tässä vaiheessa halua kommentoida enempää.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>15</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Suomen ilmas­to­ta­voitteet karkaamassa – eduskunnassa vaaditaan uusia toimia</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076305</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>24.02.2024</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suomen piti olla hiilineutraali vuoteen 2035 mennessä. Nyt tavoite uhkaa karata. Uusia ilmastotoimia esitetään niin metsiin kuin liikenteeseen. </t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Luonnonvarakeskus latelee uudessa arviossaan madonluvut Suomen ilmastopolitiikalle. Hiilineutraalisuustavoite vuodelle 2035 on karkaamassa käsistä.Tavoitteen saavuttamiseksi tarvitaan Luonnonvarakeskuksen mukaan uusia ilmastotoimia.Samankaltaiseen johtopäätökseen on tullut eduskunnan ympäristövaliokunta yksimielisessä mietinnössään hallituksen ilmastovuosikertomuksesta.– Nykyiset toimet eivät riitä saavuttamaan sitoumuksiamme, ei päästö- eikä hiilinielupuolella, ympäristövaliokunnan puheenjohtaja Jenni Pitko (vihr.) sanoo Ylelle.Kokoomuksen mukaan Suomen ilmastotavoitteiden saavuttaminen on haastavaa.–Jo viime hallituskaudella selvisi, että Suomen ilmastotavoitteet on laskettu sellaiselle hiilinielupohjalle, jota meillä ei olekaan, ympäristövaliokunnan jäsen Saara-Sofia Sirén (kok.) sanoo.Perussuomalaisten Sara Seppänen huomauttaa, että Suomen tavoitteet ovat varsin kireät.– Suomihan on asettanut kireämmät tavoitteet, mitä EU:lla ylipäätään on. Ja voi olla, että niihin ei tällä aikataululla päästä.Vihreät valmis rajoittamaan metsien hakkuita, hallituksesta ei kannatustaLuonnonvarakeskuksen mukaan hiilineutraalisuustavoite karkaa erityisesti, koska Suomen metsiä on hakattu ja hakataan liikaa.Eduskunnan ympäristövaliokunta ei esitä mietinnössään konkreettisia toimia. Oppositiopuolue vihreät olisi valmis rajoittamaan hakkuita.– Kaikista tehokkain ja varmin tapa kasvattaa metsien hiilinieluja olisi rajoittaa hakkuita, vihreiden Jenni Pitko sanoo.Pitko tarjoaa hallitukselle myös muita tehokkaita keinoja, kuten turvepeltojen poistamista viljelystä. Turvemailla on Pitkon mukaan kaikkein edullisimmat keinot kasvattaa maankäytön hiilinielua.Perussuomalaiset ei innostu ainakaan hakkuiden rajoittamisesta.– Meillä hakkuut ovat kestävällä tasolla. Meidän tarvitsee kuitenkin nostaa (puun) jalostusastetta voimakkaasti, perussuomalaisten Sara Seppänen sanoo.– Suomalainen metsäpolitiikka tulee säilyttää kansallisissa käsissä.Avaa kuvien katseluMetsätyökone siirtää puita Kolarin Aalistunturissa sijaitsevalla Metsähallituksen hakkuualueella tammikuussa 2023. Kuva: Pasi Peiponen / YleKokoomus: Tekniset hiilinielut käyttöönKokoomuksen edustaja Saara-Sofia Sirén toteaa, että metsien käyttö tulee olla hallitusohjelman mukaan kestävällä tasolla.Hän kuitenkin huomauttaa, että metsien käytön muutokset eivät riitä ilmastotavoitteeseen pääsemiseksi.– Ei ole mitään yksittäisiä keinoja, jotka ratkaisevat tämän hyvin haastavan tilanteen, vaan tullaan tarvitsemaan monenlaisia ratkaisuja, Sirén sanoo.Kokoomus puhuu sen puolesta, että luontaisten hiilinielujen kasvattamisen lisäksi tulee ottaa käyttöön niin sanotut tekniset hiilinielut. Niillä kerätään esimerkiksi tehtaan piipuista tupruavaa hiilidioksidia talteen.Vihreät: Orpon hallitus vain lisännyt liikenteen päästöjäLiikenteen päästöjä olisi vähennettävä entistä enemmän, jos hiilinielut pettävät Luonnonvarakeskuksen laskemalla tavallaVihreiden mukaan Orpon hallitus on vain lisännyt liikenteen päästöjä päätöksillään alentaa polttoaineverotusta ja biopolttoaineiden jakeluvelvoitetta.– Eduskuntaan ei ole tuotu lainkaan esityksiä, joilla voitaisiin vähentää päästöjä tai vahvistaa hiilinieluja, Jenni Pitko sanoo.Pitkon mukaan esimerkiksi biojakeluvelvoitteen nostaminen olisi valtiontalouden kannalta kustannustehokas ilmastotoimi.Kokoomuksen Sirén sanoo, että autoliikenne sähköistyy kovaa vauhtia, ja se on osa ilmastoratkaisua. Myös biokaasua kannattaa hyödyntää erityisesti raskaassa liikenteessä päästöjen vähentämiseksi, hän sanoo.Perussuomalaiset: Suomalaisille ei saa tulla lisälaskua ilmastotoimistaPäähallituspuolueet kokoomus ja perussuomalaiset sanovat, että uusia ilmastotoimia on luvassa. Ne vakuuttavat olevansa samoilla linjoilla ilmastopolitiikassa.Ainakin puheissa on silti painotuseroja. Perussuomalaiset korostaa ennen muuta sitä, että suomalainen kuluttaja, teollisuus ja maatalous eivät saa kärsiä.– Suomalaisille ei saa tulla ylimääräistä laskua ilmastotoimista. Ruoantuottajan tehtävä on tuottaa ruokaa, ei laskea hiilipäästöjä, ympäristövaliokunnan jäsen Sara Seppänen sanoo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>16</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Senegalissa käynnissä erikoinen tilanne: presidentti panttaa tulevien presi­den­tin­vaalien ajankohtaa</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076060</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>23.02.2024</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Erikoinen tilanne on aiheuttanut perinteisesti vakaassa maassa laajoja mielenosoituksia, jotka ovat äityneet myös väkivaltaisiksi. Perustuslakineuvosto määräsi vaalit pidettäväksi niin pian kuin mahdollista.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Länsiafrikkalaisen Senegalin istuva presidentti Macky Sall sanoi torstaina, että hän jättää tehtävänsä sovitusti 2. huhtikuuta. Hän ei kuitenkaan sanonut, milloin presidentinvaalit järjestetään. Presidentin tiedotteen mukaan vaalipäivä kerrotaan kuitenkin ”hyvin pian”.Vaalit oli määrä pitää helmikuussa, mutta useiden käänteiden jälkeen vaalit siirrettiin joulukuulle. Maan perustuslakineuvosto kuitenkin kumosi tämän päätöksen.Erikoinen tilanne on aiheuttanut perinteisesti vakaassa maassa laajoja mielenosoituksia, jotka ovat äityneet myös väkivaltaisiksi. Perustuslakineuvosto määräsi vaalit pidettäväksi niin pian kuin mahdollista.Sallin mukaan uusi vaalipäivä päätetään sen jälkeen, kun asiasta on määrä käydä keskusteluja ensi viikon maanantaista alkaen muun muassa opposition edustajien kanssa.Oppositio ja Sallin vastustajat ovat todenneet, että Sall yrittäisi pysyä vallassa maan perustuslain vastaisesti.Senegalin opposition johtohahmoista kaksi, Ousmane Sonko ja Bassirou Diomaye Faye, on pidätettyinä. Sallin mukaan heidät voitaisiin vapauttaa pian.Istuvan presidentin päätöstä siirtää vaaleja on kuvailtu johtuvan pelosta, että presidentin puolue häviäisi vaalit.Satoja opposition ja eri kansalaisjärjestöjen jäseniä vapautettiin vankeudesta viime viikolla. Sall valittiin Senegalin presidentiksi ensimmäistä kertaa vuonna 2012.Lähde: AFP</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>16</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>FC Lahti kamppaili jalkapallon liigacupin välieriin</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076710</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>28.02.2024</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maaliskuun välierässä vastustajaksi tulee Kuopion  Palloseura. </t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Jalkapallossa FC Lahti on edennyt välieriin miesten liigacupissa.Lahtelaiset voittivat nuorella kokoonpanolla pelanneen HJK:n 3-0 tiistaina. FC Lahti voitti oman lohkonsa 10 pisteellään.Välierässä vastaan tulee Kuopion Palloseura maaliskuun alkupuolella.Lahtelaiset matkustavat torstaina 29. helmikuuta Espanjaan leirille.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>17</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>”Vanhus­pal­velut pitää järjestää tarpeen eikä rahan mukaan”, sanoo ikääntymisen tutkija Teppo Kröger</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076014</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>25.02.2024</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Huippututkijan huoli ikääntyvien hoidosta ei ole hellittänyt sen jälkeen, kun palvelut siirtyivät hyvinvointialueille.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Yhteiskuntapolitiikan professori Teppo Kröger on seurannut huolestuneena suomalaisen vanhustenhoidon kehityssuuntaa jo vuosia. Jyväskyläläinen Kröger johtaa ikääntymisen ja hoivan tutkimuksen huippuyksikköä, johon kuuluu tutkimusryhmiä Jyväskylän, Tampereen ja Helsingin yliopistoista.Hyvinvointialueiden alkutaival vaikuttaa tutkijan silmiin kaikkea muuta kuin hyvältä.– Tilanne ei suinkaan näytä olevan helpottumassa vaan päinvastoin edelleen vaikeutumassa, hän arvioi.Keskustelu vanhusten huonosta hoivasta kävi erityisen kuumana vuonna 2019, kun julkisuuteen tuotiin karuja esimerkkejä hoivakotien epäkohdista. Kröger sanoi tuolloin Ylen haastattelussa, että vanhustenhoitoon tarvittaisiin miljardi euroa lisää, jotta päästäisiin pohjoismaiselle keskitasolle.Edelleenkään palvelua ei ole riittävästi tarjolla, ja myös ongelmien juurisyy eli rahapula on Krögerin mukaan ennallaan.– Suomessa ikääntyneiden palvelujen rahoitus on edelleen selvästi tarpeita jäljessä ja muita Pohjoismaita alempana.Hoivakriisi ei ratkea palveluja keventämälläHyvinvointialueiden ensimmäisen toimintavuoden eli vuoden 2023 tilinpäätökset kertovat karua kieltä rahoituksen riittämättömyydestä. Monilla alueilla etsitäänkin nyt kymmenien miljoonien säästöjä ja leikkauskohteita sen sijaan, että palveluja vahvistettaisiin.Lakkautuslistalla on paikoin myös vanhusten palvelutaloja. Samaan aikaan nykyisetkään palvelutalopaikat eivät riitä.Esimerkiksi Keski-Suomessa ympärivuorokautiseen asumiseen jonotti 22. helmikuuta 112 vanhusta. Lisäksi 130 ikäihmistä oli pitkäaikaisessa laitoshoidossa, joka ollaan valtakunnallisen linjauksen mukaan lopettamassa vuoden 2027 loppuun mennessä.Keski-Suomessa hoivapaikkoja ei olla vähentämässä, mutta viranhaltijatyönä tehty hyvinvointialueen sote-palveluverkkosuunnitelma toteaa, että niitä ei voida myöskään lisätä, koska henkilökuntaa ei ole riittävästi.Ratkaisuksi esitetään nykyistä kevyempien palvelujen, kuten yhteisöllisen asumisen, ennaltaehkäisevän toiminnan ja kotihoidon lisäämistä.Teppo Kröger sanoo, että käsillä oleva vanhusten hoivakriisi ei ratkea palveluja keventämällä. Suuret ikäluokat tulevat vanhuusikään tällä ja seuraavalla vuosikymmenellä, joten hoivan tarvekin lisääntyy merkittävästi.Toimintatapojen muutoksilla voidaan Krögerin mukaan parantaa joitakin asioita vanhuspalveluissa. Myönteistä vaikutusta voi olla esimerkiksi sillä, että johtamista kehitetään ja työntekijöiden sekä vanhusten ja heidän omaistensa mielipiteitä kuullaan palvelujen järjestämisessä.Koko palvelujärjestelmän ongelmia nämä eivät kuitenkaan paranna, ellei palvelun resursseja lisätä sitä mukaa kuin hoidettavien määrä kasvaa.Kolme vaikeaa vaihtoehtoaKröger näkee vanhushoivan tulevaisuudelle yksinkertaistettuna kolme vaihtoehtoa, jos palvelujen määrä ja saatavuus edelleen vähenee.Yksi on se, että omaiset ottavat entistä suuremman roolin hoivassa. Tällöin moni keski-ikäinen, usein nainen, joutuu jäämään pois työelämästä hoitamaan ikääntyneitä vanhempiaan.– Tällä on vaikutusta myös kansantalouteen ja työmarkkinoihin.Toinen vaihtoehto on yksityisten palvelujen käytön lisääntyminen. Tämä on mahdollista vain hyvätuloisille eläkeläisille, ei läheskään kaikille.Kolmas ja karuin vaihtoehto on Krögerin mukaan se, että vanhat ihmiset eivät saa hoitoa ja kuolevat kotiinsa. Hän pitää mahdollisena myös sitä, että tilanne johtaa maailmalla jo nähtyihin traagisiin tilanteisiin, joissa uupunut omainen surmaa hoidettavansa ja mahdollisesti itsensäkin.– Nähdäkseni näitä asioita tulee Suomessakin tapahtumaan entistä enemmän, ellei palvelujärjestelmä pysty vastaamaan kasvavaan tarpeeseen.Mediahuomiota on tullut, vaikutuksia vähemmänKröger on tuonut tällaisen hoivaköyhyyden ongelmaa esiin jo siitä alkaen, kun hänen johtamansa Suomen Akatemian alainen huippuyksikkö aloitti toimintansa.Krögerin mukaan ikääntymisen tutkimus on saanut huomiota osakseen mediassa, ja myös tutkijat itse pyrkivät aktiivisesti kertomaan tutkimustuloksista monia reittejä pitkin. Teppo Krögerkin on kysytty luennoitsija ja haastateltava.Entä onko tutkimustietoa hyödynnetty siellä, missä vanhuspalveluista päätetään?– Kyllä se on varsin rajallista, miten ne tulokset näkyvät varsinaisessa päätöksenteossa, Kröger sanoo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>17</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Tätä mieltä itse potilaat ovat etävas­taa­notoista: ”Parasta on se, kun ei itse tarvitse lähteä mihinkään”</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076522</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Etävastaanotto voi tuoda avun paitsi potilaan vaivaan myös terveydenhuollon ylikuormaan. Aina kaikki ei kuitenkaan suju odotusten mukaan.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Terveydenhuollon ruuhkautumiseen etsitään yhä useammin helpotusta potilaiden etävastaanotosta. Esimerkiksi Uudellamaalla etävastaanottoa tarjotaan jopa päivystysaikana usean kunnan alueella.Ylen MOT kertoi viime viikolla etähoitotyötä kehittävän konsulttiyhtiön edustajien salakuunnelleen etähoitotilanteisiin liittyviä puheluita ja katselleen potilastietoja. Satakunnan hyvinvointialue selvittää asiaa parhaillaan.Sama konsulttiyhtiö on MOT:n tietojen mukaan myös painostanut eri hyvinvointialueiden henkilökuntaa hoitamaan potilaitaan etänä.Mutta entä potilaat? Yle kysy lukijoiden kokemuksia etähoidosta. Vastauksia kertyi yhteensä 147. Vastaajista yli puolet kertoi olevansa tyytyväisiä etänä saamaansa hoitoon.Yksi heistä on vantaalainen Kaj-Erik Maukonen. Hän sairastaa MS-tautia ja asioi lääkärin kanssa usein sairautensa vuoksi.– Parasta on se, kun ei itse tarvitse lähteä mihinkään. Ärsyttää siellä käytävillä muiden notkujien kanssa odotella lääkäriä. Välillä olen kaksikin tuntia joutunut odottamaan ilman tietoa siitä, onko aika siirtynyt tai muuta vastaavaa.Myös Kimmo Vanhamäki Tuusulasta on tyytyväinen käyttämiinsä julkisen terveydenhuollon etävastaanottopalveluihin.– Hyvin on etävastaanotolla omalla kohdallani sujunut. Se on joustava ja nopea sekä mahdollistaa soten resurssien tehokkaamman käytön.Ylelle kokemuksistaan kertoi myös Helsingin kaupunginvaltuuston vihreiden varavaltuutettuna toimiva Hannu Oskala. Hän on viime vuodet asioinut yksityisessä työterveyshuollossa lähes pelkästään etänä.– Olisinko kuuden vuoden aikana käynyt kerran tai kahdesti paikan päällä lääkärissä ja olen ollut tyytyväinen. Toki esimerkiksi laboratoriotutkimuksissa täytyy käydä vastaanotolla, mutta tulokset saa silti etänä.Oskalan mielestä myös julkisella puolella olisi siirryttävä yhä enemmän etävastaanottoihin, jotta lääkäriaikoja ylipäätään olisi tarjolla kohtuullisessa ajassa.– Meillä on tällä hetkellä Helsingissä neljä terveysasemaa, joilta on mahdollista saada vastaanottoaika lakisääteisessä kahdessa viikossa. Loput 19 asemaa eivät tähän tällä hetkellä yllä.Oskala pitää tilannetta hankalana.– Kyllä ihmisten pitäisi pystyä luottamaan siihen, että myös julkiselta puolelta on mahdollista saada hoitoa.Etäaika ei ollutkaan tarpeeseen sopivaEspoolainen Maarit sen sijaan ei ole tyytyväinen etäasiointiin. Maarit esiintyy jutussa pelkällä etunimellään asian arkaluonteisuuden vuoksi.Hän tarvitsi terveystodistuksen opintojaan varten. Hänelle vakuutettiin ajanvarauksessa, että tämä onnistuu etänä.Toisin kuitenkin kävi.– Sain etävastaanottoajan kolmen viikon päähän. Kun lääkäri soitti, hän totesi, ettei tämä onnistukaan, koska on kuunneltava sydän ja keuhkot, tutkittava näkö ja niin edelleen. Todistuksen saaminen kesti kaikkiaan 2,5 kuukautta.Etähoitoon tyytyväisetkin toteavat, että kaikkia tarpeita se ei palvele.– Ehkä sellaiset tuntemukset, joita ei voi kuvailla verkkopalveluiden kautta, kuten hengenahdistus, vaativat käynnin vastaanotolla, tuusulalainen Kimmo Vanhamäki pohtii.– Totta kai lääkärin täytyy päästä tunnustelemaan, jos jokin paikka on selkeästi rikki, Kaj-Erik Maukonen toteaa.Lääkärin etävastaanotto videoyhteydellä on joissain tapauksissa potilaalle paras vaihtoehto. Kuopion Yliopistollisen keskussairaalan ylilääkäri, neurologian professori Reetta Kälviäinen oli Ylen Aamussa Tapio Räihän haastateltavana 29.11.2022. </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>17</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Mikael Jantunen kirjoitti seura­his­toriaa Pariisissa – Susijengin päävalmentaja hehkuttaa liima­pe­laajansa uusia kykyjä</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20075614</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>23.02.2024</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">23-vuotiaasta Mikael Jantusesta on kasvanut Susijengin toiseksi tärkein pelaaja Lauri Markkasen jälkeen. </t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Susijengin luottopelaajan Mikael Jantusen ja valmentajana huipputyötä seuratasolla tehneen Tuomas Iisalon Paris Basketball valloitti viime sunnuntaina Ranskan cupin varmistaen seuralle sen ensimmäisen pokaalin.Nuori, vasta viiden vuoden ikäinen Paris Basketball voitti kolmeen päivään kolme tiukkaa cup-ottelua, mikä palkittiin komealla pytyllä. Jantunen teki myös finaalissa tärkeää työtä 12 pisteen ja kahdeksan levypallon tilastoilla. Irtopalloja 204-senttinen suomalainen repi finaalissa eniten molemmista joukkueista.– Seuran ensimmäinen pokaali on aina iso asia, ja näyttää mihin suuntaan seura on menossa. Seuran työntekijöille se saattoi jopa olla isompi asia kuin pelaajille. Pokaali oli kuitenkin vasta välietappi, kun työt jatkuvat ja päätavoitteet tulevat eteen vasta keväällä, Jantunen muistuttaa.– Hallilla oli hauskaa ja vähän ehdittiin juhlia, mutta porukka hajaantui heti voiton jälkeen, kun osa pelaajista lähti bussilla Pariisiin ja osa sitten maajoukkueiden mukaan.Jantunen on kehittynyt pienin askelin pelaajana, varsinkin hyökkäyssuuntaan. Cup-viikonvaihteen kolmessa ottelussa hän upotti esimerkiksi kolmoset huikealla heittoprosentilla 72,7 (8/11).– Olen ollut ihan tyytyväinen omaan esitykseeni, vaikka paljon on ollut oppimista sekä ylös ja alas -liikettä, niin kuin aina tapahtuu pitkän kauden aikana. Joukkueen menestys on tärkeintä. Kun seura menestyy, niin silloin myös oma suorittaminen on varmaan hyvällä tasolla, Jantunen tietää.Jantunen korostaa, että kausi on vasta puolikrouvissa. Kannattaa kysyä uudelleen kesäkuussa, onko hän tyytyväinen kauteen.– Luulen, että olen mennyt pienissä, yksityiskohtaisissa asioissa eteenpäin. Ne eivät ehkä välttämättä näy, mutta ovat seurassa tärkeitä juttuja ja sellaisia, jotka helpottavat yleistä pelaamista sekä ovat korkealla tasolla pelattaessa tekijöitä, jotka tekevät usein sen ratkaisevan eron.– Hyökkäyspelaamista olen painottanut, siinä olen mennyt vähän eteenpäin, myöntää jalkapallosta koripalloon 11-vuotiaana siirtynyt maajoukkuemies.Yksi kahdestatoista pelaajastaHelsinkiläisen Wartti Basketin kasvatti pitää matalaa profiilia omasta roolistaan Pariisissa.– Minä olen yksi kahdestatoista pelaajasta, joka antaa siellä kaikkensa. Meillä on laaja rotaatio sekä tiivis ryhmä ja nautimme toistemme kanssa pelaamisesta. Silloin tekee kaikkensa, että joukkue voittaa. Välillä se on pisteiden tekemistä, välillä irtopallojen hakemista.– Yritän olla mahdollisimman monipuolinen ja täyttää puolustuksessa ruutuni. Tärkeintä on oman roolin täyttäminen, mikä se sitten onkaan, ja se voi vaihdella pelistä toiseen.Ranskan pääsarjaa Jantunen pitää kilpailullisena sarjana, jonka pelit ovat usein haastavia ja hankalia pelaajien pelinopeuden, taidon ja urheilullisuuden takia.– Sarjassa on todella paljon hyviä pelaajia. Myös seurojen omat, nuoret pelaajat ovat kovatasoisia. Jokainen peli kehittää.Saksan koripallon Bundesliigassa viime vuodet menestyksekkäästi valmentanut Tuomas Iisalo siirtyi täksi kaudeksi Paris Basketballin päävalmentajaksi kolmevuotisella sopimuksella. Suomalaisluotsi on tiukan, vaativan valmentajan maineessa.– Koripalloasioissa pidetään tiukkaa linjaa ja sen ympärille on luotu sellainen kulttuuri, mutta sitten koriksen ulkopuolella hän on erittäin hyvä tyyppi ja kentän ulkopuolella ryhmänä on hauskaa. Tuomaksella on erittäin hyvä tasapaino koripallon ja ei-koripallon välillä, kehuu Jantunen ja jatkaa:– Itse tykkään suorasta ja rehellisestä palautteesta, mikä kehittää. Myös pelaajan pitää osata kantaa vastuuta, vaikka se ei aina ole välttämättä helppo paikka. Siitäkin pitää yrittää nauttia ja se, jos jokin kehittää nuoria.Susijengin liimapelaajaMyös Suomen koripallomiesten päävalmentaja Lassi Tuovi iloitsee Mikael Jantusen uran nousujohteisuudesta. Susijengissä Jantunen on toki paljon enemmän kuin ”yksi kahdestatoista pelaajasta”.– Hänellä on ollut Pariisissa erinomainen kausi ja menee urallaan määrätietoisesti, järjestelmällisesti koko ajan eteenpäin sekä entistä kovempiin paikkoihin. Hän on ottanut isompaa roolia ja kehittynyt pelaajana.– ”Micke” on aina ollut kova taistelija ja tunnettu enemmän puolustusspesialistina, mutta koko ajan hänelle tulee peliin lisää vivahteita. Väittäisin jopa, että kaikki me pääsemme nyt nauttimaan vähän uudenlaisista jutuista kentällä. Ennen kaikkea hän on äärimmäisen hyvä joukkuepelaaja, joka on kasvanut vuosien aikana Susijengin liimapelaajaksi molemmissa päissä kenttää, Tuovi alleviivaa.Avaa kuvien katseluAustralian Joe Ingles pujottelee pallon kanssa Lauri Markkasen ja Mikael Jantusen välissä MM-kisoissa 2023. Kuva: Getty ImagesSusijengin vastuuluotsi pitää Jantusta taistelijana, joka juoksee kenttää ja on moderni, iso pelaaja.– Olen iloinen siitä, että hän kehittää koko ajan pallollista pelaamistaan ja on tuonut siihen uusia juttuja Pariisissa. Tämä kuvaa hänen intohimoaan ja myös kurinalaisuutta siihen, että pitää olla entistä parempi ja kehittää samaan aikaan heikkouksia. Mickestä tulee vuosien saatossa monipuolinen pelaaja, kunhan hänelle vain antaa aikaa ja ennen kaikkea malttia sen suhteen.Susijengi on yhtenä syksyn 2025 EM-kisaisännistä paikkansa tulevissa kisoissa jo varmistanut, mutta tulevat kuusi karsintaottelua määrittelevät EM-alkulohkoissa vastaan asettuvat joukkueet.Suomi kohtaa perjantai-iltana 23. helmikuuta kello 21 alkaen Belgradin korissaunassa lajin menestysmaan, Fiba-rankingin Euroopan kakkosen Serbian ja maanantaina 26.2. Espoossa Tanskan.– Harvemmin pääsee pelaamaan vaikkapa vieraspelissä Serbiaa vastaan, jolla on puolet joukkueesta MM-hopeamitalisteja ja loput pelaajista Euroliigan pelaajia. Jokainen pelaaja haluaa menestyä tällaisessa ympäristössä, ja se on hyvä mahdollisuus ottaa taas askeleita eteenpäin, Jantunen innostuu.– Myös Tanskalta löytyy Euroopan huippuyksilöitä. On aina iso asia edustaa maataan ja haastaa huippuyksilöitä. Aina pelataan kunniasta.EM-karsinnan muut ikkunat pelataan marraskuussa 2024 ja helmikuussa 2025.Voit katsoa Mikael Jantusen Juuret-jakson Yle Areenasta. Sarjassa pääset tutustumaan myös Elias Valtosen, Sasu Salinin, Lauri Markkasen ja Lassi Tuovin tarinoihin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>18</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Jopa kolme neljäsosaa potilaista hoidetaan etänä – katso tästä, miten isoja alueiden väliset erot ovat</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076644</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Selvitimme, kuinka paljon hyvinvointialueet järjestävät lääkäreiden ja hoitajien etävastaanottoja. Jossain ne ovat arkea, toisaalla eivät niinkään.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyvinvointialueilla hoidetaan potilaita enenevässä määrin etänä. Ylen hyvinvointialueille tekemästä kyselystä selviää, kuinka paljon.Näin alueilla hoidetaan potilaita etänäEtelä-Karjala: lääkärien vastaanotoista etänä on noin 15 %, hoitajien vastaanotoista noin kahdeksan prosenttiaEtelä-Savo: lääkärien vastaanotoista 25–30 % etänä, hoitajien vastaanotoista 17 %Helsinki: kaikista vastaanotoista noin 25,1 %Itä-Uusimaa: kaikista vastaanotoista 26,1 % (lääkärikäynneistä 10,4 % ja hoitajakäynneistä 34,4 %)Pohjois-Karjala: arviolta puolet on etäkäyntejäKainuu: kaikista terveysaseman potilaskontakteista 70–75 % etävastaanottoinaKanta-Häme: lääkärien vastaanotoista etänä on 14,3 %, hoitajien vastaanotoista 51,2 %Keski-Pohjanmaa: lääkärien vastaanotoista etänä on 10–20 %, hoitajien vastaanotoista 5–10 %Keski-Suomi: lääkärien vastaanotoista etänä on 23 %, hoitajien vastaanotoista 43 %Keski-Uusimaa: lääkärien vastaanotoista etänä on 22 %, hoitajien vastaanotoista 32 %Lappi: perusterveydenhuollon avopalveluissa noin 30 % etänäLänsi-Uusimaa: lääkärien vastaanotoista etänä noin 17 % etänä, hoitajien vastaanotoista 47 %Pohjois-Pohjanmaa: perusterveydenhuollossa ja erikoissairaanhoidossa 24–25 % hoidetaan etänäVarsinais-Suomi: noin 25 % kaikista käynneistä23 alueesta 20 vastasi kyselyyn. Ahvenanmaa, Kymenlaakson ja Pohjanmaa eivät vastanneet ollenkaan. Vastanneista hyvinvointialueista kaikki eivät vastanneet täsmällisesti tai lainkaan kysymykseen etävastaanottojen määrästä, minkä vuoksi ne eivät ole listalla mukana. Nämä hyvinvointialueet ovat Pohjois-Savo, Satakunta, Päijät-Häme, Etelä-Pohjanmaa, Pirkanmaa sekä Vantaa ja Kerava. Helsinki ja Ahvenanmaa eivät ole hyvinvointialueita, mutta järjestävät palveluita.AvaaEtähoito nousi puheenaiheeksi viime viikolla, kun Ylen MOT-toimitus kertoi lääkärien ja hoitajien kokeneen, että heitä on painostettu hoitamaan potilaat etänä oman ammattietiikkansa vastaisesti.Etähoito säästää vastaajien mukaan sekä potilaiden että työntekijöiden aikaa. Kun asiat helpoimmasta päästä hoituvat sähköisesti, jää enemmän aikaa niille potilaille, joiden on välttämätöntä päästä vastaanotolle.Varsinaisia säästöjä etähoidolla ei hyvinvointialueiden mukaan haeta.Esimerkiksi Kainuussa etävastaanotot ovat jo arkea: koko hyvinvointialueella kaikista terveysaseman potilaskäynneistä reilu 70 prosenttia on etänä.Kainuussa ensimmäinen yhteys perusterveydenhuoltoon on aina puhelimella, hyvinvointialueen johtaja Jukka Lindberg sanoo.– Sitä ei voi hoitaa fyysisesti. Muuten kaikkialla olisi hurjia jonoja, Lindberg jatkaa.Kainuussa etävastaanotoista ei ole Lindbergin mukaan yhdenmukaista selkeää ohjeistusta, mutta potilaat ohjataan matalalla kynnyksellä vastaanotolle, jos ammattilainen näin arvioi.– Etävastaanotoilla säästetään potilaan aikaa, vaivaa ja kulkemiseen käytettyä aikaa, mutta pitää tarkasti katsoa mitä asioidaan etänä potilaan kanssa. Etänä hoidettavat asiat ovat vaikka hoidon seurantaa tai tutkimustulosten läpikäyntiin liittyviä asioita, jolloin fyysinen tapaaminen on turha, Lindberg summaa.Avaa kuvien katseluMoni asia voidaan hoitaa perusterveydenhuollossa etänä, Kainuun hyvinvointialueen johtajan Jukka Lindberg sanoo. Kuva: Jarmo Nuotio / YleLänsi-Uudenmaan terveysasemilla melkein puolet hoitajien vastaanotoista hoidetaan etänä, mutta etäilyssä on vaihtelua terveysasemittain paljon. Vaihtelua on siksi, kun suhteellisen uusilla hyvinvointialueilla on vielä monien kuntien omia käytäntöjä, joita ei ole ehditty yhdenmukaistaa, hyvinvointialueen palvelulinjajohtaja Anu Mustakari sanoo.Esimerkiksi Espoossa Kilon terveysasemalla moni potilas hoidetaan jo etänä.– Lääkärit päättävät itse, mitkä potilaat haluavat katsoa läsnävastaanotoilla ja mitkä he kokevat, että voidaan hoitaa etänä, Mustakari sanoo.– Niillä asemilla, joissa lääkärin työpanosta hyödynnetään heti ensi puhelusta lähtien, on vähemmän jonoja, Mustakari summaa.Avaa kuvien katseluMikään algoritmi ei määrittele potilaan tekemän oman arvioinnin perusteella, onko tarvetta vastaanotolle, vaan sen tekee ihminen, Länsi-Uudenmaan hyvinvointialueen palvelulinjajohtaja Anu Mustakari sanoo. Kuva: Kristiina Lehto / YleVaihtelua alueiden välillä on.Esimerkiksi Pohjois-Karjalan hyvinvointialueella arviolta puolet perusterveydenhuollon käynneistä ovat etäkäyntejä sen kummemmin erittelemättä, mistä vastaanotoista on kyse. Samoin Kanta-Hämeessä reilu puolet hoitajien vastaanotoista perusterveydenhuollon puolella hoidetaan etänä.Aivan kaikkialla etävastaanotot eivät ole ottaneet niin isoa jalansijaa. Esimerkiksi Etelä-Karjalassa terveysasemien hoitajien vastaanotoista noin kahdeksan prosenttia hoidetaan etänä, lääkärien vastaanotoista noin 15 prosenttia. Samankaltaisia lukuja on esimerkiksi Keski-Pohjanmaalla.Jopa puolet perusterveydenhuollon vastaanotoista voisi olla etänäEtävastaanotoissa on hyvin suunniteltuna paljon mahdollisuuksia, Helsingin yliopiston apulaisprofessori Paulus Torkki sanoo.– Pitkäaikaissairauksien osana sillä [etäasioinnilla] saadaan rakennettua hoitoon jatkuvuutta, jos se on hodiettu hyvin. Siten saa kustannustehokkaasti hyvää hoitoa potilaalle.Torkin mukaan etävastaanotoissa on toki myös riskejä. Siinä ei voi samalla tavalla tutkia potilasta kuin fyysisessä vastaanotossa, hän sanoo. Potilaan pitää myös osata asioida etänä.Silti hän on toiveikas, sillä ison osan perusterveydenhuollosta voisi nyt jo hoitaa etänä.– Hyvin suunniteltuna, osana hoitokokonaisuuksia, jopa puolet vastaanotoista saattaisi olla mahdollisesti sellaisia, että ne voisi hoitaa etänä, Torkki kuvaa etähoidon mahdollisuuksia perusterveydenhuollossa.Lääkärin etävastaanotto videoyhteydellä on joissain tapauksissa potilaalle paras vaihtoehto. Kuopion Yliopistollisen keskussairaalan ylilääkäri, neurologian professori Reetta Kälviäinen oli Ylen Aamussa Tapio Räihän haastateltavana 29.11.2022. </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>18</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Ex-suurlä­het­tiläs: Länsimailla muutaman kuukauden aikaikkuna paikata Ukrainan akuutti ammuspula</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076035</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>22.02.2024</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Venäjän hyökkäyssota Ukrainassa on jatkunut jo pian kaksi vuotta. Asiantuntijat keskustelivat A-Talkissa Ukrainan tukemisesta ennen Venäjän mahdollista suurhyökkäystä koko Itä-Ukrainan valloittamiseksi.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Entisen Moskovan-suurlähettilään Hannu Himasen mukaan länsimailla on vain muutaman kuukauden aikaikkuna paikata Ukrainan akuutti ammuspula ennen Venäjän mahdollista suurhyökkäystä Ukrainaan.Venäjän arvellaan suunnittelevan suurhyökkäystä koko Itä-Ukrainan valloittamiseksi. A-Talkissa asiantuntijat arvioivat hyökkäyksen mahdolliseksi ajankohdaksi loppukevään tai alkukesän.– Tšekki ja Tanska ovat tehneet töitä yhdessä ja ne ovat löytäneet maailmanmarkkinoilta 800 000 tykistöammusta, jotka ovat ostettavissa heti. Suuri osa näistä on muualta kuin Naton jäsenmaista. Tässä olisi keino toimia nopeasti, Himanen sanooHimasen mukaan Tšekin ja Tanskan suunnitelmalla saataisiin ostettua aikaa sille, että Euroopan oma ammustuotanto saataisiin jaloilleen.Euroopan unionin ammustoimitukset Ukrainaan ovat laahanneet jäljessä tavoitteestaan. EU on Viron aloitteesta luvannut toimittaa Ukrainaan miljoona raskasta tykistöammusta ensi kevääseen mennessä.Himasen mukaan Tšekin ja Tanskan suunnitelma jakaa EU-maita.– EU:lla olisi rahaa, mutta joukko tärkeitä EU-maita on sitä mieltä, että pitää tukea omaa puolustusteollisuutta, eikä ostaa EU:n ulkopuolelta mitään.Puolustusministeri Antti Häkkäsen (kok.) mukaan tilanne EU:n puolustusteollisuudella on parempi kuin ennen.– Talven aikana on ollut parempia merkkejä. Olemme viisinkertaistaneet kokonaisuudessaan meidän tuotantomäärät sotaa edeltävään aikaan nähden. Uskon, että tämä on saanut liikkeelle myös monet muut EU-maat.Häkkäsen mukaan EU tulee näin ollen sittenkin saavuttamaan tai jopa ylittämään tavoitteensa toimittaa Ukrainalle miljoona tykinammusta.”Euroopalla peiliin katsomisen paikka”Sekä Himanen että Häkkänen ovat yhtä mieltä siitä, että Euroopalla on peiliin katsomisen paikka.– Poliittinen dynamiikka on ollut sellainen, että on luotettu Yhdysvaltain johtoasemaan Ukrainan tukemisessa. Nyt kun se on hukassa, niin katsotaan olan yli, että mitä tässä voisi tehdä, Himanen arvioi.Yhdysvalloissa asetukipaketti Ukrainalle on jumiutunut maan kongressiin. Keskiviikon A-studiossa arvioitiin, että jumi saattaisi kestää ensi marraskuun presidentinvaaleihin asti.Myös Häkkäsen mukaan Euroopassa on alisuoriuduttu Ukrainan tukemisessa.– On annettu liian vähän ja liian hitaasti. Meidän pitää voida osoittaa kaikille maailman autoritäärisille johtajille, että demokraattiset maat kykenevät mobilisoimaan tällaista hirmuhallintoa vastaan riittävän tuen. Nyt on selvästi alisuoriuduttu.Tästä on kyseVenäjän hyökkäyssodan alkamisesta Ukrainassa tulee lauantaina kuluneeksi kaksi vuotta.Ukraina joutui tällä viikolla vetäytymään Avdijivkan kaupungista ja Venäjän uskotaan suunnittelevan suurhyökkäystä koko Itä-Ukrainan valloittamiseksi.Tuore kysely osoittaa, että enää vain harva eurooppalainen uskoo Ukrainan voittoon.Yhdysvaltain asetukipaketti Ukrainalle on jumiutunut maan kongressiin.EU ja Britannia ovat hiljattain ilmoittaneet uusista Venäjä-pakotteista.AvaaKatso koko A-Talk Yle Areenasta.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>18</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Ruoka­jär­jestelmä ei ole kestävällä pohjalla – ”Jos ratkaisuja ei nyt löydy, niin ei niitä kohta enää tarvitse etsiäkään”</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20074587</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>25.02.2024</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Maataloudelta vaaditaan ilmastotekoja. Samaan aikaan ruokajärjestelmä pakottaa viljelijät toimimaan kestävyysvaatimuksia vastaan.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Pyyahon tilan navetan reilu 30 lypsävää makoilee parsissaan ja märehtii. Välillä kuuluu tyytyväistä ynähtelyä.Vasikat ovat imeneet mahansa täyteen juottoautomaatista ja heittävät vielä muutaman villin juoksukierroksen ennen päiväunia.Näin valmistuu raaka-ainetta kaupoissa myytäviin maito- ja lihatuotteisiin.Pyyahon tilan lehmiä ei ole viritetty maidon huipputuottajiksi.– Me keskitymme eläimen terveyteen vasikasta saakka, kertoo tilaa pari vuotta pyörittänyt Juha Mäkinen.Eläimet vaativat jatkuvaa huolenpitoa ympäri vuoden, ja työtunteja laskematta.Lisäksi Mäkinen tekee yrittäjänä maansiirtourakointia.Maatilalle on palkattu työvoimaa, että omistajat eivät uupuisi.– Tilan työmäärä on siitä tulevaan rahaan nähden suuri, sanoo Mäkinen.30 lypsävää ei takaa perheelle riittävää toimeentuloa.Pohdinnassa on joko tuotannon laajentaminen tai lehmistä luopuminen ja vaihto muuhun viljelyyn.Ruoan turvaaminen vaatii muutostaMaatalouden kannattavuus on rypenyt pohjamudissa jo pitkään.Samaan aikaan kun viljelijät painivat taloushuolien kanssa, pitäisi vähentää maatalouden haitallisia vaikutuksia luontoon, ilmastoon, vesistöihin ja maaperään.– Se vaatii resursseja, joita viljelijöillä ei ole, sanoo tutkijatohtori Irene Kuhmonen Jyväskylän yliopistosta.Kuhmonen on tutkinut viljelijöiden roolia ruokajärjestelmän kestävyyssiirtymässä.Maatalousyrittäjiltä löytyisi sekä halua että kykyä muutokseen.Ongelma on se, ettei viljelijöillä ole valtaa vyöryttää ilmasto- ja ympäristötoimien kustannuksia tuotteiden hintoihin.Nykyisessä ruokajärjestelmässä ostaja sanelee hinnat ja se johtaa käytännössä monimuotoisuuden heikentymiseen.– Onhan se aika skitsofreenista, että isot firmat julistavat olevansa kiinnostuneita kestävyydestä, mutta samaan aikaan jatkavat hintojen polkemista, sanoo Kuhmonen.Nykyinen suunta ei kestäJos maataloudesta haluaa saada elinkeinon, sitä on tehtävä isosti, tehokkaasti ja erikoistuen.Suuressa mittakaavassa ympäristövaikutukset kasaantuvat tietyille alueille. Lisäksi erikoistuminen yksipuolistaa maatalousympäristöjä.Nykyiset maataloustuet kannustavat viljelijöitä valitsemaan ympäristön ja ilmaston kannalta hyviä toimintatapoja.Se ei kuitenkaan riitä.– Vaikka Suomen kaikki viljelijät tekisivät heiltä odotettuja kestävyystoimia, se ei välttämättä riittäisi negatiivisen kehityssuunnan katkaisemiseen, sanoo Kuhmonen.Koko järjestelmä olisi pantava uusiksi.Se tarkoittaa vakavaa pohdintaa esimerkiksi siitä, mitä ruokajärjestelmässä tarkoittaa fossiilitaloudesta irtaantuminen tai miten typpilannoitteet valmistetaan ilman venäläistä ammoniakkia.Ympäristölle kestävin tapa järjestää ruoantuotanto ei välttämättä ole tehokkain tapa.Kuhmosen mukaan luonnon monimuotoisuuden ylläpito vaatisi monipuolista tuotantorakennetta, ja todennäköisesti nykyistä enemmän pieniä tiloja.Tuotantorakenteen monipuolisuus tarkoittaa sitä, että kaikki alueen maatilat eivät tuottaisi esimerkiksi maitoa, vaan monipuolisesti eri maataloustuotteita.– Nyt mennään kohti vahvaa erikoistumista, vaikka luonnon monimuotoisuuden tukeminen vaatisi päinvastaista suuntaa, hän sanoo.Jos viljelijä saisi päättääJuha Mäkinen pyrkii viljelemään tavoilla, joka vähentävät maatalouden kasvihuonekaasupäästöjä tai varastoivat hiiltä. Sitä sanotaan hiiliviljelyksi.Tilan lehmät laiduntavat keväästä pitkälle syksyyn. Laiduntaminen ylläpitää maatalousympäristön monimuotoisuutta.Videolla kerrotaan miksi pieni maitotila voi olla suurta yksikköä kestävämpi. Video: Isto Janhunen / YleIlmasto- ja ympäristötoimet eivät kuitenkaan näy riittävästi maidosta saatavassa hinnassa.Ruoantuotannon tulevaisuuden kannalta maatalouden kannattavuus on avainasemassa.– Nuoria ei houkutella alalle pitkillä työpäivillä ja huonolla palkalla. Pitää olla myös vapaa-aikaa, sanoo Mäkinen.Jos kannattavuutta ei tarvitsisi miettiä, Pyyahon tila pysyisi pienenä ja sen lehmät laiduntaisivat kuten ennenkin.– Kun jäisi vähän enemmän vapaa-aikaa ja pystyisi työllistämään, niin tämä olisi semmoinen meidän näköinen tila, sanoo Mäkinen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>19</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Japanissa tuhannet ottivat osaa ”naku­fes­ti­vaaliin”</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076343</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>25.02.2024</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Naisten osallistumista juhlaan ei ole erikseen kielletty, mutta konservatiivisessa Japanissa naisen osallistumista nakufestivaalin ei ole perinteisesti pidetty sopivana.</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Hadaka Matsuri -juhlaa on vietetty Japanissa jo ainakin 1 250 vuotta, mutta vasta tänä vuonna tuhannet naiset osallistuivat juhlaan täysvaltaisina jäseninä, uutisoi Britannian yleisradioyhtiö BBC.Hadaka Matsurin perinteeseen kuuluu juhlakulkue ja niin sanottu nakufestivaali, jonka aikana osallistujat liikkuvat katuja pitkin lähes alastomina.Harvemmin japanilaiset kulkevat kaduilla täysin alasti. Useimmilla osallistujilla oli tänäkin vuonna päällään lanneliina, joka peitti sukupuolielimet.Naisten osallistumista juhlaan ei ole erikseen kielletty, mutta konservatiivisessa Japanissa naisen osallistumista nakufestivaaliin ei ole perinteisesti pidetty sopivana.Nyt tilanne on muuttumassa. Tänä vuonna tuhannet naiset marssivat Hadaka Matsuri -juhlan kulkueessa valkoisin shortseihin ja liiloihin kaapuihin pukeutuneena.Lähde: Reuters</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>19</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Navalnyin äiti näki viimein poikansa ruumiin – viranomaiset kiristävät salaisiin hautajaisiin</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076038</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>22.02.2024</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Perjantaina kuolleen Aleksei Navalnyin tiedottaja Kira Jarmyš kertoo, että oppositiojohtajan äidille näytetyn kuolintodistuksen mukaan Navalnyi kuoli ”luonnollisesti”.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Venäjällä viime perjantaina kuolleen oppositiojohtaja Aleksei Navalnyin äiti Ljudmila Navalnaja sanoo nähneensä viimein poikansa ruumiin. Navalnyin tiedottaja Kira Jarmyš on jakanut yhteisöpalvelu X:ssä Youtube-videon, jolla Navalnaja kertoo asiasta.Navalnaja kertoo päässeensä poikansa ruumiin luo Salehardissa Luoteis-Siperiassa sijaitsevalla ruumishuoneella.– Eilen illalla he veivät minut salaisesti ruumishuoneelle, missä he näyttivät Aleksein minulle, Navalnaja kertoo videolla.Navalnajan mukaan Venäjän viranomaiset eivät suostu luovuttamaan Navalnyin ruumista. Viranomaiset vaativat Kremlin käskystä Navalnajan mukaan yksityisiä, salaisia hautajaisia. Navalnaja kertoo myös, että viranomaiset vaativat saavansa päättää missä, milloin ja miten Navalnyi haudataan.– He haluavat, että tämä hoidetaan salaisesti ilman hyvästejä. He haluavat viedä minut hautausmaan laidalle tuoreelle haudalle ja sanoa: tässä makaa poikasi. En suostu tähän, Navalnaja sanoo.Navalnaja sanoo, että kuolemansyytutkijat uhkaavat tekevänsä jotain hänen poikansa ruumiille, mikäli hän ei suostu hautajaisten ehtoihin.Kyseiset viranomaiset eivät vastanneet uutistoimisto Reutersin kommenttipyyntöön.Navalnyi kuoli viime viikolla vankilassa Siperiassa 47-vuotiaana. Jarmyš kertoo erillisessä X-julkaisussa, että Navalnajalle näytetyn kuolintodistuksen mukaan Navalnyi kuoli ”luonnollisesti”.Jarmyš on sanonut uskovansa, että Venäjän hallinto pyrkii ruumista panttaamalla piilottelemaan Navalnyin kuolinsyytä. Esimerkiksi Jarmyš ja Navalnyin vaimo Julija Navalnaja ovat sanoneet, että Navalnyi murhattiin.Navalnyin vankilaolojen on kerrottu olleen erittäin rankat.Lähteet: Reuters, AFP</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>19</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Ruotsa­lais­mediat: Lopullinen sinetti Ruotsin Nato-jäsenyydelle ei toteudu tällä viikolla</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076703</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Unkarin parlamentti hyväksyi Ruotsin Nato-jäsenyyden ratifioinnin maanantaina. Ennakkoon on ollut spekulaatioita siitä, että Unkarin uuden presidentin allekirjoitus voi viivästyttää prosessia. Hän aloittaa virassaan 5. maaliskuuta.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Ruotsin Nato-jäsenyyden lopullinen sinetti ei toteudu vielä tällä viikolla, kertoo muun muassa ruotsalainen tv-yhtiö SVT verkkosivuillaan. SVT:n mukaan Ruotsin ulkoministerin Tobias Billströmin piti tällä viikolla matkustaa Yhdysvaltoihin Washingtoniin tilaisuuteen, jossa Ruotsin Nato-jäsenyysasiakirjat talletetaan Yhdysvaltojen ulkoministeriöön.Samassa yhteydessä Ruotsin suurlähetystössä Washingtonissa oli tarkoitus järjestää vastaanotto, mutta se on siirtynyt.Ruotsin Yhdysvaltain-suurlähettiläs on lähettänyt sähköpostin vastaanoton kutsuvieraille, että asiakirjojen talletus ei tapahdu tällä viikolla. Siksi vastaanotto siirretään myöhempään ajankohtaan.Billströmin mediavastaava oli kertonut SVT:lle tekstiviestitse, ettei ulkoministeri kommentoi Unkarin ratifiointiprosessin mahdollista viivästymistä. Lisäksi Washingtonin-matkan osalta on koko ajan tehty töitä erilaisten skenaarioiden mukaan.Unkarin parlamentti hyväksyi Ruotsin Nato-jäsenyyden ratifioinnin maanantaina. Samassa parlamentin istunnossa Unkarille valittiin uusi presidentti, Tamas Sulyok, joka aloittaa virassaan 5. maaliskuuta. Sulyokin on vielä allekirjoitettava parlamentin ratifiointipäätös. Ennakkoon on ollut spekulaatioita siitä, että Unkarin presidentin allekirjoitus voi viivästyttää prosessia.Suomen osalta aikanaan prosessi eteni niin, että silloinen ulkoministeri Pekka Haavisto (vihr.) luovutti jäsenyysasiakirjat Naton päämajassa Brysselissä Yhdysvaltain ulkoministerille Antony Blinkenille.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>20</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Yhdysvaltain ja Venäjän presidentit sanasodassa – Putin vinoili Bidenin huoranpenikka-lausunnolle</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076050</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>22.02.2024</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Putin sanoi, ettei Biden sisäpoliittisista syistä voi kutsua häntä hyväksi mieheksi.</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Yhdysvaltain presidentti Joe Biden kutsui eilen keskiviikkona presidentinvaalien varainkeruutilaisuudessa San Franciscossa Venäjän presidentti Vladimir Putinia hulluksi huoranpenikaksi. Biden käytti luonnehdintaa puhuessaan ilmastokriisistä.– Meillä on hullu huoranpenikka, kuten Putin sekä muita, ja meidän on aina oltava huolissamme ydinasekonfliktista, mutta ihmiskunnan eksistentiaalinen uhka on ilmasto, Biden sanoi.Kremlin tiedottaja Dmitri Peskov kommentoi torstaina lausuntoa häpeälliseksi Yhdysvalloille ja Bidenille itselleen. Hän arveli Bidenin tavoitelleen puheellaan hollywoodilaista cowboy-käytöstyyliä kotimaisten poliittisten etujensa takia.Putin ei kuitenkaan lähtenyt samoille linjoille, kun venäläinen toimittaja Pavel Zarubin kysyi häneltä reaktiota Bidenin lausuntoon.– Yhdysvaltain presidentti Biden on jälleen puhunut teistä karkeasti, Zarubin sanoi uutistoimisto Reutersin välittämässä haastattelussa.– Karkeasti?– Niin, karkeasti. En haluaisi lainata häntä, mutta hän on Yhdysvaltain presidentti. Hän kutsui teitä hulluksi huoranpenikaksi. Te ette ole koskaan sanoneet mitään lähellekään samanlaista kenestäkään tai sanoneet mitään epäsopivaa kenestäkään. Tuleeko vastauksenne olemaan samanlainen?– Kuule, mehän juttelimme vähän aikaa sitten. Sinä kysyit, kenet mieluiten näkisin Yhdysvaltain tulevana presidenttinä. Minä sanoin, että voisimme työskennellä kenen presidentin kanssa tahansa. Mutta luulen, että meille, Venäjälle, Biden on parempi. Päätellen tuosta, mitä juuri sanoit, olin aivan oikeassa. Koska se oli aivan sopiva reaktio siihen, mitä olin sanonut. Miksi? Siksi, että ei hän voi sanoa: ”Volodja, olet hyvä mies. Olet auttanut minua paljon.”, Putin vastasi.– Me ymmärrämme, mitä Yhdysvaltain politiikassa tapahtuu. Ja tuo reaktio oli täysin sopiva. Se tarkoittaa, että olin oikeassa. Se mitä sanoin, oli tarkoitettu ennen kaikkea meidän yleisöllemme, eikä amerikkalaisille. Sinähän olet kuitenkin venäläinen toimittaja. Ja sinä kysyit, kumpi olisi parempi meille. Joten kerroin sen sinulle ja toistan sen nyt: Biden on parempi.Putin kommentoi viikko sitten ensimmäisen kerran, että Biden olisi parempi vaihtoehto Yhdysvaltojen tulevaksi presidentiksi kuin republikaanien presidenttiehdokkuutta tavoitteleva Donald Trump.– Biden on kokeneempi. Hän on ennustettava, vanhan koulukunnan poliitikko, Putin sanoi Zarubinille, kun tämä kysyi asiasta.Lähteet Reuters, STT</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>20</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Lapin paluumuuttaja järkyttyi: Suurkaivoksen jäteputki uhkaa tulla kotirantaan Kemijoella</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076677</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Vihreän siirtymän nimissä ajettava Suhangon kaivoshanke hakee lupaa laskea jätevetensä Kemijokeen tervolalaisen Pirjo Anttilan kodin viereen.</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Tervolaan Kemijoen rannalle kotiseudulleen muuttanut Pirjo Anttila teki pitkän uran sairaanhoitajana Helsingissä.Pari vuotta sitten Anttila muutti takaisin Tervolaan lapsuudesta rakkaan Kemijoen rantatörmälle.Tapasimme Anttilan sattumalta etsiessämme kuvauspaikkaa, josta näkisi joelle Oinaansaaren alapuolelle, minne Ranualle kaavailtu Suhangon suurkaivos hakee lupaa laskea jätevetensä.Olimme tekemässä juttua siitä, kuinka Kemijoki on vaarassa muuttua vihreän siirtymän viemäriksi useiden kaivos- ja vesivoimahankkeiden yhteisvaikutusten vuoksi.Anttila ei ole aiemmin kuullutkaan suunnitellusta purkuputkesta. Hän järkyttyy tiedosta.– Ihmettelen, kuka ihminen on tällaisen takana. Kuka voi kuvitellakaan laskevansa likavesiä meidän vesistöömme? Aivan pöyristyttävää, Anttila sanoo kotirannassaan.Hän kertoo tuntevansa purkuputken suunnitellun paikan hyvin, koska on liikkunut vesillä sup-laudalla.Avaa kuvien katseluKemijoen Oinaansaari kesäkuussa 2022. Suhangon suurkaivoksen jätevesien purkuputken suun suunnitellaan tulevan virtaan saaren alapuolelle.  Kuva: Pirjo Anttila ”Pitää olla jo jokin toinen keino”Suhanko on yli 50 kilometrin päässä Ranualla ja sieltä käsitelty jätevesi johdettaisiin putkea pitkin Kemijokeen.Hankkeen omistavat Suhanko Arctic Platinum -nimisen kaivoshankeyhtiön kansainväliset pääomasijoittajat.Yhtiön ympäristö- ja vesitalouslupahakemus on parhaillaan Pohjois-Suomen aluehallintoviraston käsittelyssä.Kaivoksen jätevesien purkuputken suu tulisi muutaman sadan metrin päähän Pirjo Anttilan saunarannasta ylävirran puolelle.Anttila on epäileväinen puhdistetun jäteveden laadun suhteen.– Kyllä tässä maailmassa pitää olla jo jokin toinen keino, millä niitä käsitellään. Ei likaamalla vesistöä.Voit myös kuunnella haastattelun.Lapin paluumuuttaja järkyttyi: Suurkaivoksen jäteputki uhkaa tulla saunarantaan Kemijoella</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>21</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Valko-Venäjän valtiojohto väittää Naton ja Euroopan valmistelevan sotatoimia maataan vastaan</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076039</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>22.02.2024</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Valko-Venäjän valtiojohdon lausuntojen tarkoituksena on luoda Lukašenkasta mielikuva, jonka mukaan hän on maalleen rauhan edellytys, sanoo Ulkopoliittisen instituutin ohjelmajohtaja Arkady Moshes.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Valko-Venäjän valtiojohto väittää, että länsimaat suunnittelevat sotilaallisia toimia Valko-Venäjää vastaan. Asiasta kertoo maan puolustusministeri Viktor Hrenin Valko-Venäjän valtiollisen uutistoimisto Beltan mukaan.– Näemme, että Länsi-Eurooppa on Yhdysvaltojen johdolla ryhtynyt toimenpiteisiin valmistautuakseen sotilaalliseen toimintaan. Ymmärrämme, keitä vastaan nämä toimet tullaan kohdistamaan, Hrenin sanoo.Hrenin väittää lisäksi, että sotilasliitto Nato aikoo ”sotaharjoituksen varjolla” perustaa nopean toiminnan joukkoja ja sijoittaa ne lähelle Valko-Venäjän rajaa.Natolla on tällä hetkellä käynnissä Steadfast Defender 2024 -harjoitus, joka on Naton ylimmän sotilaskomentajan Chris Cavolin mukaan liittouman suurin harjoitus vuosikymmeniin. Harjoituksessa Nato-maat testaavat sotilasliiton valmiutta torjua Nato-maahan hyökänneitä Venäjän joukkoja, Financial Times kirjoittaa.Myös Valko-Venäjän itsevaltainen johtaja Aljaksandr Lukašenka kertoo olevansa huolissaan Naton toimista Valko-Venäjän ja Venäjän rajoilla.Avaa kuvien katseluVenäjän puolustusministeri Sergei Šoigu (vasemmalla), Valko-Venäjän puolustusministeri Viktor Hrenin ja Lukašenka tapasivat Minskissä 3. helmikuuta 2022. Kuva: Maxim Guchek / BelTA / TASS / AOPLukašenka väittää, että maiden rajojen välittömässä läheisyydessä on tällä hetkellä noin 32 000 Naton ja Yhdysvaltain sotilasta. Lukašenkan lausunnoista kertoo hänen hallintonsa alaisuudessa ja viestipalvelu Telegramissa toimiva Pul Pervogo -propagandakanava.– Kollektiivisen lännen nälkä kasvaa ja sen aktiivisuus lisääntyy. USA ja sen liittolaiset laajentavat Natoa edelleen. Tilanne on heille enemmän kuin suotuisa. Sanon sen suoraan ilman turhaa diplomatiaa: lähes kaikki Euroopan johtajat ovat muuttuneet USA:n alamaisiksi, Lukašenka väittää.Tutkija: Lukašenkasta halutaan luoda mielikuva rauhan takaavana johtajanaUlkopoliittisen instituutin ohjelmajohtaja Arkady Moshes näkee, että Valko-Venäjän valtiojohdon lausuntojen tarkoituksena on luoda Lukašenkasta mielikuva, jonka mukaan vain hän voi taata rauhan maassaan.– Lausunnot eivät ole millään tavalla vakavasti otettavia. Ne ovat rutiininomaisia ja osa normaalia propagandaa. Niiden viesti on, että Lukašenka on ainoa johtaja, joka voi säilyttää rauhan Valko-Venäjällä, Moshes sanoo.Lukašenka sanoi 29. syyskuuta 2023 pitämässään puheessaan, että maan tärkein tehtävä on estää uusi maailmansota.Moshes arvioi, että lausuntojen taustalla on lisäksi Lukašenkan henkilökohtaiset pyrkimykset näyttäytyä merkittävänä johtajana länsimaille. Moshes sanoo, että Lukašenka on pyrkinyt tähän muun muassa luomalla lännelle turvallisuusuhkia.– Sitä hän yritti puhuessaan venäläisten ydinaseiden sijoittamisesta Valko-Venäjälle. Hän yritti tätä myös silloin, kun hän toivotti Wagner-palkkasotilasryhmän tervetulleeksi maahansa ja puhui Wagnerin lähettämisestä Puolaan.Lukašenka uskoo, että tällaisilla keinoilla länsimaat olisivat halukkaita neuvottelemaan hänen kanssaan, Moshes sanoo.– Tämä on yksi hänen keinoistaan. Hän sanoo, että on kriisi ja jotain voi tapahtua ja länsimaiden pitäisi jotenkin reagoida siihen.Myös Venäjän Ukrainassa aloittamalla hyökkäyssodalla on rooli Valko-Venäjän valtiojohdon lausunnoissa. Moshes uskoo, että lausuntojen tarkoituksena on myös siirtää huomio pois siitä, että maa mahdollisti Venäjän toimet Ukrainassa noin kaksi vuotta sitten.– Valko-Venäjä on kansainvälisen oikeuden näkökulmasta hyökkääjävaltio, joka oli mukana Venäjän hyökkäyksessä. Huomio halutaan kiinnittää muualle, jotta ihmiset eivät puhuisi tästä.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
         <v>22</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Nicolas Cagesta tuli tähti ja vitsi – ”Urani on ollut rakkauden ja vihan välistä aaltoliikettä”, hän sanoo Ylelle</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20074979</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>25.02.2024</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Elokuvauransa lopettamista pohtiva filmitähti kertoo Ylelle antamassaan yksityishaastattelussa, mistä Nicolas Cage on tehty.</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Nicolas Cage on nero tai narri. Hän saattaa olla molempia.60-vuotias filmitähti on tehnyt elokuvissa kaikkea mahdollista. Hän on ollut ison budjetin hittien vetonaula ja näytellyt mieleenpainuvia rooleja pienissä elokuvissa, joista vain harva on kuullut.Cagen ylilyövä tapa näytellä joko riemastuttaa tai ärsyttää. Häntä on luonnehdittu sekä sukupolvensa parhaaksi amerikkalaiseksi näyttelijäksi että huonoimmaksi elossaolevaksi filmitähdeksi.2000-luvulla hänestä tuli meemi ja internetin vitsien kohde. Tuonkin ongelman hän on onnistunut selättämään.Urani on ollut elektromagneettinenNicolas CageMikä on Nicolas Cagen salaisuus?Soitetaan videopuhelu Las Vegasiin ja otetaan selvää.– Urani on ollut elektromagneettinen. Se on vetänyt minua syvemmälle näyttelemisen mahdollisuuksiin, mutta myös työntänyt minua luotaan. Se on ollut rakkauden ja vihan välistä aaltoliikettä, Cage sanoo ja hörppää energiajuomaa metallitölkistä.Punk-näyttelijäCagen näyttelemisestä muistetaan parhaiten se, mikä erottuu: isot eleet, oudot päähänpistot ja räväkät tunteenpurkaukset. Jo ensimmäisissä elokuvissaan hän elehtii ja räjähtelee niin, että on tulla ulos valkokankaalta.Ylen saamassa yksityishaastatelussa Cage kutsuu itseään amatöörisurrealistiksi. Tavanomainen näytteleminen on vain yksi väri hänen paletissaan.– Näytellessä voi tehdä monia asioita. Samalla tavalla kuin kuvataide voi olla fotorealistista tai surrealistisempaa niin kuin Goyan Saturnus syö poikansa tai Boschin Maallisten ilojen puutarha. Olen halunnut ottaa riskejä.Alla videolla Nicolas Cage kertoo omin sanoin Kulttuuricocktailille, mitkä ovat hänen lempiroolinsa.Nicolas Cage kertoo videolla kolmesta elämänsä tärkeimmästä roolista.Näyttelijän oma suosikki hänen 1980-luvun rooleista on pienessä elokuvassa, jossa hän päästi vaihteen vapaalle.Vampyyrin suudelmassa (1987) Cage huutaa, huitoo käsillään ja vetää kaiken överiksi. Yksi esikuva hänen näyttelemiselleen olivat 1920-luvun saksalaiset mykkäelokuvat, kuten Tri. Caligarin kabinetti ja Nosferatu.Tämä GIF on yksi suosituimmista Nicolas Cage -meemeistä. Se on elokuvasta Vampyyrin suudelma (1987), joka menestyneiden Kuuhullujen ja Arizona Babyn sijaan on Cagen lempielokuva hänen 1980-luvun tuotannostaan. Tarinat elokuvan kuvauksista ovat vähintään yhtä outoja kuin elokuva itse. Seksikohtausta varten Cage halusi, että hänen varpailleen kaadetaan lämmintä jogurttia päästäkseen oikeaan tunnelmaan. Toisessa kohtauksessa hän söi elävän torakan. Lähde: Tenor GIFTyyli, jota Cage kutsui punk-näyttelemiseksi on jättänyt jälkensä hänen myöhempiinkin rooleihinsa.Saan ideoita kaikesta elämästä. Joskus niitä tulee luonnosta, vaikka merenelävistä kertovasta ohjelmasta.Nicolas CageVastikään Suomessa vieraillut kulttiohjaaja Richard Stanley kertoi Cinema Orionin elokuvan Color Out of Space (2019) yleisölle, että hänen tehtävänsä kuvauksissa oli pitää Cage aisoissa. Kuvauksissa Cage muun muassa heittäytyi seisomaan päällään, kun hänen esittämänsä perheenisä kiisteli vaimonsa kanssa.Kun kysyn Cagelta, mikä hänen roolitöitään inspiroi, on vastaus todella lavea.– Minua inspiroivat perhe, lapseni, kirjojen lukeminen. Romaanihenkilöt, kuten Dmitri Karamazov ja kapteeni Ahab. Saan ideoita kaikesta elämästä. Joskus niitä tulee luonnosta, vaikka merenelävistä kertovasta ohjelmasta.Avaa kuvien katseluLeaving Las Vegas on riipaisevan surumielinen kuvaus määrätietoisesti itseään tuhoavasta ihmisestä. Vakava rooli itseään hengiltä juovana alkoholistina toi Nicolas Cagelle parhaan miespääosan Oscar-palkinnon vuonna 1996. Näyttelijä tuntuu roolissaan niin aidolta, että hänen katsomisensa tekee kipeää. Kuva: Suzanne Hanover/United Artists/Kobal/Shutterstock/All Over PressKitkaCage voi olla nerokas ja surkea näyttelijä jopa yhden elokuvan aikana. Otetaan esimerkiksi hittielokuva Face/Off - Kahdet kasvot (1997).Elokuvan alussa on kohtaus, jossa Cagen esittämä hullu terroristi ujuttautuu papiksi naamioituneena kirkkokuoron sekaan ja alkaa kouria laulavaa teinityttöä.Lähikuva Cagen orgastisesta ilmeestä on niin outo, että elokuvaa katsoessani putosin kokonaan sen maailmasta. Onpa huonoa näyttelemistä!Avaa kuvien katseluHeti Oscar-palkinnon jälkeen Nicolas Cage astui 1990-luvun puolivälissä isojen hittielokuvien tähdeksi ja toimintasankarin saappaisiin elokuvissa, kuten The Rock - Paluu helvettiin (1996) ja Con Air - Lento vapauteen (1997). Kuva John Woon elokuvasta Face/Off - Kahdet kasvot. Kuva: LANDMARK MEDIA / Alamy/All Over PressMyös elokuvan juoni kuulostaa vitsiltä. Se kertoo terroristin ja FBI-agentin (John Travolta) kissa ja hiiri -leikistä, johon tulee lisää kierroksia, kun päähenkilöille asennetaan toistensa kasvot.Face/Off on kuitenkin kaikkea muuta kuin vitsi. Se on toimintaelokuvaksi puettu tutkielma hyvästä ja pahasta.Haluan kuitenkin kokeilla erilaisia tapoja äännellä, ilmehtiä ja liikkua, jotta näyttelemiseni pysyy kiinnostavana itselleni ja katsojilleNicolas CageYliampuvaa alkua lukuun ottamatta myös Cage on elokuvassa todella hyvä. Siinä missä Travolta käyttää elokuvan Nicolas Cagen näyttelijäntyylin matkimiseen, kantaa Cage kehossaan ja kasvoissaan sen, miltä pahimman vihamiehensä kehoon joutuneesta agentista oikeasti voisi tuntua.Avain Cagen salaisuuteen on ehkä siinä, että liioittelu on tietoinen valinta. Hän vetää usein överiksi, mutta ei koskaan läskiksi.– Yhdessä urani vaiheessa kävi hyvin selväksi, että vain 1970-luvun erittäin realistista tapaa näytellä pidettiin hyvänä näyttelemisenä. Haluan kuitenkin kokeilla erilaisia tapoja äännellä, ilmehtiä ja liikkua, jotta näyttelemiseni pysyy kiinnostavana itselleni ja katsojille, Cage kertoo.Avaa kuvien katseluCage näytti monipuolisuutensa Spike Jonzen elokuvassa Adaptation. Minun versioni. (2002), jossa hän esittää käsikirjoittajakaksosia Charlie ja Donald Kaufman. Kuva: Columbia/Kobal/Shutterstock/All Over PressEhkä Cagen salaisuus piilee siinä, että hänen tapansa näytellä synnyttää kitkaa. Se hankaa sitä vastaan, mitä olemme Hollywood-elokuvissa tottuneet näkemään.Silloin kun tuo kitka toimii, se kipinöi. Toisinaan se taas on yksinkertaisesti liikaa.Alamäki alkaaVielä vuosituhannen vaihteessa tuntui, että Nicolas Cage ei voi tehdä mitään väärin. Sitten kaikki muuttui.Cagesta oli tullut tähti, jonka isot palkkiot toivat hänelle yhä turvallisempia rooleja. Yhdessä vaiheessa hänestä yritettiin muovata Johnny Deppin kaltaista Disney-sankaria National Treasure -elokuvissa.Avaa kuvien katseluHeikkojen elokuvien lisäksi Nicolas Cage teki 2000-luvun alkupuolella muutamia epäonnisia uravalintoja. Hän kieltäytyi muun muassa The Matrixin pääosasta sekä Aragornin roolista Taru Sormusten herrasta -elokuvissa. Jälkimmäiseen hänen tilalleen otettiin Viggo Mortensen. Kuva: Yle Kuvapalvelu.The Wicker Manin (2007) ja Ghost Rider: Koston hengen (2011) kaltaiset flopit veivät yleisön kiinnostuksen. Vuoden 2010 tienoilla paljastui myös, että Cage oli miljoonaveloissa.Velat eivät olleet ihme, sillä tähti tunnettiin tuhlailevasta elämäntavastaan. Uransa huipulla hän omisti kaksi linnaa, saaren Bahamasaarilta, maailman ensimmäisen Teräsmies-sarjakuvan ja tyrannosauruksen kallon.Viimeksi mainitun hän palautti Mongolian valtiolle, kun kävi ilmi, että se oli varastettu.Ilmeisesti juuri rahahuolet saivat Cagen valitsemaan työnsä määrääväksi periaatteeksi laadun sijasta määrän. 2010-luvulta alkaen hänet on nähty loppumattomassa määrässä DVD:lle ja suoratoistopalveluihin tehtyjä tusinaviihde-elokuvia.MeemimiesInternet on pullollaan Nicolas Cagen ilmeitä, eleitä ja raivareita. Videoita, kuten ”Nicolas Cage loses it” tai ”full cage”.Cage oli yksi ensimmäisistä meemiksi muuttuneista Hollywood-tähdistä. The Wicker Man -elokuvan kehnoutta alleviivaava kuva Cagesta, jonka kasvoilla kiipeilee mehiläisiä, levisi netissä kulovalkean lailla vuonna 2007.Tämä kohta brittiläisen kauhuklassikon uusintaversiosta The Wicker Man (2007) on yksi internetin ensimmäisistä viraaliksi menneistä meemeistä. Se mullisti kerralla internetin käyttötapoja ja Nicolas Cagen uran. Lähde: Tenor GIFLisää seurasi.Cagen ylilyövä näytteleminen on helppoa riistaa meemiyttämiselle. Kohtaukset irtoavat helposti lyhyiksi ilmaisuvoimaisiksi klipeiksi. Ne on kuin tehty netissä levitettäviksi.Meemien todellinen tragedia liittyy juuri asiayhteydestä irrottamiseen. Kun överi ilme tai ele irrotetaan muusta elokuvasta, katoaa sen takana ollut syy näkyvistä. Jäljelle jää pelkkä kaistapäinen vaikutelma.Katsoessaan koostetta raivareistani ihmiset saavat jonkinlaisen epäsuoran purkutien haluilleen ja vieteilleen.Nicolas CageMeemimieheksi muuttuminen vahingoitti Cagen mainetta. Hän ei enää hallinnut julkisuuskuvaansa. Meemit eivät tuottaneet rahaa eivätkä ne tuoneet katsojia niille elokuville, joista ne olivat peräisin. Ennemminkin ne saivat ihmiset pitämään häntä huonona tai vähintäänkin outona näyttelijänä.Tätä nykyä Cage suhtautuu meemimaineeseensa melko rennosti.– Uskon, että niillä on kaikessa naurettavuudessaankin jotain viihdearvoa ihmisille. Katsoessaan koostetta raivareista he saavat siitä jonkinlaisen epäsuoran purkutien haluilleen ja vieteilleen.Toinen tuleminenNicolas Cage ei olisi legendaarisen maineensa veroinen jos hän ei onnistuisi mahdottomassa. Niinpä hän on viime vuosina kokenut renessanssin, jossa meemiytyminen on kääntynyt hänen voitokseen.Alkujaan elokuvista irrotetut pätkät nauroivat Cagen överiydelle. Kasautuessaan ne ovat kuitenkin alkaneet viestiä muutakin. Hyvä esimerkki tästä on Night of Too Many Cages -komediatapahtuman traileri. Se on riemastuttava, mutta samalla se myös juhlii Cagen näyttelijäntyön monipuolisuutta.Cage on myös löytänyt tiensä takaisin hyviin elokuviin. Hän on valinnut pienempiä projekteja, joissa on päässyt ottamaan taas riskejä. Samalla hän on tehnyt outoudesta entistäkin ilmeisemmän rakennuspalikan elokuvarooleilleen.Avaa kuvien katseluKoston voi tarjoilla näinkin. Yksi Nicolas Cagen uran tärkeimmistä etapeista on rooli Michael Sarnoskin yllättävän herkässä kostoelokuvassa Pig (2021). Siinä hänen roolityönsä perustuu pitkälti räjähtämisen uhkaan. Kuva: NEONYksi elokuva, joka hyödyntää ja koettelee Cagen kykyjä äärimmilleen on Panos Cosmatosin psykedeelinen kauhuelokuva Mandy (2018). Elokuvan muotoon puettu painajaisuni ei ole heikkohermoisille, mutta sen äärimmäisyys on kuin tehty Cagen irtiottoja varten.Osa Cagen viimeaikaisten roolien tehoa on siinä, että yleisö tahtoo nähdä, kun hän heittää turvavaljaat nurkkaan.– Olen halunnut rikkoa rajoja tehdäkseni rooleja, joita on kiinnostava katsoa. Niin kuin Edward G. Robinson, joka näytteli niin että kipinöi.Avaa kuvien katseluNicolas Cagen viime vuosie roolit ovat usein yhtä paljon elokuvia Cagesta itsestään kuin kyseisten elokuvien tarinoista. Ääriesimerkki tästä on toimintakomedia Suurenmoisen lahjakkuuden sietämätön taakka (2021), jossa Cage esittää filmitähti Nicolas Cagea, joka saa mahdollisuuden pelastaa alamäkeen mennyt uransa. Kuva: Katalin Vermes/LionsgateMonia Cagen viime vuosien onnistumisista leimaa se, että niitä on mahdoton kuvitella jonkun toisen esittämiksi. Paras tällainen ilmentymä Cagen hyödyntämisestä on fine dine -ravintoloiden maailmaan sijoittuva rikostrilleri Pig (2021). Siinä hänen esittämänsä erakoitunut huippukokki lähtee pelastamaan ainoaa ystäväänsä, kaapattua tryffeliporsasta.Pig matkii asetelmansa Taken ja John Wick -elokuvilta, mutta se toimii täysin eri logiikalla kuin pullisteleva macho-toiminta. Hiljainen trilleri purkaa kostoelokuvien genren palasiksi ja kyseenalaistaa niiden väkivaltaisen maailmankuvan.Nerokkainta Pigissä on se, että Cagen rooleihin liittyvä arvaamattomuus on läsnä räiskyvyyden sijaan räjähtämisen uhkana. Kitka syntyy nyt vähäeleisyydestä.Jäähyväiset elokuville?Tammikuussa 60 vuotta täyttänyt Cage sanoo, että ikä ei tunnu miltään.– En tiedä milloin alan tuntea oloni vanhaksi. Minusta tuntuu ihan samalta kuin aina. Olen ehkä vähän harkitsevampi ja vähän vähemmän impulsiivinen, mutta fyysisesti oloni ei ole muuttunut.Yhden päätöksen ikääntyminen on kuitenkin tuonut tullessaan. Cage kertoi joulukuussa suunnittelevansa elokuvauran lopettamista.Kun kysyn asiasta, näyttelijä sanoo, että ei aio jättää kokonaan taidemuotoa, joka särki 15-vuotiaana hänen sydämensä.– Enemmänkin on kyse siitä, että kynnys tulee olemaan paljon korkeammalla kuin ennen. Jos saan fantastisen käsikirjoituksen elokuvaan, johon voin tuoda jotakin henkilökohtaista, niin teen sen.Avaa kuvien katseluElokuvassa Dream Scenario Cage esittää keskinkertaista lukio-opettajaa, joka saa yhtäkkiä koko maailman huomion. Kuva: IMAGO/Landmark Media/ All Over PressSuomessa elokuvateattereihin juuri tullut uusin Nicolas Cage -elokuva Dream Scenario (2023) on tästä hyvä esimerkki. Cage esittää siinä keski-ikäistä lukio-opettajaa, jonka elämä mullistuu, kun ihmiset joka puolella maailmaa alkavat nähdä hänestä unia.Elokuva kysyy, miltä tuntuisi jos kaikki maailman ihmiset tuntisivat sinut – olisiko se siunaus vai painajainen?Kuka voisi olla parempi vastaamaan kysymykseen kuin Nicolas Cage? Myös Dream Scenarion ohjaaja Kristoffer Borgli kertoo näyttelijän suhtautuneen alusta asti intohimoisesti elokuvaan.– Heti ensimmäisessä sähköpostissaan Cage kertoi tuntevansa tämän henkilön. Hän sanoi tämän elokuvan kertovan täsmälleen siitä, minkä hän on käynyt läpi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>22</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>Rakastetun perheidylli-kuvittajan salaisuus: Martta Wendelinin kielletty suhde Akseli Gallen-Kallelaan</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20073645</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>22.02.2024</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
         <is>
           <t>Uusi tutkimus rakastetusta kuvittajasta Martta Wendelinistä paljastaa hänen läheisen suhteensa Akseli Gallen-Kallelaan. Gallen-Kallela oli hetken aikaa Wendelinin esimies WSOY:ssä.</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.”Kuinka kaikki on nyt toisin kuin ennen, kaikki, koko elämä, minä itsekin. Silloin minä elin yksikseni, uneksin ja odottelin elämää. Nyt se on tullut, elämä, se suuri elämä, jota pelkäsin. -- Hän se on minut vahvistanut, kuten hän lupasi. Hän on seisonut vierelläni, eikä ole minua jättänyt.”Taiteilija Martta Wendelin (1893–1986) eli pitkän ja monivaiheisen elämän. Taidehistorioitsija Päivi Ahdeoja-Määttä kertoo uudessa Wendelin-elämäkerrassaan Kultahiekkaa ihmisten poluille, kuinka kotkalaisesta perhetytöstä varttui Suomen tunnetuin kuvittaja.1920-luvun alussa Wendelin kävi läpi tapahtumasarjan, joka muutti hänen elämänsä suuntaa ja johti lopulta siihen, että Wendelinistä tuli rakastettu Kotiliesi-lehden kuvittaja. Keskeisessä roolissa on aikansa tunnetuin taiteilija, kultakauden mestari Akseli Gallen-Kallela (1865–1931).
 Toteutus vaati toimiakseen JavaScriptin.Wendelinin hermot ”streikkaavat”Jutun aloittava siteeraus on Martta Wendelinin päiväkirjasta tammikuulta 1922.Se on kirjoitettu Porvoossa, jonne Wendelin oli muuttanut Helsingistä työn perässä. Kustannusyhtiö WSOY:n toimitusjohtaja Jalmari Jäntti oli muutamaa vuotta aiemmin palkannut lupaavan nuoren taiteilijan vakinaiseksi kuukausipalkkaiseksi kuvittajaksi – yhdeksi ensimmäisistä. Kirja-ala eli tuolloin vahvaa nousua ja tarvitsi kuvittajia tekemään houkuttelevia kirjankansia.Wendelinin Porvoon aikaa olivat varjostaneet kuolemantapaukset perhepiirissä: Martan kaikki kolme veljeä menehtyivät peräperää maailmalla riehuneisiin keuhko- ja espanjantauteihin. Hänen isänsä oli kuollut hieman aiemmin. Martan vastuulle jäi huolehtiminen vanhasta äidistä, joka ei koskaan täysin toipunut suru-uutisisesta, vaan kärsi masennuksesta.Päivi Ahdeoja-Määtän mukaan talvi 1920–1921 oli Martta Wendelinille erityisen raskas ja hän itse kuvasi hermojensa silloin ”streikanneen”.Avaa kuvien katseluTaidehistorioitsija Päivi Ahdeoja-Määttä on tutkinut parikymmentä vuotta Martta Wendelin taidetta ja elämänvaiheita. Kuva on Tuusulan Erkkolasta, jossa Ahdeoja-Määttä työskentelee. Kuva: Mårten Lampén / YleMitä niin merkittävää Wendelinin elämässä oli tapahtunut, että tammikuussa 1922 kaikki oli toisin – surutalon synkistämästä hermorauniosta oli tullut elämään luottava nuori nainen. Kuka tai mikä oli seissyt Wendelinin vierellä ja vahvistanut häntä?Ahdeoja-Määtän mukaan on mahdollista, että uskonnollishenkinen Wendelin viittaa päiväkirjassaan Jumalaan. Wendelin oli aiemminkin turvannut vaikeina hetkinä uskoonsa. Maanläheisempikin selitys tosin löytyy.Pelätty Gallen-Kallela onkin ”pohjalla”Wendelin oli saanut syksyllä 1921 uuden esimiehen, kun suomalaisen kuvataiteen vahva mies Akseli Gallen-Kallela oli saapunut WSOY:lle työstämään Koru-Kalevalan kuvitusta.Wendelinin ensireaktio oli säikähdys, sillä hän oli kuullut Gallen-Kallelan suhtautuvan kriittisesti naistaiteilijoihin. Näin hän kirjoitti ystävättärelleen:”...Akseli Gallen-Kallela tulisi Porvooseen oleskelemaan joksikin aikaa, ehkä koko talveksi ja tulisi hänellä olemaan jonkunlaista valvontaa meidän yhtiömmekin töissä. Voi varjelkoon minua silloin. – – Luuletko, että osaan vetää viivaakaan kunnolla, kun koko ajan ajattelen, että hän luo siihen musertavan katseensa”Huoli oli kuitenkin turha. Gallen-Kallela huomasi nopeasti Wendelinin lahjakkuuden ja ahkeruuden ja kaksinkertaisti hänen palkkansa. Gallen-Kallela myös ohjasi Wendeliniä, kun tämä kuvitti V.A. Koskenniemen Elegioja-runoteosta.Iltaisin Wendelin sai käyttöönsä Gallen-Kallelan ateljeen, jossa hän maalasi yhdessä muutaman muun taiteilijatoverin kanssa niin sanottua vapaata taidetta.Avaa kuvien katseluAkseli ja Mary Gallen-Kallela kotonaan Porvoon Jokikadulla vuonna 1922. Kuvassa on myös Maryn sisar Greta Ahlman. Kuva: Kultahiekkaa ihmisten poluille -kirjan kuvitustaGallen-Kallelasta tuli Martta Wendelinille mentori, kuten hän oli ollut monelle muullekin nuorelle taiteilijalle Hugo Simbergistä alkaen.Ahdeoja-Määtän mukaan nuori, uransa alussa ollut Wendelin ja lähes 30 vuotta vanhempi Gallen-Kallela tulivat hyvin toimeen keskenään. Gallen-Kallela ymmärsi Wendelinin surumielisyyttä, sillä hänkin oli kokenut suuren menetyksen, kun Marjatta-tytär oli kuollut hyvin nuorena.Myös Wendelinistä oli tukea Gallen-Kallelalle, sillä vanha mestari oli juuri noihin aikoihin haastettu nuorempien taiteilijoiden taholta. Pinnalle oli noussut uusi taidesuunta ekspressionismi. Sen suomalainen johtohahmo Tyko Sallinen oli hyökännyt rajusti Gallen-Kallelaa vastaan. Wendelin oli lohduttanut ”pohjalla” ollutta taiteilijaa ja sanonut suoraan, ettei pitänyt Sallisesta.Martta Wendelin ottaa rohkean askeleenAkseli Gallen-Kallelan Porvoon-kausi jäi suhteellisen lyhyeksi. Chicagossa avautui joulukuussa 1923 hänen näyttelynsä ja taiteilija matkusti Yhdysvaltoihin.Myös Martta Wendeliniä houkuteltiin matkaseuraksi, ehkä osin leikillään. Ahdeoja-Määttä tosin pohdiskelee kiinnostavasti, millaiset uramahdollisuudet Wendelinille olisi voinut avautua suuressa maailmassa. Ahdeoja-Määtän mukaan Wendelinin kuvitustyyli olisi saattanut hyvinkin vedota amerikkalaisyleisöön, ja kuka tietää, hänestä olisi voinut sukeutua kansainvälinen tähtikuvittaja.Wendelin jäi kuitenkin Suomeen, sillä hänen oli huolehdittava äidistään. Amerikan-matkan peruuntuminen vaivasi pitkään Wendeliniä.Gallen-Kallelan lähdöllä oli kuitenkin myös vaikutusta Wendelinin elämään. Ahdeoja-Määttä kirjoittaa, kuinka elämä ja seurapiirit Porvoossa kaventuivat Gallen-Kallelan poistuttua ja Wendelin alkoi suunnitella paluuta Helsinkiin. Hän oli työskennellyt WSOY:llä kuusi vuotta ja oli oppinut kaiken kuvittamisesta.Wendelin oli saanut kuvataiteilijan koulutuksen ja hän haaveili nyt vapaaksi taiteilijaksi heittäytymisestä. Myös Gallen-Kallela oli rohkaissut Wendeliniä taiteilijan uralle.Avaa kuvien katseluMartta Wendelin maalaamassa Eero Järnefeltin ateljeessa vuonna 1932. Kuvittajana tunnettu Wendelin teki kaiken aikaa myös vapaata taidetta. Kuva: Kultahiekkaa ihmisten poluille -kirjan kuvitustaMartta Wendelin teki lopulta rohkean liikkeen. Hän irtisanoutui WSOY:ltä ja siirtyi freelance-kuvittajaksi ajatuksenaan tehdä töitä eri kustantajille. Samalla hän varasi asunnon Helsingin Käpylään rakennettavalta uudelta puutaloalueelta. Wendelin pääsi vaikuttamaan uuden talon suunnitteluun ja yläkertaan rakennettiin iso ateljeen ikkuna. Äiti asettuisi alakertaan.Samaan saumaan ajoittui Kotiliesi-lehden perustaminen. WSOY:n toimitusjohtaja Jalmari Jäntti kaipasi Suomeen amerikkalaisen Good Housekeeping - ja ruotsalaisen Husmodern-lehden kaltaista naistenlehteä. 1. tammikuuta 1923 ilmestyi Kotilieden ensimmäinen numero. Sen kansikuvan oli tehnyt ulkomaalainen taiteilija, mutta pian Martta Wendelinistä tuli Kotilieden kansien pääkuvittaja.Wendelinin ensimmäinen Kotilieden kansi ilmestyi lehden joulunumerossa 1923.Vuosien saatossa Wendelin teki kymmeniä Kotiliesien kansikuvia, ja niistä hänet yhä muistetaan. WSOY:n palkolliseksi hän ei kuitenkaan enää palannut, vaan jatkoi itsenäisenä kuvittajana ja taiteilijana elämänsä loppuun asti.Avaa kuvien katseluAsetelma, jonka Martta Wendelin maalasi Akseli Gallen-Kallelan ateljeessa Porvoossa. Kuva: Matti Huuhka / Kultahiekkaa ihmisten poluille -kirjan kuvitustaOliko se rakkautta?Akseli Gallen-Kallelaa Martta Wendelin ei enää tavannut. Gallen-Kallela kuoli vuonna 1931. Hänen hautajaispäivänään kirjoitetussa muisteluksessa Wendelin palaa viimeiseen kohtaamiseen Porvoossa:”Meidän välimme oli niin koruton, niin yksinkertainen, niin hieno. Ennen kuin hän lähti Amerikkaan, vein hänelle joitakin hänen töitänsä, joita olin tehnyt. Kun läksin pois, saattoi hän minut eteiseen, minä kiitin häntä. Kiitos Teille neiti, kaikesta, hän sanoi. Sain kyyneleet silmiini, lähdin. Se oli viimeinen tapaamisemme.”Ahdeoja-Määttä tulkitsee, että suhde oli ainakin Wendelinin puolelta syvempi kuin pelkkä työtoveruus tai opettaja-oppilas -suhde. Ehkä näin oli myös Gallen-Kallelan puolelta. Hänen liittonsa Mary-vaimon kanssa oli noihin aikoihin kriisissä. Myös Wendelin oli kiinnittänyt huomiota siihen, ettei Mary ollut koskaan läsnä, kun hän vieraili heidän kotonaan.”Porvoossa välimme eivät olleet kunnossa”, Gallen-Kallela kirjoitti vaimolleen Yhdysvalloista.Gallen-Kallela oli uskoutunut Wendelinille heidän yhteisillä kävelyretkillään, jotka olivat saattaneet venyä hieman suunniteltua pidemmiksi. Gallen-Kallela oli puhunut erämaista, luonnosta ja koskista, mikä oli vaikuttanut Wendeliniin vahvasti, Ahdeoja-Määttä kertoo.Avaa kuvien katseluMartta Wendelinin päiväkirjamerkintä vuodelta 1922. Kuva: Kultahiekkaa ihmisten poluille -kirjan kuvitustaKielletystä suhteesta saattaa kertoa myös Wendelinin päiväkirjamerkintä kesältä 1922:”Olen nähnyt hänet. Ja hän on nähnyt minut. – – Onni? Onko se meitä varten? Ei meitä varten. Hyvä Jumala – armahda meitä, armahda meitä!”Akseli Gallen-Kallelan suhde Maryyn läheni jälleen hänen palattuaan Yhdysvalloista. Martta Wendelin sen sijaan ei koskaan avioitunut.</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="66">
+      <c r="A66" t="n">
         <v>22</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Nicolas Cagesta tuli tähti ja vitsi – ”Urani on ollut rakkauden ja vihan välistä aaltoliikettä”, hän sanoo Ylelle</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20074979</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Jokainen kananmuna käy läpi tarkan syynin, mutta mato väistää läpi­va­lai­sunkin – selvitimme miksi</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076630</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Suolinkaishavainnot ovat äärimmäisen harvinaisia. Löytö on kuluttajalle ikävä, mutta haittaa suolinkaisesta ei ihmiselle ole.</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Ylen jutut kananmunista löytyneistä elävistä loisista ovat herättäneet ihmettelyä siitä, miten elävän lieron sisältävä muna pääsee livahtamaan pakkaamossa kennoon asti.Vaikka jokainen kananmuna käy läpi moniportaisen tarkastuksen, varsinkaan pientä suolinkaista ei pysty erottamaan edes läpivalaisussa.– Kananmunille tehdään vihervaloläpivalaisu. Vihreä valo reagoi hemoglobiiniin eli tunnistaa veren. Suolinkaisessa ei ole verta, siksi järjestelmä ei sitä huomaa, sanoo tuotantojohtaja Jussi Vuori Dava Foodsin Kaarinan munapakkaamosta.Suolinkainen myös muistuttaa väriltään kananmunan massaa, joten linjasto ei hälytä, vaikka munassa olisi loinen kyydissä.Eikö laitteistoa pitäisi kehittää tunnistamaan loiset?– Nykytekniikalla se ei onnistu. Merkittävin tapa hallita asiaa tapahtuu tiloilla, Vuori toteaa.160 koputusta munaa kohtiKananmunapakkaamoiden valvonta perustuu elintarvikehygienialainsäädäntöön ja kaupan pitämisen lainsäädäntöön. Säädöksiä on sekä EU:n että kansallisella tasolla.Valvonnasta vastaa virkaeläinlääkäri. Pakkaamon tarkastuksen voi tehdä myös esimerkiksi kunnan terveystarkastaja.Ennen läpivalaisua muna saa muun muassa paino- ja laatuluokituksen. Sitä myös koputellaan 160 kertaa pienillä ”vasaroilla”, joiden päässä oleva mikrofoni tunnistaa äänen perusteella, onko munassa säröjä.Osaatko lukea munaa?Kananmunan kyljestä löytyy leima, joka kertoo kuluttajalle monta asiaa. Näin luet koodin:Rivin ensimmäinen numero vasemmalta kertoo tuotantotavan. 0 = luomu, 1 = ulkokananmunien tuotanto, 2 = lattiatuotanto, 3 = virikehäkkiKaksikirjaiminen lyhennys = maatunnus (esimerkiksi FI on Suomi)Tilatunnus on viisinumeroinen tilanumero.Kuoressa voi olla myös pakkaamon tunnus. Esimerkiksi Kaarinan pakkaamossa se on KAA.AvaaDava Foodsin munapakkaamon linjalle nousee imukupeilla joka päivä miljoona munaa. Munat valokuvataan, jolloin järjestelmä tunnistaa niiden paikan linjalla. Alkumetreillä myös poistetaan kaikki likaiset ja rikkinäiset munat.Automaattikääntäjä järjestää munat linjalle kärki edellä, jolloin tylpän puolen ilmakuplat ovat samaan suuntaan.– Munat kulkevat myös ultravioletti-desinfioinnin läpi eli pieni antibakteerinen valo desinfioi kananmunan pinnan, Vuori selventää.Se on ainoa puhdistus, joka pakkaamoissa kananmunille tehdään. Seuraavaksi laitteisto punnitsee munat ja jaottelee ne painon mukaan koteloihin. Lopuksi ne saavat pakkaamoille laissa määrätyn leiman kylkeensä.Avaa kuvien katseluRikkinäiset munat päätyvät lajittelussa erilleen. Kuva: Vesa-Matti RuuskaTäysin kelvottomia munia päivässä korkeintaan prosenttiKaarinan munapakkaamolla hylätään miljoonasta päivittäisestä kananmunasta keskimäärin kuusi prosenttia B-luokan muniksi. Niitä ei voi myydä kuluttajille, mutta ne kelpaavat elintarviketeollisuudelle. B-luokan munista valmistetaan esimerkiksi valmistetaan pastöroitua munamassaa.Täysin käyttökelvottomiksi eli C-luokkaan päätyy noin 0,5–1 prosenttia munista. Yleisimmät syyt täydelliseen hylkyyn ovat rikkonaisuus ja verisyys.Loput eli A-luokan munat päätyvät kuluttajille.Mitä laki vaatii A-luokan kananmunalta?Puhdas ja vahingoittumaton, tavanomainen muoto.Keltuainen saa näkyä läpivalaisussa ainoastaan varjona ilman erottuvia ääriviivoja. Liikkuu hieman munaa käännettäessä ja palaa keskiasentoon.Ei näkyvää alkion kehitystä.Valkuainen kirkkaan läpinäkyvä.Ei vieraita aineita tai tuoksuja.AvaaKoska suolinkaiset eivät löydy pakkaamon linjalla, ainoat mahdolliset havainnot tulevat pakkaamon tietoon kuluttajilta.– Viime vuonna pakattiin noin 300 miljoonaa munaa. Suolinkaishavaintoja kuulimme kuluttajilta parisenkymmentä. Eli kyllä ne todella harvinaisia ovat, toteaa Jussi Vuori.Avaa kuvien katseluKananmunia pakataan vuosittain valtavia määriä. Siihen nähden suolinkaishavainnot ovat harvassa. Kuva: Vesa-Matti Ruuska</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>22</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Vilaut­te­lu­teh­tävät jäivät pois Lapin legen­daa­risista opiske­li­ja­bileistä – Poronkusema muuttui pandemian jälkeen</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076186</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>24.02.2024</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rovaniemen Poronkusema-rasteille on saapunut viikonloppuna lähes 2000 opiskelijaa. Järjestäjien mukaan opiskelijakulttuuri oli rajumpaa ennen koronakriisiä. </t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Rovaniemellä parhaillaan käynnissä oleva Poronkusema -opiskelijatapahtuma on saavuttamassa uuden kävijäennätyksen.Liput on loppuunmyyty, ja tapahtumaa järjestävän oikeustieteen opiskelijoiden ainejärjestö Artiklan puheenjohtaja Nuutti Saramo arvioi, että tapahtumaan osallistuu 1 800–2 000 opiskelijaa.Poronkusema on useille opiskelijoille edelleen alkoholipitoinen tapahtuma, mutta yli 30-vuotiaan tapahtuman kulttuuri on muuttunut vuosien varrella. Ryyppäämiseen ei enää kannusteta, eikä tapahtuman rastikilpailujen tehtävänä ole alkoholin juomista.– Olemme linjanneet, että emme halua sellaisia rasteja, joissa kannustetaan juomaan, Saramo kertoo.Lisää: Alkoholin käytössä historiallinen muutos: nuoret miehet ovat nyt raittiimpia kuin koskaan”Mauton alastomuus” ei enää siivitä voittoonEnnen riisuutumalla saattoi jopa voittaa kilpailun. Erään opiskelijablogin mukaan Poronkuseman rastikilpailussa sai vuonna 2014 pisteitä alastomuudesta.Vuonna 2016 eräällä rastilla punnittiin osallistujia. ”Puntari” oli tosin rikki siten, että se näytti liikaa painoa ja vaatteiden riisumisesta lähti kymmeniä kiloja.Oikeustieteen opiskelijoiden 40-vuotisjuhlakirjassa kerrotaan vuodelta 2011, että voittajajoukkueen saattoi voittoon muun muassa ”mauton alastomuus” ja ”upeat lahjukset”.Tapahtumaa järjestävät oikeustieteen opiskelijat kertovat, miten lauantaihin painottuvassa rastikilpailussa annetaan pisteitä, ja mikä opiskelijoiden bilekulttuurissa on muuttunut. Oikeustieteen opiskelijoiden puheenjohtajan mukaan enää riisuutumiseen ei kannusteta.– Meidän tapahtumissa ei sellaista ole enää muutamia vuosiin hyväksytty, on ollut ihan nollatoleranssi sille, Saramo sanoo.Saramon mukaan opiskelijakulttuuri siistiytyi koronakriisin jälkeen.– Tietysti silloin koronaa edeltävinä aikoina opiskelijakulttuuri on ollut rajumpaa, Saramo arvioi.Tapahtumassa on mukana myös sinisiä liivejä kantavia henkilökunnan jäseniä, joille voi ilmoittaa häirinnästä.Avaa kuvien katseluPoronkusema-tapahtuman nimi tulee matkasta, jonka poro voi kulkea virtsaamatta. Tämä vanha mittayksikkö on tarkemmin määrittelemätön, mutta se on enimmillään noin 7,5 kilometriä.  Kuva: Juuso Stoor / YlePääporoa lahjotaanSiistiytymisestä huolimatta Poronkusema-tapahtumassa on yhä mukana leikillisyyttä.Tapahtuman rastikilpailussa pisteitä saa suorituksen lisäksi asustuksesta, jonka teemana on tänä vuonna ”sankarit ja lapsuuden suosikit”. Pisteitä voi myös halutessaan hankkia lahjuksilla, joita ovat usein alkoholijuomat ja ruoka.Pohjois-Suomen suurimmaksi julistautuneessa opiskelijatapahtumassa on mukana myös pääporo. Poroasuun pukeutunut pääporo johtaa tapahtumaa järjestävää toimikuntaa, mutta toimii myös maskottina ja tuomarina.– Tiesittekö, että Pääporolla on rajaton pisteidenantovalta?! Kannattaa siis etsiä Pääporo käsiinsä ja lahjoa hänet taivaisiin, tapahtuman verkkosivulla kerrotaan.Avaa kuvien katseluPääporolla on rajaton valta antaa pisteitä Poronkuseman rastikilpailussa. Tämän vuoden pääporo Mariel Tähtivaara toivoo luovia lahjuksia.  Kuva: Juuso Stoor / YleArktiset rastit houkuttelevat väkeä kauempaakinOikeustieteen opiskelijoita edustava Saramo kertoo, että järjestäjiä jännitti etukäteen, sillä kilpailevia tapahtumia riittää.Ensi viikolla Turussa järjestetään suurtapahtuma Pikkulaskiainen, johon osallistui viime vuonna 13 000 opiskelijaa. Poronkusemalla riittää silti vetovoimaa, ja yhtenä ässänä hihassa on monille eksoottinen ympäristö.– Tuntuu, että pohjoinen sijainti ja tietynlainen arktisuus houkuttaa, Saramo sanoo.Pohjoisen sääolot myös yllättävät monet osallistujat, sillä suuri osa osallistujista tulee Etelä-Suomesta.Avaa kuvien katseluRovaniemeläinen Aapo Kaattari houkutteli oululaisen Joonas Jalon (vas.) bilettämään Poronkusemaan. Kuva: Juuso Stoor / Yle– Moni ei välttämättä tule ajatelleeksi, että tulee oikeasti Lappiin ja että tapahtuma on pitkälti ulkotiloissa. Usein porukalla saattaa olla heikompaa varustusta, Saramo.Siksi tapahtuman järjestäjät ovat verkkosivulla ja sosiaalisessa mediassa muistuttaneet lämpimästi pukeutumisesta.Tänä viikonloppuna sää tosin kohtelee osallistujia lempeästi, sillä lämpötila pyörii nollan tuntumassa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>23</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Matomunia löytyi lisää, samassa kananmunassa luikerteli kaksi suolinkaista</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076453</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>26.02.2024</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Suuri kananmunanpakkaaja Dava Foods laski, että korkeintaan yhdestä munasta kymmenestä miljoonasta löytyy suolinkainen.</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Yle kertoi perjantaina vaasalaisperheestä, joka löysi kananmunasta kahdeksansenttisen elävän madon. Suolinkainen osoittautui kanan yleiseksi loiseksi ascaridia galliksi.Jutun julkaisun jälkeen yhteyttä otti tikkakoskelaisnainen, joka oli tehnyt vastaavanlaisen löydön viime joulukuussa. Hänellä samassa kananmunassa luikerteli kaksi noin viiden senttimetrin mittaista suolinkaista.Nainen ei halua esiintyä jutussa nimellään työnsä vuoksi. Työ ei liity maatalouteen tai elintarviketeollisuuteen. Ylellä on tiedossa hänen henkilöllisyytensä.Vaasalaisperheen munakennon munat oli pakattu Kaarinassa ja tikkakoskelaisen Närpiössä. Molempien munapakkaamoiden takaa löytyy elintarvikeyritys Dava Foods.Vaikka suolinkainen on yleinen ja täysin vaaraton sekä kanalle että ihmiselle, niitä ei saa Ruokaviraston mukaan olla elintarvikkeissa.Dava Foodsin laatupäällikkö Anu Johansson, pettikö munapakkaamoissa valvonta vai miksi suolinkaisia on päätynyt kuluttajille asti?– Ei pettänyt. Suolinkaisten löytäminen läpivalaisussa on mahdotonta, vaikka Ruokavirasto toisin antoi ymmärtää vaasalaisperheen suolinkaislöytö-jutussanne.Johansson kertoo, että vain suureksi kasvanut suolinkainen erottuu. Pienempiä ei voi mitenkään erottaa valkuaissäikeistä ja -rihmastoista.Kuluttajille päätyneet loiset ovat olleet vasta kehitysasteella munalinjastolla. Ne ovat jatkaneet kasvuaan kananmunassa siihen asti, että ne on kotona huomattu.Paitsi Dava Foods, molempia suolinkaistapauksia yhdistää myös se, että kananmunat olivat S-ryhmän Kotimaista-tuotesarjan munia.– Täysin sattumaa. S-ryhmälle menevät munamäärät ovat valtavia sarjoja, Johansson toteaa.Toimenpiteisiin on ryhdyttySuolinkaislöydöt kananmunistaan tehneet kuluttajat olivat yhteydessä S-ryhmään ja saivat lupauksen, että asiaan puututaan eli tieto lieroista välitetään heti sekä munapakkaamoon että kanaloihin.Yle on nähnyt molempien S-ryhmältä saaman kuluttajapalautteen.Dava Foodsista kerrotaan, että kauppaketjulta saadut tiedot ovat johtaneet toimenpiteisiin. Tuottajapalvelupäällikkö on ollut yhteydessä sekä kanaloihin että pakkaamoihin.– Munantuottaja on sen jälkeen yhteydessä eläinlääkäriin, joka käy tilalla arvioimassa muun muassa saastuman määrän. Hän myös päättää, onko tarpeen aloittaa loishäätö, Johansson sanoo.Suomessa ei lääkitä tuotantoeläimiä ennaltaehkäisevästi, vaan ainoastaan tarpeen vaatiessa. Sillä estetään Johanssonin mukaan resistenttien kantojen muodostuminen.Tilalla myös tehdään loisseurantaa ja loishäätö uusitaan, jos tilanne ei ole rauhoittunut.Entä jos tieto jää johonkin roikkumaan, eikä tavoita eläinlääkäriä?– Ei jää. Tuottajapalvelupäällikkö varmistaa, että tieto kulkee.Kanamunien sesonkipiikki pääsiäinen on pian. Osuuko jollekin taas liero kulhoon tai pannulle?– Suomessa käytetään valtavasti kananmunia. Valitettavasti aina jollekin voi osua vaaraton suolinkainen kohdalle. Laskeskelimme, että korkeintaan yhdestä munasta kymmenestä miljoonasta löytyy suolinkainen.Dava Foodsista kerrotaan, että suolinkaishavainnot ovat vastaavanlaisia kuin Ruokavirastossa eli kymmenkunta vuodessa.Dava Foodsin pakkaamoissa suolinkainen on onnistunut piilottelemaan kennoon asti joulukuussa ja nyt helmikuussa.– Se on todella harvinaista ja ikävää. Kuin käänteinen lottovoitto, laatupäällikkö Anu Johansson harmittelee.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>23</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>VR jätti pikku­kau­pungin kuukaudeksi junamottiin – helsin­ki­läinen tuskaisena: Miten ihmeessä pääsen takaisin</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20075901</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>22.02.2024</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Junaliikenne Tampereen ja Porin välillä on toistaiseksi korvattu busseilla. Huono tiedotus sapettaa välille jääviä matkustajia. </t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Pirkanmaalla sijaitseva Sastamala on yksi radanvarsikunnista, joista ei pääse nyt junalla minnekään.VR on perunut vuorot ja korvannut junat busseilla Tampereen ja Porin välillä, koska osa yhtiön kalustosta on korjattavana.Vammalan rautatieasemalta torstaina puolenpäivän aikoihin tavoitettu Marja Leppänen oli kiukkuinen kuin ampiainen. Hän oli tullut Helsingistä Sastamalaan katsomaan iäkästä äitiään.Vasta aamujunassa hänelle selvisi, että Tampereelta eteenpäin matka taittuu bussilla.– Bussikuskit eivät tiedä, minne ja milloin ovat menossa. Takseista ei ole mitään tietoa. Olen saanut noin 50 kertaa vastaukseksi ”emmää vaan tiä”, hän tuskaili.Avaa kuvien katseluJuna-asemalle mottiin jäänyt Marja Leppänen moittii huonoa tiedotusta.  Kuva: Juha Kokkala / YlePaluumatka mietitytti. Leppäsellä oli aikomus päästä vielä illalla takaisin Tampereelle ja siitä edelleen Helsinkiin.– Kukaan ei ole vielä osannut sanoa, että miten hemmetissä pääsen takaisin. Todennäköisesti en mitenkään.Hän aikoi palata takaisin juna-asemalle käytyään äitinsä luona.– Toivon ja rukoilen, että joku korvaava bussi tulee tähän. Tai sitten menen takaisin Sastamalan keskustaan ja otan maksullisen bussin Helsinkiin asti.Avaa kuvien katseluKarkkulaisella Lotta Koskenniemellä on puolivuotias vauva, joka tarvitsee matkan ajaksi rattaisiin turvakaukalon. Sen kanssa olisi hankala ahtautua täpötäyteen bussiin.  Kuva: Juha Kokkala / YleMyös Sastamalan Karkussa asuva Lotta Koskenniemi harmitteli epäselvyyttä junia korvaavien bussien aikatauluissa.– Varsinkaan lapset ja erityisryhmät eivät voi odotella tuntematonta aikaa pysäkillä kun ei tiedä, tuleeko se bussi lopulta vai ei.Helsingistä Karkkuun muuttaneet Koskenniemet eivät tarvitse junaa päivittäin.Tämänhetkinen mottitilanne sai kuitenkin pohtimaan vaihtoehtoa, ettei pysyvää junayhteyttä Karkusta olisi lainkaan.– Maaseudun rauha ja helppo yhteys kaupunkiin olivat perusteena muutolle. Raideyhteyden loppuminen vaikuttaisi myös asuntojen arvoon suoraan, Lotta Koskenniemi sanoo.Lisää: Tampereelta ei pääse Poriin junalla moneen viikkoon eikä busseihin saanut lippuja – näin VR selittää tilannettaTyömatkalaiset pulassaSastamalan kaupunginjohtaja Jarkko Malmberg oli joutunut tulemaan tänään omalla autolla kokoukseen Tampereelle.Hän oli jo ollut yhteydessä VR:ään Sastamalan junamotin vuoksi.– Eihän tämä nyt tasa-arvoiselta kuulosta, että valtakunnalliset ongelmat on sysätty muutaman radanvarsikunnan tuskaksi, hän harmittelee.Malmbergin mukaan tilanne osoittaa, että VR:n varautuminen on ollut heikkoa ja tiedotus huonoa.– Olisi ollut syytä tietää aiemmin, että jos tulee valtakunnallisia ongelmia, nimenomaan Pori–Tampere-välin junat siirretään muualle ja siirrytään muihin liikennöintitapoihin.Avaa kuvien katseluSastamalan kaupunginjohtaja Jarkko Malmberg sanoo, että VR on tiedottanut kuntia junaongelmista huonosti ja hitaasti. Kuva: Juha Kokkala / YleSastamalasta sekä Tampereen että Porin suuntaan töihin lähteville junalla on iso merkitys.Malmbergista on huono signaali, että Sastamalassa joudutaan olemaan ilman sujuvia junayhteyksiä melkein maaliskuun puoliväliin asti.Hän sanoo, että olisi halunnut neuvotella VR:n kanssa jo etukäteen siitä, olisiko vain osa junista voitu jättää ajamatta tai huolehtia ainakin työmatkaliikenteen sujuvuudesta.Myös aluetutkija Timo Aro kirjoittaa kolumnissaan Satakunnan Kansassa, miten pöyristyttävää on, ettei VR ole keskustellut täydellisestä liikennemotista ennakkoon alueen toimijoiden kanssa. Aron mielestä yksikään vastuullinen saman kokoluokan yksityinen yritys ei voisi toimia samalla tavalla kuin VR nyt.VR selvittää, löytyisikö Tampereen ja Porin väliseen liikenteeseen toimintakuntoisia junia ennen kaavailtua maaliskuun yhdettätoista päivää.– Varmasti VR tekee kaikkensa, että ratkaisut löytyvät, Jarkko Malmberg sanoo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>23</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Suomen pääministeri sai Olof Palmen murhan jälkeen listan – vaikutti siltä, että hänetkin haluttiin tappaa</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20074981</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>24.02.2024</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Suojelupoliisilla on kymmeniä sivuja Olof Palmen murhaan liittyviä asiakirjoja. Yle kertoo niistä nyt ensimmäistä kertaa.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Kesäkuu 1986.SDP:n puoluetalolle Helsingin Siltasaareen saapuu pääministeri Kalevi Sorsalle osoitettu kirje. Leimasta ilmenee, että kirje on postitettu Saksan Frankfurtista.Kirje sisältää 19 nimen listan.Kaikki listatut ovat kansainvälisesti tunnettuja poliitikkoja ja kuuluvat Sosialistiseen internationaaliin, sosialidemokraattisten puolueiden yhteistyöjärjestöön.Nimien joukossa on kaksi suomalaista, pääministeri Sorsa sekä Pentti Väänänen, Sosialistisen internationaalin pääsihteeri.Nimilista on lähetetty ”Saksan kansan nimissä”. Viestissä ilmoitetaan, että listattujen henkilöiden kuolemantuomiot pannaan täytäntöön.Allekirjoittajaksi on merkitty V-Kommando.Yhden nimen perässä on risti. Kyseessä on Olof Palme, Ruotsin pääministeri, joka on ammuttu kuoliaaksi reilut kolme kuukautta aikaisemmin.Tästä syystä uhka vaikuttaa uskottavalta.Viesti toimitetaan poliisille.Avaa kuvien katseluOlof Palme oli Ruotsin tunnetuin poliitikko. Hän toimi maan pääministerinä vuosina 1969–1976 ja 1982–1986. Kuva: All Over PressSupon Palme-arkisto avautuuRuotsin pääministerin Olof Palmen murhasta tulee kuluneeksi 38 vuotta.Palme ammuttiin myöhään perjantai-iltana 28. helmikuuta 1986 Tukholman keskustassa, kun hän oli vaimonsa kanssa matkalla elokuvateatterista kotiin.Murhaaja katosi pimeään yöhön.Viranomaiset häkeltyivät kuullessaan, kuka ammuttu henkilö on. Otteita hätäpuhelusta ja viranomaisten välisistä keskusteluista 28. helmikuuta 1986.Ampujaa ei saatu koskaan varmuudella selville, vaikka rikostutkinta oli maailmanlaajuisesti yksi mittavimpia.Suomen suojelupoliisilla on kymmeniä sivuja Palmen murhaan liittyviä asiakirjoja.Palme-arkisto sisältää Supon muistioita ja puhutuksia sekä poliisin ja yksityisten kansalaisten vihjeitä.Yle sai asiakirjat haltuunsa tietopyynnöllä.Toisin kuin nykyään, 1980-luvulla Supolla oli esitutkintavaltuudet, joten se saattoi tehdä kuulusteluja ja muita poliisitutkintatoimia.Haamukuvan mies Suomessa?Supo joutui tekemisiin Palmen murhatutkinnan kanssa jo ensipäivinä.Se sai muilta viranomaisilta vihjeitä Suomeen saapuneista epäilyttävistä henkilöistä.Ruotsin poliisi oli ohjeistanut Suomen viranomaisia tarkkailemaan maiden välistä liikennettä.Eräs vihje liittyi turkkilaiseen mieheen, joka oli saapunut laivalla Ruotsin Uumajasta Vaasaan ilman viisumia. Hänen matkatavaroistaan löydettiin ”runsaasti muistiinpanoja” sekä Ruotsin kartta, jossa oli paljon merkintöjä.Mies käännytettiin takaisin Ruotsiin, ja hänestä ilmoitettiin paikallisille viranomaisille.Tutkinta sai täysin uusia kierroksia kuusi päivää murhan jälkeen.Ruotsin poliisi päätti julkaista tietokoneella laaditun ”fantombildin” eli haamukuvan, joka esitti oletettua murhaajaa. Tuntomerkit perustuivat kyseenalaisiin todistajankertomuksiin.Avaa kuvien katseluKuuluisa ”fantombild”, josta Ruotsin poliisi sai noin 8 000 vihjettä. Tutkinnan alkuvaiheessa oletettiin, että tietokoneella tehty kuva esitti murhaajaa. Epävarmoihin havaintoihin perustuneen kuvan julkaiseminen herätti voimakasta arvostelua. Kuva: Ruotsin poliisiHaamukuvaa muistuttavia miehiä löytyi pian kaikkialta, myös Suomesta.Valppaana oli esimerkiksi Helsingin Eteläsataman passintarkastaja, joka ilmoitti maaliskuussa havainnoistaan Supolle.Hän kertoi, että neljä päivää murhan jälkeen Tukholmasta Helsinkiin oli saapunut eräs Turkin kansalainen, joka muistutti haamumiestä.Supo tutki asiaa.Selvisi, että turkkilaismies oli palannut työnantajansa laivaseminaarista, jonne oli lähtenyt Helsingistä kaksi päivää aikaisemmin.Hänellä ei ollut mitään tekemistä Palmen murhan kanssa.Avaa kuvien katselu”Murhaajan” näköisiä miehiä alkoi löytyä myös ympäri Suomea. Usein yhdennäköisyys oli vain katsojan silmässä. Kuva: Ilta-Sanomat / Supon arkistoItsemurhayritys Wärtsilän portillaMuutama viikko myöhemmin Helsingin poliisin ylikonstaapeli soitti Supoon kertoakseen Wärtsilän telakan portilla tapahtuneesta itsemurhayrityksestä.Norjalainen mies oli löydetty pysäköidystä autostaan, jonne hän oli johtanut putkella pakokaasua. Mies toimitettiin Meilahden sairaalaan.Ylikonstaapeli vilkaisi norjalaisen passia ja totesi hänen olevan samannäköinen kuin haamukuvan mies.Supo käynnisti tarkemmat selvitykset.Pian osoittautui, ettei lyhyehkön norjalaisen pituus sopinut Palmen murhasta etsintäkuulutettuun henkilöön.Norjalainen selitti jättäneensä pari viikkoa aikaisemmin työnsä Bergenissä ja lähteneensä ajelemaan päämäärättömästi Tanskaan, Ruotsiin ja Suomeen.Palmen murhaan hän ei kuitenkaan ollut sekaantunut.Voit tutustua alla oleviin dokumentteihin klikkaamalla kuvat suuremmaksi:Avaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluLisää uhkauksia Suomen pääministerilleSDP:n puoluetoimistolle lähetetty tappolista ei jättänyt enempää kirjauksia Supon arkistoon, mutta se ei ollut ainoa pääministeri Kalevi Sorsaan kohdistunut uhkaus.Sorsan kotiosoitteeseen lähetettiin kuivamustekynällä kirjoitettu kirje marraskuussa 1986. Aggressiivisessa viestissä Sorsalle uhattiin käyvän kuin Palmelle.Nimetön kirjoittaja antoi ymmärtää, että Sorsan tappamista oli suunniteltu jo pidempään.”Meinattiin pistää Turussa jo sinut kuoppaan.”Pääministeri Sorsa ei suhtautunut uhkauksiin huolettomasti.Suojelupoliisin historiikissa Ratakatu 12 mainitaan, että Palmen kuoleman jälkeen Supo päätti ”vähän katsoa pääministerin perään”.Kerran Sorsa kiinnitti puistossa huomiota nuoreen mieheen, joka seurasi häntä katseellaan.Varuillaan ollut pääministeri lähti kävelemään reippain askelin poispäin, jolloin nuori mies päätti juosta hänet kiinni ja esittäytyä.Hän oli Supon etsivä.Tukholmalaiset kerääntyivät Olof Palmen murhapaikalle 2. maaliskuuta 1986.”Sitten minä tapan Palmen”Oliko Palmen murhaaja kertonut aikeistaan suomalaismiehelle jo joulukuussa 1985?Tätä Supo alkoi selvittää kolme vuotta myöhemmin.Se puhutti miestä, joka kertoi kohdanneensa Tukholmasta Helsinkiin seilanneen Viking Mariella -aluksen kahvilassa aamuyöllä ”arabiliikemiehen”.Suomalainen tarjosi kansipaikalla matkustaneelle uudelle tuttavuudelle hyttiään.Siellä juteltiin niitä näitä, suomalainen oli päissään.Yhtäkkiä vieras oli tokaissut olevansa menossa Suomeen tappamaan pääministeri Kalevi Sorsan.Suomalainen hätkähti. Hän vastasi olevansa Sorsan henkilökohtainen tuttava, ja kehotti jättämään pääministerin rauhaan.Mies oli sanonut ”menevänsä sitten tappamaan Palmen”.Kun vieras kävi kylpyhuoneessa, suomalainen vilkaisi hänen matkakassiinsa.En osaa selittää, mistä minulle on muodostunut sellainen käsitys, että kassissa olisi ollut pitkäpiippuinen rullarevolveri.Suomalainen myönsi olleensa niin vahvassa humalassa, että oli lopulta sammunut.Aamun tullen vieras oli häipynyt hytistä. Samalla suomalaiselta oli kadonnut muutama tuhat markkaa.Laivan tapahtumat palautuivat hänen mieleensä, kun epäillystä laadittu haamukuva julkaistiin. Suomalaisen mielestä se muistutti laivatuttavuutta.Supon tekemät johtopäätökset suomalaisliikemiehen kertomuksesta on salattu.Myöhemmin selvisi, että haamukuva oli epäonnistuneessa murhatutkinnassa yksi surullinen luku monien joukossa.Murhatutkintaryhmä ilmoitti, ettei kuva esittänyt tekijää, ja aiheutti tuhansien perättömien vihjeiden tulvan.Avaa kuvien katseluRuotsin poliisin Palme-tutkinnan uusi johto totesi, että haamukuvan julkaiseminen oli paha virhe, jonka vuoksi tutkinta lähti väärille raiteille. Uusi Suomi otsikoi asiasta 6. toukokuuta 1987. Kuva: Uusi Suomi / Supon arkistoPahaa tehnyt palkkasotilasNoin kuukausi murhan jälkeen Supon ylietsivä puhutti naista, jolla oli kerrottavaa alle 30-vuotiaasta miesystävästään.Naisen mukaan mies oli työskennellyt aiemmin palkkasotilaana. Vähän ennen Palmen murhaa tämä oli ilmoittanut naiselle ”häviävänsä joksikin aikaa”, ja sanonut menevänsä Ruotsiin.– Kun lauantaiaamuna kuulin tv:stä Olof Palmen murhasta, minulle tuli sellainen tunne, ettei kai tuo onneton ole mennyt ja tehnyt jotain, nainen kertoi.Tiistaina 4. maaliskuuta 1986 mies oli käväissyt naisen asunnolla ja kertonut ottaneensa Ruotsissa käydessään vastaan uuden pestin palkka-armeijasta.Samalla hän oli maininnut ”tehneensä kaiken pahan, mitä ihminen yleensä voi tehdä”.– Kun kysyin häneltä, että mitä, [mies] vastasi: No etkö sinä ole lehtiä lukenut?Supon ylietsivän kirjausten mukaan nainen vaikutti puhuttelutilanteessa hyvin asiallisesta, jopa pelokkaalta.Pöytäkirjoista ei käy ilmi, tavoitettiinko miesystävää, ja mitä tämä mahdollisesti viranomaisille kertoi.Avaa kuvien katseluVäkivalta- ja huumerikollinen Christer Pettersson tuomittiin Palmen murhasta maallikkotuomareiden äänillä käräjäoikeudessa, mutta hovioikeus hylkäsi syytteet. Pettersson juhlisti vapauttavaa tuomiota vodkalla ja Baileys-liköörillä 13. lokakuuta 1989. Kuva: Anders Holmstrom / EPA”Jos saisin Magnumin, ampuisin Palmen”Muuan miestä oli jäänyt vaivaamaan naapurinsa tokaisu ampumaradalla 1980-luvun alussa.Kaksikko oli harjoitellut lainassa olleella Walther-pistoolilla. Miehen mukaan naapuri ei ollut erityisen hyvä ampuja, mutta korvasi puuttuvat taidot yrityksellä.Kerran naapuri oli kesken ampumisen yhtäkkiä pysähtynyt ja sanonut:– Jos saisin Magnumin [aseen], niin ampuisin Palmen.Ilmoittajan mukaan lausuma oli täysin irrallinen eikä liittynyt heidän aiempiin puheenaiheisiinsa.Hän kuvaili naapurinsa olevan tyylikkäästi pukeutuva herrasmies, joka ei hänen käsityksensä mukaan ollut poliittisesti aktiivinen.Supo on salannut ilmiannettua miestä koskevat yksityiskohdat.Myös alamaailman vinkkimiehet tarjosivat mahdollisten murhaajien nimiä. Supolle päätyneitä vihjeitä tuli niin Suomesta kuin Ruotsista.Nekään eivät tuoneet ratkaisua Olof Palmen murhaan.Supon saamat ilmoitukset tyrehtyivät viimeistään 1990-luvulle tultaessa.Avaa kuvien katseluRuotsalaiset Palme-murhatutkijat kävivät Kemissä alkukesällä 1988. He veivät mukanaan eräästä pihasta sähköpylvään, koska siinä oli tiettävästi järeän revolverin luodin reikä. Pohjolan Sanomat uutisoi 4. elokuuta 1988. Kuva: Pohjolan Sanomat / Supon arkistoPääepäilty löytyi, tutkinta päättyiVuonna 2020 Palme-tutkintaa johtanut syyttäjä yllättäen ilmoitti vuosien tutkimusten päätteeksi, että Olof Palmen ampui todennäköisesti Stig Engström.Engström työskenteli mainosgraafikkona Skandia-vakuutusyhtiössä, jonka pääkonttori sijaitsi aivan murhapaikan tuntumassa Sveavägenillä.Murhailtana hän poistui töistä myöhään ja kulki Palmen pariskunnan takana.Engströmiä pidettiin vuosikymmenten ajan yhtenä todistajista. Hän itse kertoi auttaneensa rikospaikalla niin ammuttua Palmea kuin paikalle tulleita poliiseja.Avaa kuvien katseluStig Engström antoi mielellään haastatteluja, joissa kertoi vaihtelevia tarinoita toiminnastaan murhapaikalla. 7. huhtikuuta 1986 otetussa kuvassa Engström osoittaa, mihin suuntaan murhaaja pakeni. Vuonna 2020 syyttäjä ilmoitti, että todennäköisesti Engström ampui Palmen. Kuva: Goran Arnback / EPASyyttäjän mukaan kukaan ei kuitenkaan muista nähneensä häntä rikospaikalla. Sen sijaan Engströmin vaatetus täsmäsi useiden todistajien kertomuksiin siitä, miten paikalta paennut murhaaja oli pukeutunut.Syyttäjä kertoi Engströmin antaneen poliisille virheellisiä tietoja tekemisistään murhailtana.Tutkintaryhmä tuli johtopäätökseen, jonka mukaan Engström ei voinut olla rikospaikalla muussa roolissa kuin murhaajana.Häntä vastaan ei kuitenkaan ollut teknisiä todisteita, sillä esimerkiksi murha-asetta ei koskaan löydetty.Olof Palmen murhatutkinta päätettiin lopettaa, koska pääepäilty Engström on kuollut.Ruotsi pettyi taasRuben Stiller 12. kesäkuuta 2020. Itsemurhan tehnyt Skandia-mies Stig Engström on Ruotsissa tämän viikon syyllinen. Kuinka vahva on näyttö hänen syyllisyydestään Olof Palmen murhaan? Vapautuuko Ruotsi traumastaan? Veteraanikirjeenvaihtaja Kari Lumikero esittää oman analyysinsä.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>24</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Hakaniemen väliaikainen halli pakattiin 50 rekkaan ja vietiin Tuuriin – tältä se näyttää nyt</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076266</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>24.02.2024</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tuurin kyläkauppias Vesa Keskinen osti Hakaniemen kauppahallin väistötiloina toimineen rakennuksen huutokaupassa. Asiakkaat arvostavat sitä, että rakennus kierrätettiin. </t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Helsingin Hakaniemessä viiden vuoden aikana tutuksi tullut kauppahallin väistötila sai jatkoaikaa Etelä-Pohjanmaalla.Tuurin kyläkauppias, toimitusjohtaja Vesa Keskinen osti lasihallin huutokaupassa 440 000 eurolla. Rakennus purettiin Helsingissä syksyllä ja rahdattiin 50 rekkalastillisella kyläkaupalle.Väistötilana toiminut halli nousi Tuurissa tavarakaupan ja leirintäalueen väliin.Vertaile, miltä halli näytti Helsingissä ja miltä se näyttää nyt Tuurissa. Moni asiakas oli lomalainenRakennus, jossa on nyt vaatemyymälä, avattiin asiakkaille lauantaina keskellä hiihtolomasesonkia. Sen huomasi myös kävijöissä, joista moni oli tullut lomalle kauempaakin.Avaa kuvien katseluMeri Lehtonen kertoo Tuurin olevan tuttu paikka jo lapsuusvuosilta. Kuva: Mirva Ekman / YleKuopiosta Töysässä vanhempiaan tervehtimässä ollut Meri Lehtonen sanoo, että Hakaniemen väistöhallina tutuksi tullut rakennus on hauska nähdä Tuurissa, vaikka se erilaiselta näyttääkin. Hän ehti Helsingissä hetken asuneena käydä myös alkuperäisessä rakennuksessa.– Mielestäni on hienoa, että halli saadaan uusiokäyttöön, Lehtonen sanoo.Kiertotalouspuoli nousee esiin myös Helsingistä lomailemaan tulleella Janne Pirttikoskella.– Sen sijaan, että rakennettaisiin uutta, käytetään jotakin olemassa olevaa. Se on tietysti nykyaikana plussaa, Pirttikoski toteaa ostosten lomassa.Avaa kuvien katseluJanne Pirttikoski kertoo käyvänsä sukulaisten luona Etelä-Pohjanmaalla jopa parin kuukauden välein.  Kuva: Mirva Ekman / YleTyöolotkin paranivat2 300 neliömetrin hallissa on nyt vaatemyymälä, joka toimi aikaisemmin kuplahallissa.– Asiakkailla on miellyttävä asioida lämpöisessä rakennuksessa verrattuna siihen, että kuplahallissa oli kylmimpänä päivänä pakkasta viisi astetta, Vesa Keskinen kertoo sähköpostitse.Palvelu- ja laatupäällikkö Seija Haka Tuurin kyläkaupasta toimii myös uuden myymälän vastaavana. Hän naurahtaa, että henkilökunnan ja asiakkaiden on nyt mukavampaa työskennellä ja asioida, koska kuplahallissa oli välillä kylmä.Haka kertoo yllättyneensä avajaispäivän asiakasmäärästä, vaikka odotuksiakin oli. Kassalle kiemurteli ajoittain pitkä jono.– Helsinkiläiset, jotka ovat sen Hakaniemen hallinkin nähneet, tulevat yllättymään siitä, miten uuteen uskoon se on täällä laitettu. 50 rekkalastia on ollut aika paljon, kun sitä on ruvettu kasaamaan ja laittamaan siihen kuntoon, missä se on nyt, Haka sanoo.Myymälän avajaiset yksi syy reissulleLaura Tuupanen tuli lastensa ja miehensä Saulin kanssa lomareissulle Vantaalta.– Ei tullut käytyä hallissa Helsingissä, mutta luimme kyllä tästä siirrosta ja se onkin yksi syy monista, miksi tulimme lomalle ja tännekin tänään, Laura Tuupanen hymyilee.Avaa kuvien katseluSauli ja Laura Tuupanen tulivat lomalle Tuuriin jo kymmenettä kertaa.  Kuva: Mirva Ekman / YleTuupanen arvelee, että nimenomaan Helsingistä tuotu rakennus voi kiinnostaa jonkin verran pääkaupunkiseudulla asuvia.Vesa Keskinen kertoi jo kesällä hankkineensa lasihallin hetken mielijohteesta.Veljekset Keskinen aloitti muutosneuvottelut viime vuoden puolella ja tällä hetkellä Tuurin kyläkaupassa on menossa lomautuksia huhtikuulle saakka.Keskisen mukaan yrityksen viime vuosi meni tyydyttävästi, mutta hän kuvailee, että luotto on luja avatun myymälän menestymiselle.Avaa kuvien katseluUusi myymälä nousi kyläkauppaan ruokapuodin puolelle leirintäalueen suuntaan.  Kuva: Mirva Ekman / Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>24</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Pronssikäsi ovipielessä pyysi hyvää onnea rauta­kau­tiseen kotiin – onni loppui Rooman armeijan hyökkäykseen</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076280</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>25.02.2024</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Elokuvauransa lopettamista pohtiva filmitähti kertoo Ylelle antamassaan yksityishaastattelussa, mistä Nicolas Cage on tehty.</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Nicolas Cage on nero tai narri. Hän saattaa olla molempia.60-vuotias filmitähti on tehnyt elokuvissa kaikkea mahdollista. Hän on ollut ison budjetin hittien vetonaula ja näytellyt mieleenpainuvia rooleja pienissä elokuvissa, joista vain harva on kuullut.Cagen ylilyövä tapa näytellä joko riemastuttaa tai ärsyttää. Häntä on luonnehdittu sekä sukupolvensa parhaaksi amerikkalaiseksi näyttelijäksi että huonoimmaksi elossaolevaksi filmitähdeksi.2000-luvulla hänestä tuli meemi ja internetin vitsien kohde. Tuonkin ongelman hän on onnistunut selättämään.Urani on ollut elektromagneettinenNicolas CageMikä on Nicolas Cagen salaisuus?Soitetaan videopuhelu Las Vegasiin ja otetaan selvää.– Urani on ollut elektromagneettinen. Se on vetänyt minua syvemmälle näyttelemisen mahdollisuuksiin, mutta myös työntänyt minua luotaan. Se on ollut rakkauden ja vihan välistä aaltoliikettä, Cage sanoo ja hörppää energiajuomaa metallitölkistä.Punk-näyttelijäCagen näyttelemisestä muistetaan parhaiten se, mikä erottuu: isot eleet, oudot päähänpistot ja räväkät tunteenpurkaukset. Jo ensimmäisissä elokuvissaan hän elehtii ja räjähtelee niin, että on tulla ulos valkokankaalta.Ylen saamassa yksityishaastatelussa Cage kutsuu itseään amatöörisurrealistiksi. Tavanomainen näytteleminen on vain yksi väri hänen paletissaan.– Näytellessä voi tehdä monia asioita. Samalla tavalla kuin kuvataide voi olla fotorealistista tai surrealistisempaa niin kuin Goyan Saturnus syö poikansa tai Boschin Maallisten ilojen puutarha. Olen halunnut ottaa riskejä.Alla videolla Nicolas Cage kertoo omin sanoin Kulttuuricocktailille, mitkä ovat hänen lempiroolinsa.Nicolas Cage kertoo videolla kolmesta elämänsä tärkeimmästä roolista.Näyttelijän oma suosikki hänen 1980-luvun rooleista on pienessä elokuvassa, jossa hän päästi vaihteen vapaalle.Vampyyrin suudelmassa (1987) Cage huutaa, huitoo käsillään ja vetää kaiken överiksi. Yksi esikuva hänen näyttelemiselleen olivat 1920-luvun saksalaiset mykkäelokuvat, kuten Tri. Caligarin kabinetti ja Nosferatu.Tämä GIF on yksi suosituimmista Nicolas Cage -meemeistä. Se on elokuvasta Vampyyrin suudelma (1987), joka menestyneiden Kuuhullujen ja Arizona Babyn sijaan on Cagen lempielokuva hänen 1980-luvun tuotannostaan. Tarinat elokuvan kuvauksista ovat vähintään yhtä outoja kuin elokuva itse. Seksikohtausta varten Cage halusi, että hänen varpailleen kaadetaan lämmintä jogurttia päästäkseen oikeaan tunnelmaan. Toisessa kohtauksessa hän söi elävän torakan. Lähde: Tenor GIFTyyli, jota Cage kutsui punk-näyttelemiseksi on jättänyt jälkensä hänen myöhempiinkin rooleihinsa.Saan ideoita kaikesta elämästä. Joskus niitä tulee luonnosta, vaikka merenelävistä kertovasta ohjelmasta.Nicolas CageVastikään Suomessa vieraillut kulttiohjaaja Richard Stanley kertoi Cinema Orionin elokuvan Color Out of Space (2019) yleisölle, että hänen tehtävänsä kuvauksissa oli pitää Cage aisoissa. Kuvauksissa Cage muun muassa heittäytyi seisomaan päällään, kun hänen esittämänsä perheenisä kiisteli vaimonsa kanssa.Kun kysyn Cagelta, mikä hänen roolitöitään inspiroi, on vastaus todella lavea.– Minua inspiroivat perhe, lapseni, kirjojen lukeminen. Romaanihenkilöt, kuten Dmitri Karamazov ja kapteeni Ahab. Saan ideoita kaikesta elämästä. Joskus niitä tulee luonnosta, vaikka merenelävistä kertovasta ohjelmasta.Avaa kuvien katseluLeaving Las Vegas on riipaisevan surumielinen kuvaus määrätietoisesti itseään tuhoavasta ihmisestä. Vakava rooli itseään hengiltä juovana alkoholistina toi Nicolas Cagelle parhaan miespääosan Oscar-palkinnon vuonna 1996. Näyttelijä tuntuu roolissaan niin aidolta, että hänen katsomisensa tekee kipeää. Kuva: Suzanne Hanover/United Artists/Kobal/Shutterstock/All Over PressKitkaCage voi olla nerokas ja surkea näyttelijä jopa yhden elokuvan aikana. Otetaan esimerkiksi hittielokuva Face/Off - Kahdet kasvot (1997).Elokuvan alussa on kohtaus, jossa Cagen esittämä hullu terroristi ujuttautuu papiksi naamioituneena kirkkokuoron sekaan ja alkaa kouria laulavaa teinityttöä.Lähikuva Cagen orgastisesta ilmeestä on niin outo, että elokuvaa katsoessani putosin kokonaan sen maailmasta. Onpa huonoa näyttelemistä!Avaa kuvien katseluHeti Oscar-palkinnon jälkeen Nicolas Cage astui 1990-luvun puolivälissä isojen hittielokuvien tähdeksi ja toimintasankarin saappaisiin elokuvissa, kuten The Rock - Paluu helvettiin (1996) ja Con Air - Lento vapauteen (1997). Kuva John Woon elokuvasta Face/Off - Kahdet kasvot. Kuva: LANDMARK MEDIA / Alamy/All Over PressMyös elokuvan juoni kuulostaa vitsiltä. Se kertoo terroristin ja FBI-agentin (John Travolta) kissa ja hiiri -leikistä, johon tulee lisää kierroksia, kun päähenkilöille asennetaan toistensa kasvot.Face/Off on kuitenkin kaikkea muuta kuin vitsi. Se on toimintaelokuvaksi puettu tutkielma hyvästä ja pahasta.Haluan kuitenkin kokeilla erilaisia tapoja äännellä, ilmehtiä ja liikkua, jotta näyttelemiseni pysyy kiinnostavana itselleni ja katsojilleNicolas CageYliampuvaa alkua lukuun ottamatta myös Cage on elokuvassa todella hyvä. Siinä missä Travolta käyttää elokuvan Nicolas Cagen näyttelijäntyylin matkimiseen, kantaa Cage kehossaan ja kasvoissaan sen, miltä pahimman vihamiehensä kehoon joutuneesta agentista oikeasti voisi tuntua.Avain Cagen salaisuuteen on ehkä siinä, että liioittelu on tietoinen valinta. Hän vetää usein överiksi, mutta ei koskaan läskiksi.– Yhdessä urani vaiheessa kävi hyvin selväksi, että vain 1970-luvun erittäin realistista tapaa näytellä pidettiin hyvänä näyttelemisenä. Haluan kuitenkin kokeilla erilaisia tapoja äännellä, ilmehtiä ja liikkua, jotta näyttelemiseni pysyy kiinnostavana itselleni ja katsojille, Cage kertoo.Avaa kuvien katseluCage näytti monipuolisuutensa Spike Jonzen elokuvassa Adaptation. Minun versioni. (2002), jossa hän esittää käsikirjoittajakaksosia Charlie ja Donald Kaufman. Kuva: Columbia/Kobal/Shutterstock/All Over PressEhkä Cagen salaisuus piilee siinä, että hänen tapansa näytellä synnyttää kitkaa. Se hankaa sitä vastaan, mitä olemme Hollywood-elokuvissa tottuneet näkemään.Silloin kun tuo kitka toimii, se kipinöi. Toisinaan se taas on yksinkertaisesti liikaa.Alamäki alkaaVielä vuosituhannen vaihteessa tuntui, että Nicolas Cage ei voi tehdä mitään väärin. Sitten kaikki muuttui.Cagesta oli tullut tähti, jonka isot palkkiot toivat hänelle yhä turvallisempia rooleja. Yhdessä vaiheessa hänestä yritettiin muovata Johnny Deppin kaltaista Disney-sankaria National Treasure -elokuvissa.Avaa kuvien katseluHeikkojen elokuvien lisäksi Nicolas Cage teki 2000-luvun alkupuolella muutamia epäonnisia uravalintoja. Hän kieltäytyi muun muassa The Matrixin pääosasta sekä Aragornin roolista Taru Sormusten herrasta -elokuvissa. Jälkimmäiseen hänen tilalleen otettiin Viggo Mortensen. Kuva: Yle Kuvapalvelu.The Wicker Manin (2007) ja Ghost Rider: Koston hengen (2011) kaltaiset flopit veivät yleisön kiinnostuksen. Vuoden 2010 tienoilla paljastui myös, että Cage oli miljoonaveloissa.Velat eivät olleet ihme, sillä tähti tunnettiin tuhlailevasta elämäntavastaan. Uransa huipulla hän omisti kaksi linnaa, saaren Bahamasaarilta, maailman ensimmäisen Teräsmies-sarjakuvan ja tyrannosauruksen kallon.Viimeksi mainitun hän palautti Mongolian valtiolle, kun kävi ilmi, että se oli varastettu.Ilmeisesti juuri rahahuolet saivat Cagen valitsemaan työnsä määrääväksi periaatteeksi laadun sijasta määrän. 2010-luvulta alkaen hänet on nähty loppumattomassa määrässä DVD:lle ja suoratoistopalveluihin tehtyjä tusinaviihde-elokuvia.MeemimiesInternet on pullollaan Nicolas Cagen ilmeitä, eleitä ja raivareita. Videoita, kuten ”Nicolas Cage loses it” tai ”full cage”.Cage oli yksi ensimmäisistä meemiksi muuttuneista Hollywood-tähdistä. The Wicker Man -elokuvan kehnoutta alleviivaava kuva Cagesta, jonka kasvoilla kiipeilee mehiläisiä, levisi netissä kulovalkean lailla vuonna 2007.Tämä kohta brittiläisen kauhuklassikon uusintaversiosta The Wicker Man (2007) on yksi internetin ensimmäisistä viraaliksi menneistä meemeistä. Se mullisti kerralla internetin käyttötapoja ja Nicolas Cagen uran. Lähde: Tenor GIFLisää seurasi.Cagen ylilyövä näytteleminen on helppoa riistaa meemiyttämiselle. Kohtaukset irtoavat helposti lyhyiksi ilmaisuvoimaisiksi klipeiksi. Ne on kuin tehty netissä levitettäviksi.Meemien todellinen tragedia liittyy juuri asiayhteydestä irrottamiseen. Kun överi ilme tai ele irrotetaan muusta elokuvasta, katoaa sen takana ollut syy näkyvistä. Jäljelle jää pelkkä kaistapäinen vaikutelma.Katsoessaan koostetta raivareistani ihmiset saavat jonkinlaisen epäsuoran purkutien haluilleen ja vieteilleen.Nicolas CageMeemimieheksi muuttuminen vahingoitti Cagen mainetta. Hän ei enää hallinnut julkisuuskuvaansa. Meemit eivät tuottaneet rahaa eivätkä ne tuoneet katsojia niille elokuville, joista ne olivat peräisin. Ennemminkin ne saivat ihmiset pitämään häntä huonona tai vähintäänkin outona näyttelijänä.Tätä nykyä Cage suhtautuu meemimaineeseensa melko rennosti.– Uskon, että niillä on kaikessa naurettavuudessaankin jotain viihdearvoa ihmisille. Katsoessaan koostetta raivareista he saavat siitä jonkinlaisen epäsuoran purkutien haluilleen ja vieteilleen.Toinen tuleminenNicolas Cage ei olisi legendaarisen maineensa veroinen jos hän ei onnistuisi mahdottomassa. Niinpä hän on viime vuosina kokenut renessanssin, jossa meemiytyminen on kääntynyt hänen voitokseen.Alkujaan elokuvista irrotetut pätkät nauroivat Cagen överiydelle. Kasautuessaan ne ovat kuitenkin alkaneet viestiä muutakin. Hyvä esimerkki tästä on Night of Too Many Cages -komediatapahtuman traileri. Se on riemastuttava, mutta samalla se myös juhlii Cagen näyttelijäntyön monipuolisuutta.Cage on myös löytänyt tiensä takaisin hyviin elokuviin. Hän on valinnut pienempiä projekteja, joissa on päässyt ottamaan taas riskejä. Samalla hän on tehnyt outoudesta entistäkin ilmeisemmän rakennuspalikan elokuvarooleilleen.Avaa kuvien katseluKoston voi tarjoilla näinkin. Yksi Nicolas Cagen uran tärkeimmistä etapeista on rooli Michael Sarnoskin yllättävän herkässä kostoelokuvassa Pig (2021). Siinä hänen roolityönsä perustuu pitkälti räjähtämisen uhkaan. Kuva: NEONYksi elokuva, joka hyödyntää ja koettelee Cagen kykyjä äärimmilleen on Panos Cosmatosin psykedeelinen kauhuelokuva Mandy (2018). Elokuvan muotoon puettu painajaisuni ei ole heikkohermoisille, mutta sen äärimmäisyys on kuin tehty Cagen irtiottoja varten.Osa Cagen viimeaikaisten roolien tehoa on siinä, että yleisö tahtoo nähdä, kun hän heittää turvavaljaat nurkkaan.– Olen halunnut rikkoa rajoja tehdäkseni rooleja, joita on kiinnostava katsoa. Niin kuin Edward G. Robinson, joka näytteli niin että kipinöi.Avaa kuvien katseluNicolas Cagen viime vuosie roolit ovat usein yhtä paljon elokuvia Cagesta itsestään kuin kyseisten elokuvien tarinoista. Ääriesimerkki tästä on toimintakomedia Suurenmoisen lahjakkuuden sietämätön taakka (2021), jossa Cage esittää filmitähti Nicolas Cagea, joka saa mahdollisuuden pelastaa alamäkeen mennyt uransa. Kuva: Katalin Vermes/LionsgateMonia Cagen viime vuosien onnistumisista leimaa se, että niitä on mahdoton kuvitella jonkun toisen esittämiksi. Paras tällainen ilmentymä Cagen hyödyntämisestä on fine dine -ravintoloiden maailmaan sijoittuva rikostrilleri Pig (2021). Siinä hänen esittämänsä erakoitunut huippukokki lähtee pelastamaan ainoaa ystäväänsä, kaapattua tryffeliporsasta.Pig matkii asetelmansa Taken ja John Wick -elokuvilta, mutta se toimii täysin eri logiikalla kuin pullisteleva macho-toiminta. Hiljainen trilleri purkaa kostoelokuvien genren palasiksi ja kyseenalaistaa niiden väkivaltaisen maailmankuvan.Nerokkainta Pigissä on se, että Cagen rooleihin liittyvä arvaamattomuus on läsnä räiskyvyyden sijaan räjähtämisen uhkana. Kitka syntyy nyt vähäeleisyydestä.Jäähyväiset elokuville?Tammikuussa 60 vuotta täyttänyt Cage sanoo, että ikä ei tunnu miltään.– En tiedä milloin alan tuntea oloni vanhaksi. Minusta tuntuu ihan samalta kuin aina. Olen ehkä vähän harkitsevampi ja vähän vähemmän impulsiivinen, mutta fyysisesti oloni ei ole muuttunut.Yhden päätöksen ikääntyminen on kuitenkin tuonut tullessaan. Cage kertoi joulukuussa suunnittelevansa elokuvauran lopettamista.Kun kysyn asiasta, näyttelijä sanoo, että ei aio jättää kokonaan taidemuotoa, joka särki 15-vuotiaana hänen sydämensä.– Enemmänkin on kyse siitä, että kynnys tulee olemaan paljon korkeammalla kuin ennen. Jos saan fantastisen käsikirjoituksen elokuvaan, johon voin tuoda jotakin henkilökohtaista, niin teen sen.Avaa kuvien katseluElokuvassa Dream Scenario Cage esittää keskinkertaista lukio-opettajaa, joka saa yhtäkkiä koko maailman huomion. Kuva: IMAGO/Landmark Media/ All Over PressSuomessa elokuvateattereihin juuri tullut uusin Nicolas Cage -elokuva Dream Scenario (2023) on tästä hyvä esimerkki. Cage esittää siinä keski-ikäistä lukio-opettajaa, jonka elämä mullistuu, kun ihmiset joka puolella maailmaa alkavat nähdä hänestä unia.Elokuva kysyy, miltä tuntuisi jos kaikki maailman ihmiset tuntisivat sinut – olisiko se siunaus vai painajainen?Kuka voisi olla parempi vastaamaan kysymykseen kuin Nicolas Cage? Myös Dream Scenarion ohjaaja Kristoffer Borgli kertoo näyttelijän suhtautuneen alusta asti intohimoisesti elokuvaan.– Heti ensimmäisessä sähköpostissaan Cage kertoi tuntevansa tämän henkilön. Hän sanoi tämän elokuvan kertovan täsmälleen siitä, minkä hän on käynyt läpi.</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>23</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Suomen pääministeri sai Olof Palmen murhan jälkeen listan – vaikutti siltä, että hänetkin haluttiin tappaa</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20074981</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>24.02.2024</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Suojelupoliisilla on kymmeniä sivuja Olof Palmen murhaan liittyviä asiakirjoja. Yle kertoo niistä nyt ensimmäistä kertaa.</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Kesäkuu 1986.SDP:n puoluetalolle Helsingin Siltasaareen saapuu pääministeri Kalevi Sorsalle osoitettu kirje. Leimasta ilmenee, että kirje on postitettu Saksan Frankfurtista.Kirje sisältää 19 nimen listan.Kaikki listatut ovat kansainvälisesti tunnettuja poliitikkoja ja kuuluvat Sosialistiseen internationaaliin, sosialidemokraattisten puolueiden yhteistyöjärjestöön.Nimien joukossa on kaksi suomalaista, pääministeri Sorsa sekä Pentti Väänänen, Sosialistisen internationaalin pääsihteeri.Nimilista on lähetetty ”Saksan kansan nimissä”. Viestissä ilmoitetaan, että listattujen henkilöiden kuolemantuomiot pannaan täytäntöön.Allekirjoittajaksi on merkitty V-Kommando.Yhden nimen perässä on risti. Kyseessä on Olof Palme, Ruotsin pääministeri, joka on ammuttu kuoliaaksi reilut kolme kuukautta aikaisemmin.Tästä syystä uhka vaikuttaa uskottavalta.Viesti toimitetaan poliisille.Avaa kuvien katseluOlof Palme oli Ruotsin tunnetuin poliitikko. Hän toimi maan pääministerinä vuosina 1969–1976 ja 1982–1986. Kuva: All Over PressSupon Palme-arkisto avautuuRuotsin pääministerin Olof Palmen murhasta tulee kuluneeksi 38 vuotta.Palme ammuttiin myöhään perjantai-iltana 28. helmikuuta 1986 Tukholman keskustassa, kun hän oli vaimonsa kanssa matkalla elokuvateatterista kotiin.Murhaaja katosi pimeään yöhön.Viranomaiset häkeltyivät kuullessaan, kuka ammuttu henkilö on. Otteita hätäpuhelusta ja viranomaisten välisistä keskusteluista 28. helmikuuta 1986.Ampujaa ei saatu koskaan varmuudella selville, vaikka rikostutkinta oli maailmanlaajuisesti yksi mittavimpia.Suomen suojelupoliisilla on kymmeniä sivuja Palmen murhaan liittyviä asiakirjoja.Palme-arkisto sisältää Supon muistioita ja puhutuksia sekä poliisin ja yksityisten kansalaisten vihjeitä.Yle sai asiakirjat haltuunsa tietopyynnöllä.Toisin kuin nykyään, 1980-luvulla Supolla oli esitutkintavaltuudet, joten se saattoi tehdä kuulusteluja ja muita poliisitutkintatoimia.Haamukuvan mies Suomessa?Supo joutui tekemisiin Palmen murhatutkinnan kanssa jo ensipäivinä.Se sai muilta viranomaisilta vihjeitä Suomeen saapuneista epäilyttävistä henkilöistä.Ruotsin poliisi oli ohjeistanut Suomen viranomaisia tarkkailemaan maiden välistä liikennettä.Eräs vihje liittyi turkkilaiseen mieheen, joka oli saapunut laivalla Ruotsin Uumajasta Vaasaan ilman viisumia. Hänen matkatavaroistaan löydettiin ”runsaasti muistiinpanoja” sekä Ruotsin kartta, jossa oli paljon merkintöjä.Mies käännytettiin takaisin Ruotsiin, ja hänestä ilmoitettiin paikallisille viranomaisille.Tutkinta sai täysin uusia kierroksia kuusi päivää murhan jälkeen.Ruotsin poliisi päätti julkaista tietokoneella laaditun ”fantombildin” eli haamukuvan, joka esitti oletettua murhaajaa. Tuntomerkit perustuivat kyseenalaisiin todistajankertomuksiin.Avaa kuvien katseluKuuluisa ”fantombild”, josta Ruotsin poliisi sai noin 8 000 vihjettä. Tutkinnan alkuvaiheessa oletettiin, että tietokoneella tehty kuva esitti murhaajaa. Epävarmoihin havaintoihin perustuneen kuvan julkaiseminen herätti voimakasta arvostelua. Kuva: Ruotsin poliisiHaamukuvaa muistuttavia miehiä löytyi pian kaikkialta, myös Suomesta.Valppaana oli esimerkiksi Helsingin Eteläsataman passintarkastaja, joka ilmoitti maaliskuussa havainnoistaan Supolle.Hän kertoi, että neljä päivää murhan jälkeen Tukholmasta Helsinkiin oli saapunut eräs Turkin kansalainen, joka muistutti haamumiestä.Supo tutki asiaa.Selvisi, että turkkilaismies oli palannut työnantajansa laivaseminaarista, jonne oli lähtenyt Helsingistä kaksi päivää aikaisemmin.Hänellä ei ollut mitään tekemistä Palmen murhan kanssa.Avaa kuvien katselu”Murhaajan” näköisiä miehiä alkoi löytyä myös ympäri Suomea. Usein yhdennäköisyys oli vain katsojan silmässä. Kuva: Ilta-Sanomat / Supon arkistoItsemurhayritys Wärtsilän portillaMuutama viikko myöhemmin Helsingin poliisin ylikonstaapeli soitti Supoon kertoakseen Wärtsilän telakan portilla tapahtuneesta itsemurhayrityksestä.Norjalainen mies oli löydetty pysäköidystä autostaan, jonne hän oli johtanut putkella pakokaasua. Mies toimitettiin Meilahden sairaalaan.Ylikonstaapeli vilkaisi norjalaisen passia ja totesi hänen olevan samannäköinen kuin haamukuvan mies.Supo käynnisti tarkemmat selvitykset.Pian osoittautui, ettei lyhyehkön norjalaisen pituus sopinut Palmen murhasta etsintäkuulutettuun henkilöön.Norjalainen selitti jättäneensä pari viikkoa aikaisemmin työnsä Bergenissä ja lähteneensä ajelemaan päämäärättömästi Tanskaan, Ruotsiin ja Suomeen.Palmen murhaan hän ei kuitenkaan ollut sekaantunut.Voit tutustua alla oleviin dokumentteihin klikkaamalla kuvat suuremmaksi:Avaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluLisää uhkauksia Suomen pääministerilleSDP:n puoluetoimistolle lähetetty tappolista ei jättänyt enempää kirjauksia Supon arkistoon, mutta se ei ollut ainoa pääministeri Kalevi Sorsaan kohdistunut uhkaus.Sorsan kotiosoitteeseen lähetettiin kuivamustekynällä kirjoitettu kirje marraskuussa 1986. Aggressiivisessa viestissä Sorsalle uhattiin käyvän kuin Palmelle.Nimetön kirjoittaja antoi ymmärtää, että Sorsan tappamista oli suunniteltu jo pidempään.”Meinattiin pistää Turussa jo sinut kuoppaan.”Pääministeri Sorsa ei suhtautunut uhkauksiin huolettomasti.Suojelupoliisin historiikissa Ratakatu 12 mainitaan, että Palmen kuoleman jälkeen Supo päätti ”vähän katsoa pääministerin perään”.Kerran Sorsa kiinnitti puistossa huomiota nuoreen mieheen, joka seurasi häntä katseellaan.Varuillaan ollut pääministeri lähti kävelemään reippain askelin poispäin, jolloin nuori mies päätti juosta hänet kiinni ja esittäytyä.Hän oli Supon etsivä.Tukholmalaiset kerääntyivät Olof Palmen murhapaikalle 2. maaliskuuta 1986.”Sitten minä tapan Palmen”Oliko Palmen murhaaja kertonut aikeistaan suomalaismiehelle jo joulukuussa 1985?Tätä Supo alkoi selvittää kolme vuotta myöhemmin.Se puhutti miestä, joka kertoi kohdanneensa Tukholmasta Helsinkiin seilanneen Viking Mariella -aluksen kahvilassa aamuyöllä ”arabiliikemiehen”.Suomalainen tarjosi kansipaikalla matkustaneelle uudelle tuttavuudelle hyttiään.Siellä juteltiin niitä näitä, suomalainen oli päissään.Yhtäkkiä vieras oli tokaissut olevansa menossa Suomeen tappamaan pääministeri Kalevi Sorsan.Suomalainen hätkähti. Hän vastasi olevansa Sorsan henkilökohtainen tuttava, ja kehotti jättämään pääministerin rauhaan.Mies oli sanonut ”menevänsä sitten tappamaan Palmen”.Kun vieras kävi kylpyhuoneessa, suomalainen vilkaisi hänen matkakassiinsa.En osaa selittää, mistä minulle on muodostunut sellainen käsitys, että kassissa olisi ollut pitkäpiippuinen rullarevolveri.Suomalainen myönsi olleensa niin vahvassa humalassa, että oli lopulta sammunut.Aamun tullen vieras oli häipynyt hytistä. Samalla suomalaiselta oli kadonnut muutama tuhat markkaa.Laivan tapahtumat palautuivat hänen mieleensä, kun epäillystä laadittu haamukuva julkaistiin. Suomalaisen mielestä se muistutti laivatuttavuutta.Supon tekemät johtopäätökset suomalaisliikemiehen kertomuksesta on salattu.Myöhemmin selvisi, että haamukuva oli epäonnistuneessa murhatutkinnassa yksi surullinen luku monien joukossa.Murhatutkintaryhmä ilmoitti, ettei kuva esittänyt tekijää, ja aiheutti tuhansien perättömien vihjeiden tulvan.Avaa kuvien katseluRuotsin poliisin Palme-tutkinnan uusi johto totesi, että haamukuvan julkaiseminen oli paha virhe, jonka vuoksi tutkinta lähti väärille raiteille. Uusi Suomi otsikoi asiasta 6. toukokuuta 1987. Kuva: Uusi Suomi / Supon arkistoPahaa tehnyt palkkasotilasNoin kuukausi murhan jälkeen Supon ylietsivä puhutti naista, jolla oli kerrottavaa alle 30-vuotiaasta miesystävästään.Naisen mukaan mies oli työskennellyt aiemmin palkkasotilaana. Vähän ennen Palmen murhaa tämä oli ilmoittanut naiselle ”häviävänsä joksikin aikaa”, ja sanonut menevänsä Ruotsiin.– Kun lauantaiaamuna kuulin tv:stä Olof Palmen murhasta, minulle tuli sellainen tunne, ettei kai tuo onneton ole mennyt ja tehnyt jotain, nainen kertoi.Tiistaina 4. maaliskuuta 1986 mies oli käväissyt naisen asunnolla ja kertonut ottaneensa Ruotsissa käydessään vastaan uuden pestin palkka-armeijasta.Samalla hän oli maininnut ”tehneensä kaiken pahan, mitä ihminen yleensä voi tehdä”.– Kun kysyin häneltä, että mitä, [mies] vastasi: No etkö sinä ole lehtiä lukenut?Supon ylietsivän kirjausten mukaan nainen vaikutti puhuttelutilanteessa hyvin asiallisesta, jopa pelokkaalta.Pöytäkirjoista ei käy ilmi, tavoitettiinko miesystävää, ja mitä tämä mahdollisesti viranomaisille kertoi.Avaa kuvien katseluVäkivalta- ja huumerikollinen Christer Pettersson tuomittiin Palmen murhasta maallikkotuomareiden äänillä käräjäoikeudessa, mutta hovioikeus hylkäsi syytteet. Pettersson juhlisti vapauttavaa tuomiota vodkalla ja Baileys-liköörillä 13. lokakuuta 1989. Kuva: Anders Holmstrom / EPA”Jos saisin Magnumin, ampuisin Palmen”Muuan miestä oli jäänyt vaivaamaan naapurinsa tokaisu ampumaradalla 1980-luvun alussa.Kaksikko oli harjoitellut lainassa olleella Walther-pistoolilla. Miehen mukaan naapuri ei ollut erityisen hyvä ampuja, mutta korvasi puuttuvat taidot yrityksellä.Kerran naapuri oli kesken ampumisen yhtäkkiä pysähtynyt ja sanonut:– Jos saisin Magnumin [aseen], niin ampuisin Palmen.Ilmoittajan mukaan lausuma oli täysin irrallinen eikä liittynyt heidän aiempiin puheenaiheisiinsa.Hän kuvaili naapurinsa olevan tyylikkäästi pukeutuva herrasmies, joka ei hänen käsityksensä mukaan ollut poliittisesti aktiivinen.Supo on salannut ilmiannettua miestä koskevat yksityiskohdat.Myös alamaailman vinkkimiehet tarjosivat mahdollisten murhaajien nimiä. Supolle päätyneitä vihjeitä tuli niin Suomesta kuin Ruotsista.Nekään eivät tuoneet ratkaisua Olof Palmen murhaan.Supon saamat ilmoitukset tyrehtyivät viimeistään 1990-luvulle tultaessa.Avaa kuvien katseluRuotsalaiset Palme-murhatutkijat kävivät Kemissä alkukesällä 1988. He veivät mukanaan eräästä pihasta sähköpylvään, koska siinä oli tiettävästi järeän revolverin luodin reikä. Pohjolan Sanomat uutisoi 4. elokuuta 1988. Kuva: Pohjolan Sanomat / Supon arkistoPääepäilty löytyi, tutkinta päättyiVuonna 2020 Palme-tutkintaa johtanut syyttäjä yllättäen ilmoitti vuosien tutkimusten päätteeksi, että Olof Palmen ampui todennäköisesti Stig Engström.Engström työskenteli mainosgraafikkona Skandia-vakuutusyhtiössä, jonka pääkonttori sijaitsi aivan murhapaikan tuntumassa Sveavägenillä.Murhailtana hän poistui töistä myöhään ja kulki Palmen pariskunnan takana.Engströmiä pidettiin vuosikymmenten ajan yhtenä todistajista. Hän itse kertoi auttaneensa rikospaikalla niin ammuttua Palmea kuin paikalle tulleita poliiseja.Avaa kuvien katseluStig Engström antoi mielellään haastatteluja, joissa kertoi vaihtelevia tarinoita toiminnastaan murhapaikalla. 7. huhtikuuta 1986 otetussa kuvassa Engström osoittaa, mihin suuntaan murhaaja pakeni. Vuonna 2020 syyttäjä ilmoitti, että todennäköisesti Engström ampui Palmen. Kuva: Goran Arnback / EPASyyttäjän mukaan kukaan ei kuitenkaan muista nähneensä häntä rikospaikalla. Sen sijaan Engströmin vaatetus täsmäsi useiden todistajien kertomuksiin siitä, miten paikalta paennut murhaaja oli pukeutunut.Syyttäjä kertoi Engströmin antaneen poliisille virheellisiä tietoja tekemisistään murhailtana.Tutkintaryhmä tuli johtopäätökseen, jonka mukaan Engström ei voinut olla rikospaikalla muussa roolissa kuin murhaajana.Häntä vastaan ei kuitenkaan ollut teknisiä todisteita, sillä esimerkiksi murha-asetta ei koskaan löydetty.Olof Palmen murhatutkinta päätettiin lopettaa, koska pääepäilty Engström on kuollut.Ruotsi pettyi taasRuben Stiller 12. kesäkuuta 2020. Itsemurhan tehnyt Skandia-mies Stig Engström on Ruotsissa tämän viikon syyllinen. Kuinka vahva on näyttö hänen syyllisyydestään Olof Palmen murhaan? Vapautuuko Ruotsi traumastaan? Veteraanikirjeenvaihtaja Kari Lumikero esittää oman analyysinsä.</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>23</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>VR jätti pikku­kau­pungin kuukaudeksi junamottiin – helsin­ki­läinen tuskaisena: Miten ihmeessä pääsen takaisin</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20075901</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espanjasta tehdyn löydön piirtokirjoitus avaa Euroopan vanhinta elävää kieltä, jolla ei ole yhtään sukulaista ja jonka juuret ovat mysteeri. </t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>”Sorieneku”, hyvää onnea, pyysi pronssista taottu käsi, joka oli naulattu rautakautisen kodin ovipieleen. Niin tutkijat ovat tulkinneet Koillis-Espanjasta tehdyn arkeologisen löydön 2 100 vuoden takaa. Löytöpaikkaa asutti vaskoonien heimo.Kädenselkään kaiverretun piirtokirjoituksen ensimmäinen sana on niin lähellä baskin ”zorienokoa”, että tutkijat pitävät sitä todisteena baskin kielen eli euskaran sukulaisuudesta kaivertajan paleohispaanisen kielen kanssa. Se oli yksi kieliryhmässä, jota puhuttiin Iberian niemimaalla ennen roomalaisaikaa.”Zorienokossa” yhdistyvät onnea ja hyvää tarkoittavat sanat. Samankaltaisuus ”sorienekun” kanssa voisi olla sattumaa, mutta löytöpaikan symboliikka puhuu vahvasti sanojen lähisukulaisuuden puolesta, tutkijat sanovat Antiquity-lehdessä julkaistussa artikkelissaan.Piirtokirjoituksen ”eŕaukon”-sanalle he esittävät varoen pariksi euskaran verbiä, joka tarkoittaa antamista tai suomista.Avaa kuvien katseluKahdella keskimmäisellä rivillä kaivertajalta on uhannut loppua tila kesken. Hän on ratkaissut pulman kaventamalla viimeisiä kirjaimia ja lainaamalla yhdelle tilaa rivin yläpuolelta. Hän tai joku toinen on vahvistanut tekstiä pisteviivoilla.  Kuva: Aiestaran et al.Vaskoonit elivät Pyreneiden vuoriston ja Ebrojoen välisellä alueella. Irulegin linnavuorelta nykyisestä Navarresta löytynyt piirtokirjoitus on harvinainen todiste heidän kirjoitetusta kielestään. Löytöjen puuttuessa tutkijat ovat olettaneet, ettei sellaista ollutkaan ennen Rooman vallan aikaa.Pronssikäden sanat ovat tutkijoille kullanarvoisia, sillä euskaran juuret ovat lingvistien uurastuksesta huolimatta lähes täysin hämärän peitossa. Niitä on yritetty jäljittää niin Kaukasukselle kuin Pohjois-Afrikkaan.Suomen kielellä on vain muutamia sukulaisia indoeurooppalaisten kielten hallitsemassa Euroopassa, mutta euskaralla niitä ei ole lainkaan.Tavallisimman arvellaan, että euskara on yksinäinen jäänne todella kaukaa, Euroopan paleoliittisen kivikauden kielistä. Jotkut ajattelivat samaa baskikansan perimästä, kunnes populaatiogeneettiset tutkimukset kaatoivat oletuksen.Current Biology -lehdessä muutama vuosi sitten julkaistun tutkimuksen mukaan baskien perimän pääkomponentti on samoilta varhaisneoliittisen ajan metsästäjä-keräilijöiltä kuin muuallakin Etelä-Euroopassa.Euroopan valtavirtaa on niin ikään indoeurooppalaista kieltä puhuneiden tulokkaiden vahva lisä. Se baskiperimään tuli pronssikaudella, vaikka Iberian paleohispaaniset kielet vielä säilyivätkin.Roomalaisten valloittajien latina oli niille lopulta liikaa. Pronssikäden piirtokirjoituksen perusteella sukupuutto ei kuitenkaan ollut perusteellinen, vaan ehkä juuri vaskooni selvisi ja kehittyi euskaraksi.Avaa kuvien katseluEuskarankielisessä graffitissa baskipoikien takana lukee ”Ta segi aurrera”, ”ja jatkuu”.  Kuva: Agefotostock  / AOPUudella ajalla euskara on pyritty kitkemään rankaisemalla sen käyttämisestä. Ranskan vallankumouksellisten mielestä euskarassa haiskahti heidän kieltämänsä katolinen kirkko, ja uskonnollisuuttaan korostanut Espanjan diktaattori Francisco Franco piti sitä jumalankieltäjien kielenä.Nykyisin euskara on Espanjan baskialueilla virallinen kieli espanjan rinnalla ja baskeilla on varsin suuri taloudellinen ja poliittinen autonomia. Lounais-Ranskan kotiseuduillaan baskeilla ei ole vastaavaa asemaa.Euskaraa osaa nyt arviolta 900 000 ihmistä. Määrä on ollut viime vuosikymmeninä lievässä kasvussa.Silti myös Espanjan Baskimaassa, jossa valtaosa baskeista elää, kuulee käyttökielenä paljon enemmän espanjaa kuin euskaraa, sillä muiden pienten kielten tavoin euskaralla on suuria paineita isommiltaan. Vastaavasti uhattuna on esimerkiksi islannin kieli.Baskin kielen todellinen mysteeri eivät ole sen juuret vaan se, että kieli on säilynyt tähän päivään.lingvistikko Koldo MitxelenaIrulegin arkeologiset kaivaukset aloitettiin viisitoista vuotta sitten. Kohteena olivat keskiaikaisen linnan rauniot, mutta viime vuosikymmenellä huomio siirtyi vuorenhuipun tasanteelle, jonne oli asetuttu pronssikaudella.Irulegi sijaitsee luonnon muovaamassa risteyskohdassa, ja vuorelta näkee kauas. Paikka, jota oli helppo puolustaa, oli ajalleen tyypillinen valinta.Elämisen merkkejä löytyi ajanlaskumme ensimmäisen vuosisadan alkupuolelle asti. Silloin raju hyökkäys autioitti asuinpaikan. Tutkijoiden mukaan hyökkääjä oli todennäköisesti Rooman armeija.Kaivauksissa löytyi runsaasti hiiltä ja hiiltyneitä puunkappaleita. Niiden perusteella Irulegin kohtalona oli tahallaan sytytetty tulipalo. Se tuhosi kaiken, myös sen rakennuksen, jolle pronssikäden oli toivottu tuovan onnea.Avaa kuvien katseluIrulegin linnavuorella on monien aikakausien raunioita.  Kuva: Alestaron et al.Asukkailta oli jäänyt Irulegiin aseita, saviastioita ja kolikoita. Kirjoitustaidosta todistavat pronssikäden lisäksi kaksi ruukunsirpaletta, joissa on kirjoitusmerkkejä, sekä luinen puikko, jollaisilla kirjoitettiin vahatauluille.Asutuksen raunioista kaivettiin esiin myös kuonaa, joka kertoo metallinkäsittelytaidosta. Se sai tutkijat arvelemaan, että käsi oli paikallista tuotantoa.Vaskoonien aikalaisten jäljiltä Iberian niemimaalta tosin tunnetaan useita muitakin metallista tehtyjä ja kiveen kaiverrettuja käsiä, eivätkä kaikki välttämättä anoneet onnea.Keikkalainen Diodorus Sisilialainen kertoi historiankirjassaan, että ainakin ibeereillä oli tapana ripustaa vihollisilta leikkaamiaan käsiä vyöhönsä tai naulata niitä ovipieliin voitonmerkkeinä.Aristoteleen kantapää -radio-ohjelma Yle Areenassa kertoo, miten baskin alkuperää on yritetty selvittää.Baski, kieli, joka ei ole mistään kotoisin</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>24</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Maanpaossa oleva toimittaja kertoo työstään Venäjän propa­gan­da­ko­neistossa – ”Navalnyistä oli tarkat toimin­taohjeet”</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20075695</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>22.02.2024</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Junaliikenne Tampereen ja Porin välillä on toistaiseksi korvattu busseilla. Huono tiedotus sapettaa välille jääviä matkustajia. </t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Pirkanmaalla sijaitseva Sastamala on yksi radanvarsikunnista, joista ei pääse nyt junalla minnekään.VR on perunut vuorot ja korvannut junat busseilla Tampereen ja Porin välillä, koska osa yhtiön kalustosta on korjattavana.Vammalan rautatieasemalta torstaina puolenpäivän aikoihin tavoitettu Marja Leppänen oli kiukkuinen kuin ampiainen. Hän oli tullut Helsingistä Sastamalaan katsomaan iäkästä äitiään.Vasta aamujunassa hänelle selvisi, että Tampereelta eteenpäin matka taittuu bussilla.– Bussikuskit eivät tiedä, minne ja milloin ovat menossa. Takseista ei ole mitään tietoa. Olen saanut noin 50 kertaa vastaukseksi ”emmää vaan tiä”, hän tuskaili.Avaa kuvien katseluJuna-asemalle mottiin jäänyt Marja Leppänen moittii huonoa tiedotusta.  Kuva: Juha Kokkala / YlePaluumatka mietitytti. Leppäsellä oli aikomus päästä vielä illalla takaisin Tampereelle ja siitä edelleen Helsinkiin.– Kukaan ei ole vielä osannut sanoa, että miten hemmetissä pääsen takaisin. Todennäköisesti en mitenkään.Hän aikoi palata takaisin juna-asemalle käytyään äitinsä luona.– Toivon ja rukoilen, että joku korvaava bussi tulee tähän. Tai sitten menen takaisin Sastamalan keskustaan ja otan maksullisen bussin Helsinkiin asti.Avaa kuvien katseluKarkkulaisella Lotta Koskenniemellä on puolivuotias vauva, joka tarvitsee matkan ajaksi rattaisiin turvakaukalon. Sen kanssa olisi hankala ahtautua täpötäyteen bussiin.  Kuva: Juha Kokkala / YleMyös Sastamalan Karkussa asuva Lotta Koskenniemi harmitteli epäselvyyttä junia korvaavien bussien aikatauluissa.– Varsinkaan lapset ja erityisryhmät eivät voi odotella tuntematonta aikaa pysäkillä kun ei tiedä, tuleeko se bussi lopulta vai ei.Helsingistä Karkkuun muuttaneet Koskenniemet eivät tarvitse junaa päivittäin.Tämänhetkinen mottitilanne sai kuitenkin pohtimaan vaihtoehtoa, ettei pysyvää junayhteyttä Karkusta olisi lainkaan.– Maaseudun rauha ja helppo yhteys kaupunkiin olivat perusteena muutolle. Raideyhteyden loppuminen vaikuttaisi myös asuntojen arvoon suoraan, Lotta Koskenniemi sanoo.Lisää: Tampereelta ei pääse Poriin junalla moneen viikkoon eikä busseihin saanut lippuja – näin VR selittää tilannettaTyömatkalaiset pulassaSastamalan kaupunginjohtaja Jarkko Malmberg oli joutunut tulemaan tänään omalla autolla kokoukseen Tampereelle.Hän oli jo ollut yhteydessä VR:ään Sastamalan junamotin vuoksi.– Eihän tämä nyt tasa-arvoiselta kuulosta, että valtakunnalliset ongelmat on sysätty muutaman radanvarsikunnan tuskaksi, hän harmittelee.Malmbergin mukaan tilanne osoittaa, että VR:n varautuminen on ollut heikkoa ja tiedotus huonoa.– Olisi ollut syytä tietää aiemmin, että jos tulee valtakunnallisia ongelmia, nimenomaan Pori–Tampere-välin junat siirretään muualle ja siirrytään muihin liikennöintitapoihin.Avaa kuvien katseluSastamalan kaupunginjohtaja Jarkko Malmberg sanoo, että VR on tiedottanut kuntia junaongelmista huonosti ja hitaasti. Kuva: Juha Kokkala / YleSastamalasta sekä Tampereen että Porin suuntaan töihin lähteville junalla on iso merkitys.Malmbergista on huono signaali, että Sastamalassa joudutaan olemaan ilman sujuvia junayhteyksiä melkein maaliskuun puoliväliin asti.Hän sanoo, että olisi halunnut neuvotella VR:n kanssa jo etukäteen siitä, olisiko vain osa junista voitu jättää ajamatta tai huolehtia ainakin työmatkaliikenteen sujuvuudesta.Myös aluetutkija Timo Aro kirjoittaa kolumnissaan Satakunnan Kansassa, miten pöyristyttävää on, ettei VR ole keskustellut täydellisestä liikennemotista ennakkoon alueen toimijoiden kanssa. Aron mielestä yksikään vastuullinen saman kokoluokan yksityinen yritys ei voisi toimia samalla tavalla kuin VR nyt.VR selvittää, löytyisikö Tampereen ja Porin väliseen liikenteeseen toimintakuntoisia junia ennen kaavailtua maaliskuun yhdettätoista päivää.– Varmasti VR tekee kaikkensa, että ratkaisut löytyvät, Jarkko Malmberg sanoo.</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>24</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Hakaniemen väliaikainen halli pakattiin 50 rekkaan ja vietiin Tuuriin – tältä se näyttää nyt</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20076266</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>24.02.2024</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tuurin kyläkauppias Vesa Keskinen osti Hakaniemen kauppahallin väistötiloina toimineen rakennuksen huutokaupassa. Asiakkaat arvostavat sitä, että rakennus kierrätettiin. </t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Helsingin Hakaniemessä viiden vuoden aikana tutuksi tullut kauppahallin väistötila sai jatkoaikaa Etelä-Pohjanmaalla.Tuurin kyläkauppias, toimitusjohtaja Vesa Keskinen osti lasihallin huutokaupassa 440 000 eurolla. Rakennus purettiin Helsingissä syksyllä ja rahdattiin 50 rekkalastillisella kyläkaupalle.Väistötilana toiminut halli nousi Tuurissa tavarakaupan ja leirintäalueen väliin.Vertaile, miltä halli näytti Helsingissä ja miltä se näyttää nyt Tuurissa. Moni asiakas oli lomalainenRakennus, jossa on nyt vaatemyymälä, avattiin asiakkaille lauantaina keskellä hiihtolomasesonkia. Sen huomasi myös kävijöissä, joista moni oli tullut lomalle kauempaakin.Avaa kuvien katseluMeri Lehtonen kertoo Tuurin olevan tuttu paikka jo lapsuusvuosilta. Kuva: Mirva Ekman / YleKuopiosta Töysässä vanhempiaan tervehtimässä ollut Meri Lehtonen sanoo, että Hakaniemen väistöhallina tutuksi tullut rakennus on hauska nähdä Tuurissa, vaikka se erilaiselta näyttääkin. Hän ehti Helsingissä hetken asuneena käydä myös alkuperäisessä rakennuksessa.– Mielestäni on hienoa, että halli saadaan uusiokäyttöön, Lehtonen sanoo.Kiertotalouspuoli nousee esiin myös Helsingistä lomailemaan tulleella Janne Pirttikoskella.– Sen sijaan, että rakennettaisiin uutta, käytetään jotakin olemassa olevaa. Se on tietysti nykyaikana plussaa, Pirttikoski toteaa ostosten lomassa.Avaa kuvien katseluJanne Pirttikoski kertoo käyvänsä sukulaisten luona Etelä-Pohjanmaalla jopa parin kuukauden välein.  Kuva: Mirva Ekman / YleTyöolotkin paranivat2 300 neliömetrin hallissa on nyt vaatemyymälä, joka toimi aikaisemmin kuplahallissa.– Asiakkailla on miellyttävä asioida lämpöisessä rakennuksessa verrattuna siihen, että kuplahallissa oli kylmimpänä päivänä pakkasta viisi astetta, Vesa Keskinen kertoo sähköpostitse.Palvelu- ja laatupäällikkö Seija Haka Tuurin kyläkaupasta toimii myös uuden myymälän vastaavana. Hän naurahtaa, että henkilökunnan ja asiakkaiden on nyt mukavampaa työskennellä ja asioida, koska kuplahallissa oli välillä kylmä.Haka kertoo yllättyneensä avajaispäivän asiakasmäärästä, vaikka odotuksiakin oli. Kassalle kiemurteli ajoittain pitkä jono.– Helsinkiläiset, jotka ovat sen Hakaniemen hallinkin nähneet, tulevat yllättymään siitä, miten uuteen uskoon se on täällä laitettu. 50 rekkalastia on ollut aika paljon, kun sitä on ruvettu kasaamaan ja laittamaan siihen kuntoon, missä se on nyt, Haka sanoo.Myymälän avajaiset yksi syy reissulleLaura Tuupanen tuli lastensa ja miehensä Saulin kanssa lomareissulle Vantaalta.– Ei tullut käytyä hallissa Helsingissä, mutta luimme kyllä tästä siirrosta ja se onkin yksi syy monista, miksi tulimme lomalle ja tännekin tänään, Laura Tuupanen hymyilee.Avaa kuvien katseluSauli ja Laura Tuupanen tulivat lomalle Tuuriin jo kymmenettä kertaa.  Kuva: Mirva Ekman / YleTuupanen arvelee, että nimenomaan Helsingistä tuotu rakennus voi kiinnostaa jonkin verran pääkaupunkiseudulla asuvia.Vesa Keskinen kertoi jo kesällä hankkineensa lasihallin hetken mielijohteesta.Veljekset Keskinen aloitti muutosneuvottelut viime vuoden puolella ja tällä hetkellä Tuurin kyläkaupassa on menossa lomautuksia huhtikuulle saakka.Keskisen mukaan yrityksen viime vuosi meni tyydyttävästi, mutta hän kuvailee, että luotto on luja avatun myymälän menestymiselle.Avaa kuvien katseluUusi myymälä nousi kyläkauppaan ruokapuodin puolelle leirintäalueen suuntaan.  Kuva: Mirva Ekman / Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>24</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Pronssikäsi ovipielessä pyysi hyvää onnea rauta­kau­tiseen kotiin – onni loppui Rooman armeijan hyökkäykseen</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20076280</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Länteen paenneet venäläiset panevat toivonsa Julija Navalnajaan, koska he uskovat tämän mahdollisuuksiin menestyä opposition uutena keulakuvana.</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>BERLIINI Vakava nainen istuu hotellin aulassa Berliinin keskustassa ja kertoo pelkäävänsä henkensä edestä. Hän joutuu vilkuilemaan jatkuvasti olkansa yli eikä esimerkiksi suostu tapaamisiin tuntemattomien venäläisten kanssa.– Noudatan elämässäni tiettyjä muitakin turvallisuussääntöjä, joita en tässä voi paljastaa, entinen venäläinen televisiotoimittaja Marina Ovsjannikova sanoo.Ovsjannikova joutui pakenemaan Venäjältä, koska hän protestoi Vladimir Putinin Ukrainassa aloittamaa sotaa iltauutisten suorassa lähetyksessä. Hänen tempauksensa sai maailmanlaajuista huomiota.Avaa kuvien katseluMaaliskuussa 2022 Ovsjannikova ryntäsi pääuutislähetykseen ovella päivystäneen poliisin ohi ja vetäisi rullalle käärityn sodanvastaisen julisteen jakkunsa sisältä uutisankkuri Jekaterina Andrejevan selän takana.  Kuva: STELLA PicturesKyseessä oli kuuden sekunnin pasifistinen mielenilmaus venäläisten puolesta, Ovsjannikova sanoo nyt. Samalla hän halusi näyttää maailmalle, että Venäjällä on ihmisiä, jotka eivät halua sotaa.– Hyökkäys Ukrainaan oli kamalista kamalin rikos, jonka Putin suunnitteli ja toteutti parin läheisen kaverinsa kanssa silmiemme edessä ilman suostumustamme, ilman parlamentin hyväksyntää.”Putinin kanssa ei saa neuvotella”Ovsjannikova on Berliinissä osallistuakseen Berlinale-elokuvaviikon Cinema for Peace -gaalailtaan. Hän kuvaa kaupungissa myös dokumenttia brittiläisten ja amerikkalaisten televisioyhtiöiden kanssa.Yhdessä asiassa hän on hyvin tiukka: maailman johtajien ei pitäisi suostua keskustelemaan Putinin kanssa missään olosuhteissa.– Putin on murhaaja. Hän tappoi Navalnyin kiduttamalla. Vastuulliset maailman johtajat eivät missään tapauksessa saa puhua murhaajan kanssa.Viimeksi tiistaina kuoli Venäjältä loikannut helikopterilentäjä luoteihin epäselvissä olosuhteissa Espanjassa.Berliniissä gaalaillassa Venäjää kommentoivat muutkin – esimerkiksi punkbändi Pussy Riotin keulahahmo Nadezhda Tolokonnikova. Voit katsoa hänen ja muiden julkkisten kommentit alla olevalta videolta.Gaalaillassa Berliinissä muun muassa punkbändi Pussy Riotin keulahahmo Nadezhda Tolokonnikova kommentoi Julija Navalnajan mahdollisuuksia nousta miehensä jalanjäljissä Venäjän opposition johtotähdeksi. Muusikko Bob Geldof ja näyttelijä Helen Mirren kommentoivat Putinin sotaa.”Vastarinta kasvoi sielussani pitkään”45-vuotias Ovsjannikova aloitti televisiotoimittajan uransa jo ennen Putinin valtaantuloa 1990-luvun lopussa.Putinin noustua valtaan vuonna 2000 lehdistöä alettiin heti suitsia. Suuret televisiokanavat NTV ja ORT otettiin valtion hallintaan seuraavana vuonna.Vähitellen päättäjien arvostelu estettiin muillakin kanavilla. Kymmeniä toimittajia on sittemmin kuollut.Putin on tuhonnut riippumattoman median juurta jaksaen. Televisiokanavien jälkeen sanomalehtien ja radioasemien omistajat ja johto vaihdettiin presidentille uskollisiin ihmisiin.Ovsjannikovaja meni aluksi virran mukana. Hän oli jopa iloinen päästessään töihin valtion ykköskanavalle vuonna 2003. Pikku hiljaa hänen vastarintansa alkoi kasvaa, kun propagandasääntöjä tuli lisää.Hän totteli silti järjestelmää, koska ymmärsi, että tilanne ei parane työpaikkaa vaihtamalla. Muukin media valehteli.– Hyökkäys Ukrainaan oli viimeinen pisara. Vastarinta oli kasvanut sielussani jo pitkään, mutta en olisi mitenkään uskonut sellaista tapahtuvaksi. Kun sota alkoi, en yksinkertaisesti voinut enää olla hiljaa.Avaa kuvien katseluMarina Ovsjannikova asuu Pariisissa salaisessa osoitteessa. Hänen isänsä oli ukrainalainen ja äitinsä on venäläinen. Sekä äiti että Ovsjannikovan aikuinen poika ovat katkaisseet välit häneen kokonaan. Kuva: IMAGO/teutopress/ All Over PressMillaisia ovat toimittajat, jotka ovat jatkaneet työtään näihin päiviin asti?– Entisten kollegoideni joukossa on paljon koulutettuja ja länsimaisesti ajattelevia ​​ihmisiä. He ymmärtävät täydellisesti, mitä maailmassa tapahtuu. He seuraavat länsimaisia televisiokanavia.Ovsjannikova kutsuu näitä toimittajia ”hallinnon panttivangeiksi”. He nostavat palkkaa, elättävät perheensä ja pelaavat järjestelmän peliä.– He olisivat erittäin onnellisia, jos he pääsisivät hyppäämään ulos tuosta uppoavasta laivasta, mutta he eivät tiedä miten se tehdään.Työ propagandistina on monelle taakka, mutta sitä siedetään. Jos protestoi Putinia vastaan, jää ilman työtä ja elämä muuttuu välittömästi.– Perhe tuhotaan ja joutuu vankilaan. Hyvin harvat ihmiset ovat valmiita uhrautumaan jonkin epämääräisen valoisamman tulevaisuuden vuoksi, Ovsjannikova sanoo.Avaa kuvien katseluOvsjannikova esiintyy kansainvälisissä seminaareissa ja tapahtumissa, mutta usein videoyhteydellä turvallisuussyistä. Kuva: SimonWilkinson/SWpix.com/Shutterstock/All Over PressMiten Putin hallitsee mediaa käytännössä?– Hallinto valmistelee niin sanottuja käsikirjoja eli ohjeita kaikille tiedotusvälineille. Niissä kerrotaan, mitä saa sanoa ja mitä ei, Ovsjannikova kertoo.Jos käyttää väärää sanaa, palkasta peritään iso sakkomaksu. Jos kirjoittaa Kremlin linjausten vastaisesti, koko media luokitellaan ulkomaalaiseksi agentiksi.Esimerkiksi Navalnyin kuolemasta lehdistö paimennettiin vaikenemaan.– Navalnyin käsittelystä oli tarkat toimintaohjeet. Voitko kuvitella: kuolema ei ollut pääuutisten joukossa venäläisillä televisiokanavilla. Siitä kerrottiin parinkymmenen sekunnin sähkeellä jossain lopussa, Ovsjannikova sanoo.Televisiokanavia ohjeistettiin vuosikausia olemaan kutsumatta Navalnyita poliitikoksi. Häntä piti sanoa bloggaajaksi ja kertoa hänestä vain valtion rangaistuslaitoksen tutkintakomitean antamia tietoja.Avaa kuvien katseluToimittaja Marina Ovsjannikova saatettiin oikeuden kuulemiseen Moskovassa 11. elokuuta 2022. Häntä syytettiin väärien tietojen levittämisestä Venäjän asevoimista. Hänen asianajajansa neuvoi häntä pakenemaan maasta turvallisuussyistä. Kuva: EPA-EFEPerhe hajosiOvsjannikova ei olisi halunnut lähteä Venäjältä protestinsa jälkeen. Hän kuvaili itseään patriootiksi saksalaiselle der Spiegel -lehdelle tuoreeltaan.Ovsjannikova ei joutunut tempauksestaan oikeuteen, vaan hänen annettiin poistua maasta Ranskan presidentin Emmanuel Macronin vedottua hänen puolestaan.Seuraavaksi hän yritti raportoida saksalaiseen Die Welt -lehteen Ukrainasta, mutta menetti pian senkin työpaikan.Avaa kuvien katseluUkrainassa osoitettiin mieltä, kun Ovsjannikova oli nimitetty Die Welt -lehden kirjeenvaihtajaksi raportoimaan Ukrainasta. ”Hän on venäläinen propagandisti, ei toimittaja”, kyltissä luki. Kuva: IMAGO/snapshot/ All Over PressKesällä 2022 Ovsijannikova palasi Venäjälle selvittämään lastensa huoltajuuskiistaa. Hän meni tuolloin myös osoittamaan mieltään Kremlin edustalle.Vasta tuolloin häntä vastaan nostettiin syyte asevoimia koskevan virheellisen tiedon levittämisestä. Lisäksi hän menetti vanhempainoikeutensa ja koko omaisuutensa.Lokakuusta 2022 Ovsjannikova on ollut Venäjän oikeusjärjestelmän etsintäkuuluttama. Hän onnistui pakenemaan kotiarestista esitutkinnan aikana Eurooppaan tyttärensä kanssa.2023 lokakuussa hänet tuomittiin poissaolevana 8,5 vuoden vankeusrangaistukseen. Nyt hän tekee dokumentteja ja osallistuu esimerkiksi riippumattoman satelliittiyhteyden luomiseen Venäjälle.”Julija Navalnaja on toivomme”Ovsjannikovan mielestä Julija Navalnajan ilmoitus jatkaa miehensä työtä on toivonpilkahdus synkässä tilanteessa. Navalnajalla on tukijoukot valmiina.– Uskon, että useimmat venäläiset tukevat häntä. Hän on uskomattoman vahva nainen ja toivon hänelle kärsivällisyyttä ja onnea tämän kaiken voittamiseksi ja muutoksen aikaan saamiseksi.Ovsjannikovan mielestä Venäjän oppositio tarvitsee ”ehdottomasti” länsimaiden apua.– Vain länsimailla on keinot ja rahaa auttaa oppositiota kukistamaan Putin ja perustamaan demokraattinen hallinto Venäjälle, Ovsjannikova sanoo.Avaa kuvien katseluMyös Saksan ulkoministeri Annalena Baerbock, näyttelijä Sharon Stone ja Yhdysvaltojen entinen presidenttiehdokas Hillary Clinton esiintyivät rauhangaalassa Berliinissä maanantaina. Kuva: IMAGO/Agentur Baganz/ All Over PressLue aiheesta Journalisti-lehden juttu: Toimittaja Marina Ovsjannikova petkutti työkseen venäläisiä televisiokatsojia vuosikaudet. Enää häntä ei usko kukaan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>25</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Rahasyistä moni Lapin-matkaaja haluaa hostelliin, mutta tarjontaa on vähän – nämä asiat erottavat hostellit hotelleista</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076316</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>25.02.2024</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espanjasta tehdyn löydön piirtokirjoitus avaa Euroopan vanhinta elävää kieltä, jolla ei ole yhtään sukulaista ja jonka juuret ovat mysteeri. </t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>”Sorieneku”, hyvää onnea, pyysi pronssista taottu käsi, joka oli naulattu rautakautisen kodin ovipieleen. Niin tutkijat ovat tulkinneet Koillis-Espanjasta tehdyn arkeologisen löydön 2 100 vuoden takaa. Löytöpaikkaa asutti vaskoonien heimo.Kädenselkään kaiverretun piirtokirjoituksen ensimmäinen sana on niin lähellä baskin ”zorienokoa”, että tutkijat pitävät sitä todisteena baskin kielen eli euskaran sukulaisuudesta kaivertajan paleohispaanisen kielen kanssa. Se oli yksi kieliryhmässä, jota puhuttiin Iberian niemimaalla ennen roomalaisaikaa.”Zorienokossa” yhdistyvät onnea ja hyvää tarkoittavat sanat. Samankaltaisuus ”sorienekun” kanssa voisi olla sattumaa, mutta löytöpaikan symboliikka puhuu vahvasti sanojen lähisukulaisuuden puolesta, tutkijat sanovat Antiquity-lehdessä julkaistussa artikkelissaan.Piirtokirjoituksen ”eŕaukon”-sanalle he esittävät varoen pariksi euskaran verbiä, joka tarkoittaa antamista tai suomista.Avaa kuvien katseluKahdella keskimmäisellä rivillä kaivertajalta on uhannut loppua tila kesken. Hän on ratkaissut pulman kaventamalla viimeisiä kirjaimia ja lainaamalla yhdelle tilaa rivin yläpuolelta. Hän tai joku toinen on vahvistanut tekstiä pisteviivoilla.  Kuva: Aiestaran et al.Vaskoonit elivät Pyreneiden vuoriston ja Ebrojoen välisellä alueella. Irulegin linnavuorelta nykyisestä Navarresta löytynyt piirtokirjoitus on harvinainen todiste heidän kirjoitetusta kielestään. Löytöjen puuttuessa tutkijat ovat olettaneet, ettei sellaista ollutkaan ennen Rooman vallan aikaa.Pronssikäden sanat ovat tutkijoille kullanarvoisia, sillä euskaran juuret ovat lingvistien uurastuksesta huolimatta lähes täysin hämärän peitossa. Niitä on yritetty jäljittää niin Kaukasukselle kuin Pohjois-Afrikkaan.Suomen kielellä on vain muutamia sukulaisia indoeurooppalaisten kielten hallitsemassa Euroopassa, mutta euskaralla niitä ei ole lainkaan.Tavallisimman arvellaan, että euskara on yksinäinen jäänne todella kaukaa, Euroopan paleoliittisen kivikauden kielistä. Jotkut ajattelivat samaa baskikansan perimästä, kunnes populaatiogeneettiset tutkimukset kaatoivat oletuksen.Current Biology -lehdessä muutama vuosi sitten julkaistun tutkimuksen mukaan baskien perimän pääkomponentti on samoilta varhaisneoliittisen ajan metsästäjä-keräilijöiltä kuin muuallakin Etelä-Euroopassa.Euroopan valtavirtaa on niin ikään indoeurooppalaista kieltä puhuneiden tulokkaiden vahva lisä. Se baskiperimään tuli pronssikaudella, vaikka Iberian paleohispaaniset kielet vielä säilyivätkin.Roomalaisten valloittajien latina oli niille lopulta liikaa. Pronssikäden piirtokirjoituksen perusteella sukupuutto ei kuitenkaan ollut perusteellinen, vaan ehkä juuri vaskooni selvisi ja kehittyi euskaraksi.Avaa kuvien katseluEuskarankielisessä graffitissa baskipoikien takana lukee ”Ta segi aurrera”, ”ja jatkuu”.  Kuva: Agefotostock  / AOPUudella ajalla euskara on pyritty kitkemään rankaisemalla sen käyttämisestä. Ranskan vallankumouksellisten mielestä euskarassa haiskahti heidän kieltämänsä katolinen kirkko, ja uskonnollisuuttaan korostanut Espanjan diktaattori Francisco Franco piti sitä jumalankieltäjien kielenä.Nykyisin euskara on Espanjan baskialueilla virallinen kieli espanjan rinnalla ja baskeilla on varsin suuri taloudellinen ja poliittinen autonomia. Lounais-Ranskan kotiseuduillaan baskeilla ei ole vastaavaa asemaa.Euskaraa osaa nyt arviolta 900 000 ihmistä. Määrä on ollut viime vuosikymmeninä lievässä kasvussa.Silti myös Espanjan Baskimaassa, jossa valtaosa baskeista elää, kuulee käyttökielenä paljon enemmän espanjaa kuin euskaraa, sillä muiden pienten kielten tavoin euskaralla on suuria paineita isommiltaan. Vastaavasti uhattuna on esimerkiksi islannin kieli.Baskin kielen todellinen mysteeri eivät ole sen juuret vaan se, että kieli on säilynyt tähän päivään.lingvistikko Koldo MitxelenaIrulegin arkeologiset kaivaukset aloitettiin viisitoista vuotta sitten. Kohteena olivat keskiaikaisen linnan rauniot, mutta viime vuosikymmenellä huomio siirtyi vuorenhuipun tasanteelle, jonne oli asetuttu pronssikaudella.Irulegi sijaitsee luonnon muovaamassa risteyskohdassa, ja vuorelta näkee kauas. Paikka, jota oli helppo puolustaa, oli ajalleen tyypillinen valinta.Elämisen merkkejä löytyi ajanlaskumme ensimmäisen vuosisadan alkupuolelle asti. Silloin raju hyökkäys autioitti asuinpaikan. Tutkijoiden mukaan hyökkääjä oli todennäköisesti Rooman armeija.Kaivauksissa löytyi runsaasti hiiltä ja hiiltyneitä puunkappaleita. Niiden perusteella Irulegin kohtalona oli tahallaan sytytetty tulipalo. Se tuhosi kaiken, myös sen rakennuksen, jolle pronssikäden oli toivottu tuovan onnea.Avaa kuvien katseluIrulegin linnavuorella on monien aikakausien raunioita.  Kuva: Alestaron et al.Asukkailta oli jäänyt Irulegiin aseita, saviastioita ja kolikoita. Kirjoitustaidosta todistavat pronssikäden lisäksi kaksi ruukunsirpaletta, joissa on kirjoitusmerkkejä, sekä luinen puikko, jollaisilla kirjoitettiin vahatauluille.Asutuksen raunioista kaivettiin esiin myös kuonaa, joka kertoo metallinkäsittelytaidosta. Se sai tutkijat arvelemaan, että käsi oli paikallista tuotantoa.Vaskoonien aikalaisten jäljiltä Iberian niemimaalta tosin tunnetaan useita muitakin metallista tehtyjä ja kiveen kaiverrettuja käsiä, eivätkä kaikki välttämättä anoneet onnea.Keikkalainen Diodorus Sisilialainen kertoi historiankirjassaan, että ainakin ibeereillä oli tapana ripustaa vihollisilta leikkaamiaan käsiä vyöhönsä tai naulata niitä ovipieliin voitonmerkkeinä.Aristoteleen kantapää -radio-ohjelma Yle Areenassa kertoo, miten baskin alkuperää on yritetty selvittää.Baski, kieli, joka ei ole mistään kotoisin</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>24</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Maanpaossa oleva toimittaja kertoo työstään Venäjän propa­gan­da­ko­neistossa – ”Navalnyistä oli tarkat toimin­taohjeet”</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20075695</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hostellit eivät ole enää pelkästään nuorten reppureissaajien paikkoja. Yhteisöllisyys ja hinta erottavat hostellit muista majoitusmuodoista. </t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Kuluttajien ostovoiman heikentyminen näkyy budjettimatkailun lisääntymisenä. Hostellien kysyntä on kasvanut, kun moni joutuu miettimään rahankäyttöään lomalla.Esimerkiksi Lapissa on kuitenkin muuta maata selvästi vähemmän hostellitarjontaa. Suomen Hostellijärjestön pääsihteeri Sanni Viirto arvelee, että yhtenä syynä voi olla sopivien tilojen puute tai matkailun painottuminen talvisesonkiin.Viirto arvioi Suomessa olevan yli sata hostellia.Hostellijärjestön ylläpitämässä kansainvälisessä verkostossa on mukana tällä hetkellä reilut viisikymmentä hostellia eri puolilta Suomea. Niistä suurin osa on ympärivuotisia.Tunturi-Lapissa on vain muutamia hostelleja. Yksi niistä on Ylläksellä sijaitseva 7 Fells Hostel, jonka tamperelainen Tinja Tamminen perusti kymmenen vuotta sitten.– Silloin tänne tuli kokonaan uusi asiakasryhmä: oli kivaa olla luomassa uutta kävijäkuntaa ja havaita, että sellainenkin onnistuu.Tinja Tammiselle hostelliyrittäjyys on antanut paljon, mutta nyt on aika lopettaaKymmenen vuotta sitten ensimmäisen yrityksensä perustanut Tinja Tamminen kertoo hostelliyrittäjyydestä. Audio: Kati Rantala / Yle7 Fells Hostel oli Äkäslompolon ensimmäinen hostelli. Tänä keväänä hostelli on kuitenkin sulkemassa ovensa.Huhtikuussa hostelliyrittäjänä lopettava Tamminen kertoo miettineensä monta vuotta lopettamista, mutta hostellin pito vei mukanaan.– Irtisanoin täältä toiminnan jo yli vuosi sitten oman jaksamiseni takia. Nyt ajattelen vain itseäni.Äkäslompolossa tuhoutui tulipalossa Silver Fox -hostelli helmikuun puolivälissä. Rakennus on Tammiselle hyvinkin tuttu, koska hän perusti hostellinsa entisenä Ylläskartanona tunnettuun rakennukseen vuonna 2014.Nykyisellä paikallaan Äkäslompolon keskustassa 7 Fells Hostel on ollut neljä vuotta.7 Fells Hostelin lopettaessa Ylläksellä hostellimajoitusta tarjoaa vain KuerHostel.Mistä tunnistaa hostellin?Hostelleissa on jokin yhteisöllinen tila, missä asiakkaat voivat halutessaan toisiaan tavata, esimerkiksi olohuone.Yleensä niissä on myös jonkinlainen keittomahdollisuus joko yhteiskeittiössä tai huoneen keittiössä sekä yhteinen ruokailutila.– Hostelleissa ilmapiiri ja tilat ovat sellaiset, että siellä pystyy kohtaamaan muita ja keskustelemaan heidän kanssaan, Sanni Viirto sanoo.Kaikki hostel-nimellä mainostetut majoituspaikat eivät kuitenkaan ole sitä, mitä sillä perinteisesti tarkoitetaan. Useat hostel-nimiset majapaikat ovat käytännössä enemmänkin hotelleja ja loma- tai mökkikyliä.Sanni Viirto myöntää perinteisen hostellin määrittelemisen olevan hankalaa, koska majoitusmuodot ovat nykyisin sekoittuneet keskenään.– Yhteisöllisyys on käsitteenä tietynlainen trendi, ja hotellitkin ovat ottaneet yhteisöllisiä tiloja käyttöön. Hostellitkin ovat vuosien varrella kehittyneet paljon, ja niiden taso on parantunut, hän sanoo.Majoituspäällikkö Janne Pietilä kertoo, miksi rovaniemeläinen Café Koti on hostelli eikä hotelli tai gasthaus. Video: Jyri Tynkkynen / YleHostellihuoneiden koot vaihtelevat yhden hengen huoneista suuriin 6–8 hengen nukkumatiloihin eli dormitorioihin. Useimmissa hostelleissa on yhteiset suihku- ja wc-tilat sekä itsepalvelukeittiö.Sanni Viirto arvioi hostelleissa 2 hengen huoneen vuorokausihinnan olevan keskimäärin 50–80 euroa yöltä.Perinteisiä hostelleja on Lapissa parisenkymmentä. Esimerkiksi Rovaniemellä toimii hostelli Café Koti.Majoituspäällikkö Janne Pietilän mukaan Café Kodista tekee hostellin muun muassa se, että huoneista puuttuu esimerkiksi televisio, jolloin asukkaat käyttävät enemmän yhteisiä tiloja ja kohtaavat siellä muita matkustajia.Ylläksellä matkailu alkoi aikanaan kehittyä koti- ja hostellimajoituksesta. Visit Ylläksen toimitusjohtaja Kati Vehmas kertoo etenkin kesällä olevan paljon kysyntää hostellimajoitukselle, kun liikkeellä on reppureissaajia.Levillä ei ole yhtään hostellia. Visit Levin toimitusjohtaja Satu Pesonen sanoo kuitenkin huokeammille majoitusvaihtoehdoille olevan tarvetta.– Yksin asumisen lisääntyessä myös yksin matkustaminen lisääntyy. Yksin matkustava tapaa usein mielellään samanhenkisiä ihmisiä, ja se on usein helpompaa hostellityyppisessä majoituksessa.Avaa kuvien katseluRanskalaiset Philippe Cuvillier (vas.) ja Pascale Oberlin viettivät 11 päivää Ylläksellä. Kuva: Kati Rantala / YleSuhtautuminen hostelleihin on muuttunutTinja Tamminen sanoo hostellien olevan etenkin ulkomaalaisille matkailijoille tuttu majoitusmuoto.– Nykyään myös suomalaiset ovat tottuneet hostellielämään ja siihen, että hostellit ovat hyvälaatuisia.Suomen Hostellijärjestön pääsihteeri Sanni Viirtokin sanoo kotimaisten matkailijoiden suhtautumisen hostelleihin muuttuneen: ne eivät ole enää pelkästään nuorten reppureissaajien paikkoja.– Ihmiset ymmärtävät, että se ei ole enää sellaista kuin joskus aikanaan oli, että isoissa makuusaleissa kymmenittäin ihmisiä, vaan on myös yksityishuoneita, ja huoneissa voi olla omat suihkut ja vessat.Ranskalaiset Philippe Cuvillier ja Pascale Oberlin viihtyvät hostellimajoituksessa. Puolitoista viikkoa kestävällä Ylläksen-reissullaan he yöpyvät 7 Fells Hostelissa Äkäslompolossa.– Tämä tuntuu kodilta: teemme täällä itse ruokaa ja tapaamme muita ihmisiä. Koska majoituksen hinta on edullinen, voimme olla täällä pitempään.Juttua päivitetty kello 16.52: Tarkennettu Visit Levin toimitusjohtajan Satu Pesosen sitaattia yksin matkustamisesta.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>25</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Muusikko Timo Löyvä on kuollut</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076052</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>22.02.2024</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Länteen paenneet venäläiset panevat toivonsa Julija Navalnajaan, koska he uskovat tämän mahdollisuuksiin menestyä opposition uutena keulakuvana.</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>BERLIINI Vakava nainen istuu hotellin aulassa Berliinin keskustassa ja kertoo pelkäävänsä henkensä edestä. Hän joutuu vilkuilemaan jatkuvasti olkansa yli eikä esimerkiksi suostu tapaamisiin tuntemattomien venäläisten kanssa.– Noudatan elämässäni tiettyjä muitakin turvallisuussääntöjä, joita en tässä voi paljastaa, entinen venäläinen televisiotoimittaja Marina Ovsjannikova sanoo.Ovsjannikova joutui pakenemaan Venäjältä, koska hän protestoi Vladimir Putinin Ukrainassa aloittamaa sotaa iltauutisten suorassa lähetyksessä. Hänen tempauksensa sai maailmanlaajuista huomiota.Avaa kuvien katseluMaaliskuussa 2022 Ovsjannikova ryntäsi pääuutislähetykseen ovella päivystäneen poliisin ohi ja vetäisi rullalle käärityn sodanvastaisen julisteen jakkunsa sisältä uutisankkuri Jekaterina Andrejevan selän takana.  Kuva: STELLA PicturesKyseessä oli kuuden sekunnin pasifistinen mielenilmaus venäläisten puolesta, Ovsjannikova sanoo nyt. Samalla hän halusi näyttää maailmalle, että Venäjällä on ihmisiä, jotka eivät halua sotaa.– Hyökkäys Ukrainaan oli kamalista kamalin rikos, jonka Putin suunnitteli ja toteutti parin läheisen kaverinsa kanssa silmiemme edessä ilman suostumustamme, ilman parlamentin hyväksyntää.”Putinin kanssa ei saa neuvotella”Ovsjannikova on Berliinissä osallistuakseen Berlinale-elokuvaviikon Cinema for Peace -gaalailtaan. Hän kuvaa kaupungissa myös dokumenttia brittiläisten ja amerikkalaisten televisioyhtiöiden kanssa.Yhdessä asiassa hän on hyvin tiukka: maailman johtajien ei pitäisi suostua keskustelemaan Putinin kanssa missään olosuhteissa.– Putin on murhaaja. Hän tappoi Navalnyin kiduttamalla. Vastuulliset maailman johtajat eivät missään tapauksessa saa puhua murhaajan kanssa.Viimeksi tiistaina kuoli Venäjältä loikannut helikopterilentäjä luoteihin epäselvissä olosuhteissa Espanjassa.Berliniissä gaalaillassa Venäjää kommentoivat muutkin – esimerkiksi punkbändi Pussy Riotin keulahahmo Nadezhda Tolokonnikova. Voit katsoa hänen ja muiden julkkisten kommentit alla olevalta videolta.Gaalaillassa Berliinissä muun muassa punkbändi Pussy Riotin keulahahmo Nadezhda Tolokonnikova kommentoi Julija Navalnajan mahdollisuuksia nousta miehensä jalanjäljissä Venäjän opposition johtotähdeksi. Muusikko Bob Geldof ja näyttelijä Helen Mirren kommentoivat Putinin sotaa.”Vastarinta kasvoi sielussani pitkään”45-vuotias Ovsjannikova aloitti televisiotoimittajan uransa jo ennen Putinin valtaantuloa 1990-luvun lopussa.Putinin noustua valtaan vuonna 2000 lehdistöä alettiin heti suitsia. Suuret televisiokanavat NTV ja ORT otettiin valtion hallintaan seuraavana vuonna.Vähitellen päättäjien arvostelu estettiin muillakin kanavilla. Kymmeniä toimittajia on sittemmin kuollut.Putin on tuhonnut riippumattoman median juurta jaksaen. Televisiokanavien jälkeen sanomalehtien ja radioasemien omistajat ja johto vaihdettiin presidentille uskollisiin ihmisiin.Ovsjannikovaja meni aluksi virran mukana. Hän oli jopa iloinen päästessään töihin valtion ykköskanavalle vuonna 2003. Pikku hiljaa hänen vastarintansa alkoi kasvaa, kun propagandasääntöjä tuli lisää.Hän totteli silti järjestelmää, koska ymmärsi, että tilanne ei parane työpaikkaa vaihtamalla. Muukin media valehteli.– Hyökkäys Ukrainaan oli viimeinen pisara. Vastarinta oli kasvanut sielussani jo pitkään, mutta en olisi mitenkään uskonut sellaista tapahtuvaksi. Kun sota alkoi, en yksinkertaisesti voinut enää olla hiljaa.Avaa kuvien katseluMarina Ovsjannikova asuu Pariisissa salaisessa osoitteessa. Hänen isänsä oli ukrainalainen ja äitinsä on venäläinen. Sekä äiti että Ovsjannikovan aikuinen poika ovat katkaisseet välit häneen kokonaan. Kuva: IMAGO/teutopress/ All Over PressMillaisia ovat toimittajat, jotka ovat jatkaneet työtään näihin päiviin asti?– Entisten kollegoideni joukossa on paljon koulutettuja ja länsimaisesti ajattelevia ​​ihmisiä. He ymmärtävät täydellisesti, mitä maailmassa tapahtuu. He seuraavat länsimaisia televisiokanavia.Ovsjannikova kutsuu näitä toimittajia ”hallinnon panttivangeiksi”. He nostavat palkkaa, elättävät perheensä ja pelaavat järjestelmän peliä.– He olisivat erittäin onnellisia, jos he pääsisivät hyppäämään ulos tuosta uppoavasta laivasta, mutta he eivät tiedä miten se tehdään.Työ propagandistina on monelle taakka, mutta sitä siedetään. Jos protestoi Putinia vastaan, jää ilman työtä ja elämä muuttuu välittömästi.– Perhe tuhotaan ja joutuu vankilaan. Hyvin harvat ihmiset ovat valmiita uhrautumaan jonkin epämääräisen valoisamman tulevaisuuden vuoksi, Ovsjannikova sanoo.Avaa kuvien katseluOvsjannikova esiintyy kansainvälisissä seminaareissa ja tapahtumissa, mutta usein videoyhteydellä turvallisuussyistä. Kuva: SimonWilkinson/SWpix.com/Shutterstock/All Over PressMiten Putin hallitsee mediaa käytännössä?– Hallinto valmistelee niin sanottuja käsikirjoja eli ohjeita kaikille tiedotusvälineille. Niissä kerrotaan, mitä saa sanoa ja mitä ei, Ovsjannikova kertoo.Jos käyttää väärää sanaa, palkasta peritään iso sakkomaksu. Jos kirjoittaa Kremlin linjausten vastaisesti, koko media luokitellaan ulkomaalaiseksi agentiksi.Esimerkiksi Navalnyin kuolemasta lehdistö paimennettiin vaikenemaan.– Navalnyin käsittelystä oli tarkat toimintaohjeet. Voitko kuvitella: kuolema ei ollut pääuutisten joukossa venäläisillä televisiokanavilla. Siitä kerrottiin parinkymmenen sekunnin sähkeellä jossain lopussa, Ovsjannikova sanoo.Televisiokanavia ohjeistettiin vuosikausia olemaan kutsumatta Navalnyita poliitikoksi. Häntä piti sanoa bloggaajaksi ja kertoa hänestä vain valtion rangaistuslaitoksen tutkintakomitean antamia tietoja.Avaa kuvien katseluToimittaja Marina Ovsjannikova saatettiin oikeuden kuulemiseen Moskovassa 11. elokuuta 2022. Häntä syytettiin väärien tietojen levittämisestä Venäjän asevoimista. Hänen asianajajansa neuvoi häntä pakenemaan maasta turvallisuussyistä. Kuva: EPA-EFEPerhe hajosiOvsjannikova ei olisi halunnut lähteä Venäjältä protestinsa jälkeen. Hän kuvaili itseään patriootiksi saksalaiselle der Spiegel -lehdelle tuoreeltaan.Ovsjannikova ei joutunut tempauksestaan oikeuteen, vaan hänen annettiin poistua maasta Ranskan presidentin Emmanuel Macronin vedottua hänen puolestaan.Seuraavaksi hän yritti raportoida saksalaiseen Die Welt -lehteen Ukrainasta, mutta menetti pian senkin työpaikan.Avaa kuvien katseluUkrainassa osoitettiin mieltä, kun Ovsjannikova oli nimitetty Die Welt -lehden kirjeenvaihtajaksi raportoimaan Ukrainasta. ”Hän on venäläinen propagandisti, ei toimittaja”, kyltissä luki. Kuva: IMAGO/snapshot/ All Over PressKesällä 2022 Ovsijannikova palasi Venäjälle selvittämään lastensa huoltajuuskiistaa. Hän meni tuolloin myös osoittamaan mieltään Kremlin edustalle.Vasta tuolloin häntä vastaan nostettiin syyte asevoimia koskevan virheellisen tiedon levittämisestä. Lisäksi hän menetti vanhempainoikeutensa ja koko omaisuutensa.Lokakuusta 2022 Ovsjannikova on ollut Venäjän oikeusjärjestelmän etsintäkuuluttama. Hän onnistui pakenemaan kotiarestista esitutkinnan aikana Eurooppaan tyttärensä kanssa.2023 lokakuussa hänet tuomittiin poissaolevana 8,5 vuoden vankeusrangaistukseen. Nyt hän tekee dokumentteja ja osallistuu esimerkiksi riippumattoman satelliittiyhteyden luomiseen Venäjälle.”Julija Navalnaja on toivomme”Ovsjannikovan mielestä Julija Navalnajan ilmoitus jatkaa miehensä työtä on toivonpilkahdus synkässä tilanteessa. Navalnajalla on tukijoukot valmiina.– Uskon, että useimmat venäläiset tukevat häntä. Hän on uskomattoman vahva nainen ja toivon hänelle kärsivällisyyttä ja onnea tämän kaiken voittamiseksi ja muutoksen aikaan saamiseksi.Ovsjannikovan mielestä Venäjän oppositio tarvitsee ”ehdottomasti” länsimaiden apua.– Vain länsimailla on keinot ja rahaa auttaa oppositiota kukistamaan Putin ja perustamaan demokraattinen hallinto Venäjälle, Ovsjannikova sanoo.Avaa kuvien katseluMyös Saksan ulkoministeri Annalena Baerbock, näyttelijä Sharon Stone ja Yhdysvaltojen entinen presidenttiehdokas Hillary Clinton esiintyivät rauhangaalassa Berliinissä maanantaina. Kuva: IMAGO/Agentur Baganz/ All Over PressLue aiheesta Journalisti-lehden juttu: Toimittaja Marina Ovsjannikova petkutti työkseen venäläisiä televisiokatsojia vuosikaudet. Enää häntä ei usko kukaan.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Löyvä oli Movetronin ja Kolmas nainen -bändin jäsen.</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Muusikko Timo Löyvä on kuollut 59-vuotiaana. Löyvä tuli tunnetuksi Kolmas nainen -bändin kitaristina ja Movetronin syntesisaattorin soittajana. Hän oli myös Movetronin perustajajäsen.Löyvän kuolemasta kertoo Movetron Instragam-tilillään: ”Kiitos Timo näistä yhteisistä vuosista. Lepää rauhassa, musiikki jää...” Päivityksen ovat allekirjoittaneet Päivi ja Jukka eli bändin kaksi muuta jäsentä Päivi Lepistö ja Jukka Tanttari.Yle teki vuonna 2014 Löyvästä dokumentin nimellä Kolmannen naisen kitaristista eurodancetähdeksi.Löyvä kertoo dokumentissa musiikkiurastaan.Löyvä oli muusikko Pauli Hanhiniemen lapsuudenystävä. Yhdessä he perustivat Rasa-bändin, josta muodostui Kolmas nainen. Löyvä oli bändissä vuosina 1982–1989 ja vuodesta 2009 alkaen taas.Vuoden 1989 jälkeen Löyvä lähti Yhdysvaltoihin opiskelemaan musiikkia. Palattuaan sieltä hän ryhtyi yhteistyöhön toisen lapsuudenystävänsä Jukka Tanttarin kanssa – ja niin syntyi Movetron vuonna 1994.Löyvän kuolemasta kertoi ensimmäisenä Iltalehti.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
         <v>25</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Rahasyistä moni Lapin-matkaaja haluaa hostelliin, mutta tarjontaa on vähän – nämä asiat erottavat hostellit hotelleista</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20076316</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Varjeltu paratiisi vaarassa? Tutkijoiden mukaan Pariisin olympia­jär­jes­täjät ottavat valtavan ympä­ris­tö­riskin 4 kisapäivän vuoksi</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20071383</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>25.02.2024</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hostellit eivät ole enää pelkästään nuorten reppureissaajien paikkoja. Yhteisöllisyys ja hinta erottavat hostellit muista majoitusmuodoista. </t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Kuluttajien ostovoiman heikentyminen näkyy budjettimatkailun lisääntymisenä. Hostellien kysyntä on kasvanut, kun moni joutuu miettimään rahankäyttöään lomalla.Esimerkiksi Lapissa on kuitenkin muuta maata selvästi vähemmän hostellitarjontaa. Suomen Hostellijärjestön pääsihteeri Sanni Viirto arvelee, että yhtenä syynä voi olla sopivien tilojen puute tai matkailun painottuminen talvisesonkiin.Viirto arvioi Suomessa olevan yli sata hostellia.Hostellijärjestön ylläpitämässä kansainvälisessä verkostossa on mukana tällä hetkellä reilut viisikymmentä hostellia eri puolilta Suomea. Niistä suurin osa on ympärivuotisia.Tunturi-Lapissa on vain muutamia hostelleja. Yksi niistä on Ylläksellä sijaitseva 7 Fells Hostel, jonka tamperelainen Tinja Tamminen perusti kymmenen vuotta sitten.– Silloin tänne tuli kokonaan uusi asiakasryhmä: oli kivaa olla luomassa uutta kävijäkuntaa ja havaita, että sellainenkin onnistuu.Tinja Tammiselle hostelliyrittäjyys on antanut paljon, mutta nyt on aika lopettaaKymmenen vuotta sitten ensimmäisen yrityksensä perustanut Tinja Tamminen kertoo hostelliyrittäjyydestä. Audio: Kati Rantala / Yle7 Fells Hostel oli Äkäslompolon ensimmäinen hostelli. Tänä keväänä hostelli on kuitenkin sulkemassa ovensa.Huhtikuussa hostelliyrittäjänä lopettava Tamminen kertoo miettineensä monta vuotta lopettamista, mutta hostellin pito vei mukanaan.– Irtisanoin täältä toiminnan jo yli vuosi sitten oman jaksamiseni takia. Nyt ajattelen vain itseäni.Äkäslompolossa tuhoutui tulipalossa Silver Fox -hostelli helmikuun puolivälissä. Rakennus on Tammiselle hyvinkin tuttu, koska hän perusti hostellinsa entisenä Ylläskartanona tunnettuun rakennukseen vuonna 2014.Nykyisellä paikallaan Äkäslompolon keskustassa 7 Fells Hostel on ollut neljä vuotta.7 Fells Hostelin lopettaessa Ylläksellä hostellimajoitusta tarjoaa vain KuerHostel.Mistä tunnistaa hostellin?Hostelleissa on jokin yhteisöllinen tila, missä asiakkaat voivat halutessaan toisiaan tavata, esimerkiksi olohuone.Yleensä niissä on myös jonkinlainen keittomahdollisuus joko yhteiskeittiössä tai huoneen keittiössä sekä yhteinen ruokailutila.– Hostelleissa ilmapiiri ja tilat ovat sellaiset, että siellä pystyy kohtaamaan muita ja keskustelemaan heidän kanssaan, Sanni Viirto sanoo.Kaikki hostel-nimellä mainostetut majoituspaikat eivät kuitenkaan ole sitä, mitä sillä perinteisesti tarkoitetaan. Useat hostel-nimiset majapaikat ovat käytännössä enemmänkin hotelleja ja loma- tai mökkikyliä.Sanni Viirto myöntää perinteisen hostellin määrittelemisen olevan hankalaa, koska majoitusmuodot ovat nykyisin sekoittuneet keskenään.– Yhteisöllisyys on käsitteenä tietynlainen trendi, ja hotellitkin ovat ottaneet yhteisöllisiä tiloja käyttöön. Hostellitkin ovat vuosien varrella kehittyneet paljon, ja niiden taso on parantunut, hän sanoo.Majoituspäällikkö Janne Pietilä kertoo, miksi rovaniemeläinen Café Koti on hostelli eikä hotelli tai gasthaus. Video: Jyri Tynkkynen / YleHostellihuoneiden koot vaihtelevat yhden hengen huoneista suuriin 6–8 hengen nukkumatiloihin eli dormitorioihin. Useimmissa hostelleissa on yhteiset suihku- ja wc-tilat sekä itsepalvelukeittiö.Sanni Viirto arvioi hostelleissa 2 hengen huoneen vuorokausihinnan olevan keskimäärin 50–80 euroa yöltä.Perinteisiä hostelleja on Lapissa parisenkymmentä. Esimerkiksi Rovaniemellä toimii hostelli Café Koti.Majoituspäällikkö Janne Pietilän mukaan Café Kodista tekee hostellin muun muassa se, että huoneista puuttuu esimerkiksi televisio, jolloin asukkaat käyttävät enemmän yhteisiä tiloja ja kohtaavat siellä muita matkustajia.Ylläksellä matkailu alkoi aikanaan kehittyä koti- ja hostellimajoituksesta. Visit Ylläksen toimitusjohtaja Kati Vehmas kertoo etenkin kesällä olevan paljon kysyntää hostellimajoitukselle, kun liikkeellä on reppureissaajia.Levillä ei ole yhtään hostellia. Visit Levin toimitusjohtaja Satu Pesonen sanoo kuitenkin huokeammille majoitusvaihtoehdoille olevan tarvetta.– Yksin asumisen lisääntyessä myös yksin matkustaminen lisääntyy. Yksin matkustava tapaa usein mielellään samanhenkisiä ihmisiä, ja se on usein helpompaa hostellityyppisessä majoituksessa.Avaa kuvien katseluRanskalaiset Philippe Cuvillier (vas.) ja Pascale Oberlin viettivät 11 päivää Ylläksellä. Kuva: Kati Rantala / YleSuhtautuminen hostelleihin on muuttunutTinja Tamminen sanoo hostellien olevan etenkin ulkomaalaisille matkailijoille tuttu majoitusmuoto.– Nykyään myös suomalaiset ovat tottuneet hostellielämään ja siihen, että hostellit ovat hyvälaatuisia.Suomen Hostellijärjestön pääsihteeri Sanni Viirtokin sanoo kotimaisten matkailijoiden suhtautumisen hostelleihin muuttuneen: ne eivät ole enää pelkästään nuorten reppureissaajien paikkoja.– Ihmiset ymmärtävät, että se ei ole enää sellaista kuin joskus aikanaan oli, että isoissa makuusaleissa kymmenittäin ihmisiä, vaan on myös yksityishuoneita, ja huoneissa voi olla omat suihkut ja vessat.Ranskalaiset Philippe Cuvillier ja Pascale Oberlin viihtyvät hostellimajoituksessa. Puolitoista viikkoa kestävällä Ylläksen-reissullaan he yöpyvät 7 Fells Hostelissa Äkäslompolossa.– Tämä tuntuu kodilta: teemme täällä itse ruokaa ja tapaamme muita ihmisiä. Koska majoituksen hinta on edullinen, voimme olla täällä pitempään.Juttua päivitetty kello 16.52: Tarkennettu Visit Levin toimitusjohtajan Satu Pesosen sitaattia yksin matkustamisesta.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maailman tähtisurffaajat ja Tahitin paikallisväestö ovat syvästi huolissaan Pariisin olympiajärjestäjien toiminnasta. Kaiken keskiössä on 14-metrinen tuomaritorni. </t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>– Olen valmis taistelemaan, jotta Teahupo’o säilyisi sellaisena kuin se on. Emme tee sitä itsemme, vaan tulevien sukupolvien vuoksi.Tahitilainen surffaaja Tahurai Henry kuvaili tuntojaan kesällä 2023, kun brittilehti The Guardian teki reportaasia hänen asuinseudustaan.Henryn kotikylästä, Tahitin saarella sijaitsevasta 1500 asukkaan Teahupo’osta tulee heinäkuun lopussa maailmanlaajuisen huomion kohde. Siellä järjestetään neljä päivää kestävät Pariisin olympialaisten surffauskilpailut.Olympiajärjestäjien kannalta kisapaikka on ihanteellinen.Tyynellämerellä sijaitsevan trooppisen saaren maisemat tarjoavat ainutlaatuisen näyteikkunan miljardien eurojen jättitapahtumalle.Teahupo’on aalto on ollut pitkään ammattisurffaajien suosiossa.Jotkut heistä pitävät aaltoa jopa maailman parhaana.Kun olympiapomot kertoivat aikoinaan järjestävänsä Pariisin surffauksen Teahupo’ossa, paikalliset asukkaat olivat innoissaan.Sittemmin monien ihastus on vaihtunut syväksi huoleksi.Yli 15 700 kilometriä PariisistaElämä rauhallisessa Teahupo’ossa linkittyy vahvasti luontoon ja mereen. Iso osa kyläläisistä viettää aikaansa kalastamalla, sukeltamalla ja surffaamalla.1960-luvulla tieto ihanteellisista surffausolosuhteista alkoi levitä muualle maailmaan. Siitä asti kylään on saapunut lajin ystäviä eri maista.Teahupo'on painava ja nopea aalto on tarjonnut surffaajille unohtumattomia hetkiä, mutta vienyt myös ihmishenkiä. Viimeisin kuolintapaus sattui vuonna 2000, kun paikallinen Briece Taerea paiskautui 4,5-metrisen aallon voimasta koralleihin.Alueen myyttinen maine oli ratkaisevassa osassa, kun Pariisin kisajärjestäjät päättivät järjestää olympiasurffit yli 15 700 kilometrin päässä Ranskan pääkaupungista.Toisella puolella maapalloa. Animaatiovideo havainnollistaa, miten kaukana Pariisista olympialaisten surffauskisat pidetään. Animaatio: Lasse IsokangasOlympiaprojektin ylle on kuitenkin langennut varjo. Teahupo'on asukkaat ja huippusurffaajat pelkäävät suurtapahtuman tuhoavan ainutlaatuista paikkaa.Yhdeksi ongelmaksi on muodostunut rakenteilla oleva tuomaritorni.Teahupo'on surffikilpailut käydään noin 400 metriä rannasta, joten tuomareiden on tarkkailtava suorituksia vedessä olevasta tornista. Muun muassa Maailman surffausliigan WSL:n järjestämissä kisoissa on käytetty tapahtumien jälkeen purettavaa puutornia, jonka perustukset ovat olleet riutassa 1990-luvulta.Avaa kuvien katseluPuinen tuomaritorni on kelvannut tähän mennessä useille surffauksen ammattilaistapahtumille,... Kuva: Damien Poullenot/Getty ImagesAvaa kuvien katselu...mutta Pariisin olympiajärjestäjät haluavat korvata sen isommalla alumiinitornilla.  Kuva: Paris 2024Olympiajärjestäjät kokevat, että puinen torni on liian pieni ja turvaton olympiatason kilpailulle. Vanhan tornin sijaan mereen rakennetaan nyt uusi 14-metrinen alumiinitorni.Tutkijoiden mukaan vajaat viisi miljoonaa euroa maksava rakennelma on suuri riski. Paikalla käyneen yhdysvaltalaisen asiantuntijaryhmän mukaan rakennustyöt voivat tuhota haurasta koralliriuttaa ja meren ekosysteemiä.Se voisi tarkoittaa myös täydellisenä pidetyn aallon kuolemaa.– Tenniskentän kokoisella alueella, jonne tuomaritornia rakennetaan, on paljon merenalaista elämää: korallia, leviä, sienieläimiä... Laskelmiemme perusteella torni vaikuttaa ekosysteemiin, joka on arvoltaan 1,2 miljoonaa euroa, havaijilainen tutkija ja ammattisurffaaja Cliff Kapono sanoo videopuhelun välityksellä Yle Urheilulle.– Mielestämme se on riski, jota ei pitäisi ottaa.Cliff Kapono kertoo videolla, mitä surffaajat ajattelevat kisajärjestäjien rakennusprojektista Tahitilla.Kapono oli kollegojensa kanssa Teahupo'ossa marraskuussa. Alun perin heidän aikomuksenaan oli tutkia maailmankuulun aallon syntyä, mutta huolestuneet tahitilaissurffaajat pyysivät tutkijoita arvioimaan, millaista vahinkoa alumiinitorni voisi aiheuttaa.Kaponon tiimi kuvasi ja tutki koralliriuttaa alueella, jonne uusi torni aikanaan nousee. Tutkija muistuttaa, että 1,2 miljoonan arvio koskee vain pientä rajattua aluetta. Sen ulkopuolella on koralliriuttaa kymmenien miljoonien eurojen edestä. Riuttaa, jota olympialaisten järjestelyt voivat yhtä lailla vahingoittaa.– Tornin alue on oma lukunsa. Tuhannet paikalle saapuvat olympiakatsojat vaikuttavat riuttaan paljon laajemmalla alueella. Voi sanoa, että tässä otetaan kymmenien miljoonien eurojen riski.Tähtisurffaajat vastustavatTeahupo'on asukkaat ja maailman huippusurffaajat nousivat viime vuoden lopulla vastarintaan pysäyttääkseen rakennustyöt.Kyläläiset järjestivät mielenosoituksia. Uutta rakennelmaa vastustava vetoomus keräsi yli 250 000 allekirjoitusta.Joukossa oli lukuisia tähtisurffaajia lajilegenda Kelly Slaterista olympiavoittaja Carissa Mooreen.Kansainvälinen surffausliitto ISA kritisoi myös rakennusaikeita. Se ehdotti, että olympialaisissa käytettäisiin puista tornia tai tuomarit seuraisivat kisoja rannasta droonikameroiden ja muun teknologian avulla.Avaa kuvien katseluVuoden 2021 olympiavoittaja Carissa Moore on vastustanut Teahupo'on uutta tuomaritornia...  Kuva: Ryan Pierse/Getty ImagesAvaa kuvien katselu...kuten myös tahitilainen tähtisurffaaja Matahi Drollet.  Kuva: Kelly Cestari/Getty ImagesRakennustyöt ovat jatkuneet kaikesta huolimatta.Olympiajärjestäjät ovat vakuuttaneet ottavansa paikallisten huolet huomioon ja tekevänsä järjestelyt mahdollisimman ympäristöystävällisesti.Vahinkoa on kuitenkin ehtinyt jo tapahtua. Joulukuussa rakennustöissä käytetty proomu törmäsi useita kertoja koralliriuttaan ja aiheutti tuhoa. Työt pantiin tauolle, mutta tammikuussa Ranskan Polynesian presidentti Moetai Brotherson ilmoitti rakentamisen olevan jälleen hyvässä vauhdissa.Brothersonin mukaan uuden tornin kokoa ja ominaisuuksia muutettiin niin, ettei se vahingoittaisi meren ekosysteemiä. Presidentti kertoi, että paikalliset olivat tyytyväisiä tehtyihin muokkauksiin.Cliff Kapono suhtautuu kommentteihin epäilevästi.– Olen kuullut, että monet paikalliset ovat pikemminkin väsyneitä taistelemaan. Kisajärjestäjät ovat tehneet selväksi, että uusi torni rakennetaan, halusivat kyläläiset tai eivät.– Näiden kisojen vuoksi on jo tuhottu korallia. Yksikään rakennustöissä mukana ollut tutkija ei ole voinut vakuuttaa meille, ettei tällä olisi vaikutusta aaltoon, paikallinen ympäristöaktivisti Cindy Otcenasek sanoi hiljattain uutistoimisto AP:lle.Viiden renkaan kisoihin liittyy Teahupo'ossa muitakin huolenaiheita kuin uusi tuomaritorni.Pienen kylän kapasiteetti joutuu koville, kun sinne rantautuu heinäkuussa urheilun jättitapahtuma.Vähäisten majoitustilojen vuoksi olympiasurffaajat majoittuvat näillä näkymin merellä isossa risteilyaluksessa.Aluksen aiheuttamat päästöt ja mahdolliset vaikutukset riuttaan ovat puhuttaneet kylän asukkaita.Kisajärjestäjät ovat vähentäneet alueelle rakennettavien majoitustilojen ja muun infrastruktuurin määrää alkuperäisistä suunnitelmista, mutta kysymyksiä riittää edelleen.Paikalliset kalastajat pelkäävät, että koralliriutan poraaminen voi tuoda vesistöön levää, joka myrkyttää kaloja.– Joka päivä yli vuoden ajan kaivaustyöt vedessä ovat jatkuneet. En tiedä, miksi. Vetemme on todella likaista. Emme voi enää kalastaa, paikallinen kalastaja Peva Levy kertoi AP:lle.Tutkija Cliff Kapono kritisoi tapaa, jolla olympiajärjestäjät ja poliitikot ovat kohdanneet kylän asukkaita. Tutkijan mukaan toiminnasta on puuttunut läpinäkyvyys, eivätkä paikalliset ole saaneet käytännössä mitään takeita, ettei heidän elinympäristölleen käy kisojen jälkeen huonosti.– On vuosi 2024. Olympialaisten pitäisi tuoda ihmisiä yhteen paremmin kuin koskaan ennen. Sen sijaan kisat nähdään keinona riistää alkuperäisasukkaita ja tehdä heidän kustannuksellaan rahaa, Kapono sanoo.Hänen mukaansa kyse on pohjimmiltaan paljon suuremmasta asiasta kuin potentiaalisista miljoonien eurojen vahingoista.– On surullista, että meidän on puhuttava ekosysteemin rahallisesta arvosta osoittaaksemme, miten tärkeästä asiasta on kyse. Luonnon kanssa harmoniassa eläville ihmisille luonnon arvo on suunnaton. He haluavat sen säilyvän koskemattomana, jotta siitä voivat nauttia myös tulevat sukupolvet.– Sellaista ei voi mitata rahassa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
         <v>25</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Muusikko Timo Löyvä on kuollut</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20076052</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Poliisi tutkii: Nightwishin manageri Ewo Pohjolan epäillään kuristaneen naista baaritiskillä – Pohjola kiistää</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20056030</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kaksi naista kertoo  Ewo Pohjolan käyneen heihin käsiksi Tampereella järjestetyssä musiikkialan tapahtumassa. Toisen naisen mukaan Pohjola sanoi kiihottuneensa tilanteessa. </t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Ylen tietojen mukaan poliisi tutkii Nightwish-yhtyeen manageri Ewo Pohjolaa lievästä pahoinpitelystä.Tutkittavan tapauksen epäillään tapahtuneen viime lokakuussa Tampereella järjestetyssä Music x Media -tapahtumassa.Yle kertoo asiasta, koska Pohjola on musiikkialalla merkittävässä asemassa.Ylen haastatteleman asianomistajan mukaan epäillyssä lievässä pahoinpitelyssä oli seksuaalissävytteisiä piirteitä. Alle 30-vuotias nainen kertoo Ylelle hänelle entuudestaan tuntemattoman Pohjolan tulleen toisen miehen kanssa naisen luo baaritiskille.– He kehuivat minua kauniiksi. Pohjola oli silminnähden humalassa.Pohjola poistui tiskiltä ja nainen jäi keskustelemaan tiskille toisen miehen kanssa, kun yhtäkkiä tunsi kovan kuristusotteen kaulallaan.– Pohjola kuristi minua. Tilanne kesti muutamia sekunteja. Sen jälkeen Pohjola sanoi, että tuntuipa kiihottavalta.Naiselle jäi tilanteesta hämmentynyt ja outo olo.– Erityisen irvokkaalta tapahtunut tuntuu kontekstissa tilaisuuteen, joka on musiikkialan verkostoitumista varten: vanhemmat kokeneet ja valtaa pitävät ihmiset kohtaavat nuoria ja aloittelevia artisteja.Hän teki asiasta rikosilmoituksen Sisä-Suomen poliisille. Yle on nähnyt rikosilmoituksen.Poliisi on vahvistanut Ylelle, että Music x Media -tapahtumassa tapahtuneeseen välikohtaukseen liittyen on tehty rikosilmoitus nimikkeellä lievä pahoinpitely. Poliisi ei vahvista epäillyn henkilöllisyyttä.Vastaavanlaisen tilanteen kertoo kokeneensa myös toinen Ylen haastattelema noin 30-vuotias nainen. Hän ei tehnyt asiasta rikosilmoitusta.Hän kertoi menneensä tilaamaan juomaa tiskiltä, kun myös hänelle entuudestaan tuntematon Pohjola oli vetänyt naisen voimaa käyttäen lähelleen. Tilanne meni nopeasti ohi ja nainen ajatteli, ettei henkilöstä olisi enempää häiriötä.– Hämmennyin tilanteesta, mutta annoin asian olla. Pian kuitenkin tunsin, kun joku kiskoo minua takaapäin hiuksista ja vetää jälleen minua lähemmäs.Nainen kertoo pyytäneensä useaan otteeseen Pohjolaa päästämään irti. Nainen yritti poistua tilanteesta ja sanoo lopulta päässeensä pyristelemään Pohjolan otteesta.Nainen pyysi, että Pohjola poistettaisiin tapahtumasta ja näin pian kävikin.– Hiuksista vetäminen meni överiksi. Se ei ollut mikään vaivihkainen hipaisu, nainen kertoo.Pohjola: ”Ei mitään hajua”Ewo Pohjola kiistää molempien naisten väitteet.– Minulla ei ole mitään hajua koko asiasta.Pohjola kertoo, ettei hän tiedä, että hänestä olisi tehty rikosilmoitus. Poliisi ei ole kuullut häntä asiasta.Pohjola sanoo olleensa viime lokakuussa järjestetyssä Music x Media -tapahtumassa.– Olen ollut paikalla ja se tästä tekeekin kummallisen. Minulla, eikä kellään meidän firmasta ole mitään hajua tästä. Erikoista.Pohjola on työskennellyt Nightwishin managerina 2000-luvun alusta saakka.Pohjola pyörittää Till Dawn They Count Management Ltd -yhtiötä yhdessä Nightwishin toisen manageri Toni Peijun kanssa. Yhtiön toimialana ovat ohjelmatoimistot ja manageripalvelut.Music Finland myönsi vuonna 2016 valtakunnallisen musiikkivientipalkinnon yhtiölle. Pohjolaa ja Peijua on tituleerattu suomalaisen manageritoiminnan ja musiikkiviennin pioneeriksi.Tapahtumajärjestäjä: ”On ollut epäsopivaa käytöstä”Molemmat naisista kertovat tehneensä ilmoituksen tapahtuneesta Music x Media -tapahtuman häirintäyhdyshenkilölle.Music x Median toimitusjohtaja Jani Jalonen vahvistaa, että tapahtumassa on ollut epäsopivaa käytöstä.– Tiedossamme on, että meidän tapahtumassamme on valitettavasti ollut epäsopivaa käytöstä. Emme voi kommentoida yksityiskohtia.Jalonen kertoo, että tapahtumassa suhtaudutaan häirintään hyvin vakavasti, eikä minkäänlaista epäasiallista kohtelua hyväksytä.– Jokaiselta tapahtumaamme osallistuvalta edellytetään sitoutumista tapahtuman arvoihin ja toisia kunnioittavaan käytökseen. Meillä on olemassa prosessi mahdollisia häirintätilanteita varten, minkä mukaan toimimme, Jalonen kertoo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>26</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Iso lemmik­kikäärme karkasi omistajaltaan Kuopiossa – eläintä etsittiin jopa kerrostalon katolta</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076702</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Omistaja käärmeineen oli juuri muuttanut uuteen asuntoon, eikä ollut varmaa, minne kaikkialle käärme pääsisi luikertamaan.</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Pelastuslaitos jäljitti lemmikkikäärmettä tiistaina Kuopiossa. Käärmeen omistaja soitti aamulla ennen kello 9 hätäkeskukseen ja kertoi suuren lemmikkikäärmeensä kadonneen.Ilmoituksen mukaan kyseessä oli kuristajakäärmeisiin kuuluva Madagaskarin puuboa. 2,4 metriä pitkällä käärmeellä on painoa kymmenen kiloa. Madagaskarin puuboa ei ole myrkyllinen, eikä sen nähty olevan vaaraksi ihmisille.– Omistaja oli juuri muuttanut asuntoonsa, eikä vielä tiennyt, minne kaikkialle lemmikki pääsisi luikertelemaan uusissa tiloissa, Pohjois-Savon pelastuslaitoksen palomestari Arssi Heiskanen kertoo.Pelastuslaitos etsi käärmettä kolmen tunnin ajan poliisin kanssa. Etsijät tarkastivat omistajan asunnon, yleisiä tiloja ja jopa talon katon. Avuksi etsintöihin saapui myös eläinsuojeluneuvoja.– Otimme lopulta yhteyden talon isännöitsijään, että saisimme tiedon karanneesta lemmikkikäärmeestä muillekin asukkaille. Koputtelimme myös asuntojen ovia, jos voisimme tulla tarkastamaan asunnot käärmeen varalta, Heiskanen kertoo.Lopulta käärme löytyikin omasta kodistaan, jonne se oli piiloutunut vaatekaapin sokkelin alle. Käärme oli löydettäessä hyvissä voimissa.– Itse vältyin sen kohtaamiselta, mutta pelastajat lähettivät etsintöjen päätteeksi kuvan. Olihan se aikamoinen mötkäle, pääsi yhden pelastajamme syliinkin, Heiskanen nauraa.Käärmeen etsinnöistä kertoi ensimmäisenä Savon Sanomat.Juttuun korjattu käärmeen pituus ja paino 27.2.2024 klo 23.02.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>26</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>SM-liiga­his­torian murheellisin putki poikki – pori­lais­san­karilta huvittava paljastus tuule­tuk­sestaan</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076059</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>22.02.2024</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Löyvä oli Movetronin ja Kolmas nainen -bändin jäsen.</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Muusikko Timo Löyvä on kuollut 59-vuotiaana. Löyvä tuli tunnetuksi Kolmas nainen -bändin kitaristina ja Movetronin syntesisaattorin soittajana. Hän oli myös Movetronin perustajajäsen.Löyvän kuolemasta kertoo Movetron Instragam-tilillään: ”Kiitos Timo näistä yhteisistä vuosista. Lepää rauhassa, musiikki jää...” Päivityksen ovat allekirjoittaneet Päivi ja Jukka eli bändin kaksi muuta jäsentä Päivi Lepistö ja Jukka Tanttari.Yle teki vuonna 2014 Löyvästä dokumentin nimellä Kolmannen naisen kitaristista eurodancetähdeksi.Löyvä kertoo dokumentissa musiikkiurastaan.Löyvä oli muusikko Pauli Hanhiniemen lapsuudenystävä. Yhdessä he perustivat Rasa-bändin, josta muodostui Kolmas nainen. Löyvä oli bändissä vuosina 1982–1989 ja vuodesta 2009 alkaen taas.Vuoden 1989 jälkeen Löyvä lähti Yhdysvaltoihin opiskelemaan musiikkia. Palattuaan sieltä hän ryhtyi yhteistyöhön toisen lapsuudenystävänsä Jukka Tanttarin kanssa – ja niin syntyi Movetron vuonna 1994.Löyvän kuolemasta kertoi ensimmäisenä Iltalehti.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>25</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Varjeltu paratiisi vaarassa? Tutkijoiden mukaan Pariisin olympia­jär­jes­täjät ottavat valtavan ympä­ris­tö­riskin 4 kisapäivän vuoksi</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20071383</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>25.02.2024</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maailman tähtisurffaajat ja Tahitin paikallisväestö ovat syvästi huolissaan Pariisin olympiajärjestäjien toiminnasta. Kaiken keskiössä on 14-metrinen tuomaritorni. </t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>– Olen valmis taistelemaan, jotta Teahupo’o säilyisi sellaisena kuin se on. Emme tee sitä itsemme, vaan tulevien sukupolvien vuoksi.Tahitilainen surffaaja Tahurai Henry kuvaili tuntojaan kesällä 2023, kun brittilehti The Guardian teki reportaasia hänen asuinseudustaan.Henryn kotikylästä, Tahitin saarella sijaitsevasta 1500 asukkaan Teahupo’osta tulee heinäkuun lopussa maailmanlaajuisen huomion kohde. Siellä järjestetään neljä päivää kestävät Pariisin olympialaisten surffauskilpailut.Olympiajärjestäjien kannalta kisapaikka on ihanteellinen.Tyynellämerellä sijaitsevan trooppisen saaren maisemat tarjoavat ainutlaatuisen näyteikkunan miljardien eurojen jättitapahtumalle.Teahupo’on aalto on ollut pitkään ammattisurffaajien suosiossa.Jotkut heistä pitävät aaltoa jopa maailman parhaana.Kun olympiapomot kertoivat aikoinaan järjestävänsä Pariisin surffauksen Teahupo’ossa, paikalliset asukkaat olivat innoissaan.Sittemmin monien ihastus on vaihtunut syväksi huoleksi.Yli 15 700 kilometriä PariisistaElämä rauhallisessa Teahupo’ossa linkittyy vahvasti luontoon ja mereen. Iso osa kyläläisistä viettää aikaansa kalastamalla, sukeltamalla ja surffaamalla.1960-luvulla tieto ihanteellisista surffausolosuhteista alkoi levitä muualle maailmaan. Siitä asti kylään on saapunut lajin ystäviä eri maista.Teahupo'on painava ja nopea aalto on tarjonnut surffaajille unohtumattomia hetkiä, mutta vienyt myös ihmishenkiä. Viimeisin kuolintapaus sattui vuonna 2000, kun paikallinen Briece Taerea paiskautui 4,5-metrisen aallon voimasta koralleihin.Alueen myyttinen maine oli ratkaisevassa osassa, kun Pariisin kisajärjestäjät päättivät järjestää olympiasurffit yli 15 700 kilometrin päässä Ranskan pääkaupungista.Toisella puolella maapalloa. Animaatiovideo havainnollistaa, miten kaukana Pariisista olympialaisten surffauskisat pidetään. Animaatio: Lasse IsokangasOlympiaprojektin ylle on kuitenkin langennut varjo. Teahupo'on asukkaat ja huippusurffaajat pelkäävät suurtapahtuman tuhoavan ainutlaatuista paikkaa.Yhdeksi ongelmaksi on muodostunut rakenteilla oleva tuomaritorni.Teahupo'on surffikilpailut käydään noin 400 metriä rannasta, joten tuomareiden on tarkkailtava suorituksia vedessä olevasta tornista. Muun muassa Maailman surffausliigan WSL:n järjestämissä kisoissa on käytetty tapahtumien jälkeen purettavaa puutornia, jonka perustukset ovat olleet riutassa 1990-luvulta.Avaa kuvien katseluPuinen tuomaritorni on kelvannut tähän mennessä useille surffauksen ammattilaistapahtumille,... Kuva: Damien Poullenot/Getty ImagesAvaa kuvien katselu...mutta Pariisin olympiajärjestäjät haluavat korvata sen isommalla alumiinitornilla.  Kuva: Paris 2024Olympiajärjestäjät kokevat, että puinen torni on liian pieni ja turvaton olympiatason kilpailulle. Vanhan tornin sijaan mereen rakennetaan nyt uusi 14-metrinen alumiinitorni.Tutkijoiden mukaan vajaat viisi miljoonaa euroa maksava rakennelma on suuri riski. Paikalla käyneen yhdysvaltalaisen asiantuntijaryhmän mukaan rakennustyöt voivat tuhota haurasta koralliriuttaa ja meren ekosysteemiä.Se voisi tarkoittaa myös täydellisenä pidetyn aallon kuolemaa.– Tenniskentän kokoisella alueella, jonne tuomaritornia rakennetaan, on paljon merenalaista elämää: korallia, leviä, sienieläimiä... Laskelmiemme perusteella torni vaikuttaa ekosysteemiin, joka on arvoltaan 1,2 miljoonaa euroa, havaijilainen tutkija ja ammattisurffaaja Cliff Kapono sanoo videopuhelun välityksellä Yle Urheilulle.– Mielestämme se on riski, jota ei pitäisi ottaa.Cliff Kapono kertoo videolla, mitä surffaajat ajattelevat kisajärjestäjien rakennusprojektista Tahitilla.Kapono oli kollegojensa kanssa Teahupo'ossa marraskuussa. Alun perin heidän aikomuksenaan oli tutkia maailmankuulun aallon syntyä, mutta huolestuneet tahitilaissurffaajat pyysivät tutkijoita arvioimaan, millaista vahinkoa alumiinitorni voisi aiheuttaa.Kaponon tiimi kuvasi ja tutki koralliriuttaa alueella, jonne uusi torni aikanaan nousee. Tutkija muistuttaa, että 1,2 miljoonan arvio koskee vain pientä rajattua aluetta. Sen ulkopuolella on koralliriuttaa kymmenien miljoonien eurojen edestä. Riuttaa, jota olympialaisten järjestelyt voivat yhtä lailla vahingoittaa.– Tornin alue on oma lukunsa. Tuhannet paikalle saapuvat olympiakatsojat vaikuttavat riuttaan paljon laajemmalla alueella. Voi sanoa, että tässä otetaan kymmenien miljoonien eurojen riski.Tähtisurffaajat vastustavatTeahupo'on asukkaat ja maailman huippusurffaajat nousivat viime vuoden lopulla vastarintaan pysäyttääkseen rakennustyöt.Kyläläiset järjestivät mielenosoituksia. Uutta rakennelmaa vastustava vetoomus keräsi yli 250 000 allekirjoitusta.Joukossa oli lukuisia tähtisurffaajia lajilegenda Kelly Slaterista olympiavoittaja Carissa Mooreen.Kansainvälinen surffausliitto ISA kritisoi myös rakennusaikeita. Se ehdotti, että olympialaisissa käytettäisiin puista tornia tai tuomarit seuraisivat kisoja rannasta droonikameroiden ja muun teknologian avulla.Avaa kuvien katseluVuoden 2021 olympiavoittaja Carissa Moore on vastustanut Teahupo'on uutta tuomaritornia...  Kuva: Ryan Pierse/Getty ImagesAvaa kuvien katselu...kuten myös tahitilainen tähtisurffaaja Matahi Drollet.  Kuva: Kelly Cestari/Getty ImagesRakennustyöt ovat jatkuneet kaikesta huolimatta.Olympiajärjestäjät ovat vakuuttaneet ottavansa paikallisten huolet huomioon ja tekevänsä järjestelyt mahdollisimman ympäristöystävällisesti.Vahinkoa on kuitenkin ehtinyt jo tapahtua. Joulukuussa rakennustöissä käytetty proomu törmäsi useita kertoja koralliriuttaan ja aiheutti tuhoa. Työt pantiin tauolle, mutta tammikuussa Ranskan Polynesian presidentti Moetai Brotherson ilmoitti rakentamisen olevan jälleen hyvässä vauhdissa.Brothersonin mukaan uuden tornin kokoa ja ominaisuuksia muutettiin niin, ettei se vahingoittaisi meren ekosysteemiä. Presidentti kertoi, että paikalliset olivat tyytyväisiä tehtyihin muokkauksiin.Cliff Kapono suhtautuu kommentteihin epäilevästi.– Olen kuullut, että monet paikalliset ovat pikemminkin väsyneitä taistelemaan. Kisajärjestäjät ovat tehneet selväksi, että uusi torni rakennetaan, halusivat kyläläiset tai eivät.– Näiden kisojen vuoksi on jo tuhottu korallia. Yksikään rakennustöissä mukana ollut tutkija ei ole voinut vakuuttaa meille, ettei tällä olisi vaikutusta aaltoon, paikallinen ympäristöaktivisti Cindy Otcenasek sanoi hiljattain uutistoimisto AP:lle.Viiden renkaan kisoihin liittyy Teahupo'ossa muitakin huolenaiheita kuin uusi tuomaritorni.Pienen kylän kapasiteetti joutuu koville, kun sinne rantautuu heinäkuussa urheilun jättitapahtuma.Vähäisten majoitustilojen vuoksi olympiasurffaajat majoittuvat näillä näkymin merellä isossa risteilyaluksessa.Aluksen aiheuttamat päästöt ja mahdolliset vaikutukset riuttaan ovat puhuttaneet kylän asukkaita.Kisajärjestäjät ovat vähentäneet alueelle rakennettavien majoitustilojen ja muun infrastruktuurin määrää alkuperäisistä suunnitelmista, mutta kysymyksiä riittää edelleen.Paikalliset kalastajat pelkäävät, että koralliriutan poraaminen voi tuoda vesistöön levää, joka myrkyttää kaloja.– Joka päivä yli vuoden ajan kaivaustyöt vedessä ovat jatkuneet. En tiedä, miksi. Vetemme on todella likaista. Emme voi enää kalastaa, paikallinen kalastaja Peva Levy kertoi AP:lle.Tutkija Cliff Kapono kritisoi tapaa, jolla olympiajärjestäjät ja poliitikot ovat kohdanneet kylän asukkaita. Tutkijan mukaan toiminnasta on puuttunut läpinäkyvyys, eivätkä paikalliset ole saaneet käytännössä mitään takeita, ettei heidän elinympäristölleen käy kisojen jälkeen huonosti.– On vuosi 2024. Olympialaisten pitäisi tuoda ihmisiä yhteen paremmin kuin koskaan ennen. Sen sijaan kisat nähdään keinona riistää alkuperäisasukkaita ja tehdä heidän kustannuksellaan rahaa, Kapono sanoo.Hänen mukaansa kyse on pohjimmiltaan paljon suuremmasta asiasta kuin potentiaalisista miljoonien eurojen vahingoista.– On surullista, että meidän on puhuttava ekosysteemin rahallisesta arvosta osoittaaksemme, miten tärkeästä asiasta on kyse. Luonnon kanssa harmoniassa eläville ihmisille luonnon arvo on suunnaton. He haluavat sen säilyvän koskemattomana, jotta siitä voivat nauttia myös tulevat sukupolvet.– Sellaista ei voi mitata rahassa.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jääkiekon SM-liigan illan ainoassa ottelussa Ässät nousi kahden maalin takaa 4–3-voittoon voittomaalikilpailussa. </t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Jääkiekon miesten SM-liigassa pelattiin torstaina vain yksi ottelu, mutta Ässien ja KalPan kohtaaminen jäi historiaan.Ässien puolustaja Rami Määttä päätti nimittäin 176 SM-liigaottelua kestäneen maalittoman putkensa.Neljättä kauttaan liigassa pelaava Määttä ei ollut koskaan aiemmin onnistunut maalinteossa SM-liigassa. Hän piti hallussaan pisintä ajanjaksoa ilman maalia SM-liigassa.Määttä oli noussut tällä kaudella listauksen ”kärkipaikalle”. Edellinen pisin maaliton putki oli SaiPassa ja Pelicansissa pelanneella Matti Hanalla, joka ei koskaan saanut maalitiliään SM-liigassa auki.Torstaina Määtän putki katkesi, kun hän kavensi tarkalla laukauksellaan ottelun 1–2:een toisessa erässä.Jos maali ei vielä jäänyt yleisön mieleen, niin ainakin sitä seurannut tuuletus jäi. Porilaispuolustaja otti nimittäin kotiyleisön haltuun, ja yritti muun muassa tehdä punnerruksia jään pinnassa.– Tuuletus oli suunniteltu, mutta se ei ollut tuo. Kaaduin, joten jouduin soveltamanaan, Määttä kertoi erätauolla MTV:n haastattelussa.Näyttävää osumaansa Määttä kommentoi ironisesti.– Minulla ei ole ollut tapana tehdä rumia maaleja Liigassa.Porilaisyleisö otti Määtän osuman ja sitä seuranneen kunniakierroksen vastaan hurmioituneena. Iso osa Isomäen hallin katsojista nousi seisomaan.Loppua ei ollut tulla riemujuhlaan pelin jälkeenkään. Määttä otti yleisönsä jäällä, ja koko Ässien joukkue taustaryhmineen ja loukkaantuneine pelaajineenkin tulivat riemuitsemaan.Määttä kiitteli vuolaasti myös joukkuetoveriaan.– Aleksi Matinmikolle olen kiitollinen. Hän on syöttänyt avausmaalini sekä A-nuorissa että Liigassa. Pikku hiljaa tämä alkaa hahmottua, mitä on tapahtunut.Ottelun avauserä oli maaliton, mutta vierasjoukkue KalPa karkasi 2–0-johtoon toisessa erässä Oliver Kapasen ja Matyas Kantnerin osumilla. Määtän kavennusosuma syntyi toisen erän loppupuoliskolla. Dylan Fabre toi päätöserän alussa Ässät ylivoimalla tasoihin, mutta Jesper Mattila vei hetkeä myöhemmin vieraat jälleen johtoon.Ässät nousi viimeisellä minuutilla ilman maalivahtia tasoihin Jan-Mikael Järvisen osumalla.Kotijoukkueen illan kruunasi ottelun kääntyminen 4–3-voitoksi voittomaalikilpailussa, sillä pudotuspeliviivan alle valahtanut porilaisnippu kaipasi pisteitä kiivaasti. Ratkaisevan osuman iski Will Graber.Ässät nousi TPS:n ohi playoff-paikalle, kymmenenneksi. KalPa on sijalla seitsemän.Sarjataulukon näet tästä linkistä.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
         <v>26</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>SM-liiga­his­torian murheellisin putki poikki – pori­lais­san­karilta huvittava paljastus tuule­tuk­sestaan</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20076059</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>22.02.2024</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jääkiekon SM-liigan illan ainoassa ottelussa Ässät nousi kahden maalin takaa 4–3-voittoon voittomaalikilpailussa. </t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Jääkiekon miesten SM-liigassa pelattiin torstaina vain yksi ottelu, mutta Ässien ja KalPan kohtaaminen jäi historiaan.Ässien puolustaja Rami Määttä päätti nimittäin 176 SM-liigaottelua kestäneen maalittoman putkensa.Neljättä kauttaan liigassa pelaava Määttä ei ollut koskaan aiemmin onnistunut maalinteossa SM-liigassa. Hän piti hallussaan pisintä ajanjaksoa ilman maalia SM-liigassa.Määttä oli noussut tällä kaudella listauksen ”kärkipaikalle”. Edellinen pisin maaliton putki oli SaiPassa ja Pelicansissa pelanneella Matti Hanalla, joka ei koskaan saanut maalitiliään SM-liigassa auki.Torstaina Määtän putki katkesi, kun hän kavensi tarkalla laukauksellaan ottelun 1–2:een toisessa erässä.Jos maali ei vielä jäänyt yleisön mieleen, niin ainakin sitä seurannut tuuletus jäi. Porilaispuolustaja otti nimittäin kotiyleisön haltuun, ja yritti muun muassa tehdä punnerruksia jään pinnassa.– Tuuletus oli suunniteltu, mutta se ei ollut tuo. Kaaduin, joten jouduin soveltamanaan, Määttä kertoi erätauolla MTV:n haastattelussa.Näyttävää osumaansa Määttä kommentoi ironisesti.– Minulla ei ole ollut tapana tehdä rumia maaleja Liigassa.Porilaisyleisö otti Määtän osuman ja sitä seuranneen kunniakierroksen vastaan hurmioituneena. Iso osa Isomäen hallin katsojista nousi seisomaan.Loppua ei ollut tulla riemujuhlaan pelin jälkeenkään. Määttä otti yleisönsä jäällä, ja koko Ässien joukkue taustaryhmineen ja loukkaantuneine pelaajineenkin tulivat riemuitsemaan.Määttä kiitteli vuolaasti myös joukkuetoveriaan.– Aleksi Matinmikolle olen kiitollinen. Hän on syöttänyt avausmaalini sekä A-nuorissa että Liigassa. Pikku hiljaa tämä alkaa hahmottua, mitä on tapahtunut.Ottelun avauserä oli maaliton, mutta vierasjoukkue KalPa karkasi 2–0-johtoon toisessa erässä Oliver Kapasen ja Matyas Kantnerin osumilla. Määtän kavennusosuma syntyi toisen erän loppupuoliskolla. Dylan Fabre toi päätöserän alussa Ässät ylivoimalla tasoihin, mutta Jesper Mattila vei hetkeä myöhemmin vieraat jälleen johtoon.Ässät nousi viimeisellä minuutilla ilman maalivahtia tasoihin Jan-Mikael Järvisen osumalla.Kotijoukkueen illan kruunasi ottelun kääntyminen 4–3-voitoksi voittomaalikilpailussa, sillä pudotuspeliviivan alle valahtanut porilaisnippu kaipasi pisteitä kiivaasti. Ratkaisevan osuman iski Will Graber.Ässät nousi TPS:n ohi playoff-paikalle, kymmenenneksi. KalPa on sijalla seitsemän.Sarjataulukon näet tästä linkistä.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>26</v>
-      </c>
-      <c r="B59" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Alexander Puution kolumni: Suomessa synnytään valmiiseen pöytään, siitä minäkin nousen kiittämättä</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20074373</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>19.02.2024</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
         <is>
           <t>Suomessa on ollut helppo tottua hyvään, minkä johdosta kansalaisten velvollisuuksista ei osata nykyään edes keskustella vaikka juuri siitä me kaikki hyötyisimme, Puutio kirjoittaa.</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>KolumniKolumneja kirjoittaa laaja joukko Ylen ulkopuolisia tekijöitä.Lue kolumneja
 Kuuntele kolumneja Yle AreenassaNew Yorkista käsin tuntuu siltä, että nyky-Suomessa on tyypillistä tarkastella hyvän elämän edellytyksiä lähinnä yksilön oikeuksien näkökulmasta.Kulutamme palveluja, jotka miellämme perusoikeuksiksi.Ihmisoikeuksia tuntuu riittävän sopivan nopeasta internetyhteydestä riittävään toimeentuloon. Harva vaikuttaa ihmettelevän, kun mitä monimutkaisimmat ihmiskunnan logistiset ja taloudelliset saavutukset esitetään kaikille kuuluvina oikeuksina, joista ei voi neuvotella.Osittain tästä syystä kansanedustaja Teemu Keskisarjan (ps) näkemykset opiskelijoiden leveästä elämäntyylistä nostatti viime vuonna monen niskakarvat pystyyn.Kenenkään elämä ei liene tällä hetkellä kovinkaan helppoa.Varsinkin opiskelijoiden arki on toistuvien taloudellisten myllerrysten, globaalien konfliktien sekä eksistentiaalisten kriisien keskellä jotain, mitä muiden ei kannata lähtökohtaisesti kadehtia. Ei vaikka muutaman satasen tukirahoista osa kuluisikin irtoripsiin ja lasillisiin shampanjaa.Oli Keskisarjan möläytyksestä mitä mieltä tahansa, on mielestäni täysin kiistatonta, että Suomessa synnytään valmiiseen pöytään.Keskisarjan puheenvuoroa seuranneen kritiikin keskellä jäin kuitenkin pohtimaan hänen ajatuksensa ydintä, ja varsinkin sitä, miten etuoikeutettua esimerkiksi oma elämäni suomalaisena on ollut.Oli Keskisarjan möläytyksestä mitä mieltä tahansa, on mielestäni täysin kiistatonta, että Suomessa synnytään valmiiseen pöytään.Suuri osa meistä on tottunut toimimaan yhteiskunnassa itseoikeutetusti pelkästään vastaanottajan roolissa.Kulutamme palveluja, jotka miellämme perusoikeuksiksi. Syömme ruokaa, mikä kulkeutuu lähikauppoihimme yön aikana muiden toimittamana teillä, joiden huonosta kunnosta valitamme.Luonnollisesti myös vaadimme valtion keskittävän budjettinsa juuri niihin toimiin ja tarpeisiin, joilla on juuri meille erityinen merkitys.Keskisarjan tavoin on helppo osoittaa ‘hemmoteltuja’ nuoria sormella, mutta todellisuudessa melkein jokainen meistä kokee olevansa oikeutettu poimimaan Suomi-neidon buffetpöydästä kaikista houkuttelevimmat herkut.Yksilön vastuusta hyvinvointiyhteiskunnan mahdollistajana ei sen sijaan ole tänä päivänä tyylikästä keskustella.Velvollisuus on terminä lähinnä puistattava, eikä poliittiselta kentältä löydy juuri ketään, keneltä kansalaisvelvollisuuksista keskustelu onnistuisi luontaisesti.Perusoikeusajattelun laajentuminen, sekä velvollisuusetiikan hiljainen kuolema, on johtanut siihen, että hyvän kansalaisen rooli on typistynyt pelkäksi transaktioksi. Noudata lakeja, maksa verosi ja voit nauttia oikeuksistasi ilman muita vaateita.Tästä näkökulmasta yhteiskunta ja sen palvelut ovat itsestäänselvyyksiä, joille ei tarvitse uhrata edes ajatuksiaan. Mielestäni olemme sangen ainutlaatuisen yhteiskunnallisen ihmiskokeen keskellä.On historiallisesti täysin epätyypillistä, että voimme ydintalven keskellä lämpimissä kodeissamme olla yhtä mieltä siitä, että kaiken hyvän pitäisi olla mahdollista kaikille, ja mielellään heti.Lämpimät kodit, yliopiston luennot sekä kaikki muut perusoikeudet on mahdollista realisoida vain, jos joku ne työllään mahdollistaa.On valtava etuoikeus saada elää osana suomalaista yhteiskuntaa juuri siksi, että suuressa osassa maailmaa työtä yhteisen hyvinvoinnin eteen ei ole edes aloitettu.Vaikka osaan nykyään artikuloida kiitollisuuteni paremmin nuorena, ymmärrän hyvin kaikkia heitä, jotka kokevat yhteiskuntamme etäiseksi; muiden tekemäksi ja muiden puolesta toimivaksi.Instituutiot joiden käskyjä tottelen, yhtiöt joiden toimintaa kulutuksellani rahoitan ja julkiset kulkuneuvot joilla matkustan eivät luonnollisestikaan ole minun omaisuuttani. Tästä huolimatta, myös minä kannan niiden toiminnasta vastuuta oman yhteiskuntani osakkaana.Jos ottaisimme omistajan tavoin kannettavaksi oman osuutemme yhteisestä hyvinvoinnista, mitä kaikkea tapahtuisikaan?Hymyilisimmekö enemmän vieraille, tietäen miten tärkeää pienikin pilkahdus iloa on pimeyden keskellä?Olisimmeko ymmärtäväisempiä palkka-alhossa oleville hoitajille tai koronan kurittamille muusikoille, joiden palveluista saamme osamme?Olisimmeko kiitollisia siitä, että yhteiskunnassamme opiskelua ylipäänsä tuetaan, kun yhdysvaltalaiset verrokit ajautuvat satojen tuhansien velkoihin samoja tutkintoja jahdatessa?Luulen, että osakkaan asenteella saisimme enemmän iloa elämästä irti. Ainakin kansainvälisesti katsoen, suomalaisen yhteiskunnan osaomistajilla on paljon, mistä olla aidosti ylpeitä.Alexander PuutioKirjoittaja työstää ajatuksiaan paremmasta yhteiskunnasta kahden lapsen isänä, liikkeenjohdon konsultoinnin ammattilaisena sekä yliopisto-opetuksen sekatyöläisenä Yhdysvalloista käsin.Jutun kommentointi on suljettu 19.2. kello 21.08 moderoinnin ruuhkautumisen vuoksi.</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="81">
+      <c r="A81" t="n">
         <v>27</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>MM-rallissa nähtiin kammottava vaaratilanne, jonka voisi välttää – Jari-Matti Latvala kertoo, miten</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076008</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>22.02.2024</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Adrien Fourmaux oli ajaa Ruotsin MM-rallissa Ott Tänakin auton perään. Toyotan tallipäällikkö Jari-Matti Latvalan mielestä vastaavat vaaratilanteet on mahdollista välttää.</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Ralliauto kiitää lähemmäs kahtasataa penkkojen välissä. Kartanlukija Alexandre Corian lukema nuotti on ollut tarkka. Kuljettaja Adrien Fourmaux tietää tasan tarkkaan, mitä loivasti vasemmalle kääntyvän mutkan takana odottaa: pitkä suora.Tämä myös pitää paikkansa. Silti kuljettajapari yllätetään täydellisesti.Tilanteen voit katsoa yllä pyörivältä videolta.Hetki oli vain ohikiitävä, mutta sitäkin dramaattisempi. Fourmaux onnistui vain vaivoin ohittamaan Fordillaan Ott Tänakin hitaasti matelevan Hyundain.Fourmaux ja Tänak käänsivät autonsa sivuun liki yhtäaikaisesti aivan viime hetkellä. Karmea onnettomuus vältettiin lähinnä kuskien reaktiokykyjen ja puhtaan tuurin ansiosta.Ei ihme, että Fourmaux on vaatinut, että jotain pitäisi tehdä, eikä vastaavaa saisi enää tapahtua.Toyotan tallipäällikkö Jari-Matti Latvalan mukaan tilanne olisi kuitenkin ollut kokonaan vältettävissä jo olemassaolevin keinoin. Tässä jutussa hän kertoo, että miten.Ensin on vain avattava, miten tilanteeseen ylipäätään päädyttiin.Tänak mateli hybridin voiminKoko vyyhti lähti liikkeelle siitä, kun Tänak ”pöllytti penkkoja”.Ott Tänak pyörähti penkkaan Ruotsin MM-rallin neljännellä erikoiskokeella. Hän joutui lopulta keskeyttämään ulosajon seurauksena.Ulosajo rikkoi Hyundain jäähdyttimen, mutta rally1-auton sähkömoottori mahdollisti virolaisen matkan jatkumisen – tosin vain vaivoin.Juuri tämä matelu aiheutti vaaratilanteen: Tänakin ja kartturi Martin Järveojan autosta tuli erikoiskokeelle hitaasti liikkuva este.– Kun kuljettajana ajat pätkällä sen minkä pääset, et koskaan voi olettaa, että mutkan takaa tulisi auto niin sanotusti perä edellä vastaan, Latvala korostaa.Mikäli auto olisi jäänyt penkkaan jumiin, olisi tilanteelta todennäköisesti vältytty.Kaksikosta Tänak olisi tuolloin jäänyt kaivamaan autoa esiin, Järveoja taas kiirehtinyt jalan tien sivuun varoittamaan takaa tulevia varoituskolmion ja OK-kyltin kanssa. Tätä ennen he olisivat viestittäneet autossa olevalla varoitusjärjestelmällä olevansa kunnossa.Kyltin nähdessään Fourmaux olisi tiennyt kaksikon olevan kunnossa, ja varoittamisen ansiosta hän olisi ymmärtänyt hidastaa vauhtia ja siten väistää auton ajoissa.Tämän kaiken hän olisi tosin saattanut jo tietää etukäteen, sillä autossa olevaan järjestelmään olisi voitu välittää tieto siitä, että edellä ajava auto on pysähtynyt pätkälle.Toimintatapa on kuljettajille, talleille ja rallin järjestäjille tuttuakin tutumpi. Sama kaava toistuu kilpailusta toiseen, sillä ulosajoilta tai muilta keskeytyksiltä ei ralleissa koskaan vältytä.Kun jokin näistä varotoimenpiteistä unohtuu, voi jälki olla tuhoisaa. Tästäkin nähtiin esimerkki Ruotsissa, kun Fourmaux'n tallitoveri Gregoire Munster jäi lauantaina jumiin hankeen.Adrien Fourmaux oli törmätä myös tallitoveriinsa Gregoire Munsterin autoon.– Fourmaux meni siinäkin läheltä toista autoa. Ulosajanut kuljettajapari ei toiminut tilanteessa oikein, sillä he olivat molemmat kaivamassa autoa. Toinen ei ollut 100 metrin päässä varoittamassa, kuten kuuluisi, Latvala huomauttaa.Tänakia olisi voitu varoittaaVaan miten toimia silloin, kun auto ei pysähdy erikoiskokeelle, vaan liikkuu siellä vaarallisen hitaasti?Tähän asianosaiset eivät osanneet Ruotsissa reagoida riittävän nopeasti. Vaaratilanteen syntyminen osoitti puutteen MM-sarjan turvallisuustietoisuudessa.Lähtökohtaisesti autoon ei saa viestiä, jos se ei ole pysähtynyt pätkälle. Radioyhteys tallin ja kuljettajaparin välillä erikoiskokeen aikana on ollut pitkään kiellettyä rangaistuksen uhalla.Jari-Matti Latvala muistuttaa kuitenkin yhdestä tärkeästä poikkeuksesta. Yhteydessä saa Latvalan mukaan olla aina, kun kyse on turvallisuudesta.Tätä mahdollisuutta ei Fourmaux'n ja Tänakin tapauksessa syystä tai toisesta hyödynnetty. On selvää, että sen paremmin tiimit, rallin järjestäjät kuin kuljettaparikaan eivät täysin ymmärtäneet, miten toimia.Avaa kuvien katseluAdrian Fourmaux'n kannalta kaikki kääntyi parhain päin, sillä hän juhli lopulta Ruotsin MM-rallissa uransa ensimmäistä palkintokorokepaikkaa. Kuva: Hannu RainamoSyyllisten osoittamisen sijaan tärkeämpää on tapauksesta oppiminen. Kynnystä kommunikointiin on syytä alentaa tai ainakin tarkentaa.Varmaa on vain se, että liikkuvan auton sisältä on vaikea havaita, milloin takana tuleva auto lähestyy.– Peileistä on vaikea nähdä ulos monestakin syystä. Muistan omalta uraltani tilanteita, joissa kartturi on laskenut aikaa siihen, milloin takaa tuleva auto voisi olla tulossa ohi. Lisäksi kuljettaja yrittää aina ensisijaisesti päästä maaliin, kun se vain on mahdollista, Latvala muistuttaa.Näin varoitusjärjestelmää voisi kehittääRadioyhteyden lisäksi kuljettajaparille voidaan siis välittää tietoa myös muilla tavoin. Tyypillisimmin tämä tapahtuu niin sanotuissa punaisen lipun tilanteissa, jolloin autossa olevaan näyttöön kerrotaan tieto erikoiskokeen keskeyttämisestä.Samaa järjestelmää viusu hyödyntää myös ohitustilanteista varoittamiseen. Juuri tähän Latvala toivoo rallin MM-sarjalta toimintatapojen tarkennusta.Hän esittää myös kehitysidean itse järjestelmään.– Järjestelmää voisi kehittää myös niin, että se tunnistaisi automaattisesti, jos edellä ajava auto on tietyn etäisyyden päässä. Sen pitäisi olla teknologisesti mahdollista, Latvala pohtii.Latvala on itse urallaan ajanut aikakaudella, jolloin autoon oli sallittua olla yhteydessä koko ajan. Tämä luonnollisesti helpotti tilanteita, joissa takana tuleva auto oli syystä tai toisesta päästettävä ohi. Lisäksi autokunnalle välitettiin tietoa esimerkiksi väliajoista.– Itse pidin väliajoista. Näin pätkällä tiesi, milloin piti puristaa hieman lisää. Rallia johtavan kuljettajan oli toki silloin helpompi kontrolloida tilannetta erikoiskokeen aikana, Latvala kuvailee.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>27</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>IS: Teuvo Hakkaraisen mukaan Unkaria ihaileva somepäivitys vaikutti euro­vaa­lieh­dok­kuuden torppaamiseen</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076689</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Hakkarainen kertoo Ilta-Sanomille, että syy ehdokkuuden kieltämiseen oli hänen lauantaina kirjoittamassaan viestipalvelu X:n viestissä.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Perussuomalaisten europarlamentaarikon Teuvo Hakkaraisen ehdokkuusjupakkaan tuli tiistaina uutta tietoa, kun Ilta-Sanomat haastatteli Hakkaraista toistamiseen.Hakkaraisen mukaan perussuomalaisten puoluesihteeri Harri Vuorenpää kertoi hänelle viikonloppuna, että asiaa eurovaaliehdokkaaksi ei ole.Hakkarainen kertoo Ilta-Sanomille, että syy ehdokkuuden kieltämiseen oli hänen lauantaina kirjoittamassaan viestipalvelu X:n viestissä, jossa Hakkarainen toivotti Unkarin hallituspuolue Fideszin tervetulleeksi europarlamentin konservatiiviseen ECR-ryhmään, johon myös perussuomalaiset europarlamentaarikot kuuluvat.– Omasta puolestani sanon, että Unkarin hallituspuolue Fidesz on tervetullut ECR-ryhmään. Olen ihailleen seurannut, kuinka Unkari pistää kampoihin EU-diktatuurille. Suomen täytyy omaksua samanlainen linja. Jokaisella EU-maalla on oikeus omaan ulkopolitiikkaan, Hakkaraisen Ilta-Sanomille lähettämässä poistetussa X-päivityksessä sanottiin.Päivitys ehti olla X:ssä Hakkaraisen mukaan enintään tunnin verran.– Puoluesihteeri viittasi päivitykseeni ja sanoi, että et missään tapauksessa voi lähteä puolueen eurovaaliehdokkaaksi. Syynä oli puolueen vastainen toiminta, Hakkarainen sanoi Ilta-Sanomille.Perussuomalaiset jakoi omalla X-tilillään lauantaina MTV uutisten artikkelin, jossa puolueen toinen europarlamenttiedustaja Pirkko Ruohonen-Lerner tyrmää ajatuksen Fideszin liittymisestä ECR-ryhmään.Puoluesihteeri ei kommentoiVuorenpää kertoi maanantaina Yle uutisille, että perussuomalaisten puoluehallitus nimeää ehdokkaat.Vuorenpään mielestä kyse ei ole Hakkaraisen ja puolueen välisestä väärinkäsityksestä.– Hakkarainen vastaa omasta tiedotteestaan ja viestinnästään. Meidän viestimme on, että hän ei tule olemaan ehdokkaana ja hän on ollut siitä tietoinen, Vuorenpää sanoi maanantaina.Hakkaraisen poistaman viestipalvelu X:n viestin julkistamisen jälkeenkään Vuorenpää ei halua sanoa sanaakaan Hakkaraisen ehdokkuuden epäämisestä.– Minä sanon ainoastaan näin, että kaikki mitä on haluttu julkisuuteen kommentoida, on jo kommentoitu. Enempää me emme tätä avaa, Vuorenpää sanoo Ylelle tiistai-iltana.Entä mikä sitten on Hakkaraisen asema nyt puolueessa?– Kuten sanoin, emme tätä asiaa enempää kommentoi. Kaikki on sanottu, mitä on sanottu.Perusteita ei siis kerrota?– Kuten sanottu, emme julkisuuteen anna sisäisiä asioita, Vuorenpää kuittaa.Juttua päivitetty klo 18.41 puoluesihteerin kommenteilla.Jutun otsikkoa korjattu 27.2. klo 19:31: Jutun otsikko oli aiemmin ”IS: Unkaria ihaileva somepäivitys on syy, miksi Teuvo Hakkarainen ei kelpaa perussuomalaisten eurovaaliehdokkaaksi”</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>27</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>Vuoden kaupun­ki­lainen Yaxye Mohamud, 26, kohtaa huonoille teille ajautuneita nuoria – tämä nuorten tarinoita yhdistää</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076235</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>25.02.2024</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
         <is>
           <t>Kaupunkitoimittajien yhdistys valitsee pääkaupunkiseudulla vuosittain vuoden kaupunkilaisen, joka on toiminnallaan edistänyt asukkaiden hyvinvointia.</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>Vuoden 2023 kaupunkilaiseksi on valittu helsinkiläinen nuorisotyöntekijä Yaxye Mohamud.26-vuotias Mohamud sai tunnustuksen Kaupunkitoimittajien yhdistykseltä.– Hän on omistanut paljon aikaansa vapaaehtoistyölle, jonka tarkoituksena on tarjota mielekästä vapaa-ajan tekemistä erityisesti ulkomaalaistaustaisille nuorille, kertoo yhdistys tiedotteessaan.Yaxye Mohamud on yksi Movement-järjestön perustajista yhdessä kahden lapsuudenystävänsä kanssa. Järjestö on noussut ilmiöksi erityisesti Lähi-idästä ja Afrikasta peräisin olevien nuorten keskuudessa.Toiminta sai alkunsa kesätoiminnasta Pikku Huopalahdesta, jossa Mohamud jalkautui suoraan nuorten pariin.– Menimme kentälle ja kysyimme nuorilta, mitä he haluaisivat tehdä, ja lähdimme suunnittelemaan toimintaa, Mohamud kertoo.Avaa kuvien katselu”Kaikki lähtee aidosta kohtaamisesta, jossa nuoreen tutustutaan ja ollaan aidosti kiinnostuneita”, Yaxye Mohamud sanoo. Hän oli perjantaina 23. helmikuuta Yle Radio Suomen haastattelussa. Kuva: Matti Myller / YleKaupunkitoimittajien yhdistyksen mukaan panostus on osoittautunut tehokkaaksi keinoksi estää nuoria ajautumasta huonoille teille ja välttämään katujengeihin liittymisen, mikä on ollut kuluneena vuonna huolestuttava ilmiö.Movement on toiminut tehokkaasti Mohamudin kotikaupunginosassa eli Pikku Huopalahdessa, joka on yksi niistä pääkaupunkiseudun alueista, joilla katujengit ja niiden aiheuttamat väkivaltaiset tilanteet ovat olleet esillä.– On alueita, joissa on yhteisöjä (jengejä), joihin syrjäytyneet nuoret haluavat kuulua, kun eivät löydä muuta positiivista yhteisöä, Mohmud sanoo.Hän kertoo huomanneensa työssään, että maahanmuuttaja nuoret kokevat usein ulkopuolisuutta suomalaisessa yhteiskunnassa.– Silloin saatetaan ajautua negatiivisiin piireihin. Nuorten on silloin vaikea luottaa suomalaiseen yhteiskuntaan, etenkin, jos erilaisuuden takia syrjitään.Asioihin voisi kuitenkin hänen mukaansa vaikuttaa.– Me, jotka työskentelemme aloilla, joilla on vaikutuksia nuoriin, voisimme kysyä itseltämme, miten voisimme tukea nuoria.Vuoden kaupunkilainen Yaxye Mohamud ei tunnnista katujengitermiä työssään helsinkiläisten maahanmuuttajanuorten parissaYaxye Mohamudia haastatteli Vesa Marttinen.Enemmän tarinoita onnistumisistaYaxye Mahmudin mukaan negatiivinen uutisointi maahanmuuttajataustaisten nuorten ongelmista lisää ilmiötä itsessään.– Tarvitsisimme enemmän positiivisia tarinoita maahanmuuttajataustaisista. Ne ruokkivat hyvän kierrettä.Movement-järjestö on laajentanut toimintaansa myös Helsingin Kannelmäkeen. Järjestö mahdollistaa nuorten itse toivomaa toimintaa, kuten urheilua.– Olisin itse nuorena kaivannut tällaista toimintaa.Helsingin kaupunki on huomannut Movementin positiivisen vaikutuksen ja tukee yhdistystä järjestämään kesätoimintaa nuorille Pikku Huopalahden nuorisotalolla.– Yritän konkretian kautta näyttää nuorille, että on mahdollisuuksia rakentaa elämässä asioita, jotka eivät liity rikollisuuteen.Kaupunkitoimittajat on ammatillinen yhdistys, joka keskittyy seuraamaan Helsingin seudun paikallisia asioita. Yhdistykseen kuuluu lähes sata jäsentä, jotka työskentelevät 20 eri toimituksessa.Yhdistys nimittää vuosittain vuoden kaupunkilainen -tunnustuksen saajaksi henkilön, joka on pyyteettömällä panoksellaan edistänyt kansalaisten henkistä tai fyysistä hyvinvointia. Vuoden kaupunkilainen valittiin nyt 27. kerran.</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="84">
+      <c r="A84" t="n">
         <v>27</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>Julia Thurénin kolumni: Länsimainen ihminen ei tarvitse yli viittä uutta vaatetta vuodessa</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20070384</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>21.02.2024</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
         <is>
           <t>Viiden vaatteen vuosi -haaste levisi siksi, että harkinta on kivempaa kuin täysi kieltäytyminen, Thurén kirjoittaa.</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>KolumniKolumneja kirjoittaa laaja joukko Ylen ulkopuolisia tekijöitä.Lue kolumneja
 Kuuntele kolumneja Yle AreenassaAika moni asia elämässä on sellainen, että kun siitä on niukkuutta, se tuntuu paremmalta. Oma aika (minulla on kolme lasta), suklaa (kyllä, edelleen ne kolme lasta) ja vaatteet. Jep, uudet vaatteet.Vuosi sitten aloitimme ystäväni ja vaateaktivisti Aku Varamäen kanssa Viiden vaatteen haasteen.Säännöt kuuluvat: osta vuodessa vain viisi uutta vaatetta, sukat ja alusvaatteet eivät kuulu lukuun ja second handia saa ostaa niin paljon kuin haluaa. Ja tuhannet lähtivät mukaan. Ehkä sinäkin?Aku teki joulukuussa haasteeseen osallistuneille kyselyn, johon vastasi 1 245 ihmistä. Tässä kaksi yllättävintä tulosta:Kun ihmiset ostivat vähemmän ja harkitsivat hankintojaan enemmän, tyytyväisyys uusiin hankintoihin lisääntyi. Ja tämä on se yllätys: myös tyytyväisyys jo omistamiin vaatteisiin lisääntyi.Iso joukko mainitsi, että tästä on tullut elämäntapa. Viiden vaatteen haaste ei siis tunnu sellaiselta leikiltä, jonka parissa nitkutellaan vuosi ja sitten palataan vanhaan. Itse asiassa moni kertoi, että ostosten harkinta oli levinnyt vaatteista muillekin elämän alueille, kuten elektroniikkaan ja sisustukseen.Molemmat kohdat pätevät myös minuun. Tämän vuoden jälkeen en keksi ihan hirveästi syitä siihen, miksi länsimaisen ihmisen tarvitsisi hankkia vuodessa yli viisi uutta vaatetta tai kenkäparia. Ehkä jos kaikki vaatteet tuhoutuisivat yhtä aikaa tulvassa tai tulipalossa?Hyvin monenlaisissa tilanteissa elävät ihmiset lähtivät Viiden vaatteen haasteeseen: Yksi oli siirtymässä sairauden vuoksi kävelystä pyörätuoliin. Toinen oli raskaana, synnytti ja ryhtyi imettämään. Kolmannen tulot ovat tulleet pitkälti uusien vaatteiden mainostamisesta. Neljäs esiintyy julkisesti paljon.Vaikka tiedostan uusien vaatteiden, erityisesti halvan ja jatkuvasti vaihtuvan pikamuodin saatanallisuuden, on silti vaikeaa vastustaa halua ostaa silloin tällöin uusia vaatteita.Syitä siihen, miksi ihminen haluaa ostaa enemmän uusia vaatteita, löytyykin sitten enemmän kuin pikamuotimerkkien viherpesuyrityksiä. Ja ihmisellä tarkoitan tietenkin itseäni.Kun ostan uuden vaatteen, minulle tulee tunne, että olen uudistunut ja identiteettini on jälleen vähän eheämpi. There’s a new woman in town, soi mielikuvissani taustalla, kun pelmahdan uusissa farkuissa työpaikan neukkariin.Jatkuva halu ostaa uusia vaatteita onkin pöhkö homma, jonka markkinakoneisto ja vaateteollisuus on rakentanut ovelasti viimeisen sadan vuoden aikana. Itse asiassa enimmäkseen viimeisen 20 vuoden aikana, jolloin vaatteiden tuotanto on globaalisti kaksinkertaistunut. Niinpä vaate- ja tekstiiliteollisuus tuottaakin nykyään 4–10 prosenttia kaikista päästöistä. Chilen aavikolla nököttää niin valtava vaatevuori, että sen voi nähdä avaruudesta.Sellaista mukavaa identiteetin rakentamista!Vaatteista saa iloita.Mutta mutta. Vaikka tiedostan uusien vaatteiden, erityisesti halvan ja jatkuvasti vaihtuvan pikamuodin saatanallisuuden, on silti vaikeaa vastustaa halua ostaa silloin tällöin uusia vaatteita. Ja nyt tulee hopeareunusta: Ei tarvitsekaan! Vaatteista saa iloita.Saksalainen Hot or cool -instituutti laski, että jokainen ihminen voisi ostaa noin 5–10 uutta vaatetta vuodessa niin, että planeetta kestäisi.Entä sitten ne kirppislöydöt? Moni on kritisoinut haastetta siitä, että siinä sallitaan määrättömästi second handin ostaminen. Itse en pidä tätä merkittävänä ongelmana.Olisi planeetan kannalta erinomaista, jos ihmisten ajattelu muuttuisi niin, että kun heille tulee tarve tai halu ostaa vaatteita, he suuntaisivat ensin second hand -kaupoille. Kun tämä kiertotalouden askel on otettu, voidaan seuraavaksi alkaa miettiä sitä kirppisvaatteiden määrää.Miten kävi oman haasteeni? Hankin viisi vaatetta uutena: kaksi paitaa, kahdet kengät ja yhden juhlamekon. Kirppikseltä ostin yhden puseron. Identiteettini on edelleen eheä.Julia ThurénKirjoittaja on yrittäjä, jonka mielestä jako ylikuluttavaan vähemmistöön ja vähän kuluttavaan enemmistöön kuvaa erinomaisesti maapallon ihmisiä. Hän itse kuuluu ensimmäiseen.</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>27</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>MM-rallissa nähtiin kammottava vaaratilanne, jonka voisi välttää – Jari-Matti Latvala kertoo, miten</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20076008</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="n">
+        <v>28</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Maailman vanhimmalta koiralta vietiin ennä­tys­titteli – Bobi kuoli viime lokakuussa</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076047</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>22.02.2024</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Adrien Fourmaux oli ajaa Ruotsin MM-rallissa Ott Tänakin auton perään. Toyotan tallipäällikkö Jari-Matti Latvalan mielestä vastaavat vaaratilanteet on mahdollista välttää.</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Ralliauto kiitää lähemmäs kahtasataa penkkojen välissä. Kartanlukija Alexandre Corian lukema nuotti on ollut tarkka. Kuljettaja Adrien Fourmaux tietää tasan tarkkaan, mitä loivasti vasemmalle kääntyvän mutkan takana odottaa: pitkä suora.Tämä myös pitää paikkansa. Silti kuljettajapari yllätetään täydellisesti.Tilanteen voit katsoa yllä pyörivältä videolta.Hetki oli vain ohikiitävä, mutta sitäkin dramaattisempi. Fourmaux onnistui vain vaivoin ohittamaan Fordillaan Ott Tänakin hitaasti matelevan Hyundain.Fourmaux ja Tänak käänsivät autonsa sivuun liki yhtäaikaisesti aivan viime hetkellä. Karmea onnettomuus vältettiin lähinnä kuskien reaktiokykyjen ja puhtaan tuurin ansiosta.Ei ihme, että Fourmaux on vaatinut, että jotain pitäisi tehdä, eikä vastaavaa saisi enää tapahtua.Toyotan tallipäällikkö Jari-Matti Latvalan mukaan tilanne olisi kuitenkin ollut kokonaan vältettävissä jo olemassaolevin keinoin. Tässä jutussa hän kertoo, että miten.Ensin on vain avattava, miten tilanteeseen ylipäätään päädyttiin.Tänak mateli hybridin voiminKoko vyyhti lähti liikkeelle siitä, kun Tänak ”pöllytti penkkoja”.Ott Tänak pyörähti penkkaan Ruotsin MM-rallin neljännellä erikoiskokeella. Hän joutui lopulta keskeyttämään ulosajon seurauksena.Ulosajo rikkoi Hyundain jäähdyttimen, mutta rally1-auton sähkömoottori mahdollisti virolaisen matkan jatkumisen – tosin vain vaivoin.Juuri tämä matelu aiheutti vaaratilanteen: Tänakin ja kartturi Martin Järveojan autosta tuli erikoiskokeelle hitaasti liikkuva este.– Kun kuljettajana ajat pätkällä sen minkä pääset, et koskaan voi olettaa, että mutkan takaa tulisi auto niin sanotusti perä edellä vastaan, Latvala korostaa.Mikäli auto olisi jäänyt penkkaan jumiin, olisi tilanteelta todennäköisesti vältytty.Kaksikosta Tänak olisi tuolloin jäänyt kaivamaan autoa esiin, Järveoja taas kiirehtinyt jalan tien sivuun varoittamaan takaa tulevia varoituskolmion ja OK-kyltin kanssa. Tätä ennen he olisivat viestittäneet autossa olevalla varoitusjärjestelmällä olevansa kunnossa.Kyltin nähdessään Fourmaux olisi tiennyt kaksikon olevan kunnossa, ja varoittamisen ansiosta hän olisi ymmärtänyt hidastaa vauhtia ja siten väistää auton ajoissa.Tämän kaiken hän olisi tosin saattanut jo tietää etukäteen, sillä autossa olevaan järjestelmään olisi voitu välittää tieto siitä, että edellä ajava auto on pysähtynyt pätkälle.Toimintatapa on kuljettajille, talleille ja rallin järjestäjille tuttuakin tutumpi. Sama kaava toistuu kilpailusta toiseen, sillä ulosajoilta tai muilta keskeytyksiltä ei ralleissa koskaan vältytä.Kun jokin näistä varotoimenpiteistä unohtuu, voi jälki olla tuhoisaa. Tästäkin nähtiin esimerkki Ruotsissa, kun Fourmaux'n tallitoveri Gregoire Munster jäi lauantaina jumiin hankeen.Adrien Fourmaux oli törmätä myös tallitoveriinsa Gregoire Munsterin autoon.– Fourmaux meni siinäkin läheltä toista autoa. Ulosajanut kuljettajapari ei toiminut tilanteessa oikein, sillä he olivat molemmat kaivamassa autoa. Toinen ei ollut 100 metrin päässä varoittamassa, kuten kuuluisi, Latvala huomauttaa.Tänakia olisi voitu varoittaaVaan miten toimia silloin, kun auto ei pysähdy erikoiskokeelle, vaan liikkuu siellä vaarallisen hitaasti?Tähän asianosaiset eivät osanneet Ruotsissa reagoida riittävän nopeasti. Vaaratilanteen syntyminen osoitti puutteen MM-sarjan turvallisuustietoisuudessa.Lähtökohtaisesti autoon ei saa viestiä, jos se ei ole pysähtynyt pätkälle. Radioyhteys tallin ja kuljettajaparin välillä erikoiskokeen aikana on ollut pitkään kiellettyä rangaistuksen uhalla.Jari-Matti Latvala muistuttaa kuitenkin yhdestä tärkeästä poikkeuksesta. Yhteydessä saa Latvalan mukaan olla aina, kun kyse on turvallisuudesta.Tätä mahdollisuutta ei Fourmaux'n ja Tänakin tapauksessa syystä tai toisesta hyödynnetty. On selvää, että sen paremmin tiimit, rallin järjestäjät kuin kuljettaparikaan eivät täysin ymmärtäneet, miten toimia.Avaa kuvien katseluAdrian Fourmaux'n kannalta kaikki kääntyi parhain päin, sillä hän juhli lopulta Ruotsin MM-rallissa uransa ensimmäistä palkintokorokepaikkaa. Kuva: Hannu RainamoSyyllisten osoittamisen sijaan tärkeämpää on tapauksesta oppiminen. Kynnystä kommunikointiin on syytä alentaa tai ainakin tarkentaa.Varmaa on vain se, että liikkuvan auton sisältä on vaikea havaita, milloin takana tuleva auto lähestyy.– Peileistä on vaikea nähdä ulos monestakin syystä. Muistan omalta uraltani tilanteita, joissa kartturi on laskenut aikaa siihen, milloin takaa tuleva auto voisi olla tulossa ohi. Lisäksi kuljettaja yrittää aina ensisijaisesti päästä maaliin, kun se vain on mahdollista, Latvala muistuttaa.Näin varoitusjärjestelmää voisi kehittääRadioyhteyden lisäksi kuljettajaparille voidaan siis välittää tietoa myös muilla tavoin. Tyypillisimmin tämä tapahtuu niin sanotuissa punaisen lipun tilanteissa, jolloin autossa olevaan näyttöön kerrotaan tieto erikoiskokeen keskeyttämisestä.Samaa järjestelmää viusu hyödyntää myös ohitustilanteista varoittamiseen. Juuri tähän Latvala toivoo rallin MM-sarjalta toimintatapojen tarkennusta.Hän esittää myös kehitysidean itse järjestelmään.– Järjestelmää voisi kehittää myös niin, että se tunnistaisi automaattisesti, jos edellä ajava auto on tietyn etäisyyden päässä. Sen pitäisi olla teknologisesti mahdollista, Latvala pohtii.Latvala on itse urallaan ajanut aikakaudella, jolloin autoon oli sallittua olla yhteydessä koko ajan. Tämä luonnollisesti helpotti tilanteita, joissa takana tuleva auto oli syystä tai toisesta päästettävä ohi. Lisäksi autokunnalle välitettiin tietoa esimerkiksi väliajoista.– Itse pidin väliajoista. Näin pätkällä tiesi, milloin piti puristaa hieman lisää. Rallia johtavan kuljettajan oli toki silloin helpompi kontrolloida tilannetta erikoiskokeen aikana, Latvala kuvailee.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Guinnesin ennätysten kirja vei jälkijättöisesti Bobilta ennätyksen, koska koiran ikää ei sen mukaan voitu luotettavasti todentaa.</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Maailman pitkäikäisimmäksi koiraksi nimetty Bobi kuoli viime lokakuussa. Sen kerrottiin olleen 31 vuoden ja 165 päivän ikäinen kuollessaan. Bobi oli portugalilainen, puhdasrotuinen alentejonkoira.Guinnesin ennätysten kirja oli ehtinyt jo puolisen vuotta ennen Bobin kuolemaa nimetä sen maailman vanhimmaksi koiraksi. Ikä oli vahvistettu Portugalin lemmikkitietokannasta, jota ylläpitää kansallinen eläinlääkäriliitto.Nyt Guinnesin ennätysten kirja on pakittanut päätöksessään ja vienyt Bobilta tittelin. Se kommentoi BBC:lle, ettei Bobin mikrosiru ollut sittenkään tarpeeksi vahva todiste koiran iästä.Guinnesin ennätysten kirja ei ole vielä päättänyt, mille koiralle titteli sen mielestä oikeasti kuuluu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
         <v>28</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>Aleksis Salusjärven kolumni: Suomalaista koulua ei tarvitse uudistaa – riittää, kun palataan vanhaan</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20065994</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>20.02.2024</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
         <is>
           <t xml:space="preserve">Vanha viisaus sanoo: älä korjaa sellaista, joka ei ole rikki. Mutta koululaitosta alettiin muuttaa, kun olimme huipulla. </t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>KolumniKolumneja kirjoittaa laaja joukko Ylen ulkopuolisia tekijöitä.Lue kolumneja
 Kuuntele kolumneja Yle AreenassaSuomen peruskoulun luisua on vaikea ajoittaa mihinkään yhteen täsmälliseen kohtaan. Viidentoista vuoden aikana lasten osaamiserot ovat kasvaneet ja koulujen ongelmista on tullut kestopuheenaihe. Pisa-tutkimus on kartoittanut tätä alamäkeä säntillisesti.Ikävä totuus on, että peruskoululaitosta alettiin muuttaa määrätietoisesti silloin, kun se oli maailman parhaita.Taustalla oli halu muokata koulua vastaamaan maailman muutosta, tunnetuimpana esimerkki ehkä digiloikka. Diginatiivilapsille haluttiin tarjota tietoyhteiskunnan oikopolkuja, ja opettajien työtä alettiin täyttää laitteilla ja pilvipalveluilla. Tulokset eivät ole olleet erityisen kannustavia. Tällä tiellä ollaan silti edelleen, vaikka laiteriippuvuus on ilmeinen ongelma yhä useammalle nuorelle.Taaksepäin katsoen näyttäisi siltä, että maailman parasta koululaitosta on heikennetty uudistusten myötä.Ruotsissa digisiirtymää ollaan perumassa, ja opetusmateriaaleissa luotetaan entistä enemmän painettuun kirjaan. Samanhenkisiä terveisiä kerrotaan Virosta, jonka koululaitosta kehitettiin suomalaisen kaltaiseksi, kunnes siitä tuli meikäläistä peruskoulua parempi.Taaksepäin katsoen näyttäisi siltä, että Suomen maailman parasta koululaitosta on heikennetty uudistusten myötä. Myös monet opettajat ajattelevat näin, mikä kertoo ainakin sen, että komentoketju on koulujärjestelmässä rikki. Suuri osa opettajista kokee, että opetustyön edellytykset ovat heikentyneet. Maailman parhaan koulun uudistaminen maailman ”yliparhaaksi” kouluksi on siis ainakin osittain tapahtunut opettamisen ja opettajien kustannuksella.Oppimistulosten heikentyminen seurailee myös lasten kotiolojen heikentymistä.Hyvin toimeentulevissa perheissä näihin uutisiin on reagoitu niin, että lapsia ohjataan painotetun opetuksen luokille. Yhä useampi lapsi saa nykyisin myös yksityisopetusta peruskoulun lisäksi. Suomi polarisoituu, ja se alkaa vääjäämättä näkyä myös lasten arjessa. Samalla kasvaa paine erottaa jyvät akanoista mahdollisimman varhaisessa vaiheessa.Kun Pisa-tutkimusten yhä laskevista tuloksista taas joulukuussa uutisoitiin, keskustelussa pohdittiin paljon vain koulua. Mutta oppimistulosten heikentyminen seurailee myös lasten kotiolojen heikentymistä. Kuusi prosenttia lapsista on elänyt jossain kohtaa lapsuuttaan sijoitettuna kotinsa ulkopuolelle. Luku kaksinkertaistui viime vuosikymmenten aikana.Voisivatko vanhat keinot olla parempia kuin pussillinen uusia?Kun lapsuus menee rikki, se näkyy koulussa. Samaan aikaan kouluun on tuotu entistä tarmokkaammin inklusiivista opetusta, jonka ajatus on, että kaikentasoiset oppijat opiskelevat yhdessä, mutta tulevat silti tarpeinensa huomioiduksi. Kauniista tavoitteista huolimatta inkluusio on osaltaan johtanut kaoottisiin luokkahuoneisiin, joissa keskittymisestä on tullut yhä vaikeampaa.Ehkä on siis käynyt niin, että maailman parasta peruskouluamme on kehitetty pelkästä kehittämisen ilosta. Peruskoululle on käynyt nokiat. Kun on jossain maailman paras, on riski omahyväisesti uskoa, että kaikki mihin ryhtyy, on tuomittu onnistumaan.Nokian tavoin myös peruskoulun nykyongelmien syyllisiä nimetään hanakasti. Melkein jokaista puoluetta on vuorollaan Istutettu syyllisen paikalle, mutta kukaan ei ole itse nostanut kättään pystyyn virheen merkiksi.Nyt käsillä oleviin ongelmiin on myös suuri houkutus etsiä ratkaisua taas ihan uusista uudistuksista. Mutta voisivatko vanhat keinot olla parempia kuin pussillinen uusia?Olen opettanut viime vuosien aikana kymmenissä oppilaitoksissa tuhansia nuoria ympäri Suomea. Parhaimmat oppilaat ovat löytyneet kouluista, joissa oppilaat ja opettajat tuntevat toisensa, ja joissa on kiireetön tunnelma. Näissä kouluissa toimii tekniikan sijasta vuorovaikutus.Nykyään maaseudullakin siirrytään yhä suurempiin yksiköihin, ja koulun oppilasmäärä saattaa olla yli tuhat. Silti arjen toimiva resepti on yhä varsin yksinkertainen: koulun aikuiset tuntevat jokaisen oppilaan nimeltä – ja jokainen nuori huomioidaan henkilökohtaisesti.Aleksis SalusjärviKirjoittaja on kirjallisuuden ammattilainen, joka opettaa tekstitaitoja erityisesti hankaluuksiin ajautuneille nuorille.Kolumniin on tehty korjaus 20.2. 2024 klo 15.33. Ilmaisua sijoitettujen lasten määrästä on täsmennetty.</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="87">
+      <c r="A87" t="n">
         <v>28</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Maailman vanhimmalta koiralta vietiin ennä­tys­titteli – Bobi kuoli viime lokakuussa</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20076047</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Tokmanni ja Bauhaus myyvät myrkyllisiä viherkasveja väärillä nimillä – kaupan virhe voi johtaa oireisiin kotona</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20075764</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Jotkut kaupat myyvät jopa myrkyllisiä viherkasveja puutteellisin tai väärin tiedoin. Kävimme viidessä viherkasveja myyvässä liikkeessä ja tarkastimme, mitä hyllyiltä löytyy.</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Kuluttajille myytävien viherkasvien tiedoissa on suuria puutteita, ja osa niistä on myös selvästi virheellisiä.Kävimme asiantuntijan kanssa viidessä puutarha-, sekatavara- ja vähittäiskaupan liikkeessä pääkaupunkiseudulla ja selvitimme, millaisin tiedoin viherkasveja myydään.Joukosta löytyi ihmiselle ja eläimille myrkyllisiä kasveja.Merkintätavat olivat kirjavia. Suureen osaan tietoja ei edes oltu yritetty lisätä tai merkintä oli niin ylimalkainen, ettei siitä voinut mitenkään päätellä edes kasvin lajia tai sukua.Viherkasvit voivat aiheuttaa ihmisille ja eläimille esimerkiksi limakalvoärsytystä, ihottumaa, vatsakipuja tai oksentelua. Erityisesti kissoille jotkin kasvit voivat olla jopa hengenvaarallisia.Kuluttajalla onkin iso vastuu selvittää itse, mitä kasvia on hankkimassa. Sekään ei aina ole yksinkertaista.Mikään yksittäinen laki tai viranomainen ei Suomessa velvoita myyjää kertomaan kuluttajalle kasvista oikeastaan mitään tietoja. Toisaalta kuluttajansuojalaki kuitenkin edellyttää, että markkinoinnissa on aina annettava terveyden ja turvallisuuden kannalta oleelliset tiedot.Viherkasvikauppaan sovellettava säännöstö on siis vähintäänkin ristiriitaista.Ylen kierroksella kasveja myyviin kauppoihin oli mukana Huonekasviseuran puheenjohtaja Anna-Erika Paronen. Hänen mielestään tilanne on huolestuttava.Kasvin myrkyllisyyden tai edes sen hoito-ohjeiden selvittäminen vaatii ilman laji- tai sukutietoa Ruokaviraston erityisasiantuntijan Jari Poutasen mukaan ammattimaista osaamista eikä sekään välttämättä riitä.Tässä jutussa kerromme, millaisia merkintöjä löysimme.Tarkastelimme:Hintalappuja.Kasvipassia ja pakkauksessa olevia merkintöjä. Kasvipassi on kasvin mukana kulkeva merkintä, jossa on tietoja esimerkiksi kasvin lajista ja sen tuottajasta.Kasvin todellista ulkomuotoa.
+Tokmannissa kasvien osto on arpapeliäVierailimme pääkaupunkiseudulla Tokmannissa, Bauhausissa, Plantagenissa, Prismassa ja Ikeassa.Kolme ensin mainittua saavat viherkasvien hinta- ja tuotemerkinnöistä noottia Huonekasviseuran puheenjohtajalta Anna-Erika Paroselta.Erityisen paljon puutteita oli Vantaan Tammiston Tokmannissa, jossa viherkasviosasto oli pienin.Parosen silmiin osuu traakkipuu ja peikonlehti. Hintalapussa ja kasvien pakkauksissa lajiksi mainitaan molempien kohdalla ”mix” eli sekoitus.Traakkipuu on kissoille syötynä hengenvaarallinen. Trendikasvi peikonlehteäkään Paronen ei laittaisi suuhunsa, sillä sen maitiaisneste aiheuttaa limakalvo- ja ihoärsytystä.Tokmannin viestintäpäällikkö Maarit Mikkonen viestii sähköpostitse, että ”kodin huonekasveista on harvoin vakavaa terveydellistä haittaa, koska harva haluaa kokeilla, miltä huonekasvi maistuu”.Konsernilta ohjataan tarkistamaan kasvin myrkyllisyys Myrkytystietokeskuksen nettisivuilta.Tokmannilta ei oteta kantaa siihen, miten kuluttaja voi kasvin myrkyllisyyden tarkistaa, jos kasvin laji tai suku ei selviä pakkaus- tai hintatiedoista.Tokmannilla myynnissä oli ”mehikasvi mix”. Omien selvitystenkään jälkeen emme voineet sanoa varmaksi, onko ostamamme mehikasvi limakalvoja ärsyttävä agaave, vatsakipuja aiheuttava aaloe vai ehkäpä kauneudenhoidossakin käytettävä lääkeaaloe.Ei viranomaisvalvontaaKierros jatkuu ja Vantaan Tammiston Bauhausista löytyy pieni ihmepensaan alku. Paronen hätkähtää.Ihmepensaan maitiaisneste on hyvin ärsyttävää. Se aiheuttaa ihottumaa ja on syötynä myrkyllinen.Kasvissa on ruukkuun painettuja nimi- ja tuottajatietoja, mutta teksti on niin sotkuinen, ettei siitä saa mitään selvää. Tekstin päälle liimatussa viivakooditarrassa ja hintalapussa lukee vain ”viherkasvi mix”.Bauhausin ostojohtaja Susanna Lindberg vastaa sähköpostitse, että yhtiö tutkii vääriä merkintöjä ja tiedottaa asiasta tavarantoimittajiaan.Lindberg kertoo, että ”kasvihankinnoissa noudatetaan alan vaatimia lakeja ja säädöksiä” sekä ”Ruokaviraston kasvimyyjien velvoitteita”.Todellisuudessa Ruokavirasto valvoo ammattilaisten eli esimerkiksi viljelijöiden ja jälleenmyyjien välistä kasvikauppaa, eikä sillä ole viherkasvien vähittäiskaupalle velvoitteita. Sen tarkoituksena on estää kasvitautien ja -tuholaisten leviämistä alueelta toiselle.– Huonekasveille merkitsemisestä ei ole mitään vaatimuksia eikä kasvipassiakaan. Se on väliinputoajaryhmä. Sen takia merkinnöissä on niin paljon vaihtelua. Merkintöjen puute on aito riski, Ruokaviraston erityisasiantuntija Jari Poutanen sanoo.
+Kaikki viisi liikettä, joissa vierailimme, toimivat siis täysin sallitusti.– Se ei ole oikein. Se saattaa olla tosi vaarallista. Olen ihmetellyt monta vuotta, miten viherkasveja voidaan myydä noin, Huonekasviseuran hallituksen jäsen Sari Aspelin sanoo.Osassa liikkeistä kasvien hintalaput olivat hyvin yleisluontoisia. Joissain kasveissa esimerkiksi lajitieto oli ruukussa tai pakkauksessa, mutta monien tunnistaminen jää täysin kuluttajan vastuulle. Klikkaamalla kuvaa näet, millaisia virheitä myymälöistä löytyi:Avaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluAvaa kuvien katseluKilpailu- ja kuluttajaviraston ryhmäpäällikkö Kristiina Vainio muistuttaa, että kuluttajansuojalaki pätee myös viherkasvikauppaan, jos muuta valvovaa viranomaista ei ole.– Laissa todetaan, että kuluttajan terveyden tai turvallisuuden kannalta tarpeelliset tiedot on aina annettava, Vainio sanoo.Peikonlehtenä myydään mitä sattuuViime vuosina liuskalehtisestä peikonlehdestä on tullut niin trendikäs huonekasvi, että välillä sen monstera-suvun nimellä myydään mitä sattuu.Törmäämme Bauhausissa ja Plantagenissa komeisiin neulavehkoihin. Harmi vain, että molemmissa paikoissa ruukkujen kyljissä lukee ”Monstera minima”. Teksti saa Parosen irvistämään.– Tätä myydään hyvin usein Monsteran nimellä, mutta tämä ei ole monstera, vaan aivan eri kasvi. Kasvutapakin on ihan erilainen. Virhe tehdään jo tukussa, Paronen sanoo.Plantagenin Suomen Country Operation Manager Minna Inberg kertoo, että virhe on huomattu ja siitä on jo tiedotettu koko yhtiölle.– Odotamme, että saamme tavarantoimittajalta uudet tarrat ja voimme tarroittaa kasvit uudestaan.Noloa virhettä lukuun ottamatta Plantagen selvisi tarkistuskierroksesta hyvin. Merkinnät olivat kattavia ja monissa kasveissa oli hintatietojen lisäksi hoito-ohjeita.
+Korvaa nämä myrkylliset suosikkikasvit myrkyttömillä vaihtoehdoillaTraakkipuu → hanki mieluummin kultapalmuPeikonlehti → hanki mieluummin banaaniIhmepensas → hanki mieluummin nukkumatti tai seepramaijaKultaköynnös → hanki mieluummin herttalyhtyAaloe → hanki mieluummin ilmakasvi eli tillandsiaIkeassa panostettu turvallisuuteenPrisma ja Ikea saivat asiantuntijaltamme puhtaat paperit. Niistä kummastakaan ei löytynyt vääriä merkintöjä, ja kasvien lajitiedot olivat helposti nähtävillä.Prismassa on myynnissä paljon kotimaisia huonekasveja. Niiden tuotanto on Huonekasviseuran Parosen mukaan viime vuosina lisääntynyt, ja merkinnät ovat usein hyviä.Ikean viherkasviosasto saa asiantuntijalta kiitosta.Hintalapuissa on maininta: ”Koriste. Ei nautittavaksi.” Lisäksi kasviosastolla on infokortteja, joissa muistutetaan kasvien mahdollisesta myrkyllisyydestä ja turvallisesta sijoittamisesta.– Saamme jonkin verran kyselyitä kasvien sopivuudesta esimerkiksi lapsi- ja lemmikkiperheisiin. Esimerkiksi kasvin terävistä piikeistä ja tuotteista, jotka voivat aiheuttaa allergiaa, lisäämme varoituksen aina, kun katsomme tarpeelliseksi, viestinnän asiantuntija Jenni Kontio Ikeasta kertoo.Kontion mukaan kuluttajien ohjeistamisessa seurataan alan standardeja ja yleisiä käytäntöjä.Avaa kuvien katseluIkeassa huonekasvien turvallisesta sijoittelusta ja käsittelystä muistutettiin hintalappujen lisäksi erillisin infolappusin. Kuva: Karoliina Juntunen / YleAvaa kuvien katseluKotimaisten kasvien pakkauksissa tiedot ovat yleensä kattavasti esillä, sanoo Huonekasviseuran Anna-Erika Paronen. Tokmannilla hintalappu oli suppea, mutta kasvien pakkauksissa tärkeät tiedot hyvin esillä. Kuva: Karoliina Juntunen / Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>29</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Pohjois-Ruotsissa Nato-päätös oli helpotus – ”Toivottavasti saamme hyvät tiet ja työpaikkoja”</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076688</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Ruotsin Nato-jäsenyyden varmistuminen on otettu Pohjois-Ruotsin rajaseudulla vastaan pääosin helpottunein mielin. Sen toivotaan tuovan pohjoiseen myös esimerkiksi infrarakentamista.</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Pohjois-Ruotsissa Nato-jäsenyyden uskotaan nostavan pohjoisten alueiden merkitystä ja lisäävän yhteistyötä Pohjoismaiden kesken.Odotus on tuntunut erityisen pitkältä, koska alkujaan Natoon piti mennä käsikynkkää Suomen kanssa.Kuten muuallakin kuningaskunnassa myös Tornionlaaksossa ruotsalaisista saattoi tuntua hieman kurjalta, kun suomalaisille matka puolustusliittoon olikin niin paljon helpompi.Rajakaupungissa Haaparannalla iäkäs mies kieltäytyy haastattelusta, mutta nostaa kuitenkin peukkua, kun kerromme asiamme.– Nato är bra! Ja leveä hymy päälle.Ruotsin puolustusvoimiin kuuluvassa kodinturvajoukoissa parinkymmenen vuoden ajan palvellut Henry Ollinen on tyytyväinen, että jäsenyyspyrkimyksessä päästiin vihdoin maaliin. Jäsenyys tuo muutoksia myös hänen joukkonsa toimintaan.– Viimeksi viime vuonna olimme isossa Aurora-sotaharjoituksessa Kiirunassa vartioimassa, kun amerikkalaisia ja norjalaisia joukkoja tuli harjoittelemaan Ruotsiin. Meille tulee lisää tehtäviä muiden Nato-maiden joukkojen auttamisessa.Samassa porukassa Suomen kanssaEhkä kodinturvajoukkojen luonnekin hieman muuttuu. Agendalla on jatkossa enemmän muutakin kuin tulvantorjuntatöitä ja metsäpaloja. Maanpuolustukselliset tarpeet ja velvollisuudet saavat enemmän tilaa.Ruotsin puolustusvoimien näkyvyys ja sen saama huomio koko yhteiskunnassa on kasvanut viime aikoina rajusti. Henry Ollisen mukaan maalla on yhä edessään valtava työ puolustuksen vahvistamisessa.– Eihän se mikään salaisuus ole, meillä on puute asevelvollisista ja ihan perustarvikkeista, varusteista. Puolustusvoimat ehdittiin ajaa niin alas, että uudelleen rakentaminen on työlästä. Nyt täytyy kasvaa nopeasti.Ollinen pohtii, että Nato-jäsenyyden merkitys ja sitä myötä samaan porukkaan pääseminen varsinkin Suomen kanssa on pohjoisen ihmisille erityisen tärkeää.– Täällä on aina ollut korkea maanpuolustustahto. Suomi on lähellä ja niin on yhteinen vihollinenkin.Avaa kuvien katseluHaaparannan kunnanneuvos Nina Waara uskoo pohjoisen merkityksen kasvavan puolustusliitossa. Kuva: Antti Ullakko / YlePohjoinen infra on tärkeä kaikilleHaaparannan kunnanneuvos Nina Waara uskoo, että Pohjois-Ruotsin saama huomio Nato-keskustelussa tuo alueelle myös hyvinvointia.– Toivottavasti saamme hyvät tiet ja työpaikkoja, ja alueen merkitys vihdoin ymmärretään.Omaa aluepoliittista taisteluaan iäti käyneessä Norrbottenissa odotetaan, että kun esimerkiksi sotilaallinen liikkuvuus arktisilla harjoitusalueilla kasvaa, infran rakentamiseen ja uusimiseen alkaa Tukholmassakin löytyä myötämieltä ja kruunuja.Nina Waara liputtaa etenkin Ruotsin ja Suomen välisen junaliikenneyhteyden parantamiselle.– Ruotsi on Suomelle myös ainoa maayhteys ja kulkureitti Eurooppaan. Tätä me nyt pidämme vahvasti esillä.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>29</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Hoitajat pelkäävät vienti­mallista "ikuista palkkakuoppaa", ministeri eri mieltä</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20074620</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>22.02.2024</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Guinnesin ennätysten kirja vei jälkijättöisesti Bobilta ennätyksen, koska koiran ikää ei sen mukaan voitu luotettavasti todentaa.</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Maailman pitkäikäisimmäksi koiraksi nimetty Bobi kuoli viime lokakuussa. Sen kerrottiin olleen 31 vuoden ja 165 päivän ikäinen kuollessaan. Bobi oli portugalilainen, puhdasrotuinen alentejonkoira.Guinnesin ennätysten kirja oli ehtinyt jo puolisen vuotta ennen Bobin kuolemaa nimetä sen maailman vanhimmaksi koiraksi. Ikä oli vahvistettu Portugalin lemmikkitietokannasta, jota ylläpitää kansallinen eläinlääkäriliitto.Nyt Guinnesin ennätysten kirja on pakittanut päätöksessään ja vienyt Bobilta tittelin. Se kommentoi BBC:lle, ettei Bobin mikrosiru ollut sittenkään tarpeeksi vahva todiste koiran iästä.Guinnesin ennätysten kirja ei ole vielä päättänyt, mille koiralle titteli sen mielestä oikeasti kuuluu.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>29</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Hoitajat pelkäävät vienti­mallista "ikuista palkkakuoppaa", ministeri eri mieltä</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20074620</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Arto Satonen uskoo, että naisten ja miesten palkkaerot kaventuvat kuoppakorotuksilla.</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Hallituksen työelämäuudistuksia vastaan protestoidaan historiallisen laajasti.Yksi periaatteellisista kiistoista liittyy naisten ja miesten palkkaepätasa-arvoon. Naisvaltaisilla julkisilla aloilla on tyypillisesti huonommat palkat kuin miesvaltaisilla yksityisillä aloilla eli vientiteollisuudessa.Ammattiliitot, kuten terveysalan Tehy ja opetusalan OAJ pelkäävät, että hallituksen vientimalli nuijii naiset syvemmälle palkkakuoppaan. Esimerkiksi Tehyn puheenjohtaja Millariikka Rytkönen puhuu ”hoitajien ikuisesta palkkamontusta”.Taustalla on matematiikka: prosenttikorotukset paisuttavat isoja palkkoja jokaisella neuvottelukierroksella enemmän kuin pieniä.Aivan päinvastainen väite on tullut niin hallituksen työministerin Arto Satosen (kok.) kuin Teknologiateollisuuden suusta.Satonen torjui helmikuussa palkkakuoppaväitteen Ylen Aamussa sanomalla, että Ruotsissa ”itse asiassa palkkatasa-arvo on parantunut vientimallin aikana”.Satonen viittasi Ruotsin sovitteluinstituutin johtajalta Irene Wennemolta saamiinsa tilastoihin. Esimerkiksi hoitajat ovat sopineet itselleen paikallisesti kuoppakorotuksia.Kumman väite pitää paikkansa?Kysyimme kahdelta Ruotsin työmarkkinoita tuntevalta asiantuntijalta, mitä mallin perusteella on mahdollista ennakoida.Ruotsi on oikeastaan ainoa ennakkotapaus, jonka perusteella väitteitä voidaan arvioida – eikä sekään kovin hyvä, sillä maiden neuvottelu- ja sovittelujärjestelmät ja työkulttuuri ovat hyvin erilaisia.Avaa kuvien katseluRuotsissa sairaanhoitajat ovat ammattiliitto Vårdförbundetin mukaan saaneet vientimallin aikana palkkanormia parempia palkankorotuksia, toisaalta palkkahajonta sairaanhoitajien kesken on kasvanut. Kuva: Sanna Savela / YleTotta: Vientimalli ei estä palkankorotuksiaHallitus on vastannut palkkakuoppaväitteisiin painottamalla, ettei sen malli aseta palkankorotuksille kattoa, vaan rajoittaa ainoastaan, mitä valtakunnansovittelija voi tarjota sovitellessaan työehtoriitoja.Satonen on oikeassa siinä, ettei vientimalli puutu sopimisen vapauteen, vahvistavat Etlan tutkimusjohtaja Antti Kauhanen ja Laboren johtava tutkija Merja Kauhanen.– Organisaatiotasolla vientimalli määräisi vain lattian, ei kattoa sille, kuinka paljon yksilökohtaisia palkkoja korotetaan, sanoo Etlan Antti Kauhanen.Eli teknologiayritys tai terveysyhtiö voi siis yhä neuvotella huippuosaajalle tai työvoimapula-alan työntekijälle työehtosopimusta paremman palkan.Sama pätee siihen, mistä työnantajataho ja liitot voivat sopia.– Ruotsissa on yhteisesti hyväksytty näkemys, että jotkut ryhmät voivat joillain kierroksilla saada enemmän, Antti Kauhanen lisää.Käytännössä on toki aivan eri asia, korotetaanko palkkoja.– Jos valtakunnansovittelijan kädet sidotaan etukäteen, on tällaisen lakimuutoksen jälkeen vaikeampi parantaa pienipalkkaisten suhteellista palkka-asemaa työtaistelutoimitse, sanoo Laboren Merja Kauhanen.Etlan Antti Kauhanen muotoilee saman asian toisin:– Toki voi olla niin että jo työehtosopimuksen määräämä palkankorotus on niin korkea, ettei organisaatioissa ole enää palkankorotusvaraa.Avaa kuvien katseluPienissä yrityksissä ja matalasti koulutetuilla aloilla palkkakuopan riski on vientimallin seurauksena suurempi. Kuva: Henrietta Hassinen / YleTotta: Pienituloisten kuoppa syventyneePalkansaajajärjestöjen väite naisten palkkakuopasta näyttäisi Ruotsin esimerkin perusteella pätevän ainakin matalapalkka-aloilla.– En näe, että pienipalkkaisilla aloilla, kuten hotelli- ja ravintola-alalla, jossa on paljon pieniä yrityksiä, olisi intressiä ja mahdollisuuksia neuvotella palkoista näin, Merja Kauhanen sanoo.Näin arvioi myös Etlan Antti Kauhanen.– Väite palkkakuopasta on uskottava niillä aloilla, joilla on työvoimasta pikemminkin enemmän tarjontaa kuin kysyntää. On vaikea nähdä myös, miksi ansiot nousisivat kovin paljon matalasti koulutetuilla aloilla.Toisaalta jos tavoitetta arvioidaan työllisyyden kannalta, matalasta palkkatasosta voi olla taloudelle hyötyä. Avoimena olevien työpaikkojen määrä voi siis nousta, jos yrityksillä on varaa palkata.Avaa kuvien katseluMitä enemmän koulutusta työ vaatii, sitä paremmat mahdollisuudet työntekijällä on kilpailuttaa palkkansa. Kuva: Henrietta Hassinen / YleTotta: Ruotsissa osa sairaanhoitajista hyötyiMyös Arto Satosen viittaus Ruotsiin ja hoitoalan kuoppakorotuksiin pitää paikkansa. Ruotsissa sairaanhoitajat ja opettajat ovat siirtyneet palkankorotuksissa täysin paikallisen sopimisen piiriin.Laboren Merja Kauhasen mukaan Ruotsissa nämä ammattiryhmät ovat näin pyrkineet parantamaan suhteellista palkka-asemaansa.Vårdförbundetin mukaan sairaanhoitajat ovat saaneetkin palkkanormia korkeampia korotuksia. Kaikille ei ole näin käynyt.– Mutta ruotsalaisen tutkimuksen mukaan täysin paikallisen sopimisen aikakaudella sairaanhoitajien keskuudessa palkkahajonta on kasvanut, sanoo Merja Kauhanen.Myös lähihoitajat ovat saaneet vientialan palkkanormia paremman korotuksen.– Se onnistui, koska sillä kierroksella (Suomen SAK:ta vastaava) keskusjärjestö LO tuki hoitajien tavoitetta, Merja Kauhanen sanoo.Kysytään vielä kerran: onko mahdollista, että hoitajat voisivat hyötyä hallituksen mallista ja kuroa palkkakuoppaa umpeen?– Ei ole kiveen kirjoitettu etteikö näin voisi käydä, vastaa Etlan Antti Kauhanen.Totta: Suomessa ei ehkä käy näinAntti Kauhanen kuitenkin lisää, ettei sen perusteella, miten Ruotsissa on käynyt, voi vetää johtopäätöksiä.– Ei voi ennakoida, miten Suomessa kävisi. Tulokset riippuvat hyvin paljon ympäristöstä eli koko työmarkkinajärjestelmästä sekä talouden tilanteesta.Talouden tilanne on Suomessa huonompi kuin Ruotsissa. Kunnat ja hyvinvointialueet rypevät talousvaikeuksissa ja ovat säästökuurilla, sairaalaverkkoa karsitaan.On perusteltua kysyä onko niillä halua tai välttämättä edes kykyä kiriä kiinni vientiteollisuuden palkankorotuksia.Näin on todennut myös Arto Satonen. Hallituksen talousuudistusten yhtenä maalina on hänen mukaansa turvata yhteiskunnan varoilla kustannettavat hyvinvointialueiden palvelut – johon henkilökuntakin kuuluu.Avaa kuvien katseluAsiantuntijoiden mukaan erot Suomen ja Ruotsin työmarkkinajärjestelmissä ovat suuret. Ruotsissa luottamus on johtanut siihen, että lakkoja on vähemmän. Myös keskusjärjestöt kantavat vastuuta palkkojen kilpailukyvystä. Kuva: Pauliina Happo / YleTotta: Suomeen tulisi eri vientimalliRuotsissa vientimalli on ollut käytössä 90-luvulta, mutta sitä ei ole kirjattu lakiin.Asiantuntijoiden mukaan erot järjestelmissä ja neuvottelukulttuurissa ovat valtavat. Ruotsissa neuvottelu perustuu luottamukseen, sillä mallin omistajuus on työmarkkinaosapuolilla eikä poliitikoilla.Pyrkimys palkkatasa-arvoon on Ruotsissa nivottu osaksi järjestelmää, sovittelijantoimisto seuraa tilastoja.Myös ammattiliitot ja keskusjärjestöt kantavat vastuuta työn kilpailukyvystä, sillä palkankorotusten hillintä on niidenkin intressissä.– Jos liittojen ylin peruste on saada aina kovemmat palkankorotukset kuin joku muut, inflaatio lähtee laukkaamaan jolloin reaalipalkkojen kehitys on negatiivista, Etlan Kauhanen sanoo.Totta: Ruotsissa vähemmän lakkojaLuottamukselliset välit ovat johtaneet muun muassa siihen, että lakkoja on Ruotsissa vähemmän. Niitä ei ole Ruotsissa rajoitettu lailla tai oikeuskäytännöllä, kuten ministeri Satonen on elinkeinoelämälta saamiinsa tietoihin viitaten sanonut.Laboren Merja Kauhasen mukaan se, että valtakunnansovittelijan rooli sidotaan lakiin, voi saada vientimallin vaikutukset näyttäytymään meillä aivan toisenlaisina kuin Ruotsissa.– Esimerkiksi Ruotsissa lähihoitajien palkankorotuksen edellytys oli että sen tukena oli työmarkkinakeskusjärjestö, eikä laki rajoittanut sitä.Ruotsissa paikallisen sopimisen yleistyminen on Merja Kauhasen mukaan rapauttanut palkkamalttia.– Paikallisten sopimusten yleistyminen on nähty myös uhkana vientivetoisen mallin palkkanormin merkitykselle. Juuri täysin paikalliset sopimiset ovat hajauttaneet tätä kehitystä, hän sanoo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>30</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Valko­ve­nä­läinen Veranika Yanets, 34, jäi Suomessa ilman töitä – nyt hän omistaa trendikkään yrityksen</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20075745</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>25.02.2024</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Kukkakimpun muotoon sidotut syötävät kimput nousivat suosioon Euroopassa kolmisen vuotta sitten. Suomessa on muutamia alan osaajia, joista yksi on Veranika Yanets.</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Valkovenäläisen Veranika Yanetsin matka Suomeen ja Espooseen alkoi Bulgariasta. Tuolloin 28-vuotias nuori nainen oli rantalomalla ja tapasi yllättäen Suomessa asuvan venäläistaustaisen miehen.Lomaromanssista alkanut suhde johti lopulta siihen, että Yanets ja hänen edellisestä suhteesta oleva lapsi muuttivat miehen luokse Espooseen, vaikka hänellä oli vakituinen työ erityisopettajana.Tämä viitisen vuotta sitten alkanut elämänmuutos on vaatinut sitkeyttä. Uudessa kotimaassa erityisopettajan työtä ei voinut jatkaa kielen ja Suomessa vaadittujen lisäopintojen vuoksi.Tämä tarkoitti sitä, että uudessa maassa piti hankkia myös uusi ammatti.– Ilman puolison ja ystävien tukea en olisi pystynyt perustamaan yritystä.Ammatinvalinta alkoi hahmottua, kun Yanets muisti, kuinka paljon hän nautti askarteluista ollessaan erityisopettaja.Yanetsin käsissä muodostuu kimppuja, jotka haastavat perinteisen kukkakimpun. Kukkien rinnalle voidaan kimppuun lisätä syötäviä tuotteita, jotka suojataan huomaamattomasti paperilla tai muovilla.Yanets pääsi kieliharjoitteluun suomalaiseen kukkakauppaan, mikä oli onnenpotku. Hän oppi sitomaan kimppuja ja pääsi sommittelemaan kukka-asetelmia – ja oppi samalla myös suomea.Kukkakaupan kimppuja asiakkaille pyörittäessä hän pohti, millaista jokin täysin uudenlainen yritystoiminta voisi olla kukkien parissa.Instagramissa Yanets törmäsi kuviin mansikkakimpuista.– Näin kauniita suklaalla kuorrutettuja mansikoita nätteihin kääreisiin pakattuna. Ihastuin heti tähän erilaiseen kimppuideaan.Hän ryhtyi kokeilemaan kotona suklaakuorrutettujen mansikoiden valmistamista. Suklaa ei kuitenkaan pysynyt mansikassa ja lopputuloksesta tuli kehno. Erikoiskimppujen solmimiseenkin piti saada vielä lisäoppia.– Suomessa ei opeteta syötävien kimppujen sidontaa, joten suoritin valkovenäläisen verkkokurssin, jossa opetetaan ”food floristiksi”. Sieltä opin erilaisia tekniikoita ja toteutustapoja.Yanets oppi, että kimppuja voi toteuttaa monenlaisin menetelmin esimerkiksi juustoista, pähkinöistä, vihanneksista, hedelmistä, suklaasta, vaipoista, juomista tai vaikka donitseista.Kursseilla hän sai myös arvokkaita kontakteja alan muihin osaajiin ympäri Eurooppaa.Ensimmäinen herkkukimppu, jonka Yanets solmi, oli syntymäpäivälahja omalle miehelle Vassili Bobyleville.Puoliso ei piittaa suklaasta, joten näyttävä kimppu hänelle syntyi makkaroista ja juustoista– Mieheni mielestä kimppu oli paitsi kaunis myös hyvänmakuinen. Tähän yhtyivät myös hänen kaverinsa, jotka osallistuivat piknikille, kertoo Yanets.Hän valokuvasi miehensä avustuksella kimppua kauniissa merenrantamaisemissa ja julkaisi myöhemmin kuvia Instagramissa. Ystävät ja tuttavat kiinnittivät huomion erikoiseen ideaan ja Yanetsille alkoi tulla yhteydenottoja eri tahoilta.Kolme vuotta sitten Yanets perusti yrityksen. Ystävät ja puoliso ovat auttaneet muun muassa erilaisten lupien hankkimisessa ja niiden tekstien suomentamisessa.Yanets selvitti, miten Suomessa perustetaan yritys, hankki tarvittavat elinkeinon harjoittamiseen liittyvät luvat kaupungilta. Lisäksi piti suorittaa hygieniapassi ja perustaa nettisivut.Kotiinsa hän varasi askartelutarvikkeita täynnä olevan työhuoneen, joka soveltuu myös somekuvaukseen, ja tilasi jopa valokyltin, joka vastaa yrityksen ilmettä.Yrityksen perustaminen on siis vaatinut sinnikkyyttä ja vaivannäköä.– Mieheni muistutti, että ei saa tyytyä siihen, mitä on jo saavuttanut. Hän sanoi, että on mentävä eteenpäin ja taisteltava.Kukkien sijaan Yanetsin kimpuissa saattaa olla vaikkapa vihanneksia. Esimerkiksi morsiuskimpussa pionien ja ruusujen sijaan on parsakaalia tai chilejä.Yanets haluaa tarjota kokonaisvaltaisen elämyksen herkkukimpuillaan.Syötäviä kimppuja on nähty myös televisiossa viime vuoden Olet mitä syöt -ohjelmassa. Terveyskimppuja annettiin aina jakson päätteeksi muutokseen osallistuneille julkisuuden henkilöille.Vihanneksia, hedelmiä ja marjoja sisältävät kimput olivat juuri Yanetsin käsialaa.Tubettaja Pinja Sanaksenaho sai televisio-ohjelmassa marjoista ja rosmariinioksista toteutetun kimpun.Hän on päässyt toteuttamaan kimppuja muun muassa suklaamunista Lastensairaalaan, viinipullonkorkeista ravintolaan ja smoothiejuomista lastenjuhliin.– On ihanaa nähdä ihmisten hymyilevän ja huutavan wau, kun he näkevät ensimmäisen kerran kimpun. Tulen myös itse iloiseksi, koska tekemäni kimput ilahduttavat muita.Yanets kokee olevansa onnellinen tehdessään kimppuja ja ajatteleekin löytäneensä kutsumusammattinsa.Suklaakuorrutetut mansikat syntyvät nykyään vaivatta oikeanlaisen menetelmän ja laadukkaan suklaan ansiosta.Syötävät kimput ”trendasivat” Euroopassa kolmisen vuotta sitten. Herkkukimppujen tyylit vaihtelevat sitä mukaan, kun alan ammattilaiset julkaisevat valokuvia sosiaalisessa mediassa.Suomessa on muutamia alan osaajia, joiden joukosta Yanets toivoo erottautuvansa luovuudella ja kekseliäisyydellä.Lisäksi hänen tavoitteenaan on kokeilla koko ajan vaikeampia kimppukokonaisuuksia. Siihen tarvitaan välillä puolisonkin apua.– Suunnittelen tilauskimput ensin paperille, jonka jälkeen teen niistä prototyypin. Jos painava kimppu vaatii tukevaa runkoa pysyäkseen pystyssä ilman maljakkoa, mieheni nikkaroi sellaisen.Katso alla olevalta videolta, kuinka Veranika Yanets valmistaa lakritsasta valtavan mikrofonin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>30</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Roman Rotenberg Kansain­vä­lisen jääkiek­ko­liiton jatkopannasta ja liiton suoma­lais­jä­senistä: ”He pelkäävät meitä”</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076659</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Oligarkki Roman Rotenberg ei säästellyt sanojaan kommentoidessaan Kansainvälisen jääkiekkoliiton tuoreinta päätöstä jatkaa Venäjän ja Valko-Venäjän maajoukkueiden pannaa.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Kansainvälinen jääkiekkoliitto (IIHF) julkaisi aiemmin helmikuussa päätöksensä jatkaa Venäjän ja Valko-Venäjän pannaa vuoden 2025 MM-kilpailuihin saakka. Venäjän jääkiekkoliitto vastusti IIHF:n linjausta omalla vastineellaan ja samalla liiton varapuheenjohtajana toimiva oligarkki Roman Rotenberg lausui oman näkemyksensä maajoukkuepannasta.– On olosuhteita, joihin emme pysty vaikuttamaan. Kansainvälinen jääkiekkoliitto on tällä hetkellä suomalaisten johtama. Ja me tiedämme heidän nykyisen asenteensa jääkiekkoamme ja maatamme kohtaan, Rotenberg sanoi venäläiselle Sport24-uutissivustolle.KHL-joukkue Pietarin SKA:n päävalmentajana toimiva Rotenberg viittaa IIHF:n hallituksen suomalaisjäseniin – liiton pääsihteeriin Matti Nurmiseen ja liiton hallituksen jäsenenä toimivaan Heikki Hietaseen. Hallituksessa on kaikkiaan 15 jäsentä ja sen puheenjohtajana toimii ranskalainen Luc Tardif.– Tilanne ei ole yllättävä. Tämä on politiikkaa. He pelkäävät meitä, eivätkä halua tehdä yhteistyötä kanssamme. He pelkäävät häviävänsä meille, Rotenberg jatkoi.Venäjänsuomalainen Rotenberg julisti, että jääkiekon kansainvälinen kehittyminen on mahdotonta ilman Venäjää.– Olen luottavainen sen suhteen, että kaikki palautuu normaaliksi, ja melko nopeasti.Vladimir Putinin lähipiiriin kuuluva Rotenberg oli perheineen merkittävässä roolissa, kun Helsingin Jokerit siirtyi Itä-Euroopan kiekkoliigaan KHL:ään. Rotenberg on lisäksi yksi Helsingin areenan venäläisomistajista. Ilmalassa sijaitsevan areenan kauppaneuvottelut ovat edelleen käynnissä.Aiemmin NHL ja sen pelaajayhdistys ilmoittivat, että neljän maan huipputurnaus pelataan vuonna 2025 ilman Venäjää. Vuosi ennen talviolympialaisia pelattavaan turnaukseen osallistuvat Kanada, Yhdysvallat, Ruotsi ja Suomi.Venäjän ja Valko-Venäjän tilanteesta IIHF:n alaisissa kilpailuissa keskustellaan seuraavan kerran aikaisintaan maaliskuussa 2025. Venäjä ja Valko-Venäjä suljettiin ulos jääkiekon kansainvälisistä turnauksista helmikuussa 2022 Venäjän hyökättyä Ukrainaan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>30</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Ulla Järven kolumni: Suomalaisia pelotellaan, ja moni taho hyötyy siitä</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20075391</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>22.02.2024</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Arto Satonen uskoo, että naisten ja miesten palkkaerot kaventuvat kuoppakorotuksilla.</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Hallituksen työelämäuudistuksia vastaan protestoidaan historiallisen laajasti.Yksi periaatteellisista kiistoista liittyy naisten ja miesten palkkaepätasa-arvoon. Naisvaltaisilla julkisilla aloilla on tyypillisesti huonommat palkat kuin miesvaltaisilla yksityisillä aloilla eli vientiteollisuudessa.Ammattiliitot, kuten terveysalan Tehy ja opetusalan OAJ pelkäävät, että hallituksen vientimalli nuijii naiset syvemmälle palkkakuoppaan. Esimerkiksi Tehyn puheenjohtaja Millariikka Rytkönen puhuu ”hoitajien ikuisesta palkkamontusta”.Taustalla on matematiikka: prosenttikorotukset paisuttavat isoja palkkoja jokaisella neuvottelukierroksella enemmän kuin pieniä.Aivan päinvastainen väite on tullut niin hallituksen työministerin Arto Satosen (kok.) kuin Teknologiateollisuuden suusta.Satonen torjui helmikuussa palkkakuoppaväitteen Ylen Aamussa sanomalla, että Ruotsissa ”itse asiassa palkkatasa-arvo on parantunut vientimallin aikana”.Satonen viittasi Ruotsin sovitteluinstituutin johtajalta Irene Wennemolta saamiinsa tilastoihin. Esimerkiksi hoitajat ovat sopineet itselleen paikallisesti kuoppakorotuksia.Kumman väite pitää paikkansa?Kysyimme kahdelta Ruotsin työmarkkinoita tuntevalta asiantuntijalta, mitä mallin perusteella on mahdollista ennakoida.Ruotsi on oikeastaan ainoa ennakkotapaus, jonka perusteella väitteitä voidaan arvioida – eikä sekään kovin hyvä, sillä maiden neuvottelu- ja sovittelujärjestelmät ja työkulttuuri ovat hyvin erilaisia.Avaa kuvien katseluRuotsissa sairaanhoitajat ovat ammattiliitto Vårdförbundetin mukaan saaneet vientimallin aikana palkkanormia parempia palkankorotuksia, toisaalta palkkahajonta sairaanhoitajien kesken on kasvanut. Kuva: Sanna Savela / YleTotta: Vientimalli ei estä palkankorotuksiaHallitus on vastannut palkkakuoppaväitteisiin painottamalla, ettei sen malli aseta palkankorotuksille kattoa, vaan rajoittaa ainoastaan, mitä valtakunnansovittelija voi tarjota sovitellessaan työehtoriitoja.Satonen on oikeassa siinä, ettei vientimalli puutu sopimisen vapauteen, vahvistavat Etlan tutkimusjohtaja Antti Kauhanen ja Laboren johtava tutkija Merja Kauhanen.– Organisaatiotasolla vientimalli määräisi vain lattian, ei kattoa sille, kuinka paljon yksilökohtaisia palkkoja korotetaan, sanoo Etlan Antti Kauhanen.Eli teknologiayritys tai terveysyhtiö voi siis yhä neuvotella huippuosaajalle tai työvoimapula-alan työntekijälle työehtosopimusta paremman palkan.Sama pätee siihen, mistä työnantajataho ja liitot voivat sopia.– Ruotsissa on yhteisesti hyväksytty näkemys, että jotkut ryhmät voivat joillain kierroksilla saada enemmän, Antti Kauhanen lisää.Käytännössä on toki aivan eri asia, korotetaanko palkkoja.– Jos valtakunnansovittelijan kädet sidotaan etukäteen, on tällaisen lakimuutoksen jälkeen vaikeampi parantaa pienipalkkaisten suhteellista palkka-asemaa työtaistelutoimitse, sanoo Laboren Merja Kauhanen.Etlan Antti Kauhanen muotoilee saman asian toisin:– Toki voi olla niin että jo työehtosopimuksen määräämä palkankorotus on niin korkea, ettei organisaatioissa ole enää palkankorotusvaraa.Avaa kuvien katseluPienissä yrityksissä ja matalasti koulutetuilla aloilla palkkakuopan riski on vientimallin seurauksena suurempi. Kuva: Henrietta Hassinen / YleTotta: Pienituloisten kuoppa syventyneePalkansaajajärjestöjen väite naisten palkkakuopasta näyttäisi Ruotsin esimerkin perusteella pätevän ainakin matalapalkka-aloilla.– En näe, että pienipalkkaisilla aloilla, kuten hotelli- ja ravintola-alalla, jossa on paljon pieniä yrityksiä, olisi intressiä ja mahdollisuuksia neuvotella palkoista näin, Merja Kauhanen sanoo.Näin arvioi myös Etlan Antti Kauhanen.– Väite palkkakuopasta on uskottava niillä aloilla, joilla on työvoimasta pikemminkin enemmän tarjontaa kuin kysyntää. On vaikea nähdä myös, miksi ansiot nousisivat kovin paljon matalasti koulutetuilla aloilla.Toisaalta jos tavoitetta arvioidaan työllisyyden kannalta, matalasta palkkatasosta voi olla taloudelle hyötyä. Avoimena olevien työpaikkojen määrä voi siis nousta, jos yrityksillä on varaa palkata.Avaa kuvien katseluMitä enemmän koulutusta työ vaatii, sitä paremmat mahdollisuudet työntekijällä on kilpailuttaa palkkansa. Kuva: Henrietta Hassinen / YleTotta: Ruotsissa osa sairaanhoitajista hyötyiMyös Arto Satosen viittaus Ruotsiin ja hoitoalan kuoppakorotuksiin pitää paikkansa. Ruotsissa sairaanhoitajat ja opettajat ovat siirtyneet palkankorotuksissa täysin paikallisen sopimisen piiriin.Laboren Merja Kauhasen mukaan Ruotsissa nämä ammattiryhmät ovat näin pyrkineet parantamaan suhteellista palkka-asemaansa.Vårdförbundetin mukaan sairaanhoitajat ovat saaneetkin palkkanormia korkeampia korotuksia. Kaikille ei ole näin käynyt.– Mutta ruotsalaisen tutkimuksen mukaan täysin paikallisen sopimisen aikakaudella sairaanhoitajien keskuudessa palkkahajonta on kasvanut, sanoo Merja Kauhanen.Myös lähihoitajat ovat saaneet vientialan palkkanormia paremman korotuksen.– Se onnistui, koska sillä kierroksella (Suomen SAK:ta vastaava) keskusjärjestö LO tuki hoitajien tavoitetta, Merja Kauhanen sanoo.Kysytään vielä kerran: onko mahdollista, että hoitajat voisivat hyötyä hallituksen mallista ja kuroa palkkakuoppaa umpeen?– Ei ole kiveen kirjoitettu etteikö näin voisi käydä, vastaa Etlan Antti Kauhanen.Totta: Suomessa ei ehkä käy näinAntti Kauhanen kuitenkin lisää, ettei sen perusteella, miten Ruotsissa on käynyt, voi vetää johtopäätöksiä.– Ei voi ennakoida, miten Suomessa kävisi. Tulokset riippuvat hyvin paljon ympäristöstä eli koko työmarkkinajärjestelmästä sekä talouden tilanteesta.Talouden tilanne on Suomessa huonompi kuin Ruotsissa. Kunnat ja hyvinvointialueet rypevät talousvaikeuksissa ja ovat säästökuurilla, sairaalaverkkoa karsitaan.On perusteltua kysyä onko niillä halua tai välttämättä edes kykyä kiriä kiinni vientiteollisuuden palkankorotuksia.Näin on todennut myös Arto Satonen. Hallituksen talousuudistusten yhtenä maalina on hänen mukaansa turvata yhteiskunnan varoilla kustannettavat hyvinvointialueiden palvelut – johon henkilökuntakin kuuluu.Avaa kuvien katseluAsiantuntijoiden mukaan erot Suomen ja Ruotsin työmarkkinajärjestelmissä ovat suuret. Ruotsissa luottamus on johtanut siihen, että lakkoja on vähemmän. Myös keskusjärjestöt kantavat vastuuta palkkojen kilpailukyvystä. Kuva: Pauliina Happo / YleTotta: Suomeen tulisi eri vientimalliRuotsissa vientimalli on ollut käytössä 90-luvulta, mutta sitä ei ole kirjattu lakiin.Asiantuntijoiden mukaan erot järjestelmissä ja neuvottelukulttuurissa ovat valtavat. Ruotsissa neuvottelu perustuu luottamukseen, sillä mallin omistajuus on työmarkkinaosapuolilla eikä poliitikoilla.Pyrkimys palkkatasa-arvoon on Ruotsissa nivottu osaksi järjestelmää, sovittelijantoimisto seuraa tilastoja.Myös ammattiliitot ja keskusjärjestöt kantavat vastuuta työn kilpailukyvystä, sillä palkankorotusten hillintä on niidenkin intressissä.– Jos liittojen ylin peruste on saada aina kovemmat palkankorotukset kuin joku muut, inflaatio lähtee laukkaamaan jolloin reaalipalkkojen kehitys on negatiivista, Etlan Kauhanen sanoo.Totta: Ruotsissa vähemmän lakkojaLuottamukselliset välit ovat johtaneet muun muassa siihen, että lakkoja on Ruotsissa vähemmän. Niitä ei ole Ruotsissa rajoitettu lailla tai oikeuskäytännöllä, kuten ministeri Satonen on elinkeinoelämälta saamiinsa tietoihin viitaten sanonut.Laboren Merja Kauhasen mukaan se, että valtakunnansovittelijan rooli sidotaan lakiin, voi saada vientimallin vaikutukset näyttäytymään meillä aivan toisenlaisina kuin Ruotsissa.– Esimerkiksi Ruotsissa lähihoitajien palkankorotuksen edellytys oli että sen tukena oli työmarkkinakeskusjärjestö, eikä laki rajoittanut sitä.Ruotsissa paikallisen sopimisen yleistyminen on Merja Kauhasen mukaan rapauttanut palkkamalttia.– Paikallisten sopimusten yleistyminen on nähty myös uhkana vientivetoisen mallin palkkanormin merkitykselle. Juuri täysin paikalliset sopimiset ovat hajauttaneet tätä kehitystä, hän sanoo.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>30</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Valko­ve­nä­läinen Veranika Yanets, 34, jäi Suomessa ilman töitä – nyt hän omistaa trendikkään yrityksen</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20075745</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>25.02.2024</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Kukkakimpun muotoon sidotut syötävät kimput nousivat suosioon Euroopassa kolmisen vuotta sitten. Suomessa on muutamia alan osaajia, joista yksi on Veranika Yanets.</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Valkovenäläisen Veranika Yanetsin matka Suomeen ja Espooseen alkoi Bulgariasta. Tuolloin 28-vuotias nuori nainen oli rantalomalla ja tapasi yllättäen Suomessa asuvan venäläistaustaisen miehen.Lomaromanssista alkanut suhde johti lopulta siihen, että Yanets ja hänen edellisestä suhteesta oleva lapsi muuttivat miehen luokse Espooseen, vaikka hänellä oli vakituinen työ erityisopettajana.Tämä viitisen vuotta sitten alkanut elämänmuutos on vaatinut sitkeyttä. Uudessa kotimaassa erityisopettajan työtä ei voinut jatkaa kielen ja Suomessa vaadittujen lisäopintojen vuoksi.Tämä tarkoitti sitä, että uudessa maassa piti hankkia myös uusi ammatti.– Ilman puolison ja ystävien tukea en olisi pystynyt perustamaan yritystä.Ammatinvalinta alkoi hahmottua, kun Yanets muisti, kuinka paljon hän nautti askarteluista ollessaan erityisopettaja.Yanetsin käsissä muodostuu kimppuja, jotka haastavat perinteisen kukkakimpun. Kukkien rinnalle voidaan kimppuun lisätä syötäviä tuotteita, jotka suojataan huomaamattomasti paperilla tai muovilla.Yanets pääsi kieliharjoitteluun suomalaiseen kukkakauppaan, mikä oli onnenpotku. Hän oppi sitomaan kimppuja ja pääsi sommittelemaan kukka-asetelmia – ja oppi samalla myös suomea.Kukkakaupan kimppuja asiakkaille pyörittäessä hän pohti, millaista jokin täysin uudenlainen yritystoiminta voisi olla kukkien parissa.Instagramissa Yanets törmäsi kuviin mansikkakimpuista.– Näin kauniita suklaalla kuorrutettuja mansikoita nätteihin kääreisiin pakattuna. Ihastuin heti tähän erilaiseen kimppuideaan.Hän ryhtyi kokeilemaan kotona suklaakuorrutettujen mansikoiden valmistamista. Suklaa ei kuitenkaan pysynyt mansikassa ja lopputuloksesta tuli kehno. Erikoiskimppujen solmimiseenkin piti saada vielä lisäoppia.– Suomessa ei opeteta syötävien kimppujen sidontaa, joten suoritin valkovenäläisen verkkokurssin, jossa opetetaan ”food floristiksi”. Sieltä opin erilaisia tekniikoita ja toteutustapoja.Yanets oppi, että kimppuja voi toteuttaa monenlaisin menetelmin esimerkiksi juustoista, pähkinöistä, vihanneksista, hedelmistä, suklaasta, vaipoista, juomista tai vaikka donitseista.Kursseilla hän sai myös arvokkaita kontakteja alan muihin osaajiin ympäri Eurooppaa.Ensimmäinen herkkukimppu, jonka Yanets solmi, oli syntymäpäivälahja omalle miehelle Vassili Bobyleville.Puoliso ei piittaa suklaasta, joten näyttävä kimppu hänelle syntyi makkaroista ja juustoista– Mieheni mielestä kimppu oli paitsi kaunis myös hyvänmakuinen. Tähän yhtyivät myös hänen kaverinsa, jotka osallistuivat piknikille, kertoo Yanets.Hän valokuvasi miehensä avustuksella kimppua kauniissa merenrantamaisemissa ja julkaisi myöhemmin kuvia Instagramissa. Ystävät ja tuttavat kiinnittivät huomion erikoiseen ideaan ja Yanetsille alkoi tulla yhteydenottoja eri tahoilta.Kolme vuotta sitten Yanets perusti yrityksen. Ystävät ja puoliso ovat auttaneet muun muassa erilaisten lupien hankkimisessa ja niiden tekstien suomentamisessa.Yanets selvitti, miten Suomessa perustetaan yritys, hankki tarvittavat elinkeinon harjoittamiseen liittyvät luvat kaupungilta. Lisäksi piti suorittaa hygieniapassi ja perustaa nettisivut.Kotiinsa hän varasi askartelutarvikkeita täynnä olevan työhuoneen, joka soveltuu myös somekuvaukseen, ja tilasi jopa valokyltin, joka vastaa yrityksen ilmettä.Yrityksen perustaminen on siis vaatinut sinnikkyyttä ja vaivannäköä.– Mieheni muistutti, että ei saa tyytyä siihen, mitä on jo saavuttanut. Hän sanoi, että on mentävä eteenpäin ja taisteltava.Kukkien sijaan Yanetsin kimpuissa saattaa olla vaikkapa vihanneksia. Esimerkiksi morsiuskimpussa pionien ja ruusujen sijaan on parsakaalia tai chilejä.Yanets haluaa tarjota kokonaisvaltaisen elämyksen herkkukimpuillaan.Syötäviä kimppuja on nähty myös televisiossa viime vuoden Olet mitä syöt -ohjelmassa. Terveyskimppuja annettiin aina jakson päätteeksi muutokseen osallistuneille julkisuuden henkilöille.Vihanneksia, hedelmiä ja marjoja sisältävät kimput olivat juuri Yanetsin käsialaa.Tubettaja Pinja Sanaksenaho sai televisio-ohjelmassa marjoista ja rosmariinioksista toteutetun kimpun.Hän on päässyt toteuttamaan kimppuja muun muassa suklaamunista Lastensairaalaan, viinipullonkorkeista ravintolaan ja smoothiejuomista lastenjuhliin.– On ihanaa nähdä ihmisten hymyilevän ja huutavan wau, kun he näkevät ensimmäisen kerran kimpun. Tulen myös itse iloiseksi, koska tekemäni kimput ilahduttavat muita.Yanets kokee olevansa onnellinen tehdessään kimppuja ja ajatteleekin löytäneensä kutsumusammattinsa.Suklaakuorrutetut mansikat syntyvät nykyään vaivatta oikeanlaisen menetelmän ja laadukkaan suklaan ansiosta.Syötävät kimput ”trendasivat” Euroopassa kolmisen vuotta sitten. Herkkukimppujen tyylit vaihtelevat sitä mukaan, kun alan ammattilaiset julkaisevat valokuvia sosiaalisessa mediassa.Suomessa on muutamia alan osaajia, joiden joukosta Yanets toivoo erottautuvansa luovuudella ja kekseliäisyydellä.Lisäksi hänen tavoitteenaan on kokeilla koko ajan vaikeampia kimppukokonaisuuksia. Siihen tarvitaan välillä puolisonkin apua.– Suunnittelen tilauskimput ensin paperille, jonka jälkeen teen niistä prototyypin. Jos painava kimppu vaatii tukevaa runkoa pysyäkseen pystyssä ilman maljakkoa, mieheni nikkaroi sellaisen.Katso alla olevalta videolta, kuinka Veranika Yanets valmistaa lakritsasta valtavan mikrofonin.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>30</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Ulla Järven kolumni: Suomalaisia pelotellaan, ja moni taho hyötyy siitä</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20075391</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>22.02.2024</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
         <is>
           <t>Pelko myy. Mediakin kertoo mieluummin huolestuttavia kuin hyviä uutisia. On yllättävää, miten moni taho myös hyötyy pelosta.</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>KolumniKolumneja kirjoittaa laaja joukko Ylen ulkopuolisia tekijöitä.Lue kolumneja
 Kuuntele kolumneja Yle AreenassaTammikuun lopulla saimme kuulla hätkähdyttäviä tutkimustuloksia: melkein joka kymmenes helsinkiläisnuori kuuluu jengiin, turkulaisnuoristakin kahdeksan prosenttia. Helsingin yliopiston tiedotteessa tosin mainittiin (kuin lohdutuksena suomalaisille) tieto, että Tukholmassa joka kuudes nuori kuuluu jengiin.Tutkimuksen mukaan ”nuoret, jotka olivat mukana jengeissä, tekivät muita todennäköisemmin omaisuusrikoksia, väkivaltarikoksia ja huumeiden myyntiä”. Tätä toistettiin myös lukuisissa uutisissa, joita tiedotteesta tehtiin. Jos hieman kärjistän, syntyi kuva, että rikoksia tehtaillaan jengeissä, joten pelkkä jengiin kuuluminen altistaa nuoren rikoskierteelle.Vaihdetaanko näkökulmaa? Tämä tuore tutkimus osoitti, että Suomessa ollaan vielä kaukana ruotsalaisesta katujengikulttuurista. Tosin uutismediassa siihen paneuduttiin vasta muutama päivä alkuperäisen tutkimusuutisen jälkeen.Ostoskeskuksissa aikaansa viettäviä nuorisoporukoita ei pidä sekoittaa järjestäytyneisiin rikollisorganisaatioihin, joista poliisi on huolissaan.Tutkimuksen tekijä, yliopistotutkija Markus Kaakinen toteaa Turun Sanomien haastattelussa (4.2.), että katujengeistä on meillä puhuttu viime vuosina poliisin käyttämällä terminologialla. Poliisi tutkii ryhmiä, joissa on vakavan rikollisuuden uhkaa.Kaakinen muistuttaa, että Suomessa on vuosikymmeniä ollut erilaisia nuorisojengejä. Ostoskeskuksissa aikaansa viettäviä nuorisoporukoita ei pidä sekoittaa järjestäytyneisiin rikollisorganisaatioihin, joista poliisi on huolissaan.Moinen maltillisuus ei ole medialle yhtä kiinnostavaa kuin huolenaiheet – ja varsinkin suurta yleisöä koskettavat huolet. Ja toisaalta myös median yleisössä on niitä, joita pelon ilmapiiri tavallaan hyödyttää.Esimerkiksi katujengi-käsite nousi meillä vuoden 2023 eduskuntavaalien yhdeksi puheenaiheeksi. Nykyinen hallituskin perustelee politiikkaansa kovin usein puhumalla niin sanotusta Ruotsin tiestä.Pelolla voi tehdä rahaa, hamuta vaikutusvaltaa tai vaikuttaa mielipiteisiin.Median yleisössä on niitä, joita pelon ilmapiiri tavallaan myös hyödyttää.Esimerkiksi poliisin määrärahoista päätetään eduskunnassa. Kahden sadan kansanedustajan arvioon poliisien tarpeellisuudesta vaikuttaa myös mediajulkisuus. Poliisi nauttii suomalaisten parissa suurta luottamusta: peräti 91 prosenttia suomalaista luottaa poliisiin paljon tai erittäin paljon.Poliisin on tietysti perusteltua viestiä niistä vaaroista, jotka kansalaisia uhkaavat. Mutta koska huolestuttavat ja huonot uutiset keräävät enemmän yleisöä kuin hyvät uutiset, media toistaa poliisin esittämät näkökulmat rikollisuudesta useimmiten sellaisinaan.Poliisin ja median välillä vallitseekin kimurantti ja erityinen suhde. On kiintoisaa, että vuonna 2017 tehdyssä väitöstutkimuksessa peräti 83 prosenttia haastatelluista toimittajista pitää poliisin toimintaa luotettavana. Tosin viime vuosina poliisi on toimillaan lyönyt kiilaa tuohon luottamukseen – muun muassa Elokapina-mielenosoitusten kovien otteiden yhteydessä.Ajoittain uutismedia kurkistaa myös poliisin viestintää syvemmälle. Helsingin Sanomien äskettäisessä jutussa kriminologi Matti Näsi katsoo nuorten rikostilastoja poliisia pidemmällä, liki 30 vuoden perspektiivillä. Hän toteaa nuorisorikollisuuden todellisuudessa vähentyneen tuntuvasti. ”Kännykän räpellys pitää nuoret poissa pahanteosta”, kuvaa Näsi tapakulttuurin muutosta. Rikostilastoja tuottaa vain pari prosenttia nuorista.Myös monet tutkimusorganisaatiot joutuvat perustelemaan tarpeellisuutensa kiinnittämällä huomion ongelmiin ja epäkohtiin.Poliisi ei suinkaan ole ainoa viranomaistoimija, jonka asemaan ja rahoitukseen vaikuttavat kansalaisten kokema luottamus, mutta myös huolen ja pelon ilmapiiri. Monet puolueettomat tutkimusorganisaatiot saavat valtaosan tuloistaan eduskunnan jakamista verovaroista.Nämäkin organisaatiot joutuvat perustelemaan tarpeellisuutensa kiinnittämällä huomion ongelmiin ja epäkohtiin. Huolia vailla oleva kansakuntahan ei kaipaa kehittämishankkeita tai jatkotutkimuksia.Vuoden 2023 syksyllä Terveyden ja hyvinvoinnin laitos (THL) tiedotti, että turvattomaksi päivittäisen elämänsä kokee vain noin neljä prosenttia suomalaisista. Terve Suomi -tutkimuksen mukaan noin 80 prosenttia suomalaisista koki tyytyväisyyttä myös asuinalueensa oloihin. Asuttiin sitten maalla tai kaupungissa, kotikulmiin oltiin tyytyväisiä.Jostain syystä tämä ilahduttava tutkimustulos löytyy vasta THL:n tiedotteen hännilltä. Pääasiaksi tiedotteen otsikkoon nostettiin suomalaisten rahapula: joka viides vastaaja oli joutunut tinkimään ruoasta ja lääkkeistä.Hyvä, että nostettiin: tinkimään joutuva viidesosa kansasta on toki aidosti huolestuttavan suuri määrä.Mutta ehkä riemastuttavan tiedon suomalaisten turvallisuudentunteesta olisi voinut tarjoilla ihan omana uutistiedotteenaan. Tai sitten hyvät uutiset eivät tosiaan ole uutisia – eivät edes tutkimuslaitoksen tiedotteessa.Ulla JärviKirjoittajan mielestä hyvinvointia ja turvallisuutta lisäävät hyvät uutiset. Niissä kerrotaan, miten voimme vaikuttaa elämäämme ja koko maapallon tulevaisuuteen.</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="93">
+      <c r="A93" t="n">
         <v>31</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Antti Hevosmaan kehittämä koriste päätyi aasialaisen some­vai­kut­tajan Instagramiin – alle viikossa 1,6 miljoonaa katselua</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20075750</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>25.02.2024</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Hevosmaa opiskelee muotoilua Kaakkois-Suomen ammattikorkeakoulussa Kouvolassa. Hän sai konkreettisesti huomata, miten suuri merkitys sosiaalisella medialla on aloittelevalle muotoilijalle.</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Muotoilua opiskeleva, 32-vuotias Antti Hevosmaa katsoi helmikuun alussa epäuskoisena Instagramia. Singaporelainen somevaikuttaja @madspatial oli tehnyt Hevosmaan kehittämästä puisesta koriste-esineestä videon, joka oli kerännyt huiman määrän katseluita.– Kuudessa päivässä niitä oli tullut 1,6 miljoonaa. Samassa aloin saada satoja viestejä, joissa kysyttiin mitä Kyklooppi-koriste maksaa ja mistä niitä voi tilata, kertoo Hevosmaa.Avaa kuvien katseluKyklooppi-koriste on tehty koivuvanerista leikatuista säikeistä. Kuva: Maija Tuunila / YleHevosmaan koriste päätyi aasialaisen somevaikuttajan tilille Hevosmaan oman Instagram-tilin kautta.– Mietin, että pitäähän tämä koriste laittaa esille. Postasin muutaman videon, ja singaporelainen otti minuun yhteyttä. Lähetin hänelle yhden kappaleen, ja hän teki siitä videon, joka sitten sai uskomattoman näkyvyyden, selvittää Hevosmaa.Avaa kuvien katseluSingaporelainen somevaikuttaja teki Antti Hevosmaan koristeesta videon, jota alle viikossa katsottiin 1,6 miljoonaa kertaa. Kuva: Maija Tuunila / YleKoriste on tehty ohuesta koivuvanerista, josta on laserilla leikattu erikokoisia pyöreitä säikeitä. Säikeet on kiinnitetty toisiinsa kalastussiimalla. Kun säikeitä tönäisee, ne alkavat pyöriä ja koriste muodostaa erilaisia kuvioita.”Somen vaikutus on uskomaton”Antti Hevosmaa opiskelee muotoilua Kouvolassa Kaakkois-Suomen ammattikorkeakoulussa Xamkissa, jossa hän myös kehitti koristeen. Hänellä ei ole niitä kuin muutama kappale, joten hänen piti vastata sadoille kysyjille, ettei niitä saa vielä mistään.– Eräskin Hollywoodissa vaikuttava henkilö laittoi minulle pari päivää sitten viestin ja kyseli, mistä koristeen saa. Hänellekin piti myydä tässä vaiheessa eioota, nauraa Hevosmaa.Videon katsojamäärät kasvavat koko ajan. Nyt niitä on 1,7 miljoonaa.Hevosmaa aikoo lähiaikoina perustaa oman yrityksen, jolloin hän pääsee tekemään Kyklooppi-koristeita myyntiä varten.– Toivottavasti toiminta lähtee hyvin käyntiin ja saan jatkaa omaa luovaa toimintaa sekä suunnitella erilaisia esineitä ja asioita, toteaa Hevosmaa.Avaa kuvien katseluSäikeiden pyöriessä Kyklooppi-koristeeseen tulee erilaisia muotoja. Kuva: Maija Tuunila / YlePelkona plagiaatitVaikka kyselyitä Kykloopista on tullut valtavasti, Antti Hevosmaa ei ole varma, tuleeko siitä menestystuote.– Voihan olla, että tilauksia ei tulekaan. Tai jos niitä tulee paljon, enkä pysty vastaamaan kysyntään, joku taho voi kopioida tuotteen ja myydä niitä massana.Patenttia Hevosmaalla ei Kykloopista vielä ole.– Toki sellaisen aion hankkia, mutta se on kallis ja hidas prosessi. Tässä vaiheessa keskityn siihen, että saan firman pystyyn ja homman pyörimään, sanoo Hevosmaa.Unessa nähty tuoli innosti muotoiluunAntti Hevosmaan kiinnostus muotoiluun heräsi kymmenisen vuotta sitten. Hän teki aktiivisesti musiikia, mutta ei ollut tyytyväinen tekemiseensä. Hän alkoi miettiä, että mitä muuta voisi tehdä. Jotain sellaista, ettei musiikkia tarvitsisi kuitenkaan hylätä.– Eräänä yönä näin unen tuolista. Isäni on taitava tekemään puutöitä, joten aloin rakentaa tuolia hänen kanssaan. Niitä syntyikin sitten useampi, kertoo Hevosmaa.Avaa kuvien katseluAntti Hevosmaa näki tämän tuolin unessaan kymmenisen vuotta sitten. Siitä heräsi kiinnostus muotoiluun. Hän on viime aikoina hieman jalostanut tuolia. Kuva: Aino RämäHevosmaa huomasi, homma on sen verran mukavaa, että lähtee opiskelemaan alaa. Nyt hän on viimeistä vuotta sisustusarkkitehtuuri- ja kalustesuunnittelun koulutuksessa.Musiikkia hän ei hylännyt, vaan se on kulkenut muotoilun rinnalla. Hevosmaa kuuluu Virta-nimiseen yhtyeeseen, joka oli vasta Emma-gaalassa ehdolla vuoden jazz -kategoriassa.– Toivon, että tulevaisuudessa saisin yhdistettyä muotoilun ja musiikin. Ehkä esineet alkavat pitää ääntä tai äänestä tulee muotoja, sanoo Hevosmaa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>31</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Kärsi­väl­lisyys on hyve! Mikko Rantanen odotti ja sivalsi sitten kauden kauden 30. maalinsa: ”Olen syöttänyt liikaa”</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076313</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>25.02.2024</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dallas Stars katkaisi neljän ottelun tappioputkensa, kun se voitti suomalaisjoukkueiden kohtaamisessa Carolina Hurricanesin 2–1. </t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>NHL-joukkue Colorado Avalanchen suomalaishyökkääjä Mikko Rantanen iski kauden 30. maalinsa, kun Avalanche taipui hurjavireiselle Toronto Maple Leafsille 3–4.Neljän maalittoman ottelun jaksonsa katkaissut Rantanen sivalsi kolmannessa erässä siniviivan tuntumasta tarkalla rannelaukauksella pelin 3–3:een odotettuaan maltilla täydellistä laukaisupaikkaa.– Mikko Rantanen! Kärsivällisyys on hyve!, NHL-selostajat intoilivat.Osuma oli Rantaselle uran 250:s NHL:ssä. Samalla suomalaistähdestä tuli Avalanchen historian ensimmäinen pelaaja, joka on onnistunut tekemään yli 30 maalia neljällä peräkkäisellä kaudella.Ottelusta myös syöttöpisteen keränneellä Rantasella on nyt yhteensä viisi yli 30 maalin kautta. Samaan ovat Avalance/Nordiquesin historiassa yltäneet vain Joe Sakic (yhdeksän kautta), Peter Statsny (8), Michek Goulet (8), Nathan MacKinnon (6) ja Milan Hejduk (5).Coloradolta myös avausmaalin ylivoimalla sisään ohjannut Artturi Lehkonen pääsi pisteille. Hän pelasi uransa 500. NHL-ottelun.Suomalaisten esitykset eivät kuitenkaan riittäneet voittoon, vaan Toronto kasvatti voittoputkensa seitsemään otteluun syntymäpäiväsankari Tyler Bertuzzin hattutempun siivittämänä.– Luulen, että olen yrittänyt syöttää viime aikoina liikaa. Tänään yritin hyökätä ja liikkua eteenpäin enemmän. Olisin toivonut, että saamme vielä maalin, mutten voi sille mitään. Rantanen sanoi NHL:n sivuilla.Colorado on läntisessä konferenssissa neljäntenä, Toronto samalla sijalla itäisessä.Suomalaistähdet kohtasivatDallas Stars katkaisi neljän ottelun tappioputkensa, kun se voitti suomalaisjoukkueiden kohtaamisessa Carolina Hurricanesin 2–1. Sebastian Aho oli edellisen Carolinan ottelun tapaan joukkueensa ainoa maalintekijä.Aho pääsi toisessa erässä läpiajoon ja viimeisteli varmasti 1–1:een. Osuma oli Aholle kauden 22:s.Dallasin voittomaalin iski Miro Heiskasen käynnistämästä vastahyökkäyksestä Wyatt Johnston. Heiskanen syötti myös Jason Robertsonin tekemän avausmaalin.Heiskanen valittiin ottelun kakkostähdeksi Johnstonin jälkeen. Aho valittiin kolmostähdeksi.Dallas on läntisessä konferenssissa toisena, Carolina itäisessä konferenssissa viidentenä.Maali kirjattiin yön kierroksella myös Florida Panthersin Aleksander Barkoville, joka teki joukkueensa 2–2-tasoituksen ylivoimalla kolmannessa erässä Washington Capitalsia vastaan. Ratkaisua haettiin jatkoajalta, ja voittomaalin teki Floridan Gustav Forsling.San Jose Sharksin Mikael Granlund viimeisteli kauden seitsemännen osumansa etukulmasta ohi Nashville Predatorsin maalivahti Juuse Saroksen. Granlund kavensi maalillaan tilanteeksi 2–1, mutta Nashville voitti ottelun 4–2. Saros torjui ottelussa 23 laukausta.Katso suomalaismaalit tästä. Granlundin maali: NHL.com.NHL-seuranta ja sarjataulukot.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>31</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>Venäjällä mainostetaan Reiman tytäryhtiön myymälää – Reima: Ei yhteyttä Suomeen</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20075985</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>22.02.2024</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
         <is>
           <t>Reiman edustaja korostaa, että yhtiö on poistunut Venäjän markkinoilta vuonna 2022, ja venäläisellä Lassie-ketjulla ei ole mitään yhteyttä Reimaan tai Suomeen.</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>Useat venäläiset mediat uutisoivat tänään, että suomalaisen lastenvaatebrändin myymälä on avattu Pietariin. Asiasta kirjoittivat muun muassa Izvestija, 78 TV-kanava, pietarilainen talouslehti Delovoi Peterburg ja Komsomolskaja Pravda -iltapäivälehti.Tiedotusvälineet väittävät, että Lassie-brändi on Reiman tytäryhtiö. Lassie-yrityksen venäjänkieliset verkkosivut antavat sellaisen vaikutelman, että Reiman ja venäläisen yrityksen välillä on yhteys.– Lassie-merkin osti 80-luvulla Suomen tunnetuin lastenvaateyritys Reima, lukee Lassien historia -sivustolla, joka kertoo myös brändin luomisesta Kokkolassa.Yhtiön verkkosivuilla olevien yhteystietojen ja venäläisten yritysten tietokantojen mukaan Lassie on rekisteröity Moskovaan.Reiman viestintäpäällikkö Riikamaria Paakkunainen kertoi Ylelle, että suomalaisella lastenvaatevalmistajalla ei ole mitään tekemistä uutisen kanssa.Hänen mukaansa Reima on lopettanut tuotteiden toimitukset Venäjälle vuonna 2022. Sen jälkeen yhtiö on vetäytynyt Venäjältä kokonaan ja myynyt maassa toimineen tytäryhtiönsä vuonna 2023.– Artikkelin lause ”Se on Reiman tytäryhtiö” ei pidä paikkaansa. Lassie-brändi on toki alkujaan kotoisin Suomesta, mutta tällä nykyisellä venäläisellä Lassie-ketjulla ei ole yhteyttä Reimaan tai Suomeen. Se ei ole enää ”suomalainen” eikä Reiman omistuksessa, korostaa Paakkunainen.Venäläiset brändit ovat yrittäneet nopeasti korvata Venäjältä poistuneet suomalaiset tuotemerkit uusilla samannäköisillä tuotteilla. Näin tapahtui esimerkiksi Pauligille ja Valiolle.</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="96">
+      <c r="A96" t="n">
         <v>31</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Antti Hevosmaan kehittämä koriste päätyi aasialaisen some­vai­kut­tajan Instagramiin – alle viikossa 1,6 miljoonaa katselua</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20075750</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Venä­läis­mediat: Navalnyin asianajaja vapautettiin – ei kertonut syytä aiemmalle pidätykselle</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076692</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Riippumaton venäläismedia Vjorstka kertoi tiistai-iltana, että Navalnyin asianajaja Vasili Dubkov vapautettiin pian pidätyksen jälkeen.</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Venäjällä rangaistussiirtolassa kuolleen oppositiopoliitikko Aleksei Navalnyin asianajaja Vasili Dubkov pidätettiin Moskovassa tiistai-iltana, kertoo Latviasta käsin toimiva riippumaton venäjänkielinen media Novaja Gazeta Europe sekä viestipalvelu Telegramissa toimiva venäläinen media SOTA.Riippumaton venäläismedia Vjorstka kertoi sittemmin, että Dubkov vapautettiin pian pidätyksen jälkeen. Dubkov itse ilmoitti vapautumisestaan Vjorstkalle.Dubkov ei suostunut kommentoimaan pidätyksen syytä. Hän kuitenkin totesi pitävänsä pidätystä ”asianajan oikeudellisen toiminnan estämisenä”.Seka Novaja Gazetan että SOTA:n mukaan Dubkov pidätettiin järjestysrikkomuksen vuoksi. SOTA:n lähteiden mukaan Dubkov vietiin Štšerbinkan kaupungin poliisilaitokselle. Kaupunki sijaitsee noin 37 kilometriä Moskovasta etelään.Dubkov auttoi myös kuolleen Navalnyin äitiä Ljudmila Navalnajaa saamaan poikansa ruumiin itselleen.Navalnyin korruptiota vastustavan järjestön työntekijöitä ja hänen tukijoitansa on pidätetty aiemminkin Venäjällä.Lähde: ReutersJuttua päivitetty 27. helmikuuta kello 19.42: Lisätty tieto pidätyksen syystä. Lisätty myös tieto siitä, mille poliisiasemalle Dubkov on mediatietojen mukaan viety.Juttua päivitetty 27. helmikuuta kello 20.02: Tarkennettu, että Novaja Gazeta Europe on Latviasta käsin toimiva venäjänkielinen media.Juttua päivitetty 27. helmikuuta kello 20.18: Lisätty tieto Dubkovin vapauttamisesta.Juttua tarkennettu klo 21:12, että Dubkov auttoi äitiä saamaan poikansa ruumiin. Aiemmin jutussa luki, että Dubkov olisi edustanut äitiä.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>32</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Orpo ehdotti velkakattoa lakiin – asiantun­ti­joiden mukaan maailmalta löytyy lähinnä huonoja esimerkkejä</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20075950</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>22.02.2024</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Huono velkakatto jäykistää. Suomalainen versio tulisi tehdä riittävän laajassa poliittisessa yhteisymmärryksessä.</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Pääministeri Petteri Orpo (kok.) ehdotti Uutissuomalaisen haastattelussa valtiolle lakiin säädettyä velkakattoa. Ylen haastattelemat talousasiantuntijat suhtautuvat ajatukseen varoen – ja osa myös myönteisesti.Helsingin yliopiston poliittisen talouden tutkija Antti Ronkainen sanoo, että lailla voidaan pakottaa poliitikot tekemään tarpeellisia valintoja – mutta velkakatossa on myös riskinsä.– Lakiin kirjattu tavoite ei huomioi vallitsevaa taloudellista tai maailmanpoliittisia tilannetta. Se sitoo hallitusten talouspolitiikkaa ja estää niiden kykyä vastata ajankohtaisiin ongelmiin, Ronkainen sanoo.– Lopputulos voisi johtaa liian kireään finanssipolitiikkaan tällä tai tulevilla hallituskausilla.Ronkaisen mukaan huono velkakatto estää tarkoituksenmukaista talouspolitiikkaa. Se näkyy hänen mukaansa Yhdysvalloissa, jossa velkakatosta on tullut poliittinen lyömäase. Aina kun velkakatto ylittyy, liittovaltio keskeyttää palkanmaksun ja joutuu sulkemaan virastoja.– Sehän on poliittisesti ja taloudellisesti erittäin epätarkoituksenmukaista, että maailman mahtavin valtio ei suoriudu sille säädetyistä velvollisuuksista, Ronkainen sanoo.Antti Ronkainen velkakaton vaikutuksistaToinen esimerkki epätarkoituksenmukaisuudesta on Ronkaisen mukaan Saksa. Siellä velkakatto – tai paremminkin 0,35 prosentin vuotuinen alijäämäjarru – kirjattiin viitisentoista vuotta sitten perustuslakiin.Viime vuosina Saksa on kuitenkin joutunut moneen kertaan käyttämään poikkeusmenettelyjä voidakseen ratkoa esimerkiksi pandemiaongelmia. Ronkaisen mukaan rahoja on koronan varjolla käytetty myös vihreään siirtymään ja moniin energiapoliittisiin toimiin – kunnes perustuslakituomioistuin puuttui peliin.– Perustuslakituomioistuin katsoi, että näin ei voida toimia. Sen seurauksena Saksa joutuu tällä hetkellä tekemään erittäin kovia leikkaustoimia, hän sanoo.– Velkajarrun takia joudutaan tekemään liian kireää talouspolitiikkaa, eikä voida vastata Saksan syvempiin rakenteellisiin ongelmiin, eli erityisesti energiaomavaraisuuteen.Vihriälä: EU:lla on jo velkakatto – ja kohta myös aikataulu sen saavuttamiseenMyös pitkän linjan talousekonomisti Vesa Vihriälä pitää yhdysvaltalaistyyppistä velkakattoa huonona ajatuksena.– Se ei ole johtanut siellä mihinkään hyvään paitsi isoihin riitoihin. Ja kun niihin törmätään, on vaikea löytää kompromisseja. Velkaantumisen rajoittaminen kyllä on tarpeen.Vihriälä muistuttaa, että yksi Suomea velvoittava velkakatto on jo olemassa. EU-jäsenyys edellyttää, ettei velan suhde bruttokansantuotteeseen saa nousta yli 60 prosentin.Sen rajan Suomi ja moni muu valtio on jo ylittänyt. Vakaus- ja kasvusopimuksen valmistelussa oleva uusi versio puuttuu kuitenkin tilanteeseen. Maiden joiden valkaantumisaste on 60–90 prosenttia, tulee laskea sitä puoli prosenttiyksikköä vuodessa.– Voidaan toki kysyä, onko tämä kansallisen politiikkamme näkökulmasta riittävän vaativa tavoite. Tulisiko sopeutuksen olla vielä nopeampi, tai tulisiko meidän päästä tuon 60 prosentin alle ja lähemmäs pohjoismaisia verrokkeja?Vihriälän mukaan tällaiset päätökset edellyttävät kuitenkin parlamentaarista yli hallituskausien ja puoluerajojen ulottuvaa yhteisymmärrystä siitä, millaista velkaantumisen lasku-uraa Suomessa tavoitellaan.– Ja se voidaan sitten myös johonkin puitelakiin kirjata, mihin Suomi on sitoutunut. Ja jokainen hallitus voisi tuota tavoitetta sitten omalla tavallaan toteuttaa.”Tehdään itse parempi”Pellervon taloustutkimus PTT:n toimitusjohtaja Markus Lahtinen kannattaa Orpon ehdotusta lakiin kirjatusta velkakatosta. Suomen velkaantuminen on painettava alle 60 prosentin tason.– Mutta sovitaan mikä tahansa taso, niin tässä pitää sopia usean vaalikauden pituisesta sopeutusurasta, hän sanoo.– Missään nimessä kevään kehysriihessä ei pidä sopia vielä mitään.Lahtinenkin näkee myös riskejä – kuten talouden rakenteiden jäykistymisen.– Yhdysvallat on juuri esimerkki huonosta valmistelusta ja jäykkyydestä. Saksan alijäämäkonseptiin liittyy siihenkin vakavia ongelmia. Meidän ei missään nimessä pidä kopioida muilta vaan tehdä itse parempi.Suomen velkakaton tulisi Lahtisen mukaan huomioida koronan kaltaiset poikkeustilat, kotimaan maanpuolustuksen tarpeet ja monet muut asiat, joita EU ei ota huomioon.Toisaalta niiden vastapainoksi tämän kotimaisen velkakaton tulisi olla riittävän kunnianhimoinen – vähintään pari piirua EU:n minimivaatimuksia tiukempi.– Tässä tarvitaan huolellinen valmistelu ja parlamentaarinen prosessi, johon kaikki puolueet ovat sitoutuneet, Lahtinen sanoo.Voit keskustella aiheesta 23.2. klo 23 saakka.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>32</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Iiu Susirajan taide imee kävijöitä ennä­tys­tahtiin Turussa – yleisö:  ”Outoa”, ”Hassuttelua”, ”Ilahduttavaa”</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076219</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>25.02.2024</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Hevosmaa opiskelee muotoilua Kaakkois-Suomen ammattikorkeakoulussa Kouvolassa. Hän sai konkreettisesti huomata, miten suuri merkitys sosiaalisella medialla on aloittelevalle muotoilijalle.</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Muotoilua opiskeleva, 32-vuotias Antti Hevosmaa katsoi helmikuun alussa epäuskoisena Instagramia. Singaporelainen somevaikuttaja @madspatial oli tehnyt Hevosmaan kehittämästä puisesta koriste-esineestä videon, joka oli kerännyt huiman määrän katseluita.– Kuudessa päivässä niitä oli tullut 1,6 miljoonaa. Samassa aloin saada satoja viestejä, joissa kysyttiin mitä Kyklooppi-koriste maksaa ja mistä niitä voi tilata, kertoo Hevosmaa.Avaa kuvien katseluKyklooppi-koriste on tehty koivuvanerista leikatuista säikeistä. Kuva: Maija Tuunila / YleHevosmaan koriste päätyi aasialaisen somevaikuttajan tilille Hevosmaan oman Instagram-tilin kautta.– Mietin, että pitäähän tämä koriste laittaa esille. Postasin muutaman videon, ja singaporelainen otti minuun yhteyttä. Lähetin hänelle yhden kappaleen, ja hän teki siitä videon, joka sitten sai uskomattoman näkyvyyden, selvittää Hevosmaa.Avaa kuvien katseluSingaporelainen somevaikuttaja teki Antti Hevosmaan koristeesta videon, jota alle viikossa katsottiin 1,6 miljoonaa kertaa. Kuva: Maija Tuunila / YleKoriste on tehty ohuesta koivuvanerista, josta on laserilla leikattu erikokoisia pyöreitä säikeitä. Säikeet on kiinnitetty toisiinsa kalastussiimalla. Kun säikeitä tönäisee, ne alkavat pyöriä ja koriste muodostaa erilaisia kuvioita.”Somen vaikutus on uskomaton”Antti Hevosmaa opiskelee muotoilua Kouvolassa Kaakkois-Suomen ammattikorkeakoulussa Xamkissa, jossa hän myös kehitti koristeen. Hänellä ei ole niitä kuin muutama kappale, joten hänen piti vastata sadoille kysyjille, ettei niitä saa vielä mistään.– Eräskin Hollywoodissa vaikuttava henkilö laittoi minulle pari päivää sitten viestin ja kyseli, mistä koristeen saa. Hänellekin piti myydä tässä vaiheessa eioota, nauraa Hevosmaa.Videon katsojamäärät kasvavat koko ajan. Nyt niitä on 1,7 miljoonaa.Hevosmaa aikoo lähiaikoina perustaa oman yrityksen, jolloin hän pääsee tekemään Kyklooppi-koristeita myyntiä varten.– Toivottavasti toiminta lähtee hyvin käyntiin ja saan jatkaa omaa luovaa toimintaa sekä suunnitella erilaisia esineitä ja asioita, toteaa Hevosmaa.Avaa kuvien katseluSäikeiden pyöriessä Kyklooppi-koristeeseen tulee erilaisia muotoja. Kuva: Maija Tuunila / YlePelkona plagiaatitVaikka kyselyitä Kykloopista on tullut valtavasti, Antti Hevosmaa ei ole varma, tuleeko siitä menestystuote.– Voihan olla, että tilauksia ei tulekaan. Tai jos niitä tulee paljon, enkä pysty vastaamaan kysyntään, joku taho voi kopioida tuotteen ja myydä niitä massana.Patenttia Hevosmaalla ei Kykloopista vielä ole.– Toki sellaisen aion hankkia, mutta se on kallis ja hidas prosessi. Tässä vaiheessa keskityn siihen, että saan firman pystyyn ja homman pyörimään, sanoo Hevosmaa.Unessa nähty tuoli innosti muotoiluunAntti Hevosmaan kiinnostus muotoiluun heräsi kymmenisen vuotta sitten. Hän teki aktiivisesti musiikia, mutta ei ollut tyytyväinen tekemiseensä. Hän alkoi miettiä, että mitä muuta voisi tehdä. Jotain sellaista, ettei musiikkia tarvitsisi kuitenkaan hylätä.– Eräänä yönä näin unen tuolista. Isäni on taitava tekemään puutöitä, joten aloin rakentaa tuolia hänen kanssaan. Niitä syntyikin sitten useampi, kertoo Hevosmaa.Avaa kuvien katseluAntti Hevosmaa näki tämän tuolin unessaan kymmenisen vuotta sitten. Siitä heräsi kiinnostus muotoiluun. Hän on viime aikoina hieman jalostanut tuolia. Kuva: Aino RämäHevosmaa huomasi, homma on sen verran mukavaa, että lähtee opiskelemaan alaa. Nyt hän on viimeistä vuotta sisustusarkkitehtuuri- ja kalustesuunnittelun koulutuksessa.Musiikkia hän ei hylännyt, vaan se on kulkenut muotoilun rinnalla. Hevosmaa kuuluu Virta-nimiseen yhtyeeseen, joka oli vasta Emma-gaalassa ehdolla vuoden jazz -kategoriassa.– Toivon, että tulevaisuudessa saisin yhdistettyä muotoilun ja musiikin. Ehkä esineet alkavat pitää ääntä tai äänestä tulee muotoja, sanoo Hevosmaa.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>31</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Kärsi­väl­lisyys on hyve! Mikko Rantanen odotti ja sivalsi sitten kauden kauden 30. maalinsa: ”Olen syöttänyt liikaa”</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20076313</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Jo noin 11 000 vierailijaa on käynyt tutustumassa turkulaisen Wäinö Aaltosen museon Ei mikään helppo nakki -näyttelyyn. Talvilomalaisia saapui näyttelyyn muun muassa Helsingistä.</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>WAMin pääaulassa on noin kaksimetrinen valokuva, jossa taiteilija Iiu Susiraja lepää juoksumatolla. Hänellä on myssynsä alla pullapitkot.Nella Kangaslampi on pysähtynyt teoksen ääreen poikansa Kaiku Koskisen kanssa.– Minusta taiteilija haluaa vähän hassutella, kertoo Kaiku Koskinen ajatuksiaan näyttelystä.Kangaslampi on tyytyväinen, että teokset ovat tavallisuudesta poikkeavia.– Kaikki ei ole niin vakavaa ja toisaalta haastetaan ehkä yhteiskunnan normeja, hän pohtii.Avaa kuvien katseluSusirajan omakuvia katsoessa osa ilahtuu ja osa kiusaantuu. Kuva: Iiu SusirajaVastaaviin yllätyksiin näyttelyvieraat saavat varautua, kun tutustuvat kansainvälisesti menestyneen turkulaistaiteilijan töihin.Helmikuun alussa avattu näyttely on jo löytänyt yleisönsä. Noin 11 000 vierailijaa on katsonut videoita, valokuvia ja aivan uusia pronssiveistoksia. Niiden tekemisestä taiteilija kertoo videossa. Viime vuonna koko vuoden kävijämäärä oli WAMissa noin 50 000.Avaa kuvien katseluWAMin Ei mikään helppo nakki -näyttelystä on tullut supersuosittu jo ensimmäisten viikkojen aikana. Kuva: Katriina Laine / YleKaikki ei miellyttänyt, mutta kannatti tullaHelsingistä perheensä kanssa saapunut Esa Väisänen poikkesi museoon ennen ruotsinlaivalle lähtöä. Hän oli tyytyväinen, että tuli näyttelyyn, vaikka kaikki teokset eivät miellyttäneet.– Osa oli ihan mielellään katsottavia, mutta osa ei ehkä ollut minun makuuni. Taiteilijan taide varmasti kiinnostaa kansainvälisesti ja kiinnittää huomiota, pohtii Väisänen.Pöytyältä saapunut Siiri Suominen on silmin nähden hämmentynyt. Hän rohkaistuu kertomaan tuntojaan lopulta.– Itse en ihan ymmärrä tätä, mutta teokset herättävät kyllä paljon tunteita, ihmetystä. On tämä sellaista, vähän outoa, muotoilee Suominen.Avaa kuvien katseluNäyttelyvieraat katsovat Iiu Susirajan taidetta WAMissa Turussa. Kuva: Minna Rosvall / YleTampereelta tullut Marika Lahdenperä istuu keskittyneesti videoita näyttävien televisioiden äärellä.– Tämä ilahduttaa. Siskoni suositteli näyttelyä. Olen jo pitkään seurannut Susirajan työskentelyä. Tässä tilassa näkyy, miten kehoa käytetään välineenä tehdä taidetta, kertoo Lahdenperä.Susiraja asuu ja työskentelee Turussa ja monet hänen teoksistaan on kuvattu hänen omassa kodissaan.Viime keväänä hänen teoksiaan nähtiin New Yorkissa ja vuonna 2022 Los Angelesissa. Wäinö Aaltosen museossa teokset ovat esillä 12. toukokuuta 2024 saakka.Toimittaja Miia Gustafssonin jutussa taiteilija Iiu Susiraja kertoo itse taiteestaan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>32</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Biden: Israel on luvannut keskeyttää sodan ramadanin ajaksi – Israel ja Hamas toppuut­te­levat Bidenin puheita</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076650</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Yhdysvaltain presidentin Joe Bidenin mukaan väliaikainen tulitaukosopimus voisi tulla voimaan jo ensi viikolla. Israelin ja Hamasin mukaan neuvottelut ovat vielä pahasti kesken.</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Yhdysvaltain presidentin Joe Bidenin mukaan Israel on halukas lopettamaan sotatoimet terroristijärjestö Hamasia vastaan muslimien pyhän kuukauden ramadanin ajaksi, jos tulitaukosopimuksesta päästään sopuun.– Israelin kanssa on sovittu, etteivät he jatkaisi [sota]toimenpiteitä ramadaninkaan aikana, jotta meille jäisi aikaa saada panttivangit ulos [Gazasta], Biden sanoi Seth Myersin Late Night -keskusteluohjelmassa.Biden viittaa Yhdysvaltain, Egyptin, Ranskan ja Qatarin valmistelemaan sopimukseen, jonka nojalla Hamas vapauttaisi osan kaappaamistaan panttivangeista vastineeksi palestiinalaisvankien vapauttamisesta. Sopimuksen on myös määrä lopettaa taistelut Gazan kaistalla 40 päivän ajaksi.Haastattelussa Biden sanoi lisäksi toivovansa, että sopimus astuisi voimaan ensi viikon maanantaina. Bidenin mukaan sopimuksen syntyminen on lähellä, mutta se ei ole vielä valmis.Hamasin mukaan Bidenin puheet ovat ennenaikaisia, Israelille Bidenin kommentit tulivat yllätyksenäUutistoimisto Reutersille puhuneet Hamasin virkamiehet sanovat, että Bidenin lausunto on ennenaikainen ja sopimuksessa on ”suuria aukkoja, jotka on kurottava umpeen”. Hamas on myös syyttänyt Israelia neuvottelujen pitkittämisestä.– Ensisijaisia ja tärkeimpiä kysymyksiä tulitauosta ja Israelin joukkojen vetäytymisestä ei ole ilmaistu sopimuksessa selkeästi, mikä viivästyttää sen aikaansaamista, yksi virkamiehistä sanoi Reutersille.Hamas on aiemmissa neuvotteluissa vaatinut, että tulitaukosopimuksen tulisi sisältää Israelin pysyvä sitoumus sodan päättämiseen ja vetäytymiseen Gazan kaistalta. Israel on taas vannonut jatkavansa sotaa siihen saakka, kunnes Hamas on tuhottu.Avaa kuvien katseluGazalainen mies tutkimassa kotiaan, joka tuhoutui Israelin pommituksissa Rafahissa 25. helmikuuta. Kuva: Said Khatib / AFPIsraelilaisten virkamiesten mukaan Bidenin kommentit tulivat yllätyksenä. Washington Postille nimettömänä puhuneen virkamiehen mukaan sopimuksen syntyminen ”ei ole niin lähellä kuin ihmiset luulevat”.– Tällä hetkellä ei ole sopimusta, eikä sen määräaika ole maanantai eikä tiistai, virkamies sanoi.Israelin pääministeri Benjamin Netanjahu sanoi puolestaan yhdysvaltalaiselle uutiskanavalle Fox Newsille, että sopimuksen syntyminen riippuu Hamasista.Netanjahu myös syytti Hamasia ”järjettömistä vaatimuksista” koskien sopimusta. Netanjahun mukaan Israel on valmis tekemään sopimuksen, mikäli Hamas kohtuullistaa vaatimuksiaan.Netanjahu: Mahdollinen sopimus ainoastaan lykkäisi Rafahin operaatiotaNetanjahu sanoi sunnuntaina, että mahdollinen sopu osapuolten välillä vain lykkäisi hyökkäystä Rafahiin, mutta ei estäisi sitä. Rafahissa on jopa 1,4 miljoonaa Gazan sisäistä pakolaista.– Se on tehtävä, koska tavoitteemme on täysi voitto ja täysi voitto on käden ulottuvilla, ei kuukausien, vaan viikkojen päässä, kun aloitamme operaation, Netanjahu sanoi.Jordanian kuningas Abdullah varoitti maanantaina Israelin Rafahiin suunnitteleman sotilasoperaation vaaroista ja toisti vetoomuksensa välittömästä tulitauosta, jotta siviileille saataisiin apua.Erityisen paha ruokapula on Pohjois-Gazassa. Siellä epätoivoiset väkijoukot ovat vallanneet avustuskuljetuksia. Avustustyöntekijät ovat raportoineet nähneensä laihoja ja selvästi nälkiintyneitä ihmisiä.Lähteet: AP, BBC, Reuters, STT</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>33</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Poukkoileva sää laittaa kadut ja pihat koetukselle – isännöitsijä: ”Paksulle jääker­rokselle ei oikein voi tehdä mitään”</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076548</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Talven ailahteleva sää on tuonut moniin pihoihin paksun jäämaton, jonka kanssa ei ole helppo tulla toimeen. Liukastelun lisäksi vaarana ovat vesivahingot.</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Lämpötilan sahaaminen pakkaselta plussalle ja takaisin aiheuttaa monia ongelmia. Liukkauden ja alituisen hiekoitustarpeen lisäksi pihoille ja jalkakäytäville muodostuva jää voi aiheuttaa myös vesivahinkoja.Isännöitsijä Jukka Kemell Lahden Isännöintipalvelusta seisoo lahtelaisen kerrostalon pihalla ja pohtii pihaa peittävän jääkerroksen syvyyttä.– Tässä on 10–15 senttiä paksu jää, joka tukkii pihan sadevesikaivot. Pihassa ei ole tarpeeksi kaatoa talosta poispäin, joten viikonlopun kovien sateiden jälkeen vesi kulkeutui kivijalan viereen ja pääsi korvausilmaventtiilin juuresta valumaan kellariin, harmittelee Kemell.Kemellin mukaan asiasta ei voi syyttää huoltoyhtiöitä.– Auraus tehdään koneellisesti ja maahan jää aina jonkin verran lunta, joka vuoroin sulaa ja jäätyy. Huoltoyhtiöt tekevät minkä voivat. Paksulle jääkerrokselle ei oikein voi tehdä mitään.Avaa kuvien katseluHiekoitus auttaa hetken, mutta liukkauden jatkuva estäminen vaatii koko ajan uutta hiekoittamista. Kuva: Juha-Petri Koponen / YleOngelmat pitää ratkaista ennakkoonMoni piha jäätyy lähes jokaisena talvena ja mahdolliset ongelmat pitää ratkaista ennakolta, sillä asialle ei voi tehdä mitään siinä vaiheessa, kun pihaa peittää paksu jää ja vahinko on jo tapahtunut.– Pintamaata pitäisi muokata niin, että se viettää selvästi talon perustuksista poispäin. Pihakaivojen jäätymistä voi estää esimerkiksi asentamalla niihin lämmitysvastukset, muistuttaa Kemell.Kerrostalon asukkaat voivat myös itse vaikuttaa asioihin, vaikka heitä ei voida velvoittaa tekemään pihatöitä.– Olisi hienoa, jos asukkaat seuraisivat pihan kuntoa ja kertoisivat siitä vaikka huoltoyhtiölle. Jos löytyy talkoohenkeä, mikä alkaa olla katoavaa kansanperinnettä, voisi taloyhtiö ostaa petkeleet, joilla voisi poistaa jäätä ja tehdä vedelle valumisuria, sanoo Kemell.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>33</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Pyry Nykänen, 26, kiinnostui kokin ammatista TET-harjoit­telussa – nyt hän on kokkio­lym­pia­laisten kulta­mi­talisti</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20075862</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>25.02.2024</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dallas Stars katkaisi neljän ottelun tappioputkensa, kun se voitti suomalaisjoukkueiden kohtaamisessa Carolina Hurricanesin 2–1. </t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>NHL-joukkue Colorado Avalanchen suomalaishyökkääjä Mikko Rantanen iski kauden 30. maalinsa, kun Avalanche taipui hurjavireiselle Toronto Maple Leafsille 3–4.Neljän maalittoman ottelun jaksonsa katkaissut Rantanen sivalsi kolmannessa erässä siniviivan tuntumasta tarkalla rannelaukauksella pelin 3–3:een odotettuaan maltilla täydellistä laukaisupaikkaa.– Mikko Rantanen! Kärsivällisyys on hyve!, NHL-selostajat intoilivat.Osuma oli Rantaselle uran 250:s NHL:ssä. Samalla suomalaistähdestä tuli Avalanchen historian ensimmäinen pelaaja, joka on onnistunut tekemään yli 30 maalia neljällä peräkkäisellä kaudella.Ottelusta myös syöttöpisteen keränneellä Rantasella on nyt yhteensä viisi yli 30 maalin kautta. Samaan ovat Avalance/Nordiquesin historiassa yltäneet vain Joe Sakic (yhdeksän kautta), Peter Statsny (8), Michek Goulet (8), Nathan MacKinnon (6) ja Milan Hejduk (5).Coloradolta myös avausmaalin ylivoimalla sisään ohjannut Artturi Lehkonen pääsi pisteille. Hän pelasi uransa 500. NHL-ottelun.Suomalaisten esitykset eivät kuitenkaan riittäneet voittoon, vaan Toronto kasvatti voittoputkensa seitsemään otteluun syntymäpäiväsankari Tyler Bertuzzin hattutempun siivittämänä.– Luulen, että olen yrittänyt syöttää viime aikoina liikaa. Tänään yritin hyökätä ja liikkua eteenpäin enemmän. Olisin toivonut, että saamme vielä maalin, mutten voi sille mitään. Rantanen sanoi NHL:n sivuilla.Colorado on läntisessä konferenssissa neljäntenä, Toronto samalla sijalla itäisessä.Suomalaistähdet kohtasivatDallas Stars katkaisi neljän ottelun tappioputkensa, kun se voitti suomalaisjoukkueiden kohtaamisessa Carolina Hurricanesin 2–1. Sebastian Aho oli edellisen Carolinan ottelun tapaan joukkueensa ainoa maalintekijä.Aho pääsi toisessa erässä läpiajoon ja viimeisteli varmasti 1–1:een. Osuma oli Aholle kauden 22:s.Dallasin voittomaalin iski Miro Heiskasen käynnistämästä vastahyökkäyksestä Wyatt Johnston. Heiskanen syötti myös Jason Robertsonin tekemän avausmaalin.Heiskanen valittiin ottelun kakkostähdeksi Johnstonin jälkeen. Aho valittiin kolmostähdeksi.Dallas on läntisessä konferenssissa toisena, Carolina itäisessä konferenssissa viidentenä.Maali kirjattiin yön kierroksella myös Florida Panthersin Aleksander Barkoville, joka teki joukkueensa 2–2-tasoituksen ylivoimalla kolmannessa erässä Washington Capitalsia vastaan. Ratkaisua haettiin jatkoajalta, ja voittomaalin teki Floridan Gustav Forsling.San Jose Sharksin Mikael Granlund viimeisteli kauden seitsemännen osumansa etukulmasta ohi Nashville Predatorsin maalivahti Juuse Saroksen. Granlund kavensi maalillaan tilanteeksi 2–1, mutta Nashville voitti ottelun 4–2. Saros torjui ottelussa 23 laukausta.Katso suomalaismaalit tästä. Granlundin maali: NHL.com.NHL-seuranta ja sarjataulukot.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>32</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Orpo ehdotti velkakattoa lakiin – asiantun­ti­joiden mukaan maailmalta löytyy lähinnä huonoja esimerkkejä</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20075950</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Suomen kokkimaajoukkue voitti ensimmäistä kertaa kultaa kokkiolympialaisissa. Kilpailuun valmistautuminen vaati vuosien työn.</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Aikamoiset kotiintuliaiset sieltä tuli, toteaa savonlinnalainen kokki Pyry Nykänen, 26, kultamitali kaulassa ja pokaali kädessä.Hän oli Suomen kokkimaajoukkueen mukana voittamassa kultaa kokkiolympialaisissa eli IKA Culinary Olympics-kilpailuissa Stuttgartissa 2. - 7.2.24. Kilpailussa oli mukana 24 maan edustusjoukkueet.Nykäsen mukaan olympiavoitto on iso juttu Suomen gastronomialle. Suomen osaamista ymmärretään ja arvostetaan maailmalla.– Nyt jos koskaan näytettiin, että suomalaisten kulinaarinen ja gastronominen osaaminen on maailman huippua. Toivottavasti arvostusta löytyy myös maan rajojen sisäpuolella, Nykänen sanoo.Pyry Nykäsen puhelimeen sataa viestejä - voitto kokkiolympialaisissa avaa ovet ulkomailleOma paikka pitää lunastaa jokaisessa treenissäKokeilla on olympialaiset ja maailmanmestaruuskisat kahden vuoden välein, kuten esimerkiksi jalkapallossa. Kokkimaajoukkue valitaan käytännössä neljäksi vuodeksi olympiadin ajaksi. Lähtökohta on, että kokki olisi mukana vähintään kaksi vuotta.Kokin on lunastettava paikkansa jokaisessa treenissä. Putoamisvaara on olemassa ja omalle paikalle on tulijoita jonossa. Nykästäkin jännitti välillä oman paikkansa puolesta. Joukkueessa kävi paljon ammattilaiskokkeja kääntymässä.– Ehkä 50 ihmistä saattoi siinä pyörähtää kolmen vuoden aikana, arvelee Nykänen.Mihinkään en olisi pystynyt ilman tukea, joukkuekavereita.Pyry NykänenKaverisuhteet kärsivätVuosi sitten Pyry Nykänen tasapainoili aikataulujensa kanssa. Hän työskenteli Savonlinnassa keittiömestarina joukkueen ulkopuolella ja oli vastuussa monen ihmisen tekemisistä itsensä lisäksi. Pikkuhiljaa hän karsi elämästään pois asioita, mitä lähemmäs kisoja mentiin. Mielessä kävi usein, onko kaikki tämän arvoista.– Ikävintä oli ehkä se, että kaverisuhteet kärsivät. Heidän tapaamisensa vähentyi tosi paljon, Nykänen sanoo.Oma vahvuudekseen Nykänen mainitsee joukkuepelaamisen. Ravintolassa hänelle tärkeintä on, että kaikilla tekijöillä on asiat hyvin. Hän haluaa olla hyvä työkaveri ja sitä kautta esimerkillinen.– Mihinkään en olisi pystynyt ilman tukea, joukkuekavereita. Olen aina ollut töissä hyvin tyyppien kanssa, jotka ovat auttaneet ja valistaneet minua.Työtarjouksia tulee jatkuvastiKokkiolympialaisten voiton jälkeen Nykäsen puhelimeen on tullut yhteydenottoja ja viestejä ulkomaita myöten. Nykänen myöntää, että työt ulkomailla kiinnostavat.– Pitää takoa, kun rauta on kuumaa. Jos nyt vaikka ensin lähtisi pääkaupunkiseudulle hakemaan vauhtia ja sitten ulkomaille.Maailman keittiöistä ja ravintoloista Nykästä kiinnostavat sellaiset, joissa tehdään vähän modernimmalla tavalla klassista ranskalaista keittiötä. Eli tehdään paljon käsityönä itse alusta alkaen.– Sen ei tarvitse olla mitään kikkailuruokaa, vaan tehdään hyvällä fiiliksellä käsityönä kaikki asiat. Se on lähellä sydäntä.Suomen luonnon kanssa Nykänen teki tuttavuutta syvemmin vasta kolmisen vuotta sitten. Sieltä hän on löytänyt paljon kaikkea hyvää ja käyttökelpoista.– Niitä tykkään käyttää omissa ruuissa ja niitä haluaisin viedä myös maailmalle.Avaa kuvien katseluNykänen sai kipinän kokin ammattiin 9-luokan TET-harjoittelusta. "Menin Savonlinnan ravintolakoulun keittiöön viikoksi. Minua kohdeltiin siellä hyvin, ja tykkäsin siitä", hän sanoo. Kuva: Sari Ursin / YleSaimaan alueen ruokakulttuuri kansainvälisesti esilläSaimaan alueelle myönnettiin European Region of Gastronomy -titteli tälle vuodelle. Juhlinnan kohteena on itäsuomalainen ruokakulttuuri. Nykäsen mielestä titteli meni oikeaan osoitteeseen. Hän uskoo, että vuosi tulee olemaan positiivinen juttu Savonlinnan seudullakin.– Ooppera vetää paljon kansainvälisiä asiakkaita Savonlinnaan, mutta on täällä paljon muutakin nähtävää ja tehtävää.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>33</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SDP ja keskusta eri linjoilla yli halli­tuskausien sitovasta velkakatosta</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076049</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>22.02.2024</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Huono velkakatto jäykistää. Suomalainen versio tulisi tehdä riittävän laajassa poliittisessa yhteisymmärryksessä.</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Pääministeri Petteri Orpo (kok.) ehdotti Uutissuomalaisen haastattelussa valtiolle lakiin säädettyä velkakattoa. Ylen haastattelemat talousasiantuntijat suhtautuvat ajatukseen varoen – ja osa myös myönteisesti.Helsingin yliopiston poliittisen talouden tutkija Antti Ronkainen sanoo, että lailla voidaan pakottaa poliitikot tekemään tarpeellisia valintoja – mutta velkakatossa on myös riskinsä.– Lakiin kirjattu tavoite ei huomioi vallitsevaa taloudellista tai maailmanpoliittisia tilannetta. Se sitoo hallitusten talouspolitiikkaa ja estää niiden kykyä vastata ajankohtaisiin ongelmiin, Ronkainen sanoo.– Lopputulos voisi johtaa liian kireään finanssipolitiikkaan tällä tai tulevilla hallituskausilla.Ronkaisen mukaan huono velkakatto estää tarkoituksenmukaista talouspolitiikkaa. Se näkyy hänen mukaansa Yhdysvalloissa, jossa velkakatosta on tullut poliittinen lyömäase. Aina kun velkakatto ylittyy, liittovaltio keskeyttää palkanmaksun ja joutuu sulkemaan virastoja.– Sehän on poliittisesti ja taloudellisesti erittäin epätarkoituksenmukaista, että maailman mahtavin valtio ei suoriudu sille säädetyistä velvollisuuksista, Ronkainen sanoo.Antti Ronkainen velkakaton vaikutuksistaToinen esimerkki epätarkoituksenmukaisuudesta on Ronkaisen mukaan Saksa. Siellä velkakatto – tai paremminkin 0,35 prosentin vuotuinen alijäämäjarru – kirjattiin viitisentoista vuotta sitten perustuslakiin.Viime vuosina Saksa on kuitenkin joutunut moneen kertaan käyttämään poikkeusmenettelyjä voidakseen ratkoa esimerkiksi pandemiaongelmia. Ronkaisen mukaan rahoja on koronan varjolla käytetty myös vihreään siirtymään ja moniin energiapoliittisiin toimiin – kunnes perustuslakituomioistuin puuttui peliin.– Perustuslakituomioistuin katsoi, että näin ei voida toimia. Sen seurauksena Saksa joutuu tällä hetkellä tekemään erittäin kovia leikkaustoimia, hän sanoo.– Velkajarrun takia joudutaan tekemään liian kireää talouspolitiikkaa, eikä voida vastata Saksan syvempiin rakenteellisiin ongelmiin, eli erityisesti energiaomavaraisuuteen.Vihriälä: EU:lla on jo velkakatto – ja kohta myös aikataulu sen saavuttamiseenMyös pitkän linjan talousekonomisti Vesa Vihriälä pitää yhdysvaltalaistyyppistä velkakattoa huonona ajatuksena.– Se ei ole johtanut siellä mihinkään hyvään paitsi isoihin riitoihin. Ja kun niihin törmätään, on vaikea löytää kompromisseja. Velkaantumisen rajoittaminen kyllä on tarpeen.Vihriälä muistuttaa, että yksi Suomea velvoittava velkakatto on jo olemassa. EU-jäsenyys edellyttää, ettei velan suhde bruttokansantuotteeseen saa nousta yli 60 prosentin.Sen rajan Suomi ja moni muu valtio on jo ylittänyt. Vakaus- ja kasvusopimuksen valmistelussa oleva uusi versio puuttuu kuitenkin tilanteeseen. Maiden joiden valkaantumisaste on 60–90 prosenttia, tulee laskea sitä puoli prosenttiyksikköä vuodessa.– Voidaan toki kysyä, onko tämä kansallisen politiikkamme näkökulmasta riittävän vaativa tavoite. Tulisiko sopeutuksen olla vielä nopeampi, tai tulisiko meidän päästä tuon 60 prosentin alle ja lähemmäs pohjoismaisia verrokkeja?Vihriälän mukaan tällaiset päätökset edellyttävät kuitenkin parlamentaarista yli hallituskausien ja puoluerajojen ulottuvaa yhteisymmärrystä siitä, millaista velkaantumisen lasku-uraa Suomessa tavoitellaan.– Ja se voidaan sitten myös johonkin puitelakiin kirjata, mihin Suomi on sitoutunut. Ja jokainen hallitus voisi tuota tavoitetta sitten omalla tavallaan toteuttaa.”Tehdään itse parempi”Pellervon taloustutkimus PTT:n toimitusjohtaja Markus Lahtinen kannattaa Orpon ehdotusta lakiin kirjatusta velkakatosta. Suomen velkaantuminen on painettava alle 60 prosentin tason.– Mutta sovitaan mikä tahansa taso, niin tässä pitää sopia usean vaalikauden pituisesta sopeutusurasta, hän sanoo.– Missään nimessä kevään kehysriihessä ei pidä sopia vielä mitään.Lahtinenkin näkee myös riskejä – kuten talouden rakenteiden jäykistymisen.– Yhdysvallat on juuri esimerkki huonosta valmistelusta ja jäykkyydestä. Saksan alijäämäkonseptiin liittyy siihenkin vakavia ongelmia. Meidän ei missään nimessä pidä kopioida muilta vaan tehdä itse parempi.Suomen velkakaton tulisi Lahtisen mukaan huomioida koronan kaltaiset poikkeustilat, kotimaan maanpuolustuksen tarpeet ja monet muut asiat, joita EU ei ota huomioon.Toisaalta niiden vastapainoksi tämän kotimaisen velkakaton tulisi olla riittävän kunnianhimoinen – vähintään pari piirua EU:n minimivaatimuksia tiukempi.– Tässä tarvitaan huolellinen valmistelu ja parlamentaarinen prosessi, johon kaikki puolueet ovat sitoutuneet, Lahtinen sanoo.Voit keskustella aiheesta 23.2. klo 23 saakka.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>32</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Iiu Susirajan taide imee kävijöitä ennä­tys­tahtiin Turussa – yleisö:  ”Outoa”, ”Hassuttelua”, ”Ilahduttavaa”</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20076219</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>25.02.2024</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Jo noin 11 000 vierailijaa on käynyt tutustumassa turkulaisen Wäinö Aaltosen museon Ei mikään helppo nakki -näyttelyyn. Talvilomalaisia saapui näyttelyyn muun muassa Helsingistä.</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>WAMin pääaulassa on noin kaksimetrinen valokuva, jossa taiteilija Iiu Susiraja lepää juoksumatolla. Hänellä on myssynsä alla pullapitkot.Nella Kangaslampi on pysähtynyt teoksen ääreen poikansa Kaiku Koskisen kanssa.– Minusta taiteilija haluaa vähän hassutella, kertoo Kaiku Koskinen ajatuksiaan näyttelystä.Kangaslampi on tyytyväinen, että teokset ovat tavallisuudesta poikkeavia.– Kaikki ei ole niin vakavaa ja toisaalta haastetaan ehkä yhteiskunnan normeja, hän pohtii.Avaa kuvien katseluSusirajan omakuvia katsoessa osa ilahtuu ja osa kiusaantuu. Kuva: Iiu SusirajaVastaaviin yllätyksiin näyttelyvieraat saavat varautua, kun tutustuvat kansainvälisesti menestyneen turkulaistaiteilijan töihin.Helmikuun alussa avattu näyttely on jo löytänyt yleisönsä. Noin 11 000 vierailijaa on katsonut videoita, valokuvia ja aivan uusia pronssiveistoksia. Niiden tekemisestä taiteilija kertoo videossa. Viime vuonna koko vuoden kävijämäärä oli WAMissa noin 50 000.Avaa kuvien katseluWAMin Ei mikään helppo nakki -näyttelystä on tullut supersuosittu jo ensimmäisten viikkojen aikana. Kuva: Katriina Laine / YleKaikki ei miellyttänyt, mutta kannatti tullaHelsingistä perheensä kanssa saapunut Esa Väisänen poikkesi museoon ennen ruotsinlaivalle lähtöä. Hän oli tyytyväinen, että tuli näyttelyyn, vaikka kaikki teokset eivät miellyttäneet.– Osa oli ihan mielellään katsottavia, mutta osa ei ehkä ollut minun makuuni. Taiteilijan taide varmasti kiinnostaa kansainvälisesti ja kiinnittää huomiota, pohtii Väisänen.Pöytyältä saapunut Siiri Suominen on silmin nähden hämmentynyt. Hän rohkaistuu kertomaan tuntojaan lopulta.– Itse en ihan ymmärrä tätä, mutta teokset herättävät kyllä paljon tunteita, ihmetystä. On tämä sellaista, vähän outoa, muotoilee Suominen.Avaa kuvien katseluNäyttelyvieraat katsovat Iiu Susirajan taidetta WAMissa Turussa. Kuva: Minna Rosvall / YleTampereelta tullut Marika Lahdenperä istuu keskittyneesti videoita näyttävien televisioiden äärellä.– Tämä ilahduttaa. Siskoni suositteli näyttelyä. Olen jo pitkään seurannut Susirajan työskentelyä. Tässä tilassa näkyy, miten kehoa käytetään välineenä tehdä taidetta, kertoo Lahdenperä.Susiraja asuu ja työskentelee Turussa ja monet hänen teoksistaan on kuvattu hänen omassa kodissaan.Viime keväänä hänen teoksiaan nähtiin New Yorkissa ja vuonna 2022 Los Angelesissa. Wäinö Aaltosen museossa teokset ovat esillä 12. toukokuuta 2024 saakka.Toimittaja Miia Gustafssonin jutussa taiteilija Iiu Susiraja kertoo itse taiteestaan.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Velkakatto rajoittaisi valtion velkaantumista yli vaalikausien. Pääministerin mukaan hallitus pui asiaa tämän kevään kehysriihessä.</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Pääministeri Petteri Orpo (kok.) ehdotti Uutissuomalaisen haastattelussa velkakaton kirjaamista lakiin. Katto sitoisi hallituksia yli vaalikausien. Katon nosto vaatisi lain muuttamista.Talousasiantuntijat suhtautuvat ajatukseen varoen, mutta osa näyttää myös ehdotukselle vihreää valoa.Orpo perusteli ehdotustaan medialle tänään eduskunnassa. Orpon mukaan Suomen talouden tasapainottamiseen ja siitä kiinni pitämiseen pitäisi löytää yhteinen sitoutuminen.– Kun hallitukset vaihtuvat, niin peruslinja pidettäisiin kunnossa ja velkaantuminen kurissa, Orpo perustelee.Orpo ei ota kantaa pitäisikö tavoitteen olla prosentuaalinen tai euromääräinen. Orpon mukaan hallituksen on tarkoitus keskustella asiasta kevään kehysriihen yhteydessä ja mahdollisesti käynnistää asiasta lakihanke.– Yhtenä pohjana voisivat olla Euroopan finanssipolitiikan kriteerit, jotka tällä hetkellä lähtevät 60 prosentin velkakatosta. Tällähän hetkellä Suomen velkamäärä on 80 prosenttia, eli siinä on työtä. Jokainen hallitus joutuisi tekemään selkeän suunnitelman, millä keinoilla sinne päästään, Orpo pohtii.SDP ei takaa tukea, keskustalta vihreää valoaPääministerin ehdotusta kommentoi myös oppositio. SDP:n puheenjohtaja Antti Lindtman suhtautuu epäillen siihen, että velkaantuminen saadaan taittumaan velkakaton kirjaamisella lakiin.– Kansainväliset esimerkit tästä eivät ole rohkaisevia. Esimerkiksi Yhdysvalloissa lainsäädäntö ei ole lopettanut velkaantumista. Sen sijaan se on tuonut monia murheita ja epävakautta talouteen.Myös Ylen haastattelemat talousasiantuntijat totesivat, etteivät kansainväliset esimerkit vastaavista laeista ole kovin rohkaisevia.Lindtman suhtautuu epäillen myös siihen, että velkakatolle löytyisi SDP:n tuki. Hänen mukaansa Suomi tarvitsee nyt kasvutoimia ja oikeudenmukaisia sopeutuksia, ei suuria puheita ja uusia lakeja.Keskustan puheenjohtajan Annika Saarikon mukaan Orpon ehdotus on kannatettava. Saarikko toivottaa keskustelun velkakatosta tervetulleeksi. Entisen valtiovarainministerin mukaan keskeistä on, mihin katto asetettaisiin ja mitä sen piiriin laskettaisiin. Hän muistuttaa muun muassa koronan ja Venäjän hyökkäyssodan vaikuttaneen merkittävästi Suomen talouteen.– Kriisivuosia läpi elänyt Suomi tietää myös, että eteen on tullut aivan poikkeuksellisia tilanteita, jotka ovat meitä velkaannuttaneet.Saarikko pohtii, miten velkakatto suhtautuisi esimerkiksi 10 miljardin hävittäjähankintojen kaltaisiin menoeriin. Hän kuitenkin uskoo, että tämäntyyppiset kysymykset olisivat ratkottavissa.Saarikon mukaan oleellista olisi, että määritelmät olisivat yhdenmukaisia EU:n asettamien raamien kanssa. Hänen mukaansa velkakaton lisäksi myös menojen ja verojen tasosta pitäisi olla yhteisymmärrys.– Peräänkuulutan presidentti Niinistön ikään kuin perinnöksi jättämää, yli puoluerajojen ja vaalikausien, toimivaa talousryhmää. Siellä velkakatostakin voitaisiin keskustella, Saarikko sanoo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
         <v>33</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>Poliisi on ottanut kiinni Vastaamo-syytetyn Aleksanteri Kivimäen</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076296</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>24.02.2024</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
         <is>
           <t>Poliisi otti Kivimäen kiinni lauantaina yksityisasunnosta Helsingistä. Kivimäki soitti asianajajalleen lauantaina iltapäivällä asiasta.</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>Poliisi on ottanut kiinni Vastaamo-syytetyn Aleksanteri Kivimäen.Kivimäki otettiin kiinni tänään yksityisasunnosta Helsingin kantakaupungista. Kiinniotto sujui rauhallisesti, poliisi kertoi tiedotteessaan lauantaina.Helsingin poliisin johtokeskuksen viestinnästä kerrottiin Ylelle, että Helsingin poliisi otti Kivimäen kiinni lauantaina iltapäivällä.Poliisi pääsi Kivimäen jäljille omien tutkimustensa avullaKivimäen asianajaja Peter Jaari kertoo Ylelle, että Kivimäki soitti hänelle lauantaina iltapäivällä ja kertoi kiinniotosta.Jaarilla ei ollut tietoa siitä, missä Kivimäki on nyt, tai onko hänet viety Vantaan vankilaan tutkintavankeuteen. Helsingin poliisista kerrottiin Ylelle, että Kivimäki on viety Vantaan vankilaan.Jaari ei kommentoinut myöskään sitä, mikä johti Kivimäen kiinniottoon juuri lauantaina helsinkiläisestä asunnosta.Helsingin poliisi pääsi Kivimäen jäljille omien selvitystensä ja tutkimustensa avulla, Helsingin poliisin johtokeskuksen viestinnästä kerrottiin Ylelle. Tapauksen rikostutkinta on keskusrikospoliisin käsissä.Länsi-Uudenmaan poliisi etsintäkuulutti Kivimäen maanantaina 19. helmikuuta, kun tämä ei ollut ilmoittautunut poliisille.Oli etsintäkuulutettuna useita päiviäKivimäki on ollut etsintäkuulutettuna ja kateissa vajaan viikon.Länsi-Uudenmaan käräjäoikeus päätti 5. helmikuuta, että Kivimäki on päästettäväksi vapaaksi noin vuoden kestäneestä tutkintavankeudesta.Käräjäoikeus määräsi Kivimäen matkustuskieltoon ja kielsi häntä poistumasta Espoosta. Hänet määrättiin ilmoittautumaan Espoon pääpoliisiasemalla kolme kertaa viikossa.Syyttäjät valittivat päätöksestä hovioikeuteen ja vaativat Kivimäen vangitsemista uudelleen. Helsingin hovioikeus hyväksyi perjantaina 16. helmikuuta syyttäjien vaatimuksen.Länsi-Uudenmaan poliisi etsintäkuulutti Kivimäen maanantaina 19. helmikuuta, kun tämä ei ollut ilmoittautunut poliisille.Korjaus: Jutun alaotsikossa luki virheellisesti, että Kivimäki olisi otettu kiinni Vantaalta. Hänet otettiin kiinni yksityisasunnosta Helsingissä.</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>33</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>SDP ja keskusta eri linjoilla yli halli­tuskausien sitovasta velkakatosta</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20076049</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
+    <row r="104">
+      <c r="A104" t="n">
+        <v>34</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Avaruus­te­les­koopin data haastaa perus­kä­si­tyksen maail­man­kaik­keudesta: näin vanhaa jätti­läis­ga­laksia ei pitäisi ollakaan</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076146</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>24.02.2024</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Massiivinen galaksi sai tarvitsemansa tukirangan jo universumin ensimmäisen vuosimiljardin kaaoksessa. Havainto ei istu malleihin pimeän aineen käytöksestä.</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Puolentoista miljoonan kilometrin päässä Maasta avaruutta tarkkaileva James Webb -avaruusteleskooppi, JWST, on lähettänyt runsaan puolentoista vuoden aikana jo paljon huimia kuvia ja ainutlaatuista tietoa kosmoksesta.Tuoreen tutkimuksen tulokset ovat yksi suurimmista yllätyksistä. Tutkimus uhkaa rikkoa vakiintuneet mallit siitä, miten maailmankaikkeus – galaksit, tähdet, planeetat, elämä – on syntynyt pimeän aineen painovoiman vaikutuksesta.Nature -lehdessä julkaistun tutkimuksen mukaan nuoreen maailmankaikkeuteen muodostui massiivinen galaksi kauan ennen kuin sen olisi pitänyt olla mahdollista.Nykykäsityksen mukaan yli neljännes maailmankaikkeudesta on pimeää ainetta. Kaiken näkyvän aineen määrän se päihittää viisinkertaisesti. Galakseja on muodostunut siellä, missä pimeä aine on paakkuuntunut niiden tukirangaksi.Galaksit kasvoivat alkuräjähdyksen kaasun jäähtyessä ja tiivistyessä valtavissa kokkareissa, joita pimeä aine vähitellen muodosti. Protogalakseista tuli kääpiögalakseja. Kun ne ryhtyivät syömään toisiaan, syntyi suuria ja sitten massiivisia galakseja.Tähtiensä määrältä ja massaltaan neljän Linnunradan kokoisen JWST-7329- tai ZF-UDS-7329-galaksin valo kajastaa 11,5 miljardin vuoden takaa. Laskelma perustuu punasiirtymään eli valon allonpituusalueen värijakauman muutoksiin, jotka syntyvät, kun valo kulkee pitkää matkaansa.JWST-7329:n tähtien ikään tutkijat laskivat vielä puolitoista miljardia vuotta lisää. Kun universumi on tällä tietoa vajaan 13,8 miljardin vuoden ikäinen, kummastuttava jättiläinen muodostui liian pian alkuräjähdyksen jälkeen mahtuakseen vakiintuneisiin käsityksiin.Avaa kuvien katseluVielä Maassa. JWST:n ratkaisevan tärkeä pääpeili on halkaisijaltaan 6,5-metrinen. Kuva: NasaJWST-7329 on kummajainen myös siksi, että se on punainen. Massiivisuutensa vuoksi sillä pitäisi olla edelleen kylliksi kaasua uusien tähtien tuottamiseen. Sen pitäisi olla sininen ja kirkas.– Jahtasimme juuri tätä galaksia seitsemän vuotta, sillä tunnistimme se epätavalliseksi. Tarkkailimme sitä kahdella maapallon suurimmalla kaukoputkella selvittääksemme, kuinka vanha se on, mutta sen valo oli niille liian punainen ja liian heikko. Emme pystyneet mittaamaan sen ikää, kertoo Karl Glazebrook.Hän on australialaisen Swinburnen teknillisen yliopiston havaitsevan tähtitieteen professori ja johti kansainvälistä ryhmää, joka päätti hakea vastauksia Yhdysvaltain avaruushallinnon Nasan JWST-teleskoopin avulla.Maassa on kooltaan suurempia teleskooppeja kuin JWST, mutta sillä on isona etuna sijaintinsa kaukana Auringon kiertoradalla. Siellä se havainnoi pääasiassa infrapunavaloa, jollaiseksi varhaisen maailmankaikkeuden galaksien näkyvä valo on vuosimiljardien aikana venynyt.Lisäksi JWST näkee kohteita, jotka muilla aallonpituuksilla jäävät avaruuden pölyn ja kaasujen peittoon. Infrapunasäteily tunkeutuu niiden läpi. JWST kykenee näkemään himmeämmän infrapunavalon kuin yksikään teleskooppi sitä ennen.Aivan aikojen alkuun asti sekään ei kykene katsomaan mutta kuitenkin alueelle, jonka havainnointi on ollut tätä ennen mahdotonta.Avaa kuvien katseluTässäkin JWST:n kuvassa on galaksien tutkijoille jotakin hyvin kummallista. Kääpiögalaksit ovat galakseista yleisimpiä, mutta PEARLSDG on outolintu niiden joukossa: se ei reagoi naapurigalaksiinsa mutta ei myöskään tuota uusia tähtiä.   Kuva: Nasa, Esa, CSA, ASU, UWA ja STSclJWST:n havainnot ovat jo tätä ennen venyttäneet rajoja, joihin teoreettiset mallit galaksien synnystä ja kehittymisestä perustuvat. Galaksien alku on siirtynyt ajassa taaksepäin ja kehitysvauhti nopeutunut.Vanhoja lepääviä galakseja, joiden tähdet ovat viilentyneet eikä uusia synny, on nyt havaittu 1–2 miljardin vuoden päässä alkuräjähdyksestä. JWST-7329 on vielä vanhempi. Joidenkin vielä tuntemattomien prosessien ja mekanismien on täytynyt ohjata sen ja muiden vanhojen jättiläisten kehitystä.– Aiemmin ei ollut mahdollista vahvistaa näiden syvällä universumissa lepäävien hirviöiden olemassaoloa. Seuraava avainkysymys on, miten ne saattoivat syntyä niin pian, sanoo tutkijatohtori Themiya Nanayakkara, joka tuoreessa tutkimuksessa johti JWST:ltä saadun datan spektrianalyysejä.Karl Glazebrook toivoo lisänäyttöä tukemaan ryhmänsä työn tuloksia.– JWST on löytänyt yhä enemmän todisteita varhaisista massiivisista galakseista. Meidän tuloksemme on uusi ennätys. Se on silmiinpistävä, mutta kuitenkin vain yksi kohde. Toivomme löytävämme lisää. Jos se onnistuu, se todella järisyttää käsityksiä galaksien synnystä, hän sanoo.JSWT:lle suunniteltu vähin toiminta-aika on viisi vuotta. Toiveissa aika on kaksinkertainen tai jopa pidempi, sillä polttoainetta riittää pitämään JWST kiertoradallaan yli 20 vuotta.Miten JWST tehtiin? Yle Areena -dokumentti kertoo ainutlaatuisen teleskoopin tarinan. (Windfall Films/BBC, Britannia 2022)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>34</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Taas yksi sodan vastustaja sai tuomion Venäjällä: Vete­raa­niak­tivisti Oleg Orloville 2,5 vuotta vankeutta</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076686</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Orlov sai viime vuonna sakkotuomion asevoimien mustamaalaamisesta, mutta syyttäjä vaati uusintaoikeudenkäynnissä vankeutta.</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>MOSKOVA Golovinskin tuomioistuimeen odotti aamupäivällä pitkä jono ihmisiä. He olivat tulleet osoittamaan tukeaan pitkän linjan ihmisoikeusaktivistille Oleg Orloville.Vartijat rauhoittelivat tulijoita: Kaikki pääsisivät sisään. Oleg Petrovitšiä odotettiin vielä.Memorial-ihmisoikeusjärjestön perustajajäseniin kuuluva 70-vuotias Orlov sai syytteen asevoimien mustamaalaamisesta, sillä hän oli kirjoittanut ranskalaiselle Mediapart-verkkojulkaisulle marraskuussa 2022 artikkelin He halusivat fasismia – he saivat sen.Ensimmäisessä oikeudenkäynnissä viime vuonna Orlov sai sakot, mutta sitten syyttäjä yhtäkkiä kovensi linjaansa.Ylen haastattelussa viime vuonna Orlov arveli, että käsky oli käynyt ylhäältä.Oikeussaliin odottava väki tervehti istuntoon saapuvaa Orlovia taputuksilla. Istuntoa seurasivat myös useat länsimaiden diplomaatit.Venäjän korkein oikeus määräsi Memorialin lakkautettavaksi joulukuussa 2021. Seuraavana vuonna järjestö sai Nobelin rauhanpalkinnon.Avaa kuvien katseluAsianajaja Katerina Tertuhina ja ihmisoikeusaktivisti Oleg Orlov puhuivat toimittajille ennen istunnon alkua. Kuva: Nadežda Titova / YleOrlov sai käsiraudat käteensä oikeussalissaOikeussalin ovella Orlov soitti vielä puhelimestaan Juri Ševtšukin ja Dmitri Jemeljanovin kappaletta Rodina, vernis’ domoj eli Synnyinmaa, palaa kotiin.Kappaleen sanoitus tuntui sopivan hetkeen: ”Armottoman kevään tullen, / kesken kuumeisinta hiljaisuutta / epätahtinen pulssini saattaa / sydämeni oikeussaliin.”Toimittajat ja kuvaajat parveilivat vielä Orlovin ympärillä, kun tuomari Jelena Astahova saapui saliin. Tuomari nousi pöytänsä taakse ja alkoi lukea tuomiokirjelmää hyörinästä välittämättä.Syyttäjä oli vaatinut kahden vuoden ja yhdentoista kuukauden vankeutta. Tuomio ei yllättänyt: kaksi vuotta ja kuusi kuukautta vankeutta.Vartijat kiirehtivät panemaan Orloville käsiraudat ja ohjaamaan tämän salissa olevaan lasikoppiin, ”akvaarioon”, tuomarin vielä lukiessa tuomiota. Kopin ovi kolahti kiinni kovaäänisesti.Heti tuomionluvun päätyttyä oikeudenpalvelijat alkoivat hätistellä journalisteja ja Orlovin tukijoita salista ja sammuttivat valot.Hätistelyistä huolimatta väkijoukko jäi käytävälle ja taputti Orloville, kun vartijat kuljettivat häntä käsiraudoissa pois.Avaa kuvien katseluOleg Orlov vangittiin suoraan oikeussalista. Kuva: Nadežda Titova / Yle”Nämä kaikki ovat yhden ketjun renkaita”Tuomion luku osui yhdelle synkälle muistopäivälle. 27. helmikuuta 2015 Moskovan ydinkeskustassa murhattiin oppositiopoliitikko Boris Nemtsov.Oikeudenkäynnin ylle loi varjonsa myös oppositiojohtaja Aleksei Navalnyin kuolema Venäjän vankilajärjestelmän käsissä.Maanantaina Orlov puhui Navalnyista loppupuheenvuorossaan. Hän sanoi järkytykseltään pohtineensa jopa puheenvuoron jättämistä väliin.– Mutta sitten ajattelin: nämä kaikkihan ovat yhden ketjun renkaita – Aleksei Navalnyin kuolema, tarkemmin sanoen murha, ja oikeudenkäynnit muita hallinnon kriitikkoja vastaan, mukaan lukien minua, vapauden heikentyminen maassa, venäläisten joukkojen vieminen Ukrainaan, Orlov sanoi Mediazona-uutissivuston mukaan.– Ja päätin kuitenkin puhua.Avaa kuvien katseluIstunnon päätteeksi Oleg Orlov joutui oikeussalissa niin sanottuun akvaarioon. Kuva: Nadežda Titova / Yle”He kertovat totuuden ja heitä ei haluta kuunnella”Oikeustalon edustalla moskovalainen Aleksei Kondratjev kertoi saapuneensa osoittamaan tukeaan vanhalle toverilleen.Vuonna 1991 he osallistuivat yhdessä silloisen parlamentti- ja hallitusrakennuksen Valkoisen talon puolustamiseen, kun vanhoilliset kommunistit yrittivät kaapata vallan Neuvostoliitossa.– Olimme valmistautuneet siihen, että mahdollisesti täytyy kuolla, mutta joka tapauksessa silloin meidän takanamme oli laillinen legitiimi valta: Neuvostoliiton presidentti Gorbatšov, Venäjän presidentti Jeltsin, Moskovan pormestari Popov, Kondratjev sanoi Ylelle.Tilanne on nyt hänen mukaansa toinen.– Nyt meillä ei ole mitään, on vain tyhjyys. On kourallinen toisinajattelijoita ja tämä hallinto, joka on valmis tuhoamaan jokaisen, joka osoittaa mitään vastarinnan merkkejä.Avaa kuvien katseluOikeustalolle oli saapunut kymmeniä Orlovin tukijoita ja journalisteja. Kuva: Nadežda Titova / Yle– On tuskallista ja sietämätöntä katsoa, kun tuomitaan niin valoisa ihminen, todellinen sankari. Hän istuu ja lukee Kafkaa, ja hänen ympärillään tapahtuu kaikkea mieletöntä, oikeustalolle saapunut Larisa Markina sanoi.Orlov luki usein oikeudenkäynnin aikana Franz Kafkan klassikkoromaania Oikeusjuttu.Markina kertoi käyneensä puolentoista vuoden aikana 35 poliittisessa oikeudenkäynnissä, joten Orloville langetettu tuomio ei tullut enää yllätyksenä.– Tämä on valtava onnettomuus. Minulle henkilökohtaisesti. Ja maalleni. Ja näille ihmisille, Larisa Markina sanoi.– He kertovat totuuden ja heitä ei haluta kuunnella. Siinä kaikki.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>35</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Ylen hallin­to­neu­voston kolme jäsentä vaatii Euroviisuihin Israel-boikottia</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20075936</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>22.02.2024</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Velkakatto rajoittaisi valtion velkaantumista yli vaalikausien. Pääministerin mukaan hallitus pui asiaa tämän kevään kehysriihessä.</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Pääministeri Petteri Orpo (kok.) ehdotti Uutissuomalaisen haastattelussa velkakaton kirjaamista lakiin. Katto sitoisi hallituksia yli vaalikausien. Katon nosto vaatisi lain muuttamista.Talousasiantuntijat suhtautuvat ajatukseen varoen, mutta osa näyttää myös ehdotukselle vihreää valoa.Orpo perusteli ehdotustaan medialle tänään eduskunnassa. Orpon mukaan Suomen talouden tasapainottamiseen ja siitä kiinni pitämiseen pitäisi löytää yhteinen sitoutuminen.– Kun hallitukset vaihtuvat, niin peruslinja pidettäisiin kunnossa ja velkaantuminen kurissa, Orpo perustelee.Orpo ei ota kantaa pitäisikö tavoitteen olla prosentuaalinen tai euromääräinen. Orpon mukaan hallituksen on tarkoitus keskustella asiasta kevään kehysriihen yhteydessä ja mahdollisesti käynnistää asiasta lakihanke.– Yhtenä pohjana voisivat olla Euroopan finanssipolitiikan kriteerit, jotka tällä hetkellä lähtevät 60 prosentin velkakatosta. Tällähän hetkellä Suomen velkamäärä on 80 prosenttia, eli siinä on työtä. Jokainen hallitus joutuisi tekemään selkeän suunnitelman, millä keinoilla sinne päästään, Orpo pohtii.SDP ei takaa tukea, keskustalta vihreää valoaPääministerin ehdotusta kommentoi myös oppositio. SDP:n puheenjohtaja Antti Lindtman suhtautuu epäillen siihen, että velkaantuminen saadaan taittumaan velkakaton kirjaamisella lakiin.– Kansainväliset esimerkit tästä eivät ole rohkaisevia. Esimerkiksi Yhdysvalloissa lainsäädäntö ei ole lopettanut velkaantumista. Sen sijaan se on tuonut monia murheita ja epävakautta talouteen.Myös Ylen haastattelemat talousasiantuntijat totesivat, etteivät kansainväliset esimerkit vastaavista laeista ole kovin rohkaisevia.Lindtman suhtautuu epäillen myös siihen, että velkakatolle löytyisi SDP:n tuki. Hänen mukaansa Suomi tarvitsee nyt kasvutoimia ja oikeudenmukaisia sopeutuksia, ei suuria puheita ja uusia lakeja.Keskustan puheenjohtajan Annika Saarikon mukaan Orpon ehdotus on kannatettava. Saarikko toivottaa keskustelun velkakatosta tervetulleeksi. Entisen valtiovarainministerin mukaan keskeistä on, mihin katto asetettaisiin ja mitä sen piiriin laskettaisiin. Hän muistuttaa muun muassa koronan ja Venäjän hyökkäyssodan vaikuttaneen merkittävästi Suomen talouteen.– Kriisivuosia läpi elänyt Suomi tietää myös, että eteen on tullut aivan poikkeuksellisia tilanteita, jotka ovat meitä velkaannuttaneet.Saarikko pohtii, miten velkakatto suhtautuisi esimerkiksi 10 miljardin hävittäjähankintojen kaltaisiin menoeriin. Hän kuitenkin uskoo, että tämäntyyppiset kysymykset olisivat ratkottavissa.Saarikon mukaan oleellista olisi, että määritelmät olisivat yhdenmukaisia EU:n asettamien raamien kanssa. Hänen mukaansa velkakaton lisäksi myös menojen ja verojen tasosta pitäisi olla yhteisymmärrys.– Peräänkuulutan presidentti Niinistön ikään kuin perinnöksi jättämää, yli puoluerajojen ja vaalikausien, toimivaa talousryhmää. Siellä velkakatostakin voitaisiin keskustella, Saarikko sanoo.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>33</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Pyry Nykänen, 26, kiinnostui kokin ammatista TET-harjoit­telussa – nyt hän on kokkio­lym­pia­laisten kulta­mi­talisti</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20075862</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>25.02.2024</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Suomen kokkimaajoukkue voitti ensimmäistä kertaa kultaa kokkiolympialaisissa. Kilpailuun valmistautuminen vaati vuosien työn.</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Aikamoiset kotiintuliaiset sieltä tuli, toteaa savonlinnalainen kokki Pyry Nykänen, 26, kultamitali kaulassa ja pokaali kädessä.Hän oli Suomen kokkimaajoukkueen mukana voittamassa kultaa kokkiolympialaisissa eli IKA Culinary Olympics-kilpailuissa Stuttgartissa 2. - 7.2.24. Kilpailussa oli mukana 24 maan edustusjoukkueet.Nykäsen mukaan olympiavoitto on iso juttu Suomen gastronomialle. Suomen osaamista ymmärretään ja arvostetaan maailmalla.– Nyt jos koskaan näytettiin, että suomalaisten kulinaarinen ja gastronominen osaaminen on maailman huippua. Toivottavasti arvostusta löytyy myös maan rajojen sisäpuolella, Nykänen sanoo.Pyry Nykäsen puhelimeen sataa viestejä - voitto kokkiolympialaisissa avaa ovet ulkomailleOma paikka pitää lunastaa jokaisessa treenissäKokeilla on olympialaiset ja maailmanmestaruuskisat kahden vuoden välein, kuten esimerkiksi jalkapallossa. Kokkimaajoukkue valitaan käytännössä neljäksi vuodeksi olympiadin ajaksi. Lähtökohta on, että kokki olisi mukana vähintään kaksi vuotta.Kokin on lunastettava paikkansa jokaisessa treenissä. Putoamisvaara on olemassa ja omalle paikalle on tulijoita jonossa. Nykästäkin jännitti välillä oman paikkansa puolesta. Joukkueessa kävi paljon ammattilaiskokkeja kääntymässä.– Ehkä 50 ihmistä saattoi siinä pyörähtää kolmen vuoden aikana, arvelee Nykänen.Mihinkään en olisi pystynyt ilman tukea, joukkuekavereita.Pyry NykänenKaverisuhteet kärsivätVuosi sitten Pyry Nykänen tasapainoili aikataulujensa kanssa. Hän työskenteli Savonlinnassa keittiömestarina joukkueen ulkopuolella ja oli vastuussa monen ihmisen tekemisistä itsensä lisäksi. Pikkuhiljaa hän karsi elämästään pois asioita, mitä lähemmäs kisoja mentiin. Mielessä kävi usein, onko kaikki tämän arvoista.– Ikävintä oli ehkä se, että kaverisuhteet kärsivät. Heidän tapaamisensa vähentyi tosi paljon, Nykänen sanoo.Oma vahvuudekseen Nykänen mainitsee joukkuepelaamisen. Ravintolassa hänelle tärkeintä on, että kaikilla tekijöillä on asiat hyvin. Hän haluaa olla hyvä työkaveri ja sitä kautta esimerkillinen.– Mihinkään en olisi pystynyt ilman tukea, joukkuekavereita. Olen aina ollut töissä hyvin tyyppien kanssa, jotka ovat auttaneet ja valistaneet minua.Työtarjouksia tulee jatkuvastiKokkiolympialaisten voiton jälkeen Nykäsen puhelimeen on tullut yhteydenottoja ja viestejä ulkomaita myöten. Nykänen myöntää, että työt ulkomailla kiinnostavat.– Pitää takoa, kun rauta on kuumaa. Jos nyt vaikka ensin lähtisi pääkaupunkiseudulle hakemaan vauhtia ja sitten ulkomaille.Maailman keittiöistä ja ravintoloista Nykästä kiinnostavat sellaiset, joissa tehdään vähän modernimmalla tavalla klassista ranskalaista keittiötä. Eli tehdään paljon käsityönä itse alusta alkaen.– Sen ei tarvitse olla mitään kikkailuruokaa, vaan tehdään hyvällä fiiliksellä käsityönä kaikki asiat. Se on lähellä sydäntä.Suomen luonnon kanssa Nykänen teki tuttavuutta syvemmin vasta kolmisen vuotta sitten. Sieltä hän on löytänyt paljon kaikkea hyvää ja käyttökelpoista.– Niitä tykkään käyttää omissa ruuissa ja niitä haluaisin viedä myös maailmalle.Avaa kuvien katseluNykänen sai kipinän kokin ammattiin 9-luokan TET-harjoittelusta. "Menin Savonlinnan ravintolakoulun keittiöön viikoksi. Minua kohdeltiin siellä hyvin, ja tykkäsin siitä", hän sanoo. Kuva: Sari Ursin / YleSaimaan alueen ruokakulttuuri kansainvälisesti esilläSaimaan alueelle myönnettiin European Region of Gastronomy -titteli tälle vuodelle. Juhlinnan kohteena on itäsuomalainen ruokakulttuuri. Nykäsen mielestä titteli meni oikeaan osoitteeseen. Hän uskoo, että vuosi tulee olemaan positiivinen juttu Savonlinnan seudullakin.– Ooppera vetää paljon kansainvälisiä asiakkaita Savonlinnaan, mutta on täällä paljon muutakin nähtävää ja tehtävää.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>34</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Avaruus­te­les­koopin data haastaa perus­kä­si­tyksen maail­man­kaik­keudesta: näin vanhaa jätti­läis­ga­laksia ei pitäisi ollakaan</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20076146</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Ylen osallistumisesta Euroviisuihin päättää Ylen johtoryhmä. Ulostulo ei edusta hallintoneuvoston kantaa, puheenjohtaja sanoo.</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Yleisradion hallintoneuvoston jäsenet Maria Ohisalo (vihr.), Li Andersson (vas.) ja Elisa Gebhard (sd.) toivovat, että Yle vetäytyy Euroviisuista, mikäli Israelin yleisradioyhtiö Kan saa niihin osallistua. Heidän mielestään Ylen hallituksen tulisi ottaa kantaa Israelin osallistumista vastaan.Kolmikon kanta käy ilmi Ylen toimitusjohtajalle ja hallitukselle lähetetyssä kirjeessä.Hallintoneuvosto on Ylen ylin päättävä elin, ja sen jäsenet valitsee eduskunta. Hallintoneuvosto valitsee Ylelle hallituksen, joka huolehtii Ylen hallinnosta ja toiminnan asianmukaisesta järjestämisestä.Ylen osallistumisesta Euroviisuihin ei päätä hallintoneuvosto tai hallitus vaan Ylen johtoryhmä.Kirjeessä poliitikot muistuttavat, että ihmisoikeustilanne Palestiinassa ja Israelissa on ollut jo vuosien ajan hälyttävä. He vetoavat kansainvälisen tuomioistuimen ICJ:n välipäätökseen 26. tammikuuta. Se velvoitti Israelia toimiin kansanmurhan ehkäisemiseksi. Poliitikkojen mukaan ICJ:n päätös velvoittaa Israelia, mutta asettaa myös muille YK:n joukkotuhontaa koskevan yleissopimuksen osapuolille velvollisuuden estää ja olla tukematta mahdollista kansanmurhaa.– Näin ollen olisi perusteltua, että Yle sekä muut eurooppalaiset yleisradiot vaatisivat Euroopan yleisradiounionia (EBU) sulkemaan Israel ulos kisoista, kuten se teki Venäjälle maan hyökättyä Ukrainaan vuonna 2022. Ja mikäli näin ei tapahdu, olisi perusteltua, että Yle itse jättäytyisi kisoista pois, kirjeessä todetaan.Avaa kuvien katseluElisa Gebhard, Maria Ohisalo ja Li Andersson vaativat Yleltä toimia Euroviisujen suhteen. Kuva: Henrietta Hassinen / Yle, Silja Viitala / Yle, Tiina Jutila / YleHallintoneuvoston puheenjohtaja kommentoiYlen johtoryhmästä ei haluttu kommentoida asiaa torstaina Yle Uutisille. Johtoryhmään kuuluvat toimitusjohtaja Merja Ylä-Anttila sekä 10 muuta Ylen johtajaa. Johtoryhmän jäsenistä päättää Ylen hallitus.Kansanedustajien kirjeessä muistutetaan, että vaikka kansanedustajien tai Ylen hallintoneuvoston tehtävänä ei ole puuttua Ylen ohjelmasisältöihin tai muuhun operatiiviseen toimintaan, voi hallintoneuvosto antaa hallitukselle ohjeita asioissa, jotka ovat laajakantoisia ja periaatteellisesti tärkeitä.– Siksi toivoisimme, että Ylen hallitus ottaisi edellä olevan huomioon, Ohisalo, Andersson ja Gebhard kirjoittavat.Hallintoneuvoston puheenjohtaja Sinuhe Wallinheimo (kok.) kommentoi asiaa Ylelle tekstiviestitse lyhyesti.– Ottaisin nyt asiat rauhassa ja maltilla. Päätös ei kuulu hallintoneuvostolle. Hallintoneuvoston päätösvalta ja tehtävät on rajattu lailla. Ulostulo ei edusta hallintoneuvoston kantaa, vaan yksittäisten jäsenten näkemystä asiasta, Wallinheimo kirjoittaa.– Asia nousi esille edellisessä hallintoneuvoston kokouksessa viime viikolla, jonka jälkeen jäsenet saivat seikkaperäisen katsauksen hallintoneuvoston toimivallasta asiassa.Avaa kuvien katseluSinuhe Wallinheimon (kok.) mukaan kolmen kansanedustajan kirje ei edusta hallintoneuvoston kantaa. Kuva: Petteri Bülow / YleYlen hallituksen puheenjohtaja Matti Apunen totesi Ylelle lyhyesti tekstiviestillä, ettei hänellä ole lisättävää Wallinheimon kommenttiin:– Hallintoneuvosto ohjeistaa halutessaan hallitusta, mutta se ei tapahdu yksittäisten hallintoneuvoston jäsenten kirjeiden kautta, Apunen kirjoittaa.Avaa kuvien katseluYlen hallituksen puheenjohtaja Matti Apunen Viimeinen sana -ohjelman vieraana.Gazan sodan alettua muun muassa Norjassa, Islannissa ja Irlannissa on vaadittu Euroviisujen boikotoimista ja Israelin sulkemista pois kisoista. Suomessa joukko tunnettuja suomalaismuusikoita jätti Ylelle tammikuussa vetoomuksen, jossa vaaditaan Yleä painostamaan EBUa sulkemaan Israel pois Euroviisuista.Tiistaina uutisoitiin, että Suomen edustaja Windows95man tulee osallistumaan Euroviisuihin ja että Yle luottaa Euroopan yleisradioliiton EBUn harkintaan Israelia koskevissa päätöksissä. Tällä hetkellä EBUn linja on, että Israel voi osallistua Euroviisuihin.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>35</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Kun Niinistöt saivat kuudennen keskenmenon, he luopuivat toivosta – yksi puhelu toi avun, jonka he soisivat muillekin</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20075866</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>24.02.2024</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Massiivinen galaksi sai tarvitsemansa tukirangan jo universumin ensimmäisen vuosimiljardin kaaoksessa. Havainto ei istu malleihin pimeän aineen käytöksestä.</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Puolentoista miljoonan kilometrin päässä Maasta avaruutta tarkkaileva James Webb -avaruusteleskooppi, JWST, on lähettänyt runsaan puolentoista vuoden aikana jo paljon huimia kuvia ja ainutlaatuista tietoa kosmoksesta.Tuoreen tutkimuksen tulokset ovat yksi suurimmista yllätyksistä. Tutkimus uhkaa rikkoa vakiintuneet mallit siitä, miten maailmankaikkeus – galaksit, tähdet, planeetat, elämä – on syntynyt pimeän aineen painovoiman vaikutuksesta.Nature -lehdessä julkaistun tutkimuksen mukaan nuoreen maailmankaikkeuteen muodostui massiivinen galaksi kauan ennen kuin sen olisi pitänyt olla mahdollista.Nykykäsityksen mukaan yli neljännes maailmankaikkeudesta on pimeää ainetta. Kaiken näkyvän aineen määrän se päihittää viisinkertaisesti. Galakseja on muodostunut siellä, missä pimeä aine on paakkuuntunut niiden tukirangaksi.Galaksit kasvoivat alkuräjähdyksen kaasun jäähtyessä ja tiivistyessä valtavissa kokkareissa, joita pimeä aine vähitellen muodosti. Protogalakseista tuli kääpiögalakseja. Kun ne ryhtyivät syömään toisiaan, syntyi suuria ja sitten massiivisia galakseja.Tähtiensä määrältä ja massaltaan neljän Linnunradan kokoisen JWST-7329- tai ZF-UDS-7329-galaksin valo kajastaa 11,5 miljardin vuoden takaa. Laskelma perustuu punasiirtymään eli valon allonpituusalueen värijakauman muutoksiin, jotka syntyvät, kun valo kulkee pitkää matkaansa.JWST-7329:n tähtien ikään tutkijat laskivat vielä puolitoista miljardia vuotta lisää. Kun universumi on tällä tietoa vajaan 13,8 miljardin vuoden ikäinen, kummastuttava jättiläinen muodostui liian pian alkuräjähdyksen jälkeen mahtuakseen vakiintuneisiin käsityksiin.Avaa kuvien katseluVielä Maassa. JWST:n ratkaisevan tärkeä pääpeili on halkaisijaltaan 6,5-metrinen. Kuva: NasaJWST-7329 on kummajainen myös siksi, että se on punainen. Massiivisuutensa vuoksi sillä pitäisi olla edelleen kylliksi kaasua uusien tähtien tuottamiseen. Sen pitäisi olla sininen ja kirkas.– Jahtasimme juuri tätä galaksia seitsemän vuotta, sillä tunnistimme se epätavalliseksi. Tarkkailimme sitä kahdella maapallon suurimmalla kaukoputkella selvittääksemme, kuinka vanha se on, mutta sen valo oli niille liian punainen ja liian heikko. Emme pystyneet mittaamaan sen ikää, kertoo Karl Glazebrook.Hän on australialaisen Swinburnen teknillisen yliopiston havaitsevan tähtitieteen professori ja johti kansainvälistä ryhmää, joka päätti hakea vastauksia Yhdysvaltain avaruushallinnon Nasan JWST-teleskoopin avulla.Maassa on kooltaan suurempia teleskooppeja kuin JWST, mutta sillä on isona etuna sijaintinsa kaukana Auringon kiertoradalla. Siellä se havainnoi pääasiassa infrapunavaloa, jollaiseksi varhaisen maailmankaikkeuden galaksien näkyvä valo on vuosimiljardien aikana venynyt.Lisäksi JWST näkee kohteita, jotka muilla aallonpituuksilla jäävät avaruuden pölyn ja kaasujen peittoon. Infrapunasäteily tunkeutuu niiden läpi. JWST kykenee näkemään himmeämmän infrapunavalon kuin yksikään teleskooppi sitä ennen.Aivan aikojen alkuun asti sekään ei kykene katsomaan mutta kuitenkin alueelle, jonka havainnointi on ollut tätä ennen mahdotonta.Avaa kuvien katseluTässäkin JWST:n kuvassa on galaksien tutkijoille jotakin hyvin kummallista. Kääpiögalaksit ovat galakseista yleisimpiä, mutta PEARLSDG on outolintu niiden joukossa: se ei reagoi naapurigalaksiinsa mutta ei myöskään tuota uusia tähtiä.   Kuva: Nasa, Esa, CSA, ASU, UWA ja STSclJWST:n havainnot ovat jo tätä ennen venyttäneet rajoja, joihin teoreettiset mallit galaksien synnystä ja kehittymisestä perustuvat. Galaksien alku on siirtynyt ajassa taaksepäin ja kehitysvauhti nopeutunut.Vanhoja lepääviä galakseja, joiden tähdet ovat viilentyneet eikä uusia synny, on nyt havaittu 1–2 miljardin vuoden päässä alkuräjähdyksestä. JWST-7329 on vielä vanhempi. Joidenkin vielä tuntemattomien prosessien ja mekanismien on täytynyt ohjata sen ja muiden vanhojen jättiläisten kehitystä.– Aiemmin ei ollut mahdollista vahvistaa näiden syvällä universumissa lepäävien hirviöiden olemassaoloa. Seuraava avainkysymys on, miten ne saattoivat syntyä niin pian, sanoo tutkijatohtori Themiya Nanayakkara, joka tuoreessa tutkimuksessa johti JWST:ltä saadun datan spektrianalyysejä.Karl Glazebrook toivoo lisänäyttöä tukemaan ryhmänsä työn tuloksia.– JWST on löytänyt yhä enemmän todisteita varhaisista massiivisista galakseista. Meidän tuloksemme on uusi ennätys. Se on silmiinpistävä, mutta kuitenkin vain yksi kohde. Toivomme löytävämme lisää. Jos se onnistuu, se todella järisyttää käsityksiä galaksien synnystä, hän sanoo.JSWT:lle suunniteltu vähin toiminta-aika on viisi vuotta. Toiveissa aika on kaksinkertainen tai jopa pidempi, sillä polttoainetta riittää pitämään JWST kiertoradallaan yli 20 vuotta.Miten JWST tehtiin? Yle Areena -dokumentti kertoo ainutlaatuisen teleskoopin tarinan. (Windfall Films/BBC, Britannia 2022)</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Ville ja Hennariikka Niinistö tulivat vuosi sitten julkisuuteen lapsettomuuskokemuksestaan. Nyt he kertovat, miten lopulta saivat toivomansa lapsen.</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Poika on vaalea kuin äitinsä.Tosin isän suvussa on kuulemma tavallista, että lapsi on alkuun vaaleatukkainen. Isän leukakuoppa on jo myös tunnistettu.Koska Kasper-poika syntyi lähes kolme kuukautta etuajassa, vihreiden europarlamentaarikko Ville Niinistö ja hänen vaimonsa Hennariikka Niinistö viettivät kaksi ensimmäistä kuukautta Kasperin kanssa sairaalassa.– Ensimmäinen onnen hetki siitä, että meillä on nyt vauva, oli siinä vaiheessa, kun pääsimme hänen kanssaan lopulta kotiin loka-marraskuun vaihteessa, tuore isä kertaa.Avaa kuvien katseluKasper-poika on nyt täysaikainen, hymyilevä vauva. Kuva: Antti Kolppo / YleTurkulais-helsinkiläisen parin tilanne oli vuosi sitten lohduton. Takana oli kuusi kesken mennyttä raskautta.– Vuosi sitten olimme olleet kolme vuotta sellaisessa mankelissa, Ville Niinistö huokaa.– Olimme silloin aika pohjalla lapsettomuustaipaleemme kanssa, Hennariikka Niinistö muistelee.Keskenmenojen vuoksi näytti siltä, että pariskunnan ainoa toivo saada yhteinen lapsi olisi sijaissynnytys.Sijaissynnytykseen tähtäävät hoidot ovat Suomessa kuitenkin lailla kiellettyjä.Pian Hennariikka oli seitsemättä kertaa raskaana, mutta keskenmeno uhkasi jälleen.Julkisen terveydenhuollon lapsettomuusklinikalla Niinistöille todettiin, ettei keskenmenoja voida hoitaa. Suomessa julkisella sektorilla on linjattu, että toistuvista keskenmenoista kärsivän seuraavaa alkuraskautta ei kontrolloida tavallista tiheämmin. Tilannetta parantavaa lääkehoitoa ei myöskään anneta.Sitten Yle julkaisi pariskunnan lapsettomuudesta kertovan jutun.Vielä samana iltana Hennariikka Niinistön puhelin soi.Hennariikka Niinistö kertoo vuosi sitten seitsemättä raskautta uhanneesta keskenmenosta. Video: Antti Kolppo / Yle Naisen kaikki raskaudet ovat erilaisiaYksityisen lapsettomuusklinikka Dextran naistentautien ja synnytysten erikoislääkäri Eero Varila kertoo tarttuneensa puhelimeen heti nähtyään Niinistöjen lapsettomuudesta kertovan jutun.Eniten hän oli hätkähtänyt parin saamaa tietoa, että sijaissynnytys olisi ehkä heidän ainoa vaihtoehtonsa lapsen saamiseksi.– Ensinnäkään sijaissynnytys ei ole Suomessa sallittua. Asia on tällä hetkellä taas päättäjillä lausuntokierroksella. Sijaissynnytysten mahdollisuuden palauttaminen riippuu kulloisenkin hallituksen kokoonpanosta ja päättäjien vakaumuksista, Varila toteaa.Varila on hoitanut satoja keskenmenoista kärsineitä naisia ja pareja. Hän löysi oikean hoidon myös Hennariikka Niinistölle ja tuloksena on nyt parin hartaasti toivoma Kasper.Avaa kuvien katseluVille Niinistön mielestä on outoa, ettei julkisessa terveydenhuollossa ole käypä hoito -suosituksia keskenmenojen hoitoon. ”Hoitojärjestelmässä, jossa yritetään vain minimoida kustannuksia, ihmisten ongelmia ei varsinaisesti hoideta vaan sysätään eteenpäin.” Kuva: Antti Kolppo / YleVarila tietää, miksi Suomessa julkisessa terveydenhuollossa ei hoideta keskenmenoja.– Eurooppalainen tiedeyhteisömme ESHRE (European Society of Human Reproduction and Embryology) päivitti vuosi sitten ohjeistuksen keskenmenojen hoitamisesta. Siitä, mitä kannattaa tutkia ja hoitaa. Siellä on useita kohtia, joissa lukee: ”Ei suositella, koska ei ole selkeää tieteellistä näyttöä”.Varila muistuttaa, että kaikki raskaudet ovat erilaisia – myös samalla naisella.Keskenmenon estävää lääkettä ja lumelääkettä sisältävä vertailututkimus on eettisesti vaikea tai käytännössä jopa mahdoton toteuttaa raskaana olevilla.Monissa maissa toistuvan keskenmenon uhkaa lääkitään naisilla silti alkuraskaudesta lähtien.Varilan mukaan toistuvia keskenmenoja on tutkittu ja hoidettu paljon esimerkiksi Britanniassa ja Innsbruckin yliopistosairaalassa Itävallassa.Kuuntele, mitä Dextran lapsettomuuslääkäri Eero Varila kertoo keskenmenojen hoidosta ItävallassaNiinistöjen kohdalla Varila ei nähnyt lääkehoitojen aloittamisessa mitään ongelmaa. Hän käytti tuntemiaan ja turvallisiksi todettuja lääkkeitä.– Me vain sitkeästi jatkamme, seuraamme ja teemme kontrolleja. Sitten kun raskaus etenee, ensimmäisen kolmanneksen jälkeen lääkitykset pystytään lopettamaan, Varila kertoo.Kyse ei hänen mukaansa ole edes lääkehoitojen hinnasta, vaan suomalaisten sairaaloiden omista käytännöistä. Varilan mukaan keskenmenojen syitä tai altistavia tekijöitä ei tutkita yliopistosairaaloissa.Avaa kuvien katseluKasper on hartaasti odotettu perheenjäsen.  Kuva: Antti Kolppo / YleJulkinen ja yksityinen hoito toimivat erilläänHeteroparien tavallisimpia lapsettomuusongelmia on hoidettu julkisessa terveydenhuollossa jo vuosikymmeniä.Yliopistosairaaloiden lapsettomuushoidoissa hoidettavan naisen yläikärajaksi on rajattu 40 vuotta.Yli 30 vuotta lapsettomuuslääkärinä työskennelleen Eero Varilan mielestä julkiselle puolelle asetettu lapsettomuushoitojen yläikäraja on keinotekoinen. Hän muistuttaa, että on monenlaisia syitä lapsettomuudelle.Niinistöt ovat tietenkin tyytyväisiä, että julkisuuden avulla he lopulta löysivät lapsettomuuslääkärin, joka pystyi auttamaan heitä.– Kun meillä Suomessa kuitenkin on lääkäreitä, jotka ovat erikoistuneet esimerkiksi keskenmenojen hoitamiseen, miksi ihmisiä ei ohjata heidän hoitoonsa? Näin vältettäisiin monta inhimillistä tragediaa, Ville Niinistö sanoo.Avaa kuvien katseluNiinistöt tulivat vuosi sitten julkisuuteen lapsettomuudestaan. ”Julkisuuteen lähteminen pelotti ihan hirveästi. Tämän henkilökohtaisempaa asiaa kun ei oikein ole”, Hennariikka Niinistö kertoo.  Kuva: Antti Kolppo / YleHennariikka Niinistö ottaa esiin myös tasa-arvon.– Kaikilla ei ole mahdollisuutta hakeutua yksityiselle puolelle saamaan lisätukea. Onko oikein, ettei keskenmenoja hoideta julkisella? hän kysyy.THL:n mukaan vuonna 2020–2021 Suomessa oli kaikkiaan 21 lapsettomuusklinikkaa, joista kuusi sijaitsi Helsingin alueella. Kaikista klinikoista yhdeksän toimi julkisella sektorilla.Lapsettomuuslääkäri Eero Varila ottaa esiin keskenmenojen hoitamattomuuden muut puolet.– Toistuvat keskenmenot ovat kuoleman jälkeen psyykkisesti kuormittavin tilanne ihmiselle.Vihreiden meppinä Brysselissä ja Strasbourgissa työskentelevä Ville Niinistö sanoo, että ihmisiltä saatu palaute haastattelun jälkeen antoi voimaa ja auttoi jaksamaan. Systeemi on pettänyt monet.– Kymmenet, ellei jopa sadat, ovat olleet meihin yhteydessä ja kertoneet kokemuksiaan toistuvista keskenmenoista ja pitkittyneestä lapsettomuudesta, hän kertoo.Ville Niinistö kertoo videolla, mitä tuntemuksia ihmisten yksin jäämisen kertomukset ovat hänessä herättäneet. Video: Antti Kolppo / YlePariskunnan kokemus on, että Suomessa vallitsee lapsettomuuteen ja keskenmenoihin liittyen hiljaisuuden kulttuuri.– Se, että ihmiset ovat kantaneet näitä asioita paljon yksin, on johtanut siihen, että asioita ei ole myöskään hoidettu kuntoon, Ville Niinistö muistuttaa.Kun asiasta puhutaan, niin esimerkiksi työpaikoilla osataan paremmin käsitellä hoitoihin liittyviä poissaoloja. Samalla lisääntyy ymmärrystä, että lapsettomuus ja siihen liittyvät hoidot ovat yleinen ja tavallinen ongelma Suomessa, Niinistöt pohtivat.– On ensiarvoisen tärkeää, että tieto kulkee. Ihmisten pitää saada tieto, minne voi hakeutua jatkohoitoon, jos julkisella ei pystytä hoitamaan, Hennariikka Niinistö painottaa.Käypä hoito -suositustyö keskenmenoista alkaa maanantaina 26.2.2024.Avaa kuvien katseluNiinistöt ovat Kasperin keskosuuden vuoksi liikkuneet julkisissa tiloissa vasta vähän. Kuva: Antti Kolppo / Yle</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
         <v>35</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Kun Niinistöt saivat kuudennen keskenmenon, he luopuivat toivosta – yksi puhelu toi avun, jonka he soisivat muillekin</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20075866</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>24.02.2024</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Ville ja Hennariikka Niinistö tulivat vuosi sitten julkisuuteen lapsettomuuskokemuksestaan. Nyt he kertovat, miten lopulta saivat toivomansa lapsen.</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Poika on vaalea kuin äitinsä.Tosin isän suvussa on kuulemma tavallista, että lapsi on alkuun vaaleatukkainen. Isän leukakuoppa on jo myös tunnistettu.Koska Kasper-poika syntyi lähes kolme kuukautta etuajassa, vihreiden europarlamentaarikko Ville Niinistö ja hänen vaimonsa Hennariikka Niinistö viettivät kaksi ensimmäistä kuukautta Kasperin kanssa sairaalassa.– Ensimmäinen onnen hetki siitä, että meillä on nyt vauva, oli siinä vaiheessa, kun pääsimme hänen kanssaan lopulta kotiin loka-marraskuun vaihteessa, tuore isä kertaa.Avaa kuvien katseluKasper-poika on nyt täysaikainen, hymyilevä vauva. Kuva: Antti Kolppo / YleTurkulais-helsinkiläisen parin tilanne oli vuosi sitten lohduton. Takana oli kuusi kesken mennyttä raskautta.– Vuosi sitten olimme olleet kolme vuotta sellaisessa mankelissa, Ville Niinistö huokaa.– Olimme silloin aika pohjalla lapsettomuustaipaleemme kanssa, Hennariikka Niinistö muistelee.Keskenmenojen vuoksi näytti siltä, että pariskunnan ainoa toivo saada yhteinen lapsi olisi sijaissynnytys.Sijaissynnytykseen tähtäävät hoidot ovat Suomessa kuitenkin lailla kiellettyjä.Pian Hennariikka oli seitsemättä kertaa raskaana, mutta keskenmeno uhkasi jälleen.Julkisen terveydenhuollon lapsettomuusklinikalla Niinistöille todettiin, ettei keskenmenoja voida hoitaa. Suomessa julkisella sektorilla on linjattu, että toistuvista keskenmenoista kärsivän seuraavaa alkuraskautta ei kontrolloida tavallista tiheämmin. Tilannetta parantavaa lääkehoitoa ei myöskään anneta.Sitten Yle julkaisi pariskunnan lapsettomuudesta kertovan jutun.Vielä samana iltana Hennariikka Niinistön puhelin soi.Hennariikka Niinistö kertoo vuosi sitten seitsemättä raskautta uhanneesta keskenmenosta. Video: Antti Kolppo / Yle Naisen kaikki raskaudet ovat erilaisiaYksityisen lapsettomuusklinikka Dextran naistentautien ja synnytysten erikoislääkäri Eero Varila kertoo tarttuneensa puhelimeen heti nähtyään Niinistöjen lapsettomuudesta kertovan jutun.Eniten hän oli hätkähtänyt parin saamaa tietoa, että sijaissynnytys olisi ehkä heidän ainoa vaihtoehtonsa lapsen saamiseksi.– Ensinnäkään sijaissynnytys ei ole Suomessa sallittua. Asia on tällä hetkellä taas päättäjillä lausuntokierroksella. Sijaissynnytysten mahdollisuuden palauttaminen riippuu kulloisenkin hallituksen kokoonpanosta ja päättäjien vakaumuksista, Varila toteaa.Varila on hoitanut satoja keskenmenoista kärsineitä naisia ja pareja. Hän löysi oikean hoidon myös Hennariikka Niinistölle ja tuloksena on nyt parin hartaasti toivoma Kasper.Avaa kuvien katseluVille Niinistön mielestä on outoa, ettei julkisessa terveydenhuollossa ole käypä hoito -suosituksia keskenmenojen hoitoon. ”Hoitojärjestelmässä, jossa yritetään vain minimoida kustannuksia, ihmisten ongelmia ei varsinaisesti hoideta vaan sysätään eteenpäin.” Kuva: Antti Kolppo / YleVarila tietää, miksi Suomessa julkisessa terveydenhuollossa ei hoideta keskenmenoja.– Eurooppalainen tiedeyhteisömme ESHRE (European Society of Human Reproduction and Embryology) päivitti vuosi sitten ohjeistuksen keskenmenojen hoitamisesta. Siitä, mitä kannattaa tutkia ja hoitaa. Siellä on useita kohtia, joissa lukee: ”Ei suositella, koska ei ole selkeää tieteellistä näyttöä”.Varila muistuttaa, että kaikki raskaudet ovat erilaisia – myös samalla naisella.Keskenmenon estävää lääkettä ja lumelääkettä sisältävä vertailututkimus on eettisesti vaikea tai käytännössä jopa mahdoton toteuttaa raskaana olevilla.Monissa maissa toistuvan keskenmenon uhkaa lääkitään naisilla silti alkuraskaudesta lähtien.Varilan mukaan toistuvia keskenmenoja on tutkittu ja hoidettu paljon esimerkiksi Britanniassa ja Innsbruckin yliopistosairaalassa Itävallassa.Kuuntele, mitä Dextran lapsettomuuslääkäri Eero Varila kertoo keskenmenojen hoidosta ItävallassaNiinistöjen kohdalla Varila ei nähnyt lääkehoitojen aloittamisessa mitään ongelmaa. Hän käytti tuntemiaan ja turvallisiksi todettuja lääkkeitä.– Me vain sitkeästi jatkamme, seuraamme ja teemme kontrolleja. Sitten kun raskaus etenee, ensimmäisen kolmanneksen jälkeen lääkitykset pystytään lopettamaan, Varila kertoo.Kyse ei hänen mukaansa ole edes lääkehoitojen hinnasta, vaan suomalaisten sairaaloiden omista käytännöistä. Varilan mukaan keskenmenojen syitä tai altistavia tekijöitä ei tutkita yliopistosairaaloissa.Avaa kuvien katseluKasper on hartaasti odotettu perheenjäsen.  Kuva: Antti Kolppo / YleJulkinen ja yksityinen hoito toimivat erilläänHeteroparien tavallisimpia lapsettomuusongelmia on hoidettu julkisessa terveydenhuollossa jo vuosikymmeniä.Yliopistosairaaloiden lapsettomuushoidoissa hoidettavan naisen yläikärajaksi on rajattu 40 vuotta.Yli 30 vuotta lapsettomuuslääkärinä työskennelleen Eero Varilan mielestä julkiselle puolelle asetettu lapsettomuushoitojen yläikäraja on keinotekoinen. Hän muistuttaa, että on monenlaisia syitä lapsettomuudelle.Niinistöt ovat tietenkin tyytyväisiä, että julkisuuden avulla he lopulta löysivät lapsettomuuslääkärin, joka pystyi auttamaan heitä.– Kun meillä Suomessa kuitenkin on lääkäreitä, jotka ovat erikoistuneet esimerkiksi keskenmenojen hoitamiseen, miksi ihmisiä ei ohjata heidän hoitoonsa? Näin vältettäisiin monta inhimillistä tragediaa, Ville Niinistö sanoo.Avaa kuvien katseluNiinistöt tulivat vuosi sitten julkisuuteen lapsettomuudestaan. ”Julkisuuteen lähteminen pelotti ihan hirveästi. Tämän henkilökohtaisempaa asiaa kun ei oikein ole”, Hennariikka Niinistö kertoo.  Kuva: Antti Kolppo / YleHennariikka Niinistö ottaa esiin myös tasa-arvon.– Kaikilla ei ole mahdollisuutta hakeutua yksityiselle puolelle saamaan lisätukea. Onko oikein, ettei keskenmenoja hoideta julkisella? hän kysyy.THL:n mukaan vuonna 2020–2021 Suomessa oli kaikkiaan 21 lapsettomuusklinikkaa, joista kuusi sijaitsi Helsingin alueella. Kaikista klinikoista yhdeksän toimi julkisella sektorilla.Lapsettomuuslääkäri Eero Varila ottaa esiin keskenmenojen hoitamattomuuden muut puolet.– Toistuvat keskenmenot ovat kuoleman jälkeen psyykkisesti kuormittavin tilanne ihmiselle.Vihreiden meppinä Brysselissä ja Strasbourgissa työskentelevä Ville Niinistö sanoo, että ihmisiltä saatu palaute haastattelun jälkeen antoi voimaa ja auttoi jaksamaan. Systeemi on pettänyt monet.– Kymmenet, ellei jopa sadat, ovat olleet meihin yhteydessä ja kertoneet kokemuksiaan toistuvista keskenmenoista ja pitkittyneestä lapsettomuudesta, hän kertoo.Ville Niinistö kertoo videolla, mitä tuntemuksia ihmisten yksin jäämisen kertomukset ovat hänessä herättäneet. Video: Antti Kolppo / YlePariskunnan kokemus on, että Suomessa vallitsee lapsettomuuteen ja keskenmenoihin liittyen hiljaisuuden kulttuuri.– Se, että ihmiset ovat kantaneet näitä asioita paljon yksin, on johtanut siihen, että asioita ei ole myöskään hoidettu kuntoon, Ville Niinistö muistuttaa.Kun asiasta puhutaan, niin esimerkiksi työpaikoilla osataan paremmin käsitellä hoitoihin liittyviä poissaoloja. Samalla lisääntyy ymmärrystä, että lapsettomuus ja siihen liittyvät hoidot ovat yleinen ja tavallinen ongelma Suomessa, Niinistöt pohtivat.– On ensiarvoisen tärkeää, että tieto kulkee. Ihmisten pitää saada tieto, minne voi hakeutua jatkohoitoon, jos julkisella ei pystytä hoitamaan, Hennariikka Niinistö painottaa.Käypä hoito -suositustyö keskenmenoista alkaa maanantaina 26.2.2024.Avaa kuvien katseluNiinistöt ovat Kasperin keskosuuden vuoksi liikkuneet julkisissa tiloissa vasta vähän. Kuva: Antti Kolppo / Yle</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>35</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Ylen hallin­to­neu­voston kolme jäsentä vaatii Euroviisuihin Israel-boikottia</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20075936</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>22.02.2024</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Ylen osallistumisesta Euroviisuihin päättää Ylen johtoryhmä. Ulostulo ei edusta hallintoneuvoston kantaa, puheenjohtaja sanoo.</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Yleisradion hallintoneuvoston jäsenet Maria Ohisalo (vihr.), Li Andersson (vas.) ja Elisa Gebhard (sd.) toivovat, että Yle vetäytyy Euroviisuista, mikäli Israelin yleisradioyhtiö Kan saa niihin osallistua. Heidän mielestään Ylen hallituksen tulisi ottaa kantaa Israelin osallistumista vastaan.Kolmikon kanta käy ilmi Ylen toimitusjohtajalle ja hallitukselle lähetetyssä kirjeessä.Hallintoneuvosto on Ylen ylin päättävä elin, ja sen jäsenet valitsee eduskunta. Hallintoneuvosto valitsee Ylelle hallituksen, joka huolehtii Ylen hallinnosta ja toiminnan asianmukaisesta järjestämisestä.Ylen osallistumisesta Euroviisuihin ei päätä hallintoneuvosto tai hallitus vaan Ylen johtoryhmä.Kirjeessä poliitikot muistuttavat, että ihmisoikeustilanne Palestiinassa ja Israelissa on ollut jo vuosien ajan hälyttävä. He vetoavat kansainvälisen tuomioistuimen ICJ:n välipäätökseen 26. tammikuuta. Se velvoitti Israelia toimiin kansanmurhan ehkäisemiseksi. Poliitikkojen mukaan ICJ:n päätös velvoittaa Israelia, mutta asettaa myös muille YK:n joukkotuhontaa koskevan yleissopimuksen osapuolille velvollisuuden estää ja olla tukematta mahdollista kansanmurhaa.– Näin ollen olisi perusteltua, että Yle sekä muut eurooppalaiset yleisradiot vaatisivat Euroopan yleisradiounionia (EBU) sulkemaan Israel ulos kisoista, kuten se teki Venäjälle maan hyökättyä Ukrainaan vuonna 2022. Ja mikäli näin ei tapahdu, olisi perusteltua, että Yle itse jättäytyisi kisoista pois, kirjeessä todetaan.Avaa kuvien katseluElisa Gebhard, Maria Ohisalo ja Li Andersson vaativat Yleltä toimia Euroviisujen suhteen. Kuva: Henrietta Hassinen / Yle, Silja Viitala / Yle, Tiina Jutila / YleHallintoneuvoston puheenjohtaja kommentoiYlen johtoryhmästä ei haluttu kommentoida asiaa torstaina Yle Uutisille. Johtoryhmään kuuluvat toimitusjohtaja Merja Ylä-Anttila sekä 10 muuta Ylen johtajaa. Johtoryhmän jäsenistä päättää Ylen hallitus.Kansanedustajien kirjeessä muistutetaan, että vaikka kansanedustajien tai Ylen hallintoneuvoston tehtävänä ei ole puuttua Ylen ohjelmasisältöihin tai muuhun operatiiviseen toimintaan, voi hallintoneuvosto antaa hallitukselle ohjeita asioissa, jotka ovat laajakantoisia ja periaatteellisesti tärkeitä.– Siksi toivoisimme, että Ylen hallitus ottaisi edellä olevan huomioon, Ohisalo, Andersson ja Gebhard kirjoittavat.Hallintoneuvoston puheenjohtaja Sinuhe Wallinheimo (kok.) kommentoi asiaa Ylelle tekstiviestitse lyhyesti.– Ottaisin nyt asiat rauhassa ja maltilla. Päätös ei kuulu hallintoneuvostolle. Hallintoneuvoston päätösvalta ja tehtävät on rajattu lailla. Ulostulo ei edusta hallintoneuvoston kantaa, vaan yksittäisten jäsenten näkemystä asiasta, Wallinheimo kirjoittaa.– Asia nousi esille edellisessä hallintoneuvoston kokouksessa viime viikolla, jonka jälkeen jäsenet saivat seikkaperäisen katsauksen hallintoneuvoston toimivallasta asiassa.Avaa kuvien katseluSinuhe Wallinheimon (kok.) mukaan kolmen kansanedustajan kirje ei edusta hallintoneuvoston kantaa. Kuva: Petteri Bülow / YleYlen hallituksen puheenjohtaja Matti Apunen totesi Ylelle lyhyesti tekstiviestillä, ettei hänellä ole lisättävää Wallinheimon kommenttiin:– Hallintoneuvosto ohjeistaa halutessaan hallitusta, mutta se ei tapahdu yksittäisten hallintoneuvoston jäsenten kirjeiden kautta, Apunen kirjoittaa.Avaa kuvien katseluYlen hallituksen puheenjohtaja Matti Apunen Viimeinen sana -ohjelman vieraana.Gazan sodan alettua muun muassa Norjassa, Islannissa ja Irlannissa on vaadittu Euroviisujen boikotoimista ja Israelin sulkemista pois kisoista. Suomessa joukko tunnettuja suomalaismuusikoita jätti Ylelle tammikuussa vetoomuksen, jossa vaaditaan Yleä painostamaan EBUa sulkemaan Israel pois Euroviisuista.Tiistaina uutisoitiin, että Suomen edustaja Windows95man tulee osallistumaan Euroviisuihin ja että Yle luottaa Euroopan yleisradioliiton EBUn harkintaan Israelia koskevissa päätöksissä. Tällä hetkellä EBUn linja on, että Israel voi osallistua Euroviisuihin.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Presidentti Niinistö: Suomi vastustaa Macronin ajatusta maajoukkojen viemisestä Ukrainaan</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076632</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Macron nosti mahdollisuuden esiin eilen Pariisissa. Ajatus ei saa tukea muista Nato-maista.</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Ranskan presidentin Emmanuel Macronin ajatus maajoukkojen lähettämisestä Ukrainaan ei saa tukea muilta Nato-mailta.Presidentti Sauli Niinistö sanoo, että Ukrainaan ei tule lännen sotilaallista läsnäoloa.Niinistön mukaan Macronin johdolla Pariisissa keskusteltiin eilen maanantaina mahdollisista sotilaallisista ja ei-sotilaallisista keinoista.– Vallitsi laajasti jaettu käsitys siitä, ettei sotilaalliseen läsnäoloon ryhdytä. Tämä oli myös Suomen kanta, Niinistö sanoo sähköpostivastauksessaan Ylelle.Macronin koolle kutsumassa tapaamisessa oli parinkymmenen maan johtajat. Tarkoituksena oli keskustella avoimesti Ukrainan tukemisesta.Niinistö sanoo sähköpostivastauksessaan, että keskustelu oli hyödyllinen, ja siinä painottuivat erityisesti Ukrainan materiaalitarpeet.– Niiden täyttämiseksi voi olla tarpeen pohdia uusiakin keinoja, Niinistö sanoo.Keskustelun jälkeen lähdistötilaisuudessa Macron otti esille ajatuksen maajoukkojen lähettämisestä Ukrainaan. Tätä ei Macronin mukaan tule sulkea pois. Macronin mukaan joukoista ei kuitenkaan ole yksimielisyyttä.Macron vetosi, että sodan kuluessa länsi on jatkuvasti ollut Ukrainan tukemisessa myöhässä. Esimerkiksi panssarivaunujen ja lentokoneiden luovuttaminen on suljettu pois, kunnes niin on kuitenkin tehty. Maat ovat vältelleet liian tehokkaiden aseiden luovuttamista muun muassa siksi, että sen pelätään johtavan sodan kiihtymiseen tai laajenemiseen.Joukkojen lähettämistä Ukrainaan ei ole Nato-maissa pidetty mahdollisena, jotta Venäjän ja Nato-maiden sotilaat eivät joudu vastakkain.Ranskan aseapu Ukrainalle on ollut rahalliselta arvoltaan suhteessa vähäisempää kuin esimerkiksi Baltian maiden, Saksan ja Pohjoismaiden aseluovutukset. Eilen Ranska suostui kuitenkin joustamaan kannastaan, että Ukrainalle ei luovuteta kuin EU-maista hankittuja aseita.Joukkojen lähettäminen ei saa tukea muiltaAjatus lännen maajoukoista Ukrainalle ei ole saanut tukea myöskään muista Nato-maista.Saksan liittokanslerin Olaf Scholzin mukaan eilen sovittiin, etteivät Nato-maat tai Euroopan maat lähetä sotilaita Ukrainan maaperälle.Puolan ja Tsekin johtajat sanoivat yhteisessä tiedotustilaisuudessaan, etteivät maat kannata ajatusta.– Jos kaikki EU-maat tukisivat Ukrainaa kuin Puola ja Tsekki, ei tarvitsisi keskustella muista tuen muodoista, Puolan pääministeri Donald Tusk sanoi.Espanjan hallituksen mukaan Euroopan paras ase Putinin hyökkäystä vastaan on yhtenäisyys, eikä Espanja kannata maajoukkojen lähettämistä.Britanniakaan ei tue ajatusta maajoukoista.– Britannialla on jo pieni määrä henkilöitä maassa tukemassa Ukrainan sotavoimia, esimerkiksi kouluttamassa lääkinnässä. Meillä ei ole suunnitelmia laajamittaiseen joukkojen lähettämiseen, pääministerin tiedottaja kertoi.Venäjän Kreml varoitti tänään, että Nato-maiden joukkojen lähettäminen Ukrainaan tarkoittaisi väistämättä sotaa Naton ja Venäjän välillä.Lähteet: Yle, AFP, Reuters</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
         <v>36</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>Kuinka paljon muut ansaitsevat sinun tutkinnollasi? Katso palkka­koneesta</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20053544</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>21.02.2024</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
         <is>
           <t>Palkkakoneesta voit katsoa, miten paljon juuri sinun havittelemallasi tai suorittamallasi tutkinnolla tienaa. Ammattikoulussa opiskellut voi ansaita monilla aloilla korkeakoulutettuja paremmin.</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Työryhmä: Joonatan Reunanen, Marleena Pelli, Joel Kanerva, Stina Tuominen, Mika Pippuri, Eelis BjurströmJuttu tiivistettynäTämä on tekoälyn tuottama ja toimittajan tarkastama tiivistelmä.Ylen Tilastokeskukselta hankkimat tiedot paljastavat, että ammatillisella koulutuksella voi tienata enemmän kuin korkea-asteen tutkinnolla.Esimerkiksi automyyjän ammattitutkinnon suorittanut voi ansaita enemmän kuin monet maisterit tai tohtorit.Palkkakoneen avulla voi vertailla eri tutkintojen keskimääräisiä kuukausi- ja uratienestejä, mukaan lukien kokemuksen vaikutusta palkkaan.AvaaSuomen edellinen pääministeri Sanna Marin (sd.) on koulutukseltaan hallintotieteiden maisteri.Tutkinnolla valmistuneet työllistyvät usein asiantuntija- ja johtotehtäviin valtion ja kuntien hallintoihin. Mediaanipalkka on oikein mukava, hieman vajaat 5 000 euroa kuussa ennen veroja.Automyyjän ammattitutkinnosta valmistunut myy nimensä mukaisesti vaikkapa autoja. Hänen palkkansa on hallintotieteiden maisterin kanssa lähes sama – ja koska tutkinnon on voinut parhaimmillaan saada valmiiksi maisteria monta vuotta nuorempana, on työura pidempi. Lopputulos: vähän enemmän rahaa.Amiksen koulutustaustalla voi siis tienata isojakin summia.Paperiteollisuuden ammattitutkinnon suorittanut taasen voi kääriä koko työuransa aikana selvästi enemmän palkkaa kuin vaikkapa arkkitehti tai eläinlääkäri. Hän voi ansaita urallaan enemmän kuin tietyt monet maisterit ja tohtorit.Vain taloudellisesta näkökulmasta ajateltuna pitkä kouluttautuminen ei siis aina välttämättä kannata.Ylen Tilastokeskukselta hankkima poikkeuksellinen data paljastaa, kuinka paljon eri tutkinnon suorittaneet ansaitsevat työurillaan rahaa.Data näyttää jopa sen, kuinka paljon kokemus nostaa palkkaa eri tutkinnoissa – ja kuinka kokemuksella ei joskus ole juurikaan väliä.Palkkakone on jaettu kahteen osaan. Ensimmäiseksi voit tutkia sinua kiinnostavan tutkinnon kuukausipalkkoja työkokemuksen mukaan. Voit myös valita, käytätkö tuloja ennen verotusta vai sen jälkeen ja keski- vai mediaanipalkkaa.Ota huomioon, ettei kone huomioi eri alojen työttömyysriskiä. Kone antaa myös linkin Opintopolkuun, mikäli tutkintoa vastaavaa koulutusta voi hakea opiskelemaan.
 Toteutus vaati toimiakseen JavaScriptin.Seuraavaksi voit vertailla, paljonko eri koulutuksilla ehtii ansaita työuransa aikana. Valitse kaksi tutkintoa, ja kone piirtää sinulle kuvion, jossa vertailu on helppoa. Näet esimerkiksi, ehtiikö automyyjä tienata enemmän kuin hallintotieteiden maisteri.
@@ -3239,387 +4292,598 @@
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="110">
+      <c r="A110" t="n">
         <v>36</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Koira­piireissä kuohuu: Kennelliitto lätkäisi tunnetulle agili­ty­ur­hei­lijalle täyskiellon lajiin</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076554</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Kennelliiton hallituksen puheenjohtaja on saanut kritiikkiä agilityurheilija Einari Pekkalalle annetusta kilpailukiellosta. Agilityliitto luottaa puheenjohtajanaan toimivaan Pekkalaan.</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Maajoukkueeseen tähtäävä agilityurheilija pelkää, että häneltä on jäämässä merkittävä kisa väliin kilpailukiellon vuoksi.Kennelliiton hallitus on helmikuun alussa asettanut agilityurheilija ja -tuomari Einari Pekkalan väliaikaiseen kilpailu- ja toimintakieltoon.Päätöksen taustalla on Pekkalan tuomaritoiminnasta viime vuonna tehty valitus. Valitus käsitellään seuraavaksi liiton eettisessä lautakunnassa, mutta aikataulu on epäselvä. Ennen päätöstä Pekkala ei saa kilpailla eikä tuomaroida.Päätös on kohahduttanut agilityharrastajia. Kilpailukiellon vuoksi on mahdollista, ettei kansainvälisellä tasolla kilpaillut Pekkala pääse osallistumaan esimerkiksi maajoukkuekarsintoihin lainkaan.– Olen harjoitellut Papu-koiran kanssa vuosia. Tänä vuonna näyttää siltä, että arvokisat jäävät väliin, todella pahalta tuntuu, Pekkala sanoo.Taustalla kiista radastaEettisen lautakunnan pöydälle siirtyvä valitus koskee viime elokuun agilitykilpailun tapahtumia. Agilityurheilija teki kilpailun ylituomarina toimineesta Pekkalasta valituksen Suomen Agilityliitolle, jonka puheenjohtaja Pekkala on. Pekkalan ja kilpailijan välille syntyi erimielisyys siitä, oliko kisarata sääntöjen mukainen.Agilityradan esteiden väliin tulisi jäädä korkeintaan kahdeksan metriä. Pekkalan suunnittelemalla radalla kahden esteen välimatka oli 40 senttiä pidempi. Pekkala piti rataa kilpailukuntoisena eikä muuttanut sitä. Kilpailija valitti asiasta.Lisäksi hän ja Pekkala tekivät toisistaan ilmoitukset epäasiallisesta käytöksestä.Avaa kuvien katseluYlöjärveläinen Einari Pekkala on pettynyt Kennelliiton hallituksen päätökseen. Kuva: Marko Melto / YleAgilityliitto ei määrännyt Pekkalalle rangaistusta. Sääntöjen mukaisesti se lähetti päätöksen tiedoksi myös kattoyhdistyksensä Kennelliiton hallitukselle, joka määräsi Pekkalan kisakieltoon. Pekkala pitää päätöstä epäoikeudenmukaisena. Hän ei ole mielestään toiminut epäasiallisesti ja on toimittanut Kennelliitolle 11 käytöstään puoltavaa lausuntoa paikalla olleilta kilpailijoilta.– Nimeämiäni todistajia ei kuultu käsittelyn aikana joten jouduin hankkimaan lausunnot itse. Valituksen tehneen kilpailijan nimeämälle todistajalle Kennelliitto kuitenkin lähetti vastinepyynnön, Pekkala sanoo.Kennelliitto: yleinen tapaKennelliiton hallituksen puheenjohtaja Esa Kukkonen sanoo, että kilpailu- ja toimintakielto on valituskäsittelyn aikana yleinen tapa. Hän pitää päätöstä sääntöjen mukaisena myös kilpailukiellon osalta, vaikka valitus koskikin Pekkalan toimintaa tuomarina.– Jos rikkoo Kennelliiton sääntöjä jollain tavalla, kielto koskee silloin yleensä kaikkea toimintaa. Kennelliiton hallitus on ilmoittanut asian käsiteltäväksi liiton eettisessä lautakunnassa ja samalla liiton sääntöjen mukaisesti antanut väliaikaiset lisäseuraamukset.Kukkonen ei osaa arvioida, milloin Kennelliiton eettisen lautakunnan päätös asiassa valmistuu.– Prosessi voi kestää kuukausiakin.Pekkala valitti Kennelliiton hallituksen päätöksestä urheilun oikeusturvalautakuntaan. Se kuitenkin jätti valituksen tutkimatta puuttuvan toimivallan takia. Seuraavaksi Pekkala toimitti Helsingin käräjäoikeudelle moitekanteen sekä hakemuksen, jotta rangaistusten täytäntöönpano keskeytettäisiin kiireellisesti.Pekkala elättelee toivoa, että pääsisi maajoukkuekarsintojen toiseen osakilpailuun huhtikuussa.– Kennelliiton tuntien toiveet eivät ole suuria. Koska ensimmäinen osakilpailu jäi väliin, tulen tarvitsemaan täydellisen onnistumisen vaikka tuonne pääsisinkin.Avaa kuvien katseluPekkala aloitti agilityn parissa vuonna 2011. Valmentajana hän on toiminut kymmenkunta vuotta. Kuvassa Sinni-koira ja emäntä Susanna Nikkola Pekkalan valmennuksessa Tampereella. Kuva: Marko Melto / YleSome sauhuaaPekkala kertoi saamastaan kilpailukiellosta viikonloppuna avoimesti julkisella Facebook-seinällään koska koki, ettei Kennelliitto ole ollut halukas selvittämään tilannetta hänen kanssaan. Pekkalan puolesta on myös jätetty adressi, jossa vaaditaan Kennelliittoa vapauttamaan Pekkala kilpailukiellosta.– Agilityporukka on asettunut taakseni ja tukenut kovasti. Se on ollut hienoa.Myös Agilityliitto on julkaissut tiedotteen, jonka mukaan toimintakielto ei vaikuta Pekkalan tehtävään liiton puheenjohtajana.Esa Kukkonen näkee, että Pekkala on käyttänyt asemaansa Agilityliiton puheenjohtajana myös väärin.– Pekkala on käyttänyt liiton resursseja oman henkilökohtaisen asiansa käsittelyn vuoksi. Minusta hän koittaa somen, adressien ja ikään kuin painostuksen kautta saada mustan muuttumaan valkoiseksi.Kukkonen pitää sosiaalisessa mediassa käytyä keskustelua osin virheellisenä. Hän on myös saanut kritiikkiä.– Sosiaalisessa mediassa harrastetaan selkeää maalittamista esimerkiksi minua kohtaan. Innostetaan porukkaa ottamaan yhteyttä, vaikka minulla ei ole tässä prosessissa enää mitään päätösvaltaa. Asia on eettisen lautakunnan käsittelyssä Kennelliiton sääntöjen mukaan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>36</v>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>Aleksei Navalnyin ruumis luovutettiin viimein äidille – on epäselvää, voiko perhe järjestää normaalit hautajaiset</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076299</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>24.02.2024</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruumiin luovuttamista edelsi uhkailu ja kiristäminen. </t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>Edesmenneen venäläispoliitikon Aleksei Navalnyin ruumis on luovutettu Navalnyin äidille Ljudmila Navalnajalle.Asiasta kertoo Navalnyin tiedottaja Kira Jarmyš lauantaina.Jarmyš kiittää kaikkia, jotka vetosivat Navalnyin ruumiin luovuttamisen puolesta.Navalnyin tiedottaja myös kirjoittaa sosiaalisen median päivityksessä, että hautajaisjärjestelyistä ei voida toistaiseksi kertoa.– Emme tiedä, häiritsevätkö viranomaiset niiden [hautajaisten] järjestämistä ja sallivatko he haudata Aleksein perheen haluamalla tavalla ja kuten tämä ansaitsee. Tiedotamme heti kun saamme lisätietoja, Jarmyš kirjoittaa.Navalnyi kuoli viime perjantaina IK-6-vankilassa Siperian Harpissa.Navalnyin äiti on sanonut, että haluaa pojalleen julkiset hautajaiset ja muistotilaisuuden.Avaa kuvien katseluNavalnyi siirrettiin Melehovosta Moskovan läheltä Harpin rangaistussiirtolaan joulukuussa 2023. Kuva: Leena Luotio / YleNavalnyin äidille annettiin kolme tuntia aikaa päättääVenäläisviranomaiset uhkasivat eilen, perjantaina haudata oppositiopoliitikko Navalnyin IK-3 vankilan alueelle Siperian Harpissa.Jarmyšin mukaan vankilaviranomainen soitti Navalnyin äidille ja esitti hänelle uhkavaatimuksen.Ljudmila Navalnajalle sanottiin, että hänen pitäisi suostua salaisiin hautajaisiin kolmen tunnin sisällä.Navalnyin äiti kieltäytyi tiedottajan mukaan suostumasta salaisiin hautajaisiin ja vaati perjantaina syytteiden nostamista Salehardin tutkintaviranomaisia vastaan, venäläismedia Meduza uutisoi.Navalnyin äiti vetosi lakiin, jonka mukaan omaiset päättävät milloin ja missä vainaja haudataan.Useat venäläismuusikot, näyttelijät, kirjailijat ja muut julkisuuden henkilöt vetosivat tällä viikolla sosiaalisessa mediassa vetoomuksiaan, joissa vaaditaan Aleksei Navalnyin ruumiin luovuttamista tämän äidille.Videokooste Navalnyin elämästä.Lähteet: AFP, Reuters, AP</t>
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="112">
+      <c r="A112" t="n">
         <v>37</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Miten teidän perheessänne viestitellään puhelimella? Kerro meille, teemme juttua</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20073082</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Digitaalinen viestittely on monissa perheissä keskeisessä roolissa. Millaisia viestiryhmiä sinun perheessäsi käytetään?</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Erilaiset perheen, sisarusten ja sukulaisten kesken perustetut ryhmät ovat monella päivittäisessä käytössä pikaviestipalveluissa tai sosiaalisen median kanavissa.Ryhmissä jaetaan arkisia asioita kotiintuloajoista ja ruokalistoista, mutta ne ovat myös keino osoittaa välittämistä ja kiintymystä.Millä tavoin sinun perheenjäsenesi tai sukulaisesi viestittelevät keskenään erilaisissa ryhmissä? Millainen rooli ryhmillä on kommunikoinnissa?Kerro Ylelle kokemuksistasi, teemme aiheesta juttua. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>37</v>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t>”Kuin menneisyyden aave” – tutkijat löysivät sammak­ko­naa­maisen kilpikonnan Intiasta</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20075960</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>22.02.2024</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
         <is>
           <t>Äärimmäisen uhanalaista ja salaperäistä lajia uhkaa sukupuutto. Ihmiset tuhoavat konnien elinympäristöä ja tappavat niitä lihan vuoksi.</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>Kaakkois- ja Etelä-Aasian jokivarsissa elävä harvinainen kilpikonna on viime vuosina esiintynyt lähinnä huhuissa. Nyt niitä on vihdoin löytynyt Chandragirijoelta Intiasta.– Havainnot ovat olleet niin niukkoja, että kilpikonna on vaikuttanut menneisyyden aaveelta, kertoo tohtori Francoise Cabada-Blanco Portsmouthin yliopistosta tiedotteessa.Tutkijat pääsivät konnan jäljille kyselemällä ihmisiltä, jotka asuvat Keralan osavaltiossa Intian lounaisosassa. Kyläläiset johdattivat tutkijat paikkoihin, joista löytyi kilpikonnien lisäksi munia ja munimispaikkoja.Cantorin pehmeäkuorinen jättiläiskilpikonna (Cantor's Giant Softshell Turtle, Pelochelys cantorii) on Kansainvälisen luonnonsuojeluliiton mukaan äärimmäisen uhanalainen. Luokituksen seuraava pykälä tarkoittaa, että laji on säilynyt ainoastaan tarhattuna, viljeltynä tai luontoon palautettuna.Kilpikonnien kanta on kutistunut ennen kaikkea elinympäristön tuhoutumisen takia. Lisäksi paikalliset tappavat niitä saadakseen lihaa syötäväksi.Tutkijat pelastivat munia tulvivista pesistäJopa kaksimetriseksi kasvava Pelochelys cantorii tunnetaan myös nimellä sammakkonaamainen pehmeäkuorinen kilpikonna. Sen salaperäiset elintavat ovat kiehtoneet tutkijoita jo pitkään.Nyt ”sammakkonaaman” arvoitukset alkavat aueta. Tutkijat pääsivät todistamaan naaraan munimista, ja lisäksi he pelastivat munia tulvan täyttämistä pesistä.Tällä hetkellä ryhmä tutkijoita ja luonnonsuojelijoita työskentelee Keralassa kilpikonnien hyväksi. Eläimille rakennetaan hautomoja ja kasvattamoja yhdessä paikallisten kanssa, minkä toivotaan toimivan esimerkkinä uudenlaiselle luonnonsuojelulle.Tutkijat raportoivat havainnoistaan Oryx-julkaisussa.</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="114">
+      <c r="A114" t="n">
         <v>37</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>Analyysi: Kaksi vuotta hyökkäyssotaa on jäädyttänyt Venäjän yhteiskunnan – Navalnyille kannetaan silti yhä kukkia</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076245</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>24.02.2024</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
         <is>
           <t>Kaksi vuotta hyökkäyssotaa Ukrainaa vastaan on mahdollistanut Venäjän vallanpitäjille kovat otteet myös omassa maassaan, kirjoittaa Venäjän-kirjeenvaihtaja Heikki Heiskanen.</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>MOSKOVA Kuolema kulkee nyt Venäjällä ja niittää tiuhaan. Keskiviikkona julkisuuteen kerrottiin näkyvän sotabloggaajan Andrei Morozovin ampuneen itsensä.Morozov, kutsumanimeltään ”Murz”, kirjoitti 18. helmikuuta Telegram-kanavallaan, että Avdijivkan valtaus maksoi Venäjälle 16 000 kaatunutta sotilasta.Tämän takia hän joutui valtiollisen television vaikutusvaltaisen juontajan Vladimir Solovjovin ja muiden propagandistien hampaisiin.Viimeisessä viestissään Morozov kirjoitti poistaneensa postauksen kanavaltaan 20. helmikuuta sodanjohdon määräyksestä.Morozov kirjoitti, että ”poliittiset prostituoidut Vladimir Solovjovin johdolla” pakottivat sodanjohdon antamaan määräyksen julkaisun poistamisesta.Morozov oli kiirehtinyt rintamalle jo vuonna 2014, kun Venäjä aloitti alun perin peitellyt sotilastoimensa Ukrainassa. Hän oli kuollessaan 44-vuotias.Morozov oli fanaattinen sodan kannattaja, mutta hän arvosteli jyrkin sanoin Venäjän sodanjohtoa – aivan kuten entinen sotapäällikkö Igor Girkin alias Strelkov. Girkin tuomittiin tammikuussa neljän vuoden vankeuteen ääriliikehdinnän lietsomisesta.Tällaisille miehille ei näytä nyt olevan tilaa Venäjän valtajulkisuudessa.Avaa kuvien katseluPoliisi pidätti mielenosoittajia Pietarissa 24. syyskuuta 2022. Syyskuussa julistettu osittainen liikekannallepano nostatti mielenilmauksia Venäjällä. Kuva: Anatoli Maltsev / EPAKaikissa sodissa väkivalta tapaa ennemmin tai myöhemmin kääntyä myös sisäänpäin.Venäjällä tämä on nähty niin Afganistanin (1979–1989) kuin Tšetšenian sodissa (1994–1996 ja 1999–2009). Sota tuottaa väkivaltaisia, järkkyneitä miehiä.Usein sota myös antaa valtiolliselle väkivaltakoneistolle vapaat kädet – vallanpitäjät eivät poikkeusoloissa tunne tarvetta sallia enää mitään toisinajattelua.Avaa kuvien katseluMoskovalaiset toivat kukkia Aleksei Navalnyin muistoksi poliittisten vainojen uhreille pystytetyn Surumuuri-muistomerkin juurelle 17. helmikuuta.  Kuva: Denis Baranov / YleVenäläiset ovat viikon mittaan kantaneet kukkia poliittisten vainojen uhrien muistomerkeille siperialaisessa rangaistussiirtolassa kuolleen oppositiojohtaja Aleksei Navalnyin muistoksi. Hän oli kuollessaan 47-vuotias.Moskovassa viranomaiset pitivät ilmeisesti parhaana sallia ainakin jonkin verran kukkien laskemista. Monissa kaupungeissa poliisi esti senkin.Navalnyin kanssa samana päivänä 16. helmikuuta kuoli valokuvaaja Dmitri Markov, joka ikuisti kuviinsa elämää Venäjän eri alueilla. Kuolinsyytä ei ole kerrottu.Markovilla oli yli 800 000 seuraajaa Instagramissa. Hän oli kuollessaan 41-vuotias.Jotain olennaista ajasta tiivistyy Markovin ottamaan kuvaan, jossa maastokuvioituun univormuun ja mustaan maskiin pukeutunut turvallisuusviranomainen istuu pöydän takana – ja seinältä katsoo kuvassa vienosti hymyilevä Vladimir Putin.71-vuotiaan Putinin näkökulmasta asiat näyttäisivät etenevän oikeaan suuntaan. Lännen tuki Ukrainalle on jo heikentynyt. Pakotteet eivät ole murtaneet Venäjän taloutta. Tunnetuin poliittinen vastustaja on kuollut. Mielenilmaukset on saatu kuriin.Avaa kuvien katseluVenäjän puolustusministeri Sergei Šoigu esitteli presidentti Vladimir Putinille Venäjän joukkojen etenemistä Avdijivkaan tiistaina. Kuva: Alexander Kazakov / Sputnik / Kremlin pool / EPATaloutta toki uhkaa ylikuumentuminen, kun sotateollisuuden tuotantoa kasvatetaan ja työvoimasta on pulaa sotaakäyvässä maassa.Vallanpitäjät pyrkivät pitämään väestön enemmistön rauhallisena. Siksi uutta syksyn 2022 kaltaista liikekannallepanoa ei välttämättä ole odotettavissa.Arjessaan ihmiset pyrkivät työntämään ajatuksen sodasta taka-alalle. Moni kokee, ettei voi vaikuttaa asiaan mitenkään.Kyselyjen mukaan venäläiset ovat ryhmittäytyneet johtajansa taakse kuten konflikteissa usein käy. Tuki saattaa kuitenkin olla varsin passiivista.Kun liikemies Jevgeni Prigožin johdatti Wagner-palkkasotilaansa kapinamarssille kohti Moskovaa viime vuoden kesäkuussa, kansalaiset eivät kiirehtineet spontaanisti kaduille osoittamaan tukevansa Putinia.Moskovan kadut olivat sinä lauantaisena aamuna hiljaiset.Presidentinhallinnolla saattaa siis olla edessään täysi työ, kun sen pitää taata toivottu korkea äänestysvilkkaus maaliskuun presidentinvaaleissa.Vaalit ovat rituaali, mutta hallinnolle tärkeä rituaali: niiden pitää osoittaa Putinin ylivoimaisuus.Avaa kuvien katseluVladislav Davankov on Uudet ihmiset -puolueen presidenttiehdokas maaliskuun vaaleissa. Kuva: Yuri Kochetkov / EPAKaikenlainen poliittinen elämä on nyt suitsittu. Presidentinvaaleihin päästettiin vain mahdollisimman värittömiä ehdokkaita.Vaaliviranomaiset torjuivat varovaisen sodanvastaisia lausuntoja esittäneen Boris Nadeždinin ehdokkuuden. Hän olisi voinut koota taakseen sodanvastaisia mielialoja.Ehdolle on päässyt esimerkiksi räyhäkansallismielisen LDPR-puolueen johtaja, 56-vuotias Leonid Slutski. Slutski kampanjoi edesmenneen Vladimir Žirinovskin nimellä, koska hänellä itsellään ei ole sanottavaa karismaa.Kommunistipuolueen veteraanijohtaja, 79-vuotias Gennadi Zjuganov sysäsi ehdokkuuden 75-vuotiaan Nikolai Haritonovin kannettavaksi. Haritonov onnistuu televisiomainoksessaan vaikuttamaan vihaiselta eläkeläiseltä, mikä vetoaa lähinnä kommunistien ydinkannattajakuntaan.Uudet ihmiset -puolueen ehdokas Vladislav Davankov näyttää tässä seurassa melkein normaalilta poliitikolta. 39-vuotiaan Davankovin tehtäväksi on jäänyt esittää liberaalia ehdokasta.Avaa kuvien katseluVenäjän kommunistipuolueen presidenttiehdokas Nikolai Haritonov ja puolueen johtaja Gennadi Zjuganov laskivat kukkia Isänmaan puolustajan päivänä perjantaina 23. helmikuuta. Kuva: Sergeu Ilnititsky / EPASodat koventavat yhteiskunnallista ilmapiiriä. Sulkeutuminen näkyy kaikessa. Venäjän johto on ottanut lyömäaseekseen niin sanotut perinteiset arvot, mikä entisestään heikentää sukupuolivähemmistöjen asemaa.Haavoittuvassa asemassa olevat ihmiset joutuvat maksamaan siitä, että vallanpitäjät yrittävät kehittää edes jonkinlaisen julkisen ideologian valtansa tueksi.Marraskuussa Venäjän korkein oikeus kielsi ”kansainvälisen LGBT-liikkeen” ääriliikkeenä.Sellaista järjestöä ei ole olemassa, mutta poliisit ovat päätöksen jälkeen tehneet kovaotteisia ratsioita sukupuolivähemmistöjen suosimille klubeihin, baareihin ja jopa yksityisiin illanviettoihin.Ajan henki päästää ilmiantajat valloilleen. Nämä etsivät kilvan kiellettyä homoseksuaalisuuden propagointia, asevoimien mustamaalaamista ja ääriajattelua.Ilmiantoja tuli muun muassa yritysten ja lastenkotien käyttämistä sateenkaarien kuvista. Kansanedustaja Aleksandr Hinštein joutui jo täsmentämään, että kielto ei koske tavallista seitsenväristä sateenkaarta.Vaikeuksien pelossa kaupalliset toimijat ryhtyvät toimiin ennakolta. Venäläinen verkkokauppa Megamarket vahvisti äskettäin Kommersant-lehdelle vetäneensä myynnistä yli 250 kirjaa uuden homopropagandalain takia.Listalla on muun muassa sellaisia maailmankirjallisuuden teoksia kuin Giovanni Boccaccion Decamerone, Fjodor Dostojevskin keskeneräinen romaani Netotška Nezvanova, Platonin Pidot ja Oscar Wilden Dorian Grayn muotokuva.Yli 250 teoksen listan laati alun perin joulukuussa 2022 verkkokauppojen yhdistys AKIT.Sen puheenjohtaja Artjom Sokolov sanoi valtiolliselle RIA Novosti -uutistoimistolle, että lista oli tarkoitettu vain havainnollistukseksi siitä, mihin jyrkennetty homopropagandalaki voisi pahimmillaan johtaa.Nyt suuri verkkokauppa näytti ottaneen listan tosissaan.Avaa kuvien katseluUkrainan sotaan otettujen miesten vaimot ja muut omaiset laskivat kukkia Tuntemattoman sotilaan haudalle Kremlin muurin juureen 13. tammikuuta. Tie kotiin -liike vaatii liikekannallepanossa riviin otettuja miehiä takaisin rintamalta. Kuva: Sergei Ilnitsky / EPARiittävän epämääräisesti ja laveasti kirjoitettujen lakien oveluus onkin juuri siinä: Koskaan ei voi olla varma, onko rikkonut rajoja. Kaikki joutuvat olemaan kaiken aikaa varpaillaan.Varovaisuus on normaalitila vuoden 2024 Venäjällä, mutta se ei ole vielä täydellistä.Kansalaiset kantavat yhä kukkia muistomerkeille Moskovassa ja monissa muissa kaupungeissa. Rintamalle mobilisoituja miehiä kotiin vaativat omaiset laskevat lauantaisin kukkia Tuntemattoman sotilaan haudalle.</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="115">
+      <c r="A115" t="n">
         <v>38</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>Outo käänne maratonin ME-miehen valtavien hautajaisten valmistelussa – nuori nainen vaatii isyyden vahvistamista</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076048</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>22.02.2024</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
         <is>
           <t>Maratonin ME-mies Kelvin Kiptum haudataan perjantaina. Paikalle odotetaan arvovaltaisia vieraita. Torstaina valtava määrä ihmisiä saatteli Kiptumin viimeistä matkaa.</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>Keniassa on eletty synkkää suruaikaa, koska kestävyysjuoksun supertähti, maratonin maailmanennätysmies Kelvin Kiptum kuoli kotimaassaan auto-onnettomuudessa myöhään sunnuntaina 11. helmikuuta.Onnettomuus tapahtui ”kestävyysjuoksijoiden paratiisinakin” pidetyllä alueella, Länsi-Keniassa Kaptagatin ja Eldoretin kaupunkien välillä vuoristoisella tiellä.Onnettomuudessa kuoli 24-vuotiaan Kiptumin lisäksi myös tämän valmentaja Gervais Hakizimana. Kolmas kyydissä ollut henkilö, 24-vuotias nainen, loukkaantui vakavasti.Lue lisää: Maratonin nuoren ME-miehen kuolemassa synkkää symboliikkaa – ”Automatkan mitta olisi ollut 42 kilometriä”Kiptum menetti auton hallinnan. Auto suistui ojaan ja kulki sitä pitkin 60 metriä, kunnes törmäsi isoon puuhun. Reutersin mukaan Kiptum kuoli päävammoihin.Kiptum ehti juosta vain kolme maratonia, jotka kaikki mahtuvat kaikkien aikojen seitsemän nopeimman maratonajan joukkoon. Viime lokakuussa Kiptum juoksi Chicagossa ME-ajan 2.00.35. Hänestä tuli ensimmäinen 2.01:n alittaja virallisessa kilpailussa.Yleisesti odotettiin, että Kiptum rikkoo vuoden 2024 aikana kahden tunnin haamurajan virallisessa kilpailussa. Lisäksi Pariisin olympiamaratonista odotettiin kahden kenialaistähden, Kiptumin sekä entisen ME-miehen, kokeneen Eliud Kipchogen välistä mittelöä.Lue lisää: Karmeita lisätietoja maratonin ME-miehen tragediasta – isältä riipaiseva paljastus viimeisestä päivästäAvaa kuvien katseluKelvin Kiptumin uskottiin pystyvän alittamaan kahden tunnin raja jo Rotterdamin maratonilla keväällä 2024. Kuva: Getty ImagesSurukulkue ja massiiviset hautajaisjärjestelytKiptumin hautajaiset pidetään perjantaina 23. helmikuuta. Hänet kaudataan Chepkoriossa, Elgeyo-Marakwetin piirikunnassa.Torstain aikana sadat, ellei tuhannet, surijat saattelivat Kiptumin viimeistä matkaa. Joukossa oli myös 1 500 metrin maailmanennätyksen haltija, matkan moninkertainen MM- ja olympiavoittaja Faith Kipyegon.Kiptumin arkku kuljetettiin ruumishuoneelta Länsi-Kenian Eldoretin kaupungista hänen kotiseudulleen Chepsamoon. Matkan pituus oli 80 kilometriä.Paikalle kokoontuneet kenialaiset lauloivat hymnejä ja pitivät toisiaan käsistä. Matkalla Kiptumin arkku myös avattiin, että paikalliset pystyivät jättämään juoksusankarilleen jäähyväisiä.Kiptumia jäivät suremaan vaimo sekä 7- ja 4-vuotiaat lapset. Surun murtamat läheiset olivat jo aiemmin vedonneet Kenian hallitukseen saadakseen apua perheelleen. Kenian presidentti William Ruto onkin määrännyt, että perheelle rakennetaan talo.Myös hautajaisista tulee ”massiiviset”, mediat kirjoittavat. Ne pidetään paikallisessa koulussa. Paikalle saapuvat esimerkiksi presidentti Ruto ja Kansainvälisen yleisurheiluliiton puheenjohtaja Sebastian Coe.Kiptum haudataan tontille, jonka hän oli ostanut rakentaakseen perheelleen kodin. Kyseiselle tontille Kenian hallitus pystyttää talon Kiptumin leskelle sekä erillisen talon Kiptumin vanhemmille.Kelvin Kiptumia surraan Keniassa. Videolla kuvaa turmapaikalta sekä torstain surusaattueesta.Vaatimus hautajaisten lykkäämisestäEnnen hautajaisia Keniassa on ollut myös erikoinen kohu, kirjoittavat afrikkalaismediat Nation ja NTV Kenya.22-vuotias nainen on yrittänyt pysäyttää hautajaisjärjestelyt vedoten siihen, että Kiptum olisi hänen 1,5-vuotiaan tyttärensä isä. Naisen mukaan hänellä on oikeus osuuteen Kiptumin perinnöstä.Nainen oli toimittanut Eldoretin tuomioistuimeen hakemuksen, että hautajaisia pitäisi viivästyttää, kunnes tarvittavia osapuolia on kuultu ja DNA-testit tehty.Nairobin korkein oikeus kuitenkin naisen vaatimuksen, joten hautajaiset järjestetään suunnitellusti perjantaina.Naisen mukaan Kiptum on maksanut hänelle ja hänen tyttärelleen aiemmin rahallista korvausta.– Vainaja on tunnistanut minut sekä tyttäreni ja pitänyt meistä hyvää huolta osana perhettään aina kaksi viikkoa sitten tapahtuneeseen onnettomuuteen asti, nainen kommentoi.Oikeus katsoo, että suurhautajaisten suunnittelu on jo edennyt niin pitkälle, ettei niitä peruta. Oikeuden mukaan on olemassa muitakin tapoja saada tietoa väitetyistä sukulaissuhteista.– Tämä määräys ei siis rajoita alaikäisen etua. Alaikäisen äidillä on vapaus käyttää muita laillisia keinoja varmistaakseen, että lapsen oikeuksista huolehditaan, tuomari vastasi.Läheisten suruaKiptum kasvoi itse köyhässä maanviljelijäperheessä. Hän aloitti juoksemisen suoraan maanteillä, koska hänellä ei ollut varaa matkustaa seuduille, joilla oli yleisurheilukenttiä. Ensimmäiseen isompaan kilpailuunsakin vuonna 2018 Kiptum osallistui llainakengillä.Kiptumin äiti Mary Kangongo ja leski Asenath Rotich kuvailivat Kiptumia BBC:llä nöyräksi ja vitsailevaksi henkilöksi.– Hän oli nöyrä poika. Et olisi koskaan voinut arvata, että hän oli maailmanennätyksen haltija, joka oli ansainnut rahaa. Hän auttoi ja tuki aina yhteisöään, Kangongo sanoi.Avaa kuvien katseluLäheiset muistelivat BBC:llä nauravaista Kelvin Kiptumia. Kuva: STELLA Pictures / DDP / Abaca Press / AOPKuten kenialaisilla on tapana, Kiptum vietti viikot harjoituskeskuksessa. Viikonlopuiksi hän palasi kotiinsa perheensä luo.– Muistan hänet parhaiten hänen vitseistään... Hän oli rakastava ja välittävä mies, Rotich suri.Kiptumin läheiset ihmettelivät ajoittain miehen hurjaa treenimäärää, mutta tämä vastasi, että juoksemalla hän tekee läheistensä elämästä parempaa. Sen lisäksi Kiptum auttoi muita alueen urheilijoita ja koululaisia esimerkiksi varusteiden ja ruoan saamisessa.– Ilman Kiptumia elämäni olisi mennyt toisin. Olisin voinut olla kylässä juomassa alkoholia ja tekemässä muita paheita, kertoi 23-vuotias juoksija Henry Kipyego.</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="116">
+      <c r="A116" t="n">
         <v>38</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Ukrainan sota nyrjäytti maailman uuteen järjestykseen – tutkijat kertovat, miten liitto­lai­suudet toimivat nyt</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076003</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>24.02.2024</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
         <is>
           <t>Yle haastatteli neljää ranskalaista kansainvälisen politiikan asiantuntijaa siitä, millaisen uuden maailmanjärjestyksen kaksi vuotta sitten alkanut Ukrainan sota on luomassa.</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>– Elämme epäjärjestyksen ja rauhattomuuden maailmassa.Näin luonnehti tasavallan presidenttinä viikon päästä aloittava Alexander Stubb maailman tilaa eli tulevaa tehtäväkenttäänsä. Hän esitti arvionsa tiedotustilaisuudessa Münchenin turvallisuuskokouksessa viime viikolla.Stubb arvioi, että kylmän sodan jälkeen elettiin kuvitelmassa, jossa koko maailma ottaa ihanteikseen liberaalin demokratian ja sosiaalisen markkinatalouden. Globalisaation ajateltiin kulkevan siinä mukana sopuisasti käsikynkässä.– Tämä polku lähti sivuraiteille syyskuun 2001 terrori-iskuista ja kaikkein radikaaleimmin 24.2.2022, Alexander Stubb summasi Münchenissä.Helmikuun 24. päivänä tulee kuluneeksi kaksi vuotta siitä, kun Venäjä aloitti suurhyökkäyksen Ukrainaan.Avaa kuvien katseluVenäjän ilmaiskussa haavoittunut Iryna Kalinina evakuoitiin Mariupolin lastensairaalasta maaliskuussa 2022. Hänet vietiin toiseen sairaalaan, jossa Kalininan poika syntyi hätäsektiolla. Sekä äiti että lapsi kuolivat. Kuva: Jevhen Maloletka / AOPVenäjän häikäilemättömyys on yhdistänyt Eurooppaa ja länttä laajemminkin.Venäjän vastainen pakoterintama on pysynyt varsin yhtenäisenä, joskin Unkari on herättänyt toistuvasti huolta asettumalla vastahankaan pakotteissa ja Ukrainan tukemisessa.Suomi ja Ruotsi ovat hakeutuneet sotilasliitto Natoon, joka on näyttäytynyt ulospäin ehkä yhtenäisempänä kuin koskaan sitten kylmän sodan. Ruotsin Nato-jäsenyys on vielä sinettiä vailla juuri Unkarin pitkittäessä sen vahvistamista.Yle haastatteli neljää ranskalaista kansainvälisen politiikan asiantuntijaa maailman murroksesta ja siitä, millaisen uuden maailmanjärjestyksen Ukrainan sota on luomassa.Epävakaiden suhteiden maailmaAvaa kuvien katseluVenäjän presidentti Vladimir Putin vieraili Saudi-Arabian kruununprinssin Mohammed bin Salmanin luona Riadissa joulukuussa 2023.  Kuva: AOPRanskalaistutkijat ovat Alexander Stubbin kanssa samaa mieltä siitä, että maailma on epävakauden tilassa.– Epävakaus on jatkunut jo yli kymmenen vuotta, ja se syveni vuonna 2016 brexitin ja Donald Trumpin valinnan myötä, European Council on Foreign Relations -ajatushautomon (ECFR) johtaja Célia Belin sanoo.Stubb luonnehti, että itä eli muun muassa Kiina, Venäjä ja Iran haastavat kansainvälisiä sääntöjä ja instituutioita.Myös Belin näkee Kiinan, Venäjän ja nousevien talouksien horjuttavan tasapainoa. Maiden väliset suhteet muuttuvat tavallaan epämääräisemmiksi. Liittolaisuudet määräytyvät sen mukaan, mikä on kulloisenkin maan kannalta kulloinkin järkevää.Alexander Stubb muotoilee asian niin, että tulevaisuudessa tulemme näkemään entistä enemmän epäpyhiä alliansseja sekä kahden tai kolmen maan välisiä alliansseja, jotka tehdään reaalipoliittisesta näkökulmasta.Avaa kuvien katseluTuleva tasavallan presidentti Alexander Stubb tapasi Ukrainan presidentin Volodymyr Zelenskyin Münchenin turvallisuuskokouksen yhteydessä 17. helmikuuta. Kuva: EPA-EFE– Se on vähän tällainen à la carte -maailma, Alexander Stubb arvioi Münchenissä.Tämä näkyy nyt esimerkiksi siinä, että lännen eristämällä Venäjällä on kauppasuhteet Turkin, Saudi-Arabian ja Intian kaltaisten nousevien talouksien kanssa.– Tämä mahdollistaa sen, että Venäjä voi rahoittaa sotaansa, Montaigne-instituutin erityisneuvonantaja Michel Duclos muistuttaa.Maailma liikkeessä ja vanha valta horjuuMaailmanpolitiikan arkipäivää -ohjelma ”Maailma liikkeessä ja vanha valta horjuu” pohtii laajemmin Ukrainan sodan vauhdittamaa kansainvälisen politiikan muutosta.Länsi ei enää määrittele maailmanjärjestystäMyös globaalin etelän maat kyseenalaistavat vanhat säännöt ja rakenteet, arvioi Stubb. Nämä maat ovat usein köyhiä. Niiden mahdollisuus vaikuttaa maailman kehitykseen on heikko, koska kansainväliset säännöt ja rakenteet ovat lännen luomia. Globaalin etelän näkemyksen mukaan näiden sääntöjen tarkoitus on taata lännen etuja maailmassa.Kylmän sodan päättyminen mursi itä–länsi-jaon. Michel Duclos näkee, että nyt pohjoinen–etelä-jako on korvautumassa uudella tavalla hahmottaa maailmaa, jossa itä, länsi ja globaali etelä hakevat liittolaisuuksia.Tämä puolestaan näkyy hyvin selvästi siinä, millä lailla idän suurvalta Kiina hakee kumppanuuksia. Huomattava on, että Kiina on jo reilusti yli sadan Afrikan, Aasian ja Etelä-Amerikan maan tärkein kauppakumppani.Lisäksi juuri tällä hetkellä liittolaisuussuhteita määrittää toinen käynnissä oleva sota eli Gazan sota.Avaa kuvien katseluHaavoittunut mies toi pienen pojan hoidettavaksi gazalaiseen sairaalaan 20. lokakuuta 2023. Gazan sodan uhreista poikkeuksellisen suuri osuus on lapsia.  Kuva: Youssef Alzanoun / AOPMonelle lännen ulkopuoliselle maalle on epäselvää, mikseivät Yhdysvallat ja Eurooppa ole Venäjän tuomitsemisen tavoin yhtä hanakasti tuomitsemassa Israelin rajuja kostotoimia Gazan palestiinalaisia kohtaan. Länsi nähdään kaksinaamaisena.Venäjä on luonnollisesti pyrkinyt globaalissa etelässä voimakkaasti vahvistamaan tätä tulkintaa ja saamaan sen yleisesti hyväksytyksi kehyskertomukseksi.Näissä kehityskuluissa kulminoituu se, että lännellä ei ole enää samanlaista sananvaltaa maailman tapahtumien määrittelyssä kuin sillä on aiemmin ollut.– Historia on ollut lännen kirjoittamaa. Se aika on ohi, Célia Belin tiivistää.EU on yhtenäinen – poikkeuksena UnkariAvaa kuvien katseluUnkarin pääministeri Viktor Orbán ja Venäjän presidentti Vladimir Putin poseerasivat kameroille ennen tapaamistaan Pekingissä 17. lokakuuta 2023. Kuva: Grigory Sysoev / Sputnik / EPASuomen kannalta on kaikkein olennaisinta, miten Eurooppa ja EU löytävät paikkansa muuttuvassa maailmassa ja mikä on Naton tuleva rooli.EU:n yhtenäisyys on Venäjän uhan edessä tiivis – Unkari tietysti poikkeuksena. Unkarin johtaja Viktor Orbán vaikuttaa olevan Venäjän presidentin Vladimir Putinin äänitorvi EU:n sisällä.Venäjä toimittaa Unkarille öljyä ja kaasua, ja vastalahjaksi Orbán on toistuvasti jarruttanut Ukrainan tukemista. Unkaria on uhattu menettelyllä, jossa se suljettaisiin ulos EU:n päätöksenteosta. Moni näyttäisi Unkarille lopullisesti ovea.– Niin ilkimys kuin Unkari EU:ssa onkin, niin on ehkä parempi, että se on sisällä kuin ulkona. Ehkei Unkari ole ilkimys lopullisesti, Célia Belin sanoo.Unkarin käytös on kummajainen myös Nato-jäsenenä. Monet tutkijat aiheellisesti kysyvät, voiko Unkari olla liittokunnan jäsen, jos se pelaa Venäjän pussiin.– Unkarin täytyy pohtia, onko sen turvallisempaa olla EU:n ja Naton ulkopuolella. Jos vastaus on kyllä, Unkarin täytyy tehdä itse johtopäätöksensä, Ranskan ulkopoliittisen instituutin IFRI:n johtaja Thomas Gomart muotoilee.Sisäisesti EU on siis tiivistynyt Venäjän hyökkäyssodan vuoksi. Sota on samalla kirkastanut asioita eurooppalaisten silmissä. Euroopan geostrateginen painopiste on liikahtanut kohti itää. Puola, Baltian maat ja Pohjoismaat muodostavat nyt vahvan etuvartion kohti Venäjää.Presidentti Sauli Niinistö vieraili vuonna 2022 Naton monikansallisen taisteluosaston tukikohdassa Virossa. – Venäjää pidetään nyt yksiselitteisesti uhkana. Niin ei ennen hyökkäyssotaa ollut, ECFR:n Venäjä-asiantuntija Marie Dumoulin sanoo.Toinen silmiä avaava asia liittyy ydinaseisiin.– Naapuriinsa hyökännyt Venäjä on myös uhannut käyttää ydinaseita. Sekin on ollut ennenkuulumatonta.Marie Dumoulin huomauttaa, että eurooppalainen konsensus löytyi Venäjän uhkan edessä lopulta helposti, mutta se löytyi oudolla tavalla.– EU toimii nyt ilman johtajaa ja se on uutta. Toivottavasti se onnistuu jatkossakin, Dumoulin sanoo.Toisaalta Etelä-Euroopan näkövinkkelistä Ukraina näyttää osin kaukaiselta sodalta. Välimeren maissa nähtäisiin kernaasti samaa eurooppalaista yhtenäisyyttä meren etelärannalta Eurooppaan kohdistuvan siirtolaisuuden hoitamisessa.Trumpin valinta olisi uhka EuroopalleYksi kohtalonkysymys Euroopan kannalta on tietenkin Nato, sen tulevaisuus ja Yhdysvaltain presidentinvaalien kytkeytyminen siihen.On hyvin mahdollista, että republikaanien presidenttiehdokas ensi marraskuun Yhdysvaltain presidentinvaaleissa on Donald Trump. Edellisellä presidenttikaudellaan 2016–2020 hän vähätteli toistuvasti sekä EU:n että Naton merkitystä.Kaikki haastatellut kansainvälisen politiikan asiantuntijat pitävät Trumpin valintaa uhkana Euroopalle.– Jos hän palaa valtaan, hän on paljon paremmin valmistautunut kuin edellisellä kerralla. Hänellä on suunnitelma. Sellaista hänellä ei ollut vuonna 2016, IFRI:n johtaja Thomas Gomart sanoo.Trump ei luota monenkeskisyyteen eikä kansainväliseen sopimuspohjaisuuteen saati kansainvälisiin instituutioihin. Hän tahtoo kahdenvälisiä sopimuksia.Vastikään hän kehuskeli kampanjatilaisuudessaan sanoneensa merkittävälle eurooppalaiselle johtajalle, että jos Venäjä hyökkää, Yhdysvallat ei tule Naton viidennen artiklan mukaisesti apuun, ellei Euroopan maa ole satsannut sovitusti rahaa puolustukseensa.Donald Trump sanoi kampanjatilaisuudessaan Etelä-Carolinassa 15. helmikuuta, että hän on vaatinut muita Nato-maita ”maksamaan laskunsa”. Niinpä Euroopassa ihmetellään nyt sitä, mitä Trumpin mahdollinen paluu Yhdysvaltain johtoon merkitsisi.Célia Belin arvioi, että Trumpin korvaan kuiskutellaan Naton kutistamista minimiin ja amerikkalaisten joukkojen vetämistä pois Euroopasta. Euroopan puolustus halutaan sälyttää eurooppalaisten harteille.– Kaiken kaikkiaan transatlanttisista suhteista tulisi hyvin vaikeita, Célia Belin otaksuu.Ranskan presidentti Emmanuel Macron on korostanut toistuvasti Euroopan oman puolustuksen tärkeyttä ja sitä, ettei Eurooppa olisi niin riippuvainen Yhdysvaltain sotilaallisesta avusta.Montaigne-instituutin neuvonantaja Michel Duclos ei usko Euroopan täydelliseen puolustukselliseen itsenäisyyteen, mutta iso muutos on ovella.– Naton eurooppalainen pilari vahvistuu ja Yhdysvaltain kontolle jää ydinasepelote. Tämä on varmaan se suunta, mihin olemme menossa.</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="117">
+      <c r="A117" t="n">
+        <v>38</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>”En edes tiennyt, miltä moottori näyttää” – Trian Mwangi, 23, sai oppi­so­pi­muksen Suomen tuella, joka nyt päättyy</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20074018</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suomen hallitus leikkaa kehitysapua ja lopettaa neljä maaohjelmaa. Yle selvitti miten päätös vaikuttaa avunsaajiin Keniassa. </t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>NAIROBI Sali on täynnä sihinää ja kolinaa, kun koneet puristavat muovia uusiin muotoihin. Yhdestä koneesta tipahtelee shampoopullon korkkeja, toisesta itse pulloja, kolmannesta viivoittimia.Nuori nainen valkoisessa työtakissa kulkee koneelta koneelle, vaihtaa välillä muutaman sanan niitä käyttävien työntekijöiden kanssa.Trian Mwangilla, 20, on iso vastuu konesalin toiminnasta, mutta hän ei ole yrityksen palkkalistoilla, ainakaan vielä. Hän on suorittamassa kolmatta oppisopimusjaksoaan Haco Industries -yhtiössä.Katso videolta, miten Trian Mwangi kuvaa työtehtäviään ja opiskeluaan.Mwangin oppisopimusjaksot ovat konkreettinen esimerkki siitä, mitä Suomi on tehnyt kehitysyhteistyörahoillaan Keniassa.Suomi rahoittaa neljän vuoden ajan oppisopimuskoulutuksen kehittämistä Keniassa. Nyt hallitus on päättänyt lopettaa Kenian maaohjelman. Se tarkoittaa, että tätä projektia ei enää jatketa vuoden 2026 jälkeen.“En edes tiennyt, miltä moottori näyttää”Trian Mwangi opiskelee Kiambun ammattikorkeakoulussa ja valmistuu tänä vuonna koneasentajaksi.Opiskelumenetelmä on kenialaisittain poikkeuksellinen. Mwangi ja hänen kurssikaverinsa ovat kolme kuukautta kerrallaan kouluopetuksessa ja sen jälkeen kolme kuukautta oppisopimuksella harjoittelemassa työelämän todellisuutta.– Kun tulin työharjoitteluun ensimmäistä kertaa, en edes tiennyt, miltä moottori näyttää. Vasta kun teknikko purki moottorin, ymmärsin, mitä meille oli luokassa yritetty opettaa. Käytännön harjoittelussa tieto jää päähän. Tulee luottavainen olo, että selviän näistä töistä, Trian Mwangi kertoo.Kahdeksan miljoonan euron sijoitusKiambun ammattikorkeakoulun ja Haco Industries -yhtiön yhteistyö on osa Suomen ja Saksan rahoittamaa projektia. Suomi sijoittaa oppisopimuskoulutuksen edistämiseen neljän vuoden aikana kahdeksan miljoonaa euroa, Saksa seitsemän miljoonaa.Avaa kuvien katseluAmmattikoululaiset Imelda Muhoni ja Eddie Karanja ovat mukana Suomen rahoittamassa oppisopimusprojektissa.  Kuva: Pasi Toivonen / YleTavoitteena on levittää oppisopimuskoulutuksen idea kaikkiin Kenian ammatillisiin oppilaitoksiin. Tällä hetkellä projektissa on mukana 33 oppilaitosta, lähes 1000 oppilasta ja 350 yritystä.Nairobin teknillisen instituutin rehtori Chory K. Mutungi sanoo, että projekti on mullistanut idean ammatillisesta koulutuksesta Keniassa.– Oppisopimuskoulutus oli meille täysin uusi ajatus. Ja parasta mitä opiskelijoillemme on tapahtunut. Työharjoittelussa he saavat itseluottamusta ja oppivat myönteistä asennetta työhön.Avaa kuvien katseluSuomen tuella autoalan opiskelijoille on hankittu moderneja analyysilaitteita.  Kuva: Pasi Toivonen / YleSuomen kehitysyhteistyön maaohjelma KeniassaSuomi on tehnyt kahdenvälistä kehitysyhteistyötä Kenian kanssa vuodesta 1960 alkaen.Nelivuotisia maaohjelmia on Kenian kanssa solmittu vuodesta 2013.Vuosien 2021–24 maaohjelmassa varattiin nuorten ammattikoulutuksen edistämiseen sekä naisten ja tyttöjen asemaa parantaviin projekteihin yhteensä 32 miljoonaa euroa.Petteri Orpon hallitus haluaa säästää kehitysyhteistyömenoissa ja päätti lopettaa Kenian, Mosambikin, Afganistanin ja Myanmarin maaohjelmat.Jo aloitetut projektit viedään loppuun, mutta uusia maaohjelmia ei enää aloiteta.Avaa“On surullista jos Suomi lopettaa tukensa”Ulkomaankauppa- ja kehitysministeri Ville Tavio (ps) lausui tämänkaltaisen kehitysyhteistyön jäähyväissanat tammikuussa. Suomi lopettaa Kenian maaohjelman, jonka osa ammattikoulutusprojekti on ollut.Samalla lakkautetaan maaohjelmat myös Afganistanissa, Mosambikissa ja Myanmarissa.Avaa kuvien katseluUlkomaankauppa- ja kehitysministeri Ville Tavio. Kuva: Antti Aimo-Koivisto / LehtikuvaSanna Marinin hallitus suunnitteli kehitysyhteistyömäärärahojen selvää kasvattamista, mutta nyt tuo suunniteltu kasvu leikataan pois. Kehitysyhteistyöhön vuosittain käytettävät määrärahat laskevat tällä hallituskaudella pysyvästi noin 150 miljoonaa euroa viime vuoden tasosta.Alla oleva grafiikka näyttää, miten Marinin hallitus suunnitteli kasvattavansa kehitysyhteistyömäärärahoja (turkoosit pylväät) ja miten Petteri Orpon hallitus haluaa niitä pienentää (punaiset pylväät).Avaa kuvien katselu Kuva: Maiju Hakalahti / YleHallituksen tavoitteena on leikata suunnitelluista kehitysyhteistyömenoista neljän vuoden aikana yhteensä yli miljardi euroa. Neljän maaohjelman lopettamisella säästyy noin 40 miljoonaa euroa vuodessa, noin 15 prosenttia tavoitteesta.Ministeri Tavio perusteli Kenian maaohjelmasta luopumista maan hyvällä taloudellisella kehityksellä. Kenia nousi jo vuonna 2014 Maailmanpankin luokituksessa matalamman keskitulon maaksi.Tavion mukaan Kenia on esimerkki siitä, miten vanhan kehitysyhteistyökumppanin kanssa voidaan vähitellen siirtyä suomalaisia yrityksiä hyödyttäviin kauppasuhteisiin.Avaa kuvien katselu– Keniassa on valtavasti nuoria, joilla on tutkinto ammattikoulusta, mutta jotka eivät silti saa työtä. Siksi tämä oppisopimusprojekti on niin arvokas, sanoo Haco Industries -yhtiön toimitusjohtaja Mary-Ann Musangi. Kuva: Pasi Toivonen / YleAmmattikoulutusprojektissa mukana olevat kenialaiset ovat kiitollisia Suomen panostuksesta, mutta harmissaan tuen loppumisesta.– Jos Suomi ei jatka projektia, se vie monelta nuorelta tämän mahdollisuuden. Ja se on todella surullista, sanoo Haco Industries -yhtiön toimitusjohtaja Mary-Ann Musangi.Katso videolta, mitä ammattikoulutusprojektissa mukana olevat kenialaiset ajattelevat Suomen rahoituksen päättymisestä.“Tämä on erilaista kuin vessojen rakentaminen”Toinen puoli maaohjelmaa on ollut naisten ja tyttöjen oikeuksien edistäminen. Käytännössä se on tarkoittanut koulutuksia ja seminaareja, perheväkivallan uhrien palvelujen järjestämistä ja turvakotien ylläpitoa.Projekteja on rakennettu yhdessä Kenian valtion, YK:n naisjärjestön ja Kenian Punaisen Ristin kanssa.Avaa kuvien katseluYK:n tasa-arvojärjestö UN Women on järjestänyt Suomen tuella muun muassa koulutuksia, joissa puhutaan seksuaalisesta väkivallasta ja tyttöjen ympärileikkauksista.  Kuva: UN Women Erityinen suhde Suomella on ollut YK:n tasa-arvojärjestöön UN Womeniin. Yhteistyö on jatkunut jo toistakymmentä vuotta. UN Womenin Kenian maajohtaja Anna Mutavati arvostaa Suomen tuen pitkäjänteisyyttä.– Me teemme työtä vuosikymmenien tai vuosisatojen aikana muotoutuneiden asenteiden muuttamiseksi. Tämä on erilaista kuin vaikkapa vessojen tai koulujen rakentaminen, tuloksia ei voida nähdä vuodessa tai kahdessa, Mutavati sanoo.Kuuntele videolta, mitä Anna Mutavati ajattelee Suomen maaohjelman päättymisestä.“Lahja-avun aika on ohi”Suomen Kenian suurlähettiläs Pirkka Tapiola ei pidä maaohjelman lopettamista suurena tappiona, pikemminkin luonnollisena osana Suomen ja Kenian suhteiden kehittymistä.– Kenia on noussut keskituloisten maiden joukkoon. Perinteisen lahja-apuun perustuvan kehitysyhteistyön aika Kenian kanssa on ohi. Nyt me olemme siirtymässä uudenlaiseen ja tasa-arvoisempaan suhteeseen, Tapiola sanoo.Suurlähettiläs Tapiola kertoo, että Kenian ulkoministeriössä Suomen päätökseen maaohjelman lopettamisesta suhtaudutaan ymmärtäväisesti.– Kenian viranomaiset ottavat tämän päätöksen tunnustuksena Kenian taloudellisesta kehityksestä. Kenia on ylpeä maa ja haluaa siirtyä kehittyneempien maiden joukkoon. Lahja-avusta luopuminen on heille menestyksen merkki, suurlähettiläs sanoo.Suurlähettiläs Pirkka Tapiolan mukaan tasa-arvoisemmasta suhteesta Kenian kanssa voi löytyä uusia yhteistyön mahdolisuuksia, vaikkapa rauhanvälitystyöstä.Suomen työkalupakkiin jää Keniassa vielä vahvoja vääntimiä, vaikka varsinainen maaohjelma lakkautetaankin. Esimerkiksi kehitysrahoittaja Finnfundilla on yli 40 miljoonan euron suuruinen sijoitussalkku Keniassa.Miten Suomen kehitysyhteistyö jatkuu Keniassa?Kansalaisjärjestöjen kehitysyhteistyöprojektit Keniassa jatkuvat. Niiden rahoitus ulkoministeriöltä on ollut noin viisi miljoonaa euroa vuodessa. Suurimmat avustukset kanavoituivat vuonna 2022 Suomen World Visionin ja Suomen Punaisen Ristin kautta.Finnfund sijoittaa suomalaisia kehitysyhteistyövaroja kenialaisiin yrityksiin. FinnFundin sijoitussalkku Keniassa on kooltaan 43 miljoonaa euroa. Tällä hetkellä sijoituksia on mm. suuressa tuulivoimapuistossa, luonnonmukaisia torjunta-aineita valmistavassa yrityksessä ja työnvälitysbisneksessä. Tuki ei ole lahjarahaa, vaan sijoitus, jonka pitää tuottaa voittoa ja joka on maksettava jossain vaiheessa takaisin Finnfundille.Business Finland auttaa suomalaisia yrityksiä solmimaan kauppasuhteita Keniaan.Suomi on ottamassa käyttöön uutta lainatuki-instrumenttia nimeltä PIF (Public Sector Investment Facility). Kenian valtio ottaa siinä lainaa johonkin itselleen tärkeään kehityskohteeseen, jonka rahoittaminen ei olisi kaupallisesti kannattavaa. Suomi maksaa noin kolmanneksen lainasta ja vastaa kokonaan korkokuluista. Vastineeksi Kenia ostaa projektin toteutuksen suomalaiselta yritykseltä tai yritysryhmältä.Suomen ensimmäinen PIF-projekti Keniassa on juuri alkamassa. Siinä kunnostetaan 20 äitiyssairaalaa ja varustetaan ne suomalaisella sairaalateknologialla. Lisäksi koulutetaan kenialaisia kätilöjä ja sairaanhoitajia.Projektin arvo on noin 25 miljoonaa euroa. Sitä koordinoi itävaltalaisen Vamedin suomalainen tytäryhtiö, ja mukana ovat mm. ovivalmistaja Saajos Oy, sairaalasänkyjä tekevä Lojer Oy ja kätilöitä kouluttava Oulun ammattikorkeakoulu.AvaaLainatukea ja kauppoja suomalaisfirmoilleYksi yhteistyön työkaluista hohtaa uutuuttaan. Suurlähettiläs Tapiola on erityisen innostunut uudesta lainatuki-instrumentista, joka kulkee nimellä PIF. Sen avulla on mahdollista saada suuriakin kehitysvaikutuksia aikaiseksi Keniassa, mutta myös luoda markkinoita suomalaisille yrityksille ja teknologialle.PIF:n pihvi on, että Kenia määrittelee kehityskohteen, jonka toteuttamiseksi se on itse valmis ottamaan merkittävän määrän lainaa. Suomi maksaa osan lainapääomasta ja lainan korot – mutta sillä edellytyksellä, että projektisopimus tehdään suomalaisen yrityksen tai yritysryppään kanssa.– Tällaisten hankkeiden sydän on molemminpuolinen omistajuus. Autamme kenialaisia toteuttamaan jotain, jota he todella katsovat tarvitsevansa. Ja samalla meidän omat yrityksemme hyötyvät, suurlähettiläs Pirkka Tapiola sanoo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
         <v>39</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Suomeen uusi huipputason hiihtokisa? Tunnettu hiihto­vai­kuttaja: ”Ei se mahdotonta ole”</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076338</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>25.02.2024</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
         <is>
           <t>Kuopiossa järjestettin isoja kansallisen tason hiihtokisoja ensimmäistä kertaa 13 vuoteen. Tulevaisuudessa kansainväliset kisatkaan eivät ole poissuljettuja.</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>Kuopiossa hiihdettiin vuona 2011 SM-kisat, mutta sen jälkeen Puijolla ei pidetty pitkään aikaan kansallisen huipputason hiihtokisoja.Viikonloppuna tähän tuli muutos, kun Kuopiossa järjestettiin Suomen cupin hiihdot. Lauantaina hiihdettiin 12 kilometrin väliaikalähdöt ja sunnuntaina pitkät viestit.Yle Urheilun asiantuntija Jussi Piirainen oli mielissään Puijon kisojen annista.– Ilman muuta täällä voisi järjestää Suomen cupia ja SM-kisoja tiheämmänkin. Näitä on ollut täällä turhan harvoin.Piirainen pitää paikan monipuolisista maastoista.– Eilen hiihdettiin hyvissä maastoissa henkilökohtaiset kisat. Oli vaativuutta tarpeeksi. Viesteissä oli helpompi maasto, joka piti kisat todella jännittävänä.– Stadion on hyvä. On hyvä järjestää yhteislähtökisoja ja viestejä, Piirainen lisää.Myös naisten viestissä nähtiin mielenkiintoinen loppuratkaisu.Maailmancup Kuopioon?Puijon Hiihtoseuran puheenjohtaja Jari Pitkänen sanoo, että tapahtuman herättämä kiinnostus meni positiivisen yllätyksen puolelle.– Väkeä tuli yli odotusten. Haluamme olla näissä kuvioissa tulevinakin talvina.Pitkäsen mukaan on monia syitä sille, miksei Kuopiossa ole pidetty aikoihin kovia kansallisen tason hiihtokisoja. Hiihtoseuran jaosto on uudistunut muutaman viime vuoden aikana.Puijolla on järjestetty aikoinaan myös pohjoismaisten hiihtolajien maailmancupin kisoja. Maastohiihdossa pisteistä kilpailtiin vuonna 2001.Mäkihypyssä ja yhdistetyssä kansainvälisiä kisoja on ollut enemmänkin. Yhdistetyssä viimeksi 2016.Pitkänen ei tyrmää ajatusta siitä, että Kuopio järjestäisi maailmancupin kisoja taas tulevaisuudessa.– Pyrimme Kuopion kaupungin kanssa kehittämään näitä toimintoja. Menemme hiljalleen. Resurssit toki määrittelevät. Varmaan joskus paljon isompiakin kisoja pidetään, Pitkänen luottaa.Avaa kuvien katseluHannu Koivusalo muistuttaa, että Kansainvälisessä hiihtoliitossa kilpailukuviot voivat muuttua äkkiä. Kuva: Jarmo Nuotio / YleSuomen cupin kilpailusarjan johtaja Hannu Koivusalo oli tyytyväinen useiden tähtien läsnäoloon ja yleisömäärään.– En näe mitään estettä, miksei täällä voisi järjestää tiuhemmin kisoja kuin kerran 13 vuoteen.Koivusalo on ollut kymmenen vuotta Kansainvälisen hiihtoliiton FIS:n luottamustoimissa mukana. Hän muistuttaa, että Lahden ja Rukan maailmancupin kisat ovat tällä hetkellä vahvassa roolissa Suomen osalta.– Toki (Kansainvälisessä hiihtoliitossa) kuviot voivat muuttua aika äkkiä, joten ei se mahdotonta ole, Koivusalo viittaa Kuopion mahdolliseen maailmancup-isännyyteen.</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="119">
+      <c r="A119" t="n">
         <v>39</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Sota­tie­teilijä Ilmari Käihköä hävettää turhan optimismin levittäminen</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076230</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>24.02.2024</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
         <is>
           <t>Käihkö pitää todennäköisimpänä, että Ukrainan sodan kumpikaan osapuoli ei voita tai häviä, vaan joutuvat neuvottelupöydässä tinkimään tavoitteistaan.</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>Tutkijoiden tehtävä ei ole herättää turhaa toivoa, sanoo sotatieteiden dosentti Ilmari Käihkö.Venäjän hyökkäyssota Ukrainaan on kestänyt kaksi vuotta, ja Käihkö on kommentoinut sotaa asiantuntijana useaan otteeseen. Suomessa toivotaan laajasti Ukrainan voittoa. Käihkö kertoo linjanneensa itselleen selkeästi, että tutkijan rooliin ei kuulu toivon herättäminen.– Tutkijatkaan eivät silti ole immuuneita sodan kauheuksille.Käihkö myöntääkin aiemmin antaneensa turhan optimistisia näkemyksiä siitä, voiko Ukraina voittaa. Kun asiantuntija on ”ensin masentanut ihmisiä” esimerkiksi yleisötilaisuuksissa esiintyessään, hän haluaa antaa jonkinlaisen toivon pilkahduksen, vaikkei syytä välttämättä olisi, Käihkö sanoo.– Oli pakko sanoa siihen loppuun, että ”olen kuitenkin varovaisen optimistinen”. Jälkeenpäin hävettää että sanoin niin, koska enhän minä ollut optimistinen. Tuntui vain, että oli pakko sanoa jotain.– Jos vertaa sitä [pientä toivetta] kaikkeen aiemmin sanottuun, niin kumpi sitten jää ihmisten mieliin ja sydämiin? Se on heidän asiansa.Käihkön mukaan tutkijat voivat saada kritiikkiä, jos he eivät esitä Ukrainalle suotuisia analyysejä. Mediaa taas kritisoidaan turhan negatiivisesta uutisoinnista, sanoo STT:n vastaava päätoimittaja Minna Holopainen.Holopaisen mukaan mediassa muistetaan harvoin kiinnittää huomiota hitaisiin positiivisiin kehityskulkuihin.– Emme olisi varmaan kaksi vuotta sitten uskaltaneet olettaa, että Ukraina onnistuu pitämään näin pitkään ja näin hyvin pintansa.Antaako media liian ruusuisen kuvan Ukrainan mahdollisuuksista voittaa sota, kysyi toimittaja Rosa Kettumäki Viimeinen sana -ohjelman vierailta.Käihkön mukaan media menee ääripäästä toiseen. Ensin yliarvioidaan Ukrainan mahdollisuuksia ja sitten Venäjän uhkaa. Todennäköisintä on, että kumpikaan osapuoli ei voita tai häviä, vaan joutuu taipumaan neuvottelupöydässä, uskoo Käihkö.Tästä on kyseVenäjän hyökkäyssodan alkamisesta Ukrainassa tulee lauantaina kuluneeksi kaksi vuotta.Ukraina joutui tällä viikolla vetäytymään Avdijivkan kaupungista ja Venäjän uskotaan suunnittelevan suurhyökkäystä koko Itä-Ukrainan valloittamiseksi.Tuore kysely osoittaa, että enää vain harva eurooppalainen uskoo Ukrainan voittoon.Yhdysvaltain asetukipaketti Ukrainalle on jumiutunut maan kongressiin.EU ja Britannia ovat hiljattain ilmoittaneet uusista Venäjä-pakotteista.AvaaEntä jos Ukraina häviää? Katso koko Viimeinen sana -lähetys Yle Areenassa.</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="120">
+      <c r="A120" t="n">
         <v>39</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Ruotsi lähettää sotilaita Punai­sel­le­merelle – Suomi miettii vielä</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20075973</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>22.02.2024</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
         <is>
           <t>EU:n Apides-merioperaation tarkoituksena on suojata rahtialuksia Jemenin huthien hyökkäyksiltä Punaisellamerellä.</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>Ruotsi lähettää sotilaita Punaisellemerelle osana EU:n panosta, puolustusministeri Pål Johnson sanoo uutistoimisto TT:lle. Uutistoimiston tiedot julkaisi Aftonbladet.Ruotsi on tällä hetkellä lähettämässä osana EU:n Aspides-operaatiota neljä upseeria, jotka osallistuisivat erilaisiin johtotehtäviin. Yhteensä Ruotsi voisi lisätä upseerien määrää kymmeneen.EU:n Apides-merioperaation tarkoituksena on suojata rahtialuksia Jemenin huthien hyökkäyksiltä Punaisellamerellä.Suomi ei ole tehnyt päätöstä operaatioon osallistumisesta.– Olemme tukeneet EU:n operaation perustamista alusta lähtien. Nyt tarkastelemme mahdollista osallistumistamme operaatioon, sanoo ulkoministeriön poliittisen osaston osastopäällikkö Petri Hakkarainen Ylelle.Hän ei kommentoi tarkastelun aikatauluja tai muitakaan yksityiskohtia tässä vaiheessa.</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="121">
+      <c r="A121" t="n">
+        <v>39</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Asianajaja paljastaa: Kivimäki sanoo syöneensä etsin­tä­kuu­lu­tettuna ravintoloissa ja liikkuneensa avoimesti kaupungilla</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076654</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Kivimäki ehti olla vapaalla viikon sen jälkeen, kun hovioikeus määräsi hänet vangittavaksi. Asianajaja Peter Jaari kertoo, että poliisilla oli pian tieto Kivimäen olinpaikasta.</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Helsingin käräjäoikeus teki helmikuun alussa monia yllättävän ratkaisun, kun se päätti vapauttaa Psykoterapiakeskus Vastaamon tietomurrosta syytetyn Aleksanteri Kivimäen tutkintavankeudesta.Käräjäoikeus määräsi vuoden vangittuna olleen Kivimäen matkustuskieltoon.Helsingin hovioikeus päätti 16. helmikuuta, että Kivimäki on vangittava uudelleen ja passitti hänen takaisin Vantaan vankilaan. Kivimäki otettiin kiinni vasta runsaan viikon kuluttua 24. helmikuuta.Kivimäen asianajaja Peter Jaari katsoo, että Kivimäki ei ollut varsinaisesti kateissa viranomaisilta, vaikka hänet oli etsintäkuulutettu.– Minun näkemykseni ja tietojeni mukaan hän ei ollut tavoittamattomissa.Kivimäki päätti olla noudattamatta päätöstäJaari sai hovioikeuden ratkaisun tiedokseen perjantaina 16. helmikuuta iltapäivällä ja ilmoitti asiasta Kivimäelle.Kivimäki oli tuolloin Espoossa, ja oli aamulla ilmoittautunut poliisille käräjäoikeuden asettaman matkuskiellon määräysten mukaisesti.– Kun ilmoitin hänelle, että tällainen ratkaisu oli tullut, niin hän päätti, että ei aio noudattaa toistaiseksi hovioikeuden ratkaisua.Avaa kuvien katseluAleksanteri Kivimäki oli rauhallinen ja ilmeetön Länsi-Uudenmaan käräjäoikeuden istunnossa tiistaina 27. helmikuuta. Kuva: Henrietta Hassinen / YleJaari: Hän oli järkyttynytJaari sanoo, että hän kehotti Kivimäkeä menemään heti tai viimeistään maanantaina poliisiasemalle, mutta hän ei aikonut tehdä näin.– Hän oli hyvin järkyttynyt siitä, että hovioikeuden ratkaisu ei noudattanut näitä vähimmäishaitan periaatteita, kuten käräjäoikeuden ratkaisu.Jaari vakuuttaa, että Kivimäki oli noudattanut matkustuskieltoa kaksi viikkoa, eikä ollut karkaamassa mihinkään edes hovioikeuden ratkaisun jälkeen.Kivimäki sanoo käyneensä ravintoloissaJaarin mukaan poliisi oli yrittänyt tavoittaa Kivimäkeä Espoon asunnolta perjantaina iltapäivällä.Viikonloppuna Kivimäki liikkui avoimesti.– Hän oli ollut syömässä ravintoloissa ja käynyt hotelleissa, ainakin oman kertomansa mukaan.Viikolopun jälkeen Kivimäki asettui hänen lähipiirissään olevan asuntoon, kertoo Jaari.Jaari ei tiedä mitä toimenpiteitä poliisi teki Kivimäen tavoittamiseksi.– Mutta käsitykseni mukaan jo maanantaina 19. helmikuuta poliisilla on ollut hyvin tarkasti tiedossa, missä Kivimäki on oleskellut.Jaari: Ehkä karkaamista ei pelättyPoliisi otti Kivimäen kiinni lauantaina 24. helmikuuta Helsingin kantakaupungista sijaitsevasta yksityisasunnosta.Jaari ei osaa sanoa, miksi kiinniotossa meni näin pitkään.– Ehkä he eivät pelänneet hänen karkaamistaan. En tiedä. Pitää kysyä poliisilta.Jaari sanoo, että vaikka Kivimäkeä ei olisi vangittu uudelleen, hän olisi siitä huolimatta tullut lupauksensa mukaisesti käräjäoikeuden istuntoon tiistaina.– Siitä olen aika vakuuttunut.Avaa kuvien katseluAsianajaja Peter Jaari tapasi Aleksanteri Kivimäen kasvokkain tiistaina ensimmäistä kertaa lauantain kiinnioton jälkeen.  Kuva: Henrietta Hassinen / YleVangitsemisen jatkaminen ratkaistava pianOikeudenkäynti on jo loppusuoralla ja Kivimäki tuotiin käräjäoikeuden istuntoon vankilasta.Tällä viikolla oikeus kuulee vielä syyttäjien ja tietomurron uhrien avustajien loppulausunnot.Kivimäen loppulausunnon vuoro on 8. maaliskuuta, jolloin oikeudenkäynti päättyy.Käräjäoikeuden on määrä päättää viimeistään tuolloin, voidaanko Kivimäki pitää yhä vangittuna.Jaari sanoo, että jos syyttäjät vaativat Kivimäen pitämistä vangittuna tuomion antamiseen asti, he tulevat vastustamaan tätä. Tuomionantopäivää ei vielä ole ilmoitettu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
         <v>40</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Asiantun­tijalta synkkä arvio Iivo Niskasen menes­tys­haaveista: ”Pitää parantaa selvästi”</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076302</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>24.02.2024</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
         <is>
           <t>Yle Urheilun asiantuntija Jussi Piiraisen näkee, että Iivo Niskasella on lauantain perusteella pitkä matka Lahden maailmancupin voittotaistoon.</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>Iivo Niskasen selvä tappio 21-vuotiaalle Niko Anttolalle oli Kuopion Suomen cupin selvä puheenaihe. Suomalaisen mieshiihdon ykkösnimi hävisi vapaan 12 kilometrin väliaikalähtökisassa voittajalle 14 sekuntia ja oli vasta neljäs.Väliin kiilasivat myös Arsi Ruuskanen sekä Lauri Lepistö. Yle Urheilun asiantuntijat Kalle Lassila ja Jussi Piirainen olivat ihmeissään Niskasen tahmeasta menosta kotiladullaan. Häneltä odotettiin voittoa.Niskasen loppukauden selviä päätavoitteita ovat ensi viikolla hiihdettävä 20 kilometrin perinteisen väliaikalähtökisa sekä kahden viikon päästä Holmenkollenin 50 kilometriä.– Pääkisat ovat tulossa. Hänen hiihtonsa oli täysin pettymys tänään. Varmasti odotetaan kovempaa suoritusta tässä kohtaa kautta, Lassila totesi.Vaikka Anttola ja Ruuskanen säväyttivätkin, kyse ei ollut kuitenkaan mistään kansainvälisen tason huippuvauhdista.– Tämän päivän hiihto ei antanut positiivisia signaaleja tulevastakaan. Huomenna Iivo pääsee hiihtämään viestissä perinteistä, mutta tämä ei nostanut kovin isoja odotuksia, Piirainen toteaa.Avaa kuvien katseluNiko Anttola voi hiihtää Lahdessa 20 parhaan joukkoon. Kuva: Tomi Mäkipää / AOP Niskasella ei ole tältä kaudelta hirveästi vapaan kisoja. Lassila ja Piirainen kuitenkin muistuttavat, että huippukunnossaan ollessaan myös vapaa on kulkenut hyvällä tasolla.– Iivo on parhaimmassa kunnossaan, vaikkei olisi tehnyt vapaalla kovia tehoja. Hän on ollut niissä tilanteissa kuitenkin kova, Lassila huomauttaa.– Pitää parantaa selvästi ensi viikonloppuun, jotta oltaisiin Lahdessa kärkitaistossa mukana, Piirainen puolestaan näkee.Uudenlainen tilanne SuomessaMiesten kisan voitosta käytiin erittäin jännittävä kamppailu. Uransa alussa Niskanen sai haastetta Sami Jauhojärven ja Matti Heikkisen kaltaisilta konkareita, mutta sen jälkeen hän on lähtenyt kansallisiin kisoihin suvereenina suosikkina. Viime vuosina Niskasen on hallinnut kansallisia normaalimatkan kisoja lähes aina osallistuessaan.Nyt Niskanen on kokeneena tähtihiihtäjänä uudessa tilanteessa Suomessa. Jos ennen heikompikin suoritus riitti voittoon, nyt kilpailuasetelma on erilainen.Perttu Hyvärinen, Anttola, Remi Lindholm ja Ruuskanen ovat hiihtäjiä, jotka pystyvät parhaimmillaan pistämään Suomen ykköstähdelle hanttiin.– On erittäin hyvä juttu, että nuoria kavereita on tullut myös kestävyysmatkoille ja pystyvät haastamaan kärkeämme. Usein on niin, että ensin sprinttiin tulee nuoria kavereita ja sitten heistä kehkeytyy hyviä normaalimatkan hiihtäjiä, Piirainen sanoo.Avaa kuvien katseluTänä vuonna Tour de Skillä onnistunut Arsi Ruuskanen on tullut haastamaan hiljalleen Iivo Niskasta. Kuva: Getty ImagesViime talvena nuorten MM-hiihdoissa kultaa ja hopeaa saavuttanut Anttola nostettiin viime kesänä A-maajoukkueeseen.Anttolan kausi on ollut tähän mennessä vaikea, mutta loppukauden maailmancupin kisoissa häneltä voidaan odottaa hyviä vetoja. Viime vuoden MM-kisoissa rajusti kaatunut Ruuskanen puolestaan on väläyttänyt kauden aikana. Tour de Skillä hän oli Alpe Cermisin rankassa loppunousussa yhdeksäs.Anttola linjasi, että Salpausselällä hänen tavoitteensa on 20 kilometrin perinteisen väliaikalähtökisassa.– Jos hän pystyisi hiihtämään 20 parhaan joukkoon, se olisi hyvä onnistuminen. Sellaista ei ole vielä hänen urallaan tapahtunut. Arsi on hiihtänyt perinteisellä ihan kymmenen sijan tuntumaan. Sellaiset sijat ovat hänelle mahdollisia.Niko Anttola hiihti vakuuttavaan voittoon Kuopiossa.</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="123">
+      <c r="A123" t="n">
         <v>40</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>30 vuoden asunto­lainasta voi tulla normi, arvioi Nordea-johtaja – hallitus pyrki  toiseen suuntaan</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20075528</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>22.02.2024</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
         <is>
           <t>Asuntolainojen maksimimittaa rajoitettiin runsas puoli vuotta sitten. Muutos saattaa yllättäen jopa pidentää tyypillisiä laina-aikoja.</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>Kolmekymmentä vuotta voi jatkossa olla suomalaisten asuntolainojen perusmitta, arvioi Nordea Kiinnitysluottopankin toimitusjohtaja Jussi Pajala.– On mahdollista, että vähitellen keskimääräiset laina-ajat tulevat lähestymään entistä enemmän kolmenkymmenen vuoden rajaa, Jussi Pajala arvioi.Se tarkoittaisi tyypillisten lainojen pitenemistä. Viime vuonna uusien asuntolainojen keskimääräinen takaisinmaksuaika oli Suomen Pankin mukaan 22–23 vuotta.Maksimimitalla haluttiin hillitä kotitalouksien velkaantumistaPitenemisen sijaan viime heinäkuussa voimaan tulleella lakimuutoksella hallitus halusi päinvastoin lyhentää laina-aikoja suomalaisten kotitalouksien velkaantumisen hillitsemiseksi.Uusien asuntolainojen takaisinmaksuajaksi tuli lain myötä enintään kolmekymmentä vuotta. Sitä pidempien lainojen osuus voi olla pankkien myöntämistä lainoista kymmenen prosenttia euroissa mitattuna.Pajalan mukaan on mahdollista, että paljon näkyvillä ollut maksimiraja synnyttää asiakkaissa mielikuvaa tavanomaisesta laina-ajasta – kaikkein pisimpien lainojen lyhenemisen lisäksi lyhyemmät lainat silloin pitenisivät.Suomen Pankin tilastojen mukaan uudet asuntolainat ovat vähitellen keskimäärin pidentyneet. Alla oleva grafiikka näyttää uusien asuntolainojen takaisinmaksuajan kehityksen neljän viime vuoden aikana.
 Lakimuutoksen voimassaoloaikana, kesästä 2023 vuoden loppuun asti ulottuvissa tilastoissa ei näy suurta muutosta uusien asuntolainojen keskimääräisessä pituudessa. Yli kolmenkymmenen vuoden lainojen määrä on kuitenkin vähentynyt.Pajala: ”Lisää asunnonvaihdon tai -hankinnan kitkaa”Nordean Jussi Pajala pitää yli kolmenkymmenen vuoden lainojen rajoittamista tarpeettomana kitkatekijänä, jonka vaikutus korostuu entisestään tahmeassa asuntokauppatilanteessa.Pajalan mukaan pankit testaavat joka tapauksessa asiakkaan takaisinmaksukyvyn 25 vuoden stressitestillä. Kotitalouksien velkaantumisen syynä ovat hänen mukaansa asuntolainojen sijaan ennemminkin kulutusluotot ja taloyhtiölainat.Hänen mukaansa monet asiakkaat haluaisivat pidemmällä laina-ajalla luoda puskuria, jolla rahaa jäisi käyttöön tai säästöön.– Kyllä tämä on hidaste, markkinoita rajoittava tekijä, ja lisää asunnonvaihdon tai -hankinnan kitkaa, Jussi Pajala sanoo.</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="124">
+      <c r="A124" t="n">
+        <v>40</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Upouuden koulun liikuntasali käyttö­kieltoon</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076656</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Etelä-Hervannan koulu on otettu käyttöön vuoden 2023 syksynä. </t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Etelä-Hervannan uuden koulun liikuntasali menee käyttökieltoon maaliskuun alussa. Syynä on parkettilattiasta irtoavat tikut.– Oppilailta on tullut tieto, että tikkuja irtoaa jalkoihin ja niitä joudutaan irrottamaan, Tampereen tilapalveluiden hankepäällikkö Panu Hirvonen kertoo.Ensimmäiset yhteydenotot lattian kunnosta tulivat Hirvosen mukaan joulukuussa. Hän kertoo, että lattiaa korjattiin joulun välipäivinä, mutta ongelma jatkuu edelleen.Tällä hetkellä sali on vielä harrastajaporukoiden käytössä iltaisin.– Iltavuoroille tulevat käyttävät sisäkenkiä, eli pystytään sitä kautta suojaamaan jalat paremmin.Avaa kuvien katseluSalin parketti rakoilee ja siitä irtoaa tikkuja.  Kuva: Kai Pohjanen / YleTalviloman aikana saliin on suunnitelmissa asentaa salibandymatto. Näin sali saataisiin taas koululaisten käyttöön ensi viikolla.Hirvonen toivoo, että lattia saataisiin kuntoon kesällä, kun korjaamiseen on enemmän aikaa. Hän ei muista nähneensä tämän tyyppistä ongelmaa muissa samankaltaisissa koulun saleissa koskaan aiemmin.– Tätä rakoilua tulee vastaan parketeissa, mutta ihan tällaista ei ole ollut. Tämä on erilainen parkettityyppi.Asiasta kertoi ensin Aamulehti.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
         <v>41</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Anders Adlercreutz: Olen käytettävissä puheen­joh­tajaksi – Otto Andersson ja Henrik Wickström harkitsevat</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076571</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Ketkä lähtevät kisaamaan Anna-Maja Henrikssonin jälkeen RKP:n puheenjohtajan paikasta? Yle kerää reaktiot tähän juttuun.</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Puheenjohtajakisa RKP:ssa on käynnistynyt. Eurooppa- ja omistajaohjausministeri Anders Adlercreutz kertoo olevansa käytettävissä RKP:n puheenjohtajaksi. Hänen mielestään on puolueen etu, että uusi puheenjohtaja valitaan kesäkuun puoluekokouksessa.– Erityisesti tässä tilanteessa, kun epävarmuutta on ollut aika paljon, niin kenttäväki ansaitsee selkeän vastauksen: olen käytettävissä. Puolue kaipaa nyt vakautta.RKP:n varapuheenjohtaja, kansanedustaja Henrik Wickström ja puolueen eduskuntaryhmän puheenjohtaja Otto Andersson kertovat harkitsevansa vakavasti puolueen puheenjohtajakisaan lähtemistä.Liikunta- urheilu- ja nuorisoministeri Sandra Bergqvist kertoo, että yhteydenottoja on tullut paljon, mutta tällä hetkellä hän tyytyy toteamaan: ”parempi kun ei koskaan sano ei koskaan”RKP:n puheenjohtaja Anna-Maja Henriksson kertoi tänään tiistaina, ettei hae jatkoa puolueen johdossa.Wickström aikoo kertoa päätöksestään maaliskuussa.– Teen nyt asiassa vakavan harkinnan ja palaan sitten asiaan.Andersson kertoo saaneensa viime aikoina hyvin paljon kannustusta eri puolilta kaikista piireistä.– Tulen lähiaikoina kertomaan, mikä lopullinen päätökseni on. Olen hyvin kiitollinen ja iloinen kannustuksesta jota tähän mennessä on tullut, hän sanoo.RKP:n puoluekokous järjestetään 14.-16. kesäkuuta.RKP:n tilanne herätti kentänWickström haluaa kiittää Henrikssonia tämän puolueen eteen tekemästä työstä, mutta pitää puheenjohtajan tämänpäiväistä päätöstä ymmärrettävänä.Puoluekentältä on tullut Wickströmin mukaan puheenjohtajan aikeista ristiriitaista palautetta.Wickströmin mielestä puheenjohtajan valinta pitäisi tehdä jo kesäkuun puoluekokouksessa, eikä ylimääräisessä kokouksessa syksyllä.Andersson ei ota kantaa, kumpi ajankohta olisi valinnalle parempi.– Etenkin tällaisessa tilanteessa, kun on ollut hyvin paljon keskustelua puolueen kannatukseen liittyen, pitää kuulla herkällä korvalla mitä meidän jäsenet haluavat, Andersson kertoo.Aiemmin tänä vuonna Henriksson kertoi asettuvansa ehdolle eurovaaleissa, mutta ei kommentoinut jatkoaan puolueen johdossa.Hän kertoi kuitenkin jatkavansa puolueen puheenjohtajana vaaleihin saakka.– Uskon, että Henrikssonilla on ollut halu toimia, niin kuin hän itse on katsonut, että on puolueen parhaaksi. Mutta viime aikoina on syntynyt keskustelua RKP:n tilanteesta, ja se on myös herättänyt erilaisia näkemyksiä kentältä, Wickström sanoo.Hän huomauttaa, että Henriksson on eurovaaleissa puolueelle merkittävä ehdokas, ja hänen toivotaan kykenevän käymään myös valtakunnallinen kampanja, joka luonnollisesti syö resursseja.– Huomioiden myös se haastava tilanne, joka meillä on hallituksessa, koska julkisen talouden tilanne on heikentynyt siitä, miltä se näytti hallitusneuvottelujen yhteydessä. Eli haasteita tässä kohtaa löytyy, Wickström sanoo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>41</v>
+      </c>
+      <c r="B126" t="inlineStr">
         <is>
           <t>Suomen super­lah­jakkuus kylvetti hämmentynyttä Iivo Niskasta: ”Ei ollut tänään haastamaan”</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076297</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>24.02.2024</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
         <is>
           <t xml:space="preserve">Suomalaislahjakkuudet Niko Anttola ja Arsi Ruuskanen säväyttivät Kuopiossa. </t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>Kuopion Suomen cupin miesten 12 kilometrin vapaan väliaikalähtökisassa nuoret superlahjakkuudet näyttivät kaapin paikan Iivo Niskaselle ja muille konkareille.Suomalaisen maastohiihton kultakimpaleeksi kutsuttu Niko Anttola voitti jännittävän hiihtokilpailun neljän sekunnin erolla ennen toiseksi tullutta Arsi Ruuskasta. Anttola loisti viime vuonna alle 20-vuotiaiden MM-kisoissa ja ankkuroi Suomen aikuisten puolella MM-viestihopealle.Nuoren lahjakkaan hiihtäjän maineessa oleva Ruuskanen voitti kaksi vuotta sitten alle 23-vuotiaiden maailmanmestaruuden.Pitkästä aikaa vapaan kisan hiihtänyt Niskanen jäi kokonaan kärkikolmikon ulkopuolelle jääden neljänneksi. Eroa Anttolaan kertyi 14 ja Ruuskaseen kymmenen sekuntia. Lauri Lepistö kiilasi nuorukaisten ja Niskasen väliin kolmanneksi.Avaa kuvien katseluIivo Niskanen (arkistokuvassa) jäi vasta neljänneksi. Kuva: LehtikuvaNiskasen yritti saada kovan alun. Ensimmäisen kilometrin kohdalla hän oli peräti 11 sekunnin päässä keulasta. Jo reilun neljän kilometrin kohdalla Niskanen oli jäänyt kärkimies Ruuskasesta yhdeksän sekuntia.– Ajattelin, että minkälainen väliaika tästä tulisi. Olin aluksi 21:s. Tänään oli erikoinen kisa. Odotin parempaa, mutta ei ollut tänään haastamaan.Niskanen kilpailukausi on ollut repaleinen. Hän on merkannut ensi viikon Salpausselän kisat paksulla tussilla.– Ensi viikolla yritetään kirkastaa alkukauden kulkua ja toivottavasti meno on kohdallaan. Huomenna olen mukana viestissä, Niskasen viittasi sunnuntain viestikisoihin.Niko Anttola hiihti hienoon voittoon.Voittaja ei pahemmin hymyillyt21-vuotias Anttola oli voittonsa jälkeen naama peruslukemilla. Sen kummempaa hymyä ei irronnut.– Ajattelin, etten lähde mitään yltiöpäistä vauhtia. Pitkiä työpätkiä, joten hyvä tehdä tasaisia kierroksia.Anttolan kausi on ollut vaikea. Kauden päätapahtuma, pari viikkoa sitten hiihdetty alle 23-vuotiaiden MM-kisat Planicassa meni tuloksellisesti pieleen.Hieno voitto tulikin tärkeään paikkaan.– Tietenkin mukavaa, että kroppa toimii normaalisti. Varmaan Lahdessa (maailmancupissa) hiihdän seuraavaksi 20 kilometriä. Sitä olisi mukava hiihtää.Kotimaisemissaan hiihtänyt vuonna 1999 syntynyt Ruuskasen sai todeta neljä vuotta nuoremman Anttolan paremmakseen.– Ensimmäinen kierros tuli hyvin. Loppu ei tullut ihan sillä tavalla kuin olisi toivonut. Mielellään olisi voittanut, mutta nuori kaveri kävi ryöstöretkellä kotimaisemissa.Miesten 12 km (v1. Niko Anttola 26.42,1
 2. Arsi Ruuskanen + 4,2
@@ -3630,280 +4894,386 @@
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="127">
+      <c r="A127" t="n">
         <v>41</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>Oppositio tenttasi ministereitä terveys­pal­ve­luiden ”tähti­tie­teel­lisistä” leikkauksista, Saarikko hiiltyi</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20075963</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>22.02.2024</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
         <is>
           <t>Oppositio ja hallitus pallottelivat kyselytunnilla syitä Suomen sosiaali- ja terveyspalvelujen huonosta tolasta toistensa niskoille.</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>Keskusta myllytti hallitusta kyselytunnilla kysymällä sosiaali- ja terveyspalvelujen tilasta, palveluverkon karsimisesta ja soteen kohdistuvista säästöistä.– Mitä sitä kaunistelemaan. Teidän linjanne seurauksena sairaaloita uhataan lakkauttaa, terveysasemien sulkemista suunnitellaan, palvelut karkaavat. Vanhuksilta viedään jälkiruuatkin palvelutalojen lautaselta, kansanedustaja Markku Siponen (kesk.) ryöpytti.– Perukaa leikkaukset ja antakaa alueille aikaa tasapainottaa talous. Milloin lopetatte tähtitieteelliset leikkaukset, kysyy Pekka Aittakumpu (kesk.).– Tässä eivät nyt modulaarit ei työryhmät lämmitä. Ministeri Juuso, toistan kolmannen kerran kysymyksen: mistä palveluista aiotte leikata lisää, keskustan puheenjohtaja Annika Saarikko tivasi.Valtiontalouden säästöt eivät ole sosiaaliministerin käsissä, painotti sosiaali- ja terveysministeri Kaisa Juuso (ps.).Juuso vastasi Saarikolle toivovansa, ettei sote-puolelle tule enempää leikkauksia.– Mutta en voi sitä luvata, Juuso myönsi.Pääministeri Petteri Orpo (kok.) ja Juuso palauttivat vuorotellen syytöksiä sote-menojen kasvuista ja palvelujen tilasta takaisin oppositiolle eli edelliselle hallitukselle.– Nyt pitää tehdä pari perusasiaa selväksi. Sanotte että hallitus leikkaa tähtitieteellisiä summia sotesta, se on yksinkertaisesti väärä totuus. Tänä vuonna sosiaali- ja terveyspalveluihin käytetään 24 miljardia euroa, kolmannes valtion budjetista, ja joka vuosi käytämme miljardin lisää sosiaali- ja terveyspalveluihin, sanoi Orpo.– Ja se mistä tämä johtuu, se johtuu siitä sote-mallista, joka teidän hallitus teki, Orpo sivalsi.Annika Saarikko tulistui.– Menköön nyt niin, että vielä tällä kyselytunnilla kaikki vastaukset voivat kietoutua siihen ”no mutta kun edellinen hallitus”. Voisitte ensi kyselytunnille varautua vähän uudenlaisilla ideoilla.Orpoa oikoi myös vasemmistoliiton puheenohtaja Li Andersson.– Pakko korjata pääministeriä, että eihän hyvinvointialueiden alijäämä ole syntynyt yhtäkkiä sote-uudistuksen myötä. Ne ovat olleet olemassa aikaisemmin ja näkyneet kuntatalouden puolella.– Mitä hallitus aikoo tehdä..kustannusten kasvun hillitsemiseksi, joka sekään ei johdu uudistuksesta vaan vuokratyövoiman kustannusten kasvusta, keikkalääkäreistä ja inflaatiosta, Andersson kysyi.Myös Saarikko peräsi hallituksen vastuuta viime hallituskaudella valmistuneen mallin toteuttamisessa.– Emme sanoneet, että malli olisi tullut kerralla täydellinen, mutta vastuu on nyt teillä, jotta malli voisi toimia, Saarikko jatkoi, ja viittasi myös taannoiseen kokoomuksen soten valinnanvapausmalliin, joka törmäsi perustuslakiin.Itä-Suomi tuntui kiinnostavan kaikkiaSuurin oppositioryhmä SDP aloittaa kysymällä Itä-Suomen talousvaikeuksista, joita pian kaksi vuotta jatkunut Venäjän hyökkäyssota on pahentanut, kun alue on liikenteen katkeamisen ja itärajan sulun takia hiljentynyt.Paula Werning (sd.) tiedusteli, mitä ministerit tekevät Itä-Suomen tuulivoimahankkeiden mahdollistamiseksi, joita ei rajan läheisyyden takia ole sinne voitu rakentaa.Keskustan Hanna Räsänen ihmettelee, mitä hallitus on tekemässä Fingridin kantaverkolle, joka Itä-Suomesta puuttuu. Vasemmistoliiton Laura Meriluoto toi esille Pohjois-Savon korkean sairastavuusindeksin, ja aikooko hallitus tasata alueiden sosio-ekonomista eriarvoisuutta.Seppo Eskelinen (sd.) ehdottaa, että Itä-Suomelle olisi syytä irrottaa vastaavanlainen rahoitus kuin hallitus on ohjannut Länsi-Suomen kasvuohjelmaan, 150 miljoonaa euroa. Yritysbarometri osoittaa, Itä-Suomen rajamaakunnat ovat barometrin häntäpäässä.Elinkeinoministeri Wille Rydman (ps.) ja pääministeri Petteri Orpo (kok.) vastasivat, että kaikkein merkittävimmät tukikeinot Itä-Suomeen ohjataan EU:n rakennerahaston kautta. Huoli Itä-Suomesta ja senRydmanin mukaan Itä-Suomi voisi saada tukea muun muassa investointitukien muodossa, joihin on tehty 400 miljoonan teollisuuspoliittinen varaus.– Akkuteollisuuteen liittyvät hankkeet voisivat olla rahoja joilta kohdennettaisiin itään.Orpon mukaan tarvitaan lisäksi uusi tukiväline.– Olemme aloittaneet määrätietoisen vaikuttamistyön, keskustelut käyty von der Leydenin kanssa, myös Puolan Donald Tuskin ja Baltian pääministerien kanssa saatu ymmärrystä perille, Orpo vakuutti.– Kaikki täällä ymmärtävät, että Itä-Suomen elinvoima on myös turvallisuuspoliittinen kysymys, olen Itä-Suomesta itsekin, korosti puolustusministeri Antti Häkkänen (kok.).22.2. kello 19.00 korvattu kyselytunnin tallenne klipillä, ja päivitetty jutun alkua siten, että poistettu maininnat tallenteesta.</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="128">
+      <c r="A128" t="n">
+        <v>42</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Anna-Maja Henriksson luopuu RKP:n puheen­joh­ta­juudesta</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076553</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Henrikssonin mukaan hänestä on julkisuudessa maalattu kuva, jota hän ei itse tunnista todeksi.</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>RKP:n puheenjohtaja, opetusministeri Anna-Maja Henriksson ei asetu enää ehdolle seuraavassa puoluekokouksessa.Hän on johtanut puoluetta kahdeksan vuotta.– Luovutan mielelläni kapulan eteenpäin. Olen hyvin ylpeä kaikesta siitä, mitä olemme yhdessä saavuttaneet. Nyt on aika kääntää sivu ja mennä eteenpäin – yhdessä, hän sanoi aamupäivällä pitämässään tiedotustilaisuudessa.Hän kertoi, että EU-vaalit ovat viimeinen kampanja, jota hän johtaa puheenjohtajana.”Maalattu kuva, jota en itse tunnista todeksi”Henriksson kertoi tammikuussa, että lähtee ehdolle kesäkuussa pidettävissä Euroopan parlamentin vaaleissa, mutta jatkaa puolueen puheenjohtajana valintaansa saakka.Tänä vuonna puoluekokouksessa puolueelle valittaisiin uusi puheenjohtaja. RKP:llä on puoluekokous kesällä, mutta tarvittaessa voitaisiin pitää myös ylimääräinen puoluekokous syksyllä.Tiedotustilaisuudessa Henriksson perusteli ratkaisuaan, joka aiheutti monenlaisia spekulaatioita.– Tiesin, että edessämme on äärimmäisen vaikea kevät, kun ilmoitin tammikuussa EU-ehdokkuudestani. Tiesin myös, että me RKP:ssä tarvitsemme työrauhaa. Siksi pyrin silloin löytämään ratkaisun, joka ei heti käynnistäisi puheenjohtajakisaa puolueen sisällä.Hän kertoi ratkaisunsa olleen ilmoittaa, että jos hänet valittaisiin, hän ottaisi luonnollisesti paikan vastaan ja puolue voisi pitää syksyllä ylimääräisen puoluekokouksen uuden puheenjohtajan valitsemiseksi.– En missään vaiheessa sanonut, että jatkaisin puheenjohtajana, jos minua ei valittaisi. Valitettavasti viestini tulkittiin niin.Henrikssonin mukaan hänestä on nyt julkisuudessa maalattu kuva, jota ”ei itse tunnista todeksi”. Hän sanoo ajatelleensa aina RKP:n etua.Avaa kuvien katseluRKP:n puheenjohtaja Anna-Maja Henriksson kertoi tiedotustilaisuudessa luopuvansa puolueen puheenjohtajuudesta. Frederik Guseff RKP:n puoluesihteeri osallistui tilaisuuteen. Kuva: Silja Viitala / YleRKP:n huonot kannatusluvut eivät syynä, sanoo HenrikssonRKP:n kannatusluvut ovat olleet viime aikoina alhaalla. Henrikssonin mukaan kannatusluvuilla ei ole ollut päätökseen ”osaa eikä arpaa”.Henrikssonilta kysyttiin, onko hallitusyhteistyö perussuomalaisten kanssa käynyt liian raskaaksi.– Voi sanoa näin, että kun on toiminut puheenjohtajana kahdeksan vuotta ja kesällä tulee yhdeksän vuotta ministerinä, niin totta kai se on raskasta. On oikeastaan aika epäinhimillistäkin olla nyt sellaisessa pyörityksessä, jossa olen ollut viimeiset viikot.Jossain vaiheessa on kerrottava, missä oma raja menee, hän lisäsi.Henriksson ei ottanut kantaa siihen, kenestä pitäisi tulla puolueen uusi puheenjohtaja.Häneltä kysyttiin, mitä uudelta puheenjohtajalta vaaditaan.– Tulevan puheenjohtajan pitää itse valita linjansa.Henriksson totesi, että nykyään vaaditaan nopeita vastauksia vaikeisiin kysymyksiin ja politiikkaa tehdään joskus lennosta. Se vaatii paljon.Puheenjohtajan työ on pitkäjänteistä, hän lisäsi.Hän kommentoi varovaisesti myös jatkoaan opetusministerinä. Hän sanoi olevan selvää, että puolueelle valittava uusi puheenjohtaja valitsee itselleen haluamansa ministeritehtävän.– Puheenjohtajan sanalla on varmasti suuri vaikutus ministerisalkkujen jakoon. En lähde spekuloimaan sillä.Suurella todennäköisyydellä uusi puheenjohtaja valitaan kesäkuun puoluekokouksessa. Jos RKP:n kenttä kuitenkin haluaa tehdä puheenjohtajavalinnan ylimääräisessä puoluekokouksessa syksyllä, sekin on mahdollista.* Tämä oli päivittyvä uutisjuttu, joka täydentyi tiedotustilaisuuden annilla.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
         <v>43</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>Kisapähkinä on taas täällä! Vastaa viisi oikein ja voit voittaa Urhei­lus­tudion himoitun pipon</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20055994</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>26.02.2024</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr">
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
         <is>
           <t xml:space="preserve">Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.
 </t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="130">
+      <c r="A130" t="n">
         <v>43</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>Äkkilähtöjen hinnat hyppäsivät, ja nyt tämä tuttu kohde on suomalaisten ”uusi Thaimaa”</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20075876</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>23.02.2024</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
         <is>
           <t xml:space="preserve">Matkapakettien hinnat ovat kallistuneet erityisesti kaukokohteissa, koska lentojen hinnat nousevat nopeasti. </t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>Muutaman sadan euron hintaista äkkilähtöä ensi viikoksi voi pitää jo harvinaisena löytönä. Matkapakettien tarjoushinnat ovat kallistuneet eniten Aasian kaukokohteissa.– Ennen koronaa hyvän Thaimaan tarjousmatkan sai noin 500 eurolla sisältäen matkan ja parin viikon majoituksen hyvässä hotellissa. Nyt hinnat ovat vähintään tuplaantuneet ja majoituksen taso on yleensä kahta tähteä. Alle tuhannen euron matkoja Thaimaahan on vaikea löytää, päätoimittaja Inka Khanji matkailusivusto Rantapallosta sanoo.Rantapallo seuraa äkkilähtöjen hintojen muutoksia, mutta ei itse myy matkoja. Asiakkaiden sivustolla tekemät haut paljastavat, että moni on vaihtanut kalliin Thaimaan-loman viikon tai kahden aurinkolomaan Gran Canarialla.Apollomatkojen markkinointipäällikkö Satu Kontulainen vahvistaa Khanjin havainnon.– Tämän talven aikana somessa on tullut kavereilta ennätysmäärä postauksia Gran Canarialta. Se on uusi Thaimaa.Äkkilähtöjen hinnat ovat nousseet lähes kaikissa kohteissa verrattuna vuoteen 2019.
 Thaimaa vaihtuu rantalomaan Gran CanariallaAtlantin valtamerellä sijaitsevilla Kananariansaarilla on huomattu turistien paluu. Saarilla vieraili viime vuonna 16 miljoonaa matkailijaa, ja tänä vuonna lentoyhtiöt lisäävät saarille suuntautuville lennoille yli 400 000 paikkaa. Se tarkoittaa lentoja uusista kohteista ja lisävuoroja nykyisille reiteille.– Meidän sivustolla tehtävien hakujen perusteella nähdään selvästi, että Thaimaan sijaan halutaan mennä nyt Kanariansaarille. Erityisesti Gran Canaria ja Teneriffa ovat suosituimpia kohteita, sanoo Inka Khanji.Kanariansaarten matkailusesonkia pidentävät myös lukuisat tapahtumat, joita järjestetään talvikaudella varsinkin pääsaarella Gran Canarialla.Turkki ja Bulgaria edullisimmat lomakohteetApollomatkojen Satu Kontulaisen mukaan normaalihintaiset matkat ovat kallistuneet 10–15-prosenttia, vähemmän kuin äkkilähdöt. Suurin syy tähän on matkapaketteihin kuuluvien lentojen kallistuminen.– Kohteissa, joihin on paljon tarjontaa, hinnat eivät lähde niin voimakkaasti nousemaan. Mutta kohteisiin, joihin tarjontaa on vähän, nousu saattaa olla jyrkempää, sanoo Satu Kontulainen.Tänä vuonna edullisimmat lomakohteet löytyvät Bulgariasta ja Turkista.Turkin liiran kurssi suhteessa euroon on ennätyksellisen alhaalla ja sen seurauksena hotellien hinnat ovat edullisia.– Turkissa matkojen hintojen nousu on maltillisempaa. Hintojen nousu ei näy ihan samalla lailla matkailijalle, sanoo Kontulainen.Hintojen noususta huolimatta eniten matkoja on tulevana kesänä tarjolla Kreikan kohteisiin, joiden suosio suomalaisten lomakohteena ei näytä hiipuvan.Avaa kuvien katseluInflaation kurittamat eurooppalaiset matkustavat tänä kesänä Turkkiin edullisten hintojen perässä. Alanya on Turkin suosituin lomakohde suomalaisille.  Kuva: Jari Tanskanen / YleMatkapaketteja jatkossa myös halpalennoillaHalpalentoyhtiö Ryanair lisää kesäkaudella Keski-Euroopasta suoria lentoja erityisesti Teneriffalle ja moniin suosittuihin rantalomakohteisiin. Yhtenä syynä on alkava yhteistyö matkanjärjestäjien kanssa.Tähän asti halpalentoyhtiöt eivät ole juurikaan kuljettaneet matkanjärjestäjien asiakkaita, mutta perinteisten lentoyhtiöiden hintojen nousu on muuttamassa tilannetta. Halpalennot kiinnostavat matkanjärjestäjiä, koska se on yksi keino hidastaa matkapakettien hintojen nousua.Matkanjärjestäjä TUI ja Ryanair ovat sopineet yhteistyöstä, jossa osa TUI:n dynaamisista matkapaketeista sisältää lennot halpalentoyhtiön koneella. Kyseessä ovat yksilöllisesti räätälöitävät matkapaketit, jossa asiakas voi valita matkan keston ja kohteen.– Tämä on uusi trendi, joka kiinnostaa myös nuorempia matkustajia. Otamme lennot ja yhdistämme ne hotellimajoituksen kanssa. Meillä on enemmän vaihtoehtoja tarjolla matkustajille, ja niitä voidaan myydä vaikka pari päivää tai pari viikkoa ennen lähtöhetkeä, viestintäjohtaja Aage Dünhaupt TUIflystä sanoo.Dünhauptin mukaan halpalentoja hyödynnetään erityisesti lennettäessä suosittuihin rantalomakohteisiin, joissa matkan hinta on tärkeä valintakriteeri.– Varsinkin suuriin kohteisiin, kuten Kreetalle, Kanariansaarille ja Baleaarien saariryhmään on suuri lentovalikoima. Ne ovat ehkä hieman immuuneja korkeampia hintoja vastaan.Suomesta lähtevien matkojen lisäksi TUI aikoo hyödyntää Ryanairin lentoja myös Suomeen myytävissä dynaamisissa matkapaketeissa. Kesäkaudella Ryanair lentää Suomessa Helsinki-Vantaalle ja Lappeenrantaan, talvisin lisäksi Rovaniemelle.Lomalle yhä harvemminMatkailuala ei ole vielä täysin palautunut koronapandemian aiheuttamista syövereistä, eikä palveluiden tarjonta ole vielä vuoden 2019 tasolla. Hintojen kallistuminen voi johtaa siihen, ettei vielä tänä vuonna matkapakettien myynti palaudu koronaa edeltäväksi.Apollomatkojen Satu Kontulainen sanoo, että matkoja varataan entistä suunnitelmallisemmin.Se tarkoittaa, että moni saattaa tehdä kahden tai kolmen kerran sijasta yhden lomamatkan, mutta käyttää lomalla enemmän rahaa laadukkaampaan hotelliin ja valitsee lisäpalveluita.– Jos joudutaan tinkimään matkojen määrästä, niin sitten kuitenkin halutaan varmistaa, että lomaviikko on palkitseva ja paras mahdollinen, sanoo Kontulainen.Voit keskustella aiheesta 24.2. klo 23 saakka.</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="131">
+      <c r="A131" t="n">
+        <v>43</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Tältä näyttää Euroopan suurimmalla sellu­tehtaalla: kuivaus­ko­nekin on kuin ruotsinlaiva</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076642</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tehtaan melunhallinnan suhteen työt ovat vielä kesken. Melumittaukset aloitetaan, kunhan lumet sulavat. </t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Kemin uuden sellutehtaan kuivauskaappi on valtava ilmestys. 29 metriä korkeassa laitteessa on vieri vieressä puhaltimia ja huolto-ovia, joista kuivauskoneen osia, kuten kuivauspattereita, pääsee huoltamaan.– Kuivauspattereiden verkkoihin tarttuu sellupölyä, joka pitää välillä imuroida, selvittää Kemin sellutehtaan johtaja Pekka Kittilä.Kuivauskaapissa on yli neljäsataa kiertoilmapuhallinta.– Jos yksi tai vaikka viisi rikkoutuu, niin se ei vielä haittaa prosessia, ellei kyse ole vierekkäisistä puhaltimista. Puhaltimia voidaan korjata tai vaihtaa huoltojen aikaan.Kuivauskaapin läpi kulkee 1,7 kilometriä hihnaa, joka kuljettaa sellun arkkileikkurille. Kuivauskaappia ennen sellussa on kosteutta vielä 50 prosenttia, ja kuivauksen jälkeen sitä on enää 10 prosenttia.Avaa kuvien katseluKuivauskoneen puhaltimet näyttävät risteilyaluksen pyöreiltä ikkunoilta. Numeroiduista huolto-ovista pääsee puhdistamaan koneen osia, kuten kuivainpattereita, jotka keräävät helposti sellupölyä.  Kuva: Taina Nuutinen-kallio / YleSellupaalien pitää olla siistejäArkkileikkurin pauke sattuu korviin tulpista huolimatta. Arkkien leikkaamisen jälkeen ne puristetaan siisteiksi sellupaaleiksi, kääritään sellukääreeseen ja sidotaan metallinarulla.Tämän jälkeen 250 kiloa kappaleelta painavat paalit ovat valmiita asiakkaille toimitettaviksi.Ei ole aivan sama, millaisissa paketeissa sellu asiakkaille matkaa, sillä asiakkaiden automaattiset järjestelmät on ohjelmoitu käsittelemään tietyllä standardilla pakattua sellua.Avaa kuvien katseluSellu puristetaan eli paalataan 250 kiloiseksi paketiksi, ja sidotaan edessä näkyvällä metallisella narulla.  Kuva: Taina Nuutinen-kallio / YleUusi sellutehdas käynnistyi viime syksynä, ja siitä lähtien tehdasta on viritetty täyteen toimintakykyynsä.– Virittäminen tarkoittaa sitä, että kun prosessissa havaitaan ongelma, etsitään sille tekninen ratkaisu. Sitten nostetaan tuotantovauhtia askel kerrallaan, selventää helmikuussa tehtaan johtajana aloittanut Kittilä.Esimerkiksi sellumassan käsittelyssä virittämistä vaatii muun muassa sellun massaradan rakenne ja se kuinka paljon massarataa tulee kuivauskonetta edeltävälle viiraosalle, sellumassasta puristetaan ylimääräinen vesi pois.Sellumassa käyttäytyy eri tavalla raaka-aineesta riippuen. Kemissä keitetään havupuusellun lisäksi myös koivusellu.– Veden poistoa säätämällä massalle saadaan oikea kestävyys.Euroopan suurin sellutehdas näkyy kemiläisessä ympäristössäEuroopan suurin sellutehdas näkyy isona myös pikkukaupungin miljöössä. Tehdas sijaitsee lähellä asutusalueita, ja kaupungin keskustaan on matkaa kolmisen kilometriä. Viime viikolla Yle teki juttua tehtaan valtavista höyrypilvistä, jotka ihmetyttävät kemiläisiä.Lisää: Uusi sellutehdas toi Kemin ylle valtavan höyrypilven ja peitti auringonMyös tehtaan hajut ja äänet puhuttavat kemiläisiä. Kittilän mukaan hajuttomuuteen pyrkiminen on osa tehtaan viritystyötä.Katso videolta, mitä tehtaanjohtaja Pekka Kittilä kertoo Metsä Fibren Kemin sellutehtaan hajupäästöjen ja melun hallinnasta. Video: Risto Koskinen / YleMelun hallinnan suhteen työt ovat vielä kesken. Kun lumet sulavat, mitataan ympäristön melutaso ja verrataan sitä ympäristöluvan melumallinnokseen.– Tämän pohjalta alamme ratkaista mahdollisia ongelmia. Ratkaisut ovat hyvin moninaisia. Melua aiheuttavia putkia voidaan eristää tai suunnata uudella tavalla, Kittilä kertoo esimerkkejä.Tehtaan äänimaailma on muuttunut, sillä toimintoja on tehdasalueelle nyt sijoitettu eri tavalla kuin ennen.– Puunkäsittelyalue on nyt aivan eri paikassa, ja sieltä kuuluu ääntä eri paikassa kuin ennen. Puunkäsittelyssä on paljon mekaanista käsittelyä, mikä on meluisaa, Kittilä toteaa.Avaa kuvien katseluKemin sellutehtaan hakekenttä on nykyään pyörivä, kun se oli aikaisemmin aumamainen. Tällä varmistetaan hakkeen tasaisempi käyttö. Aikaisemmin osa hakkeesta saattoi seistä kasassa niin kauan, että se alkoi pilaantua.  Kuva: Taina Nuutinen-kallio / YleHenkilökunta kokenuttaVirittäminen on myös oppimista, sillä uuden sellutehtaan teknologia on tuliterää. Esimerkiksi Kemin vanhan sellutehtaan kuivauskoneen tekniikka oli kehitetty 1960-luvulla, jolloin massarata eteni 50 metriä minuutissa, kun nyt nopeus on 200 metriä minuutissa.– Vanhaa ja uutta kuivauskonetta voi verrata vaikkapa vanhaan kuplavolkkariin ja Teslaan. Molemmissa on neljä pyörää ja ratti, mutta paljon muuta yhteistä ei olekaan, Kittilä toteaa.Kittilän mukaan uuden tehtaan käyttöönottoa on helpottanut se, että Kemissä henkilökunta erittäin kokenutta ja osaavaa.Kittilälle sekä vanha että uusi tehdas ovat erittäin tuttuja. Nuorena diplomi-insinööriopiskelijana hän teki diplomityönsä Kemissä 2000-luvun alussa, ja on tämän jälkeen tehnyt töitä Kemin lisäksi myös muilla Metsä Groupin tehdaspaikkakunnilla.Hän oli muun muassa mukana Kemiä edeltävän sellutehtaan rakennusprojektissa Äänekoskella.Kemin sellutehtaan rakentamisprojektissa Kittilä toimi teknisenä johtajana.– Onhan se hienoa selluinsinöörille päästä ensin suunnittelemaan uutta tehdasta, sitten rakentamaan ja vielä käynnistämään laitoksen.Avaa kuvien katseluTehtaanjohtaja Pekka Kittilä tuli ensimmäisen kerran Kemiin töihin jo nuorena opiskelijana.  Kuva: Risto Koskinen / YleNäin sellua valmistetaanKuitupuu kuoritaan ja haketetaan. Kuitupuun lisäksi käytetään myös sahoilla syntyvää haketta.Haketuksen jälkeen puuhaketta keitetään valkolipeässä, jotta puussa olevat kuidut irtoavat sideaineista. Sellukuidusta muodostuu keittovaiheen edetessä ruskeaa massamaista ainesta, eli sellumassaa. Tämän jälkeen sellumassaa pestään ja valkaistaan. Valkaistu sellumassa on pehmeää ja pumpulimaista.Valkaisuvaiheen jälkeen sellumassa jatkaa matkaansa kuivaamolle, jossa massa kuivataan, leikataan arkeiksi ja arkit paalataan.Jokaiseen selluyksikköön kiinnitetään RFID-tunniste, jonka avulla asiakas voi seurata selluerän tietoja ja toimitusta reaaliajassa. Tämän jälkeen selluyksiköt ovatkin valmiina matkaamaan asiakkaille.
+Lähde: Metsä Group</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
         <v>44</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Helsingin Sanomat aloittaa muutos­neu­vot­telut – päätoimittaja Saarikoski irtisanoutui</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076652</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Myös Sanoman B2B-liiketoimintayksikössä alkavat muutosneuvottelut, joden perusteella työtehtävät saattavat päättyä 25 työntekijältä.</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Helsingin Sanomissa alkaa muutosneuvottelut, jotka voivat enimmillään johtaa kahdenkymmenen työtehtävän vähenemiseen, Sanoma kertoo tiedotteessaan.Lisäksi Sanoman B2B-liiketoimintayksikössä alkavien neuvotteluiden perusteella työtehtävät saattavat päättyä 25 työntekijällä.Helsingin Sanomat kertoo siirtyvänsä kahden päätoimittajan malliin. Tämän myötä jako uutislinjaan ja erilliseen syventävään linjaan päättyy.Muutoksen johdosta syventävien sisältöjen päätoimittaja Laura Saarikoski on irtisanoutunut Helsingin Sanomien palveluksesta.– Kolme päätoimittajaa on ollut pohjoismaisessa mediamarkkinassa poikkeus. Olemme sopineet Laura Saarikosken kanssa asiasta hyvässä hengessä. Laura on Suomen johtavia journalisteja ja tehnyt Helsingin Sanomissa pitkän ja palkitun uran, mistä iso kiitos, Helsingin Sanomien Erja Yläjärvi sanoo tiedotteessa.Muutosneuvotteluiden myötä Helsingin Sanomien tavoitteena on tiedotteen mukaan yksinkertaistaa organisaatiorakennetta ja selkeyttää johtamista sekä lisätä kirjoittavien toimittajien määrää. Strategisena tavoitteena on vauhdittaa digitaalista kasvua.– Digitaalisten tilauksien määrä kasvaa ja median kulutus siirtyy digiin kiihtyvällä vauhdilla. Tavoitteenamme on organisaatio, joka vastaa aidosti kulutuksen muutokseen. Toimituksemme on monimutkainen ja rakenteet pitkälti ajalta ennen digitaalista muutosta”, Yläjärvi sanoo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>44</v>
+      </c>
+      <c r="B133" t="inlineStr">
         <is>
           <t>Suomalaisessa urheilussa tehdään edelleen liian epämääräisiä sopimuksia, arvioi urhei­luoi­keuden asiantuntija</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076122</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>24.02.2024</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
         <is>
           <t>Puoliammattilaisuus kasvattaa sopimusriitojen riskiä. Asianajaja Mika Palmgren mielestä, se lisää riskiä tuoreen pesäpallo-oikeudenkäynnin tyyppisille riidoille.</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>Suomalaisessa urheilussa tehdään edelleen liian epämääräisiä sopimuksia. Urheiluoikeuteen perehtynyt varatuomari Mika Palmgren arvioi, että tämä lisää riskejä riitojen paisumiselle ja niiden setvimiselle oikeussaleissa.Työnantajien ja urheilutyöntekijöiden välillä on Palmgrenin mukaan paljon säädöksiä, jotka ovat osapuolille tuntemattomia.– Pitäisi muistaa, että urheilu ei ole yhteiskunnasta ulkopuolinen saareke. Se toimii samoilla säännöillä kuin muukin sopimusyhteiskunta, Palmgren sanoo.Turkulainen Mika Palmgren konsultoi muun muassa Jalkapallon Pelaajayhdistyksen jäseniä oikeudellisissa kysymyksissä.Pirkanmaan käräjäoikeus antoi perjantaina päätöksensä pesäpalloseura Manse PP:n ja seuran entisen pelinjohtajan Toni Kohosen riidassa.Sopimusriidassa oli kyse Kohosen ja Manse PP:n välisen pelinjohtajan työsopimuksen irtisanomisesta. Kohonen piti irtisanomista laittomana, kun taas Manse PP:n mielestä Kohonen laiminlöi työtehtäviään.Palmgrenin mukaan tämän tyyppiset oikeudenkäynnit voivat urheilussa lisääntyä.Urheilua koskevat samat säännötToni Kohonen kuvaili helmikuun alussa oikeuskäsittelyn aikana Ylelle, että hän teki pitkällä pelaajaurallaan monenlaisia sopimuksia seurojen kanssa. Sopimuksia tehtiin myös suullisesti.Palmgrenin mukaan tällainen ei ole edelleenkään harvinaista. Vaikka kaikki ristiriitatilanteet eivät olekaan samaa mittakaavaa kuin Manse PP:n ja Kohosen välinen riita, asianajaja huomauttaa että pinnan alla vastaavanlaisia tilanteita tulee vastaan säännöllisesti.– Jos ajatellaan Kohosen tapausta, on syytä muistaa että hän ollut Manse PP:n palkkaama työntekijä. Työntekijä ei siinä asetelmassa voi toimia miten tahansa, vaan hän tekee työtään työnantajan tahdon mukaisesti.Työntekijän ja työnantajan välisessä suhteessa ei ole merkitystä sillä, millainen työntekijän tausta tai aiempi asema on ollut.Kaukana ammattilaisurheilustaMika Palmgren arvioi, että suomalainen urheilu on kokonaisuutena vielä varsin kaukana ammattilaisurheilusta kansainvälisesti vertailtuna. Kokopäiväinen seurajohtaja on Suomessa harvinaisuus.Manse PP:n ja Kohosen oikeuteen asti edennyt ristiriitatilanne tarjoaa tästä esimerkin. Seuran hallituksessa on ihmisiä, jotka tekevät urheilutyötä oman toimensa ohella. He eivät ole siis urheilun täysipäiväisiä ammattilaisia.– Suomessa voidaan puhua enemmän puoliammattilaisuudesta tai jopa amatööriydestä, huomauttaa Palmgren.</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="134">
+      <c r="A134" t="n">
         <v>45</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Kadulta löytyi vainaja Helsingissä – poliisi epäilee väki­val­ta­rikosta</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076669</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Helsingin poliisilaitoksen johtokeskuksesta kerrotaan, että vainaja löytyi poliisitehtävän yhteydessä.</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Helsingin Vuosaaressa sijaitsevalta Ulappasaarentieltä on löytynyt vainaja.Helsingin poliisilaitoksen johtokeskuksesta kerrotaan, että vainaja löytyi ulkoa kadulta Vuosaaressa olleen poliisitehtävän yhteydessä.Poliisi sai tehtävän kello 13 aikaan tiistaipäivällä.Poliisi tiedotti iltapäivällä, että tehtävälle osallistui useita poliisipartioita ja että asiassa epäillään väkivaltarikosta. Sivullinen teki ilmoituksen hätäkeskukseen.Poliisi pyytää mahdollisia silminnäkijöitä ilmoittamaan havaintonsa. Havaintoja voi ilmoittaa soittamalla numeroon 050 562 7405 tai 0295 476 147 tai sähköpostitse vakivaltavihjeet.helsinki@poliisi.fi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>45</v>
+      </c>
+      <c r="B135" t="inlineStr">
         <is>
           <t>Oletko kohdannut kesätöissä huonoa kohtelua työnantajalta? Kerro meille koke­muk­sistasi</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20075986</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>22.02.2024</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
         <is>
           <t>Teemme juttua siitä, millaisia ongelmia kesätyöpaikoissa usein kohdataan. Keräämme juttua varten ihmisten kokemuksia aiheesta.</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t xml:space="preserve">Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Kesätöiden jälkeen moni nuori ottaa yhteyttä ammattiliittoon. Töistä on usein jäänyt jotain hampaankoloon ja siksi liiton mielipidettä halutaan kysyä. Kysymykset liittyvät usein esimerkiksi siihen, onko palkka maksettu oikein.Kesätöissä ollaan usein uuden edessä ja tutustaan työelämään. Teemme juttua siitä, millaisia ongelmia kesätyöpaikoissa usein kohdataan.Koetko, että tietämättömyyttäsi on väärinkäytetty? Oletko kohdannut huonoa kohtelua työnantajalta? Kerro meille tuoreista kesätyökokemuksistasi alla olevalla lomakkeella 25.2. kello 23 mennessä. Lomakkeen kautta voit myös kertoa, mikäli sinua voisi haastatella aiheesta laajemmin. 
 </t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="136">
+      <c r="A136" t="n">
         <v>45</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Käräjäoikeus: Toni Kohonen ja Manse PP joutuvat maksamaan molemmat toisilleen</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20075968</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>23.02.2024</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
         <is>
           <t>Oikeus katsoi, että Manse PP:llä ei ollut laillisia perusteita irtisanoa pelinjohtajan työsopimusta. Oikeuden mukaan Kohonen taas aiheutti seuralle täysin turhan oikeudenkäynnin.</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>Pirkanmaan käräjäoikeus on antanut päätöksensä Toni Kohosen ja Manse PP:n välisessä riitaoikeudenkäynnissä.Käräjäoikeus katsoi, että Manse PP:n päätös irtisanoa Kohonen oli laiton. Yhdistys velvoitetaan suorittamaan Kohoselle korvaukseksi työsopimuksen perusteettomasta päättämisestä 13 500 euroa viivästyskorkoineen huhtikuun lopusta 2023 alkaen. Sen lisäksi Kohoselle on maksettava lomakorvausta 1 800 euroa viivästyskorkoineen.Vaikka Kohonen voitti asiansa, hän joutuu päätöksessä maksumieheksi. Oikeus katsoi, että Kohonen on aiheuttanut menettelyllään tarpeettoman oikeudenkäynnin.Tämä johtuu oikeuden mukaan siitä, että Manse PP oli tarjonnut Kohoselle jo aiemmin muun muassa 40 000 euron sovintoratkaisua. Lisäksi Kohoselle olisi tarjottu toistakin sovintoratkaisua. Kohonen ei ollut suostunut kumpaankaan.Oikeus katsoi, että Kohonen olisi päässyt käräjäoikeuden tuomiota parempaan lopputulokseen hyväksymällä sovintoratkaisun.Tällä perusteella Kohonen on velvollinen korvaamaan Manse PP:n oikeudenkäyntikulut eli yhteensä 36 053 euroa.Ilta-Sanomat uutisoi, että Kohonen aikoo valittaa hovioikeuteen.– Erikoinen tuomio. Harvoin ”voittaja” tuomitaan maksamaan oikeudenkäyntikulut. Olemme lukeneet papereita ja keskustelleet asianhoitajani Olli Rausteen kanssa pari tuntia. Aiomme valittaa ja viedä tapauksen hovioikeuteen, Kohonen sanoi IS:lle.Riskiratkaisu?Sopimusriitaa käsiteltiin Pirkanmaan käräjäoikeudessa helmikuun alussa kolme kokonaista päivää.Niiden aikana kuultiin muun muassa Manse PP:n hallituksen aiempaa puheenjohtajaa Pirkka Savilahtea, joka oli mukana päättämässä Kohosen palkkauksesta syksyllä 2022.Kohosen rekrytointi ei ollut aikanaan yksimielinen. Syynä oli se, että miehellä oli kotimaiseen pesäpalloiluun lähes ylivoimainen pelaajatausta, mutta ei ollenkaan pelinjohtajakokemusta. Savilahti oli tästä syystä miettinyt, kannattaako rekrytointi.Kohonen palkattiin pelinjohtajaksi lokakuussa 2022, mutta hän sai potkut jo helmikuussa 2023.– Olimme selkä seinää vasten pelinjohtaja-asiassa. Sellainen piti saada, ja mielellään nopeasti, Savilahti kertoi oikeudessa.Kohosen ja seuran tuolloisen hallituksen välillä syntyi erimielisyyksiä äkkiä. Hallitus olisi halunnut Kouvolassa asuvan Kohosen olevan lähitöissä Tampereella. Pelinjohtaja vietti paljon aikaansa kotikaupungissaan. Seura velvoitti Kohosen tekemään työajan seurantaa.Niukkasanaista kommentointiaYle tavoitti aiemmin Kohosta edustaneen Olli Rausteen, joka siirsi kommentointivastuun Toni Kohoselle.Manse PP:n osalta kommentointivastuu oli keskitetty asianajaja Mika Miesmäelle. Hän ei vielä osannut sanoa, aikooko seura valittaa päätöksestä.Seura on kertonut näkemyksiään lyhyessä tiedotteessa.– Ratkaisun saaminen käräjäoikeudessa oli helpottavaa, ja tästä on hyvä jatkaa eteenpäin.Uutista päivitetty kello 15.28: Lisätty tiedot Olli Rausteen ja Mika Miesmäen näkemyksistä.Päivitys kello 16.22: Lisätty IS:n tieto, että Kohonen valittaa hovioikeuteen.</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="137">
+      <c r="A137" t="n">
         <v>46</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Andrij Andrjušenko oli venäläisten vankina ja kidutettavana 47 päivää – ”Kun portit avautuivat, aloin vain juosta kovaa”</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>https://yle.fi/a/74-20075820</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>22.02.2024</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Yle vieraili Venäjän miehityksestä vapautetussa Hersonissa ja tapasi miehen, jonka venäläiset vangitsivat. Artikkeli saattaa järkyttää.</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>HERSON Keskustaan lähelle Dniprojokea on hetki sitten pudonnut venäläinen kranaatinammus. Kaksi ihmistä on kuollut, ja hiiltyneet ruumiit ovat yhä auton etupenkillä.Tunnelma on kireä. Toimittajien läsnäolo tuntuu ärsyttävän paikallista, joka huutaen ihmettelee, miksi olemme paikalla.Hersonissa asukkaiden hermoja raastaa yhä venäläinen tykistö.Avaa kuvien katseluVenäjän tuhoama asuintalo Hersonissa. Kuva: Ukrinform / AOPUkraina vapautti kaupungin Venäjän miehityksestä marraskuussa 2022, ja Venäjän joukot vetäytyivät joen itäpuolelle. Yhdeksän kuukauden piina oli vihdoin oli, ja toivo oli korkealla. Hersonin kaupungin aukiolla pidettiin juhlat.Erityisen huojentunut oli hersonilainen Andrij Andrjušenko, joka oli venäläisten vankina ja kidutettavana 47 päivää.Kerromme tässä jutussa hänen tarinansa.Kaupungissa asuu nyt noin 73 000 ihmistä. Ennen sotaa asukkaita oli yli 330 000. Suuri osa rakennuksista on kärsinyt tai tuhoutunut. Rikkoutuneiden ikkunoiden tilalle on asetettu vanerilevyjä, ja asukkaat kutsuvat Hersonia rikkinäisten ikkunoiden kaupungiksi.Kaupungin autiolla keskusaukiolla liehuu kuitenkin taas Ukrainan lippu.Kun venäläiset miehittivät kaupungin helmikuun lopussa 2022, uskalsivat ukrainalaiset tehdä aluksi julkista vastarintaa. Nuoret kerääntyivät soittamaan kovaäänisistä ukrainalaisia lauluja venäläisten sotilaiden edessä. Tunnelma muuttui pian.Yle kävi puistossa Hersonissa, jossa menehtyi useita ukrainalaissotilaita Venäjän hyökkäyksen alussa. Nyt paikalla on muistomerkki.Venäläiset ryhtyivät hajottamaan mielenosoituksia väkivalloin. Andrjušenko alkoi tehdä muiden samanmielisten kanssa aseetonta vastarintaa.– Kun kaupungin viimeinen Ukrainan lippu laskettiin alas 7. maaliskuuta, saimme ajatuksen, että ripustamme tuhansia Ukrainan lippuja ympäri kaupunkia. Tilasimme ompelijalta sinikeltaisia nauhoja ja ripustimme niitä kaikkialle.Sitten sininen ja keltainen kangas loppuivat. Seuraavaksi ryhmä ryhtyi kirjoittamaan ja maalaamaan Ukrainan lippuja ja Ukraina-mielisiä sloganeita talojen seiniin. Erityisesti niitä tehtiin rakennuksiin, joissa venäläiset sotilaat majoittuivat.– Se herätti heissä hermostuneisuutta. Kun he heräsivät aamulla, he näkivät, että ikkunoissa luki esimerkiksi ”nouse kasakka – kuole örkki”.Avaa kuvien katseluAndrjušenko kertoi, että tämä oli yksi suosituimmista iskulauseista. Seinässä lukee“hyvä örkki on kuollut örkki”. Kuva: Andrij AndrjusenkoUkrainalaiset ryhtyivät kutsumaan venäläisiä sotilaita örkeiksi Venäjän täysimittaisen hyökkäyksen alettua.– Kun olin myöhemmin venäläisten vankina ja kidutettavana, ymmärsin, millaista raivoa tekstit heissä herättivät, Andrjušenko sanoo.Ajan myötä ryhmä hajaantui, ja Andrjušenko jatkoi yksin. Hän alkoi pohtia ryhtymistä aseelliseen vastarintaan. Kotonaan hänellä oli jo räjähde ja ase. Andrjušenko sanoo, ettei hän ehtinyt käyttää niitä.Vankeus ja kidutusKaikki muuttui 4. elokuuta 2022. Venäläiset rynnäköivät kahvilaan, jossa Andrjušenko istuskeli.– Heitä oli 12 sotilasta. He laittoivat kaikki lattialle ja kysyivät, kuka on Andrjušenko. Minut vietiin toiseen rakennukseen, jossa hakkaaminen ja kuulustelu alkoi heti.Andrjušenko kertoo kokemuksistaan hersonilaisen ravintolan alakerrassa Venäjän tykistön aiheuttaman vaaran vuoksi.– Jo ensimmäisten tuntien aikana minua hakattiin vasaralla ja korviani viilleltiin. He tekivät kaiken, mitä voi ihmiselle tehdä tappamatta häntä, Andrjušenko sanoo.Sitten Andrjušenko vietiin hänen asunnolleen, mistä sotilaat löysivät räjähteen ja patruunoita. Kuulustelu jatkui entistä rankempana. Asunnolla venäläiset ryhtyivät käyttämään kidutukseen kehitettyjä laitteita.– He eivät saaneet haluamiaan vastauksia, joten he veivät minut vankilaan, jossa kuulustelu ja hakkaaminen jatkui vielä muutaman tunnin.Pian Andrjušenkon fyysinen tila romahti ja hän alkoi menettää jatkuvasti tajuntansa. Andrjušenko heitettiin selliin. Venäläiset sanoivat, että ”kerrot sitten aamulla niin päästämme sinut menemään.”Sotilaat halusivat saada Andrjušenkon paljastamaan ennen kaikkea jonkin osoitteen, jossa asuisi ukrainalaisia vastarintataistelijoita tai jossa säilytettäisiin aseita.– He kuvittelivat, että jokaisella hersonilaisella miehellä on kellarissa Himars, 115 turvallisuuspalvelun sotilasta ja henkilökohtainen bunkkeri, joka on täynnä aseita, Andrjušenko sanoo.Piina oli kuitenkin vasta alussa. Aamulla venäläiset halusivat käyttää valheenpaljastinta, mutta laitteesta vastaava asiantuntija sanoi, että vangin fyysinen kunto ei mahdollistanut luotettavia tuloksia, kertoo Andrjušenko.– He sanoivat, että jos valheenpaljastin ei onnistu, niin kokeilemme ”pirautusta Zelenskyille”.Andrjušenko kertoo, että ”pirautus Zelenskyille” tarkoittaa kuuluisaa venäläisten käyttämää kidutusmenetelmää. Vangin sukupuolielimiin sidotaan kaksi johtoa, joilla annetaan sähköiskuja kenttäpuhelimesta.Pian Andrjušenko joutui käymään kyseisen kidutuskeinon läpi lähes päivittäin.Kidutukseenkin tavallaan sopeutuuAndrjušenko kuvailee kidutusta tarkasti. Hänen mukaansa ihminen sopeutuu jopa kidutukseen.– Kun parin viikon jälkeen selliin tuotiin uusia miehiä, kuvailin heille vitsaillen, miltä mikäkin kidutuskeino tuntuu.Helvettiä jatkui 47 päivää – venäläiset uhkasivat tappaa hänet joka ikisenä päivänä.Andrjušenko sanoo, että hän sai voimaa selvitä toisilta vangeilta.Avaa kuvien katseluTuhoutuneen auton viereiseen seinään on maalattu  Tom ja Jerry -piirroshahmot, jotka ojentavat käsiään iloisesti kohti autoa. Kuva: Justas Stasevskij / YleHän kertoo tavanneensa useita vankeja, jotka olivat nähneet hänen seinämaalauksiaan ja kertoivat niiden tuoneen heille motivaatiota ja toivoa.– Tajusin, ettei työni ollut mennyt hukkaan. Lisäksi uudet vangit toivat uutisia ja kertoivat, että ukrainalaiset ovat pian Hersonissa.Toivoa herätti myös alati lähenevä Ukrainan tykistö.– Ikkunoiden edessä oli rättejä, jotka liehuivat sitä kovempaa, mitä lähempänä Ukrainan ammus oli osunut. Ja me toivoimme, että jokin ammus osuisi vahingossa seinään, jolloin voisimme yrittää pakoa.”Kun portit avautuivat, aloin vain juosta kovaa”Syyskuussa 2022 Andrjušenkoa kohtasi onnenkantamoinen. Vankilaan tuli tuore kuulustelija. Andrjušenko mukaan tämä ei ollut tilanteen tasalla, eikä tiennyt, mitä hänen asunnostaan oli löydetty.– Kerroin hänelle, että maalasin isänmaallisia seinämaalauksia rahan takia, koska minulla ei olisi ollut muuta tapaa selviytyä. Olisin voinut sanoa hänelle mitä vain ja hän olisi uskonut.Andrjušenko uskoo, että kuulustelijoita motivoi yleensä mahdollisuus edetä armeijauralla. Jos he saavat vangista irti hyödyllistä tietoa, saattaa heitä odottaa kunniamerkki tai ylennys. Siksi kuulustelijat vaihtuivat useasti.Avaa kuvien katseluAndrjušenkon tekemä graffiti Hersonissa. Kuva: Andrij Andrjusenko– Hän kysyi minulta, aionko vielä tehdä graffiteja. Vastasin, etten enää ikinä aio piirtää niitä. Sitten hän sanoi, että hyvä, mene hakemaan kamppeesi.– Ajattelin, että nyt minut joko ammutaan tai lähetetään Krimille oikeudenkäyntiin.Sitten kuulustelija antoi käskyn viedä Andrjušenko portille. Hän uskoi edelleen, että hänet ammutaan kohta.– Kun portit avautuivat, aloin vain juosta kovaa.Venäläisten systemaattista toimintaaHersonin paikallispoliisi vahvistaa Ylelle, että Andrjušenko oli vankina 47 päivää ja että häntä kidutettiin.Myös Ukrainan presidentti Volodymyr Zelenskyi kirjoitti Andrjušenkon vankeudesta ja kidutuksesta some-tilillään Hersonin kaupungin vapautuksen jälkeen.Venäläiset ovat harjoittaneet ja harjoittavat systemaattista kidutusta miehittämillään alueilla. Useat ihmisoikeusjärjestöt ovat syyttäneet Venäjää Geneven sopimusten rikkomisesta.Hersonin vapautetussa osassa venäläiset pitivät ukrainalaisia vankeinaan yli 20 pidätyskeskuksessa, kertoo ihmisoikeusjärjestö Human Rights Watch.Venäjän kidutuksia tutkiva syyttäjä arvioi, että venäläiset pidättivät vähintään 4 000–5 000 ukrainalaista Hersonin alueella kahdeksan kuukauden miehityksen aikana. Ukrainalaislapsia myös kaapattiin Hersonin alueelta Venäjälle.Naapuri ei tunnistanutAndrjušenko kertoo, että vankilasta päästyään ja kotiin mennessään hän kohtasi naapurin, jonka tunsi vuosien takaa.– Hän ei tunnistanut minua. Tuntui typerältä, että jouduin todistelemaan hänelle, kuka olen, Andrjušenko sanoo.Andrjušenko uskoo laihtuneensa vankeuden aikana noin 15 kiloa.– Taivaan näkeminen tuon kokemuksen jälkeen oli uskomatonta. Ei ole mitään hienompaa, kuin raikas ilma ja ymmärrys siitä, ettei sinua rajoita mikään. Ne olivat elämäni hienoimmat hetket, Andrjušenko sanoo.Hän pitää vapautumistaan odottamattomana kohtalon oikkuna, ”Jumalan lahjana” – ja toisaalta venäläisten täydellisenä huolimattomuutena.Kysyn Andrjušenkolta, mitä hän tekisi, jos kohtaisi kiduttajansa kadulla. Vastaus on yllättävä.– Tämä kuulostaa ehkä vähän kummalliselta, mutta on varmaa, etten kohtelisi heitä niin kuin he kohtelivat minua. Varmaan kiittäisin, etteivät he tappaneet minua.Andrjušenko selittää, että hän on onnellinen ollessaan elossa, koska nyt hän voi tehdä töitä sen eteen, että ukrainalaisvankeja kiduttaneet venäläiset joutuisivat oikeuden eteen.– Muuten emme eroaisi heistä mitenkään. Minun tapaukseni osoittaa, ettei väkivallalla saavuteta mitään.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>46</v>
-      </c>
-      <c r="B98" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>Tiedämme, missä olit talvilomalla: moni oli koti­maa­kun­nassaan, mutta kartasta näet, minne muut menivät</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20075353</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>24.02.2024</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
         <is>
           <t>Ensimmäisellä koulujen talvilomaviikolla lomailivat Uudenmaan, Varsinais-Suomen ja Satakunnan asukkaat.</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>Talvilomasesonki on täydessä vauhdissa. Viime viikonloppuna lomalle matkustivat eteläisen Suomen lomalaiset, jos matkustivat.Ylivoimaisesti suurin osa matkoista tehtiin maakuntien sisällä. Uudellamaalla maakunnan sisäisiä matkoja tehtiin perjantaina ja lauantaina yli 5,7 miljoonaa, Varsinais-Suomessa yli 1,6 miljoonaa ja Satakunnassa lähes 680 000.Kahteen aikaisempaan viikonloppuun verrattuna Uudellamaalla korostuivat matkat Pohjois-Pohjanmaalle, Varsinais-Suomessa Ahvenanmaalle ja Satakunnassa matkat Lappiin. Voit tarkastella maakuntakohtaisia tietoja alla olevasta grafiikasta.
 Matkat Ahvenanmaalle Varsinais-Suomesta ja Uudeltamaalta selittyvät pitkälti Tukholman-risteilyillä, koska liittymät poistuvat Suomen verkosta Ahvenanmaan kunnissa. Helsingistä lähtiessä esimerkiksi Kökarissa, toteaa Telian datayksikön johtaja Tapio Levä.Uudeltamaalta matkustettiin eniten Kanta-Hämeeseen, Varsinais-Suomesta Uudellemaalle ja Satakunnasta Varsinais-Suomeen. Allaolevasta grafiikasta voit tutkia, minne ihmiset matkustivat eri maakunnista ja kaupungeista.
@@ -3911,492 +5281,810 @@
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="138">
+      <c r="A138" t="n">
+        <v>46</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Keskemenojen hoitosuositus uudistetaan – työryhmä on vaikean tehtävän edessä, sanoo lapset­to­muus­lääkäri</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076436</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Lääkäriseuran suositustyö valmistuu kahden vuoden kuluttua. Raskaana olevalle toivotaan tiivistä ultraääniseurantaa.</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Suomen lääkäriseura Duodecim päätti viime toukokuussa, että keskenmenoa koskeva Käypä hoito -suositus päivitetään.Suositusta on alettu päivittää eilen maanantaina. Työ kestää kaksi vuotta.Yle pyysi lääkäriseurasta kommenttia suosituksen suunnittelun mahdollisesta sisällöstä, mutta sellaista ei herunut.– Emme kommentoi suosituksen tulevaa sisältöä, emmekä sitä, keitä työryhmässä on, sanoo Duodecimin Käypä hoito -toimituksen päätoimittaja Jorma Komulainen.Keskenmenon riskin hoidolle on kasvava tarveLapsettomuus on jo pitkään ollut kasvussa Suomessa, ja vaikuttaa siltä, että trendi on kiihtymässä entisestään.Dextra lapsettomuusklinikan lapsettomuuslääkäri Eero Varilan mukaan Duodecimin työryhmällä on vaikea työ edessään.Käypä hoito -ohjeiden laatiminen on hänen mukaansa vaikeaa, koska keskenmenot ovat kliinisesti vaikeasti tutkittavissa.Keskenmenon estävää lääkettä ja lumelääkettä sisältävä vertailututkimus on Varilan mukaan eettisesti vaikea tai käytännössä jopa mahdotonta toteuttaa raskaana olevilla.Hän kertoo, että 30–40 prosenttia lapsia haluavista pareista jättää lapsettomuushoidot kesken, vaikka ennuste olisi hyvä: heidän henkiset voimavarat eivät riitä. Toistuvat keskenmenot koetaan lähes yhtä raskaina kuin läheisen kuolema.Ultraääniseuranta keskeiseen rooliinHän oli keväällä 2023 seuraamassa Saksa-Itävalta-Sveitsi -koalition keskenmenotutkimuskeskuksen toimintaa Innsbruckissa, jossa hoitoja ja tieteellistä tutkimuksia tehdään paljon.Varila tutustui Itävallassa käytäntöön, jonka hän olisi valmis tuomaan myös Suomeen: raskaana olevalle henkilölle, jolla on useita keskenmenoja taustalla, aloitetaan automaattisesti tiivistahtinen ultraääniseuranta.Jo ensimmäisen raskausviikon jälkeen tehdään ultraäänitutkimus ja niitä suoritetaan viikon välein, kunnes varmistutaan, että on kaikki kunnossa.– Silloin voidaan puuttua häiriötilanteisiin nopeasti. Lisäksi käytäntö vähentää vanhempien stressiä, kun he tietävät, missä mennään ja että lapsi on turvassa, Varila sanoo.Jokainen raskaus on yksilöllinenKeskenmenojen tutkiminen haastavaa, koska kaikki raskaudet ovat erilaisia ja yksilöllisiä – myös samalla naisella: alkio on eri, kohtukin muuttuu jatkuvasti.– Muuttujia on niin paljon, että vertailututkimuksia on lähes mahdotonta tehdä, Varila sanoo.Hänen mukaansa tutkimuksen teko esimerkiksi verenpainesairauden kohdalla on helppoa: kun tulee uusi lääke, tutkimukset voidaan toteuttaa hyvin esimerkiksi sokkotutkimuksina.On huomattavasti haastavampaa muodostaa Käypä hoito -suosituksia keskenmenoille.– Raskaudet ovat ihmisille niin suuri asia, ettei niissä arpajaistutkimuksiin ryhdytä – johtopäätökset pitää pystyä tekemään muulla tavalla, Varila sanoo.Hänen mukaansa klassinen lääketieteen ohjeen mukaan kokeellisia hoitoja voidaan antaa, jos kliiniset merkit viittaavat siihen. Yksi ehto kuitenkin on: potilaille ei saa tuottaa haittaa.Osa hyvinvointialueista tarjoaa matalan kynnyksen keskustelukäyntiä kaikille halukkaille, osa ei ollenkaan. Tarvetta neuvonnalle olisi. Naistentautien ja synnytysten erikoislääkäri Johanna Sirenne-Raivio, Mehiläinen oli Ylen haastattelussa 31. elokuuta 2023.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>46</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Andrij Andrjušenko oli venäläisten vankina ja kidutettavana 47 päivää – ”Kun portit avautuivat, aloin vain juosta kovaa”</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20075820</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>22.02.2024</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Yle vieraili Venäjän miehityksestä vapautetussa Hersonissa ja tapasi miehen, jonka venäläiset vangitsivat. Artikkeli saattaa järkyttää.</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>HERSON Keskustaan lähelle Dniprojokea on hetki sitten pudonnut venäläinen kranaatinammus. Kaksi ihmistä on kuollut, ja hiiltyneet ruumiit ovat yhä auton etupenkillä.Tunnelma on kireä. Toimittajien läsnäolo tuntuu ärsyttävän paikallista, joka huutaen ihmettelee, miksi olemme paikalla.Hersonissa asukkaiden hermoja raastaa yhä venäläinen tykistö.Avaa kuvien katseluVenäjän tuhoama asuintalo Hersonissa. Kuva: Ukrinform / AOPUkraina vapautti kaupungin Venäjän miehityksestä marraskuussa 2022, ja Venäjän joukot vetäytyivät joen itäpuolelle. Yhdeksän kuukauden piina oli vihdoin oli, ja toivo oli korkealla. Hersonin kaupungin aukiolla pidettiin juhlat.Erityisen huojentunut oli hersonilainen Andrij Andrjušenko, joka oli venäläisten vankina ja kidutettavana 47 päivää.Kerromme tässä jutussa hänen tarinansa.Kaupungissa asuu nyt noin 73 000 ihmistä. Ennen sotaa asukkaita oli yli 330 000. Suuri osa rakennuksista on kärsinyt tai tuhoutunut. Rikkoutuneiden ikkunoiden tilalle on asetettu vanerilevyjä, ja asukkaat kutsuvat Hersonia rikkinäisten ikkunoiden kaupungiksi.Kaupungin autiolla keskusaukiolla liehuu kuitenkin taas Ukrainan lippu.Kun venäläiset miehittivät kaupungin helmikuun lopussa 2022, uskalsivat ukrainalaiset tehdä aluksi julkista vastarintaa. Nuoret kerääntyivät soittamaan kovaäänisistä ukrainalaisia lauluja venäläisten sotilaiden edessä. Tunnelma muuttui pian.Yle kävi puistossa Hersonissa, jossa menehtyi useita ukrainalaissotilaita Venäjän hyökkäyksen alussa. Nyt paikalla on muistomerkki.Venäläiset ryhtyivät hajottamaan mielenosoituksia väkivalloin. Andrjušenko alkoi tehdä muiden samanmielisten kanssa aseetonta vastarintaa.– Kun kaupungin viimeinen Ukrainan lippu laskettiin alas 7. maaliskuuta, saimme ajatuksen, että ripustamme tuhansia Ukrainan lippuja ympäri kaupunkia. Tilasimme ompelijalta sinikeltaisia nauhoja ja ripustimme niitä kaikkialle.Sitten sininen ja keltainen kangas loppuivat. Seuraavaksi ryhmä ryhtyi kirjoittamaan ja maalaamaan Ukrainan lippuja ja Ukraina-mielisiä sloganeita talojen seiniin. Erityisesti niitä tehtiin rakennuksiin, joissa venäläiset sotilaat majoittuivat.– Se herätti heissä hermostuneisuutta. Kun he heräsivät aamulla, he näkivät, että ikkunoissa luki esimerkiksi ”nouse kasakka – kuole örkki”.Avaa kuvien katseluAndrjušenko kertoi, että tämä oli yksi suosituimmista iskulauseista. Seinässä lukee“hyvä örkki on kuollut örkki”. Kuva: Andrij AndrjusenkoUkrainalaiset ryhtyivät kutsumaan venäläisiä sotilaita örkeiksi Venäjän täysimittaisen hyökkäyksen alettua.– Kun olin myöhemmin venäläisten vankina ja kidutettavana, ymmärsin, millaista raivoa tekstit heissä herättivät, Andrjušenko sanoo.Ajan myötä ryhmä hajaantui, ja Andrjušenko jatkoi yksin. Hän alkoi pohtia ryhtymistä aseelliseen vastarintaan. Kotonaan hänellä oli jo räjähde ja ase. Andrjušenko sanoo, ettei hän ehtinyt käyttää niitä.Vankeus ja kidutusKaikki muuttui 4. elokuuta 2022. Venäläiset rynnäköivät kahvilaan, jossa Andrjušenko istuskeli.– Heitä oli 12 sotilasta. He laittoivat kaikki lattialle ja kysyivät, kuka on Andrjušenko. Minut vietiin toiseen rakennukseen, jossa hakkaaminen ja kuulustelu alkoi heti.Andrjušenko kertoo kokemuksistaan hersonilaisen ravintolan alakerrassa Venäjän tykistön aiheuttaman vaaran vuoksi.– Jo ensimmäisten tuntien aikana minua hakattiin vasaralla ja korviani viilleltiin. He tekivät kaiken, mitä voi ihmiselle tehdä tappamatta häntä, Andrjušenko sanoo.Sitten Andrjušenko vietiin hänen asunnolleen, mistä sotilaat löysivät räjähteen ja patruunoita. Kuulustelu jatkui entistä rankempana. Asunnolla venäläiset ryhtyivät käyttämään kidutukseen kehitettyjä laitteita.– He eivät saaneet haluamiaan vastauksia, joten he veivät minut vankilaan, jossa kuulustelu ja hakkaaminen jatkui vielä muutaman tunnin.Pian Andrjušenkon fyysinen tila romahti ja hän alkoi menettää jatkuvasti tajuntansa. Andrjušenko heitettiin selliin. Venäläiset sanoivat, että ”kerrot sitten aamulla niin päästämme sinut menemään.”Sotilaat halusivat saada Andrjušenkon paljastamaan ennen kaikkea jonkin osoitteen, jossa asuisi ukrainalaisia vastarintataistelijoita tai jossa säilytettäisiin aseita.– He kuvittelivat, että jokaisella hersonilaisella miehellä on kellarissa Himars, 115 turvallisuuspalvelun sotilasta ja henkilökohtainen bunkkeri, joka on täynnä aseita, Andrjušenko sanoo.Piina oli kuitenkin vasta alussa. Aamulla venäläiset halusivat käyttää valheenpaljastinta, mutta laitteesta vastaava asiantuntija sanoi, että vangin fyysinen kunto ei mahdollistanut luotettavia tuloksia, kertoo Andrjušenko.– He sanoivat, että jos valheenpaljastin ei onnistu, niin kokeilemme ”pirautusta Zelenskyille”.Andrjušenko kertoo, että ”pirautus Zelenskyille” tarkoittaa kuuluisaa venäläisten käyttämää kidutusmenetelmää. Vangin sukupuolielimiin sidotaan kaksi johtoa, joilla annetaan sähköiskuja kenttäpuhelimesta.Pian Andrjušenko joutui käymään kyseisen kidutuskeinon läpi lähes päivittäin.Kidutukseenkin tavallaan sopeutuuAndrjušenko kuvailee kidutusta tarkasti. Hänen mukaansa ihminen sopeutuu jopa kidutukseen.– Kun parin viikon jälkeen selliin tuotiin uusia miehiä, kuvailin heille vitsaillen, miltä mikäkin kidutuskeino tuntuu.Helvettiä jatkui 47 päivää – venäläiset uhkasivat tappaa hänet joka ikisenä päivänä.Andrjušenko sanoo, että hän sai voimaa selvitä toisilta vangeilta.Avaa kuvien katseluTuhoutuneen auton viereiseen seinään on maalattu  Tom ja Jerry -piirroshahmot, jotka ojentavat käsiään iloisesti kohti autoa. Kuva: Justas Stasevskij / YleHän kertoo tavanneensa useita vankeja, jotka olivat nähneet hänen seinämaalauksiaan ja kertoivat niiden tuoneen heille motivaatiota ja toivoa.– Tajusin, ettei työni ollut mennyt hukkaan. Lisäksi uudet vangit toivat uutisia ja kertoivat, että ukrainalaiset ovat pian Hersonissa.Toivoa herätti myös alati lähenevä Ukrainan tykistö.– Ikkunoiden edessä oli rättejä, jotka liehuivat sitä kovempaa, mitä lähempänä Ukrainan ammus oli osunut. Ja me toivoimme, että jokin ammus osuisi vahingossa seinään, jolloin voisimme yrittää pakoa.”Kun portit avautuivat, aloin vain juosta kovaa”Syyskuussa 2022 Andrjušenkoa kohtasi onnenkantamoinen. Vankilaan tuli tuore kuulustelija. Andrjušenko mukaan tämä ei ollut tilanteen tasalla, eikä tiennyt, mitä hänen asunnostaan oli löydetty.– Kerroin hänelle, että maalasin isänmaallisia seinämaalauksia rahan takia, koska minulla ei olisi ollut muuta tapaa selviytyä. Olisin voinut sanoa hänelle mitä vain ja hän olisi uskonut.Andrjušenko uskoo, että kuulustelijoita motivoi yleensä mahdollisuus edetä armeijauralla. Jos he saavat vangista irti hyödyllistä tietoa, saattaa heitä odottaa kunniamerkki tai ylennys. Siksi kuulustelijat vaihtuivat useasti.Avaa kuvien katseluAndrjušenkon tekemä graffiti Hersonissa. Kuva: Andrij Andrjusenko– Hän kysyi minulta, aionko vielä tehdä graffiteja. Vastasin, etten enää ikinä aio piirtää niitä. Sitten hän sanoi, että hyvä, mene hakemaan kamppeesi.– Ajattelin, että nyt minut joko ammutaan tai lähetetään Krimille oikeudenkäyntiin.Sitten kuulustelija antoi käskyn viedä Andrjušenko portille. Hän uskoi edelleen, että hänet ammutaan kohta.– Kun portit avautuivat, aloin vain juosta kovaa.Venäläisten systemaattista toimintaaHersonin paikallispoliisi vahvistaa Ylelle, että Andrjušenko oli vankina 47 päivää ja että häntä kidutettiin.Myös Ukrainan presidentti Volodymyr Zelenskyi kirjoitti Andrjušenkon vankeudesta ja kidutuksesta some-tilillään Hersonin kaupungin vapautuksen jälkeen.Venäläiset ovat harjoittaneet ja harjoittavat systemaattista kidutusta miehittämillään alueilla. Useat ihmisoikeusjärjestöt ovat syyttäneet Venäjää Geneven sopimusten rikkomisesta.Hersonin vapautetussa osassa venäläiset pitivät ukrainalaisia vankeinaan yli 20 pidätyskeskuksessa, kertoo ihmisoikeusjärjestö Human Rights Watch.Venäjän kidutuksia tutkiva syyttäjä arvioi, että venäläiset pidättivät vähintään 4 000–5 000 ukrainalaista Hersonin alueella kahdeksan kuukauden miehityksen aikana. Ukrainalaislapsia myös kaapattiin Hersonin alueelta Venäjälle.Naapuri ei tunnistanutAndrjušenko kertoo, että vankilasta päästyään ja kotiin mennessään hän kohtasi naapurin, jonka tunsi vuosien takaa.– Hän ei tunnistanut minua. Tuntui typerältä, että jouduin todistelemaan hänelle, kuka olen, Andrjušenko sanoo.Andrjušenko uskoo laihtuneensa vankeuden aikana noin 15 kiloa.– Taivaan näkeminen tuon kokemuksen jälkeen oli uskomatonta. Ei ole mitään hienompaa, kuin raikas ilma ja ymmärrys siitä, ettei sinua rajoita mikään. Ne olivat elämäni hienoimmat hetket, Andrjušenko sanoo.Hän pitää vapautumistaan odottamattomana kohtalon oikkuna, ”Jumalan lahjana” – ja toisaalta venäläisten täydellisenä huolimattomuutena.Kysyn Andrjušenkolta, mitä hän tekisi, jos kohtaisi kiduttajansa kadulla. Vastaus on yllättävä.– Tämä kuulostaa ehkä vähän kummalliselta, mutta on varmaa, etten kohtelisi heitä niin kuin he kohtelivat minua. Varmaan kiittäisin, etteivät he tappaneet minua.Andrjušenko selittää, että hän on onnellinen ollessaan elossa, koska nyt hän voi tehdä töitä sen eteen, että ukrainalaisvankeja kiduttaneet venäläiset joutuisivat oikeuden eteen.– Muuten emme eroaisi heistä mitenkään. Minun tapaukseni osoittaa, ettei väkivallalla saavuteta mitään.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
         <v>47</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>Hiihto­lo­makausi veti väkeä etelän lasket­te­lu­kes­kuksiin: ”Täytyy sanoa, että Vihti yllätti”</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076298</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>24.02.2024</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
         <is>
           <t>Tänään vietetään kansallista hiihtopäivää. Suomessa hiihtolomia on vietetty jo 90 vuotta.</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>Aurinko kimmeltää pilvien lomasta lumen pinnalle. Vihtiläisen hiihtokeskuksen rinteessä kuuluu innostuneitä ääniä, keskuksen kaiuttimista soi Tauskin sävelmiä.Hiihtolomakausi on parhaillaan käynnissä Etelä-Suomessa. Ensi viikolla on Väli-Suomen vuoro ja viikolla 10 hiihtolomaa vieteään Itä- ja Pohjois-Suomessa. Hiihtolomaa on vietetty suomalaisissa kouluissa vuodesta 1933 alkaen, jolloin se lanseerattiin urheilulomana.Tänään myös vietetään kolmatta kertaa kansallista hiihtopäivää. Suomessa järjestetään yli sata avointa hiihtotapahtumaa, kuten ohjatut hiihtoretket, koko perheen talviriehat ja suuret massahiihdot eri puolilla maata.Nelihenkinen Vuoren perhe lähti Vihdin hiihtokeskukseen päiväreissulle.Perheen äidin Kaarina Vuoren mukaan hiihtolomapäivä kolmen lapsen kanssa on sujunut hyvin.– Kyllä siinä on hommaa, mutta onneksi lapset ovat jo sen verran isoja, että tulevat omatoimisesti alas. Toinen auttaa toista, jos joku kaatuu, Vuori sanoo.Avaa kuvien katseluVuoren perhe lasketteli Vihdissä yhteistuumin. Kuvassa vasemmalta Onni Antero, Kaarina, Eerika Inkeri ja Essi Alise Vuori. Kuva: Markku Pitkänen / YleSuomalaiset löysivät SuomenSuomen matkailualan liiton toimitusjohtaja Heli Mäki-Fräntin mukaan suomalaiset löysivät pandemian aikana kotimaanmatkailun.– Aivan selvästi se kantaa edelleen. Suomalaiset matkustavat taas aika samaan tapaan kuin ennen pandemiaa. Kotimaan matkakohteen ovat aina kiinnostavia, niissä haetaan talviaktiviteetteja, Mäki-Fränti sanoo.Helsinkiläinen Tuomas Toropainen laskee huimaa vauhtia rinnettä alas.– Tänään on tosi hieno päivä, aurinko pikkuisen pilkottaa, ilma on tosi hyvä. Olosuhteet ovat ainakin näin ratalaskijan kannalta erittäin hyvät, Toropainen sanoo.Avaa kuvien katseluTuomas Toropaista ei hurja vauhti rinteessa huimaa. Kuva: Markku Pitkänen / YleEspoolainen Kirsi Anttonen kertoo puntaroineensa edellisenä päivänä tarkkaan Vihdin hiihtokeskukseen lähtöä.– Täytyy sanoa, että Vihti yllätti. Espoossa satoi eilenkin vettä. Katsoin säätä ja mietin moneen kertaan, että voiko tänne lähteä, ja sitten kun tulin , niin rinteet olivat hyvässä kunnossa. Ei ole hissijonoja, eikä taivaalta sada mitään. Tämä on hyvä näin, Anttonen tunnelmoi.Vihtiläinen Juho Kekkonen saapui aamupäivällä lähimäkeensä.Hän huomauttaa, että vaikka ulkomaillekin voisi lähteä, niin Suomi on hyvä ja edullinen matkailuratkaisu.– Kun on perhettä, niin lapsen pääsee lähelle mäkeen nauttimaan lumesta, Kekkonen sanoo.Avaa kuvien katseluVihtiläinen Eemeli Sjöblom harjoitteli laskettelutemppuja rinteessa. Kuva: Markku Pitkänen / YleSuomen matkailualan liiton toimitusjohtaja Heli Mäki-Fräntin mukaan kotimaanmatkailu on kehittynyt viime vuosina paljon ja markkinoille on tullut runsaasti uusia tuotteita.– Nykyään kotimaassa panostetaan entistä enemmän siihen, että on erilaista tekemistä eri kohderyhmille, Mäki-Fränti sanoo.Hänen mukaansa talviaikana myös kylpylälomat ovat olleet hyvin suosittuja. Myös staycation-lomat, joissa hotelliin voidaan mennä viikonlopuksi jopa omassa kotikaupungissa, ovat olleet entistä enemmän suosittuja.– Siinä pääsee katsomaan turistin silmin omaa kotipaikkakuntaansa.</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="141">
+      <c r="A141" t="n">
+        <v>47</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>On aika luopua sadasta kravatista ja tasku­liinoista – Matti Rönkä sanoo jäähyväiset tv-uutisille</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20073445</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>26.02.2024</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Ylen pitkäaikainen uutisjuontaja Matti Rönkä toivottaa keskiviikkona viimeisen kerran ”hyvää iltaa uutisista”. Eläkkeelle jäätyään hän aikoo rakentaa tonttuoven.</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Matti Rönkä luki illalla kirjaa ja joi viskipaukun. Seuraava päivä oli vapaapäivä.Varhain aamulla soi puhelin. Soitto tuli Ylen uutistoimituksesta. Uutispäällikköä tarvittiin töihin.Oli 28. syyskuuta vuonna 1994. Matkustaja-autolautta M/S Estonia oli uponnut ja yli 800 ihmistä oli saanut surmansa.– Ei se heti lävistänyt tajuntaani, Rönkä toteaa.Kirja, jota hän illalla luki, oli Pat Conroyn kirjoittama Vuorovetten prinssi.Avaa kuvien katseluEstonian uppoaminen oli uutinen, joka on jättänyt uutisjuontaja ja kirjailija Matti Rönkään kaikista syvimmän jäljen. Kuva: Katriina Laine / Yle– Estonia oli urallani ensimmäinen suurkatastrofi. Sen jälkeen on tapahtunut vaikka sun mitä, mutta Estonia meni suojakuoren ja haarniskan läpi.Hän muistaa, kuinka koko päivän uutistoimituksessa vallitsi outo tunnelma. Yleensä tilan täytti radion äänet, toimittajien puhe ja yleinen hälinä.– Nyt oli aivan hiljaista. Toimittajat tulivat luokseni ja sanoivat ”anna mulle joku homma”.Jokainen oli joskus ollut ruotsinlaivalla.Muutama vuosi sitten Rönkä katsoi Estonia-päivän tv-uutiset nauhalta. Hän hämmästyi, miten kattavasti onnettomuudesta kerrottiin uutisissa jo samana iltana.– Minä vain kokosin lähetyksen. Yksi tv-kuvaajistamme oli helikopterissa, kun pelastuslautoilta nostettiin hukkuneita ylös. Kuvatessaan hän joutui varomaan, ettei tallo ruumiita.Voit katsoa Estoniapäivän 28.9.1994 kello 20.30 uutislähetyksen videolta. Matti Rönkä oli uutispäällikkövuorossa ja uutisjuontajana oli Arto Nurmi. Uutiskuvat saattavat järkyttää.Matti Rönkä syntyi rintamamiestalon kammarissa Outokummussa 64 vuotta sitten. Vielä silloin paikkakunta tunnettiin nimellä Kuusjärvi.– Olen lähtenyt maailmaan jälleenrakennussukupolven kodista. Vanhempani olivat sodan käynyttä sukupolvea ja maalaistalon lapsia Savosta.Äiti työskenteli postissa. Isä ajoi linja-autoa.– Oppikoulun lukuvuosi maksoi lähes isän kuukausipalkan verran ja oli iso satsaus.Rönkä oli 13-vuotias, kun isä kuoli syöpään.– Se oli kova paikka.Yritimme hoitaa rootelimme, että emme tuottaisi turhaa murhetta.Matti Rönkä– Minulla ja veljelläni ei ollut mahdollisuutta murrosiän kapinointiin. Tiesimme, että äidillä oli tiukkaa. Yritimme hoitaa omat rootelimme, että emme tuottaisi turhaa murhetta.Elämä oli silti turvallista. Lasten koulutuksesta ei tingitty.– Olin koulussa tasaisen hyvä. Varovasti haaveilin, että minusta saattaisi tulla arkkitehti, koska pidin piirtämisestä. En edes tuntenut toimittajia.Oli päivänselvää, että Outokummusta lähdetään pois.Ylioppilaskirjoitukset menivät niin hyvin, että paikka Helsingin yliopiston valtiotieteellisestä tiedekunnasta heltisi papereiden perusteella.Rönkä oli 19-vuotias, kun juna toi armeijan jälkeen maalta Helsinkiin.– Olin tarpeeksi köyhä, että pääsin asumaan Ylioppilaskunnan asuntolaan. Helsinki oli hieno. Kaikki oli hienoa.Avaa kuvien katseluRönkä valmistui valtiotieteiden maisteriksi Helsingin yliopistosta ja toimittajaksi Sanoman toimittajakoulusta. Kuva: Katriina Laine / YleRönkä aloitti Ylen uutisjuontajana 2000-luvun alussa. Sitä ennen hän oli ollut vuodesta 1990 tv-uutisten uutispäällikkö.– Vetovoima pomon hommiin loppui, uutisankkurointi kiinnosti enemmän.Työkokemusta oli kertynyt myös MTV:ssä, Helsingin Sanomissa, Lehtikuvassa, Radio Ykkösessä ja Insinööriuutisissa.Työ on parhaimmillaan, kun asiat ovat kamalimmillaanMatti RönkäIlta illan jälkeen Matti Rönkä on tervehtinyt katsojia: ”Hyvää iltaa uutisista.” Hänellä on harvoin ollut kerrottavanaan hyviä, saati iloisia uutisia.Siinä piilee työn irvokkuus.– Tämä työ on parhaimmillaan, kun asiat ovat kamalimmillaan.Vuosikymmeniä kestäneen työuran aikana moni uutinen on silti koskettanut ja vetänyt hiljaiseksi.Suomen historian vakavin tieliikenneonnettomuus, Konginkankaan linja-autoturma vuonna 2004 oli yksi niistä. Onnettomuudessa kuoli 23 ihmistä.– Omat lapseni olivat sen ikäisiä, että olisivat hyvin voineet olla samanlaisella laskettelureissulla.Kaakkois-Aasian tuhoisa tsunami sattui tapaninpäivänä samana vuonna. Oli juhlakausi ja uutistoimituksessa vain vähän ihmisiä töissä.– Tsunami on jäänyt mieleeni harmaana sumuna. Kun jotain sattuu, silloin tehdään töitä ja homma lähtee rullaamaan.Matti Rönkä oli uutisjuontajavuorossa 30.12.2004, kun pääaiheena oli  Kaakkois-Aasian tuhoisa tsunami. Videon uutiskuvat saattavat järkyttää. Kouluampumisista Rönkä toteaa, että ne olivat ”käsittämättömiä”.Hän tapailee rohkean maailmanmatkaaja, suomentaja ja kirjailija Kyllikki Villan (1923–2010) sanoja:– Onneksi pahat asiat ovat uutisia, koska se kertoo, että maailmassa on asiat hyvin. Sittenhän se olisi kamalaa, jos se olisi uutinen, että joku asia on hyvin.Rönkä on samaa mieltä.Hän lainaa myös Simo Puupposta eli nimimerkki Aapelia (1915–1967). Savolaiskirjailijan ja toimittajan sanoista on tullut hänen mottonsa:– Aurinko alkoi paistaa kaikille hyville ihmisille. Olisi se paistanut pahoillekin, jos sellaisia olisi.Täytyy taistella kyynisyyttä vastaan.– Jos lähtökohtaisesti ajattelee, että ihmiset ovat pahoja ja maailma on paha, niin eihän silloin ole mitään toivoa, Rönkä sanoo ja lisää:– Valoa kohti!Avaa kuvien katseluTyöhuoneen ikkunasta näkyy puutarhaan. Linnut visertävät pensaissa. Kuva: Katriina Laine / YleMatti Rönkä asuu keltaisessa rintamamiestalossa Helsingissä. Kotonaan hän harjoittaa toista julkista ammattiaan: Rönkä on myös menestynyt kirjailija.Yläkerran työhuoneessa on kirjoituspöytä, jonka ääressä hänen kirjansa syntyvät.Silloin radio on usein auki. ”Tanssilavojen kasvattina” hän rakastaa kaihoisia iskelmiä.Seuraava romaani on viimeistelyä vaille valmis. Sen nimi on Onnen kaukoranta.– Romaani kertoo nuoresta kaverista, jolle on suotu kihara tukka, ruskeat silmät ja hieno ääni.Röngältä on julkaistu jo 12 kirjaa. Niitä on myyty arviolta 300 000 ja käännösoikeuksiakin 20 maahan.– Tykkään leikitellä sanoilla.Avaa kuvien katseluLukijat tuntevat parhaiten Röngän dekkarihahmon, inkeriläisen paluumuuttaja Viktor Kärpän.  Kuva: Katriina Laine / YleRöngällä on sata kravattia ja Käärijän piikitOmakotitalon suuressa pukeutumishuoneessa vaatetangot notkuvat pikkutakkien ja eriväristen paitojen painosta.Rönkä sanoo, että uutisjuontaja on keulakuva ja symboli. Hän miettii tarkkaan, mitä valitsee päälleen illan lähetykseen.Pelkästään kravatteja on kertynyt sata ja taskuliinojakin on nelisenkymmentä erilaista.Uutisjuontaja muistaa hyvin, missä tilanteessa ja lähetyksessä on niitä käyttänyt.Neonvihreä kravatti ja piikein varustettu taskusomiste ovat illalta, jolloin suomalaiset jännittivät Käärijän Euroviisumenestystä.Matti Rönkä on tarkka tyylistään. Hän valitsee pukuun sopivan kravatin ja taskuliinan.Matti Röngän mielestä uutisjuontajan pitää olla neutraalin miellyttävä. Tärkeää on huomiota herättämätön tyylikkyys.– Uutisjuontajaksi ei tavoitella missejä ja mistereitä. Kaikkien ei pidä olla nuoria ja hehkeitä.Röngän mielestä uutisjuontaja on ajatuksen kuljettaja.– Katsojan kiinnostus ei saa kohdistua naisen kauneuteen ja tukkalaitteeseen tai miehen komeuteen. Silloin ollaan pielessä.Omassa esiintymisessä on jo iän tuomaa varmuutta, mikä mahdollistaa leppoisamman otteen kuin ensimmäisinä ruutukasvovuosina.– Olin Maikkarissa uutisjuontajana nätti nuorimies, mutta helvetin vakava, koska minun piti niin paljon keskittyä siihen, miten onnistun teknisesti.Matti Rönkä kutsuu uutislähetyksen loppua ”loppusyleilyksi”. Tällaisen syleilyn hän antoi katsojille uutislähetyksessä 25.8.2022.Myöhäinen kukkuja siirtyy eläkkeelleKun työvuoron jälkeen toimituksen ovi illalla sulkeutuu, Rönkä ei jää vatvomaan päivän uutisia, mutta vireystila jatkuu vielä. Kotona uni ei tule heti.– Valvon myöhään. Elän myöhäisen kukkujan elämää.Tammi- ja helmikuun aikana eniten häntä ovat työllistäneet presidentinvaalit ja Ylen vaalistudio. Rönkä on uransa aikana tuottanut ja juontanut lukuisia vaalilähetyksiä.Hän haluaa olla paikalla, kun jotain suurta tapahtuu. Muutoin tunne on sama kuin loukkaantuneella huippu-urheilijalla, joka joutuu istumaan vaihtopenkillä.– Toimittajankin on helpompi olla mukana äksönissä. Tuskaisempaa olisi vain katsoa sivusta.Eläkkeelle siirtyminen ei ole aivan tuskatonta sekään. Matti Rönkä sanoo suoraan ja kiertelemättä:– Vanheneminen on perseestä.Avaa kuvien katseluEläkepäivät alkavat maaliskuun alusta.  Kuva: Katriina Laine / YleEnsi keskiviikkona kello puoli yhdeksän illalla Rönkä nähdään viimeisen kerran ankkurivuorossa.Ennen joulua tehty polvileikkaus ja pitkä sairausloma antoivat esimakua siitä, miltä töistä pois jääminen tuntuu.– On ollut etuoikeus saada tehdä työtä, jossa ei ole tarvinnut myydä mitään tarpeetonta tai valmistaa jotain pilputinta. Jään kaipaamaan työkavereita ja fiksua työyhteisöä.Fuengirolaan en aio muuttaaMatti RönkäRönkä kuvailee olevansa sosiaalinen erakko, joka viihtyy yksin, mutta tarvitsee ympärilleen myös urheilu- tai työporukkaa.Hän kutsuu itseään myös ”kokonaisurakkamieheksi”, joka haluaa eläkkeelläkin pysyä puuhakkaana. Käsistään kätevällä auto- ja remonttimiehellä riittää tekemistä.– Fuengirolaan en aio muuttaa.Tammikuussa Röngästä tuli ukki, kun tyttärelle syntyi pieni poika. Ensimmäinen lapsenlapsi tietää nikkaroitavaa.– Olen tonttuovi-valmiudessa, hän naurahtaa.Avaa kuvien katseluMatti Rönkä kuvattiin hänen kotitalonsa edessä. Kuva: Katriina Laine / YleMitä ajatuksia artikkeli sinussa herätti? Voit osallistua keskusteluun, joka on avoinna 26.2. klo 23 saakka.Katso Matti Röngän vierailu Puoli seitsemän -ohjelmassa 26. helmikuuta 2024.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
         <v>48</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>Pilvi Hämäläisen huumoribiisi ampaisi vuorokaudessa Spotifyn listayk­köseksi</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076292</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>24.02.2024</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
         <is>
           <t>Hämäläisen viisupastissi Mon chéri herätti ihastusta UMK-finaalilähetyksessä pari viikkoa sitten.</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>UMK-finaalissa yllättäneen Pilvi Hämäläisen huumorikappale Mon chéri on kivunnut vuorokaudessa Suomen kuunnelluimmaksi kappaleeksi Spotifyssa.Näyttelijä ja UMK-juontaja Hämäläisen euroviisukliseet kokoava kappale Mon chéri julkaistiin suoratoistopalvelussa perjantaina.Tänään lauantaina Hämäläinen iloitsi Instagramissa, että kappale on ampaissut Suomen Spotifyn listaykköseksi.– Mon chéri Suomen Spotifyin ykkösenä! Rakastan teitä ihmiset! Hämäläinen kirjoitti postaukseensa.Hämäläinen kertoi perjantaina Ylen Puoli seitsemän -ohjelmassa, ettei osannut odottaa kappaleensa saavan niin paljon suosiota. Hänen mukaansa UMK-finaalin väliaikaohjelmaksi tarkoitetun kappaleen julkaiseminen Spotifyssa oli ”läppä, joka lähti käsistä”.Mon chéri -kappale sai ensiesityksensä UMK:n finaalissa 10. helmikuuta.– Ei me ehkä ihan arvattu, että tästä näin kova hitti tulee, Hämäläinen nauroi.Toimittaja Olli-Pekka Kursi tiedusteli ohjelmassa, olisiko Hämäläisellä mahdollisesti tavoitteena tehdä enemmänkin kappaleita.– Katsotaan, miten pitkälle tällä yhdellä hitillä päästään. Mun tavoitteena ehkä on tulla maailman nopeimmaksi yhden hitin ihmeeksi, Hämäläinen vitsaili.</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="143">
+      <c r="A143" t="n">
+        <v>48</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Muusikko Jaakko Teppo on kuollut</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076534</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Pitkän uran kansantaitelijana tehnyt Jaakko Teppo on kuollut. Teppo tuli tunnetuksi muun muassa kappaleillaan Hilma ja Onni, Työttömän laulu sekä Pamela.</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Eläkkeellä ollut kansantaitelija Jaakko Teppo on kuollut maanantaina. Teppo oli kuollessaan 71-vuotias. Tapahtuman vahvistaa hänen poikansa Facebook-päivityksissään.Vuonna 1953 syntynyt, iisalmelaislähtöinen Teppo tuli tunnetuksesi kuplettilaulajana ja lavaesiintyjänä.Jaakko Teppo voitti kuplettilaulun Suomen mestaruuden 1970-luvun lopulla. Hän oli suosionsa huipulla 1980- ja 1990-luvuilla.Menestyksekäs ura katkesi aivoinfarktiin 1995, jonka jälkeen hän siirtyi eläkkeelle. Eläkevuotensa Teppo vietti Joensuussa.Lempinimellä ”Ruikonperän multakurkku” esiintynyt Teppo tuli tunnetuksi lukuisilla maaseudun elämänmenosta kertovilla kappaleillaan kuten Pamela, Hilma ja Onni sekä Työttömän laulu.Videolla Jaakko Teppo esiintyy Työttömien iltamoissa vuonna 1977.Tepon tuotantoa on viime vuosina tehty tunnetuksi musikaaleissa, teatterilavoilla ja sinfoniaorkesterin sovituksina.Jaakko Teppo palkittiin Suomi-palkinnolla vuonna 2022. Palkinnon perusteluissa todettiin, että Teppo on tuonut musiikillaan ja hersyvillä lyriikoillaan iloa suomalaisten elämään yli kolmen vuosikymmenen ajan.Viime kesänä Jaska-musiikkikomediaa esitettiin Utran uudessa teatterissa Joensuussa noin 16 000 katsojalle.Kansantaiteilija Jaakko Teppo sai insinöörin tutkintotodistuksen 35 vuotta valmistumisensa jälkeen. Yle Uutiset Itä-Suomi 2016.Jaakko Tepon huumorihöysteiset laulut lähtivät uuteen nousuun talvella 2009–2010, jolloin Onnen kerjäläiset -musikaali kiersi pitkin Suomea ja veti katsomot täyteen.A-studio lähti kiertueen matkaan, haastatteli Jaskan faneja ja löysi Kuhmosta Jaakko Tepon laulujen legendaarisimman hahmon, Ryynäs-Topin.Raporissa kuullaan myös, mitä Jaakko Teppo ajatteli kaikesta menestyksestä:– Olen erittäin onnellinen, että vielä elämäni aikana sain kaiken tämän kokea.A-studion raportin Onnen kerjäläiset -kiertueelta voi katsoa Elävästä arkistosta.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
         <v>49</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>Norjan hiihto­mes­ta­ruus­kisoista täysi fiasko – kilpai­lun­johtaja kyynelissä, asiantuntijat tyrmistyivät</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076285</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>24.02.2024</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
         <is>
           <t>Beitostölenissä nähtiin suuri järjestäjien moka. Yli puolet kisaajista lähti väärään suuntaan. Tulokset jouduttiin mitätöimään.</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>Norjan mestaruuskisoissa Beitostölenissä nähtiin todella erikoisia hetkiä, kun yhdistelmäkilpailun tulokset jouduttiin mitätöimään.Suksienvaihdon jälkeen puolet hiihtäjistä lähti väärään suuntaan. Syy kaaokselle oli, että ratamerkit olivat siinä kohtaa, mistä hiihtäjien pitäisi oikeasti mennä. Normaalisti ratamerkkien ohittaminen tarkoittaisi hylkäämistä.Voiton vei oikeaa reittiä hiihtämään lähtenyt Heidi Weng, mutta kilpailun jälkeen tuomaristo päätti mitätöidä tulokset.– Joku ei poistanut merkkejä tarpeeksi nopeasti. Olemme tehneet virheitä. Weng ja muut menivät suoraan, kun moni meni 200–300 metriä liian pitkälle vapaan hiihtotavan osuuden alussa, kilpailupäällikkö Torbjörn Broks Pettersen kuvaili NRK:lle.Kilpailupomo kyynelehti päätöksen jälkeen.– Tuomaristo teki päätöksen, että kilpailu pitää perua. Olen järjestäjänä tehnyt virheen lähettäessäni hiihtäjät väärään suuntaan. Emme voi kutsua näitä Norjan mestaruuskisoiksi. Tämä ei ole sen arvoista, Björks Pettersen sanoi.Alkuun näytti, että Weng oli mennyt väärään suuntaan kilpailussa. Hän oli kuitenkin se urheilija, joka oli hiihtänyt oikeaa reittiä.– Tämä on täysi fiasko, NRK:n asiantuntija Jann Post kuvaili.Myös muut NRK:n asiantuntijat Anders Aukland ja Therese Johaug olivat ihmeissään.– En ole koskaan nähnyt näin kohtalokasta virhettä, Aukland sanoi.– Tämä on vain surullista. Tämä on surullista urheilijoille, järjestäjille ja kaikille täällä. Tällaista ei saisi tapahtua, Johaug sanoi.Ennen sekoilua kilpailua johti Astrid Öyre Slind.– Jotkut eivät ole tehneet työtään. On erittäin tylsää, että mestaruuskisa perutaan täästä syystä, Öyre Slind sanoi.Weng ymmärsi tulosten mitätöinnin.– Tämä oli hyvä harjoitus minulle. Kun kuulin perumisesta, luulin minun menneen väärään suuntaan, Weng totesi.Lähteet: VG, NRK ja Dagbladet.</t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="145">
+      <c r="A145" t="n">
         <v>50</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Tulva tukki tien Rantaloiden kotiin – nyt naapurissa asuva tytär ajaa 30-kertaisen matkan iäkkäitä vanhempiaan auttamaan</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076550</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Vapparintien huono kunto on puhuttanut alueen asukkaita vuosia. Ely-keskuksen mukaan mitään ei ole juuri nyt tehtävissä.</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Turun Kakskerrassa asuvat Pirjo ja Seppo Rantala ovat olleet osittaisessa motissa jo toista viikkoa. Kakskerranjärven ympäri kiertävä Vapparintie on suljettu tulvan vuoksi.– Marraskuussa ilmoitin tulvasta ensimmäisen kerran, mutta silloin se ei ollut noin syvä ja siitä pääsi vielä ajamaan, sanoo Pirjo Rantala.Avaa kuvien katseluKakskerran saari on yksi Turun kaupunginosista. Siellä asuu vakituisesti noin 600 ihmistä. Kuva: Jouni Koutonen / YleRantaloiden tytär asuu vain puolen kilometrin päässä, mutta ei pääse nyt tulvan noustua vanhempiensa luokse suorinta tietä. Hän joutuu kiertämään koko Kakskerran järven ympäri.Matkaa erittäin huonokuntoista tietä pitkin tulee 30 kilometriä, 15 kilometriä suuntaansa.– Aika kurja tilanne, jos äiti tai isä tarvitsisivat nopeasti apua, tytär Sari Laakso sanoo.Sosiaalinen elämä kärsiiTytär käy kiertotietä pitkin vanhempien luona vähintään joka toinen päivä katsomassa, että kaikki on kunnossa. Samalla hän jakaa lääkkeet. Tytär on huolissaan siitä, että sairaille vanhemmille sattuisi jotain.– Jos tänne pitää saada hälytysajoneuvo, se kestää normaalistikin liki puoli tuntia. Nyt kestää 50 minuuttia, että tulee apu perille.Sari Laaksoa harmittaa myös, että tien katkaiseminen on aiheuttanut vanhempien sosiaalisen elämän tyrehtymisen.– Eivät kaverimme halua tänne tulla, kun joutuvat kiertämään niin pitkän matkan tuommoista mutkatietä, Pirjo Rantala selittää.Avaa kuvien katseluPirjo Rantala ihmettelee, miksi Vapparintien tulva-alueelle ei ole tehty mitään. Kuva: Yrjö Hjelt / YleSeppo Rantalan mukaan Vapparintie on tulvinut lähes joka talvi, mutta tulvakohdasta on päässyt aiemmin ajamaan ylitse. Tänä talvena tie suljettiin ensimmäisen kerran.Rantala ihmettelee, miksi asialle ei tehdä mitään.– Miksei ketään voi tulla tyhjentämään vettä ja laittamaan sepeliä tilalle?Myös tytär Sari Laakso ihmettelee Vapparintien tulvapaikan hoitoa.– Se on käsittämätöntä, koska siitä on useampana vuonna valitettu. Aina meille on sanottu, että sen vuoro tulee myöhemmin.Pirjo Rantalaa harmittaa tien tulvatilanne siksikin, että tien sulkeminen vaikuttaa niin moneen asiaan.– Joudumme käyttämään Kela-taksia, ja tuloon täytyy varata paljon enemmän aikaa.Mitään ei ole tehtävissäVarsinais-Suomen Ely-keskuksen maanteiden hoidon projektipäällikkö Markus Salminen vastaa Vapparintien kunnossapidosta.Hänen mielestä mitään ei ole nopeasti tehtävissä. Vettä ei voi pumpata pois, koska laskuoja ei vedä ja tien molemmin puolen oleva metsä on täynnä vettä.– Pumppaamisesta ei olisi mitään hyötyä, sillä se vesi valuisi takaisin tielle.Soran kippaaminen tielle ei auttaisi kuin tilapäisesti.– Sora pitäisi käydä keväällä kaivamassa pois, ja sitten olisi tie taas poikki.Avaa kuvien katseluVapparintiellä on ollut enemmän tai vähemmän vettä marraskuusta lähtien. Kuva: Kalle MäkeläSalmisen mukaan Ely-keskuksessa laaditaan parhaillaan suunnitelmia Vapparintien tulvapaikan korjaamiseksi. Hommiin on määrä ryhtyä ensi kesänä.– Tietä on tarkoitus korottaa sen verran, että tulvavesi ei pääse enää nousemaan ajoradalle.Sää armahtaaRantaloiden ja muiden Kakskerassa asuvien akuuttiin tilanteeseen on kuitenkin ilmeisesti luvassa helpotusta, mikäli vesisateet eivät yllätä.Markus Salmisen mukaan vesi tulvakohdassa on laskenut nyt sen verran, että tie päästäneen avaamaan keskiviikkoaamuksi.– Ensi yönä on tarkoitus avata yksi kaista liikenteelle. Seuraamme tilannetta päivittäin, ja sen mukaan nyt joudutaan elämään.Vapparintie on kauttaaltaan huonokuntoinen, ja alueen asukkaat ovat valittaneet siitä jo vuosia. Tiellä on isoja reikiä siellä täällä, ja routa on nostanut tietä mutkille.Maanteiden hoidon projektipäällikkö Markus Salminen sanoo, että tie on Ely-keskuksen päällystettävien teiden listalla, mutta tällä hetkellä sille ei aiota tehdä mitään.– Tämänhetkinen rahoitustilanne ei mahdollista siihen uutta päällystettä.Pirjo Rantala pyörittelee päätään.– Surkea tilanne. Ihmettelen, että tiet pidetään tämmöisessä kunnossa.Vapparintien tulvatilanteesta kertoi ensimmäisenä Turun Sanomat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>50</v>
+      </c>
+      <c r="B146" t="inlineStr">
         <is>
           <t>Kynttilät syttyivät Helsingissä sodan uhreille ja Ukrainan tueksi</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076294</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>24.02.2024</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
         <is>
           <t>Sodan toista vuosipäivää on muistettu monin tavoin eri puolilla maata.</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>Kynttilät ovat syttyneet Helsingin tuomiokirkon portailla lauantaina kaksi vuotta jatkuneen Ukrainan sodan vuosipäivänä.Valoa Ukrainaan -tapahtuman järjestää Helsingin seurakuntayhtymä ja siihen osallistui myös Suomen ortodoksinen kirkko. Uspenskin katedraalin ja Pyhän kolminaisuuden kirkkojen kellot yhtyvät tuomiokirkon kellojen soittoon.Avaa kuvien katseluIhmisiä viemässä kynttilöitä tuomiokirkon portaille. Kuva: Saara Hirvonen / YleKello 17 alkaneessa tilaisuudessa kuullaan eduskunnan puhemies Jussi Halla-ahon (ps) tervehdys. Tapahtumassa esiintyvät myös Maailma-kuoro sekä Ukrainalaisten yhdistys Suomessa ry:n kuorot Perespiv, Kalyna sekä Yasni-lapsikuoro.Avaa kuvien katseluEduskunnan puhemies Jussi Halla-aho puhui tilaisuudessa. Kuva: Grigory Vorobyev / YleOhjelma päättyy Ylioppilaskunnan laulajien triplakvartetin esittämään Finlandia-hymniin.Avaa kuvien katseluUkrainan lippuja näkyi tapahtuman aikana. Kuva: Grigory Vorobyev / YleYleisö voi käydä laskemassa kynttilän tuomiokirkon portaille kello 20:een saakka lauantaina.Jo ennen varsinaisen ohjelman alkua paikalla oli lukuisia ihmisiä sateesta huolimatta.Senaatintorilla kynttilät syttyivät Ukrainan tueksi.Vuosipäivä ja maininnat radiossa saivat vantaalaisen Riitta Kärkkäisen saapumaan paikalle muistamaan sodan uhreja. Se, että sota on jatkunut jo kaksi vuotta, saa Kärkkäisen kauhistumaan.Avaa kuvien katseluRiitta Kärkkäinen sytytti kynttilän tuomiokirkon portaille. Kuva: Saara Hirvonen / Yle– Sehän on ihan kamalaa. Ja ennustetaan, että sota jatkuu vielä monta vuotta.Ukrainalaisille hän toivottaa kestävyyttä, jotta he jaksaisivat pitää toivo yhä yllä.Avaa kuvien katseluKuorot esiintyivät ja lauloivat muun muassa Finlandia-hymnin. Kuva: Grigory Vorobyev / YleHelsinkiläinen Arto Kultamaa toi kirkon portaille kynttilän.– Meillä on ukrainalaisia ystäviä, ja se tuo kaiken lähemmäksi koko meidän perhettä.Avaa kuvien katseluArto Kultamaa toivoo, että Ukrainan tuki voimistuisi. Kuva: Saara Hirvonen / YleKultamaa pitää sodan jatkumista kauheana. Hän toivoo, että kynttilä välittäisi toiveen kaikille eurooppalaisille välittää vielä nykyistä enemmän Ukrainasta.– Se olisi tärkeätä. Onneksi tiedotusvälineet antavat tärkeää tietoa, missä mennään. Nyt vaikuttaa aika hälyttävältä. Tuen pitäisi voimistua.Avaa kuvien katseluVesisade ei estänyt sytyttämästä kynttilöitä. Kuva: Grigory Vorobyev / YleKynttilöitä paikalle tuonut helsinkiläinen Siiri Siltala kertoi halunneensa tehdä edes jotain Ukrainan hyväksi, vaikka se tuntuisi kuinka pieneltä.– Olen varmasti samalla kannalla monen kanssa, kun sanon, että se ei ole vain Ukrainan sota, vaan koko Euroopan sota. Minulle on tärkeää olla suomalaisena täällä.Siltala toivoo, että kynttilä välittäisi solidaarisuuden tunteen Ukrainaan.Avaa kuvien katseluSiiri Siltala haluaa osoittaa myötätuntoa ukrainalaisille kynttilöillä. Kuva: Saara Hirvonen / Yle– Jos joku somen tai uutisten kautta siellä näkee, että täällä on kynttilöitä heille, niin haluaisin ajatella, että se jotenkin voisi edes vähän mieltä nostattaa.Sodan vuosipäivä on näkynyt Suomen ortodoksisessa seurakunnassa tänään eri puolilla Suomea. Uspenskin katedraalissa pidettiin rukouspalvelus rauhan puolesta kello 14.Avaa kuvien katseluKynttilämeri kasvoi portaille. Kuva: Grigory Vorobyev / Yle</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="147">
+      <c r="A147" t="n">
         <v>51</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>Joko kohta ollaan perillä? Näillä vinkeillä rauha säilyy autossa pitkällä ajomatkalla lasten kanssa</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20075065</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>24.02.2024</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
         <is>
           <t xml:space="preserve">Vaatii säätämistä, kun koko perhe pakkautuu autoon pitkälle matkalle. Taidekasvattajien mielestä automatkalla ei lapsilta tarvitse rajata ruutuaikaa. </t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>Talvilomalle matkaavan lapsiperheen takapenkiltä kajahtaa tasaiseen tahtiin tuttu kysymys ”koska ollaan perillä?” Nykyään perheen matkustusrauha taataan monesti antamalla lapselle tabletti tai puhelin käteen.Ja se on ihan okei, sanovat hämeenlinnalaisen Kulttuurikeskus Arxin taidekasvattajat Auni Tuovinen ja Laura Kauppinen. Kun vatsat on sopivasti täytetty ja vessassa käyty, on aika startata. Lue tästä vinkit mukavaan automatkaan!1. Vapauta ruutuaika, mutta ole kartalla mitä katsotaanAutomatka on erikoistilanne. Siksi se ei ole paras hetki ryhtyä rajaamaan lapsen ruutuaikaa. Itse asiassa auto on oivallinen paikka mobiililaitteille. Lomareissu saa mukavan alun, kun kaikilla on hyvä mieli ja autossa vallitsee rauha.– Tässä mielessä pitkä ajomatka voi olla anarkismin paikka. Mieluummin kiinnitetään huomiota laitteen käyttöön arjessa, sanoo taidekasvattaja Auni Tuovinen.Aikuisen tehtävä on autossakin seuloa, mitä lapsi tabletilta katsoo. Tämä pätee etenkin pieniin lapsiin.Tuovinen suosii luotettavia, ammattilaisten tekemiä sisältöjä, kuten Pikku Kakkosta.– Tartutaan laitteisiin ja tehdään takapenkkielämästä sellaista, kun lapsi itse haluaa. Siten vanhemmatkin pysyvät hyväntuulisina koko matkan, jatkaa Tuovinen.Lisäksi hän muistuttaa, että luureja ei kannata unohtaa kotiin.Avaa kuvien katseluTaidekasvattajat suosittelevat automatkan viihdykkeeksi luotettavia sisältöjä, esimerkiksi Pikku Kakkosta. Kuvituskuvassa karvakuonot Riku, Eno-Elmeri ja Ransu Tassu-auton nokalla istuskelemassa vuonna 2018.  Kuva: Pertti Nättilä / Yle2. Käytä laitetta luovastiPelkän katselemisen, pelaamisen tai kuuntelemisen lisäksi taidekasvattajat kehottavat kokeilemaan leikkimistä tableteilla tai puhelimilla automatkan aikana. Voi vaikkapa kehittää pelin, jossa laitetta käytetään.– Kuka saa matkan aikana kuvattua keltaisen auton, hevosen tai esimerkiksi sauvakävelijän, on voittaja, innostuu Tuovinen.Voidaan myös sopia yhdessä, että leikki tai puuha vaihtuu toiseen aina kuntarajalla.3. Puuhalaatikot, pelit ja värityskirjatMobiililaitteiden lisäksi autoon kannattaa yhä ottaa viihdykkeeksi perinteisiä kirjoja, puuhakirjoja ja värityskirjoja. Suunnitelmallisesti perheen automatkaan valmistautuva voi koota jokaiselle lapselle oman puuhalaatikon, jossa on mobiililaitteen lisäksi lapselle sopivia leikkitarvikkeita.Kuuntele tästä taidekasvattajien vinkit automatkalle, ikkunatussi-idea sopinee rohkeimmille perheille!Joko kohta ollaan perilllä? - Miten rauha säilyy autossa pitkällä ajomatkalla?Voidaan pelata matkapelejä, joissa on peliväline. Leluliikkeet ja marketit myyvät myös erityisiä automatkoille tarkoitettuja pelejä.– Matkapelien huono puoli on, että niiden noppia ja pikku nappuloita joutuu usein kaivelemaan penkkien välistä, sanoo Tuovinen.4. Juttelupelit kunniaanAutomatkoilla voidaan lasten ikätason mukaisesti pelata juttelupelejä. Tällainen on esimerkiksi autopelien klassikko ”Keltainen auto”. Aina keltaisen auton nähtyään pitää läpätä vierustoveria ja huutaa ”keltainen auto.”– Omasta kokemuksesta voin sanoa, että aakkospelit ovat aina toimivia. Otetaan mikä tahansa aihe ja vuorotellen luetellaan valitulla kirjaimella alkavia asioita. Se on yllättävän sitkeä kestosuosikki, kertoo Laura Kauppinen.5. Nukkumatti matkaseurana – muista tyyny!Lastenkulttuurikoordinaattorina työskentevän Laura Kauppisen mukaan onnistunut, pitkä automatka vaatii eväiden ja viihdykkeiden tasapainoa – tyynyä unohtamatta. Pitkällä automatkalla takapenkillä usein tulee väsy. Uni onkin Kauppisen oma valttiviihdyke pitkällä automatkalla.Hän matkustaa usein Hämeenlinnasta Kainuuseen kolmen lapsen kanssa. Perheen uinuessa kuljettaja ajelee rauhallisilla teillä omien ajatustensa kanssa. Ensimmäinen tauko pidetään vasta muun perheen heräillessä.– Oma suosikkini on lähteminen niin aikaisin, että perhe nukkuu ensimmäiset kolme tuntia, sanoo Laura Kauppinen.</t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="148">
+      <c r="A148" t="n">
+        <v>51</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Tutkimus: Rohdoskasvin sisältämä polyfenoli saattaa tehota paksusuolen syöpään</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076564</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aiemmissa tutkimuksissa sama antioksidantti on estänyt syöpäsolujen toimintaa muun muassa maksa-, rinta- ja munasarjasyövässä. </t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Rohdoskasvina käytetyn palsamiköynnöksen marjoista saatava yhdiste voi olla hyödyksi paksusuolen syövän hoidossa, kertoo tuore tutkimus. Suolistosyöpä on kolmanneksi yleisin syöpä Suomessa, ja niiden määrä on kasvussa. (Terveyskirjasto Duodecim).Tutkimuksessa havaittiin, että palsamiköynnöksen marjojen sisältämä polyfenoliyhdiste esti merkittävästi paksusuolen syövän kasvua. Aiemmissa tutkimuksissa sama yhdiste esti syöpäsolujen toimintaa muun muassa maksa-, rinta- ja munasarjasyövässä sekä mahalaukun ja virtsarakon syövissä.Tutkimuksen tulokset osoittivat myös, että yhdiste vaikuttaa tehokkaasti syöpäsoluihin ilman isoja haittoja terveille soluille. Tutkijoiden mukaan tämä polyfenoliyhdiste voisi täydentää syöpien hoitoa turvallisesti ja edullisesti.Kansainväliseen tutkijatiimiin kuului Portsmouthin ja Hong Kongin yliopistojen sekä Itä-Suomen yliopiston tutkijoita.Itä-Suomen yliopisto on saanut Suomen Akatemialta rahoitusta tutkimuksen jatkamiseen. Jatkotutkimuksissa pyritään selvittämään, sopiiko yhdiste paksusuolen syöpää sairastavien hoitoon.Kokeellinen tutkimus tehtiin solu- ja eläinmalleilla. Tulokset julkaistiin ACS Pharmacology &amp; Translational Science -lehdessä.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
         <v>52</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>Sairaalasta lähetettiin asiakkaalle kirje, jonka ikkunasta näkyi terveys­tietoja</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20075998</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>24.02.2024</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
         <is>
           <t>Terveystietoja sisältävissä kirjeissä sisällön ei pitäisi näkyä kirjekuoren ikkunasta ulkopuolelle. Tietosuojavaltuutetulle on tullut yhteydenottoja vastaavista tapauksista.</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>Mehiläinen Länsi-Pohjan keskussairaala on lähettänyt Lapin hyvinvointialueella asiakkaalle kirjeen, jonka läpinäkyvästä ikkunasta näkyi myös kirjeen sisältämää tekstiä.Logistiikkapäällikkö Hannu Niskanen Lapin hyvinvointialueelta kertoo, että lähetettävissä kirjeissä on automaattinen muotoilu, jossa teksti on aseteltu kirjepohjassa niin, että kirjekuoren ikkunasta ei tule näkyviin muuta tekstiä kuin saajan nimi ja osoite.Nyt todennäköisesti kirjeen lähettänyt työntekijä on muuttanut tekstin automaattiasetuksia, jolloin kirjekuoren ikkunaan on näkyviin tullut mahdollisesti arkaluontoista tekstiä.Sairaalasta kirjeet lähtevät sähköisesti e-kirjeinä Postille, joka laittaa ne paperisessa muodossa kirjekuoriin, mikäli asiakas on halunnut perinteisen paperipostin.Niskanen sanoo, että asiakkaille e-kirjeitä lähettäville työntekijöille on nyt lähetetty muistutus, että automaattista muotoilua ei saa muuttaa.Niskanen kertoo, että sairaalan tietohallinnossa vastaavia tapauksia on 13 viime vuoden ajalta tiedossa vain yksi.Kyseessä on tietoturvaloukkausApulaistietosuojavaltuutettu Annina Hautala Tietosuojavaltuutetun toimistosta sanoo, että heidän toimistoon on tullut yhteydenottoja joistakin vastaavista tapauksista. Vastuu tietojen salassa pitämisestä on niitä käsittelevillä organisaatioilla.– Terveydenhuoltosektorin toimijoilla on lakisääteinen velvollisuus huolehtia henkilötietojen käsittelyn turvallisuudesta ja tähän kuuluu myös henkilötietojen huolellinen käsitelty siten, ettei niitä päädy ulkopuolisten saataville.Jos muita kuin postilähetyksen perille toimittamiseksi tarpeellisia henkilötietoja on luettavissa kirjekuoren ulkopuolelta, voi kyseessä olla tietosuoja-asetuksessa tarkoitettu tietoturvaloukkaus.– Jos näkyvissä on vielä ollut terveydentilaa kuvaavia tietoja, jotka kuuluvat erityisesti suojattaviin henkilötietoihin, niin tapahtunutta voidaan pitää vakavana asiana.Vastaavat tapaukset harvinaisiaTietosuojavaltuutetun tietoon on tullut vastaavia tapauksia, joissa kirjekuoren ikkunasta on näkynyt liikaa tietoja, sekä tilanteita, joissa on käytetty kirjekuorta, josta on näkynyt liian helposti läpi.– Suhteellisen harvinaisia nämä ovat kyllä, Hautala sanoo.Hän ei voi kommentoida yksittäistapauksia, mutta tunnistaa tilanteen yleisellä tasolla.– On tilanteita, joissa esimerkiksi teknisistä syistä johtuen yksittäinen inhimillinen virhe on päässyt tapahtumaan.Mikäli vastaava tapaus tulee tietosuojavaltuutetun toimistoon käsiteltäväksi, siellä selvitetään mitä on tapahtunut. Lisäksi selvitetään, onko organisaatio ryhtynyt toimenpiteisiin, joilla ihmisille aiheutuvia riskejä voidaan minimoida ja vastaavia tapahtumia jatkossa välttää.Tietoturvaloukattu voi saada korvauksiaTietosuojavaltuutetun toimistossa harkitaan tapauskohtaisesti asianmukaiset toimenpiteet, kuten se, määrätäänkö organisaatiolle hallinnollisia seuraamuksia.Tietoturvaloukkauksen kohteeksi joutunut voi hakea korvauksia tapahtuneesta. Vahingonkorvausvaatimus tulee esittää rekisterinpitäjälle.</t>
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
+    <row r="150">
+      <c r="A150" t="n">
         <v>53</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>Gazaan yritetään neuvotella tulitaukoa Pariisissa – panttivangit, uhrit ja nälänhätä kasvattavat painetta</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076269</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>24.02.2024</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
         <is>
           <t>Uutta tulitaukoa on yritetty neuvotella pitkään.  Samaan aikaan Gazan asukkaita uhkaa sodan lisäksi paheneva ruokapula.</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>Israel on lähettänyt Pariisiin tulitaukotunnusteluihin tiedustelupalvelu Mossadin johtajan David Barnean. Yksi Israelin vaatimuksista on saada jäljellä olevat äärijärjestö Hamasin hallussa olevat panttivangit vapautettua.Paine tulitauon aikaansaamiseksi on kasvanut Gazan sodan jatkuttua jo yli neljä kuukautta. Panttivankien omaiset valmistelevat suurta mielenosoitusta lauantai-illaksi lisätäkseen painetta Pariisin neuvotteluihin osallistuvia Israelin edustajia kohtaan.Avaa kuvien katseluPanttivankien vapauttamista vaadittiin mielenosoituksessa Tel Avivissa 21. helmikuuta. Kuva: Abir Sultan / EPATulitaukotunnusteluihin ovat tähän mennessä osallistuneet muun muassa Yhdysvallat, Egypti ja Persianlahden maa Qatar. Yhdysvaltojen edustaja on tavannut tällä viikolla Tel Avivissa Israelin edustajia ja Kairossa tahoja, joilla on yhteys Hamasin johtoon.Hamasin lähteen mukaan esillä on suunnitelma kuuden viikon tauosta sotaan, kertoo uutistoimisto AFP. Sen aikana Israel vapauttaisi 200–300 palestiinalaista vankia ja Hamas puolestaan 35–40 panttivankia. Hamas sieppasi lokakuun 7. päivän terrori-iskujen yhteydessä 250 ihmistä, joista noin 100 on tiettävästi yhä elossa Hamasin hallussa.Gazan asukkaita uhkaa nälänhätäIsrael on jatkanut ankaraa Gazan pommitusta. Lauantain vastaisen yön aikana kuoli lähes sata ihmistä, kertovat Hamasin hallinnoiman Gazan terveysviranomaiset. Lokakuun alun jälkeen sodan seurauksena kuollut jo lähes 30 000 ihmistä, sanovat Gazan viranomaiset.YK varoittaa, että nälänhädän riski Gazassa kasvaa. Pahin tilanne on tiettävästi Gazan pohjoisosissa. Avustuskuljetuksia on saatu perille vain murto-osa sotaa edeltävään aikaan verrattuna.Israelin pääministeri Benjamin Netanjahu esitti toissapäivänä oman suunnitelmansa sodan jälkeisen Gazan hallinnosta. Israelin suunnitelmassa Hamasilla ei olisi mitään roolia Gazassa, ja Israel säilyttäisi jatkossakin oikeuden sotilasoperaatioihin palestiinalaisten asuttamalla alueella.Israelin tärkein tukija Yhdysvallat on suhtautunut ensireaktioissaan varovaisesti Netanjahun kaavailuihin.Palestiinalaisten hallinto torjui täysin Netanjahun suunnitelman eilen perjantaina.Lähteet: AFP, AP</t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
+    <row r="151">
+      <c r="A151" t="n">
         <v>54</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>Joka kymmenes autokorjaamon antama päästö­to­distus on virheellinen</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20075296</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>24.02.2024</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
         <is>
           <t xml:space="preserve">Yksityisten katsastustoimipaikkojen liiton mielestä päästövalvontaa ja muita osia katsastuksesta ei saisi ulkoistaa toimijoille, joilla ei ole riittävää pätevyyttä. </t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>Yksityisten katsastustoimipaikkojen liitto arvioi, että jopa 10 prosenttia autokorjaamoiden antamista ajoneuvojen päästötodistuksista on joko virheellisiä tai tahallisia väärennöksiä.Tutkimusta asiasta on vaikea tehdä, sillä vain pieni osa huijauksista jää kiinni, mutta toiminnanjohtaja Björn Ziessler sanoo arvion olevan toimialan yleinen käsitys.– Tyypillisesti päästömittaus tehdään ajoneuvolle, jolla on hyväksyttävät päästöt, ja sitten päästötodistus kirjoitetaankin toiselle ajoneuvolle, Ziessler sanoo.Auton päästöjärjestelmän manipulointi on aina ollut kiellettyä, mutta sitä ei ole aikaisemmin sanktioitu. Tilanne muuttuu kesäkuun alussa, jonka jälkeen päästömanipuloidusta autosta voi saada 1 000–30 000 euron liikennevirhemaksun.”Ei tämä oikein ole”Katsastajat ihmettelevät, miksi Suomi ei ole halunnut poistaa päästömanipuloituja autoja liikenteestä katsastamisen yhteydessä. Silloin autoilija voisi olla varma, että käytössä on laillinen ajoneuvo.Sen sijaan katsastusta varten tehtäviä päästömittauksia korjaamot saavat tehdä pelkällä ilmoitusmenettelyllä.– Korjaamotoiminnan valvominen nykyresursseilla ei ole mitenkään mahdollista, eikä tiedossa ole, että väärinkäytöksistä olisi jaettu sanktioita, Ziessler sanoo.Väärennetystä päästötodistuksesta jäädään kiinni katsastusasemien satunnaisissa pistotesteissä. Väärän todistuksen antanut korjaamo voi menettää lupansa päästömittauksiin, mutta sen saa takaisin ilmoituksella.– En halua arvostella ketään, mutta ei tämä oikein ole, Ziessler sanoo.Valvonta katsastusasemilleKatsastustoimiala toivoo, että Suomessa alettaisiin noudattaa kansainvälisiä säädöksiä, joissa katsastuksen osia ei saa ulkoistaa toimijoille, joilla ei ole sen edellyttämää pätevyyttä.– Suomen katsastuslainsäädäntö tulisi saattaa muotoon, jota kansainvälinen säädöskehys edellyttää, Ziessler sanoo.Ziesslerin mielestä on kestämätöntä, että uusien autojen päästöjen pienentämiseksi investoidaan autotehtailla miljardeja euroja, mutta liikenteessä niiden päästöt saavat poiketa tuhatkertaisesti eikä kukaan puutu asiaan.Tilanne muuttuu vuosikymmenen lopullaTraficomin johtavan asiantuntijan Teemu Toivasen mukaan korjaamoille annettiin lupa päästömittauksiin vuonna 1994, jolloin katsastustoiminta vapautettiin valtion monopolista. Lainsäätäjällä on ollut kynnys lähteä rajoittamaan yhtä elinkeinoa jälkeenpäin.Euroopan unionissa valmistellaan parhaillaan laajaa liikennekelpoisuuslakipakettia ja siihen liittyvää katsastuslain uudistusta. Sen arvioidaan keskittävän hiukkaspäästöjen mittaukset katsastuksen yhteyteen.Uudistukseen liittyen Euroopan komissio antoi keväällä 2023 suosituksen hiukkaspäästöjen mittaamisesta katsastuksen yhteydessä. Saksa, Belgia ja Hollanti ovat testauksen edelläkävijöitä ja näyttävät suuntaa muulle Euroopalle.Muun muassa näiden maiden kokemuksien perusteella odotetaan komission esitystä parlamentille. Mikäli se menee läpi suunnitellusti Euroopan parlamentissa, direktiivi tulee voimaan aikaisintaan vuonna 2026.</t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
+    <row r="152">
+      <c r="A152" t="n">
         <v>55</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>Kristi Raik:  Ukraina tarvitsee länneltä nopeasti ja paljon lisää tukea  – Venäjän hyökkäyssota voi kestää vuosia</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076203</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>24.02.2024</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
         <is>
           <t>Venäjän suurhyökkäys Ukrainaan on pitkittynyt kaksi vuotta kestäneeksi sodaksi. TV1:n Ykkösaamun vieraana oli  Viron puolustustutkimuskeskuksen varajohtaja Kristi Raik.</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>Viron kansainvälisen puolustustutkimuskeskuksen ICDS:n varajohtajan Kristi Raikin mukaan tasan kaksi vuotta kestänyt Venäjän hyökkäyssota Ukrainaan voi jatkua vielä pitkään.– Varmuudella voidaan sanoa, että sota ei lopu tänä vuonna, vaan se voi kestää vuosia. Ukrainan menestys riippuu ennen kaikkea siitä, kuinka paljon Ukraina saa länneltä nopeasti lisää tukea. Ukrainalaiset kyllä jatkavat taistelua, Raik vakuutti Ylen TV1:n Ykkösaamussa aamupäivillä.Sota näyttää nyt kääntyneen Venäjän eduksi ja pessimismi on vallannut alaa Länsimaissa Ukrainan pärjäämisestä. Raikin mukaan Ukrainassakin oltiin toiveikkaampia vuosi sitten. Nyt ollaan synkempiä ja väsymys painaa.– Kuitenkin ukrainalaisilla on uskoa, että he voivat voittaa.Raikin mukaan nyt on syytä ryhdistäytyä Lännessäkin.– Pitää olla valmiina pitkäaikaiseen sotaan ja valitettavasti rauhaan ei ole oikotietä. Jos halutaan kestävä rauha saavuttaa, tässä vaiheessa pitää Ukrainaa tukea sotilaallisesti, Raik korosti.Sota voi kiihtyä keväälläKiireellisen tuen tarvetta korostaa se, että Venäjä saattaa olla valmistelemassa uutta suurhyökkäystä.– Nyt ei näy merkkejä siitä, että Venäjä olisi aloittamassa varsinaisen suurhyökkäyksen. Talviolot eivät suosi sitä. Mutta kun kevät koittaa, Venäjä saattaa yrittää suurhyökkäystä, Raik varoitti.Raikin mukaan Ukrainalla on kova pula aseista, etenkin ammuksista, pitkän kantaman järjestelmistä ja ilmapuolustuksesta.– Tilanne ei ole helppo Venäjänkään kannalta. Vaikka Venäjän tilanne on suhteellisesti parempi, sillä on myös suuria vaikeuksia. Vaikka Venäjä on laittanut ikään kuin kaikkensa peliin, se ei ole tämän enempää saavuttanut. Siinä mielessä peli ei ole missään nimessä menetetty.Venäjä valtasi viikko sitten Avdijivkan kaupungin Donetskissa pitkien taistelujen jälkeen. Venäjän seuraava siirto on vielä hämärän peitossa. Raik kuitenkin muistuttaa, että Venäjä pitää edelleen kiinni tavoitteestaan saada kontrolliinsa koko Ukraina. Raikin mukaan se ei kuitenkaan välttämättä tarkoita sitä, että koko Ukraina pitäisi miehittää.– Mutta pitäisi päästä tilanteeseen, että Ukrainan johto sortuu, puolustus sortuu ja saadaan vaihdettua Kiovaan Venäjälle suotuisa johto. Se merkitsisi, että Ukraina olisi taas osa Venäjän vaikutuspiiriä.Raikin mukaan se ei näytä todennäköiseltä skenaariolta.– Vaikka Venäjä saavuttaisi vielä jotakin edistystä rintamalla, se on hyvin kaukana pääsystä varsinaisiin tavoitteisiinsa.Yhdysvaltain apu jumissaTšekki kertoo löytäneensä etupäässä Euroopan ulkopuolelta noin 800 000 tykistön ammusta, jotka voisi toimittaa parissa viikossa Ukrainaan, jos vain rahoitus löytyy.Ukrainaa on luvattu tukea, mutta Yhdysvaltain apupaketti on ollut monta kuukautta jumissa. Raikin mukaan Eurooppa on edennyt luvattoman hitaasti omissa päätöksissään.– Tilanteen kääntyminen Venäjän eduksi rintamalla ravistelee Euroopan maita vauhdittamaan uusia päätöksiä. Kyse on sekä Ukrainan tuen että eurooppalaisen aseteollisuuden vahvistamisesta, Raik arvioi.Eurooppa voi jäädä yksin puolustamaanVenäjä odotti kaksi vuotta sitten, että Ukraina kukistuu nopeasti. Niin ei käynyt. Ukraina on taistellut ja länsi on aseistanut Ukrainaa. Eurooppa on luvannut apua Ukrainalle niin kauan kuin on tarpeen.– Euroopassa on alettu ymmärtää, että Venäjän uhka on todellakin pitkäaikainen. Tilannetta synkistää se, ettei Yhdysvaltain tuen jatkumisesta ole takeita, sanoo Raik.Yhdysvallat on toistaiseksi ollut Ukrainan vahvin tukija. Nyt monet Euroopan maat valmistelevat kahdenvälisiä turvallisuussopimuksia Ukrainan kanssa.Britannia, Saksa, Ranska ja Tanska ovat sellaisen jo solmineet. Yhdysvaltain antamaa apua ne eivät kuitenkaan pysty lähitulevaisuudessa korvaamaan.– Nämä eivät ole rinnastettavissa Nato-jäsenyyden antamaan turvaan, eivätkä korvaa Ukrainan tavoitetta liittyä Natoon, mutta ne ovat kuitenkin vahvoja sopimuksia, jotka on solmittu 10 vuodeksi. Eurooppa ei aio hylätä Ukrainaa, tulkitsee Raik sopimusten merkitystä.Eurooppalaisia Nato-maita varustautumiseen patistellut Yhdysvaltojen presidentinvaalien esivaaliehdokas Donald Trump herättää huolta Euroopassa. Raik kuitenkin sanoo, että vaikka Trumpia ei valittaisikaan Eurooppa ei voi tuudittautua turvallisuuden tunteeseen.– Euroopan pitää itse ruveta tekemään enemmän. Resurssit siihen on, mutta niin ei ole vain tehty.Viro juhlii itsenäisyyttään tänäänVirossa vietetään tänään itsenäisyyspäivää 24. päivä helmikuuta vuonna 1918 Pärnussa annetun itsenäisyysjulistuksen mukaisesti.Nyt Viro näyttää EU:ssa esimerkkiä käyttämällä puolustusmenoihin lähes 3,3 prosenttia BKT:sta tänä vuonna. Viro on aktiivinen etsimään ratkaisuja myös Ukrainan auttamiseksi.– Viro on muokannut pakotepäätöksiä, tehnyt EU:ssa aloitteen miljoonan tykistöammuksen antamisesta Ukrainalle ja parhaillaan Viro yrittää löytää ratkaisun, jolla saataisiin Venäjän jäädytetyn varat käyttöön Ukrainan tukemiseksi, Raik kertoo.Hän arvioi myös, että Venäjän hyökkäys Ukrainaan toi Virolle uudenlaisen aseman kansainvälisesti.– Viron näkyvyys ja vaikutusvalta EU:ssa ja Natossa ei ole koskaan historiassa ollut niin vahvaa kuin viimeisen parin vuoden aikana.</t>
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
+    <row r="153">
+      <c r="A153" t="n">
+        <v>56</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Antti Tuuha päätyi hakemaan steri­li­saatiota mielen­rauhansa takia: ”Poistuu se virheen ja vahingon mahdollisuus”</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076433</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Yhden lapsen isä Antti Tuuha on jonottanut sterilisaatiota yhdeksän kuukautta, eikä loppua näy. Hän pohti toimenpidettä useamman vuoden ennen lääkäriin hakeutumista.</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Antti Tuuha on 43-vuotias yhden lapsen isä.Hän ei halua enää lisää omia lapsia, joten päätyi hakemaan sterilisaatiota oman mielenrauhansa vuoksi.– Poistuu ainakin se virheen ja vahingon mahdollisuus, hän toteaa.Sterilisaatio ei Tuuhan mielestä synny hetken mielijohteesta. Päätöstä ehtii miettiä vielä samalla kun jonottaa toimenpiteeseen. Se saattaa nimittäin kestää useammankin vuoden.– Siinä on vuosia aikaa miettiä ja vakuuttua asiasta. Pohdin tätä useamman vuoden etukäteen, ennen kuin varasin aikaa lääkärille ja päädyin sitten hoitojonoon.Sterilisaatioon jonottavien määrät hyvinvointialueittain.Jonotustilanne sterilisaatioonJonottajien määrä 2/2024 | Lähde: Hyvinvointialueet90071529020017014914413910510078503825HUSPirkanmaaPohjanmaaPohjois-PohjanmaaPohjois-KarjalaEtelä-KarjalaSatakuntaKanta-HämeKainuuPohjois-SavoPäijät-HämeEtelä-SavoKymenlaakso (KOKS)Etelä-Pohjanmaa05001000Yle kertoi maanantaina, että miesten sterilisaatioon jonottaa tällä hetkellä yli 3 000 miestä. Joillain hyvinvointialueilla toimenpidettä saattaa joutua odottamaan jopa kolme vuotta.Ihmiset eriarvoistuvat asuinpaikkansa takiaNyt on kulunut yhdeksän kuukautta siitä, kun Antti Tuuha pääsi sterilisaatiojonoon. Odotuksen loppuminen ei ainakaan vielä häämötä näköpiirissä.Täysin yllätyksenä pitkä odottaminen ei ole Antti Tuuhalle tullut.– En odottanut, että seuraavalla viikolla tai edes seuraavassa kuussa pääsen toimenpiteeseen. Mutta ehkä se ikävin puoli on, että täytyy itse soitella perään ja kysellä tilannetta, eikä sille ikään kuin tapahdu yhtään mitään, hän kertoo.Avaa kuvien katseluAntti Tuuha haki sterilisaatiota, koska ei tahdo lisää omia lapsia. Kuva: Sirkka Haverinen / YleHankalaa sterilisaatioiden toteuttamisesta on tehnyt kiista siitä, kuuluvatko ne hoitotakuun piiriin. Sosiaali- ja terveysministeriön mielestä kuuluvat, kun taas hyvinvointialueiden mielestä miesten sterilisaatio on ehkäisytapa, ja siksi se tulisi kustantaa omasta pussista.Antti Tuuhan mielestä sterilisaatio kuuluisi ”tavallaan” hoitotakuun piiriin.– Ongelma on, että ihmiset asettuvat eriarvoiseen asemaan sen perusteella, missä sairaanhoitopiirissä he asuvat. Toisaalla sterilisaatioita tehdään ja toisaalla sitten ei juurikaan.Hoitoon hakeudutaan toisille hyvinvointialueilleEsimerkiksi HUSin alueella sterilisaatiota jonottaa tällä hetkellä noin 900 miestä. Jonon kesto on nyt noin puolitoista vuotta, arvioi HUSin urologian vs. linjajohtaja ja ylilääkäri Jukka Sairanen.Antti Tuuha asuu Lappeenrannassa Etelä-Karjalan hyvinvointialueella. Hän päätyi hakemaan sterilisaatiota naapurimaakunta Kymenlaaksosta.– Sain kehotuksen täältä hoitajalta, että voin kysellä jonotilannetta myös muilta hyvinvointialueilta. Soitin Kouvolaan ja tulin siihen tulokseen, että siellä tilanne olisi paljon parempi. Pyysin, että paperini lähetettäisiin sinne, jotta pääsisin sitten siellä tähän hoitoon.Tuuha pyysi siirtoa pari viikkoa sitten. Vielä hän ei ole saanut vahvistusta siitä, että olisi jonossa jossain muualla.Antti Tuuha kertoi ajatuksistaan Ylen Aamussa 26. helmikuuta. Katso video alta.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
         <v>57</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Tuore väitös: MS-tautia löydetään nyt Suomessa entistä enemmän ja etenkin naisilta</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076536</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>27.02.2024</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Potilaista noin kaksi kolmesta on naisia. Taudin syntymekanismia ei vieläkään tiedetä tarkasti.</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>MS-taudin, eli multippeliskleroosin, esiintyvyys on kasvussa koko maailmassa. Tampereen yliopiston tuoreen väitöksen mukaan sairauden esiintyvyys on kasvussa etenkin naisilla.Lääketieteen lisensiaatti Annukka Verkko selvitti väitöstutkimuksessaan MS-taudin ilmaantuvuutta ja esiintyvyyttä Länsi-Suomessa.Verkko havaitsi, että vuodesta 2000 vuoteen 2010 mennessä MS-taudin esiintyvyys kohosi etenkin naisilla. Potilaista noin kaksi kolmesta on naisia.MS-tauti on keskushermostoon vaikuttava autoimmuunitauti eli sairaus, jossa immuunijärjestelmä hyökkää oman elimistön rakenteita tai kudoksia vastaan.Tutkimusaineisto koostui vajaan 2 000 MS-potilaan sairauskertomuksista Etelä-Pohjanmaan, Pohjanmaan ja Pirkanmaan sairaanhoitopiirien alueilta. Kasvua oli etenkin Etelä-Pohjanmaalla.MS-tautia sairastaa noin 12 000 suomalaista. Se on Suomessa nuorten aikuisten yleisin vakava neurologinen sairaus. Suomessa tauti on yleinen, ja syiksi on arveltu geenejä ja vähäistä auringonvaloa. Taudin syntymekanismia ei vielä tarkalleen tiedetä.Annukka Verkko sanoo, että taustalla vaikuttavat myös esimerkiksi magneettikuvauksen yleistyminen ja neurologien määrän kasvu.Tautiin liittyy oheissairauksiaEtenkin sydän- ja verenkiertoelimistön sairaudet lyhensivät MS-potilaiden elinikää. MS-tautiin sairastuneilla on kohonnut riski myös aivoinfarktiin, kallonsisäisiin verenvuotoihin ja tyypin 1 diabetekseen. Siksi näitä pitäisi ehkäistä.Annukka Verkko työskentelee parhaillaan neurologiaan erikoistuvana lääkärinä Etelä-Pohjanmaan hyvinvointialueella.Väitöskirja tarkastetaan Tampereen yliopistossa 8. maaliskuuta.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>57</v>
+      </c>
+      <c r="B155" t="inlineStr">
         <is>
           <t>Varo, käynnissä on uusi sähkö­pos­ti­hui­jausten aalto – näin tunnistat tämän hetken huijaus­viestit</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076200</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>23.02.2024</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
         <is>
           <t>Verkkohuijaukset on viety uudelle tasolle tekoälyn avulla. Suomessakin on jo nähty ainakin yksi tapaus.</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>Traficomin Kyberturvallisuuskeskukselle raportoidaan jatkuvasti niin kutsutuista toimitusjohtajahuijauksista. Niissä yhtiön johtajan nimissä pyydetään alaista tekemään suuri siirto ulkomaiselle pankkitilille.Nyt rikolliset ovat ottaneet tekoälyn käyttöönsä näissä huijauksissa. Suomessakin on jo kerran raportoitu tekoälyn avulla toteutetusta äänihuijauksesta.– Ääniviestiin oli käytetty yrityksen oman toimitusjohtajan ääntä, ja siinä kehotettiin valmistelemaan rahansiirtoa, kertoo erityisasiantuntija Juha Tretjakov Traficomin Kyberturvallisuuskeskuksesta.Viesti oli Tretjakovin mukaan lähetetty muutamalle muulle johtajalle samassa yrityksessä.– Huijaus ei onneksi onnistunut.Uusi tilimurtojen aalto alkoiLisäksi Kyberturvallisuuskeskus kertoi perjantaina, että nyt on alkamassa uusi Microsoft 365 -sähköpostitilimurtojen aalto. Tässä huijauksessa käyttäjät saavat turvapostiksi naamioituja sähköpostiviestejä. Viestin avaaminen johtaa sivulle, jossa kalastellaan käyttäjätunnuksia ja salasanoja.Jos käyttäjä erehtyy syöttämään tietojenkalastelusivulle tunnuksensa ja salasanansa, rikollinen voi päästä hyödyntämään tiliä petoksiin ja uusien huijausviestien lähettämiseen.Kyberturvallisuuskeskus suosittelee käyttämään kaksivaiheista tunnistusta sähköpostitilin suojaamiseksi.Kyberturvallisuuskeskuksen sivuilta löytyy kuva turvaviestiksi naamioidusta huijausviestistä.Vastaanottaja säikäytetään toimimaanTretjakovin mukaan liikkeellä on koko ajan erilaisia verkkohuijauksia. Toiset niistä pyrkivät viemään huijatulta rahaa. Toiset puolestaan kalastelevat verkkotunnuksia ja salasanoja, joilla voi tehdä petoksia.Huijauksia tulee niin puhelimiin kuin sähköposteihin. Sähköpostiviestissä voidaan esimerkiksi pelotella vastaanottajaa, että virusturvasi on päättymässä ja jos et heti toimi, koneesi on vaarassa.Viestien yhteydessä saattaa olla puhelinnumero, johon voi soittaa.– Siellä vastaa joku, joka väittää olevansa asiakastuki. Sitten yllättäen löytyykin kaikenlaisia ongelmia, jotka pitäisi ratkaista. Sillä tavalla pyritään päästä asentamaan huijausohjelmia uhrin tietokoneelle, Tretjakov sanoo.Viestin mukana tuleva linkki on vaaran paikkaTretjakov kertoo, että suurin osa huijauksista on estettävissä sillä, ettei klikkaa viestin mukana tullutta linkkiä.Poliisi varoitti viime vuoden lopussa Omaveron nimissä tehdyistä huijauksista. Ne toteutettiin nimenomaan linkkien avulla.Kyberturvallisuuskeskus on keskustellut pankkien ja viranomaisten kanssa siitä, ettei tekstiviesteihin tule laittaa linkkejä.– Jos pitää asioida pankin tai vaikka verottajan palveluissa, niin kannattaa käyttää suoraan pankin omaa verkkopankkisovellusta tai mennä erikseen verottajan sivulle oman kirjanmerkin kautta, Tretjakov neuvoo.Katso myös:Verkkohuijauksia koskevat yhteydenotot pankkineuvontaa tarjoavaan Fineen ovat lisääntyneet räjähdysmäisesti.</t>
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
+    <row r="156">
+      <c r="A156" t="n">
         <v>58</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Katso grafiikoista, miten Suomen ja Ruotsin sotilaallinen voima eroaa</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://yle.fi/a/74-20076173</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>26.02.2024</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suomi voittaa Ruotsin henkilöstön ja maavoimien kaluston määrässä.  Ruotsilla sotilasteknologia on joiltain osin korkeampaa laatua. </t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Ruotsin pitkään jatkunut Nato-jäsenyyden odottelu päättyi tänään maanantaina, kun Unkarin parlamentti hyväksyi maan jäsenyyden.Ruotsista tulee sotilasliiton 32. jäsen.Suomen tavoin länsinaapurimme on toivottu lisä Natoon, ja se vahvistaa liittouman puolustusta etenkin Pohjolassa.Mutta miten Ruotsin ja Suomen puolustusvoimat eroavat toisistaan?Kokosimme keskeisimmät luvut grafiikoihin.Niistä ensimmäinen näyttää puolustusvoimien väliset henkilöstöerot.
+Ruotsin maanpuolustuskorkeakoulun sotastrategian opettaja Joakim Paasikivi vahvistaa sen, minkä yllä olevasta grafiikasta jo voi päätellä:Suomen puolustusvoimat ja ennen kaikkea maavoimat ovat Ruotsia huomattavasti suuremmat.– Molemmat maat ovat teknologisesti erittäin edistyneitä. Keskeisin ero liittyy siihen, että Suomi ei ole leikannut määrää, Paasikivi sanoo.Toisin kuin Ruotsissa ja monissa muissa Länsi-Euroopan maissa, Suomessa ei Neuvostoliiton hajoamisen jälkeen pienennetty asevoimia merkittävästi.Tämä näkyy niin kaluston kuin henkilöstönkin määrässä.Kun Suomessa reserviläisiä on 870 000, Ruotsissa reserviläisiä vastaavien kodinturvajoukkojen vahvuus vain on kymmeniä tuhansia. Suomen sodanajan joukkojen vahvuus on niin ikään moninkertainen Ruotsiin verrattuna.Kokoeroa selittää se, että Suomen puolustusvoimat on koko ajan nojannut yleiseen asevelvollisuuteen. Ruotsissa yleinen asevelvollisuus oli pitkään poissa käytöstä, eikä pakollinen asevelvollisuus vieläkään kosketa yhtä suurta osaa ikäluokasta kuin Suomessa.Kalustossa erot tulevat puolestaan näkyviin, kun katsoo maavoimia ja etenkin tykistöä.Suomella tykkejä ja raskaita kranaatinheittimiä on eurooppalaisittain valtavasti, yli 1 600. Ruotsin puolustusvoimista ei kerrottu tarkkaa tykistölukua Ylelle, mutta eri avointen lähteiden mukaan niitä on joitakin satoja. Grafiikassa on käytetty armedforces.eu -sivuston arviota.Alla olevasta grafiikasta voit tarkastella joitakin puolustusvoimien välisiä kalustoeroja.
+Ruotsin vahvuudet ovat Paasikiven mukaan laadukkaassa omassa sotilasteknologiassa.Paasikivi mainitsee esimerkiksi sukellusveneet, jotka ovat ruotsalaisen puolustusteollisuuden erityisala.Suomella sukellusveneitä ei ole lainkaan.Lisäksi Ruotsi valmistaa Gripen E -hävittäjiä, joita Paasikivi kuvaa erinomaisiksi. Ne eivät kuitenkaan teknologista etumatkaa tuo, koska Suomi on ostanut Yhdysvalloista F 35 -hävittäjiä.Paasikiven mukaan Suomen ja Ruotsin väliset laatuerot ovatkin suurelta osin pieniä, ja hän korostaa, että laatu on molemmin puolin korkeaa.– Se mitä meillä on, on hyvää, mutta sitä on liian vähän, Paasikivi tiivistää Ruotsin tilanteen.Puolustusbudjetit kovassa kasvussaSekä Suomi että Ruotsi ovat viime vuosina kasvattaneet puolustusbudjettejaan reippaasti, ja ne ovat päässeet Naton asettamaan tavoitteeseen.Tavoitteen mukaan jäsenmaiden tulee käyttää vähintään kaksi prosenttia bruttokansantuotteesta puolustusmenoihin.Erityisesti Ruotsissa menojen lisäys on ollut viime vuosina huimaa. Budjetti on lähes kaksinkertaistunut vuodesta 2020.Katso alta, miten paljon rahaa Suomi ja Ruotsi ovat käyttäneet sotilasmenoihin.
+Suurempi puolustusbudjetti ei kuitenkaan heti nosta Ruotsin puolustusvoimien kyvykkyyttä merkittävästi.– Tällä hetkellä sotatarvikkeet ovat kalliita ja hinnat nousevat, mikä vaikeuttaa kaluston määrän kasvattamista. Myös joukkojen kouluttaminen vie paljon aikaa, Paasikivi selittää.Onko Suomi sitten pienemmästä budjetista huolimatta edelleen sotilaallisesti vahvempi kuin Ruotsi?– Kyllä on. Aika vaikea sitä on käydä kiistämään, Paasikivi vastaa.Hän perustelee kantaansa ennen kaikkea Suomen kaluston ja joukkojen suuremmalla määrällä.– Määrä tarkoittaa myös kyvykkyyttä.Paasikivi huomauttaa kuitenkin, että Suomen ja Ruotsin välistä vertailua tärkeämpää on maiden välinen yhteistyö, ja sen tuomat hyödyt.Yksi hyödyistä on maantieteellinen. Ruotsin jäsenyyden seurauksena kaikki Itämeren maat Venäjää lukuun ottamatta kuuluvat Natoon.– Sen ansiosta voimme auttaa Suomen ja muiden Itämeren maiden laivastoa turvaamaan merenkulkua Itämerellä. Lisäksi Ruotsi voisi toimia eräänlaisena pohjoisen logistisena tukikohtana, Paasikivi sanoo.Siitä on suuri hyöty Suomenkin huoltovarmuudelle.Lisäksi koko Pohjola hyötyy Ruotsin sotilasteknisestä erityisosaamisesta, Paasikivi toteaa. Myös Pohjolan puolustuksen yhteinen suunnittelu ja koordinointi helpottuvat jäsenyyden myötä.Katso alta, miten Vaasan rannikkopataljoonan komentaja Atte Löytönen kommentoi ruotsalaisten ja suomalaisten joukkojen yhteistyötä viime huhtikuussa.Atte Löytönen kommentoi yhteistyötä viime huhtikuussa Aurora-sotaharjoituksen yhteydessä Tukholmassa. Suomalaiset osallistuivat silloin ensimmäistä kertaa Nato-maan sotilaina sotaharjoitukseen Ruotsissa.Juttua täsmennetty 27.2.2024 klo 16:24. Tarkennettu, että Grippen E hävittäjät eivät tuo teknologista etumatkaa, kun aiemmin jutussa luki, että etumatka kuroutuu umpeen. Lisäksi tarkennettu, että Suomi ei ole pienentänyt asevoimiaan merkittävästi Neuvostoliiton hajoamisen jälkeen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>58</v>
+      </c>
+      <c r="B157" t="inlineStr">
         <is>
           <t>Onko lumen määrä aiheuttanut harmaita hiuksia tänä talvena? Kerro meille, teemme juttua</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076139</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>24.02.2024</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
         <is>
           <t xml:space="preserve">Teemme juttua lumimääristä. Keräämme juttua varten kokemuksia lumitöistä ja naapurisovusta. </t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t xml:space="preserve">Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Lunta tulee joka talvi. Nyt sitä kuitenkin tuntuu paikoitellen tulleen paljonkin.Tällä hetkellä Kainuu on Suomen lumisimpia paikkoja, kun Ristijärvellä lunta Ilmatieteen laitoksen mittausasemalla Mustavaarassa on 115 senttimetriä ja Puolangalla lunta on 114 senttimetriä. Yli metriin on päästy muun muassa myös Kittilässä.Vähiten lunta on Varsinais-Suomessa ja Ahvenanmaalla.Teemme juttuja lumimääristä, ja nyt haluaisimme kuulla miten sinä olet pärjännyt lumen kanssa? Mahtuuko kaikki satanut lumi omalle pihalle vai meinaako tila loppua kesken? Kerro meille kokemuksistasi alla olevalla lomakkeella 27. helmikuuta kello 23 mennessä. Lomakkeen kautta voit myös kertoa, mikäli sinua voisi haastatella aiheesta laajemmin. 
 </t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
+    <row r="158">
+      <c r="A158" t="n">
         <v>65</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>Ponti­kankeitto on kansan­pe­rinteenä kadonnutta, mutta poliisi törmää koti­polt­toiseen edelleen kymmeniä kertoja vuodessa</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20075803</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>23.02.2024</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
         <is>
           <t>Eläkkeellä oleva poliisi muistelee pontikankeittäjiä lämmöllä, mutta harmittelee hyvien välineiden tuhoamista</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>50 vuotta sitten suomalainen maaseutu oli hyvin toisennäköinen kuin nyt. Muuttoliike kaupunkeihin oli alkanut, mutta maaseudulla asui paljon väkeä: maaseutukuntien väkiluku oli nykyiseen verrattuna kaksinkertainen.Seutuja kierteli myös poliisi. Juvalainen Jukka Kietäväinen ehti uransa aikana olla monessa mukana, muun muassa takavarikoimassa lukuisia pontikkatehtaita.Viinanpolttajat löydettiin lähinnä ilmiantojen perusteella. Usein käräyttäjä löytyi lähipiiristä, kun kesän heinäsato oli vaarassa jäädä pontikan nauttimisen tuoksinassa tekemättä.Kotipolttoiselle oli syynsä. Pitkät välimatkat, huonot kulkuyhteydet, Alkon harva myymäläverkko ja alkoholin hintakin kannustivat monia pois kaidalta polulta.Vielä 1970-luvulla poliisi tilastoi pontikankeittoa eli laitonta alkoholin valmistusta vuosittain. Tuolloin epäiltyjä rikoksia tuli ilmi noin 500 vuodessa.Sittemmin toiminta alkoi hiipua.Avaa kuvien katseluEntinen pontikkatehdas Toivakassa Keski-Suomessa. Kuva on vuodelta 2010. Kuva: Riikka Mustonen / Lusto - Suomen metsämuseoAlkoholitutkimussäätiön tutkimuspäällikkö Tomi Lintonen arvioi, että pontikan keitto hiipui elintason nousun ja oluen suosion kasvun myötä.– Laiton pontikan keitto on ymmärtääkseni jäänyt pääosin viime vuosituhannelle; alkoholitutkimus ei ole kotipolttoon huomiota kiinnittänyt useampaan kymmeneen vuoteen.Yksittäistapauksia poliisin tietoon tulee silti edelleen. Poliisihallituksen poliisitarkastaja Jyrki Ahon mukaan toissa vuonna pontikka nousi rikostutkinnassa esille 46 tapauksessa, viime vuonna muutamassa vähemmän.– Tänäkin vuonna on jo muutama tapaus. Aihekirjo, jossa pontikka nousee esille, on laaja. Se voi olla rikospaikkatutkintaa tai kuolemansyyntutkintaa tai pahoinpitelytapauksia, joissa henkilöt kertovat juoneensa pontikkaa.Jyrki Ahon mukaan tapaukset osoittavat, että pontikkaa edelleen jossakin määrin valmistetaan ja välitetään.– Myös ilmiantoja tulee edelleen. Kyseessä on rikos, josta seuraa sakkoja tai enimmillään kaksi vuotta vankeutta.Eläkeläispoliisi muistelee haikeudella pontikan keittäjiäJukka Kietäväinen kertoo Petri Virosen haastattelusta milliaisiin kohtaamisiin hän joutui pontikkakeikoillaan.Kulta-ajat sodan jälkeenPontikan keittäminen on menetelmänä tunnettu ainakin 2000 vuotta. Suomessa kotipolttoista on valmistettu 1500-luvulta lähtien.Suomalaisen pontikan kulta-aika ajoittui kieltolain ajalle ja sotien jälkeisiin vuosiin. Sodan jälkeen Alkon aloitteesta Suomessa julistettiin pontikkasota.Arviolta Suomessa toimi tuolloin jopa 12 000 pontikkatehdasta.Pontikan valmistukseen arvioitiin kuluneen huippuvuosina jopa 100 000 kuutiota koivuhalkoja, 3,5 miljoonaa kiloa leipäviljaa.Eniten pontikkapannuja porisi Turun ja Porin lääneissä sekä Vaasan ja Mikkelin lääneissä. Yksittäisistä pitäjistä nousi esille Kitee, jossa valmistui huippuvuonna jopa 10 prosenttia koko Suomen pontikkatuotannosta.Laiton toiminta alkoi siitä pikkuhiljaa hiipua. Kun poliisin tietoon vielä 1950-luvun alkupuolella tuli noin 1 500 laittoman alkoholijuoman valmistusepäilyä, oli määrä 20 vuotta myöhemmin enää vajaat 400.Avaa kuvien katseluTämä pontikkatehdas takavarikoitiin Nurmeksessa 1950-luvun lopulla. Kuva: Teuvo Huotari / Nurmeksen museoNestori Miikkulaisen esikuva keittiVielä 1970-luvulla korpikuusen kyyneltä valutettiin melko yleisesti. Esimerkiksi Puumalan Lintusalosta asuneen Nestori Reposen tiedetään tiputelleen pontikkaa.Reponen on Juha Vainion tunnetuksi tekemän Nestori Miikkulaisen esikuva.Nestori Miikkulaisen henki elää Lintusalossa2010Kerran Reponen oli lähellä kärähtää, kun poliisivene kurvasi pullotusvaiheessa laituriin. Nokkela saaren asukas selvisi tilanteesta viemässä poliiseille kannun, johon oli kirjoitettu nimismiehen etunimi.Saimaan saaristo oli herkästi päivän matka pitkäripaiseen. Myös poliisilla oli pitkä ja etenkin rospuuttoaikaan mahdoton vesimatka ratsaamaan mahdollisia pontikankeittäjiä.– 70-luvun alussa se oli vielä hyvin yleistä. Joka vuosi niitä käräytettiin ja välineitä takavarikoitiin, eläkkeellä reilut 10 vuotta ollut Jukka Kietäväinen muistelee.Lisää: Pontikkaa keiteltiin 1970-luvulla jopa kerrostaloissa.Kietäväinen aloitti poliisina Sulkavalla ja työskenteli Etelä–Savossa vuosikymmeniä. Hän arvioi, että vähintään vuosittain pontikan keittovälineitä takavarikoitiin.– Ei niitä jahdattu pitkin metsiä, vaan meille ilmoitettiin epäilyksistä. Usein naisväki hermostui, kun kylän miehet istuskelivat pontikkapannun äärellä ja navetta- ja heinätyöt tai viljan puinti uhkasi jäädä tekemättä, Kietäväinen muistelee.Poliisi hankkiutui vihjeen perusteella paikalle ja takavarikoi rikosvälineet.– Ja meidänhän oli mentävä. Ei siinä mikään auttanut, kun ilmoitus oli tehty. Pannut vietiin juvalaisen autokorjaamon isoon puristimeen, jolla ne litistettiin.Laitteet paranivat kerta kerraltaKorpikuusen kyyneleitä valuttivat usein samat poliisin vanhat tutut. Sinitakkien ilmestyminen paikalle oli harvoin yllätys.– Ei siinä minkäänlaista riitaa syntynyt. Me teimme oman työmme ja he omansa tietäen millainen riski siihen liittyy.Lisää: Kotipolttpoista pontikkaa 60-luvulla.Myös metsien miesten osaaminen kehittyi vuosien mittaan.– Eräs heistä oli erittäin kätevä käsistään ja rakensi laitteet rosterista. Lisäksi hän viritti mittariston, joka väreillä ilmaisi juoman valmiusasteen. Tuskin Suomessa parempia oli.Kietäväinen käväisi välillä työkomennuksella toisessa pitkien välimatkojen maakunnassa Kainuussa. Pikkuhiljaa pontikan keitto väheni – tai ainakin katosi poliisin tutkasta.– Se siirtyi keittiöihin ja varmasti sitä keitetään edelleen. Harmi, että tuhosimme silloiset välineet. Olisi pitänyt säästää osa jälkipolvien nähtäväksi vaikka museoon. Ja olisi niille näin eläkeläisenä muutakin käyttöä keksinyt.</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
+    <row r="159">
+      <c r="A159" t="n">
         <v>66</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>Perhe löysi kananmunasta kahdek­san­sent­tisen madon – nyt 3-vuotias huutaa, että kananmuna hyökkää</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076012</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>23.02.2024</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
         <is>
           <t>Vaasalaisperheen ällöttävä löytö osoittautui ascaridia galliksi, joka on kanan loinen ja yleinen etenkin lattiakanaloissa. Ruokaviraston mukaan suolinkainen ei tartu ihmiseen.</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>Vaasalaisperheen 16-vuotias tytär oli tekemässä muutama päivä sitten itselleen munakasta ja otti munakennosta kaksi munaa rikottavaksi.Ensimmäinen oli täysin normaali. Toisen munan seassa kulhossa näkyi ruskehtava, ohut juova, joka alkoi liikkua. ”Juova” osoittautui noin kahdeksan senttimetrin mittaiseksi eläväksi madoksi.Tytär epäili ensin, että liero oli liikkunut vain kulhon heilahduksen voimasta, mutta se jatkoi liikkumista myös pöydälle nostamisen jälkeen.Löytöä olivat todistamassa nuoremmat sisarukset ja isäpuoli. Asioilla ollut perheen äiti Janina Peräsalo sai kännykäänsä järkyttyneeltä tyttäreltä puhelun ja kuvia madosta.– Lapset varmistavat nyt koko ajan kaikesta, mitä syödään, että eihän ole kananmunaa. 3-vuotias näkee painajaisia ja huutaa, että kananmuna hyökkää, Peräsalo kertoo.Keittiötasolle kipattu mato pääsi hengestään ja vedettiin vessasta alas.Pahoittelut ja rauhoittelut kaupaltaJanina Peräsalo otti yhteyttä S-ryhmään, sillä munakenno on Kotimaista-tuotesarjaa. Hän halusi tietää, mistä kanalasta munat olivat peräisin, jotta olisi voinut olla suoraan yhteydessä munantuottajaan. Kennosta ei selvinnyt kuin pakkauspaikat eli Kaarina ja Närpiö.Peräsalo kertoo, että yhteydenotto S-ryhmään poiki pahoittelut ja tiedon lierosta.Kyseessä on ascaridia galli, joka on suolinkainen, kanan loinen. Palautteessa rauhoiteltiin, ettei loinen ole ihmiselle eikä kanallekaan vaarallinen. Hyvitykseksi Peräsalolle luvattiin kymmenen euroa tilille.Kuluttajapalvelu lupasi myös ilmoittaa asiasta laatuosastolle ja tuotteen toimittajalle. Yle on nähnyt S-ryhmän perheelle lähettämän palautesähköpostin.Peräsalo on hyvillään, että kauppaketjusta pahoiteltiin asiaa, mutta harmistunut, että hänen kysymyksensä tilan yhteystiedoista sivuutettiin. Hän olisi halunnut keskustella suoraan munantuottajan kanssa.Yksittäisiä tapauksiaS-ryhmästä kerrotaan, että heille tulee tietoon yksittäisiä suolinkaistapauksia vuodessa.– Myytyjen kananmunien määriin verattuna tämä on todella harvinaista, sanoo laadunvarmistuksesta ja vastuullisuudesta vastaava ryhmäpäällikkö Sari Ristaniemi.Hän pahoittelee, että he eivät havainneet asiakkaan kaipaavan lisätietoja tuotantoketjusta. Kananmunan jäljitettävyystiedot eli kanala, tuotantotapa, pakkaamo ja päiväykset selviävät esimerkiksi sen leimasta.Kennossa on myös kuluttajayhteydenottoja varten verkko-osoite.– Asiakas oli poiminut kennossa ja kananmunaleimassa esitetyt tiedot esimerkillisen tarkkaan palautelomakkeeseen, mikä nopeuttaa ja helpottaa virheen selvittämistä pakkaamon kanssa, kiittelee Ristaniemi.Ruokaviraston jaostopäällikkö Pia Vennerstörm haluaa myös lähettää Peräsalolle terveisiä:– Koska loisen sisältävä muna on päässyt pakkaamon läpivalaistuksesta läpi, tieto menee aivan varmasti sekä pakkaamoon että tilalle.Läpivalaisusta läpiRuokavirasto saa vuosittain kuluttajilta kymmenkunta ilmoitusta kananmunasta löytyneestä suolinkaisesta.Ascaridia galli -suolinkainen on erittäin yleinen loinen erityisesti lattiakanaloissa.– Varsinkin ulkona olevilla kanoilla loisia voi esiintyä vielä enemmän, Vennerström kertoo.Täysikasvuiset suolinkaiset elävät siipikarjan ohutsuolessa. Suolinkaisen munat leviävät ulosteiden mukana.Suolinkainen löytää tiensä kananmunan sisälle, jos se päätyy kanan yhteissuolen kautta munanjohtimeen, missä munankuori on valmistumassa.Kanan suolinkainen ei tartu ihmiseen, mutta elintarvikkeissa niitä ei saa esiintyä. Kananmunat läpivalaistaan munapakkaamoissa, jolloin munassa oleva mato yleensä havaitaan ja muna hävitetään.Ruokaviraston mukaan loistartunnan hävittäminen kanaloista on haastavaa, koska loisen erittämät munat ovat erittäin kestäviä ja säilyvät tartuntakykyisinä ympäristössä pitkään.Kuivikepohja on tärkeää pitää kuivana ja lievissä suolinkaistartunnoissa tämä saattaa riittää. Runsaammissa tartunnoissa madon munien määrää voidaan vähentää lisäämällä uutta kuiviketta tai poistamalla vanhaa ja korvaamalla se uudella.”Ei ikinä enää mitään, missä on kananmunaa”Peräsalon perheen kananmunakennossa on vielä munia jäljellä. Ruokaan ne eivät kuitenkaan enää päädy.– Madon löytänyt tytär sanoi, ettei ikinä enää syö mitään, missä on kananmunaa. Saa nähdä, kauanko itsellä menee, Peräsalo miettii.Kymmenhenkinen suurperhe on ollut kananmunien suurkuluttaja, sillä perheessä leivotaan ja tehdään ruokaa paljon. Elävän madon löytyminen kananmunasta oli kuitenkin niin ällöttävää, että se vei turvallisuuden tunteen.– Olen luottanut, että suomalainen ruoka on niin valvottua, ettei tarvitse pelätä, että eksyisi tuollainen ällötys.</t>
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
+    <row r="160">
+      <c r="A160" t="n">
         <v>67</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>Millaisia kokemuksia sinulla on etähoidosta? Kerro Ylelle, teemme juttua</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>https://yle.fi/a/74-20076223</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D160" t="inlineStr">
         <is>
           <t>23.02.2024</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>YLE</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>YLE</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
         <is>
           <t>Moni tapaa nykyään hoitavan lääkärin tai sairaanhoitajan etäyhteyksien kautta.</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t xml:space="preserve">Osa artikkelin sisällöstä ei ole välttämättä saavutettavissa esimerkiksi ruudunlukuohjelmalla.Terveydenhuollon suureen hoitokuormaan on etsitty helpotusta potilaiden etävastaanotoilta: yhä useampi potilas tapaa hoitavan lääkärin tai sairaanhoitajan etäyhteyden välityksellä.Etähoidosta on toivottu ratkaisua terveyskeskusten pitkiin jonoihin.Keräämme potilaiden kokemuksia etähoidosta. Millaiseksi olet sen kokenut? Olisitko kaivannut lääkärin tapaamista kasvotusten vai oletko ollut tyytyväinen etänä saatuun hoitoon? Onko terveyskeskuksessasi priorisoitu etänä yhteyttä ottavat potilaat?Voit kertoa kokemuksesi alla olevalla lomakkeella. 
 </t>
